--- a/topdown.xlsx
+++ b/topdown.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="183">
   <si>
     <t>GENERALIDADES</t>
   </si>
@@ -562,31 +562,16 @@
     <t>La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.</t>
   </si>
   <si>
-    <t>cod_curso</t>
-  </si>
-  <si>
-    <t>prerequisito</t>
-  </si>
-  <si>
-    <t>creditos</t>
-  </si>
-  <si>
-    <t>horas</t>
-  </si>
-  <si>
-    <t>semestre</t>
-  </si>
-  <si>
-    <t>ciclo</t>
-  </si>
-  <si>
-    <t>concepto</t>
-  </si>
-  <si>
-    <t>procedimiento</t>
-  </si>
-  <si>
-    <t>actividad</t>
+    <t>reg</t>
+  </si>
+  <si>
+    <t>subtipo</t>
+  </si>
+  <si>
+    <t>estrategias</t>
+  </si>
+  <si>
+    <t>bibliografias</t>
   </si>
 </sst>
 </file>
@@ -636,7 +621,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -671,6 +656,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1522,51 +1510,51 @@
       <c r="B35" t="s">
         <v>64</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="E35" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="16" t="s">
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
     </row>
     <row r="36" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="17" t="s">
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
     </row>
     <row r="37" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
     </row>
     <row r="38" spans="1:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39">
@@ -1577,21 +1565,21 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14" t="s">
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="17" t="s">
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
     </row>
     <row r="41" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41">
@@ -1606,31 +1594,31 @@
       <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14" t="s">
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14" t="s">
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
     </row>
     <row r="43" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
       <c r="H43" t="s">
         <v>78</v>
       </c>
@@ -1644,11 +1632,11 @@
       <c r="B44" t="s">
         <v>79</v>
       </c>
-      <c r="E44" s="14" t="s">
+      <c r="E44" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
       <c r="H44" t="s">
         <v>86</v>
       </c>
@@ -1657,9 +1645,9 @@
       <c r="B45" t="s">
         <v>80</v>
       </c>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
       <c r="H45" t="s">
         <v>69</v>
       </c>
@@ -1668,9 +1656,9 @@
       <c r="B46" t="s">
         <v>81</v>
       </c>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
       <c r="H46" t="s">
         <v>78</v>
       </c>
@@ -1679,37 +1667,37 @@
       <c r="B47" t="s">
         <v>82</v>
       </c>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>83</v>
       </c>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>84</v>
       </c>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51">
@@ -1989,10 +1977,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L65"/>
+  <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2005,13 +1993,14 @@
     <col min="6" max="6" width="6.08984375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.1796875" style="7" customWidth="1"/>
     <col min="8" max="8" width="9" style="7" customWidth="1"/>
-    <col min="9" max="9" width="9" style="12" customWidth="1"/>
-    <col min="10" max="10" width="28.1796875" style="7" customWidth="1"/>
-    <col min="11" max="11" width="10.90625" style="2"/>
-    <col min="12" max="12" width="10.90625" style="10"/>
+    <col min="9" max="9" width="9" style="14" customWidth="1"/>
+    <col min="10" max="10" width="9" style="12" customWidth="1"/>
+    <col min="11" max="11" width="28.1796875" style="7" customWidth="1"/>
+    <col min="12" max="12" width="10.90625" style="2"/>
+    <col min="13" max="13" width="10.90625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -2036,11 +2025,14 @@
       <c r="H1" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="I1" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I1" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>152</v>
       </c>
@@ -2066,23 +2058,23 @@
         <f t="shared" ref="H2:H33" si="0">IF(B1=B2,1,C2)</f>
         <v>1</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="7" t="str">
-        <f>+"{ '"&amp;B$1&amp;"' :"&amp;B2&amp;", '"&amp;C$1&amp;"': "&amp;C2&amp;", '"&amp;D$1&amp;"': "&amp;D2&amp;", '"&amp;E$1&amp;"': "&amp;E2&amp;", '"&amp;F$1&amp;"': '"&amp;F2&amp;"', '"&amp;G$1&amp;"': '"&amp;G2&amp;"', '"&amp;H$1&amp;"':"&amp;H2&amp;"}, "</f>
-        <v xml:space="preserve">{ 'row' :1, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'center', 'texto': 'CONTABILIDAD GERENCIAL', 'offset':1}, </v>
-      </c>
-      <c r="K2" s="2" t="str">
-        <f t="shared" ref="K2:K33" si="1">IF(B1=B2,CONCATENATE(K1,J2),J2)</f>
-        <v xml:space="preserve">{ 'row' :1, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'center', 'texto': 'CONTABILIDAD GERENCIAL', 'offset':1}, </v>
-      </c>
-      <c r="L2" s="11" t="str">
-        <f>IF(B2=B3,"","{'tipo': '"&amp;A2&amp;"', 'data': "&amp;"["&amp;K2&amp;"],  },")</f>
-        <v>{'tipo': 'titulo0', 'data': [{ 'row' :1, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'center', 'texto': 'CONTABILIDAD GERENCIAL', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I2" s="14">
+        <v>11</v>
+      </c>
+      <c r="K2" s="7" t="str">
+        <f>+"{ '"&amp;I$1&amp;"': "&amp;I2&amp;", '"&amp;J$1&amp;"': '"&amp;J2&amp;"', '"&amp;B$1&amp;"' :"&amp;B2&amp;", '"&amp;C$1&amp;"': "&amp;C2&amp;", '"&amp;D$1&amp;"': "&amp;D2&amp;", '"&amp;E$1&amp;"': "&amp;E2&amp;", '"&amp;F$1&amp;"': '"&amp;F2&amp;"', '"&amp;G$1&amp;"': '"&amp;G2&amp;"', '"&amp;H$1&amp;"':"&amp;H2&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 11, 'subtipo': '', 'row' :1, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'center', 'texto': 'CONTABILIDAD GERENCIAL', 'offset':1}, </v>
+      </c>
+      <c r="L2" s="2" t="str">
+        <f t="shared" ref="L2:L33" si="1">IF(B1=B2,CONCATENATE(L1,K2),K2)</f>
+        <v xml:space="preserve">{ 'reg': 11, 'subtipo': '', 'row' :1, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'center', 'texto': 'CONTABILIDAD GERENCIAL', 'offset':1}, </v>
+      </c>
+      <c r="M2" s="11" t="str">
+        <f>IF(B2=B3,"","{'tipo': '"&amp;A2&amp;"', 'data': "&amp;"["&amp;L2&amp;"],  },")</f>
+        <v>{'tipo': 'titulo0', 'data': [{ 'reg': 11, 'subtipo': '', 'row' :1, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'center', 'texto': 'CONTABILIDAD GERENCIAL', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>151</v>
       </c>
@@ -2108,23 +2100,26 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I3" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="12" t="str">
-        <f t="shared" ref="J3:J65" si="2">+"{ '"&amp;B$1&amp;"' :"&amp;B3&amp;", '"&amp;C$1&amp;"': "&amp;C3&amp;", '"&amp;D$1&amp;"': "&amp;D3&amp;", '"&amp;E$1&amp;"': "&amp;E3&amp;", '"&amp;F$1&amp;"': '"&amp;F3&amp;"', '"&amp;G$1&amp;"': '"&amp;G3&amp;"', '"&amp;H$1&amp;"':"&amp;H3&amp;"}, "</f>
-        <v xml:space="preserve">{ 'row' :2, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'I. DATOS GENERALES', 'offset':1}, </v>
-      </c>
-      <c r="K3" s="2" t="str">
+      <c r="I3" s="14">
+        <v>21</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="14" t="str">
+        <f t="shared" ref="K3:K65" si="2">+"{ '"&amp;I$1&amp;"': "&amp;I3&amp;", '"&amp;J$1&amp;"': '"&amp;J3&amp;"', '"&amp;B$1&amp;"' :"&amp;B3&amp;", '"&amp;C$1&amp;"': "&amp;C3&amp;", '"&amp;D$1&amp;"': "&amp;D3&amp;", '"&amp;E$1&amp;"': "&amp;E3&amp;", '"&amp;F$1&amp;"': '"&amp;F3&amp;"', '"&amp;G$1&amp;"': '"&amp;G3&amp;"', '"&amp;H$1&amp;"':"&amp;H3&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 21, 'subtipo': 'generales', 'row' :2, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'I. DATOS GENERALES', 'offset':1}, </v>
+      </c>
+      <c r="L3" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'row' :2, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'I. DATOS GENERALES', 'offset':1}, </v>
-      </c>
-      <c r="L3" s="11" t="str">
-        <f t="shared" ref="L3:L65" si="3">IF(B3=B4,"","{'tipo': '"&amp;A3&amp;"', 'data': "&amp;"["&amp;K3&amp;"],  },")</f>
-        <v>{'tipo': 'titulo1', 'data': [{ 'row' :2, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'I. DATOS GENERALES', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">{ 'reg': 21, 'subtipo': 'generales', 'row' :2, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'I. DATOS GENERALES', 'offset':1}, </v>
+      </c>
+      <c r="M3" s="11" t="str">
+        <f t="shared" ref="M3:M65" si="3">IF(B3=B4,"","{'tipo': '"&amp;A3&amp;"', 'data': "&amp;"["&amp;L3&amp;"],  },")</f>
+        <v>{'tipo': 'titulo1', 'data': [{ 'reg': 21, 'subtipo': 'generales', 'row' :2, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'I. DATOS GENERALES', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
@@ -2150,23 +2145,23 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I4" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'row' :3, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Código:', 'offset':2}, </v>
-      </c>
-      <c r="K4" s="2" t="str">
+      <c r="I4" s="14">
+        <v>35</v>
+      </c>
+      <c r="K4" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ 'reg': 35, 'subtipo': '', 'row' :3, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Código:', 'offset':2}, </v>
+      </c>
+      <c r="L4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'row' :3, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Código:', 'offset':2}, </v>
-      </c>
-      <c r="L4" s="11" t="str">
+        <v xml:space="preserve">{ 'reg': 35, 'subtipo': '', 'row' :3, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Código:', 'offset':2}, </v>
+      </c>
+      <c r="M4" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
@@ -2192,23 +2187,23 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I5" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="J5" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'row' :3, 'col': 3, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': '100048', 'offset':1}, </v>
-      </c>
-      <c r="K5" s="2" t="str">
+      <c r="I5" s="14">
+        <v>85</v>
+      </c>
+      <c r="K5" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ 'reg': 85, 'subtipo': '', 'row' :3, 'col': 3, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': '100048', 'offset':1}, </v>
+      </c>
+      <c r="L5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'row' :3, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Código:', 'offset':2}, { 'row' :3, 'col': 3, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': '100048', 'offset':1}, </v>
-      </c>
-      <c r="L5" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'generales', 'data': [{ 'row' :3, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Código:', 'offset':2}, { 'row' :3, 'col': 3, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': '100048', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">{ 'reg': 35, 'subtipo': '', 'row' :3, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Código:', 'offset':2}, { 'reg': 85, 'subtipo': '', 'row' :3, 'col': 3, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': '100048', 'offset':1}, </v>
+      </c>
+      <c r="M5" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'tipo': 'generales', 'data': [{ 'reg': 35, 'subtipo': '', 'row' :3, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Código:', 'offset':2}, { 'reg': 85, 'subtipo': '', 'row' :3, 'col': 3, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': '100048', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -2234,23 +2229,23 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'row' :4, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Pre‐ Requisito :', 'offset':2}, </v>
-      </c>
-      <c r="K6" s="2" t="str">
+      <c r="I6" s="14">
+        <v>130</v>
+      </c>
+      <c r="K6" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ 'reg': 130, 'subtipo': '', 'row' :4, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Pre‐ Requisito :', 'offset':2}, </v>
+      </c>
+      <c r="L6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'row' :4, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Pre‐ Requisito :', 'offset':2}, </v>
-      </c>
-      <c r="L6" s="11" t="str">
+        <v xml:space="preserve">{ 'reg': 130, 'subtipo': '', 'row' :4, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Pre‐ Requisito :', 'offset':2}, </v>
+      </c>
+      <c r="M6" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -2276,23 +2271,23 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I7" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="J7" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'row' :4, 'col': 3, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Contabilidad General', 'offset':1}, </v>
-      </c>
-      <c r="K7" s="2" t="str">
+      <c r="I7" s="14">
+        <v>7</v>
+      </c>
+      <c r="K7" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ 'reg': 7, 'subtipo': '', 'row' :4, 'col': 3, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Contabilidad General', 'offset':1}, </v>
+      </c>
+      <c r="L7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'row' :4, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Pre‐ Requisito :', 'offset':2}, { 'row' :4, 'col': 3, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Contabilidad General', 'offset':1}, </v>
-      </c>
-      <c r="L7" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'generales', 'data': [{ 'row' :4, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Pre‐ Requisito :', 'offset':2}, { 'row' :4, 'col': 3, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Contabilidad General', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">{ 'reg': 130, 'subtipo': '', 'row' :4, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Pre‐ Requisito :', 'offset':2}, { 'reg': 7, 'subtipo': '', 'row' :4, 'col': 3, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Contabilidad General', 'offset':1}, </v>
+      </c>
+      <c r="M7" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'tipo': 'generales', 'data': [{ 'reg': 130, 'subtipo': '', 'row' :4, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Pre‐ Requisito :', 'offset':2}, { 'reg': 7, 'subtipo': '', 'row' :4, 'col': 3, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Contabilidad General', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -2318,23 +2313,23 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I8" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'row' :5, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Créditos : ', 'offset':2}, </v>
-      </c>
-      <c r="K8" s="2" t="str">
+      <c r="I8" s="14">
+        <v>109</v>
+      </c>
+      <c r="K8" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ 'reg': 109, 'subtipo': '', 'row' :5, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Créditos : ', 'offset':2}, </v>
+      </c>
+      <c r="L8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'row' :5, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Créditos : ', 'offset':2}, </v>
-      </c>
-      <c r="L8" s="11" t="str">
+        <v xml:space="preserve">{ 'reg': 109, 'subtipo': '', 'row' :5, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Créditos : ', 'offset':2}, </v>
+      </c>
+      <c r="M8" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -2360,23 +2355,23 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I9" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="J9" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'row' :5, 'col': 3, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': '03', 'offset':1}, </v>
-      </c>
-      <c r="K9" s="2" t="str">
+      <c r="I9" s="14">
+        <v>13</v>
+      </c>
+      <c r="K9" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ 'reg': 13, 'subtipo': '', 'row' :5, 'col': 3, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': '03', 'offset':1}, </v>
+      </c>
+      <c r="L9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'row' :5, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Créditos : ', 'offset':2}, { 'row' :5, 'col': 3, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': '03', 'offset':1}, </v>
-      </c>
-      <c r="L9" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'generales', 'data': [{ 'row' :5, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Créditos : ', 'offset':2}, { 'row' :5, 'col': 3, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': '03', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">{ 'reg': 109, 'subtipo': '', 'row' :5, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Créditos : ', 'offset':2}, { 'reg': 13, 'subtipo': '', 'row' :5, 'col': 3, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': '03', 'offset':1}, </v>
+      </c>
+      <c r="M9" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'tipo': 'generales', 'data': [{ 'reg': 109, 'subtipo': '', 'row' :5, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Créditos : ', 'offset':2}, { 'reg': 13, 'subtipo': '', 'row' :5, 'col': 3, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': '03', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -2402,23 +2397,23 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I10" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'row' :6, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Horas :', 'offset':2}, </v>
-      </c>
-      <c r="K10" s="2" t="str">
+      <c r="I10" s="14">
+        <v>128</v>
+      </c>
+      <c r="K10" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ 'reg': 128, 'subtipo': '', 'row' :6, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Horas :', 'offset':2}, </v>
+      </c>
+      <c r="L10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'row' :6, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Horas :', 'offset':2}, </v>
-      </c>
-      <c r="L10" s="11" t="str">
+        <v xml:space="preserve">{ 'reg': 128, 'subtipo': '', 'row' :6, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Horas :', 'offset':2}, </v>
+      </c>
+      <c r="M10" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -2444,23 +2439,23 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I11" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="J11" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'row' :6, 'col': 3, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': '04 horas', 'offset':1}, </v>
-      </c>
-      <c r="K11" s="2" t="str">
+      <c r="I11" s="14">
+        <v>91</v>
+      </c>
+      <c r="K11" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ 'reg': 91, 'subtipo': '', 'row' :6, 'col': 3, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': '04 horas', 'offset':1}, </v>
+      </c>
+      <c r="L11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'row' :6, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Horas :', 'offset':2}, { 'row' :6, 'col': 3, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': '04 horas', 'offset':1}, </v>
-      </c>
-      <c r="L11" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'generales', 'data': [{ 'row' :6, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Horas :', 'offset':2}, { 'row' :6, 'col': 3, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': '04 horas', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">{ 'reg': 128, 'subtipo': '', 'row' :6, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Horas :', 'offset':2}, { 'reg': 91, 'subtipo': '', 'row' :6, 'col': 3, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': '04 horas', 'offset':1}, </v>
+      </c>
+      <c r="M11" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'tipo': 'generales', 'data': [{ 'reg': 128, 'subtipo': '', 'row' :6, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Horas :', 'offset':2}, { 'reg': 91, 'subtipo': '', 'row' :6, 'col': 3, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': '04 horas', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -2486,23 +2481,23 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I12" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'row' :7, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Semestre académico : ', 'offset':2}, </v>
-      </c>
-      <c r="K12" s="2" t="str">
+      <c r="I12" s="14">
+        <v>24</v>
+      </c>
+      <c r="K12" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ 'reg': 24, 'subtipo': '', 'row' :7, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Semestre académico : ', 'offset':2}, </v>
+      </c>
+      <c r="L12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'row' :7, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Semestre académico : ', 'offset':2}, </v>
-      </c>
-      <c r="L12" s="11" t="str">
+        <v xml:space="preserve">{ 'reg': 24, 'subtipo': '', 'row' :7, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Semestre académico : ', 'offset':2}, </v>
+      </c>
+      <c r="M12" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -2528,23 +2523,23 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I13" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="J13" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'row' :7, 'col': 3, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': '2017‐ I', 'offset':1}, </v>
-      </c>
-      <c r="K13" s="2" t="str">
+      <c r="I13" s="14">
+        <v>86</v>
+      </c>
+      <c r="K13" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ 'reg': 86, 'subtipo': '', 'row' :7, 'col': 3, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': '2017‐ I', 'offset':1}, </v>
+      </c>
+      <c r="L13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'row' :7, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Semestre académico : ', 'offset':2}, { 'row' :7, 'col': 3, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': '2017‐ I', 'offset':1}, </v>
-      </c>
-      <c r="L13" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'generales', 'data': [{ 'row' :7, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Semestre académico : ', 'offset':2}, { 'row' :7, 'col': 3, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': '2017‐ I', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">{ 'reg': 24, 'subtipo': '', 'row' :7, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Semestre académico : ', 'offset':2}, { 'reg': 86, 'subtipo': '', 'row' :7, 'col': 3, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': '2017‐ I', 'offset':1}, </v>
+      </c>
+      <c r="M13" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'tipo': 'generales', 'data': [{ 'reg': 24, 'subtipo': '', 'row' :7, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Semestre académico : ', 'offset':2}, { 'reg': 86, 'subtipo': '', 'row' :7, 'col': 3, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': '2017‐ I', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
@@ -2570,23 +2565,23 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I14" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'row' :8, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Ciclo :', 'offset':2}, </v>
-      </c>
-      <c r="K14" s="2" t="str">
+      <c r="I14" s="14">
+        <v>81</v>
+      </c>
+      <c r="K14" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ 'reg': 81, 'subtipo': '', 'row' :8, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Ciclo :', 'offset':2}, </v>
+      </c>
+      <c r="L14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'row' :8, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Ciclo :', 'offset':2}, </v>
-      </c>
-      <c r="L14" s="11" t="str">
+        <v xml:space="preserve">{ 'reg': 81, 'subtipo': '', 'row' :8, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Ciclo :', 'offset':2}, </v>
+      </c>
+      <c r="M14" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
@@ -2612,23 +2607,23 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I15" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="J15" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'row' :8, 'col': 3, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'III', 'offset':1}, </v>
-      </c>
-      <c r="K15" s="2" t="str">
+      <c r="I15" s="14">
+        <v>103</v>
+      </c>
+      <c r="K15" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ 'reg': 103, 'subtipo': '', 'row' :8, 'col': 3, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'III', 'offset':1}, </v>
+      </c>
+      <c r="L15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'row' :8, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Ciclo :', 'offset':2}, { 'row' :8, 'col': 3, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'III', 'offset':1}, </v>
-      </c>
-      <c r="L15" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'generales', 'data': [{ 'row' :8, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Ciclo :', 'offset':2}, { 'row' :8, 'col': 3, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'III', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">{ 'reg': 81, 'subtipo': '', 'row' :8, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Ciclo :', 'offset':2}, { 'reg': 103, 'subtipo': '', 'row' :8, 'col': 3, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'III', 'offset':1}, </v>
+      </c>
+      <c r="M15" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'tipo': 'generales', 'data': [{ 'reg': 81, 'subtipo': '', 'row' :8, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Ciclo :', 'offset':2}, { 'reg': 103, 'subtipo': '', 'row' :8, 'col': 3, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'III', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>151</v>
       </c>
@@ -2654,23 +2649,26 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I16" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J16" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'row' :9, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'II. SUMILLA', 'offset':1}, </v>
-      </c>
-      <c r="K16" s="2" t="str">
+      <c r="I16" s="14">
+        <v>45</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="K16" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ 'reg': 45, 'subtipo': 'sumillas', 'row' :9, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'II. SUMILLA', 'offset':1}, </v>
+      </c>
+      <c r="L16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'row' :9, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'II. SUMILLA', 'offset':1}, </v>
-      </c>
-      <c r="L16" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'titulo1', 'data': [{ 'row' :9, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'II. SUMILLA', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">{ 'reg': 45, 'subtipo': 'sumillas', 'row' :9, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'II. SUMILLA', 'offset':1}, </v>
+      </c>
+      <c r="M16" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'tipo': 'titulo1', 'data': [{ 'reg': 45, 'subtipo': 'sumillas', 'row' :9, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'II. SUMILLA', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>153</v>
       </c>
@@ -2696,23 +2694,23 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I17" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J17" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'row' :10, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'justify', 'texto': 'El curso tiene como propósito integrar las teorías, las técnicas y las herramientas adquiridas en las materias de contabilidad general y administración que le permita llegar al alumno a desarrollar las habilidades de análisis, integración de la información para la construcción de propuestas y soluciones que llevan al logro de los objetivos de la organización. Se pondrá énfasis en el análisis financiero de los estados financieros y su relación con los costos empresariales.', 'offset':1}, </v>
-      </c>
-      <c r="K17" s="2" t="str">
+      <c r="I17" s="14">
+        <v>36</v>
+      </c>
+      <c r="K17" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ 'reg': 36, 'subtipo': '', 'row' :10, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'justify', 'texto': 'El curso tiene como propósito integrar las teorías, las técnicas y las herramientas adquiridas en las materias de contabilidad general y administración que le permita llegar al alumno a desarrollar las habilidades de análisis, integración de la información para la construcción de propuestas y soluciones que llevan al logro de los objetivos de la organización. Se pondrá énfasis en el análisis financiero de los estados financieros y su relación con los costos empresariales.', 'offset':1}, </v>
+      </c>
+      <c r="L17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'row' :10, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'justify', 'texto': 'El curso tiene como propósito integrar las teorías, las técnicas y las herramientas adquiridas en las materias de contabilidad general y administración que le permita llegar al alumno a desarrollar las habilidades de análisis, integración de la información para la construcción de propuestas y soluciones que llevan al logro de los objetivos de la organización. Se pondrá énfasis en el análisis financiero de los estados financieros y su relación con los costos empresariales.', 'offset':1}, </v>
-      </c>
-      <c r="L17" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'sumillas', 'data': [{ 'row' :10, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'justify', 'texto': 'El curso tiene como propósito integrar las teorías, las técnicas y las herramientas adquiridas en las materias de contabilidad general y administración que le permita llegar al alumno a desarrollar las habilidades de análisis, integración de la información para la construcción de propuestas y soluciones que llevan al logro de los objetivos de la organización. Se pondrá énfasis en el análisis financiero de los estados financieros y su relación con los costos empresariales.', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">{ 'reg': 36, 'subtipo': '', 'row' :10, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'justify', 'texto': 'El curso tiene como propósito integrar las teorías, las técnicas y las herramientas adquiridas en las materias de contabilidad general y administración que le permita llegar al alumno a desarrollar las habilidades de análisis, integración de la información para la construcción de propuestas y soluciones que llevan al logro de los objetivos de la organización. Se pondrá énfasis en el análisis financiero de los estados financieros y su relación con los costos empresariales.', 'offset':1}, </v>
+      </c>
+      <c r="M17" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'tipo': 'sumillas', 'data': [{ 'reg': 36, 'subtipo': '', 'row' :10, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'justify', 'texto': 'El curso tiene como propósito integrar las teorías, las técnicas y las herramientas adquiridas en las materias de contabilidad general y administración que le permita llegar al alumno a desarrollar las habilidades de análisis, integración de la información para la construcción de propuestas y soluciones que llevan al logro de los objetivos de la organización. Se pondrá énfasis en el análisis financiero de los estados financieros y su relación con los costos empresariales.', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>151</v>
       </c>
@@ -2738,23 +2736,26 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I18" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'row' :11, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'III. SISTEMA DE COMPETENCIAS', 'offset':1}, </v>
-      </c>
-      <c r="K18" s="2" t="str">
+      <c r="I18" s="14">
+        <v>82</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="K18" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ 'reg': 82, 'subtipo': 'competencias', 'row' :11, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'III. SISTEMA DE COMPETENCIAS', 'offset':1}, </v>
+      </c>
+      <c r="L18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'row' :11, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'III. SISTEMA DE COMPETENCIAS', 'offset':1}, </v>
-      </c>
-      <c r="L18" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'titulo1', 'data': [{ 'row' :11, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'III. SISTEMA DE COMPETENCIAS', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">{ 'reg': 82, 'subtipo': 'competencias', 'row' :11, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'III. SISTEMA DE COMPETENCIAS', 'offset':1}, </v>
+      </c>
+      <c r="M18" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'tipo': 'titulo1', 'data': [{ 'reg': 82, 'subtipo': 'competencias', 'row' :11, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'III. SISTEMA DE COMPETENCIAS', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>156</v>
       </c>
@@ -2780,23 +2781,23 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I19" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'row' :12, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS GENERALES', 'offset':1}, </v>
-      </c>
-      <c r="K19" s="2" t="str">
+      <c r="I19" s="14">
+        <v>37</v>
+      </c>
+      <c r="K19" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ 'reg': 37, 'subtipo': '', 'row' :12, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS GENERALES', 'offset':1}, </v>
+      </c>
+      <c r="L19" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'row' :12, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS GENERALES', 'offset':1}, </v>
-      </c>
-      <c r="L19" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'titulo2', 'data': [{ 'row' :12, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS GENERALES', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">{ 'reg': 37, 'subtipo': '', 'row' :12, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS GENERALES', 'offset':1}, </v>
+      </c>
+      <c r="M19" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'tipo': 'titulo2', 'data': [{ 'reg': 37, 'subtipo': '', 'row' :12, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS GENERALES', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>155</v>
       </c>
@@ -2823,23 +2824,23 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I20" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'row' :13, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Comprende el papel de la información contable en los Negocios. Relación entre la contabilidad y la Administración y la toma de decisiones.', 'offset':2}, </v>
-      </c>
-      <c r="K20" s="2" t="str">
+      <c r="I20" s="14">
+        <v>10</v>
+      </c>
+      <c r="K20" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ 'reg': 10, 'subtipo': '', 'row' :13, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Comprende el papel de la información contable en los Negocios. Relación entre la contabilidad y la Administración y la toma de decisiones.', 'offset':2}, </v>
+      </c>
+      <c r="L20" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'row' :13, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Comprende el papel de la información contable en los Negocios. Relación entre la contabilidad y la Administración y la toma de decisiones.', 'offset':2}, </v>
-      </c>
-      <c r="L20" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'competencias', 'data': [{ 'row' :13, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Comprende el papel de la información contable en los Negocios. Relación entre la contabilidad y la Administración y la toma de decisiones.', 'offset':2}, ],  },</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">{ 'reg': 10, 'subtipo': '', 'row' :13, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Comprende el papel de la información contable en los Negocios. Relación entre la contabilidad y la Administración y la toma de decisiones.', 'offset':2}, </v>
+      </c>
+      <c r="M20" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'tipo': 'competencias', 'data': [{ 'reg': 10, 'subtipo': '', 'row' :13, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Comprende el papel de la información contable en los Negocios. Relación entre la contabilidad y la Administración y la toma de decisiones.', 'offset':2}, ],  },</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>155</v>
       </c>
@@ -2866,23 +2867,23 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I21" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'row' :14, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Conoce y ejecuta los Estados Financieros de una empresa comercial, industrial y de servicios.', 'offset':2}, </v>
-      </c>
-      <c r="K21" s="2" t="str">
+      <c r="I21" s="14">
+        <v>13</v>
+      </c>
+      <c r="K21" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ 'reg': 13, 'subtipo': '', 'row' :14, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Conoce y ejecuta los Estados Financieros de una empresa comercial, industrial y de servicios.', 'offset':2}, </v>
+      </c>
+      <c r="L21" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'row' :14, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Conoce y ejecuta los Estados Financieros de una empresa comercial, industrial y de servicios.', 'offset':2}, </v>
-      </c>
-      <c r="L21" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'competencias', 'data': [{ 'row' :14, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Conoce y ejecuta los Estados Financieros de una empresa comercial, industrial y de servicios.', 'offset':2}, ],  },</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">{ 'reg': 13, 'subtipo': '', 'row' :14, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Conoce y ejecuta los Estados Financieros de una empresa comercial, industrial y de servicios.', 'offset':2}, </v>
+      </c>
+      <c r="M21" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'tipo': 'competencias', 'data': [{ 'reg': 13, 'subtipo': '', 'row' :14, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Conoce y ejecuta los Estados Financieros de una empresa comercial, industrial y de servicios.', 'offset':2}, ],  },</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>155</v>
       </c>
@@ -2909,23 +2910,23 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I22" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'row' :15, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Toma de decisiones, en base a un análisis financiero, dentro de las funciones de operación, inversión y financiamiento y análisis de los costos.', 'offset':2}, </v>
-      </c>
-      <c r="K22" s="2" t="str">
+      <c r="I22" s="14">
+        <v>81</v>
+      </c>
+      <c r="K22" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ 'reg': 81, 'subtipo': '', 'row' :15, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Toma de decisiones, en base a un análisis financiero, dentro de las funciones de operación, inversión y financiamiento y análisis de los costos.', 'offset':2}, </v>
+      </c>
+      <c r="L22" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'row' :15, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Toma de decisiones, en base a un análisis financiero, dentro de las funciones de operación, inversión y financiamiento y análisis de los costos.', 'offset':2}, </v>
-      </c>
-      <c r="L22" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'competencias', 'data': [{ 'row' :15, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Toma de decisiones, en base a un análisis financiero, dentro de las funciones de operación, inversión y financiamiento y análisis de los costos.', 'offset':2}, ],  },</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">{ 'reg': 81, 'subtipo': '', 'row' :15, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Toma de decisiones, en base a un análisis financiero, dentro de las funciones de operación, inversión y financiamiento y análisis de los costos.', 'offset':2}, </v>
+      </c>
+      <c r="M22" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'tipo': 'competencias', 'data': [{ 'reg': 81, 'subtipo': '', 'row' :15, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Toma de decisiones, en base a un análisis financiero, dentro de las funciones de operación, inversión y financiamiento y análisis de los costos.', 'offset':2}, ],  },</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>155</v>
       </c>
@@ -2952,23 +2953,23 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I23" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J23" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'row' :16, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Planifica la gestión de la empresa a futuro.', 'offset':2}, </v>
-      </c>
-      <c r="K23" s="2" t="str">
+      <c r="I23" s="14">
+        <v>41</v>
+      </c>
+      <c r="K23" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ 'reg': 41, 'subtipo': '', 'row' :16, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Planifica la gestión de la empresa a futuro.', 'offset':2}, </v>
+      </c>
+      <c r="L23" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'row' :16, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Planifica la gestión de la empresa a futuro.', 'offset':2}, </v>
-      </c>
-      <c r="L23" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'competencias', 'data': [{ 'row' :16, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Planifica la gestión de la empresa a futuro.', 'offset':2}, ],  },</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">{ 'reg': 41, 'subtipo': '', 'row' :16, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Planifica la gestión de la empresa a futuro.', 'offset':2}, </v>
+      </c>
+      <c r="M23" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'tipo': 'competencias', 'data': [{ 'reg': 41, 'subtipo': '', 'row' :16, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Planifica la gestión de la empresa a futuro.', 'offset':2}, ],  },</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>155</v>
       </c>
@@ -2995,23 +2996,23 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I24" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J24" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'row' :17, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Capacidad de trabajo en equipo.', 'offset':2}, </v>
-      </c>
-      <c r="K24" s="2" t="str">
+      <c r="I24" s="14">
+        <v>77</v>
+      </c>
+      <c r="K24" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ 'reg': 77, 'subtipo': '', 'row' :17, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Capacidad de trabajo en equipo.', 'offset':2}, </v>
+      </c>
+      <c r="L24" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'row' :17, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Capacidad de trabajo en equipo.', 'offset':2}, </v>
-      </c>
-      <c r="L24" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'competencias', 'data': [{ 'row' :17, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Capacidad de trabajo en equipo.', 'offset':2}, ],  },</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">{ 'reg': 77, 'subtipo': '', 'row' :17, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Capacidad de trabajo en equipo.', 'offset':2}, </v>
+      </c>
+      <c r="M24" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'tipo': 'competencias', 'data': [{ 'reg': 77, 'subtipo': '', 'row' :17, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Capacidad de trabajo en equipo.', 'offset':2}, ],  },</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>156</v>
       </c>
@@ -3038,23 +3039,23 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I25" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J25" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'row' :18, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS ESPECÍFICAS', 'offset':1}, </v>
-      </c>
-      <c r="K25" s="2" t="str">
+      <c r="I25" s="14">
+        <v>9</v>
+      </c>
+      <c r="K25" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ 'reg': 9, 'subtipo': '', 'row' :18, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS ESPECÍFICAS', 'offset':1}, </v>
+      </c>
+      <c r="L25" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'row' :18, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS ESPECÍFICAS', 'offset':1}, </v>
-      </c>
-      <c r="L25" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'titulo2', 'data': [{ 'row' :18, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS ESPECÍFICAS', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">{ 'reg': 9, 'subtipo': '', 'row' :18, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS ESPECÍFICAS', 'offset':1}, </v>
+      </c>
+      <c r="M25" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'tipo': 'titulo2', 'data': [{ 'reg': 9, 'subtipo': '', 'row' :18, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS ESPECÍFICAS', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>155</v>
       </c>
@@ -3081,23 +3082,23 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I26" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J26" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'row' :19, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Conoce, Analiza y describe las diferentes empresas que se desarrollan en nuestro país y la importancia que tiene en ellas la contabilidad gerencia, desde la óptica de los estados financieros: Estado de Situación Financiera y Estado de Resultados.', 'offset':2}, </v>
-      </c>
-      <c r="K26" s="2" t="str">
+      <c r="I26" s="14">
+        <v>84</v>
+      </c>
+      <c r="K26" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ 'reg': 84, 'subtipo': '', 'row' :19, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Conoce, Analiza y describe las diferentes empresas que se desarrollan en nuestro país y la importancia que tiene en ellas la contabilidad gerencia, desde la óptica de los estados financieros: Estado de Situación Financiera y Estado de Resultados.', 'offset':2}, </v>
+      </c>
+      <c r="L26" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'row' :19, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Conoce, Analiza y describe las diferentes empresas que se desarrollan en nuestro país y la importancia que tiene en ellas la contabilidad gerencia, desde la óptica de los estados financieros: Estado de Situación Financiera y Estado de Resultados.', 'offset':2}, </v>
-      </c>
-      <c r="L26" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'competencias', 'data': [{ 'row' :19, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Conoce, Analiza y describe las diferentes empresas que se desarrollan en nuestro país y la importancia que tiene en ellas la contabilidad gerencia, desde la óptica de los estados financieros: Estado de Situación Financiera y Estado de Resultados.', 'offset':2}, ],  },</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">{ 'reg': 84, 'subtipo': '', 'row' :19, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Conoce, Analiza y describe las diferentes empresas que se desarrollan en nuestro país y la importancia que tiene en ellas la contabilidad gerencia, desde la óptica de los estados financieros: Estado de Situación Financiera y Estado de Resultados.', 'offset':2}, </v>
+      </c>
+      <c r="M26" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'tipo': 'competencias', 'data': [{ 'reg': 84, 'subtipo': '', 'row' :19, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Conoce, Analiza y describe las diferentes empresas que se desarrollan en nuestro país y la importancia que tiene en ellas la contabilidad gerencia, desde la óptica de los estados financieros: Estado de Situación Financiera y Estado de Resultados.', 'offset':2}, ],  },</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>155</v>
       </c>
@@ -3124,23 +3125,23 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I27" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J27" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'row' :20, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Analiza y diagnostica los Estados financieros básicos de diferentes empresas, mediante el análisis vertical y horizontal así como los ratios financieros. ', 'offset':2}, </v>
-      </c>
-      <c r="K27" s="2" t="str">
+      <c r="I27" s="14">
+        <v>32</v>
+      </c>
+      <c r="K27" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ 'reg': 32, 'subtipo': '', 'row' :20, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Analiza y diagnostica los Estados financieros básicos de diferentes empresas, mediante el análisis vertical y horizontal así como los ratios financieros. ', 'offset':2}, </v>
+      </c>
+      <c r="L27" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'row' :20, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Analiza y diagnostica los Estados financieros básicos de diferentes empresas, mediante el análisis vertical y horizontal así como los ratios financieros. ', 'offset':2}, </v>
-      </c>
-      <c r="L27" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'competencias', 'data': [{ 'row' :20, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Analiza y diagnostica los Estados financieros básicos de diferentes empresas, mediante el análisis vertical y horizontal así como los ratios financieros. ', 'offset':2}, ],  },</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">{ 'reg': 32, 'subtipo': '', 'row' :20, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Analiza y diagnostica los Estados financieros básicos de diferentes empresas, mediante el análisis vertical y horizontal así como los ratios financieros. ', 'offset':2}, </v>
+      </c>
+      <c r="M27" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'tipo': 'competencias', 'data': [{ 'reg': 32, 'subtipo': '', 'row' :20, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Analiza y diagnostica los Estados financieros básicos de diferentes empresas, mediante el análisis vertical y horizontal así como los ratios financieros. ', 'offset':2}, ],  },</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>155</v>
       </c>
@@ -3167,23 +3168,23 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I28" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J28" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'row' :21, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Desarrolla un plan financiero para una empresa: Presupuesto de ventas, Presupuesto de cobranzas, presupuesto de producción, presupuesto de compras, presupuesto de pagos, presupuesto de pagos, presupuesto de gastos, entre otros.', 'offset':2}, </v>
-      </c>
-      <c r="K28" s="2" t="str">
+      <c r="I28" s="14">
+        <v>111</v>
+      </c>
+      <c r="K28" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ 'reg': 111, 'subtipo': '', 'row' :21, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Desarrolla un plan financiero para una empresa: Presupuesto de ventas, Presupuesto de cobranzas, presupuesto de producción, presupuesto de compras, presupuesto de pagos, presupuesto de pagos, presupuesto de gastos, entre otros.', 'offset':2}, </v>
+      </c>
+      <c r="L28" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'row' :21, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Desarrolla un plan financiero para una empresa: Presupuesto de ventas, Presupuesto de cobranzas, presupuesto de producción, presupuesto de compras, presupuesto de pagos, presupuesto de pagos, presupuesto de gastos, entre otros.', 'offset':2}, </v>
-      </c>
-      <c r="L28" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'competencias', 'data': [{ 'row' :21, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Desarrolla un plan financiero para una empresa: Presupuesto de ventas, Presupuesto de cobranzas, presupuesto de producción, presupuesto de compras, presupuesto de pagos, presupuesto de pagos, presupuesto de gastos, entre otros.', 'offset':2}, ],  },</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">{ 'reg': 111, 'subtipo': '', 'row' :21, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Desarrolla un plan financiero para una empresa: Presupuesto de ventas, Presupuesto de cobranzas, presupuesto de producción, presupuesto de compras, presupuesto de pagos, presupuesto de pagos, presupuesto de gastos, entre otros.', 'offset':2}, </v>
+      </c>
+      <c r="M28" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'tipo': 'competencias', 'data': [{ 'reg': 111, 'subtipo': '', 'row' :21, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Desarrolla un plan financiero para una empresa: Presupuesto de ventas, Presupuesto de cobranzas, presupuesto de producción, presupuesto de compras, presupuesto de pagos, presupuesto de pagos, presupuesto de gastos, entre otros.', 'offset':2}, ],  },</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>155</v>
       </c>
@@ -3210,23 +3211,23 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I29" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J29" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'row' :22, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Estudia la importancia de la estructura de costos de una empresa y su implicancia en la planificación financiera.', 'offset':2}, </v>
-      </c>
-      <c r="K29" s="2" t="str">
+      <c r="I29" s="14">
+        <v>28</v>
+      </c>
+      <c r="K29" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ 'reg': 28, 'subtipo': '', 'row' :22, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Estudia la importancia de la estructura de costos de una empresa y su implicancia en la planificación financiera.', 'offset':2}, </v>
+      </c>
+      <c r="L29" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'row' :22, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Estudia la importancia de la estructura de costos de una empresa y su implicancia en la planificación financiera.', 'offset':2}, </v>
-      </c>
-      <c r="L29" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'competencias', 'data': [{ 'row' :22, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Estudia la importancia de la estructura de costos de una empresa y su implicancia en la planificación financiera.', 'offset':2}, ],  },</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">{ 'reg': 28, 'subtipo': '', 'row' :22, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Estudia la importancia de la estructura de costos de una empresa y su implicancia en la planificación financiera.', 'offset':2}, </v>
+      </c>
+      <c r="M29" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'tipo': 'competencias', 'data': [{ 'reg': 28, 'subtipo': '', 'row' :22, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Estudia la importancia de la estructura de costos de una empresa y su implicancia en la planificación financiera.', 'offset':2}, ],  },</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>155</v>
       </c>
@@ -3253,23 +3254,23 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I30" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J30" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'row' :23, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Elabora estados financieros proyectados, para diagnosticar el futuro de la empresa.', 'offset':2}, </v>
-      </c>
-      <c r="K30" s="2" t="str">
+      <c r="I30" s="14">
+        <v>27</v>
+      </c>
+      <c r="K30" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ 'reg': 27, 'subtipo': '', 'row' :23, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Elabora estados financieros proyectados, para diagnosticar el futuro de la empresa.', 'offset':2}, </v>
+      </c>
+      <c r="L30" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'row' :23, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Elabora estados financieros proyectados, para diagnosticar el futuro de la empresa.', 'offset':2}, </v>
-      </c>
-      <c r="L30" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'competencias', 'data': [{ 'row' :23, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Elabora estados financieros proyectados, para diagnosticar el futuro de la empresa.', 'offset':2}, ],  },</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">{ 'reg': 27, 'subtipo': '', 'row' :23, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Elabora estados financieros proyectados, para diagnosticar el futuro de la empresa.', 'offset':2}, </v>
+      </c>
+      <c r="M30" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'tipo': 'competencias', 'data': [{ 'reg': 27, 'subtipo': '', 'row' :23, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Elabora estados financieros proyectados, para diagnosticar el futuro de la empresa.', 'offset':2}, ],  },</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>151</v>
       </c>
@@ -3296,23 +3297,26 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I31" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J31" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'row' :24, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'IV. PROGRAMACIÓN DE CONTENIDOS', 'offset':1}, </v>
-      </c>
-      <c r="K31" s="2" t="str">
+      <c r="I31" s="14">
+        <v>126</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="K31" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ 'reg': 126, 'subtipo': 'contenidos', 'row' :24, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'IV. PROGRAMACIÓN DE CONTENIDOS', 'offset':1}, </v>
+      </c>
+      <c r="L31" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'row' :24, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'IV. PROGRAMACIÓN DE CONTENIDOS', 'offset':1}, </v>
-      </c>
-      <c r="L31" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'titulo1', 'data': [{ 'row' :24, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'IV. PROGRAMACIÓN DE CONTENIDOS', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">{ 'reg': 126, 'subtipo': 'contenidos', 'row' :24, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'IV. PROGRAMACIÓN DE CONTENIDOS', 'offset':1}, </v>
+      </c>
+      <c r="M31" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'tipo': 'titulo1', 'data': [{ 'reg': 126, 'subtipo': 'contenidos', 'row' :24, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'IV. PROGRAMACIÓN DE CONTENIDOS', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>158</v>
       </c>
@@ -3339,23 +3343,23 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I32" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J32" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'row' :25, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD I: LA CONTABILIDAD GERENCIAL.', 'offset':1}, </v>
-      </c>
-      <c r="K32" s="2" t="str">
+      <c r="I32" s="14">
+        <v>22</v>
+      </c>
+      <c r="K32" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ 'reg': 22, 'subtipo': '', 'row' :25, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD I: LA CONTABILIDAD GERENCIAL.', 'offset':1}, </v>
+      </c>
+      <c r="L32" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'row' :25, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD I: LA CONTABILIDAD GERENCIAL.', 'offset':1}, </v>
-      </c>
-      <c r="L32" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'unidades', 'data': [{ 'row' :25, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD I: LA CONTABILIDAD GERENCIAL.', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">{ 'reg': 22, 'subtipo': '', 'row' :25, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD I: LA CONTABILIDAD GERENCIAL.', 'offset':1}, </v>
+      </c>
+      <c r="M32" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'tipo': 'unidades', 'data': [{ 'reg': 22, 'subtipo': '', 'row' :25, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD I: LA CONTABILIDAD GERENCIAL.', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>157</v>
       </c>
@@ -3382,23 +3386,23 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I33" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J33" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'row' :26, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, </v>
-      </c>
-      <c r="K33" s="2" t="str">
+      <c r="I33" s="14">
+        <v>35</v>
+      </c>
+      <c r="K33" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ 'reg': 35, 'subtipo': '', 'row' :26, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, </v>
+      </c>
+      <c r="L33" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'row' :26, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, </v>
-      </c>
-      <c r="L33" s="11" t="str">
+        <v xml:space="preserve">{ 'reg': 35, 'subtipo': '', 'row' :26, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, </v>
+      </c>
+      <c r="M33" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>157</v>
       </c>
@@ -3425,23 +3429,23 @@
         <f t="shared" ref="H34:H65" si="5">IF(B33=B34,1,C34)</f>
         <v>1</v>
       </c>
-      <c r="I34" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J34" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'row' :26, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, </v>
-      </c>
-      <c r="K34" s="2" t="str">
-        <f t="shared" ref="K34:K65" si="6">IF(B33=B34,CONCATENATE(K33,J34),J34)</f>
-        <v xml:space="preserve">{ 'row' :26, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'row' :26, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, </v>
-      </c>
-      <c r="L34" s="11" t="str">
+      <c r="I34" s="14">
+        <v>48</v>
+      </c>
+      <c r="K34" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ 'reg': 48, 'subtipo': '', 'row' :26, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, </v>
+      </c>
+      <c r="L34" s="2" t="str">
+        <f t="shared" ref="L34:L65" si="6">IF(B33=B34,CONCATENATE(L33,K34),K34)</f>
+        <v xml:space="preserve">{ 'reg': 35, 'subtipo': '', 'row' :26, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 48, 'subtipo': '', 'row' :26, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, </v>
+      </c>
+      <c r="M34" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>157</v>
       </c>
@@ -3468,23 +3472,23 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I35" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J35" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'row' :26, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, </v>
-      </c>
-      <c r="K35" s="2" t="str">
+      <c r="I35" s="14">
+        <v>14</v>
+      </c>
+      <c r="K35" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ 'reg': 14, 'subtipo': '', 'row' :26, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, </v>
+      </c>
+      <c r="L35" s="2" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">{ 'row' :26, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'row' :26, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'row' :26, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, </v>
-      </c>
-      <c r="L35" s="11" t="str">
+        <v xml:space="preserve">{ 'reg': 35, 'subtipo': '', 'row' :26, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 48, 'subtipo': '', 'row' :26, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'reg': 14, 'subtipo': '', 'row' :26, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, </v>
+      </c>
+      <c r="M35" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>157</v>
       </c>
@@ -3511,23 +3515,23 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I36" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J36" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'row' :26, 'col': 6, 'rows': 1, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1}, </v>
-      </c>
-      <c r="K36" s="2" t="str">
+      <c r="I36" s="14">
+        <v>25</v>
+      </c>
+      <c r="K36" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ 'reg': 25, 'subtipo': '', 'row' :26, 'col': 6, 'rows': 1, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1}, </v>
+      </c>
+      <c r="L36" s="2" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">{ 'row' :26, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'row' :26, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'row' :26, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, { 'row' :26, 'col': 6, 'rows': 1, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1}, </v>
-      </c>
-      <c r="L36" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'titulo3', 'data': [{ 'row' :26, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'row' :26, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'row' :26, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, { 'row' :26, 'col': 6, 'rows': 1, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">{ 'reg': 35, 'subtipo': '', 'row' :26, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 48, 'subtipo': '', 'row' :26, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'reg': 14, 'subtipo': '', 'row' :26, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, { 'reg': 25, 'subtipo': '', 'row' :26, 'col': 6, 'rows': 1, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1}, </v>
+      </c>
+      <c r="M36" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'tipo': 'titulo3', 'data': [{ 'reg': 35, 'subtipo': '', 'row' :26, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 48, 'subtipo': '', 'row' :26, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'reg': 14, 'subtipo': '', 'row' :26, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, { 'reg': 25, 'subtipo': '', 'row' :26, 'col': 6, 'rows': 1, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>159</v>
       </c>
@@ -3554,23 +3558,23 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I37" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J37" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'row' :27, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, </v>
-      </c>
-      <c r="K37" s="2" t="str">
+      <c r="I37" s="14">
+        <v>99</v>
+      </c>
+      <c r="K37" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ 'reg': 99, 'subtipo': '', 'row' :27, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, </v>
+      </c>
+      <c r="L37" s="2" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">{ 'row' :27, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, </v>
-      </c>
-      <c r="L37" s="11" t="str">
+        <v xml:space="preserve">{ 'reg': 99, 'subtipo': '', 'row' :27, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, </v>
+      </c>
+      <c r="M37" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="174" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" ht="174" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>159</v>
       </c>
@@ -3597,23 +3601,23 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I38" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="J38" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'row' :27, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1}, </v>
-      </c>
-      <c r="K38" s="2" t="str">
+      <c r="I38" s="14">
+        <v>127</v>
+      </c>
+      <c r="K38" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ 'reg': 127, 'subtipo': '', 'row' :27, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1}, </v>
+      </c>
+      <c r="L38" s="2" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">{ 'row' :27, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, { 'row' :27, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1}, </v>
-      </c>
-      <c r="L38" s="11" t="str">
+        <v xml:space="preserve">{ 'reg': 99, 'subtipo': '', 'row' :27, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, { 'reg': 127, 'subtipo': '', 'row' :27, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1}, </v>
+      </c>
+      <c r="M38" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>159</v>
       </c>
@@ -3640,23 +3644,23 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I39" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="J39" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'row' :27, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Reconoce el recorrido de las operaciones empresariales en el ciclo contable de una empresa. Evalúa la utilidad de la información financiera y gerencial.', 'offset':1}, </v>
-      </c>
-      <c r="K39" s="2" t="str">
+      <c r="I39" s="14">
+        <v>91</v>
+      </c>
+      <c r="K39" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ 'reg': 91, 'subtipo': '', 'row' :27, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Reconoce el recorrido de las operaciones empresariales en el ciclo contable de una empresa. Evalúa la utilidad de la información financiera y gerencial.', 'offset':1}, </v>
+      </c>
+      <c r="L39" s="2" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">{ 'row' :27, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, { 'row' :27, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1}, { 'row' :27, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Reconoce el recorrido de las operaciones empresariales en el ciclo contable de una empresa. Evalúa la utilidad de la información financiera y gerencial.', 'offset':1}, </v>
-      </c>
-      <c r="L39" s="11" t="str">
+        <v xml:space="preserve">{ 'reg': 99, 'subtipo': '', 'row' :27, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, { 'reg': 127, 'subtipo': '', 'row' :27, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1}, { 'reg': 91, 'subtipo': '', 'row' :27, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Reconoce el recorrido de las operaciones empresariales en el ciclo contable de una empresa. Evalúa la utilidad de la información financiera y gerencial.', 'offset':1}, </v>
+      </c>
+      <c r="M39" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>159</v>
       </c>
@@ -3683,23 +3687,23 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I40" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="J40" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'row' :27, 'col': 6, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada\nTaller', 'offset':1}, </v>
-      </c>
-      <c r="K40" s="2" t="str">
+      <c r="I40" s="14">
+        <v>115</v>
+      </c>
+      <c r="K40" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ 'reg': 115, 'subtipo': '', 'row' :27, 'col': 6, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada\nTaller', 'offset':1}, </v>
+      </c>
+      <c r="L40" s="2" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">{ 'row' :27, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, { 'row' :27, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1}, { 'row' :27, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Reconoce el recorrido de las operaciones empresariales en el ciclo contable de una empresa. Evalúa la utilidad de la información financiera y gerencial.', 'offset':1}, { 'row' :27, 'col': 6, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada\nTaller', 'offset':1}, </v>
-      </c>
-      <c r="L40" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'contenidos', 'data': [{ 'row' :27, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, { 'row' :27, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1}, { 'row' :27, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Reconoce el recorrido de las operaciones empresariales en el ciclo contable de una empresa. Evalúa la utilidad de la información financiera y gerencial.', 'offset':1}, { 'row' :27, 'col': 6, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada\nTaller', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">{ 'reg': 99, 'subtipo': '', 'row' :27, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, { 'reg': 127, 'subtipo': '', 'row' :27, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1}, { 'reg': 91, 'subtipo': '', 'row' :27, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Reconoce el recorrido de las operaciones empresariales en el ciclo contable de una empresa. Evalúa la utilidad de la información financiera y gerencial.', 'offset':1}, { 'reg': 115, 'subtipo': '', 'row' :27, 'col': 6, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada\nTaller', 'offset':1}, </v>
+      </c>
+      <c r="M40" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'tipo': 'contenidos', 'data': [{ 'reg': 99, 'subtipo': '', 'row' :27, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, { 'reg': 127, 'subtipo': '', 'row' :27, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1}, { 'reg': 91, 'subtipo': '', 'row' :27, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Reconoce el recorrido de las operaciones empresariales en el ciclo contable de una empresa. Evalúa la utilidad de la información financiera y gerencial.', 'offset':1}, { 'reg': 115, 'subtipo': '', 'row' :27, 'col': 6, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada\nTaller', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>159</v>
       </c>
@@ -3726,23 +3730,23 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I41" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J41" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'row' :28, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, </v>
-      </c>
-      <c r="K41" s="2" t="str">
+      <c r="I41" s="14">
+        <v>62</v>
+      </c>
+      <c r="K41" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'row' :28, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, </v>
+      </c>
+      <c r="L41" s="2" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">{ 'row' :28, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, </v>
-      </c>
-      <c r="L41" s="11" t="str">
+        <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'row' :28, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, </v>
+      </c>
+      <c r="M41" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="87" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" ht="87" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>159</v>
       </c>
@@ -3769,23 +3773,23 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I42" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="J42" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'row' :28, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1}, </v>
-      </c>
-      <c r="K42" s="2" t="str">
+      <c r="I42" s="14">
+        <v>17</v>
+      </c>
+      <c r="K42" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ 'reg': 17, 'subtipo': '', 'row' :28, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1}, </v>
+      </c>
+      <c r="L42" s="2" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">{ 'row' :28, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, { 'row' :28, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1}, </v>
-      </c>
-      <c r="L42" s="11" t="str">
+        <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'row' :28, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, { 'reg': 17, 'subtipo': '', 'row' :28, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1}, </v>
+      </c>
+      <c r="M42" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="str">
         <f>+A42</f>
         <v>contenidos</v>
@@ -3813,23 +3817,23 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I43" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="J43" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'row' :28, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Determinación, distribución y aplicación de los costos en una empresa mercantil.', 'offset':1}, </v>
-      </c>
-      <c r="K43" s="2" t="str">
+      <c r="I43" s="14">
+        <v>102</v>
+      </c>
+      <c r="K43" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ 'reg': 102, 'subtipo': '', 'row' :28, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Determinación, distribución y aplicación de los costos en una empresa mercantil.', 'offset':1}, </v>
+      </c>
+      <c r="L43" s="2" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">{ 'row' :28, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, { 'row' :28, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1}, { 'row' :28, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Determinación, distribución y aplicación de los costos en una empresa mercantil.', 'offset':1}, </v>
-      </c>
-      <c r="L43" s="11" t="str">
+        <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'row' :28, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, { 'reg': 17, 'subtipo': '', 'row' :28, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1}, { 'reg': 102, 'subtipo': '', 'row' :28, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Determinación, distribución y aplicación de los costos en una empresa mercantil.', 'offset':1}, </v>
+      </c>
+      <c r="M43" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="str">
         <f>+A43</f>
         <v>contenidos</v>
@@ -3857,23 +3861,23 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I44" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="J44" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'row' :28, 'col': 6, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Dinámica grupal/debate en clase', 'offset':1}, </v>
-      </c>
-      <c r="K44" s="2" t="str">
+      <c r="I44" s="14">
+        <v>126</v>
+      </c>
+      <c r="K44" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ 'reg': 126, 'subtipo': '', 'row' :28, 'col': 6, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Dinámica grupal/debate en clase', 'offset':1}, </v>
+      </c>
+      <c r="L44" s="2" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">{ 'row' :28, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, { 'row' :28, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1}, { 'row' :28, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Determinación, distribución y aplicación de los costos en una empresa mercantil.', 'offset':1}, { 'row' :28, 'col': 6, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Dinámica grupal/debate en clase', 'offset':1}, </v>
-      </c>
-      <c r="L44" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'contenidos', 'data': [{ 'row' :28, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, { 'row' :28, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1}, { 'row' :28, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Determinación, distribución y aplicación de los costos en una empresa mercantil.', 'offset':1}, { 'row' :28, 'col': 6, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Dinámica grupal/debate en clase', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'row' :28, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, { 'reg': 17, 'subtipo': '', 'row' :28, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1}, { 'reg': 102, 'subtipo': '', 'row' :28, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Determinación, distribución y aplicación de los costos en una empresa mercantil.', 'offset':1}, { 'reg': 126, 'subtipo': '', 'row' :28, 'col': 6, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Dinámica grupal/debate en clase', 'offset':1}, </v>
+      </c>
+      <c r="M44" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'tipo': 'contenidos', 'data': [{ 'reg': 62, 'subtipo': '', 'row' :28, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, { 'reg': 17, 'subtipo': '', 'row' :28, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1}, { 'reg': 102, 'subtipo': '', 'row' :28, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Determinación, distribución y aplicación de los costos en una empresa mercantil.', 'offset':1}, { 'reg': 126, 'subtipo': '', 'row' :28, 'col': 6, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Dinámica grupal/debate en clase', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>159</v>
       </c>
@@ -3900,23 +3904,23 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I45" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J45" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'row' :29, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, </v>
-      </c>
-      <c r="K45" s="2" t="str">
+      <c r="I45" s="14">
+        <v>39</v>
+      </c>
+      <c r="K45" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ 'reg': 39, 'subtipo': '', 'row' :29, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, </v>
+      </c>
+      <c r="L45" s="2" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">{ 'row' :29, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, </v>
-      </c>
-      <c r="L45" s="11" t="str">
+        <v xml:space="preserve">{ 'reg': 39, 'subtipo': '', 'row' :29, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, </v>
+      </c>
+      <c r="M45" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>159</v>
       </c>
@@ -3943,23 +3947,23 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I46" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="J46" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'row' :29, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1}, </v>
-      </c>
-      <c r="K46" s="2" t="str">
+      <c r="I46" s="14">
+        <v>124</v>
+      </c>
+      <c r="K46" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ 'reg': 124, 'subtipo': '', 'row' :29, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1}, </v>
+      </c>
+      <c r="L46" s="2" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">{ 'row' :29, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, { 'row' :29, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1}, </v>
-      </c>
-      <c r="L46" s="11" t="str">
+        <v xml:space="preserve">{ 'reg': 39, 'subtipo': '', 'row' :29, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, { 'reg': 124, 'subtipo': '', 'row' :29, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1}, </v>
+      </c>
+      <c r="M46" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>159</v>
       </c>
@@ -3986,23 +3990,23 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I47" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="J47" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'row' :29, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Analizar y aplicar el marco legal normativo para la elaboración de los Estados Financieros.', 'offset':1}, </v>
-      </c>
-      <c r="K47" s="2" t="str">
+      <c r="I47" s="14">
+        <v>26</v>
+      </c>
+      <c r="K47" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ 'reg': 26, 'subtipo': '', 'row' :29, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Analizar y aplicar el marco legal normativo para la elaboración de los Estados Financieros.', 'offset':1}, </v>
+      </c>
+      <c r="L47" s="2" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">{ 'row' :29, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, { 'row' :29, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1}, { 'row' :29, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Analizar y aplicar el marco legal normativo para la elaboración de los Estados Financieros.', 'offset':1}, </v>
-      </c>
-      <c r="L47" s="11" t="str">
+        <v xml:space="preserve">{ 'reg': 39, 'subtipo': '', 'row' :29, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, { 'reg': 124, 'subtipo': '', 'row' :29, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1}, { 'reg': 26, 'subtipo': '', 'row' :29, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Analizar y aplicar el marco legal normativo para la elaboración de los Estados Financieros.', 'offset':1}, </v>
+      </c>
+      <c r="M47" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>159</v>
       </c>
@@ -4029,23 +4033,23 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I48" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="J48" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'row' :29, 'col': 6, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada', 'offset':1}, </v>
-      </c>
-      <c r="K48" s="2" t="str">
+      <c r="I48" s="14">
+        <v>40</v>
+      </c>
+      <c r="K48" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ 'reg': 40, 'subtipo': '', 'row' :29, 'col': 6, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada', 'offset':1}, </v>
+      </c>
+      <c r="L48" s="2" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">{ 'row' :29, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, { 'row' :29, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1}, { 'row' :29, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Analizar y aplicar el marco legal normativo para la elaboración de los Estados Financieros.', 'offset':1}, { 'row' :29, 'col': 6, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada', 'offset':1}, </v>
-      </c>
-      <c r="L48" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'contenidos', 'data': [{ 'row' :29, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, { 'row' :29, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1}, { 'row' :29, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Analizar y aplicar el marco legal normativo para la elaboración de los Estados Financieros.', 'offset':1}, { 'row' :29, 'col': 6, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">{ 'reg': 39, 'subtipo': '', 'row' :29, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, { 'reg': 124, 'subtipo': '', 'row' :29, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1}, { 'reg': 26, 'subtipo': '', 'row' :29, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Analizar y aplicar el marco legal normativo para la elaboración de los Estados Financieros.', 'offset':1}, { 'reg': 40, 'subtipo': '', 'row' :29, 'col': 6, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada', 'offset':1}, </v>
+      </c>
+      <c r="M48" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'tipo': 'contenidos', 'data': [{ 'reg': 39, 'subtipo': '', 'row' :29, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, { 'reg': 124, 'subtipo': '', 'row' :29, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1}, { 'reg': 26, 'subtipo': '', 'row' :29, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Analizar y aplicar el marco legal normativo para la elaboración de los Estados Financieros.', 'offset':1}, { 'reg': 40, 'subtipo': '', 'row' :29, 'col': 6, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>159</v>
       </c>
@@ -4072,23 +4076,23 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I49" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J49" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'row' :30, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, </v>
-      </c>
-      <c r="K49" s="2" t="str">
+      <c r="I49" s="14">
+        <v>43</v>
+      </c>
+      <c r="K49" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ 'reg': 43, 'subtipo': '', 'row' :30, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, </v>
+      </c>
+      <c r="L49" s="2" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">{ 'row' :30, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, </v>
-      </c>
-      <c r="L49" s="11" t="str">
+        <v xml:space="preserve">{ 'reg': 43, 'subtipo': '', 'row' :30, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, </v>
+      </c>
+      <c r="M49" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="87" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" ht="87" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>159</v>
       </c>
@@ -4115,23 +4119,23 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I50" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="J50" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'row' :30, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1}, </v>
-      </c>
-      <c r="K50" s="2" t="str">
+      <c r="I50" s="14">
+        <v>62</v>
+      </c>
+      <c r="K50" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'row' :30, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1}, </v>
+      </c>
+      <c r="L50" s="2" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">{ 'row' :30, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, { 'row' :30, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1}, </v>
-      </c>
-      <c r="L50" s="11" t="str">
+        <v xml:space="preserve">{ 'reg': 43, 'subtipo': '', 'row' :30, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, { 'reg': 62, 'subtipo': '', 'row' :30, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1}, </v>
+      </c>
+      <c r="M50" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>159</v>
       </c>
@@ -4158,23 +4162,23 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I51" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="J51" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'row' :30, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Evalúa los resultados obtenidos. Demuestra la aplicación del análisis vertical y horizontal.', 'offset':1}, </v>
-      </c>
-      <c r="K51" s="2" t="str">
+      <c r="I51" s="14">
+        <v>10</v>
+      </c>
+      <c r="K51" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ 'reg': 10, 'subtipo': '', 'row' :30, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Evalúa los resultados obtenidos. Demuestra la aplicación del análisis vertical y horizontal.', 'offset':1}, </v>
+      </c>
+      <c r="L51" s="2" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">{ 'row' :30, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, { 'row' :30, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1}, { 'row' :30, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Evalúa los resultados obtenidos. Demuestra la aplicación del análisis vertical y horizontal.', 'offset':1}, </v>
-      </c>
-      <c r="L51" s="11" t="str">
+        <v xml:space="preserve">{ 'reg': 43, 'subtipo': '', 'row' :30, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, { 'reg': 62, 'subtipo': '', 'row' :30, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1}, { 'reg': 10, 'subtipo': '', 'row' :30, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Evalúa los resultados obtenidos. Demuestra la aplicación del análisis vertical y horizontal.', 'offset':1}, </v>
+      </c>
+      <c r="M51" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>159</v>
       </c>
@@ -4201,23 +4205,23 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I52" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="J52" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'row' :30, 'col': 6, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Clase Expositiva\n Taller\n  Discusión de caso', 'offset':1}, </v>
-      </c>
-      <c r="K52" s="2" t="str">
+      <c r="I52" s="14">
+        <v>82</v>
+      </c>
+      <c r="K52" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ 'reg': 82, 'subtipo': '', 'row' :30, 'col': 6, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Clase Expositiva\n Taller\n  Discusión de caso', 'offset':1}, </v>
+      </c>
+      <c r="L52" s="2" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">{ 'row' :30, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, { 'row' :30, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1}, { 'row' :30, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Evalúa los resultados obtenidos. Demuestra la aplicación del análisis vertical y horizontal.', 'offset':1}, { 'row' :30, 'col': 6, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Clase Expositiva\n Taller\n  Discusión de caso', 'offset':1}, </v>
-      </c>
-      <c r="L52" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'contenidos', 'data': [{ 'row' :30, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, { 'row' :30, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1}, { 'row' :30, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Evalúa los resultados obtenidos. Demuestra la aplicación del análisis vertical y horizontal.', 'offset':1}, { 'row' :30, 'col': 6, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Clase Expositiva\n Taller\n  Discusión de caso', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">{ 'reg': 43, 'subtipo': '', 'row' :30, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, { 'reg': 62, 'subtipo': '', 'row' :30, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1}, { 'reg': 10, 'subtipo': '', 'row' :30, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Evalúa los resultados obtenidos. Demuestra la aplicación del análisis vertical y horizontal.', 'offset':1}, { 'reg': 82, 'subtipo': '', 'row' :30, 'col': 6, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Clase Expositiva\n Taller\n  Discusión de caso', 'offset':1}, </v>
+      </c>
+      <c r="M52" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'tipo': 'contenidos', 'data': [{ 'reg': 43, 'subtipo': '', 'row' :30, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, { 'reg': 62, 'subtipo': '', 'row' :30, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1}, { 'reg': 10, 'subtipo': '', 'row' :30, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Evalúa los resultados obtenidos. Demuestra la aplicación del análisis vertical y horizontal.', 'offset':1}, { 'reg': 82, 'subtipo': '', 'row' :30, 'col': 6, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Clase Expositiva\n Taller\n  Discusión de caso', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>161</v>
       </c>
@@ -4244,23 +4248,23 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="I53" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J53" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'row' :31, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'center', 'texto': 'EVALUACIÓN PARCIAL 1 ', 'offset':2}, </v>
-      </c>
-      <c r="K53" s="2" t="str">
+      <c r="I53" s="14">
+        <v>19</v>
+      </c>
+      <c r="K53" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ 'reg': 19, 'subtipo': '', 'row' :31, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'center', 'texto': 'EVALUACIÓN PARCIAL 1 ', 'offset':2}, </v>
+      </c>
+      <c r="L53" s="2" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">{ 'row' :31, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'center', 'texto': 'EVALUACIÓN PARCIAL 1 ', 'offset':2}, </v>
-      </c>
-      <c r="L53" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'evaluaciones', 'data': [{ 'row' :31, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'center', 'texto': 'EVALUACIÓN PARCIAL 1 ', 'offset':2}, ],  },</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">{ 'reg': 19, 'subtipo': '', 'row' :31, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'center', 'texto': 'EVALUACIÓN PARCIAL 1 ', 'offset':2}, </v>
+      </c>
+      <c r="M53" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'tipo': 'evaluaciones', 'data': [{ 'reg': 19, 'subtipo': '', 'row' :31, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'center', 'texto': 'EVALUACIÓN PARCIAL 1 ', 'offset':2}, ],  },</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>159</v>
       </c>
@@ -4287,23 +4291,23 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I54" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J54" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'row' :32, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, </v>
-      </c>
-      <c r="K54" s="2" t="str">
+      <c r="I54" s="14">
+        <v>82</v>
+      </c>
+      <c r="K54" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ 'reg': 82, 'subtipo': '', 'row' :32, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, </v>
+      </c>
+      <c r="L54" s="2" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">{ 'row' :32, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, </v>
-      </c>
-      <c r="L54" s="11" t="str">
+        <v xml:space="preserve">{ 'reg': 82, 'subtipo': '', 'row' :32, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, </v>
+      </c>
+      <c r="M54" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>159</v>
       </c>
@@ -4327,23 +4331,23 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I55" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="J55" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'row' :32, 'col': 2, 'rows': 1, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1}, </v>
-      </c>
-      <c r="K55" s="2" t="str">
+      <c r="I55" s="14">
+        <v>61</v>
+      </c>
+      <c r="K55" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ 'reg': 61, 'subtipo': '', 'row' :32, 'col': 2, 'rows': 1, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1}, </v>
+      </c>
+      <c r="L55" s="2" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">{ 'row' :32, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, { 'row' :32, 'col': 2, 'rows': 1, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1}, </v>
-      </c>
-      <c r="L55" s="11" t="str">
+        <v xml:space="preserve">{ 'reg': 82, 'subtipo': '', 'row' :32, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, { 'reg': 61, 'subtipo': '', 'row' :32, 'col': 2, 'rows': 1, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1}, </v>
+      </c>
+      <c r="M55" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>159</v>
       </c>
@@ -4367,23 +4371,23 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I56" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="J56" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'row' :32, 'col': 4, 'rows': 1, 'cols': 2, 'align': '', 'texto': 'Propicia un debate acerca de la toma de decisiones en una empresa.', 'offset':1}, </v>
-      </c>
-      <c r="K56" s="2" t="str">
+      <c r="I56" s="14">
+        <v>39</v>
+      </c>
+      <c r="K56" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ 'reg': 39, 'subtipo': '', 'row' :32, 'col': 4, 'rows': 1, 'cols': 2, 'align': '', 'texto': 'Propicia un debate acerca de la toma de decisiones en una empresa.', 'offset':1}, </v>
+      </c>
+      <c r="L56" s="2" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">{ 'row' :32, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, { 'row' :32, 'col': 2, 'rows': 1, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1}, { 'row' :32, 'col': 4, 'rows': 1, 'cols': 2, 'align': '', 'texto': 'Propicia un debate acerca de la toma de decisiones en una empresa.', 'offset':1}, </v>
-      </c>
-      <c r="L56" s="11" t="str">
+        <v xml:space="preserve">{ 'reg': 82, 'subtipo': '', 'row' :32, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, { 'reg': 61, 'subtipo': '', 'row' :32, 'col': 2, 'rows': 1, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1}, { 'reg': 39, 'subtipo': '', 'row' :32, 'col': 4, 'rows': 1, 'cols': 2, 'align': '', 'texto': 'Propicia un debate acerca de la toma de decisiones en una empresa.', 'offset':1}, </v>
+      </c>
+      <c r="M56" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>159</v>
       </c>
@@ -4407,23 +4411,23 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I57" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="J57" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'row' :32, 'col': 6, 'rows': 1, 'cols': 2, 'align': '', 'texto': 'Exposición dialogada', 'offset':1}, </v>
-      </c>
-      <c r="K57" s="2" t="str">
+      <c r="I57" s="14">
+        <v>69</v>
+      </c>
+      <c r="K57" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ 'reg': 69, 'subtipo': '', 'row' :32, 'col': 6, 'rows': 1, 'cols': 2, 'align': '', 'texto': 'Exposición dialogada', 'offset':1}, </v>
+      </c>
+      <c r="L57" s="2" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">{ 'row' :32, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, { 'row' :32, 'col': 2, 'rows': 1, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1}, { 'row' :32, 'col': 4, 'rows': 1, 'cols': 2, 'align': '', 'texto': 'Propicia un debate acerca de la toma de decisiones en una empresa.', 'offset':1}, { 'row' :32, 'col': 6, 'rows': 1, 'cols': 2, 'align': '', 'texto': 'Exposición dialogada', 'offset':1}, </v>
-      </c>
-      <c r="L57" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'contenidos', 'data': [{ 'row' :32, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, { 'row' :32, 'col': 2, 'rows': 1, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1}, { 'row' :32, 'col': 4, 'rows': 1, 'cols': 2, 'align': '', 'texto': 'Propicia un debate acerca de la toma de decisiones en una empresa.', 'offset':1}, { 'row' :32, 'col': 6, 'rows': 1, 'cols': 2, 'align': '', 'texto': 'Exposición dialogada', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">{ 'reg': 82, 'subtipo': '', 'row' :32, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, { 'reg': 61, 'subtipo': '', 'row' :32, 'col': 2, 'rows': 1, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1}, { 'reg': 39, 'subtipo': '', 'row' :32, 'col': 4, 'rows': 1, 'cols': 2, 'align': '', 'texto': 'Propicia un debate acerca de la toma de decisiones en una empresa.', 'offset':1}, { 'reg': 69, 'subtipo': '', 'row' :32, 'col': 6, 'rows': 1, 'cols': 2, 'align': '', 'texto': 'Exposición dialogada', 'offset':1}, </v>
+      </c>
+      <c r="M57" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'tipo': 'contenidos', 'data': [{ 'reg': 82, 'subtipo': '', 'row' :32, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, { 'reg': 61, 'subtipo': '', 'row' :32, 'col': 2, 'rows': 1, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1}, { 'reg': 39, 'subtipo': '', 'row' :32, 'col': 4, 'rows': 1, 'cols': 2, 'align': '', 'texto': 'Propicia un debate acerca de la toma de decisiones en una empresa.', 'offset':1}, { 'reg': 69, 'subtipo': '', 'row' :32, 'col': 6, 'rows': 1, 'cols': 2, 'align': '', 'texto': 'Exposición dialogada', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>158</v>
       </c>
@@ -4450,23 +4454,23 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I58" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J58" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'row' :33, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD II: ANALISIS E INTERPRETACION DE LOS ESTADOS FINANCIEROS', 'offset':1}, </v>
-      </c>
-      <c r="K58" s="2" t="str">
+      <c r="I58" s="14">
+        <v>124</v>
+      </c>
+      <c r="K58" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ 'reg': 124, 'subtipo': '', 'row' :33, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD II: ANALISIS E INTERPRETACION DE LOS ESTADOS FINANCIEROS', 'offset':1}, </v>
+      </c>
+      <c r="L58" s="2" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">{ 'row' :33, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD II: ANALISIS E INTERPRETACION DE LOS ESTADOS FINANCIEROS', 'offset':1}, </v>
-      </c>
-      <c r="L58" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'unidades', 'data': [{ 'row' :33, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD II: ANALISIS E INTERPRETACION DE LOS ESTADOS FINANCIEROS', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">{ 'reg': 124, 'subtipo': '', 'row' :33, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD II: ANALISIS E INTERPRETACION DE LOS ESTADOS FINANCIEROS', 'offset':1}, </v>
+      </c>
+      <c r="M58" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'tipo': 'unidades', 'data': [{ 'reg': 124, 'subtipo': '', 'row' :33, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD II: ANALISIS E INTERPRETACION DE LOS ESTADOS FINANCIEROS', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>157</v>
       </c>
@@ -4493,23 +4497,23 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I59" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J59" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'row' :34, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, </v>
-      </c>
-      <c r="K59" s="2" t="str">
+      <c r="I59" s="14">
+        <v>62</v>
+      </c>
+      <c r="K59" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'row' :34, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, </v>
+      </c>
+      <c r="L59" s="2" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">{ 'row' :34, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, </v>
-      </c>
-      <c r="L59" s="11" t="str">
+        <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'row' :34, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, </v>
+      </c>
+      <c r="M59" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>157</v>
       </c>
@@ -4536,23 +4540,23 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I60" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J60" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'row' :34, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, </v>
-      </c>
-      <c r="K60" s="2" t="str">
+      <c r="I60" s="14">
+        <v>61</v>
+      </c>
+      <c r="K60" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ 'reg': 61, 'subtipo': '', 'row' :34, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, </v>
+      </c>
+      <c r="L60" s="2" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">{ 'row' :34, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'row' :34, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, </v>
-      </c>
-      <c r="L60" s="11" t="str">
+        <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'row' :34, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 61, 'subtipo': '', 'row' :34, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, </v>
+      </c>
+      <c r="M60" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>157</v>
       </c>
@@ -4579,23 +4583,23 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I61" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J61" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'row' :34, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, </v>
-      </c>
-      <c r="K61" s="2" t="str">
+      <c r="I61" s="14">
+        <v>73</v>
+      </c>
+      <c r="K61" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ 'reg': 73, 'subtipo': '', 'row' :34, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, </v>
+      </c>
+      <c r="L61" s="2" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">{ 'row' :34, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'row' :34, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'row' :34, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, </v>
-      </c>
-      <c r="L61" s="11" t="str">
+        <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'row' :34, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 61, 'subtipo': '', 'row' :34, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'reg': 73, 'subtipo': '', 'row' :34, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, </v>
+      </c>
+      <c r="M61" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>157</v>
       </c>
@@ -4622,23 +4626,23 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I62" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J62" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'row' :34, 'col': 6, 'rows': 1, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1}, </v>
-      </c>
-      <c r="K62" s="2" t="str">
+      <c r="I62" s="14">
+        <v>27</v>
+      </c>
+      <c r="K62" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ 'reg': 27, 'subtipo': '', 'row' :34, 'col': 6, 'rows': 1, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1}, </v>
+      </c>
+      <c r="L62" s="2" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">{ 'row' :34, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'row' :34, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'row' :34, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, { 'row' :34, 'col': 6, 'rows': 1, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1}, </v>
-      </c>
-      <c r="L62" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'titulo3', 'data': [{ 'row' :34, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'row' :34, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'row' :34, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, { 'row' :34, 'col': 6, 'rows': 1, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'row' :34, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 61, 'subtipo': '', 'row' :34, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'reg': 73, 'subtipo': '', 'row' :34, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, { 'reg': 27, 'subtipo': '', 'row' :34, 'col': 6, 'rows': 1, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1}, </v>
+      </c>
+      <c r="M62" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'tipo': 'titulo3', 'data': [{ 'reg': 62, 'subtipo': '', 'row' :34, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 61, 'subtipo': '', 'row' :34, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'reg': 73, 'subtipo': '', 'row' :34, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, { 'reg': 27, 'subtipo': '', 'row' :34, 'col': 6, 'rows': 1, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>151</v>
       </c>
@@ -4665,23 +4669,26 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I63" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J63" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'row' :35, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'V. ESTRATEGIAS METODOLÓGICAS', 'offset':1}, </v>
-      </c>
-      <c r="K63" s="2" t="str">
+      <c r="I63" s="14">
+        <v>6</v>
+      </c>
+      <c r="J63" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="K63" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ 'reg': 6, 'subtipo': 'estrategias', 'row' :35, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'V. ESTRATEGIAS METODOLÓGICAS', 'offset':1}, </v>
+      </c>
+      <c r="L63" s="2" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">{ 'row' :35, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'V. ESTRATEGIAS METODOLÓGICAS', 'offset':1}, </v>
-      </c>
-      <c r="L63" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'titulo1', 'data': [{ 'row' :35, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'V. ESTRATEGIAS METODOLÓGICAS', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">{ 'reg': 6, 'subtipo': 'estrategias', 'row' :35, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'V. ESTRATEGIAS METODOLÓGICAS', 'offset':1}, </v>
+      </c>
+      <c r="M63" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'tipo': 'titulo1', 'data': [{ 'reg': 6, 'subtipo': 'estrategias', 'row' :35, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'V. ESTRATEGIAS METODOLÓGICAS', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>151</v>
       </c>
@@ -4708,23 +4715,26 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I64" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J64" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'row' :36, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'VI. EVALUACIÓN', 'offset':1}, </v>
-      </c>
-      <c r="K64" s="2" t="str">
+      <c r="I64" s="14">
+        <v>75</v>
+      </c>
+      <c r="J64" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="K64" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ 'reg': 75, 'subtipo': 'evaluaciones', 'row' :36, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'VI. EVALUACIÓN', 'offset':1}, </v>
+      </c>
+      <c r="L64" s="2" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">{ 'row' :36, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'VI. EVALUACIÓN', 'offset':1}, </v>
-      </c>
-      <c r="L64" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'titulo1', 'data': [{ 'row' :36, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'VI. EVALUACIÓN', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">{ 'reg': 75, 'subtipo': 'evaluaciones', 'row' :36, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'VI. EVALUACIÓN', 'offset':1}, </v>
+      </c>
+      <c r="M64" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'tipo': 'titulo1', 'data': [{ 'reg': 75, 'subtipo': 'evaluaciones', 'row' :36, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'VI. EVALUACIÓN', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>151</v>
       </c>
@@ -4751,20 +4761,23 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I65" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J65" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'row' :37, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'VII. BIBLIOGRAFÍA', 'offset':1}, </v>
-      </c>
-      <c r="K65" s="2" t="str">
+      <c r="I65" s="14">
+        <v>102</v>
+      </c>
+      <c r="J65" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="K65" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ 'reg': 102, 'subtipo': 'bibliografias', 'row' :37, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'VII. BIBLIOGRAFÍA', 'offset':1}, </v>
+      </c>
+      <c r="L65" s="2" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">{ 'row' :37, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'VII. BIBLIOGRAFÍA', 'offset':1}, </v>
-      </c>
-      <c r="L65" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'titulo1', 'data': [{ 'row' :37, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'VII. BIBLIOGRAFÍA', 'offset':1}, ],  },</v>
+        <v xml:space="preserve">{ 'reg': 102, 'subtipo': 'bibliografias', 'row' :37, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'VII. BIBLIOGRAFÍA', 'offset':1}, </v>
+      </c>
+      <c r="M65" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'tipo': 'titulo1', 'data': [{ 'reg': 102, 'subtipo': 'bibliografias', 'row' :37, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'VII. BIBLIOGRAFÍA', 'offset':1}, ],  },</v>
       </c>
     </row>
   </sheetData>

--- a/topdown.xlsx
+++ b/topdown.xlsx
@@ -15,7 +15,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">campos!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">datos!$A$1:$G$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">datos!$A$1:$F$65</definedName>
     <definedName name="_xlnm.Extract" localSheetId="1">campos!#REF!</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="183">
   <si>
     <t>GENERALIDADES</t>
   </si>
@@ -621,7 +621,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -656,6 +656,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1510,51 +1513,51 @@
       <c r="B35" t="s">
         <v>64</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="E35" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="17" t="s">
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
     </row>
     <row r="36" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="18" t="s">
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
     </row>
     <row r="37" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
     </row>
     <row r="38" spans="1:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39">
@@ -1565,21 +1568,21 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15" t="s">
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="18" t="s">
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
     </row>
     <row r="41" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41">
@@ -1594,31 +1597,31 @@
       <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15" t="s">
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15" t="s">
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
     </row>
     <row r="43" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
       <c r="H43" t="s">
         <v>78</v>
       </c>
@@ -1632,11 +1635,11 @@
       <c r="B44" t="s">
         <v>79</v>
       </c>
-      <c r="E44" s="15" t="s">
+      <c r="E44" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
       <c r="H44" t="s">
         <v>86</v>
       </c>
@@ -1645,9 +1648,9 @@
       <c r="B45" t="s">
         <v>80</v>
       </c>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
       <c r="H45" t="s">
         <v>69</v>
       </c>
@@ -1656,9 +1659,9 @@
       <c r="B46" t="s">
         <v>81</v>
       </c>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
       <c r="H46" t="s">
         <v>78</v>
       </c>
@@ -1667,37 +1670,37 @@
       <c r="B47" t="s">
         <v>82</v>
       </c>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>83</v>
       </c>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>84</v>
       </c>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51">
@@ -1977,10 +1980,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M65"/>
+  <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1988,19 +1991,18 @@
     <col min="1" max="1" width="12.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.08984375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.453125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="4.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.1796875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="9" style="7" customWidth="1"/>
-    <col min="9" max="9" width="9" style="14" customWidth="1"/>
-    <col min="10" max="10" width="9" style="12" customWidth="1"/>
-    <col min="11" max="11" width="28.1796875" style="7" customWidth="1"/>
-    <col min="12" max="12" width="10.90625" style="2"/>
-    <col min="13" max="13" width="10.90625" style="10"/>
+    <col min="4" max="4" width="4" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.1796875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="9" style="7" customWidth="1"/>
+    <col min="8" max="8" width="9" style="14" customWidth="1"/>
+    <col min="9" max="9" width="9" style="12" customWidth="1"/>
+    <col min="10" max="10" width="28.1796875" style="7" customWidth="1"/>
+    <col min="11" max="11" width="10.90625" style="2"/>
+    <col min="12" max="12" width="10.90625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -2011,28 +2013,25 @@
         <v>135</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F1" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="F1" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="G1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>152</v>
       </c>
@@ -2043,38 +2042,35 @@
         <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="7">
-        <f t="shared" ref="H2:H33" si="0">IF(B1=B2,1,C2)</f>
-        <v>1</v>
-      </c>
-      <c r="I2" s="14">
+      <c r="G2" s="7">
+        <f t="shared" ref="G2:G33" si="0">IF(B1=B2,1,C2)</f>
+        <v>1</v>
+      </c>
+      <c r="H2" s="14">
         <v>11</v>
       </c>
-      <c r="K2" s="7" t="str">
-        <f>+"{ '"&amp;I$1&amp;"': "&amp;I2&amp;", '"&amp;J$1&amp;"': '"&amp;J2&amp;"', '"&amp;B$1&amp;"' :"&amp;B2&amp;", '"&amp;C$1&amp;"': "&amp;C2&amp;", '"&amp;D$1&amp;"': "&amp;D2&amp;", '"&amp;E$1&amp;"': "&amp;E2&amp;", '"&amp;F$1&amp;"': '"&amp;F2&amp;"', '"&amp;G$1&amp;"': '"&amp;G2&amp;"', '"&amp;H$1&amp;"':"&amp;H2&amp;"}, "</f>
-        <v xml:space="preserve">{ 'reg': 11, 'subtipo': '', 'row' :1, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'center', 'texto': 'CONTABILIDAD GERENCIAL', 'offset':1}, </v>
-      </c>
-      <c r="L2" s="2" t="str">
-        <f t="shared" ref="L2:L33" si="1">IF(B1=B2,CONCATENATE(L1,K2),K2)</f>
-        <v xml:space="preserve">{ 'reg': 11, 'subtipo': '', 'row' :1, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'center', 'texto': 'CONTABILIDAD GERENCIAL', 'offset':1}, </v>
-      </c>
-      <c r="M2" s="11" t="str">
-        <f>IF(B2=B3,"","{'tipo': '"&amp;A2&amp;"', 'data': "&amp;"["&amp;L2&amp;"],  },")</f>
-        <v>{'tipo': 'titulo0', 'data': [{ 'reg': 11, 'subtipo': '', 'row' :1, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'center', 'texto': 'CONTABILIDAD GERENCIAL', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J2" s="7" t="str">
+        <f>+"{ '"&amp;H$1&amp;"': "&amp;H2&amp;", '"&amp;I$1&amp;"': '"&amp;I2&amp;"', '"&amp;C$1&amp;"': "&amp;C2&amp;", '"&amp;D$1&amp;"': "&amp;D2&amp;", '"&amp;E$1&amp;"': '"&amp;E2&amp;"', '"&amp;F$1&amp;"': '"&amp;F2&amp;"', '"&amp;G$1&amp;"':"&amp;G2&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 11, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'CONTABILIDAD GERENCIAL', 'offset':1}, </v>
+      </c>
+      <c r="K2" s="2" t="str">
+        <f>IF(B1=B2,CONCATENATE(K1,J2),J2)</f>
+        <v xml:space="preserve">{ 'reg': 11, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'CONTABILIDAD GERENCIAL', 'offset':1}, </v>
+      </c>
+      <c r="L2" s="11" t="str">
+        <f>IF(B2=B3,"","{'"&amp;B$1&amp;"': "&amp;B2&amp;", 'editing': false, 'tipo': '"&amp;A2&amp;"', 'data': "&amp;"["&amp;K2&amp;"],  },")</f>
+        <v>{'row': 1, 'editing': false, 'tipo': 'titulo0', 'data': [{ 'reg': 11, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'CONTABILIDAD GERENCIAL', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>151</v>
       </c>
@@ -2085,41 +2081,38 @@
         <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
         <v>8</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="H3" s="7">
+      <c r="G3" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I3" s="14">
+      <c r="H3" s="14">
         <v>21</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="I3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="14" t="str">
-        <f t="shared" ref="K3:K65" si="2">+"{ '"&amp;I$1&amp;"': "&amp;I3&amp;", '"&amp;J$1&amp;"': '"&amp;J3&amp;"', '"&amp;B$1&amp;"' :"&amp;B3&amp;", '"&amp;C$1&amp;"': "&amp;C3&amp;", '"&amp;D$1&amp;"': "&amp;D3&amp;", '"&amp;E$1&amp;"': "&amp;E3&amp;", '"&amp;F$1&amp;"': '"&amp;F3&amp;"', '"&amp;G$1&amp;"': '"&amp;G3&amp;"', '"&amp;H$1&amp;"':"&amp;H3&amp;"}, "</f>
-        <v xml:space="preserve">{ 'reg': 21, 'subtipo': 'generales', 'row' :2, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'I. DATOS GENERALES', 'offset':1}, </v>
-      </c>
-      <c r="L3" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'reg': 21, 'subtipo': 'generales', 'row' :2, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'I. DATOS GENERALES', 'offset':1}, </v>
-      </c>
-      <c r="M3" s="11" t="str">
-        <f t="shared" ref="M3:M65" si="3">IF(B3=B4,"","{'tipo': '"&amp;A3&amp;"', 'data': "&amp;"["&amp;L3&amp;"],  },")</f>
-        <v>{'tipo': 'titulo1', 'data': [{ 'reg': 21, 'subtipo': 'generales', 'row' :2, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'I. DATOS GENERALES', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J3" s="15" t="str">
+        <f>+"{ '"&amp;H$1&amp;"': "&amp;H3&amp;", '"&amp;I$1&amp;"': '"&amp;I3&amp;"', '"&amp;C$1&amp;"': "&amp;C3&amp;", '"&amp;D$1&amp;"': "&amp;D3&amp;", '"&amp;E$1&amp;"': '"&amp;E3&amp;"', '"&amp;F$1&amp;"': '"&amp;F3&amp;"', '"&amp;G$1&amp;"':"&amp;G3&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 21, 'subtipo': 'generales', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'I. DATOS GENERALES', 'offset':1}, </v>
+      </c>
+      <c r="K3" s="2" t="str">
+        <f>IF(B2=B3,CONCATENATE(K2,J3),J3)</f>
+        <v xml:space="preserve">{ 'reg': 21, 'subtipo': 'generales', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'I. DATOS GENERALES', 'offset':1}, </v>
+      </c>
+      <c r="L3" s="11" t="str">
+        <f>IF(B3=B4,"","{'"&amp;B$1&amp;"': "&amp;B3&amp;", 'editing': false, 'tipo': '"&amp;A3&amp;"', 'data': "&amp;"["&amp;K3&amp;"],  },")</f>
+        <v>{'row': 2, 'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 21, 'subtipo': 'generales', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'I. DATOS GENERALES', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
@@ -2130,38 +2123,35 @@
         <v>2</v>
       </c>
       <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2</v>
-      </c>
-      <c r="F4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="H4" s="7">
+      <c r="G4" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I4" s="14">
+      <c r="H4" s="14">
         <v>35</v>
       </c>
-      <c r="K4" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 35, 'subtipo': '', 'row' :3, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Código:', 'offset':2}, </v>
-      </c>
-      <c r="L4" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'reg': 35, 'subtipo': '', 'row' :3, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Código:', 'offset':2}, </v>
-      </c>
-      <c r="M4" s="11" t="str">
-        <f t="shared" si="3"/>
+      <c r="J4" s="15" t="str">
+        <f>+"{ '"&amp;H$1&amp;"': "&amp;H4&amp;", '"&amp;I$1&amp;"': '"&amp;I4&amp;"', '"&amp;C$1&amp;"': "&amp;C4&amp;", '"&amp;D$1&amp;"': "&amp;D4&amp;", '"&amp;E$1&amp;"': '"&amp;E4&amp;"', '"&amp;F$1&amp;"': '"&amp;F4&amp;"', '"&amp;G$1&amp;"':"&amp;G4&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 35, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Código:', 'offset':2}, </v>
+      </c>
+      <c r="K4" s="2" t="str">
+        <f>IF(B3=B4,CONCATENATE(K3,J4),J4)</f>
+        <v xml:space="preserve">{ 'reg': 35, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Código:', 'offset':2}, </v>
+      </c>
+      <c r="L4" s="11" t="str">
+        <f>IF(B4=B5,"","{'"&amp;B$1&amp;"': "&amp;B4&amp;", 'editing': false, 'tipo': '"&amp;A4&amp;"', 'data': "&amp;"["&amp;K4&amp;"],  },")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
@@ -2172,38 +2162,35 @@
         <v>3</v>
       </c>
       <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2</v>
-      </c>
-      <c r="F5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="H5" s="7">
+      <c r="G5" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I5" s="14">
+      <c r="H5" s="14">
         <v>85</v>
       </c>
-      <c r="K5" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 85, 'subtipo': '', 'row' :3, 'col': 3, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': '100048', 'offset':1}, </v>
-      </c>
-      <c r="L5" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'reg': 35, 'subtipo': '', 'row' :3, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Código:', 'offset':2}, { 'reg': 85, 'subtipo': '', 'row' :3, 'col': 3, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': '100048', 'offset':1}, </v>
-      </c>
-      <c r="M5" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'generales', 'data': [{ 'reg': 35, 'subtipo': '', 'row' :3, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Código:', 'offset':2}, { 'reg': 85, 'subtipo': '', 'row' :3, 'col': 3, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': '100048', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J5" s="15" t="str">
+        <f>+"{ '"&amp;H$1&amp;"': "&amp;H5&amp;", '"&amp;I$1&amp;"': '"&amp;I5&amp;"', '"&amp;C$1&amp;"': "&amp;C5&amp;", '"&amp;D$1&amp;"': "&amp;D5&amp;", '"&amp;E$1&amp;"': '"&amp;E5&amp;"', '"&amp;F$1&amp;"': '"&amp;F5&amp;"', '"&amp;G$1&amp;"':"&amp;G5&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 85, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '100048', 'offset':1}, </v>
+      </c>
+      <c r="K5" s="2" t="str">
+        <f>IF(B4=B5,CONCATENATE(K4,J5),J5)</f>
+        <v xml:space="preserve">{ 'reg': 35, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Código:', 'offset':2}, { 'reg': 85, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '100048', 'offset':1}, </v>
+      </c>
+      <c r="L5" s="11" t="str">
+        <f>IF(B5=B6,"","{'"&amp;B$1&amp;"': "&amp;B5&amp;", 'editing': false, 'tipo': '"&amp;A5&amp;"', 'data': "&amp;"["&amp;K5&amp;"],  },")</f>
+        <v>{'row': 3, 'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 35, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Código:', 'offset':2}, { 'reg': 85, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '100048', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -2213,39 +2200,36 @@
       <c r="C6" s="2">
         <v>2</v>
       </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8">
-        <v>2</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="D6" s="8">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="H6" s="7">
+      <c r="G6" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I6" s="14">
+      <c r="H6" s="14">
         <v>130</v>
       </c>
-      <c r="K6" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 130, 'subtipo': '', 'row' :4, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Pre‐ Requisito :', 'offset':2}, </v>
-      </c>
-      <c r="L6" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'reg': 130, 'subtipo': '', 'row' :4, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Pre‐ Requisito :', 'offset':2}, </v>
-      </c>
-      <c r="M6" s="11" t="str">
-        <f t="shared" si="3"/>
+      <c r="J6" s="15" t="str">
+        <f>+"{ '"&amp;H$1&amp;"': "&amp;H6&amp;", '"&amp;I$1&amp;"': '"&amp;I6&amp;"', '"&amp;C$1&amp;"': "&amp;C6&amp;", '"&amp;D$1&amp;"': "&amp;D6&amp;", '"&amp;E$1&amp;"': '"&amp;E6&amp;"', '"&amp;F$1&amp;"': '"&amp;F6&amp;"', '"&amp;G$1&amp;"':"&amp;G6&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 130, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Pre‐ Requisito :', 'offset':2}, </v>
+      </c>
+      <c r="K6" s="2" t="str">
+        <f>IF(B5=B6,CONCATENATE(K5,J6),J6)</f>
+        <v xml:space="preserve">{ 'reg': 130, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Pre‐ Requisito :', 'offset':2}, </v>
+      </c>
+      <c r="L6" s="11" t="str">
+        <f>IF(B6=B7,"","{'"&amp;B$1&amp;"': "&amp;B6&amp;", 'editing': false, 'tipo': '"&amp;A6&amp;"', 'data': "&amp;"["&amp;K6&amp;"],  },")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -2256,38 +2240,35 @@
         <v>3</v>
       </c>
       <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>2</v>
-      </c>
-      <c r="F7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="H7" s="7">
+      <c r="G7" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I7" s="14">
+      <c r="H7" s="14">
         <v>7</v>
       </c>
-      <c r="K7" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 7, 'subtipo': '', 'row' :4, 'col': 3, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Contabilidad General', 'offset':1}, </v>
-      </c>
-      <c r="L7" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'reg': 130, 'subtipo': '', 'row' :4, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Pre‐ Requisito :', 'offset':2}, { 'reg': 7, 'subtipo': '', 'row' :4, 'col': 3, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Contabilidad General', 'offset':1}, </v>
-      </c>
-      <c r="M7" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'generales', 'data': [{ 'reg': 130, 'subtipo': '', 'row' :4, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Pre‐ Requisito :', 'offset':2}, { 'reg': 7, 'subtipo': '', 'row' :4, 'col': 3, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Contabilidad General', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J7" s="15" t="str">
+        <f>+"{ '"&amp;H$1&amp;"': "&amp;H7&amp;", '"&amp;I$1&amp;"': '"&amp;I7&amp;"', '"&amp;C$1&amp;"': "&amp;C7&amp;", '"&amp;D$1&amp;"': "&amp;D7&amp;", '"&amp;E$1&amp;"': '"&amp;E7&amp;"', '"&amp;F$1&amp;"': '"&amp;F7&amp;"', '"&amp;G$1&amp;"':"&amp;G7&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 7, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'Contabilidad General', 'offset':1}, </v>
+      </c>
+      <c r="K7" s="2" t="str">
+        <f>IF(B6=B7,CONCATENATE(K6,J7),J7)</f>
+        <v xml:space="preserve">{ 'reg': 130, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Pre‐ Requisito :', 'offset':2}, { 'reg': 7, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'Contabilidad General', 'offset':1}, </v>
+      </c>
+      <c r="L7" s="11" t="str">
+        <f>IF(B7=B8,"","{'"&amp;B$1&amp;"': "&amp;B7&amp;", 'editing': false, 'tipo': '"&amp;A7&amp;"', 'data': "&amp;"["&amp;K7&amp;"],  },")</f>
+        <v>{'row': 4, 'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 130, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Pre‐ Requisito :', 'offset':2}, { 'reg': 7, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'Contabilidad General', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -2298,38 +2279,35 @@
         <v>2</v>
       </c>
       <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2">
-        <v>2</v>
-      </c>
-      <c r="F8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="H8" s="7">
+      <c r="G8" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I8" s="14">
+      <c r="H8" s="14">
         <v>109</v>
       </c>
-      <c r="K8" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 109, 'subtipo': '', 'row' :5, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Créditos : ', 'offset':2}, </v>
-      </c>
-      <c r="L8" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'reg': 109, 'subtipo': '', 'row' :5, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Créditos : ', 'offset':2}, </v>
-      </c>
-      <c r="M8" s="11" t="str">
-        <f t="shared" si="3"/>
+      <c r="J8" s="15" t="str">
+        <f>+"{ '"&amp;H$1&amp;"': "&amp;H8&amp;", '"&amp;I$1&amp;"': '"&amp;I8&amp;"', '"&amp;C$1&amp;"': "&amp;C8&amp;", '"&amp;D$1&amp;"': "&amp;D8&amp;", '"&amp;E$1&amp;"': '"&amp;E8&amp;"', '"&amp;F$1&amp;"': '"&amp;F8&amp;"', '"&amp;G$1&amp;"':"&amp;G8&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 109, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Créditos : ', 'offset':2}, </v>
+      </c>
+      <c r="K8" s="2" t="str">
+        <f>IF(B7=B8,CONCATENATE(K7,J8),J8)</f>
+        <v xml:space="preserve">{ 'reg': 109, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Créditos : ', 'offset':2}, </v>
+      </c>
+      <c r="L8" s="11" t="str">
+        <f>IF(B8=B9,"","{'"&amp;B$1&amp;"': "&amp;B8&amp;", 'editing': false, 'tipo': '"&amp;A8&amp;"', 'data': "&amp;"["&amp;K8&amp;"],  },")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -2340,38 +2318,35 @@
         <v>3</v>
       </c>
       <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
-        <v>2</v>
-      </c>
-      <c r="F9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="F9" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="H9" s="7">
+      <c r="G9" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I9" s="14">
+      <c r="H9" s="14">
         <v>13</v>
       </c>
-      <c r="K9" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 13, 'subtipo': '', 'row' :5, 'col': 3, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': '03', 'offset':1}, </v>
-      </c>
-      <c r="L9" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'reg': 109, 'subtipo': '', 'row' :5, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Créditos : ', 'offset':2}, { 'reg': 13, 'subtipo': '', 'row' :5, 'col': 3, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': '03', 'offset':1}, </v>
-      </c>
-      <c r="M9" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'generales', 'data': [{ 'reg': 109, 'subtipo': '', 'row' :5, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Créditos : ', 'offset':2}, { 'reg': 13, 'subtipo': '', 'row' :5, 'col': 3, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': '03', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J9" s="15" t="str">
+        <f>+"{ '"&amp;H$1&amp;"': "&amp;H9&amp;", '"&amp;I$1&amp;"': '"&amp;I9&amp;"', '"&amp;C$1&amp;"': "&amp;C9&amp;", '"&amp;D$1&amp;"': "&amp;D9&amp;", '"&amp;E$1&amp;"': '"&amp;E9&amp;"', '"&amp;F$1&amp;"': '"&amp;F9&amp;"', '"&amp;G$1&amp;"':"&amp;G9&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 13, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '03', 'offset':1}, </v>
+      </c>
+      <c r="K9" s="2" t="str">
+        <f>IF(B8=B9,CONCATENATE(K8,J9),J9)</f>
+        <v xml:space="preserve">{ 'reg': 109, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Créditos : ', 'offset':2}, { 'reg': 13, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '03', 'offset':1}, </v>
+      </c>
+      <c r="L9" s="11" t="str">
+        <f>IF(B9=B10,"","{'"&amp;B$1&amp;"': "&amp;B9&amp;", 'editing': false, 'tipo': '"&amp;A9&amp;"', 'data': "&amp;"["&amp;K9&amp;"],  },")</f>
+        <v>{'row': 5, 'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 109, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Créditos : ', 'offset':2}, { 'reg': 13, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '03', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -2382,38 +2357,35 @@
         <v>2</v>
       </c>
       <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2">
-        <v>2</v>
-      </c>
-      <c r="F10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="F10" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="H10" s="7">
+      <c r="G10" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I10" s="14">
+      <c r="H10" s="14">
         <v>128</v>
       </c>
-      <c r="K10" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 128, 'subtipo': '', 'row' :6, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Horas :', 'offset':2}, </v>
-      </c>
-      <c r="L10" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'reg': 128, 'subtipo': '', 'row' :6, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Horas :', 'offset':2}, </v>
-      </c>
-      <c r="M10" s="11" t="str">
-        <f t="shared" si="3"/>
+      <c r="J10" s="15" t="str">
+        <f>+"{ '"&amp;H$1&amp;"': "&amp;H10&amp;", '"&amp;I$1&amp;"': '"&amp;I10&amp;"', '"&amp;C$1&amp;"': "&amp;C10&amp;", '"&amp;D$1&amp;"': "&amp;D10&amp;", '"&amp;E$1&amp;"': '"&amp;E10&amp;"', '"&amp;F$1&amp;"': '"&amp;F10&amp;"', '"&amp;G$1&amp;"':"&amp;G10&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 128, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Horas :', 'offset':2}, </v>
+      </c>
+      <c r="K10" s="2" t="str">
+        <f>IF(B9=B10,CONCATENATE(K9,J10),J10)</f>
+        <v xml:space="preserve">{ 'reg': 128, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Horas :', 'offset':2}, </v>
+      </c>
+      <c r="L10" s="11" t="str">
+        <f>IF(B10=B11,"","{'"&amp;B$1&amp;"': "&amp;B10&amp;", 'editing': false, 'tipo': '"&amp;A10&amp;"', 'data': "&amp;"["&amp;K10&amp;"],  },")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -2424,38 +2396,35 @@
         <v>3</v>
       </c>
       <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2">
-        <v>2</v>
-      </c>
-      <c r="F11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H11" s="7">
+      <c r="G11" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I11" s="14">
+      <c r="H11" s="14">
         <v>91</v>
       </c>
-      <c r="K11" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 91, 'subtipo': '', 'row' :6, 'col': 3, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': '04 horas', 'offset':1}, </v>
-      </c>
-      <c r="L11" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'reg': 128, 'subtipo': '', 'row' :6, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Horas :', 'offset':2}, { 'reg': 91, 'subtipo': '', 'row' :6, 'col': 3, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': '04 horas', 'offset':1}, </v>
-      </c>
-      <c r="M11" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'generales', 'data': [{ 'reg': 128, 'subtipo': '', 'row' :6, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Horas :', 'offset':2}, { 'reg': 91, 'subtipo': '', 'row' :6, 'col': 3, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': '04 horas', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J11" s="15" t="str">
+        <f>+"{ '"&amp;H$1&amp;"': "&amp;H11&amp;", '"&amp;I$1&amp;"': '"&amp;I11&amp;"', '"&amp;C$1&amp;"': "&amp;C11&amp;", '"&amp;D$1&amp;"': "&amp;D11&amp;", '"&amp;E$1&amp;"': '"&amp;E11&amp;"', '"&amp;F$1&amp;"': '"&amp;F11&amp;"', '"&amp;G$1&amp;"':"&amp;G11&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 91, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '04 horas', 'offset':1}, </v>
+      </c>
+      <c r="K11" s="2" t="str">
+        <f>IF(B10=B11,CONCATENATE(K10,J11),J11)</f>
+        <v xml:space="preserve">{ 'reg': 128, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Horas :', 'offset':2}, { 'reg': 91, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '04 horas', 'offset':1}, </v>
+      </c>
+      <c r="L11" s="11" t="str">
+        <f>IF(B11=B12,"","{'"&amp;B$1&amp;"': "&amp;B11&amp;", 'editing': false, 'tipo': '"&amp;A11&amp;"', 'data': "&amp;"["&amp;K11&amp;"],  },")</f>
+        <v>{'row': 6, 'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 128, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Horas :', 'offset':2}, { 'reg': 91, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '04 horas', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -2466,38 +2435,35 @@
         <v>2</v>
       </c>
       <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2">
-        <v>2</v>
-      </c>
-      <c r="F12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="F12" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="H12" s="7">
+      <c r="G12" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I12" s="14">
+      <c r="H12" s="14">
         <v>24</v>
       </c>
-      <c r="K12" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 24, 'subtipo': '', 'row' :7, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Semestre académico : ', 'offset':2}, </v>
-      </c>
-      <c r="L12" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'reg': 24, 'subtipo': '', 'row' :7, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Semestre académico : ', 'offset':2}, </v>
-      </c>
-      <c r="M12" s="11" t="str">
-        <f t="shared" si="3"/>
+      <c r="J12" s="15" t="str">
+        <f>+"{ '"&amp;H$1&amp;"': "&amp;H12&amp;", '"&amp;I$1&amp;"': '"&amp;I12&amp;"', '"&amp;C$1&amp;"': "&amp;C12&amp;", '"&amp;D$1&amp;"': "&amp;D12&amp;", '"&amp;E$1&amp;"': '"&amp;E12&amp;"', '"&amp;F$1&amp;"': '"&amp;F12&amp;"', '"&amp;G$1&amp;"':"&amp;G12&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 24, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Semestre académico : ', 'offset':2}, </v>
+      </c>
+      <c r="K12" s="2" t="str">
+        <f>IF(B11=B12,CONCATENATE(K11,J12),J12)</f>
+        <v xml:space="preserve">{ 'reg': 24, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Semestre académico : ', 'offset':2}, </v>
+      </c>
+      <c r="L12" s="11" t="str">
+        <f>IF(B12=B13,"","{'"&amp;B$1&amp;"': "&amp;B12&amp;", 'editing': false, 'tipo': '"&amp;A12&amp;"', 'data': "&amp;"["&amp;K12&amp;"],  },")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -2508,38 +2474,35 @@
         <v>3</v>
       </c>
       <c r="D13" s="2">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2</v>
-      </c>
-      <c r="F13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="F13" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="H13" s="7">
+      <c r="G13" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I13" s="14">
+      <c r="H13" s="14">
         <v>86</v>
       </c>
-      <c r="K13" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 86, 'subtipo': '', 'row' :7, 'col': 3, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': '2017‐ I', 'offset':1}, </v>
-      </c>
-      <c r="L13" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'reg': 24, 'subtipo': '', 'row' :7, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Semestre académico : ', 'offset':2}, { 'reg': 86, 'subtipo': '', 'row' :7, 'col': 3, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': '2017‐ I', 'offset':1}, </v>
-      </c>
-      <c r="M13" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'generales', 'data': [{ 'reg': 24, 'subtipo': '', 'row' :7, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Semestre académico : ', 'offset':2}, { 'reg': 86, 'subtipo': '', 'row' :7, 'col': 3, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': '2017‐ I', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J13" s="15" t="str">
+        <f>+"{ '"&amp;H$1&amp;"': "&amp;H13&amp;", '"&amp;I$1&amp;"': '"&amp;I13&amp;"', '"&amp;C$1&amp;"': "&amp;C13&amp;", '"&amp;D$1&amp;"': "&amp;D13&amp;", '"&amp;E$1&amp;"': '"&amp;E13&amp;"', '"&amp;F$1&amp;"': '"&amp;F13&amp;"', '"&amp;G$1&amp;"':"&amp;G13&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 86, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '2017‐ I', 'offset':1}, </v>
+      </c>
+      <c r="K13" s="2" t="str">
+        <f>IF(B12=B13,CONCATENATE(K12,J13),J13)</f>
+        <v xml:space="preserve">{ 'reg': 24, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Semestre académico : ', 'offset':2}, { 'reg': 86, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '2017‐ I', 'offset':1}, </v>
+      </c>
+      <c r="L13" s="11" t="str">
+        <f>IF(B13=B14,"","{'"&amp;B$1&amp;"': "&amp;B13&amp;", 'editing': false, 'tipo': '"&amp;A13&amp;"', 'data': "&amp;"["&amp;K13&amp;"],  },")</f>
+        <v>{'row': 7, 'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 24, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Semestre académico : ', 'offset':2}, { 'reg': 86, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '2017‐ I', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
@@ -2550,38 +2513,35 @@
         <v>2</v>
       </c>
       <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2">
-        <v>2</v>
-      </c>
-      <c r="F14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="F14" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H14" s="7">
+      <c r="G14" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I14" s="14">
+      <c r="H14" s="14">
         <v>81</v>
       </c>
-      <c r="K14" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 81, 'subtipo': '', 'row' :8, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Ciclo :', 'offset':2}, </v>
-      </c>
-      <c r="L14" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'reg': 81, 'subtipo': '', 'row' :8, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Ciclo :', 'offset':2}, </v>
-      </c>
-      <c r="M14" s="11" t="str">
-        <f t="shared" si="3"/>
+      <c r="J14" s="15" t="str">
+        <f>+"{ '"&amp;H$1&amp;"': "&amp;H14&amp;", '"&amp;I$1&amp;"': '"&amp;I14&amp;"', '"&amp;C$1&amp;"': "&amp;C14&amp;", '"&amp;D$1&amp;"': "&amp;D14&amp;", '"&amp;E$1&amp;"': '"&amp;E14&amp;"', '"&amp;F$1&amp;"': '"&amp;F14&amp;"', '"&amp;G$1&amp;"':"&amp;G14&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Ciclo :', 'offset':2}, </v>
+      </c>
+      <c r="K14" s="2" t="str">
+        <f>IF(B13=B14,CONCATENATE(K13,J14),J14)</f>
+        <v xml:space="preserve">{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Ciclo :', 'offset':2}, </v>
+      </c>
+      <c r="L14" s="11" t="str">
+        <f>IF(B14=B15,"","{'"&amp;B$1&amp;"': "&amp;B14&amp;", 'editing': false, 'tipo': '"&amp;A14&amp;"', 'data': "&amp;"["&amp;K14&amp;"],  },")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
@@ -2592,38 +2552,35 @@
         <v>3</v>
       </c>
       <c r="D15" s="2">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2</v>
-      </c>
-      <c r="F15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="H15" s="7">
+      <c r="G15" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I15" s="14">
+      <c r="H15" s="14">
         <v>103</v>
       </c>
-      <c r="K15" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 103, 'subtipo': '', 'row' :8, 'col': 3, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'III', 'offset':1}, </v>
-      </c>
-      <c r="L15" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'reg': 81, 'subtipo': '', 'row' :8, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Ciclo :', 'offset':2}, { 'reg': 103, 'subtipo': '', 'row' :8, 'col': 3, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'III', 'offset':1}, </v>
-      </c>
-      <c r="M15" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'generales', 'data': [{ 'reg': 81, 'subtipo': '', 'row' :8, 'col': 2, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Ciclo :', 'offset':2}, { 'reg': 103, 'subtipo': '', 'row' :8, 'col': 3, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'III', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J15" s="15" t="str">
+        <f>+"{ '"&amp;H$1&amp;"': "&amp;H15&amp;", '"&amp;I$1&amp;"': '"&amp;I15&amp;"', '"&amp;C$1&amp;"': "&amp;C15&amp;", '"&amp;D$1&amp;"': "&amp;D15&amp;", '"&amp;E$1&amp;"': '"&amp;E15&amp;"', '"&amp;F$1&amp;"': '"&amp;F15&amp;"', '"&amp;G$1&amp;"':"&amp;G15&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 103, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'III', 'offset':1}, </v>
+      </c>
+      <c r="K15" s="2" t="str">
+        <f>IF(B14=B15,CONCATENATE(K14,J15),J15)</f>
+        <v xml:space="preserve">{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Ciclo :', 'offset':2}, { 'reg': 103, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'III', 'offset':1}, </v>
+      </c>
+      <c r="L15" s="11" t="str">
+        <f>IF(B15=B16,"","{'"&amp;B$1&amp;"': "&amp;B15&amp;", 'editing': false, 'tipo': '"&amp;A15&amp;"', 'data': "&amp;"["&amp;K15&amp;"],  },")</f>
+        <v>{'row': 8, 'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Ciclo :', 'offset':2}, { 'reg': 103, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'III', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>151</v>
       </c>
@@ -2634,41 +2591,38 @@
         <v>1</v>
       </c>
       <c r="D16" s="2">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2">
         <v>8</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="F16" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="H16" s="7">
+      <c r="G16" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I16" s="14">
+      <c r="H16" s="14">
         <v>45</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="I16" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="K16" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 45, 'subtipo': 'sumillas', 'row' :9, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'II. SUMILLA', 'offset':1}, </v>
-      </c>
-      <c r="L16" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'reg': 45, 'subtipo': 'sumillas', 'row' :9, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'II. SUMILLA', 'offset':1}, </v>
-      </c>
-      <c r="M16" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'titulo1', 'data': [{ 'reg': 45, 'subtipo': 'sumillas', 'row' :9, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'II. SUMILLA', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J16" s="15" t="str">
+        <f>+"{ '"&amp;H$1&amp;"': "&amp;H16&amp;", '"&amp;I$1&amp;"': '"&amp;I16&amp;"', '"&amp;C$1&amp;"': "&amp;C16&amp;", '"&amp;D$1&amp;"': "&amp;D16&amp;", '"&amp;E$1&amp;"': '"&amp;E16&amp;"', '"&amp;F$1&amp;"': '"&amp;F16&amp;"', '"&amp;G$1&amp;"':"&amp;G16&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 45, 'subtipo': 'sumillas', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'II. SUMILLA', 'offset':1}, </v>
+      </c>
+      <c r="K16" s="2" t="str">
+        <f>IF(B15=B16,CONCATENATE(K15,J16),J16)</f>
+        <v xml:space="preserve">{ 'reg': 45, 'subtipo': 'sumillas', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'II. SUMILLA', 'offset':1}, </v>
+      </c>
+      <c r="L16" s="11" t="str">
+        <f>IF(B16=B17,"","{'"&amp;B$1&amp;"': "&amp;B16&amp;", 'editing': false, 'tipo': '"&amp;A16&amp;"', 'data': "&amp;"["&amp;K16&amp;"],  },")</f>
+        <v>{'row': 9, 'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 45, 'subtipo': 'sumillas', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'II. SUMILLA', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>153</v>
       </c>
@@ -2679,38 +2633,35 @@
         <v>1</v>
       </c>
       <c r="D17" s="2">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2">
         <v>8</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="F17" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="7">
+      <c r="G17" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I17" s="14">
+      <c r="H17" s="14">
         <v>36</v>
       </c>
-      <c r="K17" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 36, 'subtipo': '', 'row' :10, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'justify', 'texto': 'El curso tiene como propósito integrar las teorías, las técnicas y las herramientas adquiridas en las materias de contabilidad general y administración que le permita llegar al alumno a desarrollar las habilidades de análisis, integración de la información para la construcción de propuestas y soluciones que llevan al logro de los objetivos de la organización. Se pondrá énfasis en el análisis financiero de los estados financieros y su relación con los costos empresariales.', 'offset':1}, </v>
-      </c>
-      <c r="L17" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'reg': 36, 'subtipo': '', 'row' :10, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'justify', 'texto': 'El curso tiene como propósito integrar las teorías, las técnicas y las herramientas adquiridas en las materias de contabilidad general y administración que le permita llegar al alumno a desarrollar las habilidades de análisis, integración de la información para la construcción de propuestas y soluciones que llevan al logro de los objetivos de la organización. Se pondrá énfasis en el análisis financiero de los estados financieros y su relación con los costos empresariales.', 'offset':1}, </v>
-      </c>
-      <c r="M17" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'sumillas', 'data': [{ 'reg': 36, 'subtipo': '', 'row' :10, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'justify', 'texto': 'El curso tiene como propósito integrar las teorías, las técnicas y las herramientas adquiridas en las materias de contabilidad general y administración que le permita llegar al alumno a desarrollar las habilidades de análisis, integración de la información para la construcción de propuestas y soluciones que llevan al logro de los objetivos de la organización. Se pondrá énfasis en el análisis financiero de los estados financieros y su relación con los costos empresariales.', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J17" s="15" t="str">
+        <f>+"{ '"&amp;H$1&amp;"': "&amp;H17&amp;", '"&amp;I$1&amp;"': '"&amp;I17&amp;"', '"&amp;C$1&amp;"': "&amp;C17&amp;", '"&amp;D$1&amp;"': "&amp;D17&amp;", '"&amp;E$1&amp;"': '"&amp;E17&amp;"', '"&amp;F$1&amp;"': '"&amp;F17&amp;"', '"&amp;G$1&amp;"':"&amp;G17&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 36, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'justify', 'texto': 'El curso tiene como propósito integrar las teorías, las técnicas y las herramientas adquiridas en las materias de contabilidad general y administración que le permita llegar al alumno a desarrollar las habilidades de análisis, integración de la información para la construcción de propuestas y soluciones que llevan al logro de los objetivos de la organización. Se pondrá énfasis en el análisis financiero de los estados financieros y su relación con los costos empresariales.', 'offset':1}, </v>
+      </c>
+      <c r="K17" s="2" t="str">
+        <f>IF(B16=B17,CONCATENATE(K16,J17),J17)</f>
+        <v xml:space="preserve">{ 'reg': 36, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'justify', 'texto': 'El curso tiene como propósito integrar las teorías, las técnicas y las herramientas adquiridas en las materias de contabilidad general y administración que le permita llegar al alumno a desarrollar las habilidades de análisis, integración de la información para la construcción de propuestas y soluciones que llevan al logro de los objetivos de la organización. Se pondrá énfasis en el análisis financiero de los estados financieros y su relación con los costos empresariales.', 'offset':1}, </v>
+      </c>
+      <c r="L17" s="11" t="str">
+        <f>IF(B17=B18,"","{'"&amp;B$1&amp;"': "&amp;B17&amp;", 'editing': false, 'tipo': '"&amp;A17&amp;"', 'data': "&amp;"["&amp;K17&amp;"],  },")</f>
+        <v>{'row': 10, 'editing': false, 'tipo': 'sumillas', 'data': [{ 'reg': 36, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'justify', 'texto': 'El curso tiene como propósito integrar las teorías, las técnicas y las herramientas adquiridas en las materias de contabilidad general y administración que le permita llegar al alumno a desarrollar las habilidades de análisis, integración de la información para la construcción de propuestas y soluciones que llevan al logro de los objetivos de la organización. Se pondrá énfasis en el análisis financiero de los estados financieros y su relación con los costos empresariales.', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>151</v>
       </c>
@@ -2721,41 +2672,38 @@
         <v>1</v>
       </c>
       <c r="D18" s="2">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2">
         <v>8</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="F18" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="H18" s="7">
+      <c r="G18" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I18" s="14">
+      <c r="H18" s="14">
         <v>82</v>
       </c>
-      <c r="J18" s="12" t="s">
+      <c r="I18" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="K18" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 82, 'subtipo': 'competencias', 'row' :11, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'III. SISTEMA DE COMPETENCIAS', 'offset':1}, </v>
-      </c>
-      <c r="L18" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'reg': 82, 'subtipo': 'competencias', 'row' :11, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'III. SISTEMA DE COMPETENCIAS', 'offset':1}, </v>
-      </c>
-      <c r="M18" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'titulo1', 'data': [{ 'reg': 82, 'subtipo': 'competencias', 'row' :11, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'III. SISTEMA DE COMPETENCIAS', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J18" s="15" t="str">
+        <f>+"{ '"&amp;H$1&amp;"': "&amp;H18&amp;", '"&amp;I$1&amp;"': '"&amp;I18&amp;"', '"&amp;C$1&amp;"': "&amp;C18&amp;", '"&amp;D$1&amp;"': "&amp;D18&amp;", '"&amp;E$1&amp;"': '"&amp;E18&amp;"', '"&amp;F$1&amp;"': '"&amp;F18&amp;"', '"&amp;G$1&amp;"':"&amp;G18&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 82, 'subtipo': 'competencias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'III. SISTEMA DE COMPETENCIAS', 'offset':1}, </v>
+      </c>
+      <c r="K18" s="2" t="str">
+        <f>IF(B17=B18,CONCATENATE(K17,J18),J18)</f>
+        <v xml:space="preserve">{ 'reg': 82, 'subtipo': 'competencias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'III. SISTEMA DE COMPETENCIAS', 'offset':1}, </v>
+      </c>
+      <c r="L18" s="11" t="str">
+        <f>IF(B18=B19,"","{'"&amp;B$1&amp;"': "&amp;B18&amp;", 'editing': false, 'tipo': '"&amp;A18&amp;"', 'data': "&amp;"["&amp;K18&amp;"],  },")</f>
+        <v>{'row': 11, 'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 82, 'subtipo': 'competencias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'III. SISTEMA DE COMPETENCIAS', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>156</v>
       </c>
@@ -2766,38 +2714,35 @@
         <v>1</v>
       </c>
       <c r="D19" s="2">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2">
         <v>8</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="F19" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="7">
+      <c r="G19" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I19" s="14">
+      <c r="H19" s="14">
         <v>37</v>
       </c>
-      <c r="K19" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 37, 'subtipo': '', 'row' :12, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS GENERALES', 'offset':1}, </v>
-      </c>
-      <c r="L19" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'reg': 37, 'subtipo': '', 'row' :12, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS GENERALES', 'offset':1}, </v>
-      </c>
-      <c r="M19" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'titulo2', 'data': [{ 'reg': 37, 'subtipo': '', 'row' :12, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS GENERALES', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J19" s="15" t="str">
+        <f>+"{ '"&amp;H$1&amp;"': "&amp;H19&amp;", '"&amp;I$1&amp;"': '"&amp;I19&amp;"', '"&amp;C$1&amp;"': "&amp;C19&amp;", '"&amp;D$1&amp;"': "&amp;D19&amp;", '"&amp;E$1&amp;"': '"&amp;E19&amp;"', '"&amp;F$1&amp;"': '"&amp;F19&amp;"', '"&amp;G$1&amp;"':"&amp;G19&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 37, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS GENERALES', 'offset':1}, </v>
+      </c>
+      <c r="K19" s="2" t="str">
+        <f>IF(B18=B19,CONCATENATE(K18,J19),J19)</f>
+        <v xml:space="preserve">{ 'reg': 37, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS GENERALES', 'offset':1}, </v>
+      </c>
+      <c r="L19" s="11" t="str">
+        <f>IF(B19=B20,"","{'"&amp;B$1&amp;"': "&amp;B19&amp;", 'editing': false, 'tipo': '"&amp;A19&amp;"', 'data': "&amp;"["&amp;K19&amp;"],  },")</f>
+        <v>{'row': 12, 'editing': false, 'tipo': 'titulo2', 'data': [{ 'reg': 37, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS GENERALES', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>155</v>
       </c>
@@ -2809,562 +2754,523 @@
         <v>2</v>
       </c>
       <c r="D20" s="2">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2">
         <v>7</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="F20" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H20" s="7">
+      <c r="G20" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I20" s="14">
+      <c r="H20" s="14">
         <v>10</v>
       </c>
-      <c r="K20" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 10, 'subtipo': '', 'row' :13, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Comprende el papel de la información contable en los Negocios. Relación entre la contabilidad y la Administración y la toma de decisiones.', 'offset':2}, </v>
-      </c>
-      <c r="L20" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'reg': 10, 'subtipo': '', 'row' :13, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Comprende el papel de la información contable en los Negocios. Relación entre la contabilidad y la Administración y la toma de decisiones.', 'offset':2}, </v>
-      </c>
-      <c r="M20" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'competencias', 'data': [{ 'reg': 10, 'subtipo': '', 'row' :13, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Comprende el papel de la información contable en los Negocios. Relación entre la contabilidad y la Administración y la toma de decisiones.', 'offset':2}, ],  },</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J20" s="15" t="str">
+        <f>+"{ '"&amp;H$1&amp;"': "&amp;H20&amp;", '"&amp;I$1&amp;"': '"&amp;I20&amp;"', '"&amp;C$1&amp;"': "&amp;C20&amp;", '"&amp;D$1&amp;"': "&amp;D20&amp;", '"&amp;E$1&amp;"': '"&amp;E20&amp;"', '"&amp;F$1&amp;"': '"&amp;F20&amp;"', '"&amp;G$1&amp;"':"&amp;G20&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 10, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Comprende el papel de la información contable en los Negocios. Relación entre la contabilidad y la Administración y la toma de decisiones.', 'offset':2}, </v>
+      </c>
+      <c r="K20" s="2" t="str">
+        <f>IF(B19=B20,CONCATENATE(K19,J20),J20)</f>
+        <v xml:space="preserve">{ 'reg': 10, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Comprende el papel de la información contable en los Negocios. Relación entre la contabilidad y la Administración y la toma de decisiones.', 'offset':2}, </v>
+      </c>
+      <c r="L20" s="11" t="str">
+        <f>IF(B20=B21,"","{'"&amp;B$1&amp;"': "&amp;B20&amp;", 'editing': false, 'tipo': '"&amp;A20&amp;"', 'data': "&amp;"["&amp;K20&amp;"],  },")</f>
+        <v>{'row': 13, 'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 10, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Comprende el papel de la información contable en los Negocios. Relación entre la contabilidad y la Administración y la toma de decisiones.', 'offset':2}, ],  },</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B21" s="2">
-        <f t="shared" ref="B21:B33" si="4">+B20+1</f>
+        <f t="shared" ref="B21:B33" si="1">+B20+1</f>
         <v>14</v>
       </c>
       <c r="C21" s="2">
         <v>2</v>
       </c>
       <c r="D21" s="2">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2">
         <v>7</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="F21" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H21" s="7">
+      <c r="G21" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I21" s="14">
+      <c r="H21" s="14">
         <v>13</v>
       </c>
-      <c r="K21" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 13, 'subtipo': '', 'row' :14, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Conoce y ejecuta los Estados Financieros de una empresa comercial, industrial y de servicios.', 'offset':2}, </v>
-      </c>
-      <c r="L21" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'reg': 13, 'subtipo': '', 'row' :14, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Conoce y ejecuta los Estados Financieros de una empresa comercial, industrial y de servicios.', 'offset':2}, </v>
-      </c>
-      <c r="M21" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'competencias', 'data': [{ 'reg': 13, 'subtipo': '', 'row' :14, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Conoce y ejecuta los Estados Financieros de una empresa comercial, industrial y de servicios.', 'offset':2}, ],  },</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J21" s="15" t="str">
+        <f>+"{ '"&amp;H$1&amp;"': "&amp;H21&amp;", '"&amp;I$1&amp;"': '"&amp;I21&amp;"', '"&amp;C$1&amp;"': "&amp;C21&amp;", '"&amp;D$1&amp;"': "&amp;D21&amp;", '"&amp;E$1&amp;"': '"&amp;E21&amp;"', '"&amp;F$1&amp;"': '"&amp;F21&amp;"', '"&amp;G$1&amp;"':"&amp;G21&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 13, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce y ejecuta los Estados Financieros de una empresa comercial, industrial y de servicios.', 'offset':2}, </v>
+      </c>
+      <c r="K21" s="2" t="str">
+        <f>IF(B20=B21,CONCATENATE(K20,J21),J21)</f>
+        <v xml:space="preserve">{ 'reg': 13, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce y ejecuta los Estados Financieros de una empresa comercial, industrial y de servicios.', 'offset':2}, </v>
+      </c>
+      <c r="L21" s="11" t="str">
+        <f>IF(B21=B22,"","{'"&amp;B$1&amp;"': "&amp;B21&amp;", 'editing': false, 'tipo': '"&amp;A21&amp;"', 'data': "&amp;"["&amp;K21&amp;"],  },")</f>
+        <v>{'row': 14, 'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 13, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce y ejecuta los Estados Financieros de una empresa comercial, industrial y de servicios.', 'offset':2}, ],  },</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="C22" s="2">
         <v>2</v>
       </c>
       <c r="D22" s="2">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2">
         <v>7</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="F22" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H22" s="7">
+      <c r="G22" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I22" s="14">
+      <c r="H22" s="14">
         <v>81</v>
       </c>
-      <c r="K22" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 81, 'subtipo': '', 'row' :15, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Toma de decisiones, en base a un análisis financiero, dentro de las funciones de operación, inversión y financiamiento y análisis de los costos.', 'offset':2}, </v>
-      </c>
-      <c r="L22" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'reg': 81, 'subtipo': '', 'row' :15, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Toma de decisiones, en base a un análisis financiero, dentro de las funciones de operación, inversión y financiamiento y análisis de los costos.', 'offset':2}, </v>
-      </c>
-      <c r="M22" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'competencias', 'data': [{ 'reg': 81, 'subtipo': '', 'row' :15, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Toma de decisiones, en base a un análisis financiero, dentro de las funciones de operación, inversión y financiamiento y análisis de los costos.', 'offset':2}, ],  },</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J22" s="15" t="str">
+        <f>+"{ '"&amp;H$1&amp;"': "&amp;H22&amp;", '"&amp;I$1&amp;"': '"&amp;I22&amp;"', '"&amp;C$1&amp;"': "&amp;C22&amp;", '"&amp;D$1&amp;"': "&amp;D22&amp;", '"&amp;E$1&amp;"': '"&amp;E22&amp;"', '"&amp;F$1&amp;"': '"&amp;F22&amp;"', '"&amp;G$1&amp;"':"&amp;G22&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Toma de decisiones, en base a un análisis financiero, dentro de las funciones de operación, inversión y financiamiento y análisis de los costos.', 'offset':2}, </v>
+      </c>
+      <c r="K22" s="2" t="str">
+        <f>IF(B21=B22,CONCATENATE(K21,J22),J22)</f>
+        <v xml:space="preserve">{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Toma de decisiones, en base a un análisis financiero, dentro de las funciones de operación, inversión y financiamiento y análisis de los costos.', 'offset':2}, </v>
+      </c>
+      <c r="L22" s="11" t="str">
+        <f>IF(B22=B23,"","{'"&amp;B$1&amp;"': "&amp;B22&amp;", 'editing': false, 'tipo': '"&amp;A22&amp;"', 'data': "&amp;"["&amp;K22&amp;"],  },")</f>
+        <v>{'row': 15, 'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Toma de decisiones, en base a un análisis financiero, dentro de las funciones de operación, inversión y financiamiento y análisis de los costos.', 'offset':2}, ],  },</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B23" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="C23" s="2">
         <v>2</v>
       </c>
       <c r="D23" s="2">
-        <v>1</v>
-      </c>
-      <c r="E23" s="2">
         <v>7</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="F23" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H23" s="7">
+      <c r="G23" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I23" s="14">
+      <c r="H23" s="14">
         <v>41</v>
       </c>
-      <c r="K23" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 41, 'subtipo': '', 'row' :16, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Planifica la gestión de la empresa a futuro.', 'offset':2}, </v>
-      </c>
-      <c r="L23" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'reg': 41, 'subtipo': '', 'row' :16, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Planifica la gestión de la empresa a futuro.', 'offset':2}, </v>
-      </c>
-      <c r="M23" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'competencias', 'data': [{ 'reg': 41, 'subtipo': '', 'row' :16, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Planifica la gestión de la empresa a futuro.', 'offset':2}, ],  },</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J23" s="15" t="str">
+        <f>+"{ '"&amp;H$1&amp;"': "&amp;H23&amp;", '"&amp;I$1&amp;"': '"&amp;I23&amp;"', '"&amp;C$1&amp;"': "&amp;C23&amp;", '"&amp;D$1&amp;"': "&amp;D23&amp;", '"&amp;E$1&amp;"': '"&amp;E23&amp;"', '"&amp;F$1&amp;"': '"&amp;F23&amp;"', '"&amp;G$1&amp;"':"&amp;G23&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 41, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Planifica la gestión de la empresa a futuro.', 'offset':2}, </v>
+      </c>
+      <c r="K23" s="2" t="str">
+        <f>IF(B22=B23,CONCATENATE(K22,J23),J23)</f>
+        <v xml:space="preserve">{ 'reg': 41, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Planifica la gestión de la empresa a futuro.', 'offset':2}, </v>
+      </c>
+      <c r="L23" s="11" t="str">
+        <f>IF(B23=B24,"","{'"&amp;B$1&amp;"': "&amp;B23&amp;", 'editing': false, 'tipo': '"&amp;A23&amp;"', 'data': "&amp;"["&amp;K23&amp;"],  },")</f>
+        <v>{'row': 16, 'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 41, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Planifica la gestión de la empresa a futuro.', 'offset':2}, ],  },</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B24" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="C24" s="2">
         <v>2</v>
       </c>
       <c r="D24" s="2">
-        <v>1</v>
-      </c>
-      <c r="E24" s="2">
         <v>7</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="F24" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H24" s="7">
+      <c r="G24" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I24" s="14">
+      <c r="H24" s="14">
         <v>77</v>
       </c>
-      <c r="K24" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 77, 'subtipo': '', 'row' :17, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Capacidad de trabajo en equipo.', 'offset':2}, </v>
-      </c>
-      <c r="L24" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'reg': 77, 'subtipo': '', 'row' :17, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Capacidad de trabajo en equipo.', 'offset':2}, </v>
-      </c>
-      <c r="M24" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'competencias', 'data': [{ 'reg': 77, 'subtipo': '', 'row' :17, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Capacidad de trabajo en equipo.', 'offset':2}, ],  },</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J24" s="15" t="str">
+        <f>+"{ '"&amp;H$1&amp;"': "&amp;H24&amp;", '"&amp;I$1&amp;"': '"&amp;I24&amp;"', '"&amp;C$1&amp;"': "&amp;C24&amp;", '"&amp;D$1&amp;"': "&amp;D24&amp;", '"&amp;E$1&amp;"': '"&amp;E24&amp;"', '"&amp;F$1&amp;"': '"&amp;F24&amp;"', '"&amp;G$1&amp;"':"&amp;G24&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 77, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Capacidad de trabajo en equipo.', 'offset':2}, </v>
+      </c>
+      <c r="K24" s="2" t="str">
+        <f>IF(B23=B24,CONCATENATE(K23,J24),J24)</f>
+        <v xml:space="preserve">{ 'reg': 77, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Capacidad de trabajo en equipo.', 'offset':2}, </v>
+      </c>
+      <c r="L24" s="11" t="str">
+        <f>IF(B24=B25,"","{'"&amp;B$1&amp;"': "&amp;B24&amp;", 'editing': false, 'tipo': '"&amp;A24&amp;"', 'data': "&amp;"["&amp;K24&amp;"],  },")</f>
+        <v>{'row': 17, 'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 77, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Capacidad de trabajo en equipo.', 'offset':2}, ],  },</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
       </c>
       <c r="D25" s="2">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2">
         <v>8</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="F25" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H25" s="7">
+      <c r="G25" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I25" s="14">
+      <c r="H25" s="14">
         <v>9</v>
       </c>
-      <c r="K25" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 9, 'subtipo': '', 'row' :18, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS ESPECÍFICAS', 'offset':1}, </v>
-      </c>
-      <c r="L25" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'reg': 9, 'subtipo': '', 'row' :18, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS ESPECÍFICAS', 'offset':1}, </v>
-      </c>
-      <c r="M25" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'titulo2', 'data': [{ 'reg': 9, 'subtipo': '', 'row' :18, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS ESPECÍFICAS', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J25" s="15" t="str">
+        <f>+"{ '"&amp;H$1&amp;"': "&amp;H25&amp;", '"&amp;I$1&amp;"': '"&amp;I25&amp;"', '"&amp;C$1&amp;"': "&amp;C25&amp;", '"&amp;D$1&amp;"': "&amp;D25&amp;", '"&amp;E$1&amp;"': '"&amp;E25&amp;"', '"&amp;F$1&amp;"': '"&amp;F25&amp;"', '"&amp;G$1&amp;"':"&amp;G25&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 9, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS ESPECÍFICAS', 'offset':1}, </v>
+      </c>
+      <c r="K25" s="2" t="str">
+        <f>IF(B24=B25,CONCATENATE(K24,J25),J25)</f>
+        <v xml:space="preserve">{ 'reg': 9, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS ESPECÍFICAS', 'offset':1}, </v>
+      </c>
+      <c r="L25" s="11" t="str">
+        <f>IF(B25=B26,"","{'"&amp;B$1&amp;"': "&amp;B25&amp;", 'editing': false, 'tipo': '"&amp;A25&amp;"', 'data': "&amp;"["&amp;K25&amp;"],  },")</f>
+        <v>{'row': 18, 'editing': false, 'tipo': 'titulo2', 'data': [{ 'reg': 9, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS ESPECÍFICAS', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B26" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="C26" s="2">
         <v>2</v>
       </c>
       <c r="D26" s="2">
-        <v>1</v>
-      </c>
-      <c r="E26" s="2">
         <v>7</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="F26" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H26" s="7">
+      <c r="G26" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I26" s="14">
+      <c r="H26" s="14">
         <v>84</v>
       </c>
-      <c r="K26" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 84, 'subtipo': '', 'row' :19, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Conoce, Analiza y describe las diferentes empresas que se desarrollan en nuestro país y la importancia que tiene en ellas la contabilidad gerencia, desde la óptica de los estados financieros: Estado de Situación Financiera y Estado de Resultados.', 'offset':2}, </v>
-      </c>
-      <c r="L26" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'reg': 84, 'subtipo': '', 'row' :19, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Conoce, Analiza y describe las diferentes empresas que se desarrollan en nuestro país y la importancia que tiene en ellas la contabilidad gerencia, desde la óptica de los estados financieros: Estado de Situación Financiera y Estado de Resultados.', 'offset':2}, </v>
-      </c>
-      <c r="M26" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'competencias', 'data': [{ 'reg': 84, 'subtipo': '', 'row' :19, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Conoce, Analiza y describe las diferentes empresas que se desarrollan en nuestro país y la importancia que tiene en ellas la contabilidad gerencia, desde la óptica de los estados financieros: Estado de Situación Financiera y Estado de Resultados.', 'offset':2}, ],  },</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J26" s="15" t="str">
+        <f>+"{ '"&amp;H$1&amp;"': "&amp;H26&amp;", '"&amp;I$1&amp;"': '"&amp;I26&amp;"', '"&amp;C$1&amp;"': "&amp;C26&amp;", '"&amp;D$1&amp;"': "&amp;D26&amp;", '"&amp;E$1&amp;"': '"&amp;E26&amp;"', '"&amp;F$1&amp;"': '"&amp;F26&amp;"', '"&amp;G$1&amp;"':"&amp;G26&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 84, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce, Analiza y describe las diferentes empresas que se desarrollan en nuestro país y la importancia que tiene en ellas la contabilidad gerencia, desde la óptica de los estados financieros: Estado de Situación Financiera y Estado de Resultados.', 'offset':2}, </v>
+      </c>
+      <c r="K26" s="2" t="str">
+        <f>IF(B25=B26,CONCATENATE(K25,J26),J26)</f>
+        <v xml:space="preserve">{ 'reg': 84, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce, Analiza y describe las diferentes empresas que se desarrollan en nuestro país y la importancia que tiene en ellas la contabilidad gerencia, desde la óptica de los estados financieros: Estado de Situación Financiera y Estado de Resultados.', 'offset':2}, </v>
+      </c>
+      <c r="L26" s="11" t="str">
+        <f>IF(B26=B27,"","{'"&amp;B$1&amp;"': "&amp;B26&amp;", 'editing': false, 'tipo': '"&amp;A26&amp;"', 'data': "&amp;"["&amp;K26&amp;"],  },")</f>
+        <v>{'row': 19, 'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 84, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce, Analiza y describe las diferentes empresas que se desarrollan en nuestro país y la importancia que tiene en ellas la contabilidad gerencia, desde la óptica de los estados financieros: Estado de Situación Financiera y Estado de Resultados.', 'offset':2}, ],  },</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B27" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="C27" s="2">
         <v>2</v>
       </c>
       <c r="D27" s="2">
-        <v>1</v>
-      </c>
-      <c r="E27" s="2">
         <v>7</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="F27" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="H27" s="7">
+      <c r="G27" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I27" s="14">
+      <c r="H27" s="14">
         <v>32</v>
       </c>
-      <c r="K27" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 32, 'subtipo': '', 'row' :20, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Analiza y diagnostica los Estados financieros básicos de diferentes empresas, mediante el análisis vertical y horizontal así como los ratios financieros. ', 'offset':2}, </v>
-      </c>
-      <c r="L27" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'reg': 32, 'subtipo': '', 'row' :20, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Analiza y diagnostica los Estados financieros básicos de diferentes empresas, mediante el análisis vertical y horizontal así como los ratios financieros. ', 'offset':2}, </v>
-      </c>
-      <c r="M27" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'competencias', 'data': [{ 'reg': 32, 'subtipo': '', 'row' :20, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Analiza y diagnostica los Estados financieros básicos de diferentes empresas, mediante el análisis vertical y horizontal así como los ratios financieros. ', 'offset':2}, ],  },</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J27" s="15" t="str">
+        <f>+"{ '"&amp;H$1&amp;"': "&amp;H27&amp;", '"&amp;I$1&amp;"': '"&amp;I27&amp;"', '"&amp;C$1&amp;"': "&amp;C27&amp;", '"&amp;D$1&amp;"': "&amp;D27&amp;", '"&amp;E$1&amp;"': '"&amp;E27&amp;"', '"&amp;F$1&amp;"': '"&amp;F27&amp;"', '"&amp;G$1&amp;"':"&amp;G27&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 32, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Analiza y diagnostica los Estados financieros básicos de diferentes empresas, mediante el análisis vertical y horizontal así como los ratios financieros. ', 'offset':2}, </v>
+      </c>
+      <c r="K27" s="2" t="str">
+        <f>IF(B26=B27,CONCATENATE(K26,J27),J27)</f>
+        <v xml:space="preserve">{ 'reg': 32, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Analiza y diagnostica los Estados financieros básicos de diferentes empresas, mediante el análisis vertical y horizontal así como los ratios financieros. ', 'offset':2}, </v>
+      </c>
+      <c r="L27" s="11" t="str">
+        <f>IF(B27=B28,"","{'"&amp;B$1&amp;"': "&amp;B27&amp;", 'editing': false, 'tipo': '"&amp;A27&amp;"', 'data': "&amp;"["&amp;K27&amp;"],  },")</f>
+        <v>{'row': 20, 'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 32, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Analiza y diagnostica los Estados financieros básicos de diferentes empresas, mediante el análisis vertical y horizontal así como los ratios financieros. ', 'offset':2}, ],  },</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B28" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="C28" s="2">
         <v>2</v>
       </c>
       <c r="D28" s="2">
-        <v>1</v>
-      </c>
-      <c r="E28" s="2">
         <v>7</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="F28" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H28" s="7">
+      <c r="G28" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I28" s="14">
+      <c r="H28" s="14">
         <v>111</v>
       </c>
-      <c r="K28" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 111, 'subtipo': '', 'row' :21, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Desarrolla un plan financiero para una empresa: Presupuesto de ventas, Presupuesto de cobranzas, presupuesto de producción, presupuesto de compras, presupuesto de pagos, presupuesto de pagos, presupuesto de gastos, entre otros.', 'offset':2}, </v>
-      </c>
-      <c r="L28" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'reg': 111, 'subtipo': '', 'row' :21, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Desarrolla un plan financiero para una empresa: Presupuesto de ventas, Presupuesto de cobranzas, presupuesto de producción, presupuesto de compras, presupuesto de pagos, presupuesto de pagos, presupuesto de gastos, entre otros.', 'offset':2}, </v>
-      </c>
-      <c r="M28" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'competencias', 'data': [{ 'reg': 111, 'subtipo': '', 'row' :21, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Desarrolla un plan financiero para una empresa: Presupuesto de ventas, Presupuesto de cobranzas, presupuesto de producción, presupuesto de compras, presupuesto de pagos, presupuesto de pagos, presupuesto de gastos, entre otros.', 'offset':2}, ],  },</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J28" s="15" t="str">
+        <f>+"{ '"&amp;H$1&amp;"': "&amp;H28&amp;", '"&amp;I$1&amp;"': '"&amp;I28&amp;"', '"&amp;C$1&amp;"': "&amp;C28&amp;", '"&amp;D$1&amp;"': "&amp;D28&amp;", '"&amp;E$1&amp;"': '"&amp;E28&amp;"', '"&amp;F$1&amp;"': '"&amp;F28&amp;"', '"&amp;G$1&amp;"':"&amp;G28&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 111, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Desarrolla un plan financiero para una empresa: Presupuesto de ventas, Presupuesto de cobranzas, presupuesto de producción, presupuesto de compras, presupuesto de pagos, presupuesto de pagos, presupuesto de gastos, entre otros.', 'offset':2}, </v>
+      </c>
+      <c r="K28" s="2" t="str">
+        <f>IF(B27=B28,CONCATENATE(K27,J28),J28)</f>
+        <v xml:space="preserve">{ 'reg': 111, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Desarrolla un plan financiero para una empresa: Presupuesto de ventas, Presupuesto de cobranzas, presupuesto de producción, presupuesto de compras, presupuesto de pagos, presupuesto de pagos, presupuesto de gastos, entre otros.', 'offset':2}, </v>
+      </c>
+      <c r="L28" s="11" t="str">
+        <f>IF(B28=B29,"","{'"&amp;B$1&amp;"': "&amp;B28&amp;", 'editing': false, 'tipo': '"&amp;A28&amp;"', 'data': "&amp;"["&amp;K28&amp;"],  },")</f>
+        <v>{'row': 21, 'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 111, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Desarrolla un plan financiero para una empresa: Presupuesto de ventas, Presupuesto de cobranzas, presupuesto de producción, presupuesto de compras, presupuesto de pagos, presupuesto de pagos, presupuesto de gastos, entre otros.', 'offset':2}, ],  },</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B29" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="C29" s="2">
         <v>2</v>
       </c>
       <c r="D29" s="2">
-        <v>1</v>
-      </c>
-      <c r="E29" s="2">
         <v>7</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="F29" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H29" s="7">
+      <c r="G29" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I29" s="14">
+      <c r="H29" s="14">
         <v>28</v>
       </c>
-      <c r="K29" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 28, 'subtipo': '', 'row' :22, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Estudia la importancia de la estructura de costos de una empresa y su implicancia en la planificación financiera.', 'offset':2}, </v>
-      </c>
-      <c r="L29" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'reg': 28, 'subtipo': '', 'row' :22, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Estudia la importancia de la estructura de costos de una empresa y su implicancia en la planificación financiera.', 'offset':2}, </v>
-      </c>
-      <c r="M29" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'competencias', 'data': [{ 'reg': 28, 'subtipo': '', 'row' :22, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Estudia la importancia de la estructura de costos de una empresa y su implicancia en la planificación financiera.', 'offset':2}, ],  },</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J29" s="15" t="str">
+        <f>+"{ '"&amp;H$1&amp;"': "&amp;H29&amp;", '"&amp;I$1&amp;"': '"&amp;I29&amp;"', '"&amp;C$1&amp;"': "&amp;C29&amp;", '"&amp;D$1&amp;"': "&amp;D29&amp;", '"&amp;E$1&amp;"': '"&amp;E29&amp;"', '"&amp;F$1&amp;"': '"&amp;F29&amp;"', '"&amp;G$1&amp;"':"&amp;G29&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 28, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Estudia la importancia de la estructura de costos de una empresa y su implicancia en la planificación financiera.', 'offset':2}, </v>
+      </c>
+      <c r="K29" s="2" t="str">
+        <f>IF(B28=B29,CONCATENATE(K28,J29),J29)</f>
+        <v xml:space="preserve">{ 'reg': 28, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Estudia la importancia de la estructura de costos de una empresa y su implicancia en la planificación financiera.', 'offset':2}, </v>
+      </c>
+      <c r="L29" s="11" t="str">
+        <f>IF(B29=B30,"","{'"&amp;B$1&amp;"': "&amp;B29&amp;", 'editing': false, 'tipo': '"&amp;A29&amp;"', 'data': "&amp;"["&amp;K29&amp;"],  },")</f>
+        <v>{'row': 22, 'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 28, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Estudia la importancia de la estructura de costos de una empresa y su implicancia en la planificación financiera.', 'offset':2}, ],  },</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B30" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="C30" s="2">
         <v>2</v>
       </c>
       <c r="D30" s="2">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2">
         <v>7</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="F30" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H30" s="7">
+      <c r="G30" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I30" s="14">
+      <c r="H30" s="14">
         <v>27</v>
       </c>
-      <c r="K30" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 27, 'subtipo': '', 'row' :23, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Elabora estados financieros proyectados, para diagnosticar el futuro de la empresa.', 'offset':2}, </v>
-      </c>
-      <c r="L30" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'reg': 27, 'subtipo': '', 'row' :23, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Elabora estados financieros proyectados, para diagnosticar el futuro de la empresa.', 'offset':2}, </v>
-      </c>
-      <c r="M30" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'competencias', 'data': [{ 'reg': 27, 'subtipo': '', 'row' :23, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'justify', 'texto': 'Elabora estados financieros proyectados, para diagnosticar el futuro de la empresa.', 'offset':2}, ],  },</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J30" s="15" t="str">
+        <f>+"{ '"&amp;H$1&amp;"': "&amp;H30&amp;", '"&amp;I$1&amp;"': '"&amp;I30&amp;"', '"&amp;C$1&amp;"': "&amp;C30&amp;", '"&amp;D$1&amp;"': "&amp;D30&amp;", '"&amp;E$1&amp;"': '"&amp;E30&amp;"', '"&amp;F$1&amp;"': '"&amp;F30&amp;"', '"&amp;G$1&amp;"':"&amp;G30&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 27, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Elabora estados financieros proyectados, para diagnosticar el futuro de la empresa.', 'offset':2}, </v>
+      </c>
+      <c r="K30" s="2" t="str">
+        <f>IF(B29=B30,CONCATENATE(K29,J30),J30)</f>
+        <v xml:space="preserve">{ 'reg': 27, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Elabora estados financieros proyectados, para diagnosticar el futuro de la empresa.', 'offset':2}, </v>
+      </c>
+      <c r="L30" s="11" t="str">
+        <f>IF(B30=B31,"","{'"&amp;B$1&amp;"': "&amp;B30&amp;", 'editing': false, 'tipo': '"&amp;A30&amp;"', 'data': "&amp;"["&amp;K30&amp;"],  },")</f>
+        <v>{'row': 23, 'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 27, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Elabora estados financieros proyectados, para diagnosticar el futuro de la empresa.', 'offset':2}, ],  },</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>151</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
       </c>
       <c r="D31" s="2">
-        <v>1</v>
-      </c>
-      <c r="E31" s="2">
         <v>8</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="F31" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="H31" s="7">
+      <c r="G31" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I31" s="14">
+      <c r="H31" s="14">
         <v>126</v>
       </c>
-      <c r="J31" s="12" t="s">
+      <c r="I31" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="K31" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 126, 'subtipo': 'contenidos', 'row' :24, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'IV. PROGRAMACIÓN DE CONTENIDOS', 'offset':1}, </v>
-      </c>
-      <c r="L31" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'reg': 126, 'subtipo': 'contenidos', 'row' :24, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'IV. PROGRAMACIÓN DE CONTENIDOS', 'offset':1}, </v>
-      </c>
-      <c r="M31" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'titulo1', 'data': [{ 'reg': 126, 'subtipo': 'contenidos', 'row' :24, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'IV. PROGRAMACIÓN DE CONTENIDOS', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J31" s="15" t="str">
+        <f>+"{ '"&amp;H$1&amp;"': "&amp;H31&amp;", '"&amp;I$1&amp;"': '"&amp;I31&amp;"', '"&amp;C$1&amp;"': "&amp;C31&amp;", '"&amp;D$1&amp;"': "&amp;D31&amp;", '"&amp;E$1&amp;"': '"&amp;E31&amp;"', '"&amp;F$1&amp;"': '"&amp;F31&amp;"', '"&amp;G$1&amp;"':"&amp;G31&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 126, 'subtipo': 'contenidos', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'IV. PROGRAMACIÓN DE CONTENIDOS', 'offset':1}, </v>
+      </c>
+      <c r="K31" s="2" t="str">
+        <f>IF(B30=B31,CONCATENATE(K30,J31),J31)</f>
+        <v xml:space="preserve">{ 'reg': 126, 'subtipo': 'contenidos', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'IV. PROGRAMACIÓN DE CONTENIDOS', 'offset':1}, </v>
+      </c>
+      <c r="L31" s="11" t="str">
+        <f>IF(B31=B32,"","{'"&amp;B$1&amp;"': "&amp;B31&amp;", 'editing': false, 'tipo': '"&amp;A31&amp;"', 'data': "&amp;"["&amp;K31&amp;"],  },")</f>
+        <v>{'row': 24, 'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 126, 'subtipo': 'contenidos', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'IV. PROGRAMACIÓN DE CONTENIDOS', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>158</v>
       </c>
       <c r="B32" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
       </c>
       <c r="D32" s="2">
-        <v>1</v>
-      </c>
-      <c r="E32" s="2">
         <v>8</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="F32" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="H32" s="7">
+      <c r="G32" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I32" s="14">
+      <c r="H32" s="14">
         <v>22</v>
       </c>
-      <c r="K32" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 22, 'subtipo': '', 'row' :25, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD I: LA CONTABILIDAD GERENCIAL.', 'offset':1}, </v>
-      </c>
-      <c r="L32" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'reg': 22, 'subtipo': '', 'row' :25, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD I: LA CONTABILIDAD GERENCIAL.', 'offset':1}, </v>
-      </c>
-      <c r="M32" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'unidades', 'data': [{ 'reg': 22, 'subtipo': '', 'row' :25, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD I: LA CONTABILIDAD GERENCIAL.', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J32" s="15" t="str">
+        <f>+"{ '"&amp;H$1&amp;"': "&amp;H32&amp;", '"&amp;I$1&amp;"': '"&amp;I32&amp;"', '"&amp;C$1&amp;"': "&amp;C32&amp;", '"&amp;D$1&amp;"': "&amp;D32&amp;", '"&amp;E$1&amp;"': '"&amp;E32&amp;"', '"&amp;F$1&amp;"': '"&amp;F32&amp;"', '"&amp;G$1&amp;"':"&amp;G32&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 22, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD I: LA CONTABILIDAD GERENCIAL.', 'offset':1}, </v>
+      </c>
+      <c r="K32" s="2" t="str">
+        <f>IF(B31=B32,CONCATENATE(K31,J32),J32)</f>
+        <v xml:space="preserve">{ 'reg': 22, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD I: LA CONTABILIDAD GERENCIAL.', 'offset':1}, </v>
+      </c>
+      <c r="L32" s="11" t="str">
+        <f>IF(B32=B33,"","{'"&amp;B$1&amp;"': "&amp;B32&amp;", 'editing': false, 'tipo': '"&amp;A32&amp;"', 'data': "&amp;"["&amp;K32&amp;"],  },")</f>
+        <v>{'row': 25, 'editing': false, 'tipo': 'unidades', 'data': [{ 'reg': 22, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD I: LA CONTABILIDAD GERENCIAL.', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>157</v>
       </c>
       <c r="B33" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="C33" s="2">
@@ -3373,36 +3279,33 @@
       <c r="D33" s="2">
         <v>1</v>
       </c>
-      <c r="E33" s="2">
-        <v>1</v>
-      </c>
-      <c r="F33" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="F33" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H33" s="7">
+      <c r="G33" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I33" s="14">
+      <c r="H33" s="14">
         <v>35</v>
       </c>
-      <c r="K33" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 35, 'subtipo': '', 'row' :26, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, </v>
-      </c>
-      <c r="L33" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'reg': 35, 'subtipo': '', 'row' :26, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, </v>
-      </c>
-      <c r="M33" s="11" t="str">
-        <f t="shared" si="3"/>
+      <c r="J33" s="15" t="str">
+        <f>+"{ '"&amp;H$1&amp;"': "&amp;H33&amp;", '"&amp;I$1&amp;"': '"&amp;I33&amp;"', '"&amp;C$1&amp;"': "&amp;C33&amp;", '"&amp;D$1&amp;"': "&amp;D33&amp;", '"&amp;E$1&amp;"': '"&amp;E33&amp;"', '"&amp;F$1&amp;"': '"&amp;F33&amp;"', '"&amp;G$1&amp;"':"&amp;G33&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, </v>
+      </c>
+      <c r="K33" s="2" t="str">
+        <f>IF(B32=B33,CONCATENATE(K32,J33),J33)</f>
+        <v xml:space="preserve">{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, </v>
+      </c>
+      <c r="L33" s="11" t="str">
+        <f>IF(B33=B34,"","{'"&amp;B$1&amp;"': "&amp;B33&amp;", 'editing': false, 'tipo': '"&amp;A33&amp;"', 'data': "&amp;"["&amp;K33&amp;"],  },")</f>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>157</v>
       </c>
@@ -3414,38 +3317,35 @@
         <v>2</v>
       </c>
       <c r="D34" s="2">
-        <v>1</v>
-      </c>
-      <c r="E34" s="2">
         <v>3</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="F34" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H34" s="7">
-        <f t="shared" ref="H34:H65" si="5">IF(B33=B34,1,C34)</f>
-        <v>1</v>
-      </c>
-      <c r="I34" s="14">
+      <c r="G34" s="7">
+        <f t="shared" ref="G34:G65" si="2">IF(B33=B34,1,C34)</f>
+        <v>1</v>
+      </c>
+      <c r="H34" s="14">
         <v>48</v>
       </c>
-      <c r="K34" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 48, 'subtipo': '', 'row' :26, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, </v>
-      </c>
-      <c r="L34" s="2" t="str">
-        <f t="shared" ref="L34:L65" si="6">IF(B33=B34,CONCATENATE(L33,K34),K34)</f>
-        <v xml:space="preserve">{ 'reg': 35, 'subtipo': '', 'row' :26, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 48, 'subtipo': '', 'row' :26, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, </v>
-      </c>
-      <c r="M34" s="11" t="str">
-        <f t="shared" si="3"/>
+      <c r="J34" s="15" t="str">
+        <f>+"{ '"&amp;H$1&amp;"': "&amp;H34&amp;", '"&amp;I$1&amp;"': '"&amp;I34&amp;"', '"&amp;C$1&amp;"': "&amp;C34&amp;", '"&amp;D$1&amp;"': "&amp;D34&amp;", '"&amp;E$1&amp;"': '"&amp;E34&amp;"', '"&amp;F$1&amp;"': '"&amp;F34&amp;"', '"&amp;G$1&amp;"':"&amp;G34&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 48, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, </v>
+      </c>
+      <c r="K34" s="2" t="str">
+        <f>IF(B33=B34,CONCATENATE(K33,J34),J34)</f>
+        <v xml:space="preserve">{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 48, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, </v>
+      </c>
+      <c r="L34" s="11" t="str">
+        <f>IF(B34=B35,"","{'"&amp;B$1&amp;"': "&amp;B34&amp;", 'editing': false, 'tipo': '"&amp;A34&amp;"', 'data': "&amp;"["&amp;K34&amp;"],  },")</f>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>157</v>
       </c>
@@ -3457,38 +3357,35 @@
         <v>4</v>
       </c>
       <c r="D35" s="2">
-        <v>1</v>
-      </c>
-      <c r="E35" s="2">
-        <v>2</v>
-      </c>
-      <c r="F35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="F35" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H35" s="7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I35" s="14">
+      <c r="G35" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H35" s="14">
         <v>14</v>
       </c>
-      <c r="K35" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 14, 'subtipo': '', 'row' :26, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, </v>
-      </c>
-      <c r="L35" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">{ 'reg': 35, 'subtipo': '', 'row' :26, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 48, 'subtipo': '', 'row' :26, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'reg': 14, 'subtipo': '', 'row' :26, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, </v>
-      </c>
-      <c r="M35" s="11" t="str">
-        <f t="shared" si="3"/>
+      <c r="J35" s="15" t="str">
+        <f>+"{ '"&amp;H$1&amp;"': "&amp;H35&amp;", '"&amp;I$1&amp;"': '"&amp;I35&amp;"', '"&amp;C$1&amp;"': "&amp;C35&amp;", '"&amp;D$1&amp;"': "&amp;D35&amp;", '"&amp;E$1&amp;"': '"&amp;E35&amp;"', '"&amp;F$1&amp;"': '"&amp;F35&amp;"', '"&amp;G$1&amp;"':"&amp;G35&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 14, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, </v>
+      </c>
+      <c r="K35" s="2" t="str">
+        <f>IF(B34=B35,CONCATENATE(K34,J35),J35)</f>
+        <v xml:space="preserve">{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 48, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'reg': 14, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, </v>
+      </c>
+      <c r="L35" s="11" t="str">
+        <f>IF(B35=B36,"","{'"&amp;B$1&amp;"': "&amp;B35&amp;", 'editing': false, 'tipo': '"&amp;A35&amp;"', 'data': "&amp;"["&amp;K35&amp;"],  },")</f>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>157</v>
       </c>
@@ -3500,38 +3397,35 @@
         <v>6</v>
       </c>
       <c r="D36" s="2">
-        <v>1</v>
-      </c>
-      <c r="E36" s="2">
-        <v>2</v>
-      </c>
-      <c r="F36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="F36" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H36" s="7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I36" s="14">
+      <c r="G36" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H36" s="14">
         <v>25</v>
       </c>
-      <c r="K36" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 25, 'subtipo': '', 'row' :26, 'col': 6, 'rows': 1, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1}, </v>
-      </c>
-      <c r="L36" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">{ 'reg': 35, 'subtipo': '', 'row' :26, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 48, 'subtipo': '', 'row' :26, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'reg': 14, 'subtipo': '', 'row' :26, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, { 'reg': 25, 'subtipo': '', 'row' :26, 'col': 6, 'rows': 1, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1}, </v>
-      </c>
-      <c r="M36" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'titulo3', 'data': [{ 'reg': 35, 'subtipo': '', 'row' :26, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 48, 'subtipo': '', 'row' :26, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'reg': 14, 'subtipo': '', 'row' :26, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, { 'reg': 25, 'subtipo': '', 'row' :26, 'col': 6, 'rows': 1, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J36" s="15" t="str">
+        <f>+"{ '"&amp;H$1&amp;"': "&amp;H36&amp;", '"&amp;I$1&amp;"': '"&amp;I36&amp;"', '"&amp;C$1&amp;"': "&amp;C36&amp;", '"&amp;D$1&amp;"': "&amp;D36&amp;", '"&amp;E$1&amp;"': '"&amp;E36&amp;"', '"&amp;F$1&amp;"': '"&amp;F36&amp;"', '"&amp;G$1&amp;"':"&amp;G36&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 25, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1}, </v>
+      </c>
+      <c r="K36" s="2" t="str">
+        <f>IF(B35=B36,CONCATENATE(K35,J36),J36)</f>
+        <v xml:space="preserve">{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 48, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'reg': 14, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, { 'reg': 25, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1}, </v>
+      </c>
+      <c r="L36" s="11" t="str">
+        <f>IF(B36=B37,"","{'"&amp;B$1&amp;"': "&amp;B36&amp;", 'editing': false, 'tipo': '"&amp;A36&amp;"', 'data': "&amp;"["&amp;K36&amp;"],  },")</f>
+        <v>{'row': 26, 'editing': false, 'tipo': 'titulo3', 'data': [{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 48, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'reg': 14, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, { 'reg': 25, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>159</v>
       </c>
@@ -3545,36 +3439,33 @@
       <c r="D37" s="2">
         <v>1</v>
       </c>
-      <c r="E37" s="2">
-        <v>1</v>
-      </c>
-      <c r="F37" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="F37" s="7">
+        <v>1</v>
+      </c>
       <c r="G37" s="7">
-        <v>1</v>
-      </c>
-      <c r="H37" s="7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I37" s="14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H37" s="14">
         <v>99</v>
       </c>
-      <c r="K37" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 99, 'subtipo': '', 'row' :27, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, </v>
-      </c>
-      <c r="L37" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">{ 'reg': 99, 'subtipo': '', 'row' :27, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, </v>
-      </c>
-      <c r="M37" s="11" t="str">
-        <f t="shared" si="3"/>
+      <c r="J37" s="15" t="str">
+        <f>+"{ '"&amp;H$1&amp;"': "&amp;H37&amp;", '"&amp;I$1&amp;"': '"&amp;I37&amp;"', '"&amp;C$1&amp;"': "&amp;C37&amp;", '"&amp;D$1&amp;"': "&amp;D37&amp;", '"&amp;E$1&amp;"': '"&amp;E37&amp;"', '"&amp;F$1&amp;"': '"&amp;F37&amp;"', '"&amp;G$1&amp;"':"&amp;G37&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, </v>
+      </c>
+      <c r="K37" s="2" t="str">
+        <f>IF(B36=B37,CONCATENATE(K36,J37),J37)</f>
+        <v xml:space="preserve">{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, </v>
+      </c>
+      <c r="L37" s="11" t="str">
+        <f>IF(B37=B38,"","{'"&amp;B$1&amp;"': "&amp;B37&amp;", 'editing': false, 'tipo': '"&amp;A37&amp;"', 'data': "&amp;"["&amp;K37&amp;"],  },")</f>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="174" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" ht="174" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>159</v>
       </c>
@@ -3586,38 +3477,35 @@
         <v>2</v>
       </c>
       <c r="D38" s="2">
-        <v>1</v>
-      </c>
-      <c r="E38" s="2">
         <v>3</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="F38" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="H38" s="7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I38" s="14">
+      <c r="G38" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H38" s="14">
         <v>127</v>
       </c>
-      <c r="K38" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 127, 'subtipo': '', 'row' :27, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1}, </v>
-      </c>
-      <c r="L38" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">{ 'reg': 99, 'subtipo': '', 'row' :27, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, { 'reg': 127, 'subtipo': '', 'row' :27, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1}, </v>
-      </c>
-      <c r="M38" s="11" t="str">
-        <f t="shared" si="3"/>
+      <c r="J38" s="15" t="str">
+        <f>+"{ '"&amp;H$1&amp;"': "&amp;H38&amp;", '"&amp;I$1&amp;"': '"&amp;I38&amp;"', '"&amp;C$1&amp;"': "&amp;C38&amp;", '"&amp;D$1&amp;"': "&amp;D38&amp;", '"&amp;E$1&amp;"': '"&amp;E38&amp;"', '"&amp;F$1&amp;"': '"&amp;F38&amp;"', '"&amp;G$1&amp;"':"&amp;G38&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 127, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1}, </v>
+      </c>
+      <c r="K38" s="2" t="str">
+        <f>IF(B37=B38,CONCATENATE(K37,J38),J38)</f>
+        <v xml:space="preserve">{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, { 'reg': 127, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1}, </v>
+      </c>
+      <c r="L38" s="11" t="str">
+        <f>IF(B38=B39,"","{'"&amp;B$1&amp;"': "&amp;B38&amp;", 'editing': false, 'tipo': '"&amp;A38&amp;"', 'data': "&amp;"["&amp;K38&amp;"],  },")</f>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>159</v>
       </c>
@@ -3629,38 +3517,35 @@
         <v>4</v>
       </c>
       <c r="D39" s="2">
-        <v>1</v>
-      </c>
-      <c r="E39" s="2">
-        <v>2</v>
-      </c>
-      <c r="F39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="F39" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="H39" s="7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I39" s="14">
+      <c r="G39" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H39" s="14">
         <v>91</v>
       </c>
-      <c r="K39" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 91, 'subtipo': '', 'row' :27, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Reconoce el recorrido de las operaciones empresariales en el ciclo contable de una empresa. Evalúa la utilidad de la información financiera y gerencial.', 'offset':1}, </v>
-      </c>
-      <c r="L39" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">{ 'reg': 99, 'subtipo': '', 'row' :27, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, { 'reg': 127, 'subtipo': '', 'row' :27, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1}, { 'reg': 91, 'subtipo': '', 'row' :27, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Reconoce el recorrido de las operaciones empresariales en el ciclo contable de una empresa. Evalúa la utilidad de la información financiera y gerencial.', 'offset':1}, </v>
-      </c>
-      <c r="M39" s="11" t="str">
-        <f t="shared" si="3"/>
+      <c r="J39" s="15" t="str">
+        <f>+"{ '"&amp;H$1&amp;"': "&amp;H39&amp;", '"&amp;I$1&amp;"': '"&amp;I39&amp;"', '"&amp;C$1&amp;"': "&amp;C39&amp;", '"&amp;D$1&amp;"': "&amp;D39&amp;", '"&amp;E$1&amp;"': '"&amp;E39&amp;"', '"&amp;F$1&amp;"': '"&amp;F39&amp;"', '"&amp;G$1&amp;"':"&amp;G39&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 91, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Reconoce el recorrido de las operaciones empresariales en el ciclo contable de una empresa. Evalúa la utilidad de la información financiera y gerencial.', 'offset':1}, </v>
+      </c>
+      <c r="K39" s="2" t="str">
+        <f>IF(B38=B39,CONCATENATE(K38,J39),J39)</f>
+        <v xml:space="preserve">{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, { 'reg': 127, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1}, { 'reg': 91, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Reconoce el recorrido de las operaciones empresariales en el ciclo contable de una empresa. Evalúa la utilidad de la información financiera y gerencial.', 'offset':1}, </v>
+      </c>
+      <c r="L39" s="11" t="str">
+        <f>IF(B39=B40,"","{'"&amp;B$1&amp;"': "&amp;B39&amp;", 'editing': false, 'tipo': '"&amp;A39&amp;"', 'data': "&amp;"["&amp;K39&amp;"],  },")</f>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>159</v>
       </c>
@@ -3672,38 +3557,35 @@
         <v>6</v>
       </c>
       <c r="D40" s="2">
-        <v>1</v>
-      </c>
-      <c r="E40" s="2">
-        <v>2</v>
-      </c>
-      <c r="F40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="F40" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="H40" s="7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I40" s="14">
+      <c r="G40" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H40" s="14">
         <v>115</v>
       </c>
-      <c r="K40" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 115, 'subtipo': '', 'row' :27, 'col': 6, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada\nTaller', 'offset':1}, </v>
-      </c>
-      <c r="L40" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">{ 'reg': 99, 'subtipo': '', 'row' :27, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, { 'reg': 127, 'subtipo': '', 'row' :27, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1}, { 'reg': 91, 'subtipo': '', 'row' :27, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Reconoce el recorrido de las operaciones empresariales en el ciclo contable de una empresa. Evalúa la utilidad de la información financiera y gerencial.', 'offset':1}, { 'reg': 115, 'subtipo': '', 'row' :27, 'col': 6, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada\nTaller', 'offset':1}, </v>
-      </c>
-      <c r="M40" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'contenidos', 'data': [{ 'reg': 99, 'subtipo': '', 'row' :27, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, { 'reg': 127, 'subtipo': '', 'row' :27, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1}, { 'reg': 91, 'subtipo': '', 'row' :27, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Reconoce el recorrido de las operaciones empresariales en el ciclo contable de una empresa. Evalúa la utilidad de la información financiera y gerencial.', 'offset':1}, { 'reg': 115, 'subtipo': '', 'row' :27, 'col': 6, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada\nTaller', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J40" s="15" t="str">
+        <f>+"{ '"&amp;H$1&amp;"': "&amp;H40&amp;", '"&amp;I$1&amp;"': '"&amp;I40&amp;"', '"&amp;C$1&amp;"': "&amp;C40&amp;", '"&amp;D$1&amp;"': "&amp;D40&amp;", '"&amp;E$1&amp;"': '"&amp;E40&amp;"', '"&amp;F$1&amp;"': '"&amp;F40&amp;"', '"&amp;G$1&amp;"':"&amp;G40&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 115, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada\nTaller', 'offset':1}, </v>
+      </c>
+      <c r="K40" s="2" t="str">
+        <f>IF(B39=B40,CONCATENATE(K39,J40),J40)</f>
+        <v xml:space="preserve">{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, { 'reg': 127, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1}, { 'reg': 91, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Reconoce el recorrido de las operaciones empresariales en el ciclo contable de una empresa. Evalúa la utilidad de la información financiera y gerencial.', 'offset':1}, { 'reg': 115, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada\nTaller', 'offset':1}, </v>
+      </c>
+      <c r="L40" s="11" t="str">
+        <f>IF(B40=B41,"","{'"&amp;B$1&amp;"': "&amp;B40&amp;", 'editing': false, 'tipo': '"&amp;A40&amp;"', 'data': "&amp;"["&amp;K40&amp;"],  },")</f>
+        <v>{'row': 27, 'editing': false, 'tipo': 'contenidos', 'data': [{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, { 'reg': 127, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1}, { 'reg': 91, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Reconoce el recorrido de las operaciones empresariales en el ciclo contable de una empresa. Evalúa la utilidad de la información financiera y gerencial.', 'offset':1}, { 'reg': 115, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada\nTaller', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>159</v>
       </c>
@@ -3717,36 +3599,33 @@
       <c r="D41" s="2">
         <v>1</v>
       </c>
-      <c r="E41" s="2">
-        <v>1</v>
-      </c>
-      <c r="F41" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G41" s="13">
-        <v>2</v>
-      </c>
-      <c r="H41" s="7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I41" s="14">
+      <c r="F41" s="13">
+        <v>2</v>
+      </c>
+      <c r="G41" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H41" s="14">
         <v>62</v>
       </c>
-      <c r="K41" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'row' :28, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, </v>
-      </c>
-      <c r="L41" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'row' :28, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, </v>
-      </c>
-      <c r="M41" s="11" t="str">
-        <f t="shared" si="3"/>
+      <c r="J41" s="15" t="str">
+        <f>+"{ '"&amp;H$1&amp;"': "&amp;H41&amp;", '"&amp;I$1&amp;"': '"&amp;I41&amp;"', '"&amp;C$1&amp;"': "&amp;C41&amp;", '"&amp;D$1&amp;"': "&amp;D41&amp;", '"&amp;E$1&amp;"': '"&amp;E41&amp;"', '"&amp;F$1&amp;"': '"&amp;F41&amp;"', '"&amp;G$1&amp;"':"&amp;G41&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, </v>
+      </c>
+      <c r="K41" s="2" t="str">
+        <f>IF(B40=B41,CONCATENATE(K40,J41),J41)</f>
+        <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, </v>
+      </c>
+      <c r="L41" s="11" t="str">
+        <f>IF(B41=B42,"","{'"&amp;B$1&amp;"': "&amp;B41&amp;", 'editing': false, 'tipo': '"&amp;A41&amp;"', 'data': "&amp;"["&amp;K41&amp;"],  },")</f>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="87" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" ht="87" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>159</v>
       </c>
@@ -3758,38 +3637,35 @@
         <v>2</v>
       </c>
       <c r="D42" s="2">
-        <v>1</v>
-      </c>
-      <c r="E42" s="2">
         <v>3</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="F42" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="H42" s="7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I42" s="14">
+      <c r="G42" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H42" s="14">
         <v>17</v>
       </c>
-      <c r="K42" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 17, 'subtipo': '', 'row' :28, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1}, </v>
-      </c>
-      <c r="L42" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'row' :28, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, { 'reg': 17, 'subtipo': '', 'row' :28, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1}, </v>
-      </c>
-      <c r="M42" s="11" t="str">
-        <f t="shared" si="3"/>
+      <c r="J42" s="15" t="str">
+        <f>+"{ '"&amp;H$1&amp;"': "&amp;H42&amp;", '"&amp;I$1&amp;"': '"&amp;I42&amp;"', '"&amp;C$1&amp;"': "&amp;C42&amp;", '"&amp;D$1&amp;"': "&amp;D42&amp;", '"&amp;E$1&amp;"': '"&amp;E42&amp;"', '"&amp;F$1&amp;"': '"&amp;F42&amp;"', '"&amp;G$1&amp;"':"&amp;G42&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 17, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1}, </v>
+      </c>
+      <c r="K42" s="2" t="str">
+        <f>IF(B41=B42,CONCATENATE(K41,J42),J42)</f>
+        <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, { 'reg': 17, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1}, </v>
+      </c>
+      <c r="L42" s="11" t="str">
+        <f>IF(B42=B43,"","{'"&amp;B$1&amp;"': "&amp;B42&amp;", 'editing': false, 'tipo': '"&amp;A42&amp;"', 'data': "&amp;"["&amp;K42&amp;"],  },")</f>
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="str">
         <f>+A42</f>
         <v>contenidos</v>
@@ -3802,38 +3678,35 @@
         <v>4</v>
       </c>
       <c r="D43" s="2">
-        <v>1</v>
-      </c>
-      <c r="E43" s="2">
-        <v>2</v>
-      </c>
-      <c r="F43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="F43" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H43" s="7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I43" s="14">
+      <c r="G43" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H43" s="14">
         <v>102</v>
       </c>
-      <c r="K43" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 102, 'subtipo': '', 'row' :28, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Determinación, distribución y aplicación de los costos en una empresa mercantil.', 'offset':1}, </v>
-      </c>
-      <c r="L43" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'row' :28, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, { 'reg': 17, 'subtipo': '', 'row' :28, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1}, { 'reg': 102, 'subtipo': '', 'row' :28, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Determinación, distribución y aplicación de los costos en una empresa mercantil.', 'offset':1}, </v>
-      </c>
-      <c r="M43" s="11" t="str">
-        <f t="shared" si="3"/>
+      <c r="J43" s="15" t="str">
+        <f>+"{ '"&amp;H$1&amp;"': "&amp;H43&amp;", '"&amp;I$1&amp;"': '"&amp;I43&amp;"', '"&amp;C$1&amp;"': "&amp;C43&amp;", '"&amp;D$1&amp;"': "&amp;D43&amp;", '"&amp;E$1&amp;"': '"&amp;E43&amp;"', '"&amp;F$1&amp;"': '"&amp;F43&amp;"', '"&amp;G$1&amp;"':"&amp;G43&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 102, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Determinación, distribución y aplicación de los costos en una empresa mercantil.', 'offset':1}, </v>
+      </c>
+      <c r="K43" s="2" t="str">
+        <f>IF(B42=B43,CONCATENATE(K42,J43),J43)</f>
+        <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, { 'reg': 17, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1}, { 'reg': 102, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Determinación, distribución y aplicación de los costos en una empresa mercantil.', 'offset':1}, </v>
+      </c>
+      <c r="L43" s="11" t="str">
+        <f>IF(B43=B44,"","{'"&amp;B$1&amp;"': "&amp;B43&amp;", 'editing': false, 'tipo': '"&amp;A43&amp;"', 'data': "&amp;"["&amp;K43&amp;"],  },")</f>
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="str">
         <f>+A43</f>
         <v>contenidos</v>
@@ -3846,38 +3719,35 @@
         <v>6</v>
       </c>
       <c r="D44" s="2">
-        <v>1</v>
-      </c>
-      <c r="E44" s="2">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G44" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H44" s="7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I44" s="14">
+      <c r="G44" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H44" s="14">
         <v>126</v>
       </c>
-      <c r="K44" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 126, 'subtipo': '', 'row' :28, 'col': 6, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Dinámica grupal/debate en clase', 'offset':1}, </v>
-      </c>
-      <c r="L44" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'row' :28, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, { 'reg': 17, 'subtipo': '', 'row' :28, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1}, { 'reg': 102, 'subtipo': '', 'row' :28, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Determinación, distribución y aplicación de los costos en una empresa mercantil.', 'offset':1}, { 'reg': 126, 'subtipo': '', 'row' :28, 'col': 6, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Dinámica grupal/debate en clase', 'offset':1}, </v>
-      </c>
-      <c r="M44" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'contenidos', 'data': [{ 'reg': 62, 'subtipo': '', 'row' :28, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, { 'reg': 17, 'subtipo': '', 'row' :28, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1}, { 'reg': 102, 'subtipo': '', 'row' :28, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Determinación, distribución y aplicación de los costos en una empresa mercantil.', 'offset':1}, { 'reg': 126, 'subtipo': '', 'row' :28, 'col': 6, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Dinámica grupal/debate en clase', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J44" s="15" t="str">
+        <f>+"{ '"&amp;H$1&amp;"': "&amp;H44&amp;", '"&amp;I$1&amp;"': '"&amp;I44&amp;"', '"&amp;C$1&amp;"': "&amp;C44&amp;", '"&amp;D$1&amp;"': "&amp;D44&amp;", '"&amp;E$1&amp;"': '"&amp;E44&amp;"', '"&amp;F$1&amp;"': '"&amp;F44&amp;"', '"&amp;G$1&amp;"':"&amp;G44&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 126, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Dinámica grupal/debate en clase', 'offset':1}, </v>
+      </c>
+      <c r="K44" s="2" t="str">
+        <f>IF(B43=B44,CONCATENATE(K43,J44),J44)</f>
+        <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, { 'reg': 17, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1}, { 'reg': 102, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Determinación, distribución y aplicación de los costos en una empresa mercantil.', 'offset':1}, { 'reg': 126, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Dinámica grupal/debate en clase', 'offset':1}, </v>
+      </c>
+      <c r="L44" s="11" t="str">
+        <f>IF(B44=B45,"","{'"&amp;B$1&amp;"': "&amp;B44&amp;", 'editing': false, 'tipo': '"&amp;A44&amp;"', 'data': "&amp;"["&amp;K44&amp;"],  },")</f>
+        <v>{'row': 28, 'editing': false, 'tipo': 'contenidos', 'data': [{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, { 'reg': 17, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1}, { 'reg': 102, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Determinación, distribución y aplicación de los costos en una empresa mercantil.', 'offset':1}, { 'reg': 126, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Dinámica grupal/debate en clase', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>159</v>
       </c>
@@ -3891,36 +3761,33 @@
       <c r="D45" s="2">
         <v>1</v>
       </c>
-      <c r="E45" s="2">
-        <v>1</v>
-      </c>
-      <c r="F45" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="F45" s="7">
+        <v>3</v>
+      </c>
       <c r="G45" s="7">
-        <v>3</v>
-      </c>
-      <c r="H45" s="7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I45" s="14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H45" s="14">
         <v>39</v>
       </c>
-      <c r="K45" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 39, 'subtipo': '', 'row' :29, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, </v>
-      </c>
-      <c r="L45" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">{ 'reg': 39, 'subtipo': '', 'row' :29, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, </v>
-      </c>
-      <c r="M45" s="11" t="str">
-        <f t="shared" si="3"/>
+      <c r="J45" s="15" t="str">
+        <f>+"{ '"&amp;H$1&amp;"': "&amp;H45&amp;", '"&amp;I$1&amp;"': '"&amp;I45&amp;"', '"&amp;C$1&amp;"': "&amp;C45&amp;", '"&amp;D$1&amp;"': "&amp;D45&amp;", '"&amp;E$1&amp;"': '"&amp;E45&amp;"', '"&amp;F$1&amp;"': '"&amp;F45&amp;"', '"&amp;G$1&amp;"':"&amp;G45&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, </v>
+      </c>
+      <c r="K45" s="2" t="str">
+        <f>IF(B44=B45,CONCATENATE(K44,J45),J45)</f>
+        <v xml:space="preserve">{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, </v>
+      </c>
+      <c r="L45" s="11" t="str">
+        <f>IF(B45=B46,"","{'"&amp;B$1&amp;"': "&amp;B45&amp;", 'editing': false, 'tipo': '"&amp;A45&amp;"', 'data': "&amp;"["&amp;K45&amp;"],  },")</f>
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>159</v>
       </c>
@@ -3932,38 +3799,35 @@
         <v>2</v>
       </c>
       <c r="D46" s="2">
-        <v>1</v>
-      </c>
-      <c r="E46" s="2">
         <v>3</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G46" s="5" t="s">
+      <c r="F46" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="H46" s="7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I46" s="14">
+      <c r="G46" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H46" s="14">
         <v>124</v>
       </c>
-      <c r="K46" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 124, 'subtipo': '', 'row' :29, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1}, </v>
-      </c>
-      <c r="L46" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">{ 'reg': 39, 'subtipo': '', 'row' :29, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, { 'reg': 124, 'subtipo': '', 'row' :29, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1}, </v>
-      </c>
-      <c r="M46" s="11" t="str">
-        <f t="shared" si="3"/>
+      <c r="J46" s="15" t="str">
+        <f>+"{ '"&amp;H$1&amp;"': "&amp;H46&amp;", '"&amp;I$1&amp;"': '"&amp;I46&amp;"', '"&amp;C$1&amp;"': "&amp;C46&amp;", '"&amp;D$1&amp;"': "&amp;D46&amp;", '"&amp;E$1&amp;"': '"&amp;E46&amp;"', '"&amp;F$1&amp;"': '"&amp;F46&amp;"', '"&amp;G$1&amp;"':"&amp;G46&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 124, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1}, </v>
+      </c>
+      <c r="K46" s="2" t="str">
+        <f>IF(B45=B46,CONCATENATE(K45,J46),J46)</f>
+        <v xml:space="preserve">{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, { 'reg': 124, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1}, </v>
+      </c>
+      <c r="L46" s="11" t="str">
+        <f>IF(B46=B47,"","{'"&amp;B$1&amp;"': "&amp;B46&amp;", 'editing': false, 'tipo': '"&amp;A46&amp;"', 'data': "&amp;"["&amp;K46&amp;"],  },")</f>
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>159</v>
       </c>
@@ -3975,38 +3839,35 @@
         <v>4</v>
       </c>
       <c r="D47" s="2">
-        <v>1</v>
-      </c>
-      <c r="E47" s="2">
-        <v>2</v>
-      </c>
-      <c r="F47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="F47" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H47" s="7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I47" s="14">
+      <c r="G47" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H47" s="14">
         <v>26</v>
       </c>
-      <c r="K47" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 26, 'subtipo': '', 'row' :29, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Analizar y aplicar el marco legal normativo para la elaboración de los Estados Financieros.', 'offset':1}, </v>
-      </c>
-      <c r="L47" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">{ 'reg': 39, 'subtipo': '', 'row' :29, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, { 'reg': 124, 'subtipo': '', 'row' :29, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1}, { 'reg': 26, 'subtipo': '', 'row' :29, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Analizar y aplicar el marco legal normativo para la elaboración de los Estados Financieros.', 'offset':1}, </v>
-      </c>
-      <c r="M47" s="11" t="str">
-        <f t="shared" si="3"/>
+      <c r="J47" s="15" t="str">
+        <f>+"{ '"&amp;H$1&amp;"': "&amp;H47&amp;", '"&amp;I$1&amp;"': '"&amp;I47&amp;"', '"&amp;C$1&amp;"': "&amp;C47&amp;", '"&amp;D$1&amp;"': "&amp;D47&amp;", '"&amp;E$1&amp;"': '"&amp;E47&amp;"', '"&amp;F$1&amp;"': '"&amp;F47&amp;"', '"&amp;G$1&amp;"':"&amp;G47&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 26, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Analizar y aplicar el marco legal normativo para la elaboración de los Estados Financieros.', 'offset':1}, </v>
+      </c>
+      <c r="K47" s="2" t="str">
+        <f>IF(B46=B47,CONCATENATE(K46,J47),J47)</f>
+        <v xml:space="preserve">{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, { 'reg': 124, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1}, { 'reg': 26, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Analizar y aplicar el marco legal normativo para la elaboración de los Estados Financieros.', 'offset':1}, </v>
+      </c>
+      <c r="L47" s="11" t="str">
+        <f>IF(B47=B48,"","{'"&amp;B$1&amp;"': "&amp;B47&amp;", 'editing': false, 'tipo': '"&amp;A47&amp;"', 'data': "&amp;"["&amp;K47&amp;"],  },")</f>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>159</v>
       </c>
@@ -4018,38 +3879,35 @@
         <v>6</v>
       </c>
       <c r="D48" s="2">
-        <v>1</v>
-      </c>
-      <c r="E48" s="2">
-        <v>2</v>
-      </c>
-      <c r="F48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G48" s="5" t="s">
+      <c r="F48" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="H48" s="7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I48" s="14">
+      <c r="G48" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H48" s="14">
         <v>40</v>
       </c>
-      <c r="K48" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 40, 'subtipo': '', 'row' :29, 'col': 6, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada', 'offset':1}, </v>
-      </c>
-      <c r="L48" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">{ 'reg': 39, 'subtipo': '', 'row' :29, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, { 'reg': 124, 'subtipo': '', 'row' :29, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1}, { 'reg': 26, 'subtipo': '', 'row' :29, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Analizar y aplicar el marco legal normativo para la elaboración de los Estados Financieros.', 'offset':1}, { 'reg': 40, 'subtipo': '', 'row' :29, 'col': 6, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada', 'offset':1}, </v>
-      </c>
-      <c r="M48" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'contenidos', 'data': [{ 'reg': 39, 'subtipo': '', 'row' :29, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, { 'reg': 124, 'subtipo': '', 'row' :29, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1}, { 'reg': 26, 'subtipo': '', 'row' :29, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Analizar y aplicar el marco legal normativo para la elaboración de los Estados Financieros.', 'offset':1}, { 'reg': 40, 'subtipo': '', 'row' :29, 'col': 6, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J48" s="15" t="str">
+        <f>+"{ '"&amp;H$1&amp;"': "&amp;H48&amp;", '"&amp;I$1&amp;"': '"&amp;I48&amp;"', '"&amp;C$1&amp;"': "&amp;C48&amp;", '"&amp;D$1&amp;"': "&amp;D48&amp;", '"&amp;E$1&amp;"': '"&amp;E48&amp;"', '"&amp;F$1&amp;"': '"&amp;F48&amp;"', '"&amp;G$1&amp;"':"&amp;G48&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 40, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada', 'offset':1}, </v>
+      </c>
+      <c r="K48" s="2" t="str">
+        <f>IF(B47=B48,CONCATENATE(K47,J48),J48)</f>
+        <v xml:space="preserve">{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, { 'reg': 124, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1}, { 'reg': 26, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Analizar y aplicar el marco legal normativo para la elaboración de los Estados Financieros.', 'offset':1}, { 'reg': 40, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada', 'offset':1}, </v>
+      </c>
+      <c r="L48" s="11" t="str">
+        <f>IF(B48=B49,"","{'"&amp;B$1&amp;"': "&amp;B48&amp;", 'editing': false, 'tipo': '"&amp;A48&amp;"', 'data': "&amp;"["&amp;K48&amp;"],  },")</f>
+        <v>{'row': 29, 'editing': false, 'tipo': 'contenidos', 'data': [{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, { 'reg': 124, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1}, { 'reg': 26, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Analizar y aplicar el marco legal normativo para la elaboración de los Estados Financieros.', 'offset':1}, { 'reg': 40, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>159</v>
       </c>
@@ -4063,36 +3921,33 @@
       <c r="D49" s="2">
         <v>1</v>
       </c>
-      <c r="E49" s="2">
-        <v>1</v>
-      </c>
-      <c r="F49" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="F49" s="7">
+        <v>4</v>
+      </c>
       <c r="G49" s="7">
-        <v>4</v>
-      </c>
-      <c r="H49" s="7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I49" s="14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H49" s="14">
         <v>43</v>
       </c>
-      <c r="K49" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 43, 'subtipo': '', 'row' :30, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, </v>
-      </c>
-      <c r="L49" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">{ 'reg': 43, 'subtipo': '', 'row' :30, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, </v>
-      </c>
-      <c r="M49" s="11" t="str">
-        <f t="shared" si="3"/>
+      <c r="J49" s="15" t="str">
+        <f>+"{ '"&amp;H$1&amp;"': "&amp;H49&amp;", '"&amp;I$1&amp;"': '"&amp;I49&amp;"', '"&amp;C$1&amp;"': "&amp;C49&amp;", '"&amp;D$1&amp;"': "&amp;D49&amp;", '"&amp;E$1&amp;"': '"&amp;E49&amp;"', '"&amp;F$1&amp;"': '"&amp;F49&amp;"', '"&amp;G$1&amp;"':"&amp;G49&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, </v>
+      </c>
+      <c r="K49" s="2" t="str">
+        <f>IF(B48=B49,CONCATENATE(K48,J49),J49)</f>
+        <v xml:space="preserve">{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, </v>
+      </c>
+      <c r="L49" s="11" t="str">
+        <f>IF(B49=B50,"","{'"&amp;B$1&amp;"': "&amp;B49&amp;", 'editing': false, 'tipo': '"&amp;A49&amp;"', 'data': "&amp;"["&amp;K49&amp;"],  },")</f>
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="87" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" ht="87" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>159</v>
       </c>
@@ -4104,38 +3959,35 @@
         <v>2</v>
       </c>
       <c r="D50" s="2">
-        <v>1</v>
-      </c>
-      <c r="E50" s="2">
         <v>3</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G50" s="5" t="s">
+      <c r="F50" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="H50" s="7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I50" s="14">
+      <c r="G50" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H50" s="14">
         <v>62</v>
       </c>
-      <c r="K50" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'row' :30, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1}, </v>
-      </c>
-      <c r="L50" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">{ 'reg': 43, 'subtipo': '', 'row' :30, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, { 'reg': 62, 'subtipo': '', 'row' :30, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1}, </v>
-      </c>
-      <c r="M50" s="11" t="str">
-        <f t="shared" si="3"/>
+      <c r="J50" s="15" t="str">
+        <f>+"{ '"&amp;H$1&amp;"': "&amp;H50&amp;", '"&amp;I$1&amp;"': '"&amp;I50&amp;"', '"&amp;C$1&amp;"': "&amp;C50&amp;", '"&amp;D$1&amp;"': "&amp;D50&amp;", '"&amp;E$1&amp;"': '"&amp;E50&amp;"', '"&amp;F$1&amp;"': '"&amp;F50&amp;"', '"&amp;G$1&amp;"':"&amp;G50&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1}, </v>
+      </c>
+      <c r="K50" s="2" t="str">
+        <f>IF(B49=B50,CONCATENATE(K49,J50),J50)</f>
+        <v xml:space="preserve">{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, { 'reg': 62, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1}, </v>
+      </c>
+      <c r="L50" s="11" t="str">
+        <f>IF(B50=B51,"","{'"&amp;B$1&amp;"': "&amp;B50&amp;", 'editing': false, 'tipo': '"&amp;A50&amp;"', 'data': "&amp;"["&amp;K50&amp;"],  },")</f>
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>159</v>
       </c>
@@ -4147,38 +3999,35 @@
         <v>4</v>
       </c>
       <c r="D51" s="2">
-        <v>1</v>
-      </c>
-      <c r="E51" s="2">
-        <v>2</v>
-      </c>
-      <c r="F51" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G51" s="7" t="s">
+      <c r="F51" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H51" s="7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I51" s="14">
+      <c r="G51" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H51" s="14">
         <v>10</v>
       </c>
-      <c r="K51" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 10, 'subtipo': '', 'row' :30, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Evalúa los resultados obtenidos. Demuestra la aplicación del análisis vertical y horizontal.', 'offset':1}, </v>
-      </c>
-      <c r="L51" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">{ 'reg': 43, 'subtipo': '', 'row' :30, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, { 'reg': 62, 'subtipo': '', 'row' :30, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1}, { 'reg': 10, 'subtipo': '', 'row' :30, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Evalúa los resultados obtenidos. Demuestra la aplicación del análisis vertical y horizontal.', 'offset':1}, </v>
-      </c>
-      <c r="M51" s="11" t="str">
-        <f t="shared" si="3"/>
+      <c r="J51" s="15" t="str">
+        <f>+"{ '"&amp;H$1&amp;"': "&amp;H51&amp;", '"&amp;I$1&amp;"': '"&amp;I51&amp;"', '"&amp;C$1&amp;"': "&amp;C51&amp;", '"&amp;D$1&amp;"': "&amp;D51&amp;", '"&amp;E$1&amp;"': '"&amp;E51&amp;"', '"&amp;F$1&amp;"': '"&amp;F51&amp;"', '"&amp;G$1&amp;"':"&amp;G51&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 10, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Evalúa los resultados obtenidos. Demuestra la aplicación del análisis vertical y horizontal.', 'offset':1}, </v>
+      </c>
+      <c r="K51" s="2" t="str">
+        <f>IF(B50=B51,CONCATENATE(K50,J51),J51)</f>
+        <v xml:space="preserve">{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, { 'reg': 62, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1}, { 'reg': 10, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Evalúa los resultados obtenidos. Demuestra la aplicación del análisis vertical y horizontal.', 'offset':1}, </v>
+      </c>
+      <c r="L51" s="11" t="str">
+        <f>IF(B51=B52,"","{'"&amp;B$1&amp;"': "&amp;B51&amp;", 'editing': false, 'tipo': '"&amp;A51&amp;"', 'data': "&amp;"["&amp;K51&amp;"],  },")</f>
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>159</v>
       </c>
@@ -4190,38 +4039,35 @@
         <v>6</v>
       </c>
       <c r="D52" s="2">
-        <v>1</v>
-      </c>
-      <c r="E52" s="2">
-        <v>2</v>
-      </c>
-      <c r="F52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G52" s="5" t="s">
+      <c r="F52" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="H52" s="7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I52" s="14">
+      <c r="G52" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H52" s="14">
         <v>82</v>
       </c>
-      <c r="K52" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 82, 'subtipo': '', 'row' :30, 'col': 6, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Clase Expositiva\n Taller\n  Discusión de caso', 'offset':1}, </v>
-      </c>
-      <c r="L52" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">{ 'reg': 43, 'subtipo': '', 'row' :30, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, { 'reg': 62, 'subtipo': '', 'row' :30, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1}, { 'reg': 10, 'subtipo': '', 'row' :30, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Evalúa los resultados obtenidos. Demuestra la aplicación del análisis vertical y horizontal.', 'offset':1}, { 'reg': 82, 'subtipo': '', 'row' :30, 'col': 6, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Clase Expositiva\n Taller\n  Discusión de caso', 'offset':1}, </v>
-      </c>
-      <c r="M52" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'contenidos', 'data': [{ 'reg': 43, 'subtipo': '', 'row' :30, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, { 'reg': 62, 'subtipo': '', 'row' :30, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1}, { 'reg': 10, 'subtipo': '', 'row' :30, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Evalúa los resultados obtenidos. Demuestra la aplicación del análisis vertical y horizontal.', 'offset':1}, { 'reg': 82, 'subtipo': '', 'row' :30, 'col': 6, 'rows': 1, 'cols': 2, 'align': 'left', 'texto': 'Clase Expositiva\n Taller\n  Discusión de caso', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J52" s="15" t="str">
+        <f>+"{ '"&amp;H$1&amp;"': "&amp;H52&amp;", '"&amp;I$1&amp;"': '"&amp;I52&amp;"', '"&amp;C$1&amp;"': "&amp;C52&amp;", '"&amp;D$1&amp;"': "&amp;D52&amp;", '"&amp;E$1&amp;"': '"&amp;E52&amp;"', '"&amp;F$1&amp;"': '"&amp;F52&amp;"', '"&amp;G$1&amp;"':"&amp;G52&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 82, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Clase Expositiva\n Taller\n  Discusión de caso', 'offset':1}, </v>
+      </c>
+      <c r="K52" s="2" t="str">
+        <f>IF(B51=B52,CONCATENATE(K51,J52),J52)</f>
+        <v xml:space="preserve">{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, { 'reg': 62, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1}, { 'reg': 10, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Evalúa los resultados obtenidos. Demuestra la aplicación del análisis vertical y horizontal.', 'offset':1}, { 'reg': 82, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Clase Expositiva\n Taller\n  Discusión de caso', 'offset':1}, </v>
+      </c>
+      <c r="L52" s="11" t="str">
+        <f>IF(B52=B53,"","{'"&amp;B$1&amp;"': "&amp;B52&amp;", 'editing': false, 'tipo': '"&amp;A52&amp;"', 'data': "&amp;"["&amp;K52&amp;"],  },")</f>
+        <v>{'row': 30, 'editing': false, 'tipo': 'contenidos', 'data': [{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, { 'reg': 62, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1}, { 'reg': 10, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Evalúa los resultados obtenidos. Demuestra la aplicación del análisis vertical y horizontal.', 'offset':1}, { 'reg': 82, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Clase Expositiva\n Taller\n  Discusión de caso', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>161</v>
       </c>
@@ -4233,38 +4079,35 @@
         <v>2</v>
       </c>
       <c r="D53" s="2">
-        <v>1</v>
-      </c>
-      <c r="E53" s="2">
         <v>7</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G53" s="7" t="s">
+      <c r="F53" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="H53" s="7">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="I53" s="14">
+      <c r="G53" s="7">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H53" s="14">
         <v>19</v>
       </c>
-      <c r="K53" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 19, 'subtipo': '', 'row' :31, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'center', 'texto': 'EVALUACIÓN PARCIAL 1 ', 'offset':2}, </v>
-      </c>
-      <c r="L53" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">{ 'reg': 19, 'subtipo': '', 'row' :31, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'center', 'texto': 'EVALUACIÓN PARCIAL 1 ', 'offset':2}, </v>
-      </c>
-      <c r="M53" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'evaluaciones', 'data': [{ 'reg': 19, 'subtipo': '', 'row' :31, 'col': 2, 'rows': 1, 'cols': 7, 'align': 'center', 'texto': 'EVALUACIÓN PARCIAL 1 ', 'offset':2}, ],  },</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J53" s="15" t="str">
+        <f>+"{ '"&amp;H$1&amp;"': "&amp;H53&amp;", '"&amp;I$1&amp;"': '"&amp;I53&amp;"', '"&amp;C$1&amp;"': "&amp;C53&amp;", '"&amp;D$1&amp;"': "&amp;D53&amp;", '"&amp;E$1&amp;"': '"&amp;E53&amp;"', '"&amp;F$1&amp;"': '"&amp;F53&amp;"', '"&amp;G$1&amp;"':"&amp;G53&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 19, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'center', 'texto': 'EVALUACIÓN PARCIAL 1 ', 'offset':2}, </v>
+      </c>
+      <c r="K53" s="2" t="str">
+        <f>IF(B52=B53,CONCATENATE(K52,J53),J53)</f>
+        <v xml:space="preserve">{ 'reg': 19, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'center', 'texto': 'EVALUACIÓN PARCIAL 1 ', 'offset':2}, </v>
+      </c>
+      <c r="L53" s="11" t="str">
+        <f>IF(B53=B54,"","{'"&amp;B$1&amp;"': "&amp;B53&amp;", 'editing': false, 'tipo': '"&amp;A53&amp;"', 'data': "&amp;"["&amp;K53&amp;"],  },")</f>
+        <v>{'row': 31, 'editing': false, 'tipo': 'evaluaciones', 'data': [{ 'reg': 19, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'center', 'texto': 'EVALUACIÓN PARCIAL 1 ', 'offset':2}, ],  },</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>159</v>
       </c>
@@ -4278,36 +4121,33 @@
       <c r="D54" s="2">
         <v>1</v>
       </c>
-      <c r="E54" s="2">
-        <v>1</v>
-      </c>
-      <c r="F54" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="F54" s="7">
+        <v>5</v>
+      </c>
       <c r="G54" s="7">
-        <v>5</v>
-      </c>
-      <c r="H54" s="7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I54" s="14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H54" s="14">
         <v>82</v>
       </c>
-      <c r="K54" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 82, 'subtipo': '', 'row' :32, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, </v>
-      </c>
-      <c r="L54" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">{ 'reg': 82, 'subtipo': '', 'row' :32, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, </v>
-      </c>
-      <c r="M54" s="11" t="str">
-        <f t="shared" si="3"/>
+      <c r="J54" s="15" t="str">
+        <f>+"{ '"&amp;H$1&amp;"': "&amp;H54&amp;", '"&amp;I$1&amp;"': '"&amp;I54&amp;"', '"&amp;C$1&amp;"': "&amp;C54&amp;", '"&amp;D$1&amp;"': "&amp;D54&amp;", '"&amp;E$1&amp;"': '"&amp;E54&amp;"', '"&amp;F$1&amp;"': '"&amp;F54&amp;"', '"&amp;G$1&amp;"':"&amp;G54&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, </v>
+      </c>
+      <c r="K54" s="2" t="str">
+        <f>IF(B53=B54,CONCATENATE(K53,J54),J54)</f>
+        <v xml:space="preserve">{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, </v>
+      </c>
+      <c r="L54" s="11" t="str">
+        <f>IF(B54=B55,"","{'"&amp;B$1&amp;"': "&amp;B54&amp;", 'editing': false, 'tipo': '"&amp;A54&amp;"', 'data': "&amp;"["&amp;K54&amp;"],  },")</f>
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>159</v>
       </c>
@@ -4319,35 +4159,32 @@
         <v>2</v>
       </c>
       <c r="D55" s="2">
-        <v>1</v>
-      </c>
-      <c r="E55" s="2">
         <v>3</v>
       </c>
-      <c r="G55" s="5" t="s">
+      <c r="F55" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="H55" s="7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I55" s="14">
+      <c r="G55" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H55" s="14">
         <v>61</v>
       </c>
-      <c r="K55" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 61, 'subtipo': '', 'row' :32, 'col': 2, 'rows': 1, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1}, </v>
-      </c>
-      <c r="L55" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">{ 'reg': 82, 'subtipo': '', 'row' :32, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, { 'reg': 61, 'subtipo': '', 'row' :32, 'col': 2, 'rows': 1, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1}, </v>
-      </c>
-      <c r="M55" s="11" t="str">
-        <f t="shared" si="3"/>
+      <c r="J55" s="15" t="str">
+        <f>+"{ '"&amp;H$1&amp;"': "&amp;H55&amp;", '"&amp;I$1&amp;"': '"&amp;I55&amp;"', '"&amp;C$1&amp;"': "&amp;C55&amp;", '"&amp;D$1&amp;"': "&amp;D55&amp;", '"&amp;E$1&amp;"': '"&amp;E55&amp;"', '"&amp;F$1&amp;"': '"&amp;F55&amp;"', '"&amp;G$1&amp;"':"&amp;G55&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1}, </v>
+      </c>
+      <c r="K55" s="2" t="str">
+        <f>IF(B54=B55,CONCATENATE(K54,J55),J55)</f>
+        <v xml:space="preserve">{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, { 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1}, </v>
+      </c>
+      <c r="L55" s="11" t="str">
+        <f>IF(B55=B56,"","{'"&amp;B$1&amp;"': "&amp;B55&amp;", 'editing': false, 'tipo': '"&amp;A55&amp;"', 'data': "&amp;"["&amp;K55&amp;"],  },")</f>
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>159</v>
       </c>
@@ -4359,35 +4196,32 @@
         <v>4</v>
       </c>
       <c r="D56" s="2">
-        <v>1</v>
-      </c>
-      <c r="E56" s="2">
-        <v>2</v>
-      </c>
-      <c r="G56" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F56" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H56" s="7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I56" s="14">
+      <c r="G56" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H56" s="14">
         <v>39</v>
       </c>
-      <c r="K56" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 39, 'subtipo': '', 'row' :32, 'col': 4, 'rows': 1, 'cols': 2, 'align': '', 'texto': 'Propicia un debate acerca de la toma de decisiones en una empresa.', 'offset':1}, </v>
-      </c>
-      <c r="L56" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">{ 'reg': 82, 'subtipo': '', 'row' :32, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, { 'reg': 61, 'subtipo': '', 'row' :32, 'col': 2, 'rows': 1, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1}, { 'reg': 39, 'subtipo': '', 'row' :32, 'col': 4, 'rows': 1, 'cols': 2, 'align': '', 'texto': 'Propicia un debate acerca de la toma de decisiones en una empresa.', 'offset':1}, </v>
-      </c>
-      <c r="M56" s="11" t="str">
-        <f t="shared" si="3"/>
+      <c r="J56" s="15" t="str">
+        <f>+"{ '"&amp;H$1&amp;"': "&amp;H56&amp;", '"&amp;I$1&amp;"': '"&amp;I56&amp;"', '"&amp;C$1&amp;"': "&amp;C56&amp;", '"&amp;D$1&amp;"': "&amp;D56&amp;", '"&amp;E$1&amp;"': '"&amp;E56&amp;"', '"&amp;F$1&amp;"': '"&amp;F56&amp;"', '"&amp;G$1&amp;"':"&amp;G56&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 39, 'subtipo': '', 'col': 4, 'cols': 2, 'align': '', 'texto': 'Propicia un debate acerca de la toma de decisiones en una empresa.', 'offset':1}, </v>
+      </c>
+      <c r="K56" s="2" t="str">
+        <f>IF(B55=B56,CONCATENATE(K55,J56),J56)</f>
+        <v xml:space="preserve">{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, { 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1}, { 'reg': 39, 'subtipo': '', 'col': 4, 'cols': 2, 'align': '', 'texto': 'Propicia un debate acerca de la toma de decisiones en una empresa.', 'offset':1}, </v>
+      </c>
+      <c r="L56" s="11" t="str">
+        <f>IF(B56=B57,"","{'"&amp;B$1&amp;"': "&amp;B56&amp;", 'editing': false, 'tipo': '"&amp;A56&amp;"', 'data': "&amp;"["&amp;K56&amp;"],  },")</f>
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>159</v>
       </c>
@@ -4399,35 +4233,32 @@
         <v>6</v>
       </c>
       <c r="D57" s="2">
-        <v>1</v>
-      </c>
-      <c r="E57" s="2">
-        <v>2</v>
-      </c>
-      <c r="G57" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F57" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H57" s="7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I57" s="14">
+      <c r="G57" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H57" s="14">
         <v>69</v>
       </c>
-      <c r="K57" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 69, 'subtipo': '', 'row' :32, 'col': 6, 'rows': 1, 'cols': 2, 'align': '', 'texto': 'Exposición dialogada', 'offset':1}, </v>
-      </c>
-      <c r="L57" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">{ 'reg': 82, 'subtipo': '', 'row' :32, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, { 'reg': 61, 'subtipo': '', 'row' :32, 'col': 2, 'rows': 1, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1}, { 'reg': 39, 'subtipo': '', 'row' :32, 'col': 4, 'rows': 1, 'cols': 2, 'align': '', 'texto': 'Propicia un debate acerca de la toma de decisiones en una empresa.', 'offset':1}, { 'reg': 69, 'subtipo': '', 'row' :32, 'col': 6, 'rows': 1, 'cols': 2, 'align': '', 'texto': 'Exposición dialogada', 'offset':1}, </v>
-      </c>
-      <c r="M57" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'contenidos', 'data': [{ 'reg': 82, 'subtipo': '', 'row' :32, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, { 'reg': 61, 'subtipo': '', 'row' :32, 'col': 2, 'rows': 1, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1}, { 'reg': 39, 'subtipo': '', 'row' :32, 'col': 4, 'rows': 1, 'cols': 2, 'align': '', 'texto': 'Propicia un debate acerca de la toma de decisiones en una empresa.', 'offset':1}, { 'reg': 69, 'subtipo': '', 'row' :32, 'col': 6, 'rows': 1, 'cols': 2, 'align': '', 'texto': 'Exposición dialogada', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J57" s="15" t="str">
+        <f>+"{ '"&amp;H$1&amp;"': "&amp;H57&amp;", '"&amp;I$1&amp;"': '"&amp;I57&amp;"', '"&amp;C$1&amp;"': "&amp;C57&amp;", '"&amp;D$1&amp;"': "&amp;D57&amp;", '"&amp;E$1&amp;"': '"&amp;E57&amp;"', '"&amp;F$1&amp;"': '"&amp;F57&amp;"', '"&amp;G$1&amp;"':"&amp;G57&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 69, 'subtipo': '', 'col': 6, 'cols': 2, 'align': '', 'texto': 'Exposición dialogada', 'offset':1}, </v>
+      </c>
+      <c r="K57" s="2" t="str">
+        <f>IF(B56=B57,CONCATENATE(K56,J57),J57)</f>
+        <v xml:space="preserve">{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, { 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1}, { 'reg': 39, 'subtipo': '', 'col': 4, 'cols': 2, 'align': '', 'texto': 'Propicia un debate acerca de la toma de decisiones en una empresa.', 'offset':1}, { 'reg': 69, 'subtipo': '', 'col': 6, 'cols': 2, 'align': '', 'texto': 'Exposición dialogada', 'offset':1}, </v>
+      </c>
+      <c r="L57" s="11" t="str">
+        <f>IF(B57=B58,"","{'"&amp;B$1&amp;"': "&amp;B57&amp;", 'editing': false, 'tipo': '"&amp;A57&amp;"', 'data': "&amp;"["&amp;K57&amp;"],  },")</f>
+        <v>{'row': 32, 'editing': false, 'tipo': 'contenidos', 'data': [{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, { 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1}, { 'reg': 39, 'subtipo': '', 'col': 4, 'cols': 2, 'align': '', 'texto': 'Propicia un debate acerca de la toma de decisiones en una empresa.', 'offset':1}, { 'reg': 69, 'subtipo': '', 'col': 6, 'cols': 2, 'align': '', 'texto': 'Exposición dialogada', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>158</v>
       </c>
@@ -4439,38 +4270,35 @@
         <v>1</v>
       </c>
       <c r="D58" s="2">
-        <v>1</v>
-      </c>
-      <c r="E58" s="2">
         <v>8</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="E58" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G58" s="7" t="s">
+      <c r="F58" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="H58" s="7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I58" s="14">
+      <c r="G58" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H58" s="14">
         <v>124</v>
       </c>
-      <c r="K58" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 124, 'subtipo': '', 'row' :33, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD II: ANALISIS E INTERPRETACION DE LOS ESTADOS FINANCIEROS', 'offset':1}, </v>
-      </c>
-      <c r="L58" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">{ 'reg': 124, 'subtipo': '', 'row' :33, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD II: ANALISIS E INTERPRETACION DE LOS ESTADOS FINANCIEROS', 'offset':1}, </v>
-      </c>
-      <c r="M58" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'unidades', 'data': [{ 'reg': 124, 'subtipo': '', 'row' :33, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD II: ANALISIS E INTERPRETACION DE LOS ESTADOS FINANCIEROS', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J58" s="15" t="str">
+        <f>+"{ '"&amp;H$1&amp;"': "&amp;H58&amp;", '"&amp;I$1&amp;"': '"&amp;I58&amp;"', '"&amp;C$1&amp;"': "&amp;C58&amp;", '"&amp;D$1&amp;"': "&amp;D58&amp;", '"&amp;E$1&amp;"': '"&amp;E58&amp;"', '"&amp;F$1&amp;"': '"&amp;F58&amp;"', '"&amp;G$1&amp;"':"&amp;G58&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 124, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD II: ANALISIS E INTERPRETACION DE LOS ESTADOS FINANCIEROS', 'offset':1}, </v>
+      </c>
+      <c r="K58" s="2" t="str">
+        <f>IF(B57=B58,CONCATENATE(K57,J58),J58)</f>
+        <v xml:space="preserve">{ 'reg': 124, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD II: ANALISIS E INTERPRETACION DE LOS ESTADOS FINANCIEROS', 'offset':1}, </v>
+      </c>
+      <c r="L58" s="11" t="str">
+        <f>IF(B58=B59,"","{'"&amp;B$1&amp;"': "&amp;B58&amp;", 'editing': false, 'tipo': '"&amp;A58&amp;"', 'data': "&amp;"["&amp;K58&amp;"],  },")</f>
+        <v>{'row': 33, 'editing': false, 'tipo': 'unidades', 'data': [{ 'reg': 124, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD II: ANALISIS E INTERPRETACION DE LOS ESTADOS FINANCIEROS', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>157</v>
       </c>
@@ -4484,36 +4312,33 @@
       <c r="D59" s="2">
         <v>1</v>
       </c>
-      <c r="E59" s="2">
-        <v>1</v>
-      </c>
-      <c r="F59" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G59" s="7" t="s">
+      <c r="F59" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H59" s="7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I59" s="14">
+      <c r="G59" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H59" s="14">
         <v>62</v>
       </c>
-      <c r="K59" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'row' :34, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, </v>
-      </c>
-      <c r="L59" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'row' :34, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, </v>
-      </c>
-      <c r="M59" s="11" t="str">
-        <f t="shared" si="3"/>
+      <c r="J59" s="15" t="str">
+        <f>+"{ '"&amp;H$1&amp;"': "&amp;H59&amp;", '"&amp;I$1&amp;"': '"&amp;I59&amp;"', '"&amp;C$1&amp;"': "&amp;C59&amp;", '"&amp;D$1&amp;"': "&amp;D59&amp;", '"&amp;E$1&amp;"': '"&amp;E59&amp;"', '"&amp;F$1&amp;"': '"&amp;F59&amp;"', '"&amp;G$1&amp;"':"&amp;G59&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, </v>
+      </c>
+      <c r="K59" s="2" t="str">
+        <f>IF(B58=B59,CONCATENATE(K58,J59),J59)</f>
+        <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, </v>
+      </c>
+      <c r="L59" s="11" t="str">
+        <f>IF(B59=B60,"","{'"&amp;B$1&amp;"': "&amp;B59&amp;", 'editing': false, 'tipo': '"&amp;A59&amp;"', 'data': "&amp;"["&amp;K59&amp;"],  },")</f>
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>157</v>
       </c>
@@ -4525,38 +4350,35 @@
         <v>2</v>
       </c>
       <c r="D60" s="2">
-        <v>1</v>
-      </c>
-      <c r="E60" s="2">
         <v>3</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="E60" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G60" s="7" t="s">
+      <c r="F60" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H60" s="7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I60" s="14">
+      <c r="G60" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H60" s="14">
         <v>61</v>
       </c>
-      <c r="K60" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 61, 'subtipo': '', 'row' :34, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, </v>
-      </c>
-      <c r="L60" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'row' :34, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 61, 'subtipo': '', 'row' :34, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, </v>
-      </c>
-      <c r="M60" s="11" t="str">
-        <f t="shared" si="3"/>
+      <c r="J60" s="15" t="str">
+        <f>+"{ '"&amp;H$1&amp;"': "&amp;H60&amp;", '"&amp;I$1&amp;"': '"&amp;I60&amp;"', '"&amp;C$1&amp;"': "&amp;C60&amp;", '"&amp;D$1&amp;"': "&amp;D60&amp;", '"&amp;E$1&amp;"': '"&amp;E60&amp;"', '"&amp;F$1&amp;"': '"&amp;F60&amp;"', '"&amp;G$1&amp;"':"&amp;G60&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, </v>
+      </c>
+      <c r="K60" s="2" t="str">
+        <f>IF(B59=B60,CONCATENATE(K59,J60),J60)</f>
+        <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, </v>
+      </c>
+      <c r="L60" s="11" t="str">
+        <f>IF(B60=B61,"","{'"&amp;B$1&amp;"': "&amp;B60&amp;", 'editing': false, 'tipo': '"&amp;A60&amp;"', 'data': "&amp;"["&amp;K60&amp;"],  },")</f>
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>157</v>
       </c>
@@ -4568,38 +4390,35 @@
         <v>4</v>
       </c>
       <c r="D61" s="2">
-        <v>1</v>
-      </c>
-      <c r="E61" s="2">
-        <v>2</v>
-      </c>
-      <c r="F61" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G61" s="7" t="s">
+      <c r="F61" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H61" s="7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I61" s="14">
+      <c r="G61" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H61" s="14">
         <v>73</v>
       </c>
-      <c r="K61" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 73, 'subtipo': '', 'row' :34, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, </v>
-      </c>
-      <c r="L61" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'row' :34, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 61, 'subtipo': '', 'row' :34, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'reg': 73, 'subtipo': '', 'row' :34, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, </v>
-      </c>
-      <c r="M61" s="11" t="str">
-        <f t="shared" si="3"/>
+      <c r="J61" s="15" t="str">
+        <f>+"{ '"&amp;H$1&amp;"': "&amp;H61&amp;", '"&amp;I$1&amp;"': '"&amp;I61&amp;"', '"&amp;C$1&amp;"': "&amp;C61&amp;", '"&amp;D$1&amp;"': "&amp;D61&amp;", '"&amp;E$1&amp;"': '"&amp;E61&amp;"', '"&amp;F$1&amp;"': '"&amp;F61&amp;"', '"&amp;G$1&amp;"':"&amp;G61&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 73, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, </v>
+      </c>
+      <c r="K61" s="2" t="str">
+        <f>IF(B60=B61,CONCATENATE(K60,J61),J61)</f>
+        <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'reg': 73, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, </v>
+      </c>
+      <c r="L61" s="11" t="str">
+        <f>IF(B61=B62,"","{'"&amp;B$1&amp;"': "&amp;B61&amp;", 'editing': false, 'tipo': '"&amp;A61&amp;"', 'data': "&amp;"["&amp;K61&amp;"],  },")</f>
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>157</v>
       </c>
@@ -4611,38 +4430,35 @@
         <v>6</v>
       </c>
       <c r="D62" s="2">
-        <v>1</v>
-      </c>
-      <c r="E62" s="2">
-        <v>2</v>
-      </c>
-      <c r="F62" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G62" s="7" t="s">
+      <c r="F62" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H62" s="7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I62" s="14">
+      <c r="G62" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H62" s="14">
         <v>27</v>
       </c>
-      <c r="K62" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 27, 'subtipo': '', 'row' :34, 'col': 6, 'rows': 1, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1}, </v>
-      </c>
-      <c r="L62" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'row' :34, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 61, 'subtipo': '', 'row' :34, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'reg': 73, 'subtipo': '', 'row' :34, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, { 'reg': 27, 'subtipo': '', 'row' :34, 'col': 6, 'rows': 1, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1}, </v>
-      </c>
-      <c r="M62" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'titulo3', 'data': [{ 'reg': 62, 'subtipo': '', 'row' :34, 'col': 1, 'rows': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 61, 'subtipo': '', 'row' :34, 'col': 2, 'rows': 1, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'reg': 73, 'subtipo': '', 'row' :34, 'col': 4, 'rows': 1, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, { 'reg': 27, 'subtipo': '', 'row' :34, 'col': 6, 'rows': 1, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J62" s="15" t="str">
+        <f>+"{ '"&amp;H$1&amp;"': "&amp;H62&amp;", '"&amp;I$1&amp;"': '"&amp;I62&amp;"', '"&amp;C$1&amp;"': "&amp;C62&amp;", '"&amp;D$1&amp;"': "&amp;D62&amp;", '"&amp;E$1&amp;"': '"&amp;E62&amp;"', '"&amp;F$1&amp;"': '"&amp;F62&amp;"', '"&amp;G$1&amp;"':"&amp;G62&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 27, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1}, </v>
+      </c>
+      <c r="K62" s="2" t="str">
+        <f>IF(B61=B62,CONCATENATE(K61,J62),J62)</f>
+        <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'reg': 73, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, { 'reg': 27, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1}, </v>
+      </c>
+      <c r="L62" s="11" t="str">
+        <f>IF(B62=B63,"","{'"&amp;B$1&amp;"': "&amp;B62&amp;", 'editing': false, 'tipo': '"&amp;A62&amp;"', 'data': "&amp;"["&amp;K62&amp;"],  },")</f>
+        <v>{'row': 34, 'editing': false, 'tipo': 'titulo3', 'data': [{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'reg': 73, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, { 'reg': 27, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>151</v>
       </c>
@@ -4654,134 +4470,125 @@
         <v>1</v>
       </c>
       <c r="D63" s="2">
-        <v>1</v>
-      </c>
-      <c r="E63" s="2">
         <v>8</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="E63" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G63" s="7" t="s">
+      <c r="F63" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="H63" s="7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I63" s="14">
+      <c r="G63" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H63" s="14">
         <v>6</v>
       </c>
-      <c r="J63" s="12" t="s">
+      <c r="I63" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="K63" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 6, 'subtipo': 'estrategias', 'row' :35, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'V. ESTRATEGIAS METODOLÓGICAS', 'offset':1}, </v>
-      </c>
-      <c r="L63" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">{ 'reg': 6, 'subtipo': 'estrategias', 'row' :35, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'V. ESTRATEGIAS METODOLÓGICAS', 'offset':1}, </v>
-      </c>
-      <c r="M63" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'titulo1', 'data': [{ 'reg': 6, 'subtipo': 'estrategias', 'row' :35, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'V. ESTRATEGIAS METODOLÓGICAS', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J63" s="15" t="str">
+        <f>+"{ '"&amp;H$1&amp;"': "&amp;H63&amp;", '"&amp;I$1&amp;"': '"&amp;I63&amp;"', '"&amp;C$1&amp;"': "&amp;C63&amp;", '"&amp;D$1&amp;"': "&amp;D63&amp;", '"&amp;E$1&amp;"': '"&amp;E63&amp;"', '"&amp;F$1&amp;"': '"&amp;F63&amp;"', '"&amp;G$1&amp;"':"&amp;G63&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 6, 'subtipo': 'estrategias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'V. ESTRATEGIAS METODOLÓGICAS', 'offset':1}, </v>
+      </c>
+      <c r="K63" s="2" t="str">
+        <f>IF(B62=B63,CONCATENATE(K62,J63),J63)</f>
+        <v xml:space="preserve">{ 'reg': 6, 'subtipo': 'estrategias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'V. ESTRATEGIAS METODOLÓGICAS', 'offset':1}, </v>
+      </c>
+      <c r="L63" s="11" t="str">
+        <f>IF(B63=B64,"","{'"&amp;B$1&amp;"': "&amp;B63&amp;", 'editing': false, 'tipo': '"&amp;A63&amp;"', 'data': "&amp;"["&amp;K63&amp;"],  },")</f>
+        <v>{'row': 35, 'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 6, 'subtipo': 'estrategias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'V. ESTRATEGIAS METODOLÓGICAS', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>151</v>
       </c>
       <c r="B64" s="2">
-        <f t="shared" ref="B64:B65" si="7">+B63+1</f>
+        <f t="shared" ref="B64:B65" si="3">+B63+1</f>
         <v>36</v>
       </c>
       <c r="C64" s="2">
         <v>1</v>
       </c>
       <c r="D64" s="2">
-        <v>1</v>
-      </c>
-      <c r="E64" s="2">
         <v>8</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="E64" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G64" s="7" t="s">
+      <c r="F64" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="H64" s="7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I64" s="14">
+      <c r="G64" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H64" s="14">
         <v>75</v>
       </c>
-      <c r="J64" s="12" t="s">
+      <c r="I64" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="K64" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 75, 'subtipo': 'evaluaciones', 'row' :36, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'VI. EVALUACIÓN', 'offset':1}, </v>
-      </c>
-      <c r="L64" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">{ 'reg': 75, 'subtipo': 'evaluaciones', 'row' :36, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'VI. EVALUACIÓN', 'offset':1}, </v>
-      </c>
-      <c r="M64" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'titulo1', 'data': [{ 'reg': 75, 'subtipo': 'evaluaciones', 'row' :36, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'VI. EVALUACIÓN', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J64" s="15" t="str">
+        <f>+"{ '"&amp;H$1&amp;"': "&amp;H64&amp;", '"&amp;I$1&amp;"': '"&amp;I64&amp;"', '"&amp;C$1&amp;"': "&amp;C64&amp;", '"&amp;D$1&amp;"': "&amp;D64&amp;", '"&amp;E$1&amp;"': '"&amp;E64&amp;"', '"&amp;F$1&amp;"': '"&amp;F64&amp;"', '"&amp;G$1&amp;"':"&amp;G64&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 75, 'subtipo': 'evaluaciones', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VI. EVALUACIÓN', 'offset':1}, </v>
+      </c>
+      <c r="K64" s="2" t="str">
+        <f>IF(B63=B64,CONCATENATE(K63,J64),J64)</f>
+        <v xml:space="preserve">{ 'reg': 75, 'subtipo': 'evaluaciones', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VI. EVALUACIÓN', 'offset':1}, </v>
+      </c>
+      <c r="L64" s="11" t="str">
+        <f>IF(B64=B65,"","{'"&amp;B$1&amp;"': "&amp;B64&amp;", 'editing': false, 'tipo': '"&amp;A64&amp;"', 'data': "&amp;"["&amp;K64&amp;"],  },")</f>
+        <v>{'row': 36, 'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 75, 'subtipo': 'evaluaciones', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VI. EVALUACIÓN', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>151</v>
       </c>
       <c r="B65" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="C65" s="2">
         <v>1</v>
       </c>
       <c r="D65" s="2">
-        <v>1</v>
-      </c>
-      <c r="E65" s="2">
         <v>8</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="E65" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G65" s="7" t="s">
+      <c r="F65" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="H65" s="7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I65" s="14">
+      <c r="G65" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H65" s="14">
         <v>102</v>
       </c>
-      <c r="J65" s="12" t="s">
+      <c r="I65" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="K65" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 102, 'subtipo': 'bibliografias', 'row' :37, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'VII. BIBLIOGRAFÍA', 'offset':1}, </v>
-      </c>
-      <c r="L65" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">{ 'reg': 102, 'subtipo': 'bibliografias', 'row' :37, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'VII. BIBLIOGRAFÍA', 'offset':1}, </v>
-      </c>
-      <c r="M65" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'tipo': 'titulo1', 'data': [{ 'reg': 102, 'subtipo': 'bibliografias', 'row' :37, 'col': 1, 'rows': 1, 'cols': 8, 'align': 'left', 'texto': 'VII. BIBLIOGRAFÍA', 'offset':1}, ],  },</v>
+      <c r="J65" s="15" t="str">
+        <f>+"{ '"&amp;H$1&amp;"': "&amp;H65&amp;", '"&amp;I$1&amp;"': '"&amp;I65&amp;"', '"&amp;C$1&amp;"': "&amp;C65&amp;", '"&amp;D$1&amp;"': "&amp;D65&amp;", '"&amp;E$1&amp;"': '"&amp;E65&amp;"', '"&amp;F$1&amp;"': '"&amp;F65&amp;"', '"&amp;G$1&amp;"':"&amp;G65&amp;"}, "</f>
+        <v xml:space="preserve">{ 'reg': 102, 'subtipo': 'bibliografias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VII. BIBLIOGRAFÍA', 'offset':1}, </v>
+      </c>
+      <c r="K65" s="2" t="str">
+        <f>IF(B64=B65,CONCATENATE(K64,J65),J65)</f>
+        <v xml:space="preserve">{ 'reg': 102, 'subtipo': 'bibliografias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VII. BIBLIOGRAFÍA', 'offset':1}, </v>
+      </c>
+      <c r="L65" s="11" t="str">
+        <f>IF(B65=B66,"","{'"&amp;B$1&amp;"': "&amp;B65&amp;", 'editing': false, 'tipo': '"&amp;A65&amp;"', 'data': "&amp;"["&amp;K65&amp;"],  },")</f>
+        <v>{'row': 37, 'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 102, 'subtipo': 'bibliografias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VII. BIBLIOGRAFÍA', 'offset':1}, ],  },</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G65"/>
+  <autoFilter ref="A1:F65"/>
   <sortState ref="A2:K80">
     <sortCondition ref="B2:B80"/>
     <sortCondition ref="C2:C80"/>

--- a/topdown.xlsx
+++ b/topdown.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.arashiro\proyectos\Code\syllabus5\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="160" yWindow="80" windowWidth="18900" windowHeight="7340" activeTab="3"/>
+    <workbookView xWindow="165" yWindow="75" windowWidth="18900" windowHeight="7335" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">datos!$A$1:$F$65</definedName>
     <definedName name="_xlnm.Extract" localSheetId="1">campos!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -621,7 +626,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -665,6 +670,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -685,6 +693,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -733,7 +744,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -768,7 +779,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -983,13 +994,13 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -997,177 +1008,177 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>18</v>
       </c>
@@ -1186,27 +1197,27 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.90625" customWidth="1"/>
-    <col min="6" max="6" width="11.1796875" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.36328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -1256,7 +1267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1282,7 +1293,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>+A3</f>
         <v>generales</v>
@@ -1319,14 +1330,14 @@
       <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -1334,7 +1345,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>35</v>
       </c>
@@ -1345,7 +1356,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>36</v>
       </c>
@@ -1356,7 +1367,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>37</v>
       </c>
@@ -1367,7 +1378,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>38</v>
       </c>
@@ -1378,7 +1389,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>39</v>
       </c>
@@ -1389,7 +1400,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>40</v>
       </c>
@@ -1400,7 +1411,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -1408,12 +1419,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -1421,32 +1432,32 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -1454,32 +1465,32 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -1487,12 +1498,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>59</v>
       </c>
@@ -1506,60 +1517,60 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
       <c r="B35" t="s">
         <v>64</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="18" t="s">
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-    </row>
-    <row r="36" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="16" t="s">
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+    </row>
+    <row r="36" spans="1:10" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="19" t="s">
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-    </row>
-    <row r="37" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="16" t="s">
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+    </row>
+    <row r="37" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-    </row>
-    <row r="38" spans="1:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="16" t="s">
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+    </row>
+    <row r="38" spans="1:10" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1567,24 +1578,24 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="16" t="s">
+    <row r="40" spans="1:10" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16" t="s">
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="19" t="s">
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-    </row>
-    <row r="41" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+    </row>
+    <row r="41" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3</v>
       </c>
@@ -1596,113 +1607,113 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="16" t="s">
+    <row r="42" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16" t="s">
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16" t="s">
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-    </row>
-    <row r="43" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="16" t="s">
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+    </row>
+    <row r="43" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
       <c r="H43" t="s">
         <v>78</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>4</v>
       </c>
       <c r="B44" t="s">
         <v>79</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
       <c r="H44" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>80</v>
       </c>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
       <c r="H45" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>81</v>
       </c>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
       <c r="H46" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>82</v>
       </c>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>83</v>
       </c>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>84</v>
       </c>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B50" s="17" t="s">
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>5</v>
       </c>
@@ -1721,7 +1732,7 @@
       </c>
       <c r="I51" s="6"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>88</v>
       </c>
@@ -1732,7 +1743,7 @@
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -1742,7 +1753,7 @@
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -1752,7 +1763,7 @@
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -1762,7 +1773,7 @@
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -1772,7 +1783,7 @@
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -1782,7 +1793,7 @@
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -1792,7 +1803,7 @@
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -1802,7 +1813,7 @@
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>90</v>
       </c>
@@ -1810,37 +1821,37 @@
         <v>91</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>98</v>
       </c>
@@ -1848,38 +1859,38 @@
         <v>99</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>101</v>
       </c>
       <c r="D73" s="4"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>106</v>
       </c>
@@ -1887,7 +1898,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1</v>
       </c>
@@ -1895,22 +1906,22 @@
         <v>108</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2</v>
       </c>
@@ -1918,22 +1929,22 @@
         <v>133</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>3</v>
       </c>
@@ -1941,17 +1952,17 @@
         <v>115</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>118</v>
       </c>
@@ -1980,29 +1991,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L65"/>
+  <dimension ref="A1:L73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L65"/>
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.453125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="4" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.1796875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" style="7" customWidth="1"/>
     <col min="7" max="7" width="9" style="7" customWidth="1"/>
     <col min="8" max="8" width="9" style="14" customWidth="1"/>
     <col min="9" max="9" width="9" style="12" customWidth="1"/>
-    <col min="10" max="10" width="28.1796875" style="7" customWidth="1"/>
-    <col min="11" max="11" width="10.90625" style="2"/>
-    <col min="12" max="12" width="10.90625" style="10"/>
+    <col min="10" max="10" width="28.140625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" style="2"/>
+    <col min="12" max="12" width="10.85546875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -2031,7 +2042,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>152</v>
       </c>
@@ -2058,19 +2069,19 @@
         <v>11</v>
       </c>
       <c r="J2" s="7" t="str">
-        <f>+"{ '"&amp;H$1&amp;"': "&amp;H2&amp;", '"&amp;I$1&amp;"': '"&amp;I2&amp;"', '"&amp;C$1&amp;"': "&amp;C2&amp;", '"&amp;D$1&amp;"': "&amp;D2&amp;", '"&amp;E$1&amp;"': '"&amp;E2&amp;"', '"&amp;F$1&amp;"': '"&amp;F2&amp;"', '"&amp;G$1&amp;"':"&amp;G2&amp;"}, "</f>
+        <f t="shared" ref="J2:J33" si="1">+"{ '"&amp;H$1&amp;"': "&amp;H2&amp;", '"&amp;I$1&amp;"': '"&amp;I2&amp;"', '"&amp;C$1&amp;"': "&amp;C2&amp;", '"&amp;D$1&amp;"': "&amp;D2&amp;", '"&amp;E$1&amp;"': '"&amp;E2&amp;"', '"&amp;F$1&amp;"': '"&amp;F2&amp;"', '"&amp;G$1&amp;"':"&amp;G2&amp;"}, "</f>
         <v xml:space="preserve">{ 'reg': 11, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'CONTABILIDAD GERENCIAL', 'offset':1}, </v>
       </c>
       <c r="K2" s="2" t="str">
-        <f>IF(B1=B2,CONCATENATE(K1,J2),J2)</f>
+        <f t="shared" ref="K2:K33" si="2">IF(B1=B2,CONCATENATE(K1,J2),J2)</f>
         <v xml:space="preserve">{ 'reg': 11, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'CONTABILIDAD GERENCIAL', 'offset':1}, </v>
       </c>
       <c r="L2" s="11" t="str">
-        <f>IF(B2=B3,"","{'"&amp;B$1&amp;"': "&amp;B2&amp;", 'editing': false, 'tipo': '"&amp;A2&amp;"', 'data': "&amp;"["&amp;K2&amp;"],  },")</f>
+        <f t="shared" ref="L2:L33" si="3">IF(B2=B3,"","{'"&amp;B$1&amp;"': "&amp;B2&amp;", 'editing': false, 'tipo': '"&amp;A2&amp;"', 'data': "&amp;"["&amp;K2&amp;"],  },")</f>
         <v>{'row': 1, 'editing': false, 'tipo': 'titulo0', 'data': [{ 'reg': 11, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'CONTABILIDAD GERENCIAL', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>151</v>
       </c>
@@ -2100,19 +2111,19 @@
         <v>23</v>
       </c>
       <c r="J3" s="15" t="str">
-        <f>+"{ '"&amp;H$1&amp;"': "&amp;H3&amp;", '"&amp;I$1&amp;"': '"&amp;I3&amp;"', '"&amp;C$1&amp;"': "&amp;C3&amp;", '"&amp;D$1&amp;"': "&amp;D3&amp;", '"&amp;E$1&amp;"': '"&amp;E3&amp;"', '"&amp;F$1&amp;"': '"&amp;F3&amp;"', '"&amp;G$1&amp;"':"&amp;G3&amp;"}, "</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 21, 'subtipo': 'generales', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'I. DATOS GENERALES', 'offset':1}, </v>
       </c>
       <c r="K3" s="2" t="str">
-        <f>IF(B2=B3,CONCATENATE(K2,J3),J3)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 21, 'subtipo': 'generales', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'I. DATOS GENERALES', 'offset':1}, </v>
       </c>
       <c r="L3" s="11" t="str">
-        <f>IF(B3=B4,"","{'"&amp;B$1&amp;"': "&amp;B3&amp;", 'editing': false, 'tipo': '"&amp;A3&amp;"', 'data': "&amp;"["&amp;K3&amp;"],  },")</f>
+        <f t="shared" si="3"/>
         <v>{'row': 2, 'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 21, 'subtipo': 'generales', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'I. DATOS GENERALES', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
@@ -2139,19 +2150,19 @@
         <v>35</v>
       </c>
       <c r="J4" s="15" t="str">
-        <f>+"{ '"&amp;H$1&amp;"': "&amp;H4&amp;", '"&amp;I$1&amp;"': '"&amp;I4&amp;"', '"&amp;C$1&amp;"': "&amp;C4&amp;", '"&amp;D$1&amp;"': "&amp;D4&amp;", '"&amp;E$1&amp;"': '"&amp;E4&amp;"', '"&amp;F$1&amp;"': '"&amp;F4&amp;"', '"&amp;G$1&amp;"':"&amp;G4&amp;"}, "</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 35, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Código:', 'offset':2}, </v>
       </c>
       <c r="K4" s="2" t="str">
-        <f>IF(B3=B4,CONCATENATE(K3,J4),J4)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 35, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Código:', 'offset':2}, </v>
       </c>
       <c r="L4" s="11" t="str">
-        <f>IF(B4=B5,"","{'"&amp;B$1&amp;"': "&amp;B4&amp;", 'editing': false, 'tipo': '"&amp;A4&amp;"', 'data': "&amp;"["&amp;K4&amp;"],  },")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
@@ -2178,19 +2189,19 @@
         <v>85</v>
       </c>
       <c r="J5" s="15" t="str">
-        <f>+"{ '"&amp;H$1&amp;"': "&amp;H5&amp;", '"&amp;I$1&amp;"': '"&amp;I5&amp;"', '"&amp;C$1&amp;"': "&amp;C5&amp;", '"&amp;D$1&amp;"': "&amp;D5&amp;", '"&amp;E$1&amp;"': '"&amp;E5&amp;"', '"&amp;F$1&amp;"': '"&amp;F5&amp;"', '"&amp;G$1&amp;"':"&amp;G5&amp;"}, "</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 85, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '100048', 'offset':1}, </v>
       </c>
       <c r="K5" s="2" t="str">
-        <f>IF(B4=B5,CONCATENATE(K4,J5),J5)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 35, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Código:', 'offset':2}, { 'reg': 85, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '100048', 'offset':1}, </v>
       </c>
       <c r="L5" s="11" t="str">
-        <f>IF(B5=B6,"","{'"&amp;B$1&amp;"': "&amp;B5&amp;", 'editing': false, 'tipo': '"&amp;A5&amp;"', 'data': "&amp;"["&amp;K5&amp;"],  },")</f>
+        <f t="shared" si="3"/>
         <v>{'row': 3, 'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 35, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Código:', 'offset':2}, { 'reg': 85, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '100048', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -2217,19 +2228,19 @@
         <v>130</v>
       </c>
       <c r="J6" s="15" t="str">
-        <f>+"{ '"&amp;H$1&amp;"': "&amp;H6&amp;", '"&amp;I$1&amp;"': '"&amp;I6&amp;"', '"&amp;C$1&amp;"': "&amp;C6&amp;", '"&amp;D$1&amp;"': "&amp;D6&amp;", '"&amp;E$1&amp;"': '"&amp;E6&amp;"', '"&amp;F$1&amp;"': '"&amp;F6&amp;"', '"&amp;G$1&amp;"':"&amp;G6&amp;"}, "</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 130, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Pre‐ Requisito :', 'offset':2}, </v>
       </c>
       <c r="K6" s="2" t="str">
-        <f>IF(B5=B6,CONCATENATE(K5,J6),J6)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 130, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Pre‐ Requisito :', 'offset':2}, </v>
       </c>
       <c r="L6" s="11" t="str">
-        <f>IF(B6=B7,"","{'"&amp;B$1&amp;"': "&amp;B6&amp;", 'editing': false, 'tipo': '"&amp;A6&amp;"', 'data': "&amp;"["&amp;K6&amp;"],  },")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -2256,19 +2267,19 @@
         <v>7</v>
       </c>
       <c r="J7" s="15" t="str">
-        <f>+"{ '"&amp;H$1&amp;"': "&amp;H7&amp;", '"&amp;I$1&amp;"': '"&amp;I7&amp;"', '"&amp;C$1&amp;"': "&amp;C7&amp;", '"&amp;D$1&amp;"': "&amp;D7&amp;", '"&amp;E$1&amp;"': '"&amp;E7&amp;"', '"&amp;F$1&amp;"': '"&amp;F7&amp;"', '"&amp;G$1&amp;"':"&amp;G7&amp;"}, "</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 7, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'Contabilidad General', 'offset':1}, </v>
       </c>
       <c r="K7" s="2" t="str">
-        <f>IF(B6=B7,CONCATENATE(K6,J7),J7)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 130, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Pre‐ Requisito :', 'offset':2}, { 'reg': 7, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'Contabilidad General', 'offset':1}, </v>
       </c>
       <c r="L7" s="11" t="str">
-        <f>IF(B7=B8,"","{'"&amp;B$1&amp;"': "&amp;B7&amp;", 'editing': false, 'tipo': '"&amp;A7&amp;"', 'data': "&amp;"["&amp;K7&amp;"],  },")</f>
+        <f t="shared" si="3"/>
         <v>{'row': 4, 'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 130, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Pre‐ Requisito :', 'offset':2}, { 'reg': 7, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'Contabilidad General', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -2295,19 +2306,19 @@
         <v>109</v>
       </c>
       <c r="J8" s="15" t="str">
-        <f>+"{ '"&amp;H$1&amp;"': "&amp;H8&amp;", '"&amp;I$1&amp;"': '"&amp;I8&amp;"', '"&amp;C$1&amp;"': "&amp;C8&amp;", '"&amp;D$1&amp;"': "&amp;D8&amp;", '"&amp;E$1&amp;"': '"&amp;E8&amp;"', '"&amp;F$1&amp;"': '"&amp;F8&amp;"', '"&amp;G$1&amp;"':"&amp;G8&amp;"}, "</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 109, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Créditos : ', 'offset':2}, </v>
       </c>
       <c r="K8" s="2" t="str">
-        <f>IF(B7=B8,CONCATENATE(K7,J8),J8)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 109, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Créditos : ', 'offset':2}, </v>
       </c>
       <c r="L8" s="11" t="str">
-        <f>IF(B8=B9,"","{'"&amp;B$1&amp;"': "&amp;B8&amp;", 'editing': false, 'tipo': '"&amp;A8&amp;"', 'data': "&amp;"["&amp;K8&amp;"],  },")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -2334,19 +2345,19 @@
         <v>13</v>
       </c>
       <c r="J9" s="15" t="str">
-        <f>+"{ '"&amp;H$1&amp;"': "&amp;H9&amp;", '"&amp;I$1&amp;"': '"&amp;I9&amp;"', '"&amp;C$1&amp;"': "&amp;C9&amp;", '"&amp;D$1&amp;"': "&amp;D9&amp;", '"&amp;E$1&amp;"': '"&amp;E9&amp;"', '"&amp;F$1&amp;"': '"&amp;F9&amp;"', '"&amp;G$1&amp;"':"&amp;G9&amp;"}, "</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 13, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '03', 'offset':1}, </v>
       </c>
       <c r="K9" s="2" t="str">
-        <f>IF(B8=B9,CONCATENATE(K8,J9),J9)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 109, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Créditos : ', 'offset':2}, { 'reg': 13, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '03', 'offset':1}, </v>
       </c>
       <c r="L9" s="11" t="str">
-        <f>IF(B9=B10,"","{'"&amp;B$1&amp;"': "&amp;B9&amp;", 'editing': false, 'tipo': '"&amp;A9&amp;"', 'data': "&amp;"["&amp;K9&amp;"],  },")</f>
+        <f t="shared" si="3"/>
         <v>{'row': 5, 'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 109, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Créditos : ', 'offset':2}, { 'reg': 13, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '03', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -2373,19 +2384,19 @@
         <v>128</v>
       </c>
       <c r="J10" s="15" t="str">
-        <f>+"{ '"&amp;H$1&amp;"': "&amp;H10&amp;", '"&amp;I$1&amp;"': '"&amp;I10&amp;"', '"&amp;C$1&amp;"': "&amp;C10&amp;", '"&amp;D$1&amp;"': "&amp;D10&amp;", '"&amp;E$1&amp;"': '"&amp;E10&amp;"', '"&amp;F$1&amp;"': '"&amp;F10&amp;"', '"&amp;G$1&amp;"':"&amp;G10&amp;"}, "</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 128, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Horas :', 'offset':2}, </v>
       </c>
       <c r="K10" s="2" t="str">
-        <f>IF(B9=B10,CONCATENATE(K9,J10),J10)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 128, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Horas :', 'offset':2}, </v>
       </c>
       <c r="L10" s="11" t="str">
-        <f>IF(B10=B11,"","{'"&amp;B$1&amp;"': "&amp;B10&amp;", 'editing': false, 'tipo': '"&amp;A10&amp;"', 'data': "&amp;"["&amp;K10&amp;"],  },")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -2412,19 +2423,19 @@
         <v>91</v>
       </c>
       <c r="J11" s="15" t="str">
-        <f>+"{ '"&amp;H$1&amp;"': "&amp;H11&amp;", '"&amp;I$1&amp;"': '"&amp;I11&amp;"', '"&amp;C$1&amp;"': "&amp;C11&amp;", '"&amp;D$1&amp;"': "&amp;D11&amp;", '"&amp;E$1&amp;"': '"&amp;E11&amp;"', '"&amp;F$1&amp;"': '"&amp;F11&amp;"', '"&amp;G$1&amp;"':"&amp;G11&amp;"}, "</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 91, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '04 horas', 'offset':1}, </v>
       </c>
       <c r="K11" s="2" t="str">
-        <f>IF(B10=B11,CONCATENATE(K10,J11),J11)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 128, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Horas :', 'offset':2}, { 'reg': 91, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '04 horas', 'offset':1}, </v>
       </c>
       <c r="L11" s="11" t="str">
-        <f>IF(B11=B12,"","{'"&amp;B$1&amp;"': "&amp;B11&amp;", 'editing': false, 'tipo': '"&amp;A11&amp;"', 'data': "&amp;"["&amp;K11&amp;"],  },")</f>
+        <f t="shared" si="3"/>
         <v>{'row': 6, 'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 128, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Horas :', 'offset':2}, { 'reg': 91, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '04 horas', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -2451,19 +2462,19 @@
         <v>24</v>
       </c>
       <c r="J12" s="15" t="str">
-        <f>+"{ '"&amp;H$1&amp;"': "&amp;H12&amp;", '"&amp;I$1&amp;"': '"&amp;I12&amp;"', '"&amp;C$1&amp;"': "&amp;C12&amp;", '"&amp;D$1&amp;"': "&amp;D12&amp;", '"&amp;E$1&amp;"': '"&amp;E12&amp;"', '"&amp;F$1&amp;"': '"&amp;F12&amp;"', '"&amp;G$1&amp;"':"&amp;G12&amp;"}, "</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 24, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Semestre académico : ', 'offset':2}, </v>
       </c>
       <c r="K12" s="2" t="str">
-        <f>IF(B11=B12,CONCATENATE(K11,J12),J12)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 24, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Semestre académico : ', 'offset':2}, </v>
       </c>
       <c r="L12" s="11" t="str">
-        <f>IF(B12=B13,"","{'"&amp;B$1&amp;"': "&amp;B12&amp;", 'editing': false, 'tipo': '"&amp;A12&amp;"', 'data': "&amp;"["&amp;K12&amp;"],  },")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -2490,19 +2501,19 @@
         <v>86</v>
       </c>
       <c r="J13" s="15" t="str">
-        <f>+"{ '"&amp;H$1&amp;"': "&amp;H13&amp;", '"&amp;I$1&amp;"': '"&amp;I13&amp;"', '"&amp;C$1&amp;"': "&amp;C13&amp;", '"&amp;D$1&amp;"': "&amp;D13&amp;", '"&amp;E$1&amp;"': '"&amp;E13&amp;"', '"&amp;F$1&amp;"': '"&amp;F13&amp;"', '"&amp;G$1&amp;"':"&amp;G13&amp;"}, "</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 86, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '2017‐ I', 'offset':1}, </v>
       </c>
       <c r="K13" s="2" t="str">
-        <f>IF(B12=B13,CONCATENATE(K12,J13),J13)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 24, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Semestre académico : ', 'offset':2}, { 'reg': 86, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '2017‐ I', 'offset':1}, </v>
       </c>
       <c r="L13" s="11" t="str">
-        <f>IF(B13=B14,"","{'"&amp;B$1&amp;"': "&amp;B13&amp;", 'editing': false, 'tipo': '"&amp;A13&amp;"', 'data': "&amp;"["&amp;K13&amp;"],  },")</f>
+        <f t="shared" si="3"/>
         <v>{'row': 7, 'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 24, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Semestre académico : ', 'offset':2}, { 'reg': 86, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '2017‐ I', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
@@ -2529,19 +2540,19 @@
         <v>81</v>
       </c>
       <c r="J14" s="15" t="str">
-        <f>+"{ '"&amp;H$1&amp;"': "&amp;H14&amp;", '"&amp;I$1&amp;"': '"&amp;I14&amp;"', '"&amp;C$1&amp;"': "&amp;C14&amp;", '"&amp;D$1&amp;"': "&amp;D14&amp;", '"&amp;E$1&amp;"': '"&amp;E14&amp;"', '"&amp;F$1&amp;"': '"&amp;F14&amp;"', '"&amp;G$1&amp;"':"&amp;G14&amp;"}, "</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Ciclo :', 'offset':2}, </v>
       </c>
       <c r="K14" s="2" t="str">
-        <f>IF(B13=B14,CONCATENATE(K13,J14),J14)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Ciclo :', 'offset':2}, </v>
       </c>
       <c r="L14" s="11" t="str">
-        <f>IF(B14=B15,"","{'"&amp;B$1&amp;"': "&amp;B14&amp;", 'editing': false, 'tipo': '"&amp;A14&amp;"', 'data': "&amp;"["&amp;K14&amp;"],  },")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
@@ -2568,19 +2579,19 @@
         <v>103</v>
       </c>
       <c r="J15" s="15" t="str">
-        <f>+"{ '"&amp;H$1&amp;"': "&amp;H15&amp;", '"&amp;I$1&amp;"': '"&amp;I15&amp;"', '"&amp;C$1&amp;"': "&amp;C15&amp;", '"&amp;D$1&amp;"': "&amp;D15&amp;", '"&amp;E$1&amp;"': '"&amp;E15&amp;"', '"&amp;F$1&amp;"': '"&amp;F15&amp;"', '"&amp;G$1&amp;"':"&amp;G15&amp;"}, "</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 103, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'III', 'offset':1}, </v>
       </c>
       <c r="K15" s="2" t="str">
-        <f>IF(B14=B15,CONCATENATE(K14,J15),J15)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Ciclo :', 'offset':2}, { 'reg': 103, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'III', 'offset':1}, </v>
       </c>
       <c r="L15" s="11" t="str">
-        <f>IF(B15=B16,"","{'"&amp;B$1&amp;"': "&amp;B15&amp;", 'editing': false, 'tipo': '"&amp;A15&amp;"', 'data': "&amp;"["&amp;K15&amp;"],  },")</f>
+        <f t="shared" si="3"/>
         <v>{'row': 8, 'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Ciclo :', 'offset':2}, { 'reg': 103, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'III', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>151</v>
       </c>
@@ -2610,19 +2621,19 @@
         <v>153</v>
       </c>
       <c r="J16" s="15" t="str">
-        <f>+"{ '"&amp;H$1&amp;"': "&amp;H16&amp;", '"&amp;I$1&amp;"': '"&amp;I16&amp;"', '"&amp;C$1&amp;"': "&amp;C16&amp;", '"&amp;D$1&amp;"': "&amp;D16&amp;", '"&amp;E$1&amp;"': '"&amp;E16&amp;"', '"&amp;F$1&amp;"': '"&amp;F16&amp;"', '"&amp;G$1&amp;"':"&amp;G16&amp;"}, "</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 45, 'subtipo': 'sumillas', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'II. SUMILLA', 'offset':1}, </v>
       </c>
       <c r="K16" s="2" t="str">
-        <f>IF(B15=B16,CONCATENATE(K15,J16),J16)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 45, 'subtipo': 'sumillas', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'II. SUMILLA', 'offset':1}, </v>
       </c>
       <c r="L16" s="11" t="str">
-        <f>IF(B16=B17,"","{'"&amp;B$1&amp;"': "&amp;B16&amp;", 'editing': false, 'tipo': '"&amp;A16&amp;"', 'data': "&amp;"["&amp;K16&amp;"],  },")</f>
+        <f t="shared" si="3"/>
         <v>{'row': 9, 'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 45, 'subtipo': 'sumillas', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'II. SUMILLA', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>153</v>
       </c>
@@ -2649,19 +2660,19 @@
         <v>36</v>
       </c>
       <c r="J17" s="15" t="str">
-        <f>+"{ '"&amp;H$1&amp;"': "&amp;H17&amp;", '"&amp;I$1&amp;"': '"&amp;I17&amp;"', '"&amp;C$1&amp;"': "&amp;C17&amp;", '"&amp;D$1&amp;"': "&amp;D17&amp;", '"&amp;E$1&amp;"': '"&amp;E17&amp;"', '"&amp;F$1&amp;"': '"&amp;F17&amp;"', '"&amp;G$1&amp;"':"&amp;G17&amp;"}, "</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 36, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'justify', 'texto': 'El curso tiene como propósito integrar las teorías, las técnicas y las herramientas adquiridas en las materias de contabilidad general y administración que le permita llegar al alumno a desarrollar las habilidades de análisis, integración de la información para la construcción de propuestas y soluciones que llevan al logro de los objetivos de la organización. Se pondrá énfasis en el análisis financiero de los estados financieros y su relación con los costos empresariales.', 'offset':1}, </v>
       </c>
       <c r="K17" s="2" t="str">
-        <f>IF(B16=B17,CONCATENATE(K16,J17),J17)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 36, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'justify', 'texto': 'El curso tiene como propósito integrar las teorías, las técnicas y las herramientas adquiridas en las materias de contabilidad general y administración que le permita llegar al alumno a desarrollar las habilidades de análisis, integración de la información para la construcción de propuestas y soluciones que llevan al logro de los objetivos de la organización. Se pondrá énfasis en el análisis financiero de los estados financieros y su relación con los costos empresariales.', 'offset':1}, </v>
       </c>
       <c r="L17" s="11" t="str">
-        <f>IF(B17=B18,"","{'"&amp;B$1&amp;"': "&amp;B17&amp;", 'editing': false, 'tipo': '"&amp;A17&amp;"', 'data': "&amp;"["&amp;K17&amp;"],  },")</f>
+        <f t="shared" si="3"/>
         <v>{'row': 10, 'editing': false, 'tipo': 'sumillas', 'data': [{ 'reg': 36, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'justify', 'texto': 'El curso tiene como propósito integrar las teorías, las técnicas y las herramientas adquiridas en las materias de contabilidad general y administración que le permita llegar al alumno a desarrollar las habilidades de análisis, integración de la información para la construcción de propuestas y soluciones que llevan al logro de los objetivos de la organización. Se pondrá énfasis en el análisis financiero de los estados financieros y su relación con los costos empresariales.', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>151</v>
       </c>
@@ -2691,19 +2702,19 @@
         <v>155</v>
       </c>
       <c r="J18" s="15" t="str">
-        <f>+"{ '"&amp;H$1&amp;"': "&amp;H18&amp;", '"&amp;I$1&amp;"': '"&amp;I18&amp;"', '"&amp;C$1&amp;"': "&amp;C18&amp;", '"&amp;D$1&amp;"': "&amp;D18&amp;", '"&amp;E$1&amp;"': '"&amp;E18&amp;"', '"&amp;F$1&amp;"': '"&amp;F18&amp;"', '"&amp;G$1&amp;"':"&amp;G18&amp;"}, "</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 82, 'subtipo': 'competencias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'III. SISTEMA DE COMPETENCIAS', 'offset':1}, </v>
       </c>
       <c r="K18" s="2" t="str">
-        <f>IF(B17=B18,CONCATENATE(K17,J18),J18)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 82, 'subtipo': 'competencias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'III. SISTEMA DE COMPETENCIAS', 'offset':1}, </v>
       </c>
       <c r="L18" s="11" t="str">
-        <f>IF(B18=B19,"","{'"&amp;B$1&amp;"': "&amp;B18&amp;", 'editing': false, 'tipo': '"&amp;A18&amp;"', 'data': "&amp;"["&amp;K18&amp;"],  },")</f>
+        <f t="shared" si="3"/>
         <v>{'row': 11, 'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 82, 'subtipo': 'competencias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'III. SISTEMA DE COMPETENCIAS', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>156</v>
       </c>
@@ -2730,19 +2741,19 @@
         <v>37</v>
       </c>
       <c r="J19" s="15" t="str">
-        <f>+"{ '"&amp;H$1&amp;"': "&amp;H19&amp;", '"&amp;I$1&amp;"': '"&amp;I19&amp;"', '"&amp;C$1&amp;"': "&amp;C19&amp;", '"&amp;D$1&amp;"': "&amp;D19&amp;", '"&amp;E$1&amp;"': '"&amp;E19&amp;"', '"&amp;F$1&amp;"': '"&amp;F19&amp;"', '"&amp;G$1&amp;"':"&amp;G19&amp;"}, "</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 37, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS GENERALES', 'offset':1}, </v>
       </c>
       <c r="K19" s="2" t="str">
-        <f>IF(B18=B19,CONCATENATE(K18,J19),J19)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 37, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS GENERALES', 'offset':1}, </v>
       </c>
       <c r="L19" s="11" t="str">
-        <f>IF(B19=B20,"","{'"&amp;B$1&amp;"': "&amp;B19&amp;", 'editing': false, 'tipo': '"&amp;A19&amp;"', 'data': "&amp;"["&amp;K19&amp;"],  },")</f>
+        <f t="shared" si="3"/>
         <v>{'row': 12, 'editing': false, 'tipo': 'titulo2', 'data': [{ 'reg': 37, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS GENERALES', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>155</v>
       </c>
@@ -2770,24 +2781,24 @@
         <v>10</v>
       </c>
       <c r="J20" s="15" t="str">
-        <f>+"{ '"&amp;H$1&amp;"': "&amp;H20&amp;", '"&amp;I$1&amp;"': '"&amp;I20&amp;"', '"&amp;C$1&amp;"': "&amp;C20&amp;", '"&amp;D$1&amp;"': "&amp;D20&amp;", '"&amp;E$1&amp;"': '"&amp;E20&amp;"', '"&amp;F$1&amp;"': '"&amp;F20&amp;"', '"&amp;G$1&amp;"':"&amp;G20&amp;"}, "</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 10, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Comprende el papel de la información contable en los Negocios. Relación entre la contabilidad y la Administración y la toma de decisiones.', 'offset':2}, </v>
       </c>
       <c r="K20" s="2" t="str">
-        <f>IF(B19=B20,CONCATENATE(K19,J20),J20)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 10, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Comprende el papel de la información contable en los Negocios. Relación entre la contabilidad y la Administración y la toma de decisiones.', 'offset':2}, </v>
       </c>
       <c r="L20" s="11" t="str">
-        <f>IF(B20=B21,"","{'"&amp;B$1&amp;"': "&amp;B20&amp;", 'editing': false, 'tipo': '"&amp;A20&amp;"', 'data': "&amp;"["&amp;K20&amp;"],  },")</f>
+        <f t="shared" si="3"/>
         <v>{'row': 13, 'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 10, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Comprende el papel de la información contable en los Negocios. Relación entre la contabilidad y la Administración y la toma de decisiones.', 'offset':2}, ],  },</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B21" s="2">
-        <f t="shared" ref="B21:B33" si="1">+B20+1</f>
+        <f t="shared" ref="B21:B33" si="4">+B20+1</f>
         <v>14</v>
       </c>
       <c r="C21" s="2">
@@ -2810,24 +2821,24 @@
         <v>13</v>
       </c>
       <c r="J21" s="15" t="str">
-        <f>+"{ '"&amp;H$1&amp;"': "&amp;H21&amp;", '"&amp;I$1&amp;"': '"&amp;I21&amp;"', '"&amp;C$1&amp;"': "&amp;C21&amp;", '"&amp;D$1&amp;"': "&amp;D21&amp;", '"&amp;E$1&amp;"': '"&amp;E21&amp;"', '"&amp;F$1&amp;"': '"&amp;F21&amp;"', '"&amp;G$1&amp;"':"&amp;G21&amp;"}, "</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 13, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce y ejecuta los Estados Financieros de una empresa comercial, industrial y de servicios.', 'offset':2}, </v>
       </c>
       <c r="K21" s="2" t="str">
-        <f>IF(B20=B21,CONCATENATE(K20,J21),J21)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 13, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce y ejecuta los Estados Financieros de una empresa comercial, industrial y de servicios.', 'offset':2}, </v>
       </c>
       <c r="L21" s="11" t="str">
-        <f>IF(B21=B22,"","{'"&amp;B$1&amp;"': "&amp;B21&amp;", 'editing': false, 'tipo': '"&amp;A21&amp;"', 'data': "&amp;"["&amp;K21&amp;"],  },")</f>
+        <f t="shared" si="3"/>
         <v>{'row': 14, 'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 13, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce y ejecuta los Estados Financieros de una empresa comercial, industrial y de servicios.', 'offset':2}, ],  },</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="C22" s="2">
@@ -2850,24 +2861,24 @@
         <v>81</v>
       </c>
       <c r="J22" s="15" t="str">
-        <f>+"{ '"&amp;H$1&amp;"': "&amp;H22&amp;", '"&amp;I$1&amp;"': '"&amp;I22&amp;"', '"&amp;C$1&amp;"': "&amp;C22&amp;", '"&amp;D$1&amp;"': "&amp;D22&amp;", '"&amp;E$1&amp;"': '"&amp;E22&amp;"', '"&amp;F$1&amp;"': '"&amp;F22&amp;"', '"&amp;G$1&amp;"':"&amp;G22&amp;"}, "</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Toma de decisiones, en base a un análisis financiero, dentro de las funciones de operación, inversión y financiamiento y análisis de los costos.', 'offset':2}, </v>
       </c>
       <c r="K22" s="2" t="str">
-        <f>IF(B21=B22,CONCATENATE(K21,J22),J22)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Toma de decisiones, en base a un análisis financiero, dentro de las funciones de operación, inversión y financiamiento y análisis de los costos.', 'offset':2}, </v>
       </c>
       <c r="L22" s="11" t="str">
-        <f>IF(B22=B23,"","{'"&amp;B$1&amp;"': "&amp;B22&amp;", 'editing': false, 'tipo': '"&amp;A22&amp;"', 'data': "&amp;"["&amp;K22&amp;"],  },")</f>
+        <f t="shared" si="3"/>
         <v>{'row': 15, 'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Toma de decisiones, en base a un análisis financiero, dentro de las funciones de operación, inversión y financiamiento y análisis de los costos.', 'offset':2}, ],  },</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="C23" s="2">
@@ -2890,24 +2901,24 @@
         <v>41</v>
       </c>
       <c r="J23" s="15" t="str">
-        <f>+"{ '"&amp;H$1&amp;"': "&amp;H23&amp;", '"&amp;I$1&amp;"': '"&amp;I23&amp;"', '"&amp;C$1&amp;"': "&amp;C23&amp;", '"&amp;D$1&amp;"': "&amp;D23&amp;", '"&amp;E$1&amp;"': '"&amp;E23&amp;"', '"&amp;F$1&amp;"': '"&amp;F23&amp;"', '"&amp;G$1&amp;"':"&amp;G23&amp;"}, "</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 41, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Planifica la gestión de la empresa a futuro.', 'offset':2}, </v>
       </c>
       <c r="K23" s="2" t="str">
-        <f>IF(B22=B23,CONCATENATE(K22,J23),J23)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 41, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Planifica la gestión de la empresa a futuro.', 'offset':2}, </v>
       </c>
       <c r="L23" s="11" t="str">
-        <f>IF(B23=B24,"","{'"&amp;B$1&amp;"': "&amp;B23&amp;", 'editing': false, 'tipo': '"&amp;A23&amp;"', 'data': "&amp;"["&amp;K23&amp;"],  },")</f>
+        <f t="shared" si="3"/>
         <v>{'row': 16, 'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 41, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Planifica la gestión de la empresa a futuro.', 'offset':2}, ],  },</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="C24" s="2">
@@ -2930,24 +2941,24 @@
         <v>77</v>
       </c>
       <c r="J24" s="15" t="str">
-        <f>+"{ '"&amp;H$1&amp;"': "&amp;H24&amp;", '"&amp;I$1&amp;"': '"&amp;I24&amp;"', '"&amp;C$1&amp;"': "&amp;C24&amp;", '"&amp;D$1&amp;"': "&amp;D24&amp;", '"&amp;E$1&amp;"': '"&amp;E24&amp;"', '"&amp;F$1&amp;"': '"&amp;F24&amp;"', '"&amp;G$1&amp;"':"&amp;G24&amp;"}, "</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 77, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Capacidad de trabajo en equipo.', 'offset':2}, </v>
       </c>
       <c r="K24" s="2" t="str">
-        <f>IF(B23=B24,CONCATENATE(K23,J24),J24)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 77, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Capacidad de trabajo en equipo.', 'offset':2}, </v>
       </c>
       <c r="L24" s="11" t="str">
-        <f>IF(B24=B25,"","{'"&amp;B$1&amp;"': "&amp;B24&amp;", 'editing': false, 'tipo': '"&amp;A24&amp;"', 'data': "&amp;"["&amp;K24&amp;"],  },")</f>
+        <f t="shared" si="3"/>
         <v>{'row': 17, 'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 77, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Capacidad de trabajo en equipo.', 'offset':2}, ],  },</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B25" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="C25" s="2">
@@ -2970,24 +2981,24 @@
         <v>9</v>
       </c>
       <c r="J25" s="15" t="str">
-        <f>+"{ '"&amp;H$1&amp;"': "&amp;H25&amp;", '"&amp;I$1&amp;"': '"&amp;I25&amp;"', '"&amp;C$1&amp;"': "&amp;C25&amp;", '"&amp;D$1&amp;"': "&amp;D25&amp;", '"&amp;E$1&amp;"': '"&amp;E25&amp;"', '"&amp;F$1&amp;"': '"&amp;F25&amp;"', '"&amp;G$1&amp;"':"&amp;G25&amp;"}, "</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 9, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS ESPECÍFICAS', 'offset':1}, </v>
       </c>
       <c r="K25" s="2" t="str">
-        <f>IF(B24=B25,CONCATENATE(K24,J25),J25)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 9, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS ESPECÍFICAS', 'offset':1}, </v>
       </c>
       <c r="L25" s="11" t="str">
-        <f>IF(B25=B26,"","{'"&amp;B$1&amp;"': "&amp;B25&amp;", 'editing': false, 'tipo': '"&amp;A25&amp;"', 'data': "&amp;"["&amp;K25&amp;"],  },")</f>
+        <f t="shared" si="3"/>
         <v>{'row': 18, 'editing': false, 'tipo': 'titulo2', 'data': [{ 'reg': 9, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS ESPECÍFICAS', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B26" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="C26" s="2">
@@ -3010,24 +3021,24 @@
         <v>84</v>
       </c>
       <c r="J26" s="15" t="str">
-        <f>+"{ '"&amp;H$1&amp;"': "&amp;H26&amp;", '"&amp;I$1&amp;"': '"&amp;I26&amp;"', '"&amp;C$1&amp;"': "&amp;C26&amp;", '"&amp;D$1&amp;"': "&amp;D26&amp;", '"&amp;E$1&amp;"': '"&amp;E26&amp;"', '"&amp;F$1&amp;"': '"&amp;F26&amp;"', '"&amp;G$1&amp;"':"&amp;G26&amp;"}, "</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 84, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce, Analiza y describe las diferentes empresas que se desarrollan en nuestro país y la importancia que tiene en ellas la contabilidad gerencia, desde la óptica de los estados financieros: Estado de Situación Financiera y Estado de Resultados.', 'offset':2}, </v>
       </c>
       <c r="K26" s="2" t="str">
-        <f>IF(B25=B26,CONCATENATE(K25,J26),J26)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 84, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce, Analiza y describe las diferentes empresas que se desarrollan en nuestro país y la importancia que tiene en ellas la contabilidad gerencia, desde la óptica de los estados financieros: Estado de Situación Financiera y Estado de Resultados.', 'offset':2}, </v>
       </c>
       <c r="L26" s="11" t="str">
-        <f>IF(B26=B27,"","{'"&amp;B$1&amp;"': "&amp;B26&amp;", 'editing': false, 'tipo': '"&amp;A26&amp;"', 'data': "&amp;"["&amp;K26&amp;"],  },")</f>
+        <f t="shared" si="3"/>
         <v>{'row': 19, 'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 84, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce, Analiza y describe las diferentes empresas que se desarrollan en nuestro país y la importancia que tiene en ellas la contabilidad gerencia, desde la óptica de los estados financieros: Estado de Situación Financiera y Estado de Resultados.', 'offset':2}, ],  },</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="C27" s="2">
@@ -3050,24 +3061,24 @@
         <v>32</v>
       </c>
       <c r="J27" s="15" t="str">
-        <f>+"{ '"&amp;H$1&amp;"': "&amp;H27&amp;", '"&amp;I$1&amp;"': '"&amp;I27&amp;"', '"&amp;C$1&amp;"': "&amp;C27&amp;", '"&amp;D$1&amp;"': "&amp;D27&amp;", '"&amp;E$1&amp;"': '"&amp;E27&amp;"', '"&amp;F$1&amp;"': '"&amp;F27&amp;"', '"&amp;G$1&amp;"':"&amp;G27&amp;"}, "</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 32, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Analiza y diagnostica los Estados financieros básicos de diferentes empresas, mediante el análisis vertical y horizontal así como los ratios financieros. ', 'offset':2}, </v>
       </c>
       <c r="K27" s="2" t="str">
-        <f>IF(B26=B27,CONCATENATE(K26,J27),J27)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 32, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Analiza y diagnostica los Estados financieros básicos de diferentes empresas, mediante el análisis vertical y horizontal así como los ratios financieros. ', 'offset':2}, </v>
       </c>
       <c r="L27" s="11" t="str">
-        <f>IF(B27=B28,"","{'"&amp;B$1&amp;"': "&amp;B27&amp;", 'editing': false, 'tipo': '"&amp;A27&amp;"', 'data': "&amp;"["&amp;K27&amp;"],  },")</f>
+        <f t="shared" si="3"/>
         <v>{'row': 20, 'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 32, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Analiza y diagnostica los Estados financieros básicos de diferentes empresas, mediante el análisis vertical y horizontal así como los ratios financieros. ', 'offset':2}, ],  },</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B28" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="C28" s="2">
@@ -3090,24 +3101,24 @@
         <v>111</v>
       </c>
       <c r="J28" s="15" t="str">
-        <f>+"{ '"&amp;H$1&amp;"': "&amp;H28&amp;", '"&amp;I$1&amp;"': '"&amp;I28&amp;"', '"&amp;C$1&amp;"': "&amp;C28&amp;", '"&amp;D$1&amp;"': "&amp;D28&amp;", '"&amp;E$1&amp;"': '"&amp;E28&amp;"', '"&amp;F$1&amp;"': '"&amp;F28&amp;"', '"&amp;G$1&amp;"':"&amp;G28&amp;"}, "</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 111, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Desarrolla un plan financiero para una empresa: Presupuesto de ventas, Presupuesto de cobranzas, presupuesto de producción, presupuesto de compras, presupuesto de pagos, presupuesto de pagos, presupuesto de gastos, entre otros.', 'offset':2}, </v>
       </c>
       <c r="K28" s="2" t="str">
-        <f>IF(B27=B28,CONCATENATE(K27,J28),J28)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 111, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Desarrolla un plan financiero para una empresa: Presupuesto de ventas, Presupuesto de cobranzas, presupuesto de producción, presupuesto de compras, presupuesto de pagos, presupuesto de pagos, presupuesto de gastos, entre otros.', 'offset':2}, </v>
       </c>
       <c r="L28" s="11" t="str">
-        <f>IF(B28=B29,"","{'"&amp;B$1&amp;"': "&amp;B28&amp;", 'editing': false, 'tipo': '"&amp;A28&amp;"', 'data': "&amp;"["&amp;K28&amp;"],  },")</f>
+        <f t="shared" si="3"/>
         <v>{'row': 21, 'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 111, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Desarrolla un plan financiero para una empresa: Presupuesto de ventas, Presupuesto de cobranzas, presupuesto de producción, presupuesto de compras, presupuesto de pagos, presupuesto de pagos, presupuesto de gastos, entre otros.', 'offset':2}, ],  },</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B29" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="C29" s="2">
@@ -3130,24 +3141,24 @@
         <v>28</v>
       </c>
       <c r="J29" s="15" t="str">
-        <f>+"{ '"&amp;H$1&amp;"': "&amp;H29&amp;", '"&amp;I$1&amp;"': '"&amp;I29&amp;"', '"&amp;C$1&amp;"': "&amp;C29&amp;", '"&amp;D$1&amp;"': "&amp;D29&amp;", '"&amp;E$1&amp;"': '"&amp;E29&amp;"', '"&amp;F$1&amp;"': '"&amp;F29&amp;"', '"&amp;G$1&amp;"':"&amp;G29&amp;"}, "</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 28, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Estudia la importancia de la estructura de costos de una empresa y su implicancia en la planificación financiera.', 'offset':2}, </v>
       </c>
       <c r="K29" s="2" t="str">
-        <f>IF(B28=B29,CONCATENATE(K28,J29),J29)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 28, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Estudia la importancia de la estructura de costos de una empresa y su implicancia en la planificación financiera.', 'offset':2}, </v>
       </c>
       <c r="L29" s="11" t="str">
-        <f>IF(B29=B30,"","{'"&amp;B$1&amp;"': "&amp;B29&amp;", 'editing': false, 'tipo': '"&amp;A29&amp;"', 'data': "&amp;"["&amp;K29&amp;"],  },")</f>
+        <f t="shared" si="3"/>
         <v>{'row': 22, 'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 28, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Estudia la importancia de la estructura de costos de una empresa y su implicancia en la planificación financiera.', 'offset':2}, ],  },</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B30" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="C30" s="2">
@@ -3170,24 +3181,24 @@
         <v>27</v>
       </c>
       <c r="J30" s="15" t="str">
-        <f>+"{ '"&amp;H$1&amp;"': "&amp;H30&amp;", '"&amp;I$1&amp;"': '"&amp;I30&amp;"', '"&amp;C$1&amp;"': "&amp;C30&amp;", '"&amp;D$1&amp;"': "&amp;D30&amp;", '"&amp;E$1&amp;"': '"&amp;E30&amp;"', '"&amp;F$1&amp;"': '"&amp;F30&amp;"', '"&amp;G$1&amp;"':"&amp;G30&amp;"}, "</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 27, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Elabora estados financieros proyectados, para diagnosticar el futuro de la empresa.', 'offset':2}, </v>
       </c>
       <c r="K30" s="2" t="str">
-        <f>IF(B29=B30,CONCATENATE(K29,J30),J30)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 27, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Elabora estados financieros proyectados, para diagnosticar el futuro de la empresa.', 'offset':2}, </v>
       </c>
       <c r="L30" s="11" t="str">
-        <f>IF(B30=B31,"","{'"&amp;B$1&amp;"': "&amp;B30&amp;", 'editing': false, 'tipo': '"&amp;A30&amp;"', 'data': "&amp;"["&amp;K30&amp;"],  },")</f>
+        <f t="shared" si="3"/>
         <v>{'row': 23, 'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 27, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Elabora estados financieros proyectados, para diagnosticar el futuro de la empresa.', 'offset':2}, ],  },</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>151</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="C31" s="2">
@@ -3213,24 +3224,24 @@
         <v>159</v>
       </c>
       <c r="J31" s="15" t="str">
-        <f>+"{ '"&amp;H$1&amp;"': "&amp;H31&amp;", '"&amp;I$1&amp;"': '"&amp;I31&amp;"', '"&amp;C$1&amp;"': "&amp;C31&amp;", '"&amp;D$1&amp;"': "&amp;D31&amp;", '"&amp;E$1&amp;"': '"&amp;E31&amp;"', '"&amp;F$1&amp;"': '"&amp;F31&amp;"', '"&amp;G$1&amp;"':"&amp;G31&amp;"}, "</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 126, 'subtipo': 'contenidos', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'IV. PROGRAMACIÓN DE CONTENIDOS', 'offset':1}, </v>
       </c>
       <c r="K31" s="2" t="str">
-        <f>IF(B30=B31,CONCATENATE(K30,J31),J31)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 126, 'subtipo': 'contenidos', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'IV. PROGRAMACIÓN DE CONTENIDOS', 'offset':1}, </v>
       </c>
       <c r="L31" s="11" t="str">
-        <f>IF(B31=B32,"","{'"&amp;B$1&amp;"': "&amp;B31&amp;", 'editing': false, 'tipo': '"&amp;A31&amp;"', 'data': "&amp;"["&amp;K31&amp;"],  },")</f>
+        <f t="shared" si="3"/>
         <v>{'row': 24, 'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 126, 'subtipo': 'contenidos', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'IV. PROGRAMACIÓN DE CONTENIDOS', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>158</v>
       </c>
       <c r="B32" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="C32" s="2">
@@ -3253,24 +3264,24 @@
         <v>22</v>
       </c>
       <c r="J32" s="15" t="str">
-        <f>+"{ '"&amp;H$1&amp;"': "&amp;H32&amp;", '"&amp;I$1&amp;"': '"&amp;I32&amp;"', '"&amp;C$1&amp;"': "&amp;C32&amp;", '"&amp;D$1&amp;"': "&amp;D32&amp;", '"&amp;E$1&amp;"': '"&amp;E32&amp;"', '"&amp;F$1&amp;"': '"&amp;F32&amp;"', '"&amp;G$1&amp;"':"&amp;G32&amp;"}, "</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 22, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD I: LA CONTABILIDAD GERENCIAL.', 'offset':1}, </v>
       </c>
       <c r="K32" s="2" t="str">
-        <f>IF(B31=B32,CONCATENATE(K31,J32),J32)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 22, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD I: LA CONTABILIDAD GERENCIAL.', 'offset':1}, </v>
       </c>
       <c r="L32" s="11" t="str">
-        <f>IF(B32=B33,"","{'"&amp;B$1&amp;"': "&amp;B32&amp;", 'editing': false, 'tipo': '"&amp;A32&amp;"', 'data': "&amp;"["&amp;K32&amp;"],  },")</f>
+        <f t="shared" si="3"/>
         <v>{'row': 25, 'editing': false, 'tipo': 'unidades', 'data': [{ 'reg': 22, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD I: LA CONTABILIDAD GERENCIAL.', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>157</v>
       </c>
       <c r="B33" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="C33" s="2">
@@ -3293,19 +3304,19 @@
         <v>35</v>
       </c>
       <c r="J33" s="15" t="str">
-        <f>+"{ '"&amp;H$1&amp;"': "&amp;H33&amp;", '"&amp;I$1&amp;"': '"&amp;I33&amp;"', '"&amp;C$1&amp;"': "&amp;C33&amp;", '"&amp;D$1&amp;"': "&amp;D33&amp;", '"&amp;E$1&amp;"': '"&amp;E33&amp;"', '"&amp;F$1&amp;"': '"&amp;F33&amp;"', '"&amp;G$1&amp;"':"&amp;G33&amp;"}, "</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, </v>
       </c>
       <c r="K33" s="2" t="str">
-        <f>IF(B32=B33,CONCATENATE(K32,J33),J33)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, </v>
       </c>
       <c r="L33" s="11" t="str">
-        <f>IF(B33=B34,"","{'"&amp;B$1&amp;"': "&amp;B33&amp;", 'editing': false, 'tipo': '"&amp;A33&amp;"', 'data': "&amp;"["&amp;K33&amp;"],  },")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>157</v>
       </c>
@@ -3326,26 +3337,26 @@
         <v>60</v>
       </c>
       <c r="G34" s="7">
-        <f t="shared" ref="G34:G65" si="2">IF(B33=B34,1,C34)</f>
+        <f t="shared" ref="G34:G65" si="5">IF(B33=B34,1,C34)</f>
         <v>1</v>
       </c>
       <c r="H34" s="14">
         <v>48</v>
       </c>
       <c r="J34" s="15" t="str">
-        <f>+"{ '"&amp;H$1&amp;"': "&amp;H34&amp;", '"&amp;I$1&amp;"': '"&amp;I34&amp;"', '"&amp;C$1&amp;"': "&amp;C34&amp;", '"&amp;D$1&amp;"': "&amp;D34&amp;", '"&amp;E$1&amp;"': '"&amp;E34&amp;"', '"&amp;F$1&amp;"': '"&amp;F34&amp;"', '"&amp;G$1&amp;"':"&amp;G34&amp;"}, "</f>
+        <f t="shared" ref="J34:J65" si="6">+"{ '"&amp;H$1&amp;"': "&amp;H34&amp;", '"&amp;I$1&amp;"': '"&amp;I34&amp;"', '"&amp;C$1&amp;"': "&amp;C34&amp;", '"&amp;D$1&amp;"': "&amp;D34&amp;", '"&amp;E$1&amp;"': '"&amp;E34&amp;"', '"&amp;F$1&amp;"': '"&amp;F34&amp;"', '"&amp;G$1&amp;"':"&amp;G34&amp;"}, "</f>
         <v xml:space="preserve">{ 'reg': 48, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, </v>
       </c>
       <c r="K34" s="2" t="str">
-        <f>IF(B33=B34,CONCATENATE(K33,J34),J34)</f>
+        <f t="shared" ref="K34:K65" si="7">IF(B33=B34,CONCATENATE(K33,J34),J34)</f>
         <v xml:space="preserve">{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 48, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, </v>
       </c>
       <c r="L34" s="11" t="str">
-        <f>IF(B34=B35,"","{'"&amp;B$1&amp;"': "&amp;B34&amp;", 'editing': false, 'tipo': '"&amp;A34&amp;"', 'data': "&amp;"["&amp;K34&amp;"],  },")</f>
+        <f t="shared" ref="L34:L65" si="8">IF(B34=B35,"","{'"&amp;B$1&amp;"': "&amp;B34&amp;", 'editing': false, 'tipo': '"&amp;A34&amp;"', 'data': "&amp;"["&amp;K34&amp;"],  },")</f>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>157</v>
       </c>
@@ -3366,26 +3377,26 @@
         <v>61</v>
       </c>
       <c r="G35" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H35" s="14">
         <v>14</v>
       </c>
       <c r="J35" s="15" t="str">
-        <f>+"{ '"&amp;H$1&amp;"': "&amp;H35&amp;", '"&amp;I$1&amp;"': '"&amp;I35&amp;"', '"&amp;C$1&amp;"': "&amp;C35&amp;", '"&amp;D$1&amp;"': "&amp;D35&amp;", '"&amp;E$1&amp;"': '"&amp;E35&amp;"', '"&amp;F$1&amp;"': '"&amp;F35&amp;"', '"&amp;G$1&amp;"':"&amp;G35&amp;"}, "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">{ 'reg': 14, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, </v>
       </c>
       <c r="K35" s="2" t="str">
-        <f>IF(B34=B35,CONCATENATE(K34,J35),J35)</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 48, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'reg': 14, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, </v>
       </c>
       <c r="L35" s="11" t="str">
-        <f>IF(B35=B36,"","{'"&amp;B$1&amp;"': "&amp;B35&amp;", 'editing': false, 'tipo': '"&amp;A35&amp;"', 'data': "&amp;"["&amp;K35&amp;"],  },")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>157</v>
       </c>
@@ -3406,26 +3417,26 @@
         <v>62</v>
       </c>
       <c r="G36" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H36" s="14">
         <v>25</v>
       </c>
       <c r="J36" s="15" t="str">
-        <f>+"{ '"&amp;H$1&amp;"': "&amp;H36&amp;", '"&amp;I$1&amp;"': '"&amp;I36&amp;"', '"&amp;C$1&amp;"': "&amp;C36&amp;", '"&amp;D$1&amp;"': "&amp;D36&amp;", '"&amp;E$1&amp;"': '"&amp;E36&amp;"', '"&amp;F$1&amp;"': '"&amp;F36&amp;"', '"&amp;G$1&amp;"':"&amp;G36&amp;"}, "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">{ 'reg': 25, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1}, </v>
       </c>
       <c r="K36" s="2" t="str">
-        <f>IF(B35=B36,CONCATENATE(K35,J36),J36)</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 48, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'reg': 14, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, { 'reg': 25, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1}, </v>
       </c>
       <c r="L36" s="11" t="str">
-        <f>IF(B36=B37,"","{'"&amp;B$1&amp;"': "&amp;B36&amp;", 'editing': false, 'tipo': '"&amp;A36&amp;"', 'data': "&amp;"["&amp;K36&amp;"],  },")</f>
+        <f t="shared" si="8"/>
         <v>{'row': 26, 'editing': false, 'tipo': 'titulo3', 'data': [{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 48, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'reg': 14, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, { 'reg': 25, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>159</v>
       </c>
@@ -3446,26 +3457,26 @@
         <v>1</v>
       </c>
       <c r="G37" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H37" s="14">
         <v>99</v>
       </c>
       <c r="J37" s="15" t="str">
-        <f>+"{ '"&amp;H$1&amp;"': "&amp;H37&amp;", '"&amp;I$1&amp;"': '"&amp;I37&amp;"', '"&amp;C$1&amp;"': "&amp;C37&amp;", '"&amp;D$1&amp;"': "&amp;D37&amp;", '"&amp;E$1&amp;"': '"&amp;E37&amp;"', '"&amp;F$1&amp;"': '"&amp;F37&amp;"', '"&amp;G$1&amp;"':"&amp;G37&amp;"}, "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, </v>
       </c>
       <c r="K37" s="2" t="str">
-        <f>IF(B36=B37,CONCATENATE(K36,J37),J37)</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, </v>
       </c>
       <c r="L37" s="11" t="str">
-        <f>IF(B37=B38,"","{'"&amp;B$1&amp;"': "&amp;B37&amp;", 'editing': false, 'tipo': '"&amp;A37&amp;"', 'data': "&amp;"["&amp;K37&amp;"],  },")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="174" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" ht="195" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>159</v>
       </c>
@@ -3486,26 +3497,26 @@
         <v>172</v>
       </c>
       <c r="G38" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H38" s="14">
         <v>127</v>
       </c>
       <c r="J38" s="15" t="str">
-        <f>+"{ '"&amp;H$1&amp;"': "&amp;H38&amp;", '"&amp;I$1&amp;"': '"&amp;I38&amp;"', '"&amp;C$1&amp;"': "&amp;C38&amp;", '"&amp;D$1&amp;"': "&amp;D38&amp;", '"&amp;E$1&amp;"': '"&amp;E38&amp;"', '"&amp;F$1&amp;"': '"&amp;F38&amp;"', '"&amp;G$1&amp;"':"&amp;G38&amp;"}, "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">{ 'reg': 127, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1}, </v>
       </c>
       <c r="K38" s="2" t="str">
-        <f>IF(B37=B38,CONCATENATE(K37,J38),J38)</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, { 'reg': 127, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1}, </v>
       </c>
       <c r="L38" s="11" t="str">
-        <f>IF(B38=B39,"","{'"&amp;B$1&amp;"': "&amp;B38&amp;", 'editing': false, 'tipo': '"&amp;A38&amp;"', 'data': "&amp;"["&amp;K38&amp;"],  },")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>159</v>
       </c>
@@ -3526,26 +3537,26 @@
         <v>68</v>
       </c>
       <c r="G39" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H39" s="14">
         <v>91</v>
       </c>
       <c r="J39" s="15" t="str">
-        <f>+"{ '"&amp;H$1&amp;"': "&amp;H39&amp;", '"&amp;I$1&amp;"': '"&amp;I39&amp;"', '"&amp;C$1&amp;"': "&amp;C39&amp;", '"&amp;D$1&amp;"': "&amp;D39&amp;", '"&amp;E$1&amp;"': '"&amp;E39&amp;"', '"&amp;F$1&amp;"': '"&amp;F39&amp;"', '"&amp;G$1&amp;"':"&amp;G39&amp;"}, "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">{ 'reg': 91, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Reconoce el recorrido de las operaciones empresariales en el ciclo contable de una empresa. Evalúa la utilidad de la información financiera y gerencial.', 'offset':1}, </v>
       </c>
       <c r="K39" s="2" t="str">
-        <f>IF(B38=B39,CONCATENATE(K38,J39),J39)</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, { 'reg': 127, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1}, { 'reg': 91, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Reconoce el recorrido de las operaciones empresariales en el ciclo contable de una empresa. Evalúa la utilidad de la información financiera y gerencial.', 'offset':1}, </v>
       </c>
       <c r="L39" s="11" t="str">
-        <f>IF(B39=B40,"","{'"&amp;B$1&amp;"': "&amp;B39&amp;", 'editing': false, 'tipo': '"&amp;A39&amp;"', 'data': "&amp;"["&amp;K39&amp;"],  },")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>159</v>
       </c>
@@ -3566,26 +3577,26 @@
         <v>177</v>
       </c>
       <c r="G40" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H40" s="14">
         <v>115</v>
       </c>
       <c r="J40" s="15" t="str">
-        <f>+"{ '"&amp;H$1&amp;"': "&amp;H40&amp;", '"&amp;I$1&amp;"': '"&amp;I40&amp;"', '"&amp;C$1&amp;"': "&amp;C40&amp;", '"&amp;D$1&amp;"': "&amp;D40&amp;", '"&amp;E$1&amp;"': '"&amp;E40&amp;"', '"&amp;F$1&amp;"': '"&amp;F40&amp;"', '"&amp;G$1&amp;"':"&amp;G40&amp;"}, "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">{ 'reg': 115, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada\nTaller', 'offset':1}, </v>
       </c>
       <c r="K40" s="2" t="str">
-        <f>IF(B39=B40,CONCATENATE(K39,J40),J40)</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, { 'reg': 127, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1}, { 'reg': 91, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Reconoce el recorrido de las operaciones empresariales en el ciclo contable de una empresa. Evalúa la utilidad de la información financiera y gerencial.', 'offset':1}, { 'reg': 115, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada\nTaller', 'offset':1}, </v>
       </c>
       <c r="L40" s="11" t="str">
-        <f>IF(B40=B41,"","{'"&amp;B$1&amp;"': "&amp;B40&amp;", 'editing': false, 'tipo': '"&amp;A40&amp;"', 'data': "&amp;"["&amp;K40&amp;"],  },")</f>
+        <f t="shared" si="8"/>
         <v>{'row': 27, 'editing': false, 'tipo': 'contenidos', 'data': [{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, { 'reg': 127, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1}, { 'reg': 91, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Reconoce el recorrido de las operaciones empresariales en el ciclo contable de una empresa. Evalúa la utilidad de la información financiera y gerencial.', 'offset':1}, { 'reg': 115, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada\nTaller', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>159</v>
       </c>
@@ -3606,26 +3617,26 @@
         <v>2</v>
       </c>
       <c r="G41" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H41" s="14">
         <v>62</v>
       </c>
       <c r="J41" s="15" t="str">
-        <f>+"{ '"&amp;H$1&amp;"': "&amp;H41&amp;", '"&amp;I$1&amp;"': '"&amp;I41&amp;"', '"&amp;C$1&amp;"': "&amp;C41&amp;", '"&amp;D$1&amp;"': "&amp;D41&amp;", '"&amp;E$1&amp;"': '"&amp;E41&amp;"', '"&amp;F$1&amp;"': '"&amp;F41&amp;"', '"&amp;G$1&amp;"':"&amp;G41&amp;"}, "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, </v>
       </c>
       <c r="K41" s="2" t="str">
-        <f>IF(B40=B41,CONCATENATE(K40,J41),J41)</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, </v>
       </c>
       <c r="L41" s="11" t="str">
-        <f>IF(B41=B42,"","{'"&amp;B$1&amp;"': "&amp;B41&amp;", 'editing': false, 'tipo': '"&amp;A41&amp;"', 'data': "&amp;"["&amp;K41&amp;"],  },")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="87" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>159</v>
       </c>
@@ -3646,26 +3657,26 @@
         <v>178</v>
       </c>
       <c r="G42" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H42" s="14">
         <v>17</v>
       </c>
       <c r="J42" s="15" t="str">
-        <f>+"{ '"&amp;H$1&amp;"': "&amp;H42&amp;", '"&amp;I$1&amp;"': '"&amp;I42&amp;"', '"&amp;C$1&amp;"': "&amp;C42&amp;", '"&amp;D$1&amp;"': "&amp;D42&amp;", '"&amp;E$1&amp;"': '"&amp;E42&amp;"', '"&amp;F$1&amp;"': '"&amp;F42&amp;"', '"&amp;G$1&amp;"':"&amp;G42&amp;"}, "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">{ 'reg': 17, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1}, </v>
       </c>
       <c r="K42" s="2" t="str">
-        <f>IF(B41=B42,CONCATENATE(K41,J42),J42)</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, { 'reg': 17, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1}, </v>
       </c>
       <c r="L42" s="11" t="str">
-        <f>IF(B42=B43,"","{'"&amp;B$1&amp;"': "&amp;B42&amp;", 'editing': false, 'tipo': '"&amp;A42&amp;"', 'data': "&amp;"["&amp;K42&amp;"],  },")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="str">
         <f>+A42</f>
         <v>contenidos</v>
@@ -3687,26 +3698,26 @@
         <v>72</v>
       </c>
       <c r="G43" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H43" s="14">
         <v>102</v>
       </c>
       <c r="J43" s="15" t="str">
-        <f>+"{ '"&amp;H$1&amp;"': "&amp;H43&amp;", '"&amp;I$1&amp;"': '"&amp;I43&amp;"', '"&amp;C$1&amp;"': "&amp;C43&amp;", '"&amp;D$1&amp;"': "&amp;D43&amp;", '"&amp;E$1&amp;"': '"&amp;E43&amp;"', '"&amp;F$1&amp;"': '"&amp;F43&amp;"', '"&amp;G$1&amp;"':"&amp;G43&amp;"}, "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">{ 'reg': 102, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Determinación, distribución y aplicación de los costos en una empresa mercantil.', 'offset':1}, </v>
       </c>
       <c r="K43" s="2" t="str">
-        <f>IF(B42=B43,CONCATENATE(K42,J43),J43)</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, { 'reg': 17, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1}, { 'reg': 102, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Determinación, distribución y aplicación de los costos en una empresa mercantil.', 'offset':1}, </v>
       </c>
       <c r="L43" s="11" t="str">
-        <f>IF(B43=B44,"","{'"&amp;B$1&amp;"': "&amp;B43&amp;", 'editing': false, 'tipo': '"&amp;A43&amp;"', 'data': "&amp;"["&amp;K43&amp;"],  },")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="str">
         <f>+A43</f>
         <v>contenidos</v>
@@ -3728,26 +3739,26 @@
         <v>73</v>
       </c>
       <c r="G44" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H44" s="14">
         <v>126</v>
       </c>
       <c r="J44" s="15" t="str">
-        <f>+"{ '"&amp;H$1&amp;"': "&amp;H44&amp;", '"&amp;I$1&amp;"': '"&amp;I44&amp;"', '"&amp;C$1&amp;"': "&amp;C44&amp;", '"&amp;D$1&amp;"': "&amp;D44&amp;", '"&amp;E$1&amp;"': '"&amp;E44&amp;"', '"&amp;F$1&amp;"': '"&amp;F44&amp;"', '"&amp;G$1&amp;"':"&amp;G44&amp;"}, "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">{ 'reg': 126, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Dinámica grupal/debate en clase', 'offset':1}, </v>
       </c>
       <c r="K44" s="2" t="str">
-        <f>IF(B43=B44,CONCATENATE(K43,J44),J44)</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, { 'reg': 17, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1}, { 'reg': 102, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Determinación, distribución y aplicación de los costos en una empresa mercantil.', 'offset':1}, { 'reg': 126, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Dinámica grupal/debate en clase', 'offset':1}, </v>
       </c>
       <c r="L44" s="11" t="str">
-        <f>IF(B44=B45,"","{'"&amp;B$1&amp;"': "&amp;B44&amp;", 'editing': false, 'tipo': '"&amp;A44&amp;"', 'data': "&amp;"["&amp;K44&amp;"],  },")</f>
+        <f t="shared" si="8"/>
         <v>{'row': 28, 'editing': false, 'tipo': 'contenidos', 'data': [{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, { 'reg': 17, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1}, { 'reg': 102, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Determinación, distribución y aplicación de los costos en una empresa mercantil.', 'offset':1}, { 'reg': 126, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Dinámica grupal/debate en clase', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>159</v>
       </c>
@@ -3768,26 +3779,26 @@
         <v>3</v>
       </c>
       <c r="G45" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H45" s="14">
         <v>39</v>
       </c>
       <c r="J45" s="15" t="str">
-        <f>+"{ '"&amp;H$1&amp;"': "&amp;H45&amp;", '"&amp;I$1&amp;"': '"&amp;I45&amp;"', '"&amp;C$1&amp;"': "&amp;C45&amp;", '"&amp;D$1&amp;"': "&amp;D45&amp;", '"&amp;E$1&amp;"': '"&amp;E45&amp;"', '"&amp;F$1&amp;"': '"&amp;F45&amp;"', '"&amp;G$1&amp;"':"&amp;G45&amp;"}, "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, </v>
       </c>
       <c r="K45" s="2" t="str">
-        <f>IF(B44=B45,CONCATENATE(K44,J45),J45)</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, </v>
       </c>
       <c r="L45" s="11" t="str">
-        <f>IF(B45=B46,"","{'"&amp;B$1&amp;"': "&amp;B45&amp;", 'editing': false, 'tipo': '"&amp;A45&amp;"', 'data': "&amp;"["&amp;K45&amp;"],  },")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>159</v>
       </c>
@@ -3808,26 +3819,26 @@
         <v>173</v>
       </c>
       <c r="G46" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H46" s="14">
         <v>124</v>
       </c>
       <c r="J46" s="15" t="str">
-        <f>+"{ '"&amp;H$1&amp;"': "&amp;H46&amp;", '"&amp;I$1&amp;"': '"&amp;I46&amp;"', '"&amp;C$1&amp;"': "&amp;C46&amp;", '"&amp;D$1&amp;"': "&amp;D46&amp;", '"&amp;E$1&amp;"': '"&amp;E46&amp;"', '"&amp;F$1&amp;"': '"&amp;F46&amp;"', '"&amp;G$1&amp;"':"&amp;G46&amp;"}, "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">{ 'reg': 124, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1}, </v>
       </c>
       <c r="K46" s="2" t="str">
-        <f>IF(B45=B46,CONCATENATE(K45,J46),J46)</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, { 'reg': 124, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1}, </v>
       </c>
       <c r="L46" s="11" t="str">
-        <f>IF(B46=B47,"","{'"&amp;B$1&amp;"': "&amp;B46&amp;", 'editing': false, 'tipo': '"&amp;A46&amp;"', 'data': "&amp;"["&amp;K46&amp;"],  },")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>159</v>
       </c>
@@ -3848,26 +3859,26 @@
         <v>77</v>
       </c>
       <c r="G47" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H47" s="14">
         <v>26</v>
       </c>
       <c r="J47" s="15" t="str">
-        <f>+"{ '"&amp;H$1&amp;"': "&amp;H47&amp;", '"&amp;I$1&amp;"': '"&amp;I47&amp;"', '"&amp;C$1&amp;"': "&amp;C47&amp;", '"&amp;D$1&amp;"': "&amp;D47&amp;", '"&amp;E$1&amp;"': '"&amp;E47&amp;"', '"&amp;F$1&amp;"': '"&amp;F47&amp;"', '"&amp;G$1&amp;"':"&amp;G47&amp;"}, "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">{ 'reg': 26, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Analizar y aplicar el marco legal normativo para la elaboración de los Estados Financieros.', 'offset':1}, </v>
       </c>
       <c r="K47" s="2" t="str">
-        <f>IF(B46=B47,CONCATENATE(K46,J47),J47)</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, { 'reg': 124, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1}, { 'reg': 26, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Analizar y aplicar el marco legal normativo para la elaboración de los Estados Financieros.', 'offset':1}, </v>
       </c>
       <c r="L47" s="11" t="str">
-        <f>IF(B47=B48,"","{'"&amp;B$1&amp;"': "&amp;B47&amp;", 'editing': false, 'tipo': '"&amp;A47&amp;"', 'data': "&amp;"["&amp;K47&amp;"],  },")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>159</v>
       </c>
@@ -3888,26 +3899,26 @@
         <v>63</v>
       </c>
       <c r="G48" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H48" s="14">
         <v>40</v>
       </c>
       <c r="J48" s="15" t="str">
-        <f>+"{ '"&amp;H$1&amp;"': "&amp;H48&amp;", '"&amp;I$1&amp;"': '"&amp;I48&amp;"', '"&amp;C$1&amp;"': "&amp;C48&amp;", '"&amp;D$1&amp;"': "&amp;D48&amp;", '"&amp;E$1&amp;"': '"&amp;E48&amp;"', '"&amp;F$1&amp;"': '"&amp;F48&amp;"', '"&amp;G$1&amp;"':"&amp;G48&amp;"}, "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">{ 'reg': 40, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada', 'offset':1}, </v>
       </c>
       <c r="K48" s="2" t="str">
-        <f>IF(B47=B48,CONCATENATE(K47,J48),J48)</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, { 'reg': 124, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1}, { 'reg': 26, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Analizar y aplicar el marco legal normativo para la elaboración de los Estados Financieros.', 'offset':1}, { 'reg': 40, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada', 'offset':1}, </v>
       </c>
       <c r="L48" s="11" t="str">
-        <f>IF(B48=B49,"","{'"&amp;B$1&amp;"': "&amp;B48&amp;", 'editing': false, 'tipo': '"&amp;A48&amp;"', 'data': "&amp;"["&amp;K48&amp;"],  },")</f>
+        <f t="shared" si="8"/>
         <v>{'row': 29, 'editing': false, 'tipo': 'contenidos', 'data': [{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, { 'reg': 124, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1}, { 'reg': 26, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Analizar y aplicar el marco legal normativo para la elaboración de los Estados Financieros.', 'offset':1}, { 'reg': 40, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>159</v>
       </c>
@@ -3928,26 +3939,26 @@
         <v>4</v>
       </c>
       <c r="G49" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H49" s="14">
         <v>43</v>
       </c>
       <c r="J49" s="15" t="str">
-        <f>+"{ '"&amp;H$1&amp;"': "&amp;H49&amp;", '"&amp;I$1&amp;"': '"&amp;I49&amp;"', '"&amp;C$1&amp;"': "&amp;C49&amp;", '"&amp;D$1&amp;"': "&amp;D49&amp;", '"&amp;E$1&amp;"': '"&amp;E49&amp;"', '"&amp;F$1&amp;"': '"&amp;F49&amp;"', '"&amp;G$1&amp;"':"&amp;G49&amp;"}, "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, </v>
       </c>
       <c r="K49" s="2" t="str">
-        <f>IF(B48=B49,CONCATENATE(K48,J49),J49)</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, </v>
       </c>
       <c r="L49" s="11" t="str">
-        <f>IF(B49=B50,"","{'"&amp;B$1&amp;"': "&amp;B49&amp;", 'editing': false, 'tipo': '"&amp;A49&amp;"', 'data': "&amp;"["&amp;K49&amp;"],  },")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="87" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>159</v>
       </c>
@@ -3968,26 +3979,26 @@
         <v>174</v>
       </c>
       <c r="G50" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H50" s="14">
         <v>62</v>
       </c>
       <c r="J50" s="15" t="str">
-        <f>+"{ '"&amp;H$1&amp;"': "&amp;H50&amp;", '"&amp;I$1&amp;"': '"&amp;I50&amp;"', '"&amp;C$1&amp;"': "&amp;C50&amp;", '"&amp;D$1&amp;"': "&amp;D50&amp;", '"&amp;E$1&amp;"': '"&amp;E50&amp;"', '"&amp;F$1&amp;"': '"&amp;F50&amp;"', '"&amp;G$1&amp;"':"&amp;G50&amp;"}, "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1}, </v>
       </c>
       <c r="K50" s="2" t="str">
-        <f>IF(B49=B50,CONCATENATE(K49,J50),J50)</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, { 'reg': 62, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1}, </v>
       </c>
       <c r="L50" s="11" t="str">
-        <f>IF(B50=B51,"","{'"&amp;B$1&amp;"': "&amp;B50&amp;", 'editing': false, 'tipo': '"&amp;A50&amp;"', 'data': "&amp;"["&amp;K50&amp;"],  },")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>159</v>
       </c>
@@ -4008,26 +4019,26 @@
         <v>85</v>
       </c>
       <c r="G51" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H51" s="14">
         <v>10</v>
       </c>
       <c r="J51" s="15" t="str">
-        <f>+"{ '"&amp;H$1&amp;"': "&amp;H51&amp;", '"&amp;I$1&amp;"': '"&amp;I51&amp;"', '"&amp;C$1&amp;"': "&amp;C51&amp;", '"&amp;D$1&amp;"': "&amp;D51&amp;", '"&amp;E$1&amp;"': '"&amp;E51&amp;"', '"&amp;F$1&amp;"': '"&amp;F51&amp;"', '"&amp;G$1&amp;"':"&amp;G51&amp;"}, "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">{ 'reg': 10, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Evalúa los resultados obtenidos. Demuestra la aplicación del análisis vertical y horizontal.', 'offset':1}, </v>
       </c>
       <c r="K51" s="2" t="str">
-        <f>IF(B50=B51,CONCATENATE(K50,J51),J51)</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, { 'reg': 62, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1}, { 'reg': 10, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Evalúa los resultados obtenidos. Demuestra la aplicación del análisis vertical y horizontal.', 'offset':1}, </v>
       </c>
       <c r="L51" s="11" t="str">
-        <f>IF(B51=B52,"","{'"&amp;B$1&amp;"': "&amp;B51&amp;", 'editing': false, 'tipo': '"&amp;A51&amp;"', 'data': "&amp;"["&amp;K51&amp;"],  },")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>159</v>
       </c>
@@ -4048,26 +4059,26 @@
         <v>175</v>
       </c>
       <c r="G52" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H52" s="14">
         <v>82</v>
       </c>
       <c r="J52" s="15" t="str">
-        <f>+"{ '"&amp;H$1&amp;"': "&amp;H52&amp;", '"&amp;I$1&amp;"': '"&amp;I52&amp;"', '"&amp;C$1&amp;"': "&amp;C52&amp;", '"&amp;D$1&amp;"': "&amp;D52&amp;", '"&amp;E$1&amp;"': '"&amp;E52&amp;"', '"&amp;F$1&amp;"': '"&amp;F52&amp;"', '"&amp;G$1&amp;"':"&amp;G52&amp;"}, "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">{ 'reg': 82, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Clase Expositiva\n Taller\n  Discusión de caso', 'offset':1}, </v>
       </c>
       <c r="K52" s="2" t="str">
-        <f>IF(B51=B52,CONCATENATE(K51,J52),J52)</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, { 'reg': 62, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1}, { 'reg': 10, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Evalúa los resultados obtenidos. Demuestra la aplicación del análisis vertical y horizontal.', 'offset':1}, { 'reg': 82, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Clase Expositiva\n Taller\n  Discusión de caso', 'offset':1}, </v>
       </c>
       <c r="L52" s="11" t="str">
-        <f>IF(B52=B53,"","{'"&amp;B$1&amp;"': "&amp;B52&amp;", 'editing': false, 'tipo': '"&amp;A52&amp;"', 'data': "&amp;"["&amp;K52&amp;"],  },")</f>
+        <f t="shared" si="8"/>
         <v>{'row': 30, 'editing': false, 'tipo': 'contenidos', 'data': [{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, { 'reg': 62, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1}, { 'reg': 10, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Evalúa los resultados obtenidos. Demuestra la aplicación del análisis vertical y horizontal.', 'offset':1}, { 'reg': 82, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Clase Expositiva\n Taller\n  Discusión de caso', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>161</v>
       </c>
@@ -4088,26 +4099,26 @@
         <v>160</v>
       </c>
       <c r="G53" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H53" s="14">
         <v>19</v>
       </c>
       <c r="J53" s="15" t="str">
-        <f>+"{ '"&amp;H$1&amp;"': "&amp;H53&amp;", '"&amp;I$1&amp;"': '"&amp;I53&amp;"', '"&amp;C$1&amp;"': "&amp;C53&amp;", '"&amp;D$1&amp;"': "&amp;D53&amp;", '"&amp;E$1&amp;"': '"&amp;E53&amp;"', '"&amp;F$1&amp;"': '"&amp;F53&amp;"', '"&amp;G$1&amp;"':"&amp;G53&amp;"}, "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">{ 'reg': 19, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'center', 'texto': 'EVALUACIÓN PARCIAL 1 ', 'offset':2}, </v>
       </c>
       <c r="K53" s="2" t="str">
-        <f>IF(B52=B53,CONCATENATE(K52,J53),J53)</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">{ 'reg': 19, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'center', 'texto': 'EVALUACIÓN PARCIAL 1 ', 'offset':2}, </v>
       </c>
       <c r="L53" s="11" t="str">
-        <f>IF(B53=B54,"","{'"&amp;B$1&amp;"': "&amp;B53&amp;", 'editing': false, 'tipo': '"&amp;A53&amp;"', 'data': "&amp;"["&amp;K53&amp;"],  },")</f>
+        <f t="shared" si="8"/>
         <v>{'row': 31, 'editing': false, 'tipo': 'evaluaciones', 'data': [{ 'reg': 19, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'center', 'texto': 'EVALUACIÓN PARCIAL 1 ', 'offset':2}, ],  },</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>159</v>
       </c>
@@ -4128,26 +4139,26 @@
         <v>5</v>
       </c>
       <c r="G54" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H54" s="14">
         <v>82</v>
       </c>
       <c r="J54" s="15" t="str">
-        <f>+"{ '"&amp;H$1&amp;"': "&amp;H54&amp;", '"&amp;I$1&amp;"': '"&amp;I54&amp;"', '"&amp;C$1&amp;"': "&amp;C54&amp;", '"&amp;D$1&amp;"': "&amp;D54&amp;", '"&amp;E$1&amp;"': '"&amp;E54&amp;"', '"&amp;F$1&amp;"': '"&amp;F54&amp;"', '"&amp;G$1&amp;"':"&amp;G54&amp;"}, "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, </v>
       </c>
       <c r="K54" s="2" t="str">
-        <f>IF(B53=B54,CONCATENATE(K53,J54),J54)</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, </v>
       </c>
       <c r="L54" s="11" t="str">
-        <f>IF(B54=B55,"","{'"&amp;B$1&amp;"': "&amp;B54&amp;", 'editing': false, 'tipo': '"&amp;A54&amp;"', 'data': "&amp;"["&amp;K54&amp;"],  },")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>159</v>
       </c>
@@ -4165,26 +4176,26 @@
         <v>176</v>
       </c>
       <c r="G55" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H55" s="14">
         <v>61</v>
       </c>
       <c r="J55" s="15" t="str">
-        <f>+"{ '"&amp;H$1&amp;"': "&amp;H55&amp;", '"&amp;I$1&amp;"': '"&amp;I55&amp;"', '"&amp;C$1&amp;"': "&amp;C55&amp;", '"&amp;D$1&amp;"': "&amp;D55&amp;", '"&amp;E$1&amp;"': '"&amp;E55&amp;"', '"&amp;F$1&amp;"': '"&amp;F55&amp;"', '"&amp;G$1&amp;"':"&amp;G55&amp;"}, "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">{ 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1}, </v>
       </c>
       <c r="K55" s="2" t="str">
-        <f>IF(B54=B55,CONCATENATE(K54,J55),J55)</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, { 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1}, </v>
       </c>
       <c r="L55" s="11" t="str">
-        <f>IF(B55=B56,"","{'"&amp;B$1&amp;"': "&amp;B55&amp;", 'editing': false, 'tipo': '"&amp;A55&amp;"', 'data': "&amp;"["&amp;K55&amp;"],  },")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>159</v>
       </c>
@@ -4202,26 +4213,26 @@
         <v>89</v>
       </c>
       <c r="G56" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H56" s="14">
         <v>39</v>
       </c>
       <c r="J56" s="15" t="str">
-        <f>+"{ '"&amp;H$1&amp;"': "&amp;H56&amp;", '"&amp;I$1&amp;"': '"&amp;I56&amp;"', '"&amp;C$1&amp;"': "&amp;C56&amp;", '"&amp;D$1&amp;"': "&amp;D56&amp;", '"&amp;E$1&amp;"': '"&amp;E56&amp;"', '"&amp;F$1&amp;"': '"&amp;F56&amp;"', '"&amp;G$1&amp;"':"&amp;G56&amp;"}, "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">{ 'reg': 39, 'subtipo': '', 'col': 4, 'cols': 2, 'align': '', 'texto': 'Propicia un debate acerca de la toma de decisiones en una empresa.', 'offset':1}, </v>
       </c>
       <c r="K56" s="2" t="str">
-        <f>IF(B55=B56,CONCATENATE(K55,J56),J56)</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, { 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1}, { 'reg': 39, 'subtipo': '', 'col': 4, 'cols': 2, 'align': '', 'texto': 'Propicia un debate acerca de la toma de decisiones en una empresa.', 'offset':1}, </v>
       </c>
       <c r="L56" s="11" t="str">
-        <f>IF(B56=B57,"","{'"&amp;B$1&amp;"': "&amp;B56&amp;", 'editing': false, 'tipo': '"&amp;A56&amp;"', 'data': "&amp;"["&amp;K56&amp;"],  },")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>159</v>
       </c>
@@ -4239,26 +4250,26 @@
         <v>63</v>
       </c>
       <c r="G57" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H57" s="14">
         <v>69</v>
       </c>
       <c r="J57" s="15" t="str">
-        <f>+"{ '"&amp;H$1&amp;"': "&amp;H57&amp;", '"&amp;I$1&amp;"': '"&amp;I57&amp;"', '"&amp;C$1&amp;"': "&amp;C57&amp;", '"&amp;D$1&amp;"': "&amp;D57&amp;", '"&amp;E$1&amp;"': '"&amp;E57&amp;"', '"&amp;F$1&amp;"': '"&amp;F57&amp;"', '"&amp;G$1&amp;"':"&amp;G57&amp;"}, "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">{ 'reg': 69, 'subtipo': '', 'col': 6, 'cols': 2, 'align': '', 'texto': 'Exposición dialogada', 'offset':1}, </v>
       </c>
       <c r="K57" s="2" t="str">
-        <f>IF(B56=B57,CONCATENATE(K56,J57),J57)</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, { 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1}, { 'reg': 39, 'subtipo': '', 'col': 4, 'cols': 2, 'align': '', 'texto': 'Propicia un debate acerca de la toma de decisiones en una empresa.', 'offset':1}, { 'reg': 69, 'subtipo': '', 'col': 6, 'cols': 2, 'align': '', 'texto': 'Exposición dialogada', 'offset':1}, </v>
       </c>
       <c r="L57" s="11" t="str">
-        <f>IF(B57=B58,"","{'"&amp;B$1&amp;"': "&amp;B57&amp;", 'editing': false, 'tipo': '"&amp;A57&amp;"', 'data': "&amp;"["&amp;K57&amp;"],  },")</f>
+        <f t="shared" si="8"/>
         <v>{'row': 32, 'editing': false, 'tipo': 'contenidos', 'data': [{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, { 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1}, { 'reg': 39, 'subtipo': '', 'col': 4, 'cols': 2, 'align': '', 'texto': 'Propicia un debate acerca de la toma de decisiones en una empresa.', 'offset':1}, { 'reg': 69, 'subtipo': '', 'col': 6, 'cols': 2, 'align': '', 'texto': 'Exposición dialogada', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>158</v>
       </c>
@@ -4279,26 +4290,26 @@
         <v>170</v>
       </c>
       <c r="G58" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H58" s="14">
         <v>124</v>
       </c>
       <c r="J58" s="15" t="str">
-        <f>+"{ '"&amp;H$1&amp;"': "&amp;H58&amp;", '"&amp;I$1&amp;"': '"&amp;I58&amp;"', '"&amp;C$1&amp;"': "&amp;C58&amp;", '"&amp;D$1&amp;"': "&amp;D58&amp;", '"&amp;E$1&amp;"': '"&amp;E58&amp;"', '"&amp;F$1&amp;"': '"&amp;F58&amp;"', '"&amp;G$1&amp;"':"&amp;G58&amp;"}, "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">{ 'reg': 124, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD II: ANALISIS E INTERPRETACION DE LOS ESTADOS FINANCIEROS', 'offset':1}, </v>
       </c>
       <c r="K58" s="2" t="str">
-        <f>IF(B57=B58,CONCATENATE(K57,J58),J58)</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">{ 'reg': 124, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD II: ANALISIS E INTERPRETACION DE LOS ESTADOS FINANCIEROS', 'offset':1}, </v>
       </c>
       <c r="L58" s="11" t="str">
-        <f>IF(B58=B59,"","{'"&amp;B$1&amp;"': "&amp;B58&amp;", 'editing': false, 'tipo': '"&amp;A58&amp;"', 'data': "&amp;"["&amp;K58&amp;"],  },")</f>
+        <f t="shared" si="8"/>
         <v>{'row': 33, 'editing': false, 'tipo': 'unidades', 'data': [{ 'reg': 124, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD II: ANALISIS E INTERPRETACION DE LOS ESTADOS FINANCIEROS', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>157</v>
       </c>
@@ -4319,26 +4330,26 @@
         <v>59</v>
       </c>
       <c r="G59" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H59" s="14">
         <v>62</v>
       </c>
       <c r="J59" s="15" t="str">
-        <f>+"{ '"&amp;H$1&amp;"': "&amp;H59&amp;", '"&amp;I$1&amp;"': '"&amp;I59&amp;"', '"&amp;C$1&amp;"': "&amp;C59&amp;", '"&amp;D$1&amp;"': "&amp;D59&amp;", '"&amp;E$1&amp;"': '"&amp;E59&amp;"', '"&amp;F$1&amp;"': '"&amp;F59&amp;"', '"&amp;G$1&amp;"':"&amp;G59&amp;"}, "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, </v>
       </c>
       <c r="K59" s="2" t="str">
-        <f>IF(B58=B59,CONCATENATE(K58,J59),J59)</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, </v>
       </c>
       <c r="L59" s="11" t="str">
-        <f>IF(B59=B60,"","{'"&amp;B$1&amp;"': "&amp;B59&amp;", 'editing': false, 'tipo': '"&amp;A59&amp;"', 'data': "&amp;"["&amp;K59&amp;"],  },")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>157</v>
       </c>
@@ -4359,26 +4370,26 @@
         <v>60</v>
       </c>
       <c r="G60" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H60" s="14">
         <v>61</v>
       </c>
       <c r="J60" s="15" t="str">
-        <f>+"{ '"&amp;H$1&amp;"': "&amp;H60&amp;", '"&amp;I$1&amp;"': '"&amp;I60&amp;"', '"&amp;C$1&amp;"': "&amp;C60&amp;", '"&amp;D$1&amp;"': "&amp;D60&amp;", '"&amp;E$1&amp;"': '"&amp;E60&amp;"', '"&amp;F$1&amp;"': '"&amp;F60&amp;"', '"&amp;G$1&amp;"':"&amp;G60&amp;"}, "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">{ 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, </v>
       </c>
       <c r="K60" s="2" t="str">
-        <f>IF(B59=B60,CONCATENATE(K59,J60),J60)</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, </v>
       </c>
       <c r="L60" s="11" t="str">
-        <f>IF(B60=B61,"","{'"&amp;B$1&amp;"': "&amp;B60&amp;", 'editing': false, 'tipo': '"&amp;A60&amp;"', 'data': "&amp;"["&amp;K60&amp;"],  },")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>157</v>
       </c>
@@ -4399,26 +4410,26 @@
         <v>61</v>
       </c>
       <c r="G61" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H61" s="14">
         <v>73</v>
       </c>
       <c r="J61" s="15" t="str">
-        <f>+"{ '"&amp;H$1&amp;"': "&amp;H61&amp;", '"&amp;I$1&amp;"': '"&amp;I61&amp;"', '"&amp;C$1&amp;"': "&amp;C61&amp;", '"&amp;D$1&amp;"': "&amp;D61&amp;", '"&amp;E$1&amp;"': '"&amp;E61&amp;"', '"&amp;F$1&amp;"': '"&amp;F61&amp;"', '"&amp;G$1&amp;"':"&amp;G61&amp;"}, "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">{ 'reg': 73, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, </v>
       </c>
       <c r="K61" s="2" t="str">
-        <f>IF(B60=B61,CONCATENATE(K60,J61),J61)</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'reg': 73, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, </v>
       </c>
       <c r="L61" s="11" t="str">
-        <f>IF(B61=B62,"","{'"&amp;B$1&amp;"': "&amp;B61&amp;", 'editing': false, 'tipo': '"&amp;A61&amp;"', 'data': "&amp;"["&amp;K61&amp;"],  },")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>157</v>
       </c>
@@ -4439,26 +4450,26 @@
         <v>62</v>
       </c>
       <c r="G62" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H62" s="14">
         <v>27</v>
       </c>
       <c r="J62" s="15" t="str">
-        <f>+"{ '"&amp;H$1&amp;"': "&amp;H62&amp;", '"&amp;I$1&amp;"': '"&amp;I62&amp;"', '"&amp;C$1&amp;"': "&amp;C62&amp;", '"&amp;D$1&amp;"': "&amp;D62&amp;", '"&amp;E$1&amp;"': '"&amp;E62&amp;"', '"&amp;F$1&amp;"': '"&amp;F62&amp;"', '"&amp;G$1&amp;"':"&amp;G62&amp;"}, "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">{ 'reg': 27, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1}, </v>
       </c>
       <c r="K62" s="2" t="str">
-        <f>IF(B61=B62,CONCATENATE(K61,J62),J62)</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'reg': 73, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, { 'reg': 27, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1}, </v>
       </c>
       <c r="L62" s="11" t="str">
-        <f>IF(B62=B63,"","{'"&amp;B$1&amp;"': "&amp;B62&amp;", 'editing': false, 'tipo': '"&amp;A62&amp;"', 'data': "&amp;"["&amp;K62&amp;"],  },")</f>
+        <f t="shared" si="8"/>
         <v>{'row': 34, 'editing': false, 'tipo': 'titulo3', 'data': [{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'reg': 73, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, { 'reg': 27, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>151</v>
       </c>
@@ -4479,7 +4490,7 @@
         <v>166</v>
       </c>
       <c r="G63" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H63" s="14">
@@ -4489,24 +4500,24 @@
         <v>181</v>
       </c>
       <c r="J63" s="15" t="str">
-        <f>+"{ '"&amp;H$1&amp;"': "&amp;H63&amp;", '"&amp;I$1&amp;"': '"&amp;I63&amp;"', '"&amp;C$1&amp;"': "&amp;C63&amp;", '"&amp;D$1&amp;"': "&amp;D63&amp;", '"&amp;E$1&amp;"': '"&amp;E63&amp;"', '"&amp;F$1&amp;"': '"&amp;F63&amp;"', '"&amp;G$1&amp;"':"&amp;G63&amp;"}, "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">{ 'reg': 6, 'subtipo': 'estrategias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'V. ESTRATEGIAS METODOLÓGICAS', 'offset':1}, </v>
       </c>
       <c r="K63" s="2" t="str">
-        <f>IF(B62=B63,CONCATENATE(K62,J63),J63)</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">{ 'reg': 6, 'subtipo': 'estrategias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'V. ESTRATEGIAS METODOLÓGICAS', 'offset':1}, </v>
       </c>
       <c r="L63" s="11" t="str">
-        <f>IF(B63=B64,"","{'"&amp;B$1&amp;"': "&amp;B63&amp;", 'editing': false, 'tipo': '"&amp;A63&amp;"', 'data': "&amp;"["&amp;K63&amp;"],  },")</f>
+        <f t="shared" si="8"/>
         <v>{'row': 35, 'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 6, 'subtipo': 'estrategias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'V. ESTRATEGIAS METODOLÓGICAS', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>151</v>
       </c>
       <c r="B64" s="2">
-        <f t="shared" ref="B64:B65" si="3">+B63+1</f>
+        <f t="shared" ref="B64:B65" si="9">+B63+1</f>
         <v>36</v>
       </c>
       <c r="C64" s="2">
@@ -4522,7 +4533,7 @@
         <v>167</v>
       </c>
       <c r="G64" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H64" s="14">
@@ -4532,24 +4543,24 @@
         <v>161</v>
       </c>
       <c r="J64" s="15" t="str">
-        <f>+"{ '"&amp;H$1&amp;"': "&amp;H64&amp;", '"&amp;I$1&amp;"': '"&amp;I64&amp;"', '"&amp;C$1&amp;"': "&amp;C64&amp;", '"&amp;D$1&amp;"': "&amp;D64&amp;", '"&amp;E$1&amp;"': '"&amp;E64&amp;"', '"&amp;F$1&amp;"': '"&amp;F64&amp;"', '"&amp;G$1&amp;"':"&amp;G64&amp;"}, "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">{ 'reg': 75, 'subtipo': 'evaluaciones', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VI. EVALUACIÓN', 'offset':1}, </v>
       </c>
       <c r="K64" s="2" t="str">
-        <f>IF(B63=B64,CONCATENATE(K63,J64),J64)</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">{ 'reg': 75, 'subtipo': 'evaluaciones', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VI. EVALUACIÓN', 'offset':1}, </v>
       </c>
       <c r="L64" s="11" t="str">
-        <f>IF(B64=B65,"","{'"&amp;B$1&amp;"': "&amp;B64&amp;", 'editing': false, 'tipo': '"&amp;A64&amp;"', 'data': "&amp;"["&amp;K64&amp;"],  },")</f>
+        <f t="shared" si="8"/>
         <v>{'row': 36, 'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 75, 'subtipo': 'evaluaciones', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VI. EVALUACIÓN', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>151</v>
       </c>
       <c r="B65" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>37</v>
       </c>
       <c r="C65" s="2">
@@ -4565,7 +4576,7 @@
         <v>168</v>
       </c>
       <c r="G65" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H65" s="14">
@@ -4575,17 +4586,29 @@
         <v>182</v>
       </c>
       <c r="J65" s="15" t="str">
-        <f>+"{ '"&amp;H$1&amp;"': "&amp;H65&amp;", '"&amp;I$1&amp;"': '"&amp;I65&amp;"', '"&amp;C$1&amp;"': "&amp;C65&amp;", '"&amp;D$1&amp;"': "&amp;D65&amp;", '"&amp;E$1&amp;"': '"&amp;E65&amp;"', '"&amp;F$1&amp;"': '"&amp;F65&amp;"', '"&amp;G$1&amp;"':"&amp;G65&amp;"}, "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">{ 'reg': 102, 'subtipo': 'bibliografias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VII. BIBLIOGRAFÍA', 'offset':1}, </v>
       </c>
       <c r="K65" s="2" t="str">
-        <f>IF(B64=B65,CONCATENATE(K64,J65),J65)</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">{ 'reg': 102, 'subtipo': 'bibliografias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VII. BIBLIOGRAFÍA', 'offset':1}, </v>
       </c>
       <c r="L65" s="11" t="str">
-        <f>IF(B65=B66,"","{'"&amp;B$1&amp;"': "&amp;B65&amp;", 'editing': false, 'tipo': '"&amp;A65&amp;"', 'data': "&amp;"["&amp;K65&amp;"],  },")</f>
+        <f t="shared" si="8"/>
         <v>{'row': 37, 'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 102, 'subtipo': 'bibliografias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VII. BIBLIOGRAFÍA', 'offset':1}, ],  },</v>
       </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F70" s="16"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F71" s="16"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F72" s="16"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F73" s="16"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F65"/>
@@ -4603,18 +4626,18 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1048576"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>134</v>
       </c>
@@ -4631,7 +4654,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>

--- a/topdown.xlsx
+++ b/topdown.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.arashiro\proyectos\Code\syllabus5\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="165" yWindow="75" windowWidth="18900" windowHeight="7335" activeTab="3"/>
+    <workbookView xWindow="170" yWindow="80" windowWidth="18900" windowHeight="7340" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,15 +15,15 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">campos!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">datos!$A$1:$F$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">datos!$A$1:$H$65</definedName>
     <definedName name="_xlnm.Extract" localSheetId="1">campos!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="185">
   <si>
     <t>GENERALIDADES</t>
   </si>
@@ -577,6 +572,12 @@
   </si>
   <si>
     <t>bibliografias</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>examenes</t>
   </si>
 </sst>
 </file>
@@ -744,7 +745,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -779,7 +780,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -994,13 +995,13 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1008,177 +1009,177 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>18</v>
       </c>
@@ -1197,24 +1198,24 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" customWidth="1"/>
+    <col min="6" max="6" width="11.1796875" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -1330,14 +1331,14 @@
       <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -1345,7 +1346,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>35</v>
       </c>
@@ -1356,7 +1357,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>36</v>
       </c>
@@ -1367,7 +1368,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>37</v>
       </c>
@@ -1378,7 +1379,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>38</v>
       </c>
@@ -1389,7 +1390,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>39</v>
       </c>
@@ -1400,7 +1401,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>40</v>
       </c>
@@ -1411,7 +1412,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -1419,12 +1420,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -1432,32 +1433,32 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -1465,32 +1466,32 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -1498,12 +1499,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>59</v>
       </c>
@@ -1517,7 +1518,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>1</v>
       </c>
@@ -1535,7 +1536,7 @@
       <c r="I35" s="19"/>
       <c r="J35" s="19"/>
     </row>
-    <row r="36" spans="1:10" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="17" t="s">
         <v>65</v>
       </c>
@@ -1550,7 +1551,7 @@
       <c r="I36" s="20"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="17" t="s">
         <v>66</v>
       </c>
@@ -1560,7 +1561,7 @@
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
     </row>
-    <row r="38" spans="1:10" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="57.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="17" t="s">
         <v>67</v>
       </c>
@@ -1570,7 +1571,7 @@
       <c r="F38" s="17"/>
       <c r="G38" s="17"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1578,7 +1579,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="45.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="17" t="s">
         <v>71</v>
       </c>
@@ -1595,7 +1596,7 @@
       <c r="I40" s="20"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3</v>
       </c>
@@ -1607,7 +1608,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="17" t="s">
         <v>75</v>
       </c>
@@ -1624,7 +1625,7 @@
       <c r="I42" s="17"/>
       <c r="J42" s="17"/>
     </row>
-    <row r="43" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="17" t="s">
         <v>76</v>
       </c>
@@ -1639,7 +1640,7 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>4</v>
       </c>
@@ -1655,7 +1656,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>80</v>
       </c>
@@ -1666,7 +1667,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>81</v>
       </c>
@@ -1677,7 +1678,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>82</v>
       </c>
@@ -1685,7 +1686,7 @@
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>83</v>
       </c>
@@ -1693,7 +1694,7 @@
       <c r="F48" s="17"/>
       <c r="G48" s="17"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>84</v>
       </c>
@@ -1701,7 +1702,7 @@
       <c r="F49" s="17"/>
       <c r="G49" s="17"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B50" s="18" t="s">
         <v>132</v>
       </c>
@@ -1713,7 +1714,7 @@
       <c r="H50" s="18"/>
       <c r="I50" s="18"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>5</v>
       </c>
@@ -1732,7 +1733,7 @@
       </c>
       <c r="I51" s="6"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>88</v>
       </c>
@@ -1743,7 +1744,7 @@
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -1753,7 +1754,7 @@
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -1763,7 +1764,7 @@
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -1773,7 +1774,7 @@
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -1783,7 +1784,7 @@
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -1793,7 +1794,7 @@
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -1803,7 +1804,7 @@
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -1813,7 +1814,7 @@
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>90</v>
       </c>
@@ -1821,37 +1822,37 @@
         <v>91</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>98</v>
       </c>
@@ -1859,38 +1860,38 @@
         <v>99</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
         <v>101</v>
       </c>
       <c r="D73" s="4"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B77" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>106</v>
       </c>
@@ -1898,7 +1899,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>1</v>
       </c>
@@ -1906,22 +1907,22 @@
         <v>108</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B83" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B84" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B85" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>2</v>
       </c>
@@ -1929,22 +1930,22 @@
         <v>133</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B88" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B89" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B90" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>3</v>
       </c>
@@ -1952,17 +1953,17 @@
         <v>115</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B93" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B94" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B95" t="s">
         <v>118</v>
       </c>
@@ -1991,2630 +1992,2878 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L73"/>
+  <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="4" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.140625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="9" style="7" customWidth="1"/>
-    <col min="8" max="8" width="9" style="14" customWidth="1"/>
-    <col min="9" max="9" width="9" style="12" customWidth="1"/>
-    <col min="10" max="10" width="28.140625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" style="2"/>
-    <col min="12" max="12" width="10.85546875" style="10"/>
+    <col min="1" max="1" width="12.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.26953125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.453125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="4" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.1796875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="9" style="7" customWidth="1"/>
+    <col min="10" max="10" width="9" style="14" customWidth="1"/>
+    <col min="11" max="11" width="9" style="12" customWidth="1"/>
+    <col min="12" max="12" width="28.1796875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="10.81640625" style="2"/>
+    <col min="14" max="14" width="10.81640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
       <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="7">
-        <f t="shared" ref="G2:G33" si="0">IF(B1=B2,1,C2)</f>
-        <v>1</v>
-      </c>
-      <c r="H2" s="14">
+      <c r="I2" s="7">
+        <f t="shared" ref="I2:I33" si="0">IF(D1=D2,1,E2)</f>
+        <v>1</v>
+      </c>
+      <c r="J2" s="14">
         <v>11</v>
       </c>
-      <c r="J2" s="7" t="str">
-        <f t="shared" ref="J2:J33" si="1">+"{ '"&amp;H$1&amp;"': "&amp;H2&amp;", '"&amp;I$1&amp;"': '"&amp;I2&amp;"', '"&amp;C$1&amp;"': "&amp;C2&amp;", '"&amp;D$1&amp;"': "&amp;D2&amp;", '"&amp;E$1&amp;"': '"&amp;E2&amp;"', '"&amp;F$1&amp;"': '"&amp;F2&amp;"', '"&amp;G$1&amp;"':"&amp;G2&amp;"}, "</f>
+      <c r="L2" s="7" t="str">
+        <f t="shared" ref="L2:L33" si="1">+"{ '"&amp;J$1&amp;"': "&amp;J2&amp;", '"&amp;K$1&amp;"': '"&amp;K2&amp;"', '"&amp;E$1&amp;"': "&amp;E2&amp;", '"&amp;F$1&amp;"': "&amp;F2&amp;", '"&amp;G$1&amp;"': '"&amp;G2&amp;"', '"&amp;H$1&amp;"': '"&amp;H2&amp;"', '"&amp;I$1&amp;"':"&amp;I2&amp;"}, "</f>
         <v xml:space="preserve">{ 'reg': 11, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'CONTABILIDAD GERENCIAL', 'offset':1}, </v>
       </c>
-      <c r="K2" s="2" t="str">
-        <f t="shared" ref="K2:K33" si="2">IF(B1=B2,CONCATENATE(K1,J2),J2)</f>
+      <c r="M2" s="2" t="str">
+        <f t="shared" ref="M2:M33" si="2">IF(D1=D2,CONCATENATE(M1,L2),L2)</f>
         <v xml:space="preserve">{ 'reg': 11, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'CONTABILIDAD GERENCIAL', 'offset':1}, </v>
       </c>
-      <c r="L2" s="11" t="str">
-        <f t="shared" ref="L2:L33" si="3">IF(B2=B3,"","{'"&amp;B$1&amp;"': "&amp;B2&amp;", 'editing': false, 'tipo': '"&amp;A2&amp;"', 'data': "&amp;"["&amp;K2&amp;"],  },")</f>
-        <v>{'row': 1, 'editing': false, 'tipo': 'titulo0', 'data': [{ 'reg': 11, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'CONTABILIDAD GERENCIAL', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N2" s="11" t="str">
+        <f>IF(D2=D3,"","{'"&amp;D$1&amp;"': "&amp;D2&amp;", '"&amp;B$1&amp;"': '"&amp;B2&amp;"',  'editing': false, 'tipo': '"&amp;A2&amp;"', 'data': "&amp;"["&amp;M2&amp;"],  },")</f>
+        <v>{'row': 0, 'week': '',  'editing': false, 'tipo': 'titulo0', 'data': [{ 'reg': 11, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'CONTABILIDAD GERENCIAL', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <f>+D3*1000</f>
+        <v>1000</v>
       </c>
       <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
         <v>8</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G3" s="7">
+      <c r="I3" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H3" s="14">
+      <c r="J3" s="14">
         <v>21</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="K3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="15" t="str">
+      <c r="L3" s="15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 21, 'subtipo': 'generales', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'I. DATOS GENERALES', 'offset':1}, </v>
       </c>
-      <c r="K3" s="2" t="str">
+      <c r="M3" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 21, 'subtipo': 'generales', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'I. DATOS GENERALES', 'offset':1}, </v>
       </c>
-      <c r="L3" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'row': 2, 'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 21, 'subtipo': 'generales', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'I. DATOS GENERALES', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N3" s="11" t="str">
+        <f t="shared" ref="N3:N65" si="3">IF(D3=D4,"","{'"&amp;D$1&amp;"': "&amp;D3&amp;", '"&amp;B$1&amp;"': '"&amp;B3&amp;"',  'editing': false, 'tipo': '"&amp;A3&amp;"', 'data': "&amp;"["&amp;M3&amp;"],  },")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="2">
-        <v>3</v>
-      </c>
       <c r="C4" s="2">
-        <v>2</v>
+        <f>1000+D4*100</f>
+        <v>1100</v>
       </c>
       <c r="D4" s="2">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G4" s="7">
+      <c r="I4" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H4" s="14">
+        <v>1</v>
+      </c>
+      <c r="J4" s="14">
         <v>35</v>
       </c>
-      <c r="J4" s="15" t="str">
+      <c r="L4" s="15" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'reg': 35, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Código:', 'offset':2}, </v>
-      </c>
-      <c r="K4" s="2" t="str">
+        <v xml:space="preserve">{ 'reg': 35, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Código:', 'offset':1}, </v>
+      </c>
+      <c r="M4" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 35, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Código:', 'offset':2}, </v>
-      </c>
-      <c r="L4" s="11" t="str">
+        <v xml:space="preserve">{ 'reg': 21, 'subtipo': 'generales', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'I. DATOS GENERALES', 'offset':1}, { 'reg': 35, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Código:', 'offset':1}, </v>
+      </c>
+      <c r="N4" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="2">
+      <c r="C5" s="2">
+        <f t="shared" ref="C5:C15" si="4">1000+D5*100</f>
+        <v>1100</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
         <v>3</v>
       </c>
-      <c r="C5" s="2">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="H5" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="G5" s="7">
+      <c r="I5" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H5" s="14">
+      <c r="J5" s="14">
         <v>85</v>
       </c>
-      <c r="J5" s="15" t="str">
+      <c r="L5" s="15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 85, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '100048', 'offset':1}, </v>
       </c>
-      <c r="K5" s="2" t="str">
+      <c r="M5" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 35, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Código:', 'offset':2}, { 'reg': 85, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '100048', 'offset':1}, </v>
-      </c>
-      <c r="L5" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'row': 3, 'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 35, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Código:', 'offset':2}, { 'reg': 85, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '100048', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">{ 'reg': 21, 'subtipo': 'generales', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'I. DATOS GENERALES', 'offset':1}, { 'reg': 35, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Código:', 'offset':1}, { 'reg': 85, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '100048', 'offset':1}, </v>
+      </c>
+      <c r="N5" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'row': 1, 'week': '',  'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 21, 'subtipo': 'generales', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'I. DATOS GENERALES', 'offset':1}, { 'reg': 35, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Código:', 'offset':1}, { 'reg': 85, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '100048', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="2">
-        <v>4</v>
-      </c>
       <c r="C6" s="2">
-        <v>2</v>
-      </c>
-      <c r="D6" s="8">
-        <v>2</v>
-      </c>
-      <c r="E6" s="2" t="s">
+        <f t="shared" si="4"/>
+        <v>1200</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="8">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G6" s="7">
+      <c r="I6" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H6" s="14">
+      <c r="J6" s="14">
         <v>130</v>
       </c>
-      <c r="J6" s="15" t="str">
+      <c r="L6" s="15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 130, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Pre‐ Requisito :', 'offset':2}, </v>
       </c>
-      <c r="K6" s="2" t="str">
+      <c r="M6" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 130, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Pre‐ Requisito :', 'offset':2}, </v>
       </c>
-      <c r="L6" s="11" t="str">
+      <c r="N6" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="2">
-        <v>4</v>
-      </c>
       <c r="C7" s="2">
+        <f t="shared" si="4"/>
+        <v>1200</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2">
         <v>3</v>
       </c>
-      <c r="D7" s="2">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="H7" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="G7" s="7">
+      <c r="I7" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H7" s="14">
+      <c r="J7" s="14">
         <v>7</v>
       </c>
-      <c r="J7" s="15" t="str">
+      <c r="L7" s="15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 7, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'Contabilidad General', 'offset':1}, </v>
       </c>
-      <c r="K7" s="2" t="str">
+      <c r="M7" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 130, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Pre‐ Requisito :', 'offset':2}, { 'reg': 7, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'Contabilidad General', 'offset':1}, </v>
       </c>
-      <c r="L7" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'row': 4, 'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 130, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Pre‐ Requisito :', 'offset':2}, { 'reg': 7, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'Contabilidad General', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N7" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'row': 2, 'week': '',  'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 130, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Pre‐ Requisito :', 'offset':2}, { 'reg': 7, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'Contabilidad General', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="2">
-        <v>5</v>
-      </c>
       <c r="C8" s="2">
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>1300</v>
       </c>
       <c r="D8" s="2">
-        <v>2</v>
-      </c>
-      <c r="E8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="H8" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="G8" s="7">
+      <c r="I8" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H8" s="14">
+      <c r="J8" s="14">
         <v>109</v>
       </c>
-      <c r="J8" s="15" t="str">
+      <c r="L8" s="15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 109, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Créditos : ', 'offset':2}, </v>
       </c>
-      <c r="K8" s="2" t="str">
+      <c r="M8" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 109, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Créditos : ', 'offset':2}, </v>
       </c>
-      <c r="L8" s="11" t="str">
+      <c r="N8" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="2">
-        <v>5</v>
-      </c>
       <c r="C9" s="2">
+        <f t="shared" si="4"/>
+        <v>1300</v>
+      </c>
+      <c r="D9" s="2">
         <v>3</v>
       </c>
-      <c r="D9" s="2">
-        <v>2</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="2">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="H9" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="G9" s="7">
+      <c r="I9" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H9" s="14">
+      <c r="J9" s="14">
         <v>13</v>
       </c>
-      <c r="J9" s="15" t="str">
+      <c r="L9" s="15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 13, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '03', 'offset':1}, </v>
       </c>
-      <c r="K9" s="2" t="str">
+      <c r="M9" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 109, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Créditos : ', 'offset':2}, { 'reg': 13, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '03', 'offset':1}, </v>
       </c>
-      <c r="L9" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'row': 5, 'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 109, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Créditos : ', 'offset':2}, { 'reg': 13, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '03', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N9" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'row': 3, 'week': '',  'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 109, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Créditos : ', 'offset':2}, { 'reg': 13, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '03', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="2">
-        <v>6</v>
-      </c>
       <c r="C10" s="2">
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>1400</v>
       </c>
       <c r="D10" s="2">
-        <v>2</v>
-      </c>
-      <c r="E10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G10" s="7">
+      <c r="I10" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H10" s="14">
+      <c r="J10" s="14">
         <v>128</v>
       </c>
-      <c r="J10" s="15" t="str">
+      <c r="L10" s="15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 128, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Horas :', 'offset':2}, </v>
       </c>
-      <c r="K10" s="2" t="str">
+      <c r="M10" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 128, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Horas :', 'offset':2}, </v>
       </c>
-      <c r="L10" s="11" t="str">
+      <c r="N10" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="2">
-        <v>6</v>
-      </c>
       <c r="C11" s="2">
+        <f t="shared" si="4"/>
+        <v>1400</v>
+      </c>
+      <c r="D11" s="2">
+        <v>4</v>
+      </c>
+      <c r="E11" s="2">
         <v>3</v>
       </c>
-      <c r="D11" s="2">
-        <v>2</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2">
+        <v>2</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="G11" s="7">
+      <c r="I11" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H11" s="14">
+      <c r="J11" s="14">
         <v>91</v>
       </c>
-      <c r="J11" s="15" t="str">
+      <c r="L11" s="15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 91, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '04 horas', 'offset':1}, </v>
       </c>
-      <c r="K11" s="2" t="str">
+      <c r="M11" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 128, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Horas :', 'offset':2}, { 'reg': 91, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '04 horas', 'offset':1}, </v>
       </c>
-      <c r="L11" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'row': 6, 'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 128, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Horas :', 'offset':2}, { 'reg': 91, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '04 horas', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N11" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'row': 4, 'week': '',  'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 128, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Horas :', 'offset':2}, { 'reg': 91, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '04 horas', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="2">
-        <v>7</v>
-      </c>
       <c r="C12" s="2">
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>1500</v>
       </c>
       <c r="D12" s="2">
-        <v>2</v>
-      </c>
-      <c r="E12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="H12" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="G12" s="7">
+      <c r="I12" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H12" s="14">
+      <c r="J12" s="14">
         <v>24</v>
       </c>
-      <c r="J12" s="15" t="str">
+      <c r="L12" s="15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 24, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Semestre académico : ', 'offset':2}, </v>
       </c>
-      <c r="K12" s="2" t="str">
+      <c r="M12" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 24, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Semestre académico : ', 'offset':2}, </v>
       </c>
-      <c r="L12" s="11" t="str">
+      <c r="N12" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="2">
-        <v>7</v>
-      </c>
       <c r="C13" s="2">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="D13" s="2">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2">
         <v>3</v>
       </c>
-      <c r="D13" s="2">
-        <v>2</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2">
+        <v>2</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G13" s="7">
+      <c r="I13" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H13" s="14">
+      <c r="J13" s="14">
         <v>86</v>
       </c>
-      <c r="J13" s="15" t="str">
+      <c r="L13" s="15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 86, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '2017‐ I', 'offset':1}, </v>
       </c>
-      <c r="K13" s="2" t="str">
+      <c r="M13" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 24, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Semestre académico : ', 'offset':2}, { 'reg': 86, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '2017‐ I', 'offset':1}, </v>
       </c>
-      <c r="L13" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'row': 7, 'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 24, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Semestre académico : ', 'offset':2}, { 'reg': 86, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '2017‐ I', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N13" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'row': 5, 'week': '',  'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 24, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Semestre académico : ', 'offset':2}, { 'reg': 86, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '2017‐ I', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2">
-        <v>8</v>
-      </c>
       <c r="C14" s="2">
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>1600</v>
       </c>
       <c r="D14" s="2">
-        <v>2</v>
-      </c>
-      <c r="E14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="G14" s="7">
+      <c r="I14" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H14" s="14">
+      <c r="J14" s="14">
         <v>81</v>
       </c>
-      <c r="J14" s="15" t="str">
+      <c r="L14" s="15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Ciclo :', 'offset':2}, </v>
       </c>
-      <c r="K14" s="2" t="str">
+      <c r="M14" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Ciclo :', 'offset':2}, </v>
       </c>
-      <c r="L14" s="11" t="str">
+      <c r="N14" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="2">
-        <v>8</v>
-      </c>
       <c r="C15" s="2">
+        <f t="shared" si="4"/>
+        <v>1600</v>
+      </c>
+      <c r="D15" s="2">
+        <v>6</v>
+      </c>
+      <c r="E15" s="2">
         <v>3</v>
       </c>
-      <c r="D15" s="2">
-        <v>2</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2">
+        <v>2</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="H15" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="G15" s="7">
+      <c r="I15" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H15" s="14">
+      <c r="J15" s="14">
         <v>103</v>
       </c>
-      <c r="J15" s="15" t="str">
+      <c r="L15" s="15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 103, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'III', 'offset':1}, </v>
       </c>
-      <c r="K15" s="2" t="str">
+      <c r="M15" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Ciclo :', 'offset':2}, { 'reg': 103, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'III', 'offset':1}, </v>
       </c>
-      <c r="L15" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'row': 8, 'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Ciclo :', 'offset':2}, { 'reg': 103, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'III', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N15" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'row': 6, 'week': '',  'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Ciclo :', 'offset':2}, { 'reg': 103, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'III', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B16" s="2">
-        <v>9</v>
-      </c>
       <c r="C16" s="2">
-        <v>1</v>
+        <f>+D16*1000</f>
+        <v>2000</v>
       </c>
       <c r="D16" s="2">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
         <v>8</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G16" s="7">
+      <c r="I16" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H16" s="14">
+      <c r="J16" s="14">
         <v>45</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="K16" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="J16" s="15" t="str">
+      <c r="L16" s="15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 45, 'subtipo': 'sumillas', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'II. SUMILLA', 'offset':1}, </v>
       </c>
-      <c r="K16" s="2" t="str">
+      <c r="M16" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 45, 'subtipo': 'sumillas', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'II. SUMILLA', 'offset':1}, </v>
       </c>
-      <c r="L16" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'row': 9, 'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 45, 'subtipo': 'sumillas', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'II. SUMILLA', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N16" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'row': 2, 'week': '',  'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 45, 'subtipo': 'sumillas', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'II. SUMILLA', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B17" s="2">
-        <v>10</v>
-      </c>
       <c r="C17" s="2">
-        <v>1</v>
+        <f>2000+D17*100</f>
+        <v>2100</v>
       </c>
       <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
         <v>8</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="7">
+      <c r="I17" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H17" s="14">
+      <c r="J17" s="14">
         <v>36</v>
       </c>
-      <c r="J17" s="15" t="str">
+      <c r="L17" s="15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 36, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'justify', 'texto': 'El curso tiene como propósito integrar las teorías, las técnicas y las herramientas adquiridas en las materias de contabilidad general y administración que le permita llegar al alumno a desarrollar las habilidades de análisis, integración de la información para la construcción de propuestas y soluciones que llevan al logro de los objetivos de la organización. Se pondrá énfasis en el análisis financiero de los estados financieros y su relación con los costos empresariales.', 'offset':1}, </v>
       </c>
-      <c r="K17" s="2" t="str">
+      <c r="M17" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 36, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'justify', 'texto': 'El curso tiene como propósito integrar las teorías, las técnicas y las herramientas adquiridas en las materias de contabilidad general y administración que le permita llegar al alumno a desarrollar las habilidades de análisis, integración de la información para la construcción de propuestas y soluciones que llevan al logro de los objetivos de la organización. Se pondrá énfasis en el análisis financiero de los estados financieros y su relación con los costos empresariales.', 'offset':1}, </v>
       </c>
-      <c r="L17" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'row': 10, 'editing': false, 'tipo': 'sumillas', 'data': [{ 'reg': 36, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'justify', 'texto': 'El curso tiene como propósito integrar las teorías, las técnicas y las herramientas adquiridas en las materias de contabilidad general y administración que le permita llegar al alumno a desarrollar las habilidades de análisis, integración de la información para la construcción de propuestas y soluciones que llevan al logro de los objetivos de la organización. Se pondrá énfasis en el análisis financiero de los estados financieros y su relación con los costos empresariales.', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N17" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'row': 1, 'week': '',  'editing': false, 'tipo': 'sumillas', 'data': [{ 'reg': 36, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'justify', 'texto': 'El curso tiene como propósito integrar las teorías, las técnicas y las herramientas adquiridas en las materias de contabilidad general y administración que le permita llegar al alumno a desarrollar las habilidades de análisis, integración de la información para la construcción de propuestas y soluciones que llevan al logro de los objetivos de la organización. Se pondrá énfasis en el análisis financiero de los estados financieros y su relación con los costos empresariales.', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B18" s="2">
-        <v>11</v>
-      </c>
       <c r="C18" s="2">
-        <v>1</v>
+        <f>+D18*1000</f>
+        <v>3000</v>
       </c>
       <c r="D18" s="2">
+        <v>3</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
         <v>8</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="H18" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="G18" s="7">
+      <c r="I18" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H18" s="14">
+      <c r="J18" s="14">
         <v>82</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="K18" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="J18" s="15" t="str">
+      <c r="L18" s="15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 82, 'subtipo': 'competencias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'III. SISTEMA DE COMPETENCIAS', 'offset':1}, </v>
       </c>
-      <c r="K18" s="2" t="str">
+      <c r="M18" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 82, 'subtipo': 'competencias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'III. SISTEMA DE COMPETENCIAS', 'offset':1}, </v>
       </c>
-      <c r="L18" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'row': 11, 'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 82, 'subtipo': 'competencias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'III. SISTEMA DE COMPETENCIAS', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N18" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'row': 3, 'week': '',  'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 82, 'subtipo': 'competencias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'III. SISTEMA DE COMPETENCIAS', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B19" s="2">
-        <v>12</v>
-      </c>
       <c r="C19" s="2">
-        <v>1</v>
+        <f>3000+D19*100</f>
+        <v>3100</v>
       </c>
       <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
         <v>8</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="H19" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="7">
+      <c r="I19" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H19" s="14">
+      <c r="J19" s="14">
         <v>37</v>
       </c>
-      <c r="J19" s="15" t="str">
+      <c r="L19" s="15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 37, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS GENERALES', 'offset':1}, </v>
       </c>
-      <c r="K19" s="2" t="str">
+      <c r="M19" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 37, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS GENERALES', 'offset':1}, </v>
       </c>
-      <c r="L19" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'row': 12, 'editing': false, 'tipo': 'titulo2', 'data': [{ 'reg': 37, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS GENERALES', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N19" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B20" s="2">
-        <f>+B19+1</f>
-        <v>13</v>
-      </c>
       <c r="C20" s="2">
-        <v>2</v>
+        <f>3100+D20</f>
+        <v>3101</v>
       </c>
       <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2</v>
+      </c>
+      <c r="F20" s="2">
         <v>7</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="7">
+      <c r="I20" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H20" s="14">
+        <v>1</v>
+      </c>
+      <c r="J20" s="14">
         <v>10</v>
       </c>
-      <c r="J20" s="15" t="str">
+      <c r="L20" s="15" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'reg': 10, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Comprende el papel de la información contable en los Negocios. Relación entre la contabilidad y la Administración y la toma de decisiones.', 'offset':2}, </v>
-      </c>
-      <c r="K20" s="2" t="str">
+        <v xml:space="preserve">{ 'reg': 10, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Comprende el papel de la información contable en los Negocios. Relación entre la contabilidad y la Administración y la toma de decisiones.', 'offset':1}, </v>
+      </c>
+      <c r="M20" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 10, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Comprende el papel de la información contable en los Negocios. Relación entre la contabilidad y la Administración y la toma de decisiones.', 'offset':2}, </v>
-      </c>
-      <c r="L20" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'row': 13, 'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 10, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Comprende el papel de la información contable en los Negocios. Relación entre la contabilidad y la Administración y la toma de decisiones.', 'offset':2}, ],  },</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">{ 'reg': 37, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS GENERALES', 'offset':1}, { 'reg': 10, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Comprende el papel de la información contable en los Negocios. Relación entre la contabilidad y la Administración y la toma de decisiones.', 'offset':1}, </v>
+      </c>
+      <c r="N20" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'row': 1, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 37, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS GENERALES', 'offset':1}, { 'reg': 10, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Comprende el papel de la información contable en los Negocios. Relación entre la contabilidad y la Administración y la toma de decisiones.', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B21" s="2">
-        <f t="shared" ref="B21:B33" si="4">+B20+1</f>
-        <v>14</v>
-      </c>
       <c r="C21" s="2">
-        <v>2</v>
+        <f t="shared" ref="C21:C30" si="5">3100+D21</f>
+        <v>3102</v>
       </c>
       <c r="D21" s="2">
+        <f>+D20+1</f>
+        <v>2</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2">
         <v>7</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="H21" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G21" s="7">
+      <c r="I21" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H21" s="14">
+      <c r="J21" s="14">
         <v>13</v>
       </c>
-      <c r="J21" s="15" t="str">
+      <c r="L21" s="15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 13, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce y ejecuta los Estados Financieros de una empresa comercial, industrial y de servicios.', 'offset':2}, </v>
       </c>
-      <c r="K21" s="2" t="str">
+      <c r="M21" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 13, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce y ejecuta los Estados Financieros de una empresa comercial, industrial y de servicios.', 'offset':2}, </v>
       </c>
-      <c r="L21" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'row': 14, 'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 13, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce y ejecuta los Estados Financieros de una empresa comercial, industrial y de servicios.', 'offset':2}, ],  },</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N21" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'row': 2, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 13, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce y ejecuta los Estados Financieros de una empresa comercial, industrial y de servicios.', 'offset':2}, ],  },</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B22" s="2">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
       <c r="C22" s="2">
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>3103</v>
       </c>
       <c r="D22" s="2">
+        <f t="shared" ref="D22:D24" si="6">+D21+1</f>
+        <v>3</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2</v>
+      </c>
+      <c r="F22" s="2">
         <v>7</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="H22" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G22" s="7">
+      <c r="I22" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H22" s="14">
+      <c r="J22" s="14">
         <v>81</v>
       </c>
-      <c r="J22" s="15" t="str">
+      <c r="L22" s="15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Toma de decisiones, en base a un análisis financiero, dentro de las funciones de operación, inversión y financiamiento y análisis de los costos.', 'offset':2}, </v>
       </c>
-      <c r="K22" s="2" t="str">
+      <c r="M22" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Toma de decisiones, en base a un análisis financiero, dentro de las funciones de operación, inversión y financiamiento y análisis de los costos.', 'offset':2}, </v>
       </c>
-      <c r="L22" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'row': 15, 'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Toma de decisiones, en base a un análisis financiero, dentro de las funciones de operación, inversión y financiamiento y análisis de los costos.', 'offset':2}, ],  },</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N22" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'row': 3, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Toma de decisiones, en base a un análisis financiero, dentro de las funciones de operación, inversión y financiamiento y análisis de los costos.', 'offset':2}, ],  },</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B23" s="2">
-        <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
       <c r="C23" s="2">
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>3104</v>
       </c>
       <c r="D23" s="2">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2</v>
+      </c>
+      <c r="F23" s="2">
         <v>7</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="H23" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G23" s="7">
+      <c r="I23" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H23" s="14">
+      <c r="J23" s="14">
         <v>41</v>
       </c>
-      <c r="J23" s="15" t="str">
+      <c r="L23" s="15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 41, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Planifica la gestión de la empresa a futuro.', 'offset':2}, </v>
       </c>
-      <c r="K23" s="2" t="str">
+      <c r="M23" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 41, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Planifica la gestión de la empresa a futuro.', 'offset':2}, </v>
       </c>
-      <c r="L23" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'row': 16, 'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 41, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Planifica la gestión de la empresa a futuro.', 'offset':2}, ],  },</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N23" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'row': 4, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 41, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Planifica la gestión de la empresa a futuro.', 'offset':2}, ],  },</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B24" s="2">
-        <f t="shared" si="4"/>
-        <v>17</v>
-      </c>
       <c r="C24" s="2">
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>3105</v>
       </c>
       <c r="D24" s="2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2</v>
+      </c>
+      <c r="F24" s="2">
         <v>7</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="H24" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G24" s="7">
+      <c r="I24" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H24" s="14">
+      <c r="J24" s="14">
         <v>77</v>
       </c>
-      <c r="J24" s="15" t="str">
+      <c r="L24" s="15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 77, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Capacidad de trabajo en equipo.', 'offset':2}, </v>
       </c>
-      <c r="K24" s="2" t="str">
+      <c r="M24" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 77, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Capacidad de trabajo en equipo.', 'offset':2}, </v>
       </c>
-      <c r="L24" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'row': 17, 'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 77, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Capacidad de trabajo en equipo.', 'offset':2}, ],  },</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N24" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'row': 5, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 77, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Capacidad de trabajo en equipo.', 'offset':2}, ],  },</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B25" s="2">
-        <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
       <c r="C25" s="2">
-        <v>1</v>
+        <f>3000+D25*100</f>
+        <v>3200</v>
       </c>
       <c r="D25" s="2">
+        <v>2</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2">
         <v>8</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="H25" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G25" s="7">
+      <c r="I25" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H25" s="14">
+      <c r="J25" s="14">
         <v>9</v>
       </c>
-      <c r="J25" s="15" t="str">
+      <c r="L25" s="15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 9, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS ESPECÍFICAS', 'offset':1}, </v>
       </c>
-      <c r="K25" s="2" t="str">
+      <c r="M25" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 9, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS ESPECÍFICAS', 'offset':1}, </v>
       </c>
-      <c r="L25" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'row': 18, 'editing': false, 'tipo': 'titulo2', 'data': [{ 'reg': 9, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS ESPECÍFICAS', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N25" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'row': 2, 'week': '',  'editing': false, 'tipo': 'titulo2', 'data': [{ 'reg': 9, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS ESPECÍFICAS', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B26" s="2">
-        <f t="shared" si="4"/>
-        <v>19</v>
-      </c>
       <c r="C26" s="2">
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>3101</v>
       </c>
       <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2</v>
+      </c>
+      <c r="F26" s="2">
         <v>7</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="H26" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G26" s="7">
+      <c r="I26" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H26" s="14">
+      <c r="J26" s="14">
         <v>84</v>
       </c>
-      <c r="J26" s="15" t="str">
+      <c r="L26" s="15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 84, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce, Analiza y describe las diferentes empresas que se desarrollan en nuestro país y la importancia que tiene en ellas la contabilidad gerencia, desde la óptica de los estados financieros: Estado de Situación Financiera y Estado de Resultados.', 'offset':2}, </v>
       </c>
-      <c r="K26" s="2" t="str">
+      <c r="M26" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 84, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce, Analiza y describe las diferentes empresas que se desarrollan en nuestro país y la importancia que tiene en ellas la contabilidad gerencia, desde la óptica de los estados financieros: Estado de Situación Financiera y Estado de Resultados.', 'offset':2}, </v>
       </c>
-      <c r="L26" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'row': 19, 'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 84, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce, Analiza y describe las diferentes empresas que se desarrollan en nuestro país y la importancia que tiene en ellas la contabilidad gerencia, desde la óptica de los estados financieros: Estado de Situación Financiera y Estado de Resultados.', 'offset':2}, ],  },</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N26" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'row': 1, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 84, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce, Analiza y describe las diferentes empresas que se desarrollan en nuestro país y la importancia que tiene en ellas la contabilidad gerencia, desde la óptica de los estados financieros: Estado de Situación Financiera y Estado de Resultados.', 'offset':2}, ],  },</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B27" s="2">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
       <c r="C27" s="2">
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>3102</v>
       </c>
       <c r="D27" s="2">
+        <f>+D26+1</f>
+        <v>2</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2</v>
+      </c>
+      <c r="F27" s="2">
         <v>7</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="H27" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="G27" s="7">
+      <c r="I27" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H27" s="14">
+      <c r="J27" s="14">
         <v>32</v>
       </c>
-      <c r="J27" s="15" t="str">
+      <c r="L27" s="15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 32, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Analiza y diagnostica los Estados financieros básicos de diferentes empresas, mediante el análisis vertical y horizontal así como los ratios financieros. ', 'offset':2}, </v>
       </c>
-      <c r="K27" s="2" t="str">
+      <c r="M27" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 32, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Analiza y diagnostica los Estados financieros básicos de diferentes empresas, mediante el análisis vertical y horizontal así como los ratios financieros. ', 'offset':2}, </v>
       </c>
-      <c r="L27" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'row': 20, 'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 32, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Analiza y diagnostica los Estados financieros básicos de diferentes empresas, mediante el análisis vertical y horizontal así como los ratios financieros. ', 'offset':2}, ],  },</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N27" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'row': 2, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 32, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Analiza y diagnostica los Estados financieros básicos de diferentes empresas, mediante el análisis vertical y horizontal así como los ratios financieros. ', 'offset':2}, ],  },</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B28" s="2">
-        <f t="shared" si="4"/>
-        <v>21</v>
-      </c>
       <c r="C28" s="2">
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>3103</v>
       </c>
       <c r="D28" s="2">
+        <f t="shared" ref="D28:D30" si="7">+D27+1</f>
+        <v>3</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2</v>
+      </c>
+      <c r="F28" s="2">
         <v>7</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="H28" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G28" s="7">
+      <c r="I28" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H28" s="14">
+      <c r="J28" s="14">
         <v>111</v>
       </c>
-      <c r="J28" s="15" t="str">
+      <c r="L28" s="15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 111, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Desarrolla un plan financiero para una empresa: Presupuesto de ventas, Presupuesto de cobranzas, presupuesto de producción, presupuesto de compras, presupuesto de pagos, presupuesto de pagos, presupuesto de gastos, entre otros.', 'offset':2}, </v>
       </c>
-      <c r="K28" s="2" t="str">
+      <c r="M28" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 111, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Desarrolla un plan financiero para una empresa: Presupuesto de ventas, Presupuesto de cobranzas, presupuesto de producción, presupuesto de compras, presupuesto de pagos, presupuesto de pagos, presupuesto de gastos, entre otros.', 'offset':2}, </v>
       </c>
-      <c r="L28" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'row': 21, 'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 111, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Desarrolla un plan financiero para una empresa: Presupuesto de ventas, Presupuesto de cobranzas, presupuesto de producción, presupuesto de compras, presupuesto de pagos, presupuesto de pagos, presupuesto de gastos, entre otros.', 'offset':2}, ],  },</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N28" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'row': 3, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 111, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Desarrolla un plan financiero para una empresa: Presupuesto de ventas, Presupuesto de cobranzas, presupuesto de producción, presupuesto de compras, presupuesto de pagos, presupuesto de pagos, presupuesto de gastos, entre otros.', 'offset':2}, ],  },</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B29" s="2">
-        <f t="shared" si="4"/>
-        <v>22</v>
-      </c>
       <c r="C29" s="2">
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>3104</v>
       </c>
       <c r="D29" s="2">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="E29" s="2">
+        <v>2</v>
+      </c>
+      <c r="F29" s="2">
         <v>7</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="H29" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G29" s="7">
+      <c r="I29" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H29" s="14">
+      <c r="J29" s="14">
         <v>28</v>
       </c>
-      <c r="J29" s="15" t="str">
+      <c r="L29" s="15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 28, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Estudia la importancia de la estructura de costos de una empresa y su implicancia en la planificación financiera.', 'offset':2}, </v>
       </c>
-      <c r="K29" s="2" t="str">
+      <c r="M29" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 28, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Estudia la importancia de la estructura de costos de una empresa y su implicancia en la planificación financiera.', 'offset':2}, </v>
       </c>
-      <c r="L29" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'row': 22, 'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 28, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Estudia la importancia de la estructura de costos de una empresa y su implicancia en la planificación financiera.', 'offset':2}, ],  },</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N29" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'row': 4, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 28, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Estudia la importancia de la estructura de costos de una empresa y su implicancia en la planificación financiera.', 'offset':2}, ],  },</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B30" s="2">
-        <f t="shared" si="4"/>
-        <v>23</v>
-      </c>
       <c r="C30" s="2">
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>3105</v>
       </c>
       <c r="D30" s="2">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2</v>
+      </c>
+      <c r="F30" s="2">
         <v>7</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="H30" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G30" s="7">
+      <c r="I30" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H30" s="14">
+      <c r="J30" s="14">
         <v>27</v>
       </c>
-      <c r="J30" s="15" t="str">
+      <c r="L30" s="15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 27, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Elabora estados financieros proyectados, para diagnosticar el futuro de la empresa.', 'offset':2}, </v>
       </c>
-      <c r="K30" s="2" t="str">
+      <c r="M30" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 27, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Elabora estados financieros proyectados, para diagnosticar el futuro de la empresa.', 'offset':2}, </v>
       </c>
-      <c r="L30" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'row': 23, 'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 27, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Elabora estados financieros proyectados, para diagnosticar el futuro de la empresa.', 'offset':2}, ],  },</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N30" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'row': 5, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 27, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Elabora estados financieros proyectados, para diagnosticar el futuro de la empresa.', 'offset':2}, ],  },</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B31" s="2">
-        <f t="shared" si="4"/>
-        <v>24</v>
-      </c>
       <c r="C31" s="2">
-        <v>1</v>
+        <f>+D31*1000</f>
+        <v>4000</v>
       </c>
       <c r="D31" s="2">
+        <v>4</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2">
         <v>8</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="H31" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="G31" s="7">
+      <c r="I31" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H31" s="14">
+      <c r="J31" s="14">
         <v>126</v>
       </c>
-      <c r="I31" s="12" t="s">
+      <c r="K31" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="J31" s="15" t="str">
+      <c r="L31" s="15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 126, 'subtipo': 'contenidos', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'IV. PROGRAMACIÓN DE CONTENIDOS', 'offset':1}, </v>
       </c>
-      <c r="K31" s="2" t="str">
+      <c r="M31" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 126, 'subtipo': 'contenidos', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'IV. PROGRAMACIÓN DE CONTENIDOS', 'offset':1}, </v>
       </c>
-      <c r="L31" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'row': 24, 'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 126, 'subtipo': 'contenidos', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'IV. PROGRAMACIÓN DE CONTENIDOS', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N31" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'row': 4, 'week': '',  'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 126, 'subtipo': 'contenidos', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'IV. PROGRAMACIÓN DE CONTENIDOS', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>158</v>
       </c>
       <c r="B32" s="2">
-        <f t="shared" si="4"/>
-        <v>25</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C32" s="2">
-        <v>1</v>
+        <f>4000+D32*100</f>
+        <v>4100</v>
       </c>
       <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2">
         <v>8</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="H32" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="G32" s="7">
+      <c r="I32" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H32" s="14">
+      <c r="J32" s="14">
         <v>22</v>
       </c>
-      <c r="J32" s="15" t="str">
+      <c r="L32" s="15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 22, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD I: LA CONTABILIDAD GERENCIAL.', 'offset':1}, </v>
       </c>
-      <c r="K32" s="2" t="str">
+      <c r="M32" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 22, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD I: LA CONTABILIDAD GERENCIAL.', 'offset':1}, </v>
       </c>
-      <c r="L32" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'row': 25, 'editing': false, 'tipo': 'unidades', 'data': [{ 'reg': 22, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD I: LA CONTABILIDAD GERENCIAL.', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N32" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'row': 1, 'week': '1.1',  'editing': false, 'tipo': 'unidades', 'data': [{ 'reg': 22, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD I: LA CONTABILIDAD GERENCIAL.', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>157</v>
       </c>
       <c r="B33" s="2">
-        <f t="shared" si="4"/>
-        <v>26</v>
-      </c>
-      <c r="C33" s="2">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="D33" s="2">
-        <v>1</v>
-      </c>
-      <c r="E33" s="2" t="s">
+        <f t="shared" ref="D21:D33" si="8">+D32+1</f>
+        <v>2</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="H33" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G33" s="7">
+      <c r="I33" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H33" s="14">
+      <c r="J33" s="14">
         <v>35</v>
       </c>
-      <c r="J33" s="15" t="str">
+      <c r="L33" s="15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, </v>
       </c>
-      <c r="K33" s="2" t="str">
+      <c r="M33" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, </v>
       </c>
-      <c r="L33" s="11" t="str">
+      <c r="N33" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>157</v>
       </c>
       <c r="B34" s="2">
-        <f>+B33</f>
-        <v>26</v>
-      </c>
-      <c r="C34" s="2">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="D34" s="2">
+        <f>+D33</f>
+        <v>2</v>
+      </c>
+      <c r="E34" s="2">
+        <v>2</v>
+      </c>
+      <c r="F34" s="2">
         <v>3</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="H34" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G34" s="7">
-        <f t="shared" ref="G34:G65" si="5">IF(B33=B34,1,C34)</f>
-        <v>1</v>
-      </c>
-      <c r="H34" s="14">
+      <c r="I34" s="7">
+        <f t="shared" ref="I34:I65" si="9">IF(D33=D34,1,E34)</f>
+        <v>1</v>
+      </c>
+      <c r="J34" s="14">
         <v>48</v>
       </c>
-      <c r="J34" s="15" t="str">
-        <f t="shared" ref="J34:J65" si="6">+"{ '"&amp;H$1&amp;"': "&amp;H34&amp;", '"&amp;I$1&amp;"': '"&amp;I34&amp;"', '"&amp;C$1&amp;"': "&amp;C34&amp;", '"&amp;D$1&amp;"': "&amp;D34&amp;", '"&amp;E$1&amp;"': '"&amp;E34&amp;"', '"&amp;F$1&amp;"': '"&amp;F34&amp;"', '"&amp;G$1&amp;"':"&amp;G34&amp;"}, "</f>
+      <c r="L34" s="15" t="str">
+        <f t="shared" ref="L34:L65" si="10">+"{ '"&amp;J$1&amp;"': "&amp;J34&amp;", '"&amp;K$1&amp;"': '"&amp;K34&amp;"', '"&amp;E$1&amp;"': "&amp;E34&amp;", '"&amp;F$1&amp;"': "&amp;F34&amp;", '"&amp;G$1&amp;"': '"&amp;G34&amp;"', '"&amp;H$1&amp;"': '"&amp;H34&amp;"', '"&amp;I$1&amp;"':"&amp;I34&amp;"}, "</f>
         <v xml:space="preserve">{ 'reg': 48, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, </v>
       </c>
-      <c r="K34" s="2" t="str">
-        <f t="shared" ref="K34:K65" si="7">IF(B33=B34,CONCATENATE(K33,J34),J34)</f>
+      <c r="M34" s="2" t="str">
+        <f t="shared" ref="M34:M65" si="11">IF(D33=D34,CONCATENATE(M33,L34),L34)</f>
         <v xml:space="preserve">{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 48, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, </v>
       </c>
-      <c r="L34" s="11" t="str">
-        <f t="shared" ref="L34:L65" si="8">IF(B34=B35,"","{'"&amp;B$1&amp;"': "&amp;B34&amp;", 'editing': false, 'tipo': '"&amp;A34&amp;"', 'data': "&amp;"["&amp;K34&amp;"],  },")</f>
+      <c r="N34" s="11" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>157</v>
       </c>
       <c r="B35" s="2">
-        <f>+B34</f>
-        <v>26</v>
-      </c>
-      <c r="C35" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="D35" s="2">
+        <f>+D34</f>
+        <v>2</v>
+      </c>
+      <c r="E35" s="2">
         <v>4</v>
       </c>
-      <c r="D35" s="2">
-        <v>2</v>
-      </c>
-      <c r="E35" s="2" t="s">
+      <c r="F35" s="2">
+        <v>2</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="H35" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G35" s="7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H35" s="14">
+      <c r="I35" s="7">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J35" s="14">
         <v>14</v>
       </c>
-      <c r="J35" s="15" t="str">
-        <f t="shared" si="6"/>
+      <c r="L35" s="15" t="str">
+        <f t="shared" si="10"/>
         <v xml:space="preserve">{ 'reg': 14, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, </v>
       </c>
-      <c r="K35" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="M35" s="2" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 48, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'reg': 14, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, </v>
       </c>
-      <c r="L35" s="11" t="str">
-        <f t="shared" si="8"/>
+      <c r="N35" s="11" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>157</v>
       </c>
       <c r="B36" s="2">
-        <f>+B35</f>
-        <v>26</v>
-      </c>
-      <c r="C36" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="D36" s="2">
+        <f>+D35</f>
+        <v>2</v>
+      </c>
+      <c r="E36" s="2">
         <v>6</v>
       </c>
-      <c r="D36" s="2">
-        <v>2</v>
-      </c>
-      <c r="E36" s="2" t="s">
+      <c r="F36" s="2">
+        <v>2</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="H36" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G36" s="7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H36" s="14">
+      <c r="I36" s="7">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J36" s="14">
         <v>25</v>
       </c>
-      <c r="J36" s="15" t="str">
-        <f t="shared" si="6"/>
+      <c r="L36" s="15" t="str">
+        <f t="shared" si="10"/>
         <v xml:space="preserve">{ 'reg': 25, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1}, </v>
       </c>
-      <c r="K36" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="M36" s="2" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 48, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'reg': 14, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, { 'reg': 25, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1}, </v>
       </c>
-      <c r="L36" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v>{'row': 26, 'editing': false, 'tipo': 'titulo3', 'data': [{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 48, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'reg': 14, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, { 'reg': 25, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N36" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'row': 2, 'week': '1.3',  'editing': false, 'tipo': 'titulo3', 'data': [{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 48, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'reg': 14, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, { 'reg': 25, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B37" s="2">
-        <f>+B36+1</f>
-        <v>27</v>
+        <v>1.5</v>
       </c>
       <c r="C37" s="2">
-        <v>1</v>
+        <f>4100+D37</f>
+        <v>4101</v>
       </c>
       <c r="D37" s="2">
         <v>1</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="2">
+        <v>1</v>
+      </c>
+      <c r="F37" s="2">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F37" s="7">
-        <v>1</v>
-      </c>
-      <c r="G37" s="7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H37" s="14">
+      <c r="H37" s="7">
+        <v>1</v>
+      </c>
+      <c r="I37" s="7">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J37" s="14">
         <v>99</v>
       </c>
-      <c r="J37" s="15" t="str">
-        <f t="shared" si="6"/>
+      <c r="L37" s="15" t="str">
+        <f t="shared" si="10"/>
         <v xml:space="preserve">{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, </v>
       </c>
-      <c r="K37" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="M37" s="2" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, </v>
       </c>
-      <c r="L37" s="11" t="str">
-        <f t="shared" si="8"/>
+      <c r="N37" s="11" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="195" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="174" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B38" s="2">
         <f>+B37</f>
-        <v>27</v>
-      </c>
-      <c r="C38" s="2">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="D38" s="2">
+        <f>+D37</f>
+        <v>1</v>
+      </c>
+      <c r="E38" s="2">
+        <v>2</v>
+      </c>
+      <c r="F38" s="2">
         <v>3</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="G38" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="H38" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="G38" s="7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H38" s="14">
+      <c r="I38" s="7">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J38" s="14">
         <v>127</v>
       </c>
-      <c r="J38" s="15" t="str">
-        <f t="shared" si="6"/>
+      <c r="L38" s="15" t="str">
+        <f t="shared" si="10"/>
         <v xml:space="preserve">{ 'reg': 127, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1}, </v>
       </c>
-      <c r="K38" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="M38" s="2" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, { 'reg': 127, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1}, </v>
       </c>
-      <c r="L38" s="11" t="str">
-        <f t="shared" si="8"/>
+      <c r="N38" s="11" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B39" s="2">
-        <f>+B38</f>
-        <v>27</v>
-      </c>
-      <c r="C39" s="2">
+        <f t="shared" ref="B39:B40" si="12">+B38</f>
+        <v>1.5</v>
+      </c>
+      <c r="D39" s="2">
+        <f>+D38</f>
+        <v>1</v>
+      </c>
+      <c r="E39" s="2">
         <v>4</v>
       </c>
-      <c r="D39" s="2">
-        <v>2</v>
-      </c>
-      <c r="E39" s="2" t="s">
+      <c r="F39" s="2">
+        <v>2</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="H39" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G39" s="7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H39" s="14">
+      <c r="I39" s="7">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J39" s="14">
         <v>91</v>
       </c>
-      <c r="J39" s="15" t="str">
-        <f t="shared" si="6"/>
+      <c r="L39" s="15" t="str">
+        <f t="shared" si="10"/>
         <v xml:space="preserve">{ 'reg': 91, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Reconoce el recorrido de las operaciones empresariales en el ciclo contable de una empresa. Evalúa la utilidad de la información financiera y gerencial.', 'offset':1}, </v>
       </c>
-      <c r="K39" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="M39" s="2" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, { 'reg': 127, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1}, { 'reg': 91, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Reconoce el recorrido de las operaciones empresariales en el ciclo contable de una empresa. Evalúa la utilidad de la información financiera y gerencial.', 'offset':1}, </v>
       </c>
-      <c r="L39" s="11" t="str">
-        <f t="shared" si="8"/>
+      <c r="N39" s="11" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B40" s="2">
-        <f>+B39</f>
-        <v>27</v>
-      </c>
-      <c r="C40" s="2">
+        <f t="shared" si="12"/>
+        <v>1.5</v>
+      </c>
+      <c r="D40" s="2">
+        <f>+D39</f>
+        <v>1</v>
+      </c>
+      <c r="E40" s="2">
         <v>6</v>
       </c>
-      <c r="D40" s="2">
-        <v>2</v>
-      </c>
-      <c r="E40" s="2" t="s">
+      <c r="F40" s="2">
+        <v>2</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="H40" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="G40" s="7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H40" s="14">
+      <c r="I40" s="7">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J40" s="14">
         <v>115</v>
       </c>
-      <c r="J40" s="15" t="str">
-        <f t="shared" si="6"/>
+      <c r="L40" s="15" t="str">
+        <f t="shared" si="10"/>
         <v xml:space="preserve">{ 'reg': 115, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada\nTaller', 'offset':1}, </v>
       </c>
-      <c r="K40" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="M40" s="2" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, { 'reg': 127, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1}, { 'reg': 91, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Reconoce el recorrido de las operaciones empresariales en el ciclo contable de una empresa. Evalúa la utilidad de la información financiera y gerencial.', 'offset':1}, { 'reg': 115, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada\nTaller', 'offset':1}, </v>
       </c>
-      <c r="L40" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v>{'row': 27, 'editing': false, 'tipo': 'contenidos', 'data': [{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, { 'reg': 127, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1}, { 'reg': 91, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Reconoce el recorrido de las operaciones empresariales en el ciclo contable de una empresa. Evalúa la utilidad de la información financiera y gerencial.', 'offset':1}, { 'reg': 115, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada\nTaller', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N40" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'row': 1, 'week': '1.5',  'editing': false, 'tipo': 'contenidos', 'data': [{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, { 'reg': 127, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1}, { 'reg': 91, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Reconoce el recorrido de las operaciones empresariales en el ciclo contable de una empresa. Evalúa la utilidad de la información financiera y gerencial.', 'offset':1}, { 'reg': 115, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada\nTaller', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B41" s="2">
-        <f>+B40+1</f>
+        <v>2.5</v>
+      </c>
+      <c r="D41" s="2">
+        <f>+D40+1</f>
+        <v>2</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="2">
-        <v>1</v>
-      </c>
-      <c r="D41" s="2">
-        <v>1</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F41" s="13">
-        <v>2</v>
-      </c>
-      <c r="G41" s="7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H41" s="14">
+      <c r="H41" s="13">
+        <v>2</v>
+      </c>
+      <c r="I41" s="7">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J41" s="14">
         <v>62</v>
       </c>
-      <c r="J41" s="15" t="str">
-        <f t="shared" si="6"/>
+      <c r="L41" s="15" t="str">
+        <f t="shared" si="10"/>
         <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, </v>
       </c>
-      <c r="K41" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="M41" s="2" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, </v>
       </c>
-      <c r="L41" s="11" t="str">
-        <f t="shared" si="8"/>
+      <c r="N41" s="11" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B42" s="2">
         <f>+B41</f>
-        <v>28</v>
-      </c>
-      <c r="C42" s="2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D42" s="2">
+        <f>+D41</f>
+        <v>2</v>
+      </c>
+      <c r="E42" s="2">
+        <v>2</v>
+      </c>
+      <c r="F42" s="2">
         <v>3</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="H42" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="G42" s="7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H42" s="14">
+      <c r="I42" s="7">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J42" s="14">
         <v>17</v>
       </c>
-      <c r="J42" s="15" t="str">
-        <f t="shared" si="6"/>
+      <c r="L42" s="15" t="str">
+        <f t="shared" si="10"/>
         <v xml:space="preserve">{ 'reg': 17, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1}, </v>
       </c>
-      <c r="K42" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="M42" s="2" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, { 'reg': 17, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1}, </v>
       </c>
-      <c r="L42" s="11" t="str">
-        <f t="shared" si="8"/>
+      <c r="N42" s="11" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="str">
         <f>+A42</f>
         <v>contenidos</v>
       </c>
       <c r="B43" s="2">
-        <f>+B42</f>
-        <v>28</v>
-      </c>
-      <c r="C43" s="2">
+        <f t="shared" ref="B43:B44" si="13">+B42</f>
+        <v>2.5</v>
+      </c>
+      <c r="D43" s="2">
+        <f>+D42</f>
+        <v>2</v>
+      </c>
+      <c r="E43" s="2">
         <v>4</v>
       </c>
-      <c r="D43" s="2">
-        <v>2</v>
-      </c>
-      <c r="E43" s="2" t="s">
+      <c r="F43" s="2">
+        <v>2</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="H43" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G43" s="7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H43" s="14">
+      <c r="I43" s="7">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J43" s="14">
         <v>102</v>
       </c>
-      <c r="J43" s="15" t="str">
-        <f t="shared" si="6"/>
+      <c r="L43" s="15" t="str">
+        <f t="shared" si="10"/>
         <v xml:space="preserve">{ 'reg': 102, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Determinación, distribución y aplicación de los costos en una empresa mercantil.', 'offset':1}, </v>
       </c>
-      <c r="K43" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="M43" s="2" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, { 'reg': 17, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1}, { 'reg': 102, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Determinación, distribución y aplicación de los costos en una empresa mercantil.', 'offset':1}, </v>
       </c>
-      <c r="L43" s="11" t="str">
-        <f t="shared" si="8"/>
+      <c r="N43" s="11" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="str">
         <f>+A43</f>
         <v>contenidos</v>
       </c>
       <c r="B44" s="2">
-        <f>+B43</f>
-        <v>28</v>
-      </c>
-      <c r="C44" s="2">
+        <f t="shared" si="13"/>
+        <v>2.5</v>
+      </c>
+      <c r="D44" s="2">
+        <f>+D43</f>
+        <v>2</v>
+      </c>
+      <c r="E44" s="2">
         <v>6</v>
       </c>
-      <c r="D44" s="2">
-        <v>2</v>
-      </c>
-      <c r="E44" s="2" t="s">
+      <c r="F44" s="2">
+        <v>2</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="H44" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G44" s="7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H44" s="14">
+      <c r="I44" s="7">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J44" s="14">
         <v>126</v>
       </c>
-      <c r="J44" s="15" t="str">
-        <f t="shared" si="6"/>
+      <c r="L44" s="15" t="str">
+        <f t="shared" si="10"/>
         <v xml:space="preserve">{ 'reg': 126, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Dinámica grupal/debate en clase', 'offset':1}, </v>
       </c>
-      <c r="K44" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="M44" s="2" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, { 'reg': 17, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1}, { 'reg': 102, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Determinación, distribución y aplicación de los costos en una empresa mercantil.', 'offset':1}, { 'reg': 126, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Dinámica grupal/debate en clase', 'offset':1}, </v>
       </c>
-      <c r="L44" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v>{'row': 28, 'editing': false, 'tipo': 'contenidos', 'data': [{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, { 'reg': 17, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1}, { 'reg': 102, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Determinación, distribución y aplicación de los costos en una empresa mercantil.', 'offset':1}, { 'reg': 126, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Dinámica grupal/debate en clase', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N44" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'row': 2, 'week': '2.5',  'editing': false, 'tipo': 'contenidos', 'data': [{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, { 'reg': 17, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1}, { 'reg': 102, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Determinación, distribución y aplicación de los costos en una empresa mercantil.', 'offset':1}, { 'reg': 126, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Dinámica grupal/debate en clase', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B45" s="2">
-        <f>+B44+1</f>
-        <v>29</v>
-      </c>
-      <c r="C45" s="2">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="D45" s="2">
-        <v>1</v>
-      </c>
-      <c r="E45" s="2" t="s">
+        <f>+D44+1</f>
+        <v>3</v>
+      </c>
+      <c r="E45" s="2">
+        <v>1</v>
+      </c>
+      <c r="F45" s="2">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F45" s="7">
+      <c r="H45" s="7">
         <v>3</v>
       </c>
-      <c r="G45" s="7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H45" s="14">
+      <c r="I45" s="7">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J45" s="14">
         <v>39</v>
       </c>
-      <c r="J45" s="15" t="str">
-        <f t="shared" si="6"/>
+      <c r="L45" s="15" t="str">
+        <f t="shared" si="10"/>
         <v xml:space="preserve">{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, </v>
       </c>
-      <c r="K45" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="M45" s="2" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, </v>
       </c>
-      <c r="L45" s="11" t="str">
-        <f t="shared" si="8"/>
+      <c r="N45" s="11" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B46" s="2">
         <f>+B45</f>
-        <v>29</v>
-      </c>
-      <c r="C46" s="2">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="D46" s="2">
+        <f>+D45</f>
         <v>3</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" s="2">
+        <v>2</v>
+      </c>
+      <c r="F46" s="2">
+        <v>3</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="H46" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="G46" s="7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H46" s="14">
+      <c r="I46" s="7">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J46" s="14">
         <v>124</v>
       </c>
-      <c r="J46" s="15" t="str">
-        <f t="shared" si="6"/>
+      <c r="L46" s="15" t="str">
+        <f t="shared" si="10"/>
         <v xml:space="preserve">{ 'reg': 124, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1}, </v>
       </c>
-      <c r="K46" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="M46" s="2" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, { 'reg': 124, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1}, </v>
       </c>
-      <c r="L46" s="11" t="str">
-        <f t="shared" si="8"/>
+      <c r="N46" s="11" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B47" s="2">
-        <f>+B46</f>
-        <v>29</v>
-      </c>
-      <c r="C47" s="2">
+        <f t="shared" ref="B47:B48" si="14">+B46</f>
+        <v>3.5</v>
+      </c>
+      <c r="D47" s="2">
+        <f>+D46</f>
+        <v>3</v>
+      </c>
+      <c r="E47" s="2">
         <v>4</v>
       </c>
-      <c r="D47" s="2">
-        <v>2</v>
-      </c>
-      <c r="E47" s="2" t="s">
+      <c r="F47" s="2">
+        <v>2</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="H47" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G47" s="7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H47" s="14">
+      <c r="I47" s="7">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J47" s="14">
         <v>26</v>
       </c>
-      <c r="J47" s="15" t="str">
-        <f t="shared" si="6"/>
+      <c r="L47" s="15" t="str">
+        <f t="shared" si="10"/>
         <v xml:space="preserve">{ 'reg': 26, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Analizar y aplicar el marco legal normativo para la elaboración de los Estados Financieros.', 'offset':1}, </v>
       </c>
-      <c r="K47" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="M47" s="2" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, { 'reg': 124, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1}, { 'reg': 26, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Analizar y aplicar el marco legal normativo para la elaboración de los Estados Financieros.', 'offset':1}, </v>
       </c>
-      <c r="L47" s="11" t="str">
-        <f t="shared" si="8"/>
+      <c r="N47" s="11" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B48" s="2">
-        <f>+B47</f>
-        <v>29</v>
-      </c>
-      <c r="C48" s="2">
+        <f t="shared" si="14"/>
+        <v>3.5</v>
+      </c>
+      <c r="D48" s="2">
+        <f>+D47</f>
+        <v>3</v>
+      </c>
+      <c r="E48" s="2">
         <v>6</v>
       </c>
-      <c r="D48" s="2">
-        <v>2</v>
-      </c>
-      <c r="E48" s="2" t="s">
+      <c r="F48" s="2">
+        <v>2</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="H48" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G48" s="7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H48" s="14">
+      <c r="I48" s="7">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J48" s="14">
         <v>40</v>
       </c>
-      <c r="J48" s="15" t="str">
-        <f t="shared" si="6"/>
+      <c r="L48" s="15" t="str">
+        <f t="shared" si="10"/>
         <v xml:space="preserve">{ 'reg': 40, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada', 'offset':1}, </v>
       </c>
-      <c r="K48" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="M48" s="2" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, { 'reg': 124, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1}, { 'reg': 26, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Analizar y aplicar el marco legal normativo para la elaboración de los Estados Financieros.', 'offset':1}, { 'reg': 40, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada', 'offset':1}, </v>
       </c>
-      <c r="L48" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v>{'row': 29, 'editing': false, 'tipo': 'contenidos', 'data': [{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, { 'reg': 124, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1}, { 'reg': 26, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Analizar y aplicar el marco legal normativo para la elaboración de los Estados Financieros.', 'offset':1}, { 'reg': 40, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N48" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'row': 3, 'week': '3.5',  'editing': false, 'tipo': 'contenidos', 'data': [{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, { 'reg': 124, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1}, { 'reg': 26, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Analizar y aplicar el marco legal normativo para la elaboración de los Estados Financieros.', 'offset':1}, { 'reg': 40, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B49" s="2">
-        <f>+B48+1</f>
-        <v>30</v>
-      </c>
-      <c r="C49" s="2">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="D49" s="2">
-        <v>1</v>
-      </c>
-      <c r="E49" s="2" t="s">
+        <f>+D48+1</f>
+        <v>4</v>
+      </c>
+      <c r="E49" s="2">
+        <v>1</v>
+      </c>
+      <c r="F49" s="2">
+        <v>1</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F49" s="7">
+      <c r="H49" s="7">
         <v>4</v>
       </c>
-      <c r="G49" s="7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H49" s="14">
+      <c r="I49" s="7">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J49" s="14">
         <v>43</v>
       </c>
-      <c r="J49" s="15" t="str">
-        <f t="shared" si="6"/>
+      <c r="L49" s="15" t="str">
+        <f t="shared" si="10"/>
         <v xml:space="preserve">{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, </v>
       </c>
-      <c r="K49" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="M49" s="2" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, </v>
       </c>
-      <c r="L49" s="11" t="str">
-        <f t="shared" si="8"/>
+      <c r="N49" s="11" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B50" s="2">
         <f>+B49</f>
+        <v>4.5</v>
+      </c>
+      <c r="D50" s="2">
+        <f>+D49</f>
+        <v>4</v>
+      </c>
+      <c r="E50" s="2">
+        <v>2</v>
+      </c>
+      <c r="F50" s="2">
+        <v>3</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="2">
-        <v>2</v>
-      </c>
-      <c r="D50" s="2">
-        <v>3</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F50" s="5" t="s">
+      <c r="H50" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="G50" s="7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H50" s="14">
+      <c r="I50" s="7">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J50" s="14">
         <v>62</v>
       </c>
-      <c r="J50" s="15" t="str">
-        <f t="shared" si="6"/>
+      <c r="L50" s="15" t="str">
+        <f t="shared" si="10"/>
         <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1}, </v>
       </c>
-      <c r="K50" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="M50" s="2" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, { 'reg': 62, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1}, </v>
       </c>
-      <c r="L50" s="11" t="str">
-        <f t="shared" si="8"/>
+      <c r="N50" s="11" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B51" s="2">
-        <f>+B50</f>
+        <f t="shared" ref="B51:B52" si="15">+B50</f>
+        <v>4.5</v>
+      </c>
+      <c r="D51" s="2">
+        <f>+D50</f>
+        <v>4</v>
+      </c>
+      <c r="E51" s="2">
+        <v>4</v>
+      </c>
+      <c r="F51" s="2">
+        <v>2</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="2">
-        <v>4</v>
-      </c>
-      <c r="D51" s="2">
-        <v>2</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F51" s="7" t="s">
+      <c r="H51" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G51" s="7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H51" s="14">
+      <c r="I51" s="7">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J51" s="14">
         <v>10</v>
       </c>
-      <c r="J51" s="15" t="str">
-        <f t="shared" si="6"/>
+      <c r="L51" s="15" t="str">
+        <f t="shared" si="10"/>
         <v xml:space="preserve">{ 'reg': 10, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Evalúa los resultados obtenidos. Demuestra la aplicación del análisis vertical y horizontal.', 'offset':1}, </v>
       </c>
-      <c r="K51" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="M51" s="2" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, { 'reg': 62, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1}, { 'reg': 10, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Evalúa los resultados obtenidos. Demuestra la aplicación del análisis vertical y horizontal.', 'offset':1}, </v>
       </c>
-      <c r="L51" s="11" t="str">
-        <f t="shared" si="8"/>
+      <c r="N51" s="11" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B52" s="2">
-        <f>+B51</f>
+        <f t="shared" si="15"/>
+        <v>4.5</v>
+      </c>
+      <c r="D52" s="2">
+        <f>+D51</f>
+        <v>4</v>
+      </c>
+      <c r="E52" s="2">
+        <v>6</v>
+      </c>
+      <c r="F52" s="2">
+        <v>2</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C52" s="2">
-        <v>6</v>
-      </c>
-      <c r="D52" s="2">
-        <v>2</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F52" s="5" t="s">
+      <c r="H52" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="G52" s="7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H52" s="14">
+      <c r="I52" s="7">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J52" s="14">
         <v>82</v>
       </c>
-      <c r="J52" s="15" t="str">
-        <f t="shared" si="6"/>
+      <c r="L52" s="15" t="str">
+        <f t="shared" si="10"/>
         <v xml:space="preserve">{ 'reg': 82, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Clase Expositiva\n Taller\n  Discusión de caso', 'offset':1}, </v>
       </c>
-      <c r="K52" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="M52" s="2" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, { 'reg': 62, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1}, { 'reg': 10, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Evalúa los resultados obtenidos. Demuestra la aplicación del análisis vertical y horizontal.', 'offset':1}, { 'reg': 82, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Clase Expositiva\n Taller\n  Discusión de caso', 'offset':1}, </v>
       </c>
-      <c r="L52" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v>{'row': 30, 'editing': false, 'tipo': 'contenidos', 'data': [{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, { 'reg': 62, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1}, { 'reg': 10, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Evalúa los resultados obtenidos. Demuestra la aplicación del análisis vertical y horizontal.', 'offset':1}, { 'reg': 82, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Clase Expositiva\n Taller\n  Discusión de caso', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>161</v>
+      <c r="N52" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'row': 4, 'week': '4.5',  'editing': false, 'tipo': 'contenidos', 'data': [{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, { 'reg': 62, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1}, { 'reg': 10, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Evalúa los resultados obtenidos. Demuestra la aplicación del análisis vertical y horizontal.', 'offset':1}, { 'reg': 82, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Clase Expositiva\n Taller\n  Discusión de caso', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A53" s="8" t="s">
+        <v>184</v>
       </c>
       <c r="B53" s="2">
-        <f>+B52+1</f>
-        <v>31</v>
-      </c>
-      <c r="C53" s="2">
-        <v>2</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D53" s="2">
+        <f>+D52+1</f>
+        <v>5</v>
+      </c>
+      <c r="E53" s="2">
+        <v>2</v>
+      </c>
+      <c r="F53" s="2">
         <v>7</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="G53" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="H53" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G53" s="7">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="H53" s="14">
+      <c r="I53" s="7">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="J53" s="14">
         <v>19</v>
       </c>
-      <c r="J53" s="15" t="str">
-        <f t="shared" si="6"/>
+      <c r="L53" s="15" t="str">
+        <f t="shared" si="10"/>
         <v xml:space="preserve">{ 'reg': 19, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'center', 'texto': 'EVALUACIÓN PARCIAL 1 ', 'offset':2}, </v>
       </c>
-      <c r="K53" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="M53" s="2" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">{ 'reg': 19, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'center', 'texto': 'EVALUACIÓN PARCIAL 1 ', 'offset':2}, </v>
       </c>
-      <c r="L53" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v>{'row': 31, 'editing': false, 'tipo': 'evaluaciones', 'data': [{ 'reg': 19, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'center', 'texto': 'EVALUACIÓN PARCIAL 1 ', 'offset':2}, ],  },</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N53" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'row': 5, 'week': '4.9',  'editing': false, 'tipo': 'examenes', 'data': [{ 'reg': 19, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'center', 'texto': 'EVALUACIÓN PARCIAL 1 ', 'offset':2}, ],  },</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B54" s="2">
-        <f>+B53+1</f>
-        <v>32</v>
-      </c>
-      <c r="C54" s="2">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="D54" s="2">
-        <v>1</v>
-      </c>
-      <c r="E54" s="2" t="s">
+        <f>+D53+1</f>
+        <v>6</v>
+      </c>
+      <c r="E54" s="2">
+        <v>1</v>
+      </c>
+      <c r="F54" s="2">
+        <v>1</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F54" s="7">
+      <c r="H54" s="7">
         <v>5</v>
       </c>
-      <c r="G54" s="7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H54" s="14">
+      <c r="I54" s="7">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J54" s="14">
         <v>82</v>
       </c>
-      <c r="J54" s="15" t="str">
-        <f t="shared" si="6"/>
+      <c r="L54" s="15" t="str">
+        <f t="shared" si="10"/>
         <v xml:space="preserve">{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, </v>
       </c>
-      <c r="K54" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="M54" s="2" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, </v>
       </c>
-      <c r="L54" s="11" t="str">
-        <f t="shared" si="8"/>
+      <c r="N54" s="11" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B55" s="2">
         <f>+B54</f>
-        <v>32</v>
-      </c>
-      <c r="C55" s="2">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="D55" s="2">
+        <f>+D54</f>
+        <v>6</v>
+      </c>
+      <c r="E55" s="2">
+        <v>2</v>
+      </c>
+      <c r="F55" s="2">
         <v>3</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="H55" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="G55" s="7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H55" s="14">
+      <c r="I55" s="7">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J55" s="14">
         <v>61</v>
       </c>
-      <c r="J55" s="15" t="str">
-        <f t="shared" si="6"/>
+      <c r="L55" s="15" t="str">
+        <f t="shared" si="10"/>
         <v xml:space="preserve">{ 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1}, </v>
       </c>
-      <c r="K55" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="M55" s="2" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, { 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1}, </v>
       </c>
-      <c r="L55" s="11" t="str">
-        <f t="shared" si="8"/>
+      <c r="N55" s="11" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B56" s="2">
         <f>+B55</f>
-        <v>32</v>
-      </c>
-      <c r="C56" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="D56" s="2">
+        <f>+D55</f>
+        <v>6</v>
+      </c>
+      <c r="E56" s="2">
         <v>4</v>
       </c>
-      <c r="D56" s="2">
-        <v>2</v>
-      </c>
-      <c r="F56" s="7" t="s">
+      <c r="F56" s="2">
+        <v>2</v>
+      </c>
+      <c r="H56" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G56" s="7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H56" s="14">
+      <c r="I56" s="7">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J56" s="14">
         <v>39</v>
       </c>
-      <c r="J56" s="15" t="str">
-        <f t="shared" si="6"/>
+      <c r="L56" s="15" t="str">
+        <f t="shared" si="10"/>
         <v xml:space="preserve">{ 'reg': 39, 'subtipo': '', 'col': 4, 'cols': 2, 'align': '', 'texto': 'Propicia un debate acerca de la toma de decisiones en una empresa.', 'offset':1}, </v>
       </c>
-      <c r="K56" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="M56" s="2" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, { 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1}, { 'reg': 39, 'subtipo': '', 'col': 4, 'cols': 2, 'align': '', 'texto': 'Propicia un debate acerca de la toma de decisiones en una empresa.', 'offset':1}, </v>
       </c>
-      <c r="L56" s="11" t="str">
-        <f t="shared" si="8"/>
+      <c r="N56" s="11" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B57" s="2">
         <f>+B56</f>
-        <v>32</v>
-      </c>
-      <c r="C57" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="D57" s="2">
+        <f>+D56</f>
         <v>6</v>
       </c>
-      <c r="D57" s="2">
-        <v>2</v>
-      </c>
-      <c r="F57" s="7" t="s">
+      <c r="E57" s="2">
+        <v>6</v>
+      </c>
+      <c r="F57" s="2">
+        <v>2</v>
+      </c>
+      <c r="H57" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G57" s="7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H57" s="14">
+      <c r="I57" s="7">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J57" s="14">
         <v>69</v>
       </c>
-      <c r="J57" s="15" t="str">
-        <f t="shared" si="6"/>
+      <c r="L57" s="15" t="str">
+        <f t="shared" si="10"/>
         <v xml:space="preserve">{ 'reg': 69, 'subtipo': '', 'col': 6, 'cols': 2, 'align': '', 'texto': 'Exposición dialogada', 'offset':1}, </v>
       </c>
-      <c r="K57" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="M57" s="2" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, { 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1}, { 'reg': 39, 'subtipo': '', 'col': 4, 'cols': 2, 'align': '', 'texto': 'Propicia un debate acerca de la toma de decisiones en una empresa.', 'offset':1}, { 'reg': 69, 'subtipo': '', 'col': 6, 'cols': 2, 'align': '', 'texto': 'Exposición dialogada', 'offset':1}, </v>
       </c>
-      <c r="L57" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v>{'row': 32, 'editing': false, 'tipo': 'contenidos', 'data': [{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, { 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1}, { 'reg': 39, 'subtipo': '', 'col': 4, 'cols': 2, 'align': '', 'texto': 'Propicia un debate acerca de la toma de decisiones en una empresa.', 'offset':1}, { 'reg': 69, 'subtipo': '', 'col': 6, 'cols': 2, 'align': '', 'texto': 'Exposición dialogada', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N57" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'row': 6, 'week': '5.5',  'editing': false, 'tipo': 'contenidos', 'data': [{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, { 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1}, { 'reg': 39, 'subtipo': '', 'col': 4, 'cols': 2, 'align': '', 'texto': 'Propicia un debate acerca de la toma de decisiones en una empresa.', 'offset':1}, { 'reg': 69, 'subtipo': '', 'col': 6, 'cols': 2, 'align': '', 'texto': 'Exposición dialogada', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>158</v>
       </c>
       <c r="B58" s="2">
-        <f>+B57+1</f>
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C58" s="2">
-        <v>1</v>
+        <f>4000+D58*100</f>
+        <v>4200</v>
       </c>
       <c r="D58" s="2">
+        <v>2</v>
+      </c>
+      <c r="E58" s="2">
+        <v>1</v>
+      </c>
+      <c r="F58" s="2">
         <v>8</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="G58" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="H58" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="G58" s="7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H58" s="14">
+      <c r="I58" s="7">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J58" s="14">
         <v>124</v>
       </c>
-      <c r="J58" s="15" t="str">
-        <f t="shared" si="6"/>
+      <c r="L58" s="15" t="str">
+        <f t="shared" si="10"/>
         <v xml:space="preserve">{ 'reg': 124, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD II: ANALISIS E INTERPRETACION DE LOS ESTADOS FINANCIEROS', 'offset':1}, </v>
       </c>
-      <c r="K58" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="M58" s="2" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">{ 'reg': 124, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD II: ANALISIS E INTERPRETACION DE LOS ESTADOS FINANCIEROS', 'offset':1}, </v>
       </c>
-      <c r="L58" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v>{'row': 33, 'editing': false, 'tipo': 'unidades', 'data': [{ 'reg': 124, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD II: ANALISIS E INTERPRETACION DE LOS ESTADOS FINANCIEROS', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N58" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'row': 2, 'week': '6',  'editing': false, 'tipo': 'unidades', 'data': [{ 'reg': 124, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD II: ANALISIS E INTERPRETACION DE LOS ESTADOS FINANCIEROS', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B59" s="8">
-        <f>+B58+1</f>
-        <v>34</v>
-      </c>
-      <c r="C59" s="2">
-        <v>1</v>
-      </c>
-      <c r="D59" s="2">
-        <v>1</v>
-      </c>
-      <c r="E59" s="2" t="s">
+      <c r="B59" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="D59" s="8">
+        <f>+D58+1</f>
+        <v>3</v>
+      </c>
+      <c r="E59" s="2">
+        <v>1</v>
+      </c>
+      <c r="F59" s="2">
+        <v>1</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F59" s="7" t="s">
+      <c r="H59" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G59" s="7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H59" s="14">
+      <c r="I59" s="7">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J59" s="14">
         <v>62</v>
       </c>
-      <c r="J59" s="15" t="str">
-        <f t="shared" si="6"/>
+      <c r="L59" s="15" t="str">
+        <f t="shared" si="10"/>
         <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, </v>
       </c>
-      <c r="K59" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="M59" s="2" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, </v>
       </c>
-      <c r="L59" s="11" t="str">
-        <f t="shared" si="8"/>
+      <c r="N59" s="11" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>157</v>
       </c>
       <c r="B60" s="2">
         <f>+B59</f>
-        <v>34</v>
-      </c>
-      <c r="C60" s="2">
-        <v>2</v>
+        <v>6.2</v>
       </c>
       <c r="D60" s="2">
+        <f>+D59</f>
         <v>3</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E60" s="2">
+        <v>2</v>
+      </c>
+      <c r="F60" s="2">
+        <v>3</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="H60" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G60" s="7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H60" s="14">
+      <c r="I60" s="7">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J60" s="14">
         <v>61</v>
       </c>
-      <c r="J60" s="15" t="str">
-        <f t="shared" si="6"/>
+      <c r="L60" s="15" t="str">
+        <f t="shared" si="10"/>
         <v xml:space="preserve">{ 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, </v>
       </c>
-      <c r="K60" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="M60" s="2" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, </v>
       </c>
-      <c r="L60" s="11" t="str">
-        <f t="shared" si="8"/>
+      <c r="N60" s="11" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>157</v>
       </c>
       <c r="B61" s="2">
         <f>+B60</f>
-        <v>34</v>
-      </c>
-      <c r="C61" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="D61" s="2">
+        <f>+D60</f>
+        <v>3</v>
+      </c>
+      <c r="E61" s="2">
         <v>4</v>
       </c>
-      <c r="D61" s="2">
-        <v>2</v>
-      </c>
-      <c r="E61" s="2" t="s">
+      <c r="F61" s="2">
+        <v>2</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="H61" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G61" s="7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H61" s="14">
+      <c r="I61" s="7">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J61" s="14">
         <v>73</v>
       </c>
-      <c r="J61" s="15" t="str">
-        <f t="shared" si="6"/>
+      <c r="L61" s="15" t="str">
+        <f t="shared" si="10"/>
         <v xml:space="preserve">{ 'reg': 73, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, </v>
       </c>
-      <c r="K61" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="M61" s="2" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'reg': 73, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, </v>
       </c>
-      <c r="L61" s="11" t="str">
-        <f t="shared" si="8"/>
+      <c r="N61" s="11" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>157</v>
       </c>
       <c r="B62" s="2">
         <f>+B61</f>
-        <v>34</v>
-      </c>
-      <c r="C62" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="D62" s="2">
+        <f>+D61</f>
+        <v>3</v>
+      </c>
+      <c r="E62" s="2">
         <v>6</v>
       </c>
-      <c r="D62" s="2">
-        <v>2</v>
-      </c>
-      <c r="E62" s="2" t="s">
+      <c r="F62" s="2">
+        <v>2</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="H62" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G62" s="7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H62" s="14">
+      <c r="I62" s="7">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J62" s="14">
         <v>27</v>
       </c>
-      <c r="J62" s="15" t="str">
-        <f t="shared" si="6"/>
+      <c r="L62" s="15" t="str">
+        <f t="shared" si="10"/>
         <v xml:space="preserve">{ 'reg': 27, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1}, </v>
       </c>
-      <c r="K62" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="M62" s="2" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'reg': 73, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, { 'reg': 27, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1}, </v>
       </c>
-      <c r="L62" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v>{'row': 34, 'editing': false, 'tipo': 'titulo3', 'data': [{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'reg': 73, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, { 'reg': 27, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N62" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'row': 3, 'week': '6.2',  'editing': false, 'tipo': 'titulo3', 'data': [{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'reg': 73, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, { 'reg': 27, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B63" s="2">
-        <f>+B62+1</f>
-        <v>35</v>
-      </c>
       <c r="C63" s="2">
-        <v>1</v>
+        <f>+D63*1000</f>
+        <v>5000</v>
       </c>
       <c r="D63" s="2">
+        <v>5</v>
+      </c>
+      <c r="E63" s="2">
+        <v>1</v>
+      </c>
+      <c r="F63" s="2">
         <v>8</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="G63" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F63" s="7" t="s">
+      <c r="H63" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="G63" s="7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H63" s="14">
+      <c r="I63" s="7">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J63" s="14">
         <v>6</v>
       </c>
-      <c r="I63" s="12" t="s">
+      <c r="K63" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="J63" s="15" t="str">
-        <f t="shared" si="6"/>
+      <c r="L63" s="15" t="str">
+        <f t="shared" si="10"/>
         <v xml:space="preserve">{ 'reg': 6, 'subtipo': 'estrategias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'V. ESTRATEGIAS METODOLÓGICAS', 'offset':1}, </v>
       </c>
-      <c r="K63" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="M63" s="2" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">{ 'reg': 6, 'subtipo': 'estrategias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'V. ESTRATEGIAS METODOLÓGICAS', 'offset':1}, </v>
       </c>
-      <c r="L63" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v>{'row': 35, 'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 6, 'subtipo': 'estrategias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'V. ESTRATEGIAS METODOLÓGICAS', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N63" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'row': 5, 'week': '',  'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 6, 'subtipo': 'estrategias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'V. ESTRATEGIAS METODOLÓGICAS', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B64" s="2">
-        <f t="shared" ref="B64:B65" si="9">+B63+1</f>
-        <v>36</v>
-      </c>
       <c r="C64" s="2">
-        <v>1</v>
+        <f>+D64*1000</f>
+        <v>6000</v>
       </c>
       <c r="D64" s="2">
+        <v>6</v>
+      </c>
+      <c r="E64" s="2">
+        <v>1</v>
+      </c>
+      <c r="F64" s="2">
         <v>8</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="G64" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="H64" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="G64" s="7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H64" s="14">
+      <c r="I64" s="7">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J64" s="14">
         <v>75</v>
       </c>
-      <c r="I64" s="12" t="s">
+      <c r="K64" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="J64" s="15" t="str">
-        <f t="shared" si="6"/>
+      <c r="L64" s="15" t="str">
+        <f t="shared" si="10"/>
         <v xml:space="preserve">{ 'reg': 75, 'subtipo': 'evaluaciones', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VI. EVALUACIÓN', 'offset':1}, </v>
       </c>
-      <c r="K64" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="M64" s="2" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">{ 'reg': 75, 'subtipo': 'evaluaciones', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VI. EVALUACIÓN', 'offset':1}, </v>
       </c>
-      <c r="L64" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v>{'row': 36, 'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 75, 'subtipo': 'evaluaciones', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VI. EVALUACIÓN', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N64" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'row': 6, 'week': '',  'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 75, 'subtipo': 'evaluaciones', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VI. EVALUACIÓN', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B65" s="2">
+      <c r="C65" s="2">
+        <f>+D65*1000</f>
+        <v>7000</v>
+      </c>
+      <c r="D65" s="2">
+        <v>7</v>
+      </c>
+      <c r="E65" s="2">
+        <v>1</v>
+      </c>
+      <c r="F65" s="2">
+        <v>8</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="I65" s="7">
         <f t="shared" si="9"/>
-        <v>37</v>
-      </c>
-      <c r="C65" s="2">
-        <v>1</v>
-      </c>
-      <c r="D65" s="2">
-        <v>8</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G65" s="7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H65" s="14">
+        <v>1</v>
+      </c>
+      <c r="J65" s="14">
         <v>102</v>
       </c>
-      <c r="I65" s="12" t="s">
+      <c r="K65" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="J65" s="15" t="str">
-        <f t="shared" si="6"/>
+      <c r="L65" s="15" t="str">
+        <f t="shared" si="10"/>
         <v xml:space="preserve">{ 'reg': 102, 'subtipo': 'bibliografias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VII. BIBLIOGRAFÍA', 'offset':1}, </v>
       </c>
-      <c r="K65" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="M65" s="2" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">{ 'reg': 102, 'subtipo': 'bibliografias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VII. BIBLIOGRAFÍA', 'offset':1}, </v>
       </c>
-      <c r="L65" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v>{'row': 37, 'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 102, 'subtipo': 'bibliografias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VII. BIBLIOGRAFÍA', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F70" s="16"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F71" s="16"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F72" s="16"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F73" s="16"/>
+      <c r="N65" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'row': 7, 'week': '',  'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 102, 'subtipo': 'bibliografias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VII. BIBLIOGRAFÍA', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="H70" s="16"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="H71" s="16"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="H72" s="16"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="H73" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F65"/>
-  <sortState ref="A2:K80">
-    <sortCondition ref="B2:B80"/>
-    <sortCondition ref="C2:C80"/>
+  <autoFilter ref="A1:H65"/>
+  <sortState ref="A2:M80">
+    <sortCondition ref="D2:D80"/>
+    <sortCondition ref="E2:E80"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4629,11 +4878,11 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/topdown.xlsx
+++ b/topdown.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.arashiro\proyectos\Code\syllabus5\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="170" yWindow="80" windowWidth="18900" windowHeight="7340" activeTab="3"/>
+    <workbookView xWindow="165" yWindow="75" windowWidth="18900" windowHeight="7335" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -15,15 +20,17 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">campos!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">datos!$A$1:$H$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">datos!$A$1:$I$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Hoja2!#REF!</definedName>
     <definedName name="_xlnm.Extract" localSheetId="1">campos!#REF!</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="4">Hoja2!$A$1</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="188">
   <si>
     <t>GENERALIDADES</t>
   </si>
@@ -433,15 +440,9 @@
     <t>col</t>
   </si>
   <si>
-    <t>rows</t>
-  </si>
-  <si>
     <t>cols</t>
   </si>
   <si>
-    <t>text</t>
-  </si>
-  <si>
     <t>100048</t>
   </si>
   <si>
@@ -578,6 +579,21 @@
   </si>
   <si>
     <t>examenes</t>
+  </si>
+  <si>
+    <t>codigo</t>
+  </si>
+  <si>
+    <t>nivel</t>
+  </si>
+  <si>
+    <t>nivel 1</t>
+  </si>
+  <si>
+    <t>nivel 2</t>
+  </si>
+  <si>
+    <t>nivel 3</t>
   </si>
 </sst>
 </file>
@@ -627,7 +643,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -685,6 +701,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -745,7 +762,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -780,7 +797,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -992,16 +1009,16 @@
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1009,177 +1026,177 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>18</v>
       </c>
@@ -1198,24 +1215,24 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.81640625" customWidth="1"/>
-    <col min="6" max="6" width="11.1796875" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -1331,14 +1348,14 @@
       <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -1346,7 +1363,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>35</v>
       </c>
@@ -1357,7 +1374,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>36</v>
       </c>
@@ -1368,7 +1385,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>37</v>
       </c>
@@ -1379,7 +1396,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>38</v>
       </c>
@@ -1390,7 +1407,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>39</v>
       </c>
@@ -1401,7 +1418,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>40</v>
       </c>
@@ -1412,7 +1429,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -1420,12 +1437,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -1433,32 +1450,32 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -1466,32 +1483,32 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -1499,12 +1516,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>59</v>
       </c>
@@ -1518,7 +1535,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -1536,7 +1553,7 @@
       <c r="I35" s="19"/>
       <c r="J35" s="19"/>
     </row>
-    <row r="36" spans="1:10" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="17" t="s">
         <v>65</v>
       </c>
@@ -1551,7 +1568,7 @@
       <c r="I36" s="20"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="17" t="s">
         <v>66</v>
       </c>
@@ -1561,7 +1578,7 @@
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
     </row>
-    <row r="38" spans="1:10" ht="57.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="17" t="s">
         <v>67</v>
       </c>
@@ -1571,7 +1588,7 @@
       <c r="F38" s="17"/>
       <c r="G38" s="17"/>
     </row>
-    <row r="39" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1579,7 +1596,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="45.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="17" t="s">
         <v>71</v>
       </c>
@@ -1596,7 +1613,7 @@
       <c r="I40" s="20"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3</v>
       </c>
@@ -1608,7 +1625,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="17" t="s">
         <v>75</v>
       </c>
@@ -1625,7 +1642,7 @@
       <c r="I42" s="17"/>
       <c r="J42" s="17"/>
     </row>
-    <row r="43" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="17" t="s">
         <v>76</v>
       </c>
@@ -1640,7 +1657,7 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>4</v>
       </c>
@@ -1656,7 +1673,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>80</v>
       </c>
@@ -1667,7 +1684,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>81</v>
       </c>
@@ -1678,7 +1695,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>82</v>
       </c>
@@ -1686,7 +1703,7 @@
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>83</v>
       </c>
@@ -1694,7 +1711,7 @@
       <c r="F48" s="17"/>
       <c r="G48" s="17"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>84</v>
       </c>
@@ -1702,7 +1719,7 @@
       <c r="F49" s="17"/>
       <c r="G49" s="17"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B50" s="18" t="s">
         <v>132</v>
       </c>
@@ -1714,7 +1731,7 @@
       <c r="H50" s="18"/>
       <c r="I50" s="18"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>5</v>
       </c>
@@ -1733,7 +1750,7 @@
       </c>
       <c r="I51" s="6"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>88</v>
       </c>
@@ -1744,7 +1761,7 @@
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
     </row>
-    <row r="53" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -1754,7 +1771,7 @@
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
     </row>
-    <row r="54" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -1764,7 +1781,7 @@
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
     </row>
-    <row r="55" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -1774,7 +1791,7 @@
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
     </row>
-    <row r="56" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -1784,7 +1801,7 @@
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -1794,7 +1811,7 @@
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -1804,7 +1821,7 @@
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -1814,7 +1831,7 @@
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>90</v>
       </c>
@@ -1822,37 +1839,37 @@
         <v>91</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>98</v>
       </c>
@@ -1860,38 +1877,38 @@
         <v>99</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>101</v>
       </c>
       <c r="D73" s="4"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>106</v>
       </c>
@@ -1899,7 +1916,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1</v>
       </c>
@@ -1907,22 +1924,22 @@
         <v>108</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2</v>
       </c>
@@ -1930,22 +1947,22 @@
         <v>133</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>3</v>
       </c>
@@ -1953,17 +1970,17 @@
         <v>115</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>118</v>
       </c>
@@ -1992,2878 +2009,2750 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N73"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:O73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.26953125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="4.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.453125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="4" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.1796875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="9" style="7" customWidth="1"/>
-    <col min="10" max="10" width="9" style="14" customWidth="1"/>
-    <col min="11" max="11" width="9" style="12" customWidth="1"/>
-    <col min="12" max="12" width="28.1796875" style="7" customWidth="1"/>
-    <col min="13" max="13" width="10.81640625" style="2"/>
-    <col min="14" max="14" width="10.81640625" style="10"/>
+    <col min="1" max="1" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="4" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="50.7109375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="9" style="7" customWidth="1"/>
+    <col min="11" max="11" width="9" style="14" customWidth="1"/>
+    <col min="12" max="12" width="9" style="12" customWidth="1"/>
+    <col min="13" max="13" width="28.140625" style="7" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" style="2"/>
+    <col min="15" max="15" width="10.85546875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="G1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J1" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D2" s="2">
+        <v>150</v>
+      </c>
+      <c r="E2" s="2">
         <v>0</v>
       </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
       <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
         <v>8</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="7">
-        <f t="shared" ref="I2:I33" si="0">IF(D1=D2,1,E2)</f>
-        <v>1</v>
-      </c>
-      <c r="J2" s="14">
+      <c r="J2" s="7">
+        <f t="shared" ref="J2:J33" si="0">IF(E1=E2,1,F2)</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="14">
         <v>11</v>
       </c>
-      <c r="L2" s="7" t="str">
-        <f t="shared" ref="L2:L33" si="1">+"{ '"&amp;J$1&amp;"': "&amp;J2&amp;", '"&amp;K$1&amp;"': '"&amp;K2&amp;"', '"&amp;E$1&amp;"': "&amp;E2&amp;", '"&amp;F$1&amp;"': "&amp;F2&amp;", '"&amp;G$1&amp;"': '"&amp;G2&amp;"', '"&amp;H$1&amp;"': '"&amp;H2&amp;"', '"&amp;I$1&amp;"':"&amp;I2&amp;"}, "</f>
+      <c r="M2" s="7" t="str">
+        <f t="shared" ref="M2:M33" si="1">+"{ '"&amp;K$1&amp;"': "&amp;K2&amp;", '"&amp;L$1&amp;"': '"&amp;L2&amp;"', '"&amp;F$1&amp;"': "&amp;F2&amp;", '"&amp;G$1&amp;"': "&amp;G2&amp;", '"&amp;H$1&amp;"': '"&amp;H2&amp;"', '"&amp;I$1&amp;"': '"&amp;I2&amp;"', '"&amp;J$1&amp;"':"&amp;J2&amp;"}, "</f>
         <v xml:space="preserve">{ 'reg': 11, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'CONTABILIDAD GERENCIAL', 'offset':1}, </v>
       </c>
-      <c r="M2" s="2" t="str">
-        <f t="shared" ref="M2:M33" si="2">IF(D1=D2,CONCATENATE(M1,L2),L2)</f>
+      <c r="N2" s="2" t="str">
+        <f t="shared" ref="N2:N33" si="2">IF(E1=E2,CONCATENATE(N1,M2),M2)</f>
         <v xml:space="preserve">{ 'reg': 11, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'CONTABILIDAD GERENCIAL', 'offset':1}, </v>
       </c>
-      <c r="N2" s="11" t="str">
-        <f>IF(D2=D3,"","{'"&amp;D$1&amp;"': "&amp;D2&amp;", '"&amp;B$1&amp;"': '"&amp;B2&amp;"',  'editing': false, 'tipo': '"&amp;A2&amp;"', 'data': "&amp;"["&amp;M2&amp;"],  },")</f>
+      <c r="O2" s="11" t="str">
+        <f>IF(E2=E3,"","{'"&amp;E$1&amp;"': "&amp;E2&amp;", '"&amp;B$1&amp;"': '"&amp;B2&amp;"',  'editing': false, 'tipo': '"&amp;A2&amp;"', 'data': "&amp;"["&amp;N2&amp;"],  },")</f>
         <v>{'row': 0, 'week': '',  'editing': false, 'tipo': 'titulo0', 'data': [{ 'reg': 11, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'CONTABILIDAD GERENCIAL', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C3" s="2">
-        <f>+D3*1000</f>
-        <v>1000</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
+        <v>149</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
         <v>8</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="I3" s="7">
+      <c r="I3" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="J3" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J3" s="14">
+      <c r="K3" s="14">
         <v>21</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="L3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="15" t="str">
+      <c r="M3" s="15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 21, 'subtipo': 'generales', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'I. DATOS GENERALES', 'offset':1}, </v>
       </c>
-      <c r="M3" s="2" t="str">
+      <c r="N3" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 21, 'subtipo': 'generales', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'I. DATOS GENERALES', 'offset':1}, </v>
       </c>
-      <c r="N3" s="11" t="str">
-        <f t="shared" ref="N3:N65" si="3">IF(D3=D4,"","{'"&amp;D$1&amp;"': "&amp;D3&amp;", '"&amp;B$1&amp;"': '"&amp;B3&amp;"',  'editing': false, 'tipo': '"&amp;A3&amp;"', 'data': "&amp;"["&amp;M3&amp;"],  },")</f>
+      <c r="O3" s="11" t="str">
+        <f t="shared" ref="O3:O65" si="3">IF(E3=E4,"","{'"&amp;E$1&amp;"': "&amp;E3&amp;", '"&amp;B$1&amp;"': '"&amp;B3&amp;"',  'editing': false, 'tipo': '"&amp;A3&amp;"', 'data': "&amp;"["&amp;N3&amp;"],  },")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="2">
-        <f>1000+D4*100</f>
-        <v>1100</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
       <c r="E4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2">
         <v>2</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="2">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="I4" s="7">
+      <c r="I4" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="J4" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J4" s="14">
+      <c r="K4" s="14">
         <v>35</v>
       </c>
-      <c r="L4" s="15" t="str">
+      <c r="M4" s="15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 35, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Código:', 'offset':1}, </v>
       </c>
-      <c r="M4" s="2" t="str">
+      <c r="N4" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 21, 'subtipo': 'generales', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'I. DATOS GENERALES', 'offset':1}, { 'reg': 35, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Código:', 'offset':1}, </v>
       </c>
-      <c r="N4" s="11" t="str">
+      <c r="O4" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="2">
-        <f t="shared" ref="C5:C15" si="4">1000+D5*100</f>
-        <v>1100</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
       <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
         <v>3</v>
       </c>
-      <c r="F5" s="2">
-        <v>2</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="2">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="I5" s="7">
+      <c r="I5" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="J5" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J5" s="14">
+      <c r="K5" s="14">
         <v>85</v>
       </c>
-      <c r="L5" s="15" t="str">
+      <c r="M5" s="15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 85, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '100048', 'offset':1}, </v>
       </c>
-      <c r="M5" s="2" t="str">
+      <c r="N5" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 21, 'subtipo': 'generales', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'I. DATOS GENERALES', 'offset':1}, { 'reg': 35, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Código:', 'offset':1}, { 'reg': 85, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '100048', 'offset':1}, </v>
       </c>
-      <c r="N5" s="11" t="str">
+      <c r="O5" s="11" t="str">
         <f t="shared" si="3"/>
         <v>{'row': 1, 'week': '',  'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 21, 'subtipo': 'generales', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'I. DATOS GENERALES', 'offset':1}, { 'reg': 35, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Código:', 'offset':1}, { 'reg': 85, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '100048', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="2">
-        <f t="shared" si="4"/>
-        <v>1200</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2</v>
-      </c>
       <c r="E6" s="2">
         <v>2</v>
       </c>
-      <c r="F6" s="8">
-        <v>2</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+      <c r="G6" s="8">
+        <v>2</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="I6" s="7">
+      <c r="I6" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="J6" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J6" s="14">
+      <c r="K6" s="14">
         <v>130</v>
       </c>
-      <c r="L6" s="15" t="str">
+      <c r="M6" s="15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 130, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Pre‐ Requisito :', 'offset':2}, </v>
       </c>
-      <c r="M6" s="2" t="str">
+      <c r="N6" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 130, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Pre‐ Requisito :', 'offset':2}, </v>
       </c>
-      <c r="N6" s="11" t="str">
+      <c r="O6" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="2">
-        <f t="shared" si="4"/>
-        <v>1200</v>
-      </c>
-      <c r="D7" s="2">
-        <v>2</v>
-      </c>
       <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2">
         <v>3</v>
       </c>
-      <c r="F7" s="2">
-        <v>2</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="2">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="I7" s="7">
+      <c r="I7" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="J7" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J7" s="14">
+      <c r="K7" s="14">
         <v>7</v>
       </c>
-      <c r="L7" s="15" t="str">
+      <c r="M7" s="15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 7, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'Contabilidad General', 'offset':1}, </v>
       </c>
-      <c r="M7" s="2" t="str">
+      <c r="N7" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 130, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Pre‐ Requisito :', 'offset':2}, { 'reg': 7, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'Contabilidad General', 'offset':1}, </v>
       </c>
-      <c r="N7" s="11" t="str">
+      <c r="O7" s="11" t="str">
         <f t="shared" si="3"/>
         <v>{'row': 2, 'week': '',  'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 130, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Pre‐ Requisito :', 'offset':2}, { 'reg': 7, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'Contabilidad General', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="2">
-        <f t="shared" si="4"/>
-        <v>1300</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>3</v>
       </c>
-      <c r="E8" s="2">
-        <v>2</v>
-      </c>
       <c r="F8" s="2">
         <v>2</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="2">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="I8" s="7">
+      <c r="I8" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J8" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J8" s="14">
+      <c r="K8" s="14">
         <v>109</v>
       </c>
-      <c r="L8" s="15" t="str">
+      <c r="M8" s="15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 109, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Créditos : ', 'offset':2}, </v>
       </c>
-      <c r="M8" s="2" t="str">
+      <c r="N8" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 109, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Créditos : ', 'offset':2}, </v>
       </c>
-      <c r="N8" s="11" t="str">
+      <c r="O8" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="2">
-        <f t="shared" si="4"/>
-        <v>1300</v>
-      </c>
-      <c r="D9" s="2">
-        <v>3</v>
-      </c>
       <c r="E9" s="2">
         <v>3</v>
       </c>
       <c r="F9" s="2">
-        <v>2</v>
-      </c>
-      <c r="G9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="I9" s="7">
+      <c r="I9" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="J9" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J9" s="14">
+      <c r="K9" s="14">
         <v>13</v>
       </c>
-      <c r="L9" s="15" t="str">
+      <c r="M9" s="15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 13, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '03', 'offset':1}, </v>
       </c>
-      <c r="M9" s="2" t="str">
+      <c r="N9" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 109, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Créditos : ', 'offset':2}, { 'reg': 13, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '03', 'offset':1}, </v>
       </c>
-      <c r="N9" s="11" t="str">
+      <c r="O9" s="11" t="str">
         <f t="shared" si="3"/>
         <v>{'row': 3, 'week': '',  'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 109, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Créditos : ', 'offset':2}, { 'reg': 13, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '03', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="2">
-        <f t="shared" si="4"/>
-        <v>1400</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
         <v>4</v>
       </c>
-      <c r="E10" s="2">
-        <v>2</v>
-      </c>
       <c r="F10" s="2">
         <v>2</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="2">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="I10" s="7">
+      <c r="I10" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="J10" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J10" s="14">
+      <c r="K10" s="14">
         <v>128</v>
       </c>
-      <c r="L10" s="15" t="str">
+      <c r="M10" s="15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 128, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Horas :', 'offset':2}, </v>
       </c>
-      <c r="M10" s="2" t="str">
+      <c r="N10" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 128, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Horas :', 'offset':2}, </v>
       </c>
-      <c r="N10" s="11" t="str">
+      <c r="O10" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="2">
-        <f t="shared" si="4"/>
-        <v>1400</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="E11" s="2">
         <v>4</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
         <v>3</v>
       </c>
-      <c r="F11" s="2">
-        <v>2</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="2">
+        <v>2</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="I11" s="7">
+      <c r="I11" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="J11" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J11" s="14">
+      <c r="K11" s="14">
         <v>91</v>
       </c>
-      <c r="L11" s="15" t="str">
+      <c r="M11" s="15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 91, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '04 horas', 'offset':1}, </v>
       </c>
-      <c r="M11" s="2" t="str">
+      <c r="N11" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 128, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Horas :', 'offset':2}, { 'reg': 91, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '04 horas', 'offset':1}, </v>
       </c>
-      <c r="N11" s="11" t="str">
+      <c r="O11" s="11" t="str">
         <f t="shared" si="3"/>
         <v>{'row': 4, 'week': '',  'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 128, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Horas :', 'offset':2}, { 'reg': 91, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '04 horas', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="2">
-        <f t="shared" si="4"/>
-        <v>1500</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="E12" s="2">
         <v>5</v>
       </c>
-      <c r="E12" s="2">
-        <v>2</v>
-      </c>
       <c r="F12" s="2">
         <v>2</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="2">
+        <v>2</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="I12" s="7">
+      <c r="I12" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="J12" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J12" s="14">
+      <c r="K12" s="14">
         <v>24</v>
       </c>
-      <c r="L12" s="15" t="str">
+      <c r="M12" s="15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 24, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Semestre académico : ', 'offset':2}, </v>
       </c>
-      <c r="M12" s="2" t="str">
+      <c r="N12" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 24, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Semestre académico : ', 'offset':2}, </v>
       </c>
-      <c r="N12" s="11" t="str">
+      <c r="O12" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="2">
-        <f t="shared" si="4"/>
-        <v>1500</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="E13" s="2">
         <v>5</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <v>3</v>
       </c>
-      <c r="F13" s="2">
-        <v>2</v>
-      </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="2">
+        <v>2</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="I13" s="7">
+      <c r="I13" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J13" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J13" s="14">
+      <c r="K13" s="14">
         <v>86</v>
       </c>
-      <c r="L13" s="15" t="str">
+      <c r="M13" s="15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 86, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '2017‐ I', 'offset':1}, </v>
       </c>
-      <c r="M13" s="2" t="str">
+      <c r="N13" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 24, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Semestre académico : ', 'offset':2}, { 'reg': 86, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '2017‐ I', 'offset':1}, </v>
       </c>
-      <c r="N13" s="11" t="str">
+      <c r="O13" s="11" t="str">
         <f t="shared" si="3"/>
         <v>{'row': 5, 'week': '',  'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 24, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Semestre académico : ', 'offset':2}, { 'reg': 86, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '2017‐ I', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="2">
-        <f t="shared" si="4"/>
-        <v>1600</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="E14" s="2">
         <v>6</v>
       </c>
-      <c r="E14" s="2">
-        <v>2</v>
-      </c>
       <c r="F14" s="2">
         <v>2</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="2">
+        <v>2</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="I14" s="7">
+      <c r="I14" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="J14" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J14" s="14">
+      <c r="K14" s="14">
         <v>81</v>
       </c>
-      <c r="L14" s="15" t="str">
+      <c r="M14" s="15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Ciclo :', 'offset':2}, </v>
       </c>
-      <c r="M14" s="2" t="str">
+      <c r="N14" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Ciclo :', 'offset':2}, </v>
       </c>
-      <c r="N14" s="11" t="str">
+      <c r="O14" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="2">
-        <f t="shared" si="4"/>
-        <v>1600</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="E15" s="2">
         <v>6</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F15" s="2">
         <v>3</v>
       </c>
-      <c r="F15" s="2">
-        <v>2</v>
-      </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="2">
+        <v>2</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="I15" s="7">
+      <c r="I15" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="J15" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J15" s="14">
+      <c r="K15" s="14">
         <v>103</v>
       </c>
-      <c r="L15" s="15" t="str">
+      <c r="M15" s="15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 103, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'III', 'offset':1}, </v>
       </c>
-      <c r="M15" s="2" t="str">
+      <c r="N15" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Ciclo :', 'offset':2}, { 'reg': 103, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'III', 'offset':1}, </v>
       </c>
-      <c r="N15" s="11" t="str">
+      <c r="O15" s="11" t="str">
         <f t="shared" si="3"/>
         <v>{'row': 6, 'week': '',  'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Ciclo :', 'offset':2}, { 'reg': 103, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'III', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>8</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="J16" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K16" s="14">
+        <v>45</v>
+      </c>
+      <c r="L16" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C16" s="2">
-        <f>+D16*1000</f>
-        <v>2000</v>
-      </c>
-      <c r="D16" s="2">
-        <v>2</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2">
-        <v>8</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="I16" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J16" s="14">
-        <v>45</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="L16" s="15" t="str">
+      <c r="M16" s="15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 45, 'subtipo': 'sumillas', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'II. SUMILLA', 'offset':1}, </v>
       </c>
-      <c r="M16" s="2" t="str">
+      <c r="N16" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 45, 'subtipo': 'sumillas', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'II. SUMILLA', 'offset':1}, </v>
       </c>
-      <c r="N16" s="11" t="str">
+      <c r="O16" s="11" t="str">
         <f t="shared" si="3"/>
         <v>{'row': 2, 'week': '',  'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 45, 'subtipo': 'sumillas', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'II. SUMILLA', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C17" s="2">
-        <f>2000+D17*100</f>
-        <v>2100</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1</v>
+        <v>151</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
       </c>
       <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
         <v>8</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I17" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I17" s="7">
+      <c r="J17" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J17" s="14">
+      <c r="K17" s="14">
         <v>36</v>
       </c>
-      <c r="L17" s="15" t="str">
+      <c r="M17" s="15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 36, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'justify', 'texto': 'El curso tiene como propósito integrar las teorías, las técnicas y las herramientas adquiridas en las materias de contabilidad general y administración que le permita llegar al alumno a desarrollar las habilidades de análisis, integración de la información para la construcción de propuestas y soluciones que llevan al logro de los objetivos de la organización. Se pondrá énfasis en el análisis financiero de los estados financieros y su relación con los costos empresariales.', 'offset':1}, </v>
       </c>
-      <c r="M17" s="2" t="str">
+      <c r="N17" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 36, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'justify', 'texto': 'El curso tiene como propósito integrar las teorías, las técnicas y las herramientas adquiridas en las materias de contabilidad general y administración que le permita llegar al alumno a desarrollar las habilidades de análisis, integración de la información para la construcción de propuestas y soluciones que llevan al logro de los objetivos de la organización. Se pondrá énfasis en el análisis financiero de los estados financieros y su relación con los costos empresariales.', 'offset':1}, </v>
       </c>
-      <c r="N17" s="11" t="str">
+      <c r="O17" s="11" t="str">
         <f t="shared" si="3"/>
         <v>{'row': 1, 'week': '',  'editing': false, 'tipo': 'sumillas', 'data': [{ 'reg': 36, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'justify', 'texto': 'El curso tiene como propósito integrar las teorías, las técnicas y las herramientas adquiridas en las materias de contabilidad general y administración que le permita llegar al alumno a desarrollar las habilidades de análisis, integración de la información para la construcción de propuestas y soluciones que llevan al logro de los objetivos de la organización. Se pondrá énfasis en el análisis financiero de los estados financieros y su relación con los costos empresariales.', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C18" s="2">
-        <f>+D18*1000</f>
-        <v>3000</v>
-      </c>
-      <c r="D18" s="2">
+        <v>149</v>
+      </c>
+      <c r="E18" s="2">
         <v>3</v>
       </c>
-      <c r="E18" s="2">
-        <v>1</v>
-      </c>
       <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
         <v>8</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H18" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="I18" s="7">
+      <c r="I18" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="J18" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J18" s="14">
+      <c r="K18" s="14">
         <v>82</v>
       </c>
-      <c r="K18" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="L18" s="15" t="str">
+      <c r="L18" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="M18" s="15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 82, 'subtipo': 'competencias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'III. SISTEMA DE COMPETENCIAS', 'offset':1}, </v>
       </c>
-      <c r="M18" s="2" t="str">
+      <c r="N18" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 82, 'subtipo': 'competencias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'III. SISTEMA DE COMPETENCIAS', 'offset':1}, </v>
       </c>
-      <c r="N18" s="11" t="str">
+      <c r="O18" s="11" t="str">
         <f t="shared" si="3"/>
         <v>{'row': 3, 'week': '',  'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 82, 'subtipo': 'competencias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'III. SISTEMA DE COMPETENCIAS', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C19" s="2">
-        <f>3000+D19*100</f>
-        <v>3100</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1</v>
+        <v>154</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
       </c>
       <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
         <v>8</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="I19" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="I19" s="7">
+      <c r="J19" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J19" s="14">
+      <c r="K19" s="14">
         <v>37</v>
       </c>
-      <c r="L19" s="15" t="str">
+      <c r="M19" s="15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 37, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS GENERALES', 'offset':1}, </v>
       </c>
-      <c r="M19" s="2" t="str">
+      <c r="N19" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 37, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS GENERALES', 'offset':1}, </v>
       </c>
-      <c r="N19" s="11" t="str">
+      <c r="O19" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C20" s="2">
-        <f>3100+D20</f>
-        <v>3101</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E20" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" s="2">
+        <v>2</v>
+      </c>
+      <c r="G20" s="2">
         <v>7</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I20" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I20" s="7">
+      <c r="J20" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J20" s="14">
+      <c r="K20" s="14">
         <v>10</v>
       </c>
-      <c r="L20" s="15" t="str">
+      <c r="M20" s="15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 10, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Comprende el papel de la información contable en los Negocios. Relación entre la contabilidad y la Administración y la toma de decisiones.', 'offset':1}, </v>
       </c>
-      <c r="M20" s="2" t="str">
+      <c r="N20" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 37, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS GENERALES', 'offset':1}, { 'reg': 10, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Comprende el papel de la información contable en los Negocios. Relación entre la contabilidad y la Administración y la toma de decisiones.', 'offset':1}, </v>
       </c>
-      <c r="N20" s="11" t="str">
+      <c r="O20" s="11" t="str">
         <f t="shared" si="3"/>
         <v>{'row': 1, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 37, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS GENERALES', 'offset':1}, { 'reg': 10, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Comprende el papel de la información contable en los Negocios. Relación entre la contabilidad y la Administración y la toma de decisiones.', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C21" s="2">
-        <f t="shared" ref="C21:C30" si="5">3100+D21</f>
-        <v>3102</v>
-      </c>
-      <c r="D21" s="2">
-        <f>+D20+1</f>
-        <v>2</v>
+        <v>153</v>
       </c>
       <c r="E21" s="2">
+        <f>+E20+1</f>
         <v>2</v>
       </c>
       <c r="F21" s="2">
+        <v>2</v>
+      </c>
+      <c r="G21" s="2">
         <v>7</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I21" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I21" s="7">
+      <c r="J21" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J21" s="14">
+      <c r="K21" s="14">
         <v>13</v>
       </c>
-      <c r="L21" s="15" t="str">
+      <c r="M21" s="15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 13, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce y ejecuta los Estados Financieros de una empresa comercial, industrial y de servicios.', 'offset':2}, </v>
       </c>
-      <c r="M21" s="2" t="str">
+      <c r="N21" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 13, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce y ejecuta los Estados Financieros de una empresa comercial, industrial y de servicios.', 'offset':2}, </v>
       </c>
-      <c r="N21" s="11" t="str">
+      <c r="O21" s="11" t="str">
         <f t="shared" si="3"/>
         <v>{'row': 2, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 13, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce y ejecuta los Estados Financieros de una empresa comercial, industrial y de servicios.', 'offset':2}, ],  },</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C22" s="2">
-        <f t="shared" si="5"/>
-        <v>3103</v>
-      </c>
-      <c r="D22" s="2">
-        <f t="shared" ref="D22:D24" si="6">+D21+1</f>
+        <v>153</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" ref="E22:E24" si="4">+E21+1</f>
         <v>3</v>
       </c>
-      <c r="E22" s="2">
-        <v>2</v>
-      </c>
       <c r="F22" s="2">
+        <v>2</v>
+      </c>
+      <c r="G22" s="2">
         <v>7</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I22" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="I22" s="7">
+      <c r="J22" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J22" s="14">
+      <c r="K22" s="14">
         <v>81</v>
       </c>
-      <c r="L22" s="15" t="str">
+      <c r="M22" s="15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Toma de decisiones, en base a un análisis financiero, dentro de las funciones de operación, inversión y financiamiento y análisis de los costos.', 'offset':2}, </v>
       </c>
-      <c r="M22" s="2" t="str">
+      <c r="N22" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Toma de decisiones, en base a un análisis financiero, dentro de las funciones de operación, inversión y financiamiento y análisis de los costos.', 'offset':2}, </v>
       </c>
-      <c r="N22" s="11" t="str">
+      <c r="O22" s="11" t="str">
         <f t="shared" si="3"/>
         <v>{'row': 3, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Toma de decisiones, en base a un análisis financiero, dentro de las funciones de operación, inversión y financiamiento y análisis de los costos.', 'offset':2}, ],  },</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C23" s="2">
-        <f t="shared" si="5"/>
-        <v>3104</v>
-      </c>
-      <c r="D23" s="2">
-        <f t="shared" si="6"/>
+        <v>153</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="E23" s="2">
-        <v>2</v>
-      </c>
       <c r="F23" s="2">
+        <v>2</v>
+      </c>
+      <c r="G23" s="2">
         <v>7</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I23" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I23" s="7">
+      <c r="J23" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J23" s="14">
+      <c r="K23" s="14">
         <v>41</v>
       </c>
-      <c r="L23" s="15" t="str">
+      <c r="M23" s="15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 41, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Planifica la gestión de la empresa a futuro.', 'offset':2}, </v>
       </c>
-      <c r="M23" s="2" t="str">
+      <c r="N23" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 41, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Planifica la gestión de la empresa a futuro.', 'offset':2}, </v>
       </c>
-      <c r="N23" s="11" t="str">
+      <c r="O23" s="11" t="str">
         <f t="shared" si="3"/>
         <v>{'row': 4, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 41, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Planifica la gestión de la empresa a futuro.', 'offset':2}, ],  },</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C24" s="2">
-        <f t="shared" si="5"/>
-        <v>3105</v>
-      </c>
-      <c r="D24" s="2">
-        <f t="shared" si="6"/>
+        <v>153</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="E24" s="2">
-        <v>2</v>
-      </c>
       <c r="F24" s="2">
+        <v>2</v>
+      </c>
+      <c r="G24" s="2">
         <v>7</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I24" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="I24" s="7">
+      <c r="J24" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J24" s="14">
+      <c r="K24" s="14">
         <v>77</v>
       </c>
-      <c r="L24" s="15" t="str">
+      <c r="M24" s="15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 77, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Capacidad de trabajo en equipo.', 'offset':2}, </v>
       </c>
-      <c r="M24" s="2" t="str">
+      <c r="N24" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 77, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Capacidad de trabajo en equipo.', 'offset':2}, </v>
       </c>
-      <c r="N24" s="11" t="str">
+      <c r="O24" s="11" t="str">
         <f t="shared" si="3"/>
         <v>{'row': 5, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 77, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Capacidad de trabajo en equipo.', 'offset':2}, ],  },</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C25" s="2">
-        <f>3000+D25*100</f>
-        <v>3200</v>
-      </c>
-      <c r="D25" s="2">
-        <v>2</v>
+        <v>154</v>
       </c>
       <c r="E25" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" s="2">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2">
         <v>8</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="I25" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I25" s="7">
+      <c r="J25" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J25" s="14">
+      <c r="K25" s="14">
         <v>9</v>
       </c>
-      <c r="L25" s="15" t="str">
+      <c r="M25" s="15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 9, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS ESPECÍFICAS', 'offset':1}, </v>
       </c>
-      <c r="M25" s="2" t="str">
+      <c r="N25" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 9, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS ESPECÍFICAS', 'offset':1}, </v>
       </c>
-      <c r="N25" s="11" t="str">
+      <c r="O25" s="11" t="str">
         <f t="shared" si="3"/>
         <v>{'row': 2, 'week': '',  'editing': false, 'tipo': 'titulo2', 'data': [{ 'reg': 9, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS ESPECÍFICAS', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C26" s="2">
-        <f t="shared" si="5"/>
-        <v>3101</v>
-      </c>
-      <c r="D26" s="2">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E26" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26" s="2">
+        <v>2</v>
+      </c>
+      <c r="G26" s="2">
         <v>7</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I26" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I26" s="7">
+      <c r="J26" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J26" s="14">
+      <c r="K26" s="14">
         <v>84</v>
       </c>
-      <c r="L26" s="15" t="str">
+      <c r="M26" s="15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 84, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce, Analiza y describe las diferentes empresas que se desarrollan en nuestro país y la importancia que tiene en ellas la contabilidad gerencia, desde la óptica de los estados financieros: Estado de Situación Financiera y Estado de Resultados.', 'offset':2}, </v>
       </c>
-      <c r="M26" s="2" t="str">
+      <c r="N26" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 84, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce, Analiza y describe las diferentes empresas que se desarrollan en nuestro país y la importancia que tiene en ellas la contabilidad gerencia, desde la óptica de los estados financieros: Estado de Situación Financiera y Estado de Resultados.', 'offset':2}, </v>
       </c>
-      <c r="N26" s="11" t="str">
+      <c r="O26" s="11" t="str">
         <f t="shared" si="3"/>
         <v>{'row': 1, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 84, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce, Analiza y describe las diferentes empresas que se desarrollan en nuestro país y la importancia que tiene en ellas la contabilidad gerencia, desde la óptica de los estados financieros: Estado de Situación Financiera y Estado de Resultados.', 'offset':2}, ],  },</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C27" s="2">
-        <f t="shared" si="5"/>
-        <v>3102</v>
-      </c>
-      <c r="D27" s="2">
-        <f>+D26+1</f>
-        <v>2</v>
+        <v>153</v>
       </c>
       <c r="E27" s="2">
+        <f>+E26+1</f>
         <v>2</v>
       </c>
       <c r="F27" s="2">
+        <v>2</v>
+      </c>
+      <c r="G27" s="2">
         <v>7</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="I27" s="7">
+      <c r="H27" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="J27" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J27" s="14">
+      <c r="K27" s="14">
         <v>32</v>
       </c>
-      <c r="L27" s="15" t="str">
+      <c r="M27" s="15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 32, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Analiza y diagnostica los Estados financieros básicos de diferentes empresas, mediante el análisis vertical y horizontal así como los ratios financieros. ', 'offset':2}, </v>
       </c>
-      <c r="M27" s="2" t="str">
+      <c r="N27" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 32, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Analiza y diagnostica los Estados financieros básicos de diferentes empresas, mediante el análisis vertical y horizontal así como los ratios financieros. ', 'offset':2}, </v>
       </c>
-      <c r="N27" s="11" t="str">
+      <c r="O27" s="11" t="str">
         <f t="shared" si="3"/>
         <v>{'row': 2, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 32, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Analiza y diagnostica los Estados financieros básicos de diferentes empresas, mediante el análisis vertical y horizontal así como los ratios financieros. ', 'offset':2}, ],  },</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C28" s="2">
-        <f t="shared" si="5"/>
-        <v>3103</v>
-      </c>
-      <c r="D28" s="2">
-        <f t="shared" ref="D28:D30" si="7">+D27+1</f>
+        <v>153</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" ref="E28:E30" si="5">+E27+1</f>
         <v>3</v>
       </c>
-      <c r="E28" s="2">
-        <v>2</v>
-      </c>
       <c r="F28" s="2">
+        <v>2</v>
+      </c>
+      <c r="G28" s="2">
         <v>7</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="H28" s="7" t="s">
+      <c r="H28" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I28" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I28" s="7">
+      <c r="J28" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J28" s="14">
+      <c r="K28" s="14">
         <v>111</v>
       </c>
-      <c r="L28" s="15" t="str">
+      <c r="M28" s="15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 111, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Desarrolla un plan financiero para una empresa: Presupuesto de ventas, Presupuesto de cobranzas, presupuesto de producción, presupuesto de compras, presupuesto de pagos, presupuesto de pagos, presupuesto de gastos, entre otros.', 'offset':2}, </v>
       </c>
-      <c r="M28" s="2" t="str">
+      <c r="N28" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 111, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Desarrolla un plan financiero para una empresa: Presupuesto de ventas, Presupuesto de cobranzas, presupuesto de producción, presupuesto de compras, presupuesto de pagos, presupuesto de pagos, presupuesto de gastos, entre otros.', 'offset':2}, </v>
       </c>
-      <c r="N28" s="11" t="str">
+      <c r="O28" s="11" t="str">
         <f t="shared" si="3"/>
         <v>{'row': 3, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 111, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Desarrolla un plan financiero para una empresa: Presupuesto de ventas, Presupuesto de cobranzas, presupuesto de producción, presupuesto de compras, presupuesto de pagos, presupuesto de pagos, presupuesto de gastos, entre otros.', 'offset':2}, ],  },</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C29" s="2">
+        <v>153</v>
+      </c>
+      <c r="E29" s="2">
         <f t="shared" si="5"/>
-        <v>3104</v>
-      </c>
-      <c r="D29" s="2">
-        <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="E29" s="2">
-        <v>2</v>
-      </c>
       <c r="F29" s="2">
+        <v>2</v>
+      </c>
+      <c r="G29" s="2">
         <v>7</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="H29" s="7" t="s">
+      <c r="H29" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I29" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I29" s="7">
+      <c r="J29" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J29" s="14">
+      <c r="K29" s="14">
         <v>28</v>
       </c>
-      <c r="L29" s="15" t="str">
+      <c r="M29" s="15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 28, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Estudia la importancia de la estructura de costos de una empresa y su implicancia en la planificación financiera.', 'offset':2}, </v>
       </c>
-      <c r="M29" s="2" t="str">
+      <c r="N29" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 28, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Estudia la importancia de la estructura de costos de una empresa y su implicancia en la planificación financiera.', 'offset':2}, </v>
       </c>
-      <c r="N29" s="11" t="str">
+      <c r="O29" s="11" t="str">
         <f t="shared" si="3"/>
         <v>{'row': 4, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 28, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Estudia la importancia de la estructura de costos de una empresa y su implicancia en la planificación financiera.', 'offset':2}, ],  },</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C30" s="2">
+        <v>153</v>
+      </c>
+      <c r="E30" s="2">
         <f t="shared" si="5"/>
-        <v>3105</v>
-      </c>
-      <c r="D30" s="2">
-        <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="E30" s="2">
-        <v>2</v>
-      </c>
       <c r="F30" s="2">
+        <v>2</v>
+      </c>
+      <c r="G30" s="2">
         <v>7</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I30" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="I30" s="7">
+      <c r="J30" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J30" s="14">
+      <c r="K30" s="14">
         <v>27</v>
       </c>
-      <c r="L30" s="15" t="str">
+      <c r="M30" s="15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 27, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Elabora estados financieros proyectados, para diagnosticar el futuro de la empresa.', 'offset':2}, </v>
       </c>
-      <c r="M30" s="2" t="str">
+      <c r="N30" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 27, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Elabora estados financieros proyectados, para diagnosticar el futuro de la empresa.', 'offset':2}, </v>
       </c>
-      <c r="N30" s="11" t="str">
+      <c r="O30" s="11" t="str">
         <f t="shared" si="3"/>
         <v>{'row': 5, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 27, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Elabora estados financieros proyectados, para diagnosticar el futuro de la empresa.', 'offset':2}, ],  },</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C31" s="2">
-        <f>+D31*1000</f>
-        <v>4000</v>
-      </c>
-      <c r="D31" s="2">
+        <v>149</v>
+      </c>
+      <c r="E31" s="2">
         <v>4</v>
       </c>
-      <c r="E31" s="2">
-        <v>1</v>
-      </c>
       <c r="F31" s="2">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2">
         <v>8</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H31" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="I31" s="7">
+      <c r="I31" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="J31" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J31" s="14">
+      <c r="K31" s="14">
         <v>126</v>
       </c>
-      <c r="K31" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="L31" s="15" t="str">
+      <c r="L31" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="M31" s="15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 126, 'subtipo': 'contenidos', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'IV. PROGRAMACIÓN DE CONTENIDOS', 'offset':1}, </v>
       </c>
-      <c r="M31" s="2" t="str">
+      <c r="N31" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 126, 'subtipo': 'contenidos', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'IV. PROGRAMACIÓN DE CONTENIDOS', 'offset':1}, </v>
       </c>
-      <c r="N31" s="11" t="str">
+      <c r="O31" s="11" t="str">
         <f t="shared" si="3"/>
         <v>{'row': 4, 'week': '',  'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 126, 'subtipo': 'contenidos', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'IV. PROGRAMACIÓN DE CONTENIDOS', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B32" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C32" s="2">
-        <f>4000+D32*100</f>
-        <v>4100</v>
-      </c>
-      <c r="D32" s="2">
         <v>1</v>
       </c>
       <c r="E32" s="2">
         <v>1</v>
       </c>
       <c r="F32" s="2">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2">
         <v>8</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="I32" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="I32" s="7">
+      <c r="J32" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J32" s="14">
+      <c r="K32" s="14">
         <v>22</v>
       </c>
-      <c r="L32" s="15" t="str">
+      <c r="M32" s="15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 22, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD I: LA CONTABILIDAD GERENCIAL.', 'offset':1}, </v>
       </c>
-      <c r="M32" s="2" t="str">
+      <c r="N32" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 22, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD I: LA CONTABILIDAD GERENCIAL.', 'offset':1}, </v>
       </c>
-      <c r="N32" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'row': 1, 'week': '1.1',  'editing': false, 'tipo': 'unidades', 'data': [{ 'reg': 22, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD I: LA CONTABILIDAD GERENCIAL.', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O32" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'row': 1, 'week': '1',  'editing': false, 'tipo': 'unidades', 'data': [{ 'reg': 22, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD I: LA CONTABILIDAD GERENCIAL.', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B33" s="2">
         <v>1.3</v>
       </c>
-      <c r="D33" s="2">
-        <f t="shared" ref="D21:D33" si="8">+D32+1</f>
-        <v>2</v>
-      </c>
       <c r="E33" s="2">
-        <v>1</v>
+        <f t="shared" ref="E33" si="6">+E32+1</f>
+        <v>2</v>
       </c>
       <c r="F33" s="2">
         <v>1</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G33" s="2">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="I33" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="I33" s="7">
+      <c r="J33" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J33" s="14">
+      <c r="K33" s="14">
         <v>35</v>
       </c>
-      <c r="L33" s="15" t="str">
+      <c r="M33" s="15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, </v>
       </c>
-      <c r="M33" s="2" t="str">
+      <c r="N33" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, </v>
       </c>
-      <c r="N33" s="11" t="str">
+      <c r="O33" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B34" s="2">
         <v>1.3</v>
       </c>
-      <c r="D34" s="2">
-        <f>+D33</f>
-        <v>2</v>
-      </c>
       <c r="E34" s="2">
+        <f>+E33</f>
         <v>2</v>
       </c>
       <c r="F34" s="2">
+        <v>2</v>
+      </c>
+      <c r="G34" s="2">
         <v>3</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="I34" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="I34" s="7">
-        <f t="shared" ref="I34:I65" si="9">IF(D33=D34,1,E34)</f>
-        <v>1</v>
-      </c>
-      <c r="J34" s="14">
+      <c r="J34" s="7">
+        <f t="shared" ref="J34:J65" si="7">IF(E33=E34,1,F34)</f>
+        <v>1</v>
+      </c>
+      <c r="K34" s="14">
         <v>48</v>
       </c>
-      <c r="L34" s="15" t="str">
-        <f t="shared" ref="L34:L65" si="10">+"{ '"&amp;J$1&amp;"': "&amp;J34&amp;", '"&amp;K$1&amp;"': '"&amp;K34&amp;"', '"&amp;E$1&amp;"': "&amp;E34&amp;", '"&amp;F$1&amp;"': "&amp;F34&amp;", '"&amp;G$1&amp;"': '"&amp;G34&amp;"', '"&amp;H$1&amp;"': '"&amp;H34&amp;"', '"&amp;I$1&amp;"':"&amp;I34&amp;"}, "</f>
+      <c r="M34" s="15" t="str">
+        <f t="shared" ref="M34:M65" si="8">+"{ '"&amp;K$1&amp;"': "&amp;K34&amp;", '"&amp;L$1&amp;"': '"&amp;L34&amp;"', '"&amp;F$1&amp;"': "&amp;F34&amp;", '"&amp;G$1&amp;"': "&amp;G34&amp;", '"&amp;H$1&amp;"': '"&amp;H34&amp;"', '"&amp;I$1&amp;"': '"&amp;I34&amp;"', '"&amp;J$1&amp;"':"&amp;J34&amp;"}, "</f>
         <v xml:space="preserve">{ 'reg': 48, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, </v>
       </c>
-      <c r="M34" s="2" t="str">
-        <f t="shared" ref="M34:M65" si="11">IF(D33=D34,CONCATENATE(M33,L34),L34)</f>
+      <c r="N34" s="2" t="str">
+        <f t="shared" ref="N34:N65" si="9">IF(E33=E34,CONCATENATE(N33,M34),M34)</f>
         <v xml:space="preserve">{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 48, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, </v>
       </c>
-      <c r="N34" s="11" t="str">
+      <c r="O34" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B35" s="2">
         <v>1.3</v>
       </c>
-      <c r="D35" s="2">
-        <f>+D34</f>
-        <v>2</v>
-      </c>
       <c r="E35" s="2">
+        <f>+E34</f>
+        <v>2</v>
+      </c>
+      <c r="F35" s="2">
         <v>4</v>
       </c>
-      <c r="F35" s="2">
-        <v>2</v>
-      </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="2">
+        <v>2</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="I35" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I35" s="7">
+      <c r="J35" s="7">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K35" s="14">
+        <v>14</v>
+      </c>
+      <c r="M35" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">{ 'reg': 14, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, </v>
+      </c>
+      <c r="N35" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="J35" s="14">
-        <v>14</v>
-      </c>
-      <c r="L35" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">{ 'reg': 14, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, </v>
-      </c>
-      <c r="M35" s="2" t="str">
-        <f t="shared" si="11"/>
         <v xml:space="preserve">{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 48, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'reg': 14, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, </v>
       </c>
-      <c r="N35" s="11" t="str">
+      <c r="O35" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B36" s="2">
         <v>1.3</v>
       </c>
-      <c r="D36" s="2">
-        <f>+D35</f>
-        <v>2</v>
-      </c>
       <c r="E36" s="2">
+        <f>+E35</f>
+        <v>2</v>
+      </c>
+      <c r="F36" s="2">
         <v>6</v>
       </c>
-      <c r="F36" s="2">
-        <v>2</v>
-      </c>
-      <c r="G36" s="2" t="s">
+      <c r="G36" s="2">
+        <v>2</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="I36" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="I36" s="7">
+      <c r="J36" s="7">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K36" s="14">
+        <v>25</v>
+      </c>
+      <c r="M36" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">{ 'reg': 25, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1}, </v>
+      </c>
+      <c r="N36" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="J36" s="14">
-        <v>25</v>
-      </c>
-      <c r="L36" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">{ 'reg': 25, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1}, </v>
-      </c>
-      <c r="M36" s="2" t="str">
-        <f t="shared" si="11"/>
         <v xml:space="preserve">{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 48, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'reg': 14, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, { 'reg': 25, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1}, </v>
       </c>
-      <c r="N36" s="11" t="str">
+      <c r="O36" s="11" t="str">
         <f t="shared" si="3"/>
         <v>{'row': 2, 'week': '1.3',  'editing': false, 'tipo': 'titulo3', 'data': [{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 48, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'reg': 14, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, { 'reg': 25, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B37" s="2">
         <v>1.5</v>
       </c>
-      <c r="C37" s="2">
-        <f>4100+D37</f>
-        <v>4101</v>
-      </c>
-      <c r="D37" s="2">
-        <v>1</v>
-      </c>
       <c r="E37" s="2">
         <v>1</v>
       </c>
       <c r="F37" s="2">
         <v>1</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G37" s="2">
+        <v>1</v>
+      </c>
+      <c r="H37" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H37" s="7">
-        <v>1</v>
-      </c>
       <c r="I37" s="7">
+        <v>1</v>
+      </c>
+      <c r="J37" s="7">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K37" s="14">
+        <v>99</v>
+      </c>
+      <c r="M37" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, </v>
+      </c>
+      <c r="N37" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="J37" s="14">
-        <v>99</v>
-      </c>
-      <c r="L37" s="15" t="str">
-        <f t="shared" si="10"/>
         <v xml:space="preserve">{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, </v>
       </c>
-      <c r="M37" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, </v>
-      </c>
-      <c r="N37" s="11" t="str">
+      <c r="O37" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="174" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B38" s="2">
         <f>+B37</f>
         <v>1.5</v>
       </c>
-      <c r="D38" s="2">
-        <f>+D37</f>
-        <v>1</v>
-      </c>
       <c r="E38" s="2">
-        <v>2</v>
+        <f>+E37</f>
+        <v>1</v>
       </c>
       <c r="F38" s="2">
+        <v>2</v>
+      </c>
+      <c r="G38" s="2">
         <v>3</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="H38" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H38" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="I38" s="7">
+      <c r="I38" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="J38" s="7">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K38" s="14">
+        <v>127</v>
+      </c>
+      <c r="M38" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">{ 'reg': 127, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1}, </v>
+      </c>
+      <c r="N38" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="J38" s="14">
-        <v>127</v>
-      </c>
-      <c r="L38" s="15" t="str">
+        <v xml:space="preserve">{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, { 'reg': 127, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1}, </v>
+      </c>
+      <c r="O38" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B39" s="2">
+        <f t="shared" ref="B39:B40" si="10">+B38</f>
+        <v>1.5</v>
+      </c>
+      <c r="E39" s="2">
+        <f>+E38</f>
+        <v>1</v>
+      </c>
+      <c r="F39" s="2">
+        <v>4</v>
+      </c>
+      <c r="G39" s="2">
+        <v>2</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J39" s="7">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K39" s="14">
+        <v>91</v>
+      </c>
+      <c r="M39" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">{ 'reg': 91, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Reconoce el recorrido de las operaciones empresariales en el ciclo contable de una empresa. Evalúa la utilidad de la información financiera y gerencial.', 'offset':1}, </v>
+      </c>
+      <c r="N39" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, { 'reg': 127, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1}, { 'reg': 91, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Reconoce el recorrido de las operaciones empresariales en el ciclo contable de una empresa. Evalúa la utilidad de la información financiera y gerencial.', 'offset':1}, </v>
+      </c>
+      <c r="O39" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B40" s="2">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">{ 'reg': 127, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1}, </v>
-      </c>
-      <c r="M38" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, { 'reg': 127, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1}, </v>
-      </c>
-      <c r="N38" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B39" s="2">
-        <f t="shared" ref="B39:B40" si="12">+B38</f>
         <v>1.5</v>
       </c>
-      <c r="D39" s="2">
-        <f>+D38</f>
-        <v>1</v>
-      </c>
-      <c r="E39" s="2">
-        <v>4</v>
-      </c>
-      <c r="F39" s="2">
-        <v>2</v>
-      </c>
-      <c r="G39" s="2" t="s">
+      <c r="E40" s="2">
+        <f>+E39</f>
+        <v>1</v>
+      </c>
+      <c r="F40" s="2">
+        <v>6</v>
+      </c>
+      <c r="G40" s="2">
+        <v>2</v>
+      </c>
+      <c r="H40" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H39" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="I39" s="7">
+      <c r="I40" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="J40" s="7">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K40" s="14">
+        <v>115</v>
+      </c>
+      <c r="M40" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">{ 'reg': 115, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada\nTaller', 'offset':1}, </v>
+      </c>
+      <c r="N40" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="J39" s="14">
-        <v>91</v>
-      </c>
-      <c r="L39" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">{ 'reg': 91, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Reconoce el recorrido de las operaciones empresariales en el ciclo contable de una empresa. Evalúa la utilidad de la información financiera y gerencial.', 'offset':1}, </v>
-      </c>
-      <c r="M39" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, { 'reg': 127, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1}, { 'reg': 91, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Reconoce el recorrido de las operaciones empresariales en el ciclo contable de una empresa. Evalúa la utilidad de la información financiera y gerencial.', 'offset':1}, </v>
-      </c>
-      <c r="N39" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B40" s="2">
-        <f t="shared" si="12"/>
-        <v>1.5</v>
-      </c>
-      <c r="D40" s="2">
-        <f>+D39</f>
-        <v>1</v>
-      </c>
-      <c r="E40" s="2">
-        <v>6</v>
-      </c>
-      <c r="F40" s="2">
-        <v>2</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="I40" s="7">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="J40" s="14">
-        <v>115</v>
-      </c>
-      <c r="L40" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">{ 'reg': 115, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada\nTaller', 'offset':1}, </v>
-      </c>
-      <c r="M40" s="2" t="str">
-        <f t="shared" si="11"/>
         <v xml:space="preserve">{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, { 'reg': 127, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1}, { 'reg': 91, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Reconoce el recorrido de las operaciones empresariales en el ciclo contable de una empresa. Evalúa la utilidad de la información financiera y gerencial.', 'offset':1}, { 'reg': 115, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada\nTaller', 'offset':1}, </v>
       </c>
-      <c r="N40" s="11" t="str">
+      <c r="O40" s="11" t="str">
         <f t="shared" si="3"/>
         <v>{'row': 1, 'week': '1.5',  'editing': false, 'tipo': 'contenidos', 'data': [{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, { 'reg': 127, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1}, { 'reg': 91, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Reconoce el recorrido de las operaciones empresariales en el ciclo contable de una empresa. Evalúa la utilidad de la información financiera y gerencial.', 'offset':1}, { 'reg': 115, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada\nTaller', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B41" s="2">
         <v>2.5</v>
       </c>
-      <c r="D41" s="2">
-        <f>+D40+1</f>
-        <v>2</v>
-      </c>
       <c r="E41" s="2">
-        <v>1</v>
+        <f>+E40+1</f>
+        <v>2</v>
       </c>
       <c r="F41" s="2">
         <v>1</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G41" s="2">
+        <v>1</v>
+      </c>
+      <c r="H41" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H41" s="13">
-        <v>2</v>
-      </c>
-      <c r="I41" s="7">
+      <c r="I41" s="13">
+        <v>2</v>
+      </c>
+      <c r="J41" s="7">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K41" s="14">
+        <v>62</v>
+      </c>
+      <c r="M41" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, </v>
+      </c>
+      <c r="N41" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="J41" s="14">
-        <v>62</v>
-      </c>
-      <c r="L41" s="15" t="str">
-        <f t="shared" si="10"/>
         <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, </v>
       </c>
-      <c r="M41" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, </v>
-      </c>
-      <c r="N41" s="11" t="str">
+      <c r="O41" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="87" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B42" s="2">
         <f>+B41</f>
         <v>2.5</v>
       </c>
-      <c r="D42" s="2">
-        <f>+D41</f>
-        <v>2</v>
-      </c>
       <c r="E42" s="2">
+        <f>+E41</f>
         <v>2</v>
       </c>
       <c r="F42" s="2">
+        <v>2</v>
+      </c>
+      <c r="G42" s="2">
         <v>3</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="H42" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H42" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="I42" s="7">
+      <c r="I42" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="J42" s="7">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K42" s="14">
+        <v>17</v>
+      </c>
+      <c r="M42" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">{ 'reg': 17, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1}, </v>
+      </c>
+      <c r="N42" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="J42" s="14">
-        <v>17</v>
-      </c>
-      <c r="L42" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">{ 'reg': 17, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1}, </v>
-      </c>
-      <c r="M42" s="2" t="str">
-        <f t="shared" si="11"/>
         <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, { 'reg': 17, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1}, </v>
       </c>
-      <c r="N42" s="11" t="str">
+      <c r="O42" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="str">
         <f>+A42</f>
         <v>contenidos</v>
       </c>
       <c r="B43" s="2">
-        <f t="shared" ref="B43:B44" si="13">+B42</f>
+        <f t="shared" ref="B43:B44" si="11">+B42</f>
         <v>2.5</v>
       </c>
-      <c r="D43" s="2">
-        <f>+D42</f>
-        <v>2</v>
-      </c>
       <c r="E43" s="2">
+        <f>+E42</f>
+        <v>2</v>
+      </c>
+      <c r="F43" s="2">
         <v>4</v>
       </c>
-      <c r="F43" s="2">
-        <v>2</v>
-      </c>
-      <c r="G43" s="2" t="s">
+      <c r="G43" s="2">
+        <v>2</v>
+      </c>
+      <c r="H43" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="I43" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="I43" s="7">
+      <c r="J43" s="7">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K43" s="14">
+        <v>102</v>
+      </c>
+      <c r="M43" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">{ 'reg': 102, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Determinación, distribución y aplicación de los costos en una empresa mercantil.', 'offset':1}, </v>
+      </c>
+      <c r="N43" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="J43" s="14">
-        <v>102</v>
-      </c>
-      <c r="L43" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">{ 'reg': 102, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Determinación, distribución y aplicación de los costos en una empresa mercantil.', 'offset':1}, </v>
-      </c>
-      <c r="M43" s="2" t="str">
-        <f t="shared" si="11"/>
         <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, { 'reg': 17, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1}, { 'reg': 102, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Determinación, distribución y aplicación de los costos en una empresa mercantil.', 'offset':1}, </v>
       </c>
-      <c r="N43" s="11" t="str">
+      <c r="O43" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="str">
         <f>+A43</f>
         <v>contenidos</v>
       </c>
       <c r="B44" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2.5</v>
       </c>
-      <c r="D44" s="2">
-        <f>+D43</f>
-        <v>2</v>
-      </c>
       <c r="E44" s="2">
+        <f>+E43</f>
+        <v>2</v>
+      </c>
+      <c r="F44" s="2">
         <v>6</v>
       </c>
-      <c r="F44" s="2">
-        <v>2</v>
-      </c>
-      <c r="G44" s="2" t="s">
+      <c r="G44" s="2">
+        <v>2</v>
+      </c>
+      <c r="H44" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="I44" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I44" s="7">
+      <c r="J44" s="7">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K44" s="14">
+        <v>126</v>
+      </c>
+      <c r="M44" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">{ 'reg': 126, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Dinámica grupal/debate en clase', 'offset':1}, </v>
+      </c>
+      <c r="N44" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="J44" s="14">
-        <v>126</v>
-      </c>
-      <c r="L44" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">{ 'reg': 126, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Dinámica grupal/debate en clase', 'offset':1}, </v>
-      </c>
-      <c r="M44" s="2" t="str">
-        <f t="shared" si="11"/>
         <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, { 'reg': 17, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1}, { 'reg': 102, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Determinación, distribución y aplicación de los costos en una empresa mercantil.', 'offset':1}, { 'reg': 126, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Dinámica grupal/debate en clase', 'offset':1}, </v>
       </c>
-      <c r="N44" s="11" t="str">
+      <c r="O44" s="11" t="str">
         <f t="shared" si="3"/>
         <v>{'row': 2, 'week': '2.5',  'editing': false, 'tipo': 'contenidos', 'data': [{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, { 'reg': 17, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1}, { 'reg': 102, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Determinación, distribución y aplicación de los costos en una empresa mercantil.', 'offset':1}, { 'reg': 126, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Dinámica grupal/debate en clase', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B45" s="2">
         <v>3.5</v>
       </c>
-      <c r="D45" s="2">
-        <f>+D44+1</f>
+      <c r="E45" s="2">
+        <f>+E44+1</f>
         <v>3</v>
       </c>
-      <c r="E45" s="2">
-        <v>1</v>
-      </c>
       <c r="F45" s="2">
         <v>1</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="G45" s="2">
+        <v>1</v>
+      </c>
+      <c r="H45" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H45" s="7">
+      <c r="I45" s="7">
         <v>3</v>
       </c>
-      <c r="I45" s="7">
+      <c r="J45" s="7">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K45" s="14">
+        <v>39</v>
+      </c>
+      <c r="M45" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, </v>
+      </c>
+      <c r="N45" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="J45" s="14">
-        <v>39</v>
-      </c>
-      <c r="L45" s="15" t="str">
-        <f t="shared" si="10"/>
         <v xml:space="preserve">{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, </v>
       </c>
-      <c r="M45" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, </v>
-      </c>
-      <c r="N45" s="11" t="str">
+      <c r="O45" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B46" s="2">
         <f>+B45</f>
         <v>3.5</v>
       </c>
-      <c r="D46" s="2">
-        <f>+D45</f>
+      <c r="E46" s="2">
+        <f>+E45</f>
         <v>3</v>
       </c>
-      <c r="E46" s="2">
-        <v>2</v>
-      </c>
       <c r="F46" s="2">
+        <v>2</v>
+      </c>
+      <c r="G46" s="2">
         <v>3</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="H46" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H46" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="I46" s="7">
+      <c r="I46" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="J46" s="7">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K46" s="14">
+        <v>124</v>
+      </c>
+      <c r="M46" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">{ 'reg': 124, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1}, </v>
+      </c>
+      <c r="N46" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="J46" s="14">
-        <v>124</v>
-      </c>
-      <c r="L46" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">{ 'reg': 124, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1}, </v>
-      </c>
-      <c r="M46" s="2" t="str">
-        <f t="shared" si="11"/>
         <v xml:space="preserve">{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, { 'reg': 124, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1}, </v>
       </c>
-      <c r="N46" s="11" t="str">
+      <c r="O46" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B47" s="2">
-        <f t="shared" ref="B47:B48" si="14">+B46</f>
+        <f t="shared" ref="B47:B48" si="12">+B46</f>
         <v>3.5</v>
       </c>
-      <c r="D47" s="2">
-        <f>+D46</f>
+      <c r="E47" s="2">
+        <f>+E46</f>
         <v>3</v>
       </c>
-      <c r="E47" s="2">
+      <c r="F47" s="2">
         <v>4</v>
       </c>
-      <c r="F47" s="2">
-        <v>2</v>
-      </c>
-      <c r="G47" s="2" t="s">
+      <c r="G47" s="2">
+        <v>2</v>
+      </c>
+      <c r="H47" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H47" s="5" t="s">
+      <c r="I47" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="I47" s="7">
+      <c r="J47" s="7">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K47" s="14">
+        <v>26</v>
+      </c>
+      <c r="M47" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">{ 'reg': 26, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Analizar y aplicar el marco legal normativo para la elaboración de los Estados Financieros.', 'offset':1}, </v>
+      </c>
+      <c r="N47" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="J47" s="14">
-        <v>26</v>
-      </c>
-      <c r="L47" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">{ 'reg': 26, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Analizar y aplicar el marco legal normativo para la elaboración de los Estados Financieros.', 'offset':1}, </v>
-      </c>
-      <c r="M47" s="2" t="str">
-        <f t="shared" si="11"/>
         <v xml:space="preserve">{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, { 'reg': 124, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1}, { 'reg': 26, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Analizar y aplicar el marco legal normativo para la elaboración de los Estados Financieros.', 'offset':1}, </v>
       </c>
-      <c r="N47" s="11" t="str">
+      <c r="O47" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B48" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>3.5</v>
       </c>
-      <c r="D48" s="2">
-        <f>+D47</f>
+      <c r="E48" s="2">
+        <f>+E47</f>
         <v>3</v>
       </c>
-      <c r="E48" s="2">
+      <c r="F48" s="2">
         <v>6</v>
       </c>
-      <c r="F48" s="2">
-        <v>2</v>
-      </c>
-      <c r="G48" s="2" t="s">
+      <c r="G48" s="2">
+        <v>2</v>
+      </c>
+      <c r="H48" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H48" s="5" t="s">
+      <c r="I48" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="I48" s="7">
+      <c r="J48" s="7">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K48" s="14">
+        <v>40</v>
+      </c>
+      <c r="M48" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">{ 'reg': 40, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada', 'offset':1}, </v>
+      </c>
+      <c r="N48" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="J48" s="14">
-        <v>40</v>
-      </c>
-      <c r="L48" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">{ 'reg': 40, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada', 'offset':1}, </v>
-      </c>
-      <c r="M48" s="2" t="str">
-        <f t="shared" si="11"/>
         <v xml:space="preserve">{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, { 'reg': 124, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1}, { 'reg': 26, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Analizar y aplicar el marco legal normativo para la elaboración de los Estados Financieros.', 'offset':1}, { 'reg': 40, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada', 'offset':1}, </v>
       </c>
-      <c r="N48" s="11" t="str">
+      <c r="O48" s="11" t="str">
         <f t="shared" si="3"/>
         <v>{'row': 3, 'week': '3.5',  'editing': false, 'tipo': 'contenidos', 'data': [{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, { 'reg': 124, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1}, { 'reg': 26, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Analizar y aplicar el marco legal normativo para la elaboración de los Estados Financieros.', 'offset':1}, { 'reg': 40, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B49" s="2">
         <v>4.5</v>
       </c>
-      <c r="D49" s="2">
-        <f>+D48+1</f>
+      <c r="E49" s="2">
+        <f>+E48+1</f>
         <v>4</v>
       </c>
-      <c r="E49" s="2">
-        <v>1</v>
-      </c>
       <c r="F49" s="2">
         <v>1</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="G49" s="2">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H49" s="7">
+      <c r="I49" s="7">
         <v>4</v>
       </c>
-      <c r="I49" s="7">
+      <c r="J49" s="7">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K49" s="14">
+        <v>43</v>
+      </c>
+      <c r="M49" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, </v>
+      </c>
+      <c r="N49" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="J49" s="14">
-        <v>43</v>
-      </c>
-      <c r="L49" s="15" t="str">
-        <f t="shared" si="10"/>
         <v xml:space="preserve">{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, </v>
       </c>
-      <c r="M49" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, </v>
-      </c>
-      <c r="N49" s="11" t="str">
+      <c r="O49" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="87" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B50" s="2">
         <f>+B49</f>
         <v>4.5</v>
       </c>
-      <c r="D50" s="2">
-        <f>+D49</f>
+      <c r="E50" s="2">
+        <f>+E49</f>
         <v>4</v>
       </c>
-      <c r="E50" s="2">
-        <v>2</v>
-      </c>
       <c r="F50" s="2">
+        <v>2</v>
+      </c>
+      <c r="G50" s="2">
         <v>3</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="H50" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H50" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="I50" s="7">
+      <c r="I50" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="J50" s="7">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K50" s="14">
+        <v>62</v>
+      </c>
+      <c r="M50" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1}, </v>
+      </c>
+      <c r="N50" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="J50" s="14">
-        <v>62</v>
-      </c>
-      <c r="L50" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1}, </v>
-      </c>
-      <c r="M50" s="2" t="str">
-        <f t="shared" si="11"/>
         <v xml:space="preserve">{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, { 'reg': 62, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1}, </v>
       </c>
-      <c r="N50" s="11" t="str">
+      <c r="O50" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B51" s="2">
-        <f t="shared" ref="B51:B52" si="15">+B50</f>
+        <f t="shared" ref="B51:B52" si="13">+B50</f>
         <v>4.5</v>
       </c>
-      <c r="D51" s="2">
-        <f>+D50</f>
+      <c r="E51" s="2">
+        <f>+E50</f>
         <v>4</v>
       </c>
-      <c r="E51" s="2">
+      <c r="F51" s="2">
         <v>4</v>
       </c>
-      <c r="F51" s="2">
-        <v>2</v>
-      </c>
-      <c r="G51" s="2" t="s">
+      <c r="G51" s="2">
+        <v>2</v>
+      </c>
+      <c r="H51" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H51" s="7" t="s">
+      <c r="I51" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="I51" s="7">
+      <c r="J51" s="7">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K51" s="14">
+        <v>10</v>
+      </c>
+      <c r="M51" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">{ 'reg': 10, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Evalúa los resultados obtenidos. Demuestra la aplicación del análisis vertical y horizontal.', 'offset':1}, </v>
+      </c>
+      <c r="N51" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="J51" s="14">
-        <v>10</v>
-      </c>
-      <c r="L51" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">{ 'reg': 10, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Evalúa los resultados obtenidos. Demuestra la aplicación del análisis vertical y horizontal.', 'offset':1}, </v>
-      </c>
-      <c r="M51" s="2" t="str">
-        <f t="shared" si="11"/>
         <v xml:space="preserve">{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, { 'reg': 62, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1}, { 'reg': 10, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Evalúa los resultados obtenidos. Demuestra la aplicación del análisis vertical y horizontal.', 'offset':1}, </v>
       </c>
-      <c r="N51" s="11" t="str">
+      <c r="O51" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B52" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>4.5</v>
       </c>
-      <c r="D52" s="2">
-        <f>+D51</f>
+      <c r="E52" s="2">
+        <f>+E51</f>
         <v>4</v>
       </c>
-      <c r="E52" s="2">
+      <c r="F52" s="2">
         <v>6</v>
       </c>
-      <c r="F52" s="2">
-        <v>2</v>
-      </c>
-      <c r="G52" s="2" t="s">
+      <c r="G52" s="2">
+        <v>2</v>
+      </c>
+      <c r="H52" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H52" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="I52" s="7">
+      <c r="I52" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="J52" s="7">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K52" s="14">
+        <v>82</v>
+      </c>
+      <c r="M52" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">{ 'reg': 82, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Clase Expositiva\n Taller\n  Discusión de caso', 'offset':1}, </v>
+      </c>
+      <c r="N52" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="J52" s="14">
-        <v>82</v>
-      </c>
-      <c r="L52" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">{ 'reg': 82, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Clase Expositiva\n Taller\n  Discusión de caso', 'offset':1}, </v>
-      </c>
-      <c r="M52" s="2" t="str">
-        <f t="shared" si="11"/>
         <v xml:space="preserve">{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, { 'reg': 62, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1}, { 'reg': 10, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Evalúa los resultados obtenidos. Demuestra la aplicación del análisis vertical y horizontal.', 'offset':1}, { 'reg': 82, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Clase Expositiva\n Taller\n  Discusión de caso', 'offset':1}, </v>
       </c>
-      <c r="N52" s="11" t="str">
+      <c r="O52" s="11" t="str">
         <f t="shared" si="3"/>
         <v>{'row': 4, 'week': '4.5',  'editing': false, 'tipo': 'contenidos', 'data': [{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, { 'reg': 62, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1}, { 'reg': 10, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Evalúa los resultados obtenidos. Demuestra la aplicación del análisis vertical y horizontal.', 'offset':1}, { 'reg': 82, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Clase Expositiva\n Taller\n  Discusión de caso', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B53" s="2">
         <v>4.9000000000000004</v>
       </c>
-      <c r="D53" s="2">
-        <f>+D52+1</f>
+      <c r="E53" s="2">
+        <f>+E52+1</f>
         <v>5</v>
       </c>
-      <c r="E53" s="2">
-        <v>2</v>
-      </c>
       <c r="F53" s="2">
+        <v>2</v>
+      </c>
+      <c r="G53" s="2">
         <v>7</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="H53" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H53" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="I53" s="7">
+      <c r="I53" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="J53" s="7">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="K53" s="14">
+        <v>19</v>
+      </c>
+      <c r="M53" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">{ 'reg': 19, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'center', 'texto': 'EVALUACIÓN PARCIAL 1 ', 'offset':2}, </v>
+      </c>
+      <c r="N53" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="J53" s="14">
-        <v>19</v>
-      </c>
-      <c r="L53" s="15" t="str">
-        <f t="shared" si="10"/>
         <v xml:space="preserve">{ 'reg': 19, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'center', 'texto': 'EVALUACIÓN PARCIAL 1 ', 'offset':2}, </v>
       </c>
-      <c r="M53" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">{ 'reg': 19, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'center', 'texto': 'EVALUACIÓN PARCIAL 1 ', 'offset':2}, </v>
-      </c>
-      <c r="N53" s="11" t="str">
+      <c r="O53" s="11" t="str">
         <f t="shared" si="3"/>
         <v>{'row': 5, 'week': '4.9',  'editing': false, 'tipo': 'examenes', 'data': [{ 'reg': 19, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'center', 'texto': 'EVALUACIÓN PARCIAL 1 ', 'offset':2}, ],  },</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B54" s="2">
         <v>5.5</v>
       </c>
-      <c r="D54" s="2">
-        <f>+D53+1</f>
+      <c r="E54" s="2">
+        <f>+E53+1</f>
         <v>6</v>
       </c>
-      <c r="E54" s="2">
-        <v>1</v>
-      </c>
       <c r="F54" s="2">
         <v>1</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="G54" s="2">
+        <v>1</v>
+      </c>
+      <c r="H54" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H54" s="7">
+      <c r="I54" s="7">
         <v>5</v>
       </c>
-      <c r="I54" s="7">
+      <c r="J54" s="7">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K54" s="14">
+        <v>82</v>
+      </c>
+      <c r="M54" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, </v>
+      </c>
+      <c r="N54" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="J54" s="14">
-        <v>82</v>
-      </c>
-      <c r="L54" s="15" t="str">
-        <f t="shared" si="10"/>
         <v xml:space="preserve">{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, </v>
       </c>
-      <c r="M54" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, </v>
-      </c>
-      <c r="N54" s="11" t="str">
+      <c r="O54" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B55" s="2">
         <f>+B54</f>
         <v>5.5</v>
       </c>
-      <c r="D55" s="2">
-        <f>+D54</f>
+      <c r="E55" s="2">
+        <f>+E54</f>
         <v>6</v>
       </c>
-      <c r="E55" s="2">
-        <v>2</v>
-      </c>
       <c r="F55" s="2">
+        <v>2</v>
+      </c>
+      <c r="G55" s="2">
         <v>3</v>
       </c>
-      <c r="H55" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="I55" s="7">
+      <c r="I55" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="J55" s="7">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K55" s="14">
+        <v>61</v>
+      </c>
+      <c r="M55" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">{ 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1}, </v>
+      </c>
+      <c r="N55" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="J55" s="14">
-        <v>61</v>
-      </c>
-      <c r="L55" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">{ 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1}, </v>
-      </c>
-      <c r="M55" s="2" t="str">
-        <f t="shared" si="11"/>
         <v xml:space="preserve">{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, { 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1}, </v>
       </c>
-      <c r="N55" s="11" t="str">
+      <c r="O55" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B56" s="2">
         <f>+B55</f>
         <v>5.5</v>
       </c>
-      <c r="D56" s="2">
-        <f>+D55</f>
+      <c r="E56" s="2">
+        <f>+E55</f>
         <v>6</v>
       </c>
-      <c r="E56" s="2">
+      <c r="F56" s="2">
         <v>4</v>
       </c>
-      <c r="F56" s="2">
-        <v>2</v>
-      </c>
-      <c r="H56" s="7" t="s">
+      <c r="G56" s="2">
+        <v>2</v>
+      </c>
+      <c r="I56" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="I56" s="7">
+      <c r="J56" s="7">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K56" s="14">
+        <v>39</v>
+      </c>
+      <c r="M56" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">{ 'reg': 39, 'subtipo': '', 'col': 4, 'cols': 2, 'align': '', 'texto': 'Propicia un debate acerca de la toma de decisiones en una empresa.', 'offset':1}, </v>
+      </c>
+      <c r="N56" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="J56" s="14">
-        <v>39</v>
-      </c>
-      <c r="L56" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">{ 'reg': 39, 'subtipo': '', 'col': 4, 'cols': 2, 'align': '', 'texto': 'Propicia un debate acerca de la toma de decisiones en una empresa.', 'offset':1}, </v>
-      </c>
-      <c r="M56" s="2" t="str">
-        <f t="shared" si="11"/>
         <v xml:space="preserve">{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, { 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1}, { 'reg': 39, 'subtipo': '', 'col': 4, 'cols': 2, 'align': '', 'texto': 'Propicia un debate acerca de la toma de decisiones en una empresa.', 'offset':1}, </v>
       </c>
-      <c r="N56" s="11" t="str">
+      <c r="O56" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B57" s="2">
         <f>+B56</f>
         <v>5.5</v>
       </c>
-      <c r="D57" s="2">
-        <f>+D56</f>
+      <c r="E57" s="2">
+        <f>+E56</f>
         <v>6</v>
       </c>
-      <c r="E57" s="2">
+      <c r="F57" s="2">
         <v>6</v>
       </c>
-      <c r="F57" s="2">
-        <v>2</v>
-      </c>
-      <c r="H57" s="7" t="s">
+      <c r="G57" s="2">
+        <v>2</v>
+      </c>
+      <c r="I57" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="I57" s="7">
+      <c r="J57" s="7">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K57" s="14">
+        <v>69</v>
+      </c>
+      <c r="M57" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">{ 'reg': 69, 'subtipo': '', 'col': 6, 'cols': 2, 'align': '', 'texto': 'Exposición dialogada', 'offset':1}, </v>
+      </c>
+      <c r="N57" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="J57" s="14">
-        <v>69</v>
-      </c>
-      <c r="L57" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">{ 'reg': 69, 'subtipo': '', 'col': 6, 'cols': 2, 'align': '', 'texto': 'Exposición dialogada', 'offset':1}, </v>
-      </c>
-      <c r="M57" s="2" t="str">
-        <f t="shared" si="11"/>
         <v xml:space="preserve">{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, { 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1}, { 'reg': 39, 'subtipo': '', 'col': 4, 'cols': 2, 'align': '', 'texto': 'Propicia un debate acerca de la toma de decisiones en una empresa.', 'offset':1}, { 'reg': 69, 'subtipo': '', 'col': 6, 'cols': 2, 'align': '', 'texto': 'Exposición dialogada', 'offset':1}, </v>
       </c>
-      <c r="N57" s="11" t="str">
+      <c r="O57" s="11" t="str">
         <f t="shared" si="3"/>
         <v>{'row': 6, 'week': '5.5',  'editing': false, 'tipo': 'contenidos', 'data': [{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, { 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1}, { 'reg': 39, 'subtipo': '', 'col': 4, 'cols': 2, 'align': '', 'texto': 'Propicia un debate acerca de la toma de decisiones en una empresa.', 'offset':1}, { 'reg': 69, 'subtipo': '', 'col': 6, 'cols': 2, 'align': '', 'texto': 'Exposición dialogada', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B58" s="2">
         <v>6</v>
       </c>
-      <c r="C58" s="2">
-        <f>4000+D58*100</f>
-        <v>4200</v>
-      </c>
-      <c r="D58" s="2">
-        <v>2</v>
-      </c>
       <c r="E58" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F58" s="2">
+        <v>1</v>
+      </c>
+      <c r="G58" s="2">
         <v>8</v>
       </c>
-      <c r="G58" s="2" t="s">
+      <c r="H58" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H58" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="I58" s="7">
+      <c r="I58" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="J58" s="7">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K58" s="14">
+        <v>124</v>
+      </c>
+      <c r="M58" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">{ 'reg': 124, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD II: ANALISIS E INTERPRETACION DE LOS ESTADOS FINANCIEROS', 'offset':1}, </v>
+      </c>
+      <c r="N58" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="J58" s="14">
-        <v>124</v>
-      </c>
-      <c r="L58" s="15" t="str">
-        <f t="shared" si="10"/>
         <v xml:space="preserve">{ 'reg': 124, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD II: ANALISIS E INTERPRETACION DE LOS ESTADOS FINANCIEROS', 'offset':1}, </v>
       </c>
-      <c r="M58" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">{ 'reg': 124, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD II: ANALISIS E INTERPRETACION DE LOS ESTADOS FINANCIEROS', 'offset':1}, </v>
-      </c>
-      <c r="N58" s="11" t="str">
+      <c r="O58" s="11" t="str">
         <f t="shared" si="3"/>
         <v>{'row': 2, 'week': '6',  'editing': false, 'tipo': 'unidades', 'data': [{ 'reg': 124, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD II: ANALISIS E INTERPRETACION DE LOS ESTADOS FINANCIEROS', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B59" s="2">
         <v>6.2</v>
       </c>
-      <c r="D59" s="8">
-        <f>+D58+1</f>
+      <c r="E59" s="8">
+        <f>+E58+1</f>
         <v>3</v>
       </c>
-      <c r="E59" s="2">
-        <v>1</v>
-      </c>
       <c r="F59" s="2">
         <v>1</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="G59" s="2">
+        <v>1</v>
+      </c>
+      <c r="H59" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H59" s="7" t="s">
+      <c r="I59" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="I59" s="7">
+      <c r="J59" s="7">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K59" s="14">
+        <v>62</v>
+      </c>
+      <c r="M59" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, </v>
+      </c>
+      <c r="N59" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="J59" s="14">
-        <v>62</v>
-      </c>
-      <c r="L59" s="15" t="str">
-        <f t="shared" si="10"/>
         <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, </v>
       </c>
-      <c r="M59" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, </v>
-      </c>
-      <c r="N59" s="11" t="str">
+      <c r="O59" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B60" s="2">
         <f>+B59</f>
         <v>6.2</v>
       </c>
-      <c r="D60" s="2">
-        <f>+D59</f>
+      <c r="E60" s="2">
+        <f>+E59</f>
         <v>3</v>
       </c>
-      <c r="E60" s="2">
-        <v>2</v>
-      </c>
       <c r="F60" s="2">
+        <v>2</v>
+      </c>
+      <c r="G60" s="2">
         <v>3</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="H60" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H60" s="7" t="s">
+      <c r="I60" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="I60" s="7">
+      <c r="J60" s="7">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K60" s="14">
+        <v>61</v>
+      </c>
+      <c r="M60" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">{ 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, </v>
+      </c>
+      <c r="N60" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="J60" s="14">
-        <v>61</v>
-      </c>
-      <c r="L60" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">{ 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, </v>
-      </c>
-      <c r="M60" s="2" t="str">
-        <f t="shared" si="11"/>
         <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, </v>
       </c>
-      <c r="N60" s="11" t="str">
+      <c r="O60" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B61" s="2">
         <f>+B60</f>
         <v>6.2</v>
       </c>
-      <c r="D61" s="2">
-        <f>+D60</f>
+      <c r="E61" s="2">
+        <f>+E60</f>
         <v>3</v>
       </c>
-      <c r="E61" s="2">
+      <c r="F61" s="2">
         <v>4</v>
       </c>
-      <c r="F61" s="2">
-        <v>2</v>
-      </c>
-      <c r="G61" s="2" t="s">
+      <c r="G61" s="2">
+        <v>2</v>
+      </c>
+      <c r="H61" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H61" s="7" t="s">
+      <c r="I61" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I61" s="7">
+      <c r="J61" s="7">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K61" s="14">
+        <v>73</v>
+      </c>
+      <c r="M61" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">{ 'reg': 73, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, </v>
+      </c>
+      <c r="N61" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="J61" s="14">
-        <v>73</v>
-      </c>
-      <c r="L61" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">{ 'reg': 73, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, </v>
-      </c>
-      <c r="M61" s="2" t="str">
-        <f t="shared" si="11"/>
         <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'reg': 73, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, </v>
       </c>
-      <c r="N61" s="11" t="str">
+      <c r="O61" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B62" s="2">
         <f>+B61</f>
         <v>6.2</v>
       </c>
-      <c r="D62" s="2">
-        <f>+D61</f>
+      <c r="E62" s="2">
+        <f>+E61</f>
         <v>3</v>
       </c>
-      <c r="E62" s="2">
+      <c r="F62" s="2">
         <v>6</v>
       </c>
-      <c r="F62" s="2">
-        <v>2</v>
-      </c>
-      <c r="G62" s="2" t="s">
+      <c r="G62" s="2">
+        <v>2</v>
+      </c>
+      <c r="H62" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H62" s="7" t="s">
+      <c r="I62" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="I62" s="7">
+      <c r="J62" s="7">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K62" s="14">
+        <v>27</v>
+      </c>
+      <c r="M62" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">{ 'reg': 27, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1}, </v>
+      </c>
+      <c r="N62" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="J62" s="14">
-        <v>27</v>
-      </c>
-      <c r="L62" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">{ 'reg': 27, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1}, </v>
-      </c>
-      <c r="M62" s="2" t="str">
-        <f t="shared" si="11"/>
         <v xml:space="preserve">{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'reg': 73, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, { 'reg': 27, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1}, </v>
       </c>
-      <c r="N62" s="11" t="str">
+      <c r="O62" s="11" t="str">
         <f t="shared" si="3"/>
         <v>{'row': 3, 'week': '6.2',  'editing': false, 'tipo': 'titulo3', 'data': [{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'reg': 73, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, { 'reg': 27, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C63" s="2">
-        <f>+D63*1000</f>
-        <v>5000</v>
-      </c>
-      <c r="D63" s="2">
+        <v>149</v>
+      </c>
+      <c r="E63" s="2">
         <v>5</v>
       </c>
-      <c r="E63" s="2">
-        <v>1</v>
-      </c>
       <c r="F63" s="2">
+        <v>1</v>
+      </c>
+      <c r="G63" s="2">
         <v>8</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="H63" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H63" s="7" t="s">
+      <c r="I63" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="J63" s="7">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K63" s="14">
+        <v>6</v>
+      </c>
+      <c r="L63" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="M63" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">{ 'reg': 6, 'subtipo': 'estrategias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'V. ESTRATEGIAS METODOLÓGICAS', 'offset':1}, </v>
+      </c>
+      <c r="N63" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">{ 'reg': 6, 'subtipo': 'estrategias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'V. ESTRATEGIAS METODOLÓGICAS', 'offset':1}, </v>
+      </c>
+      <c r="O63" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'row': 5, 'week': '',  'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 6, 'subtipo': 'estrategias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'V. ESTRATEGIAS METODOLÓGICAS', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E64" s="2">
+        <v>6</v>
+      </c>
+      <c r="F64" s="2">
+        <v>1</v>
+      </c>
+      <c r="G64" s="2">
+        <v>8</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="J64" s="7">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K64" s="14">
+        <v>75</v>
+      </c>
+      <c r="L64" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="M64" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">{ 'reg': 75, 'subtipo': 'evaluaciones', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VI. EVALUACIÓN', 'offset':1}, </v>
+      </c>
+      <c r="N64" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">{ 'reg': 75, 'subtipo': 'evaluaciones', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VI. EVALUACIÓN', 'offset':1}, </v>
+      </c>
+      <c r="O64" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>{'row': 6, 'week': '',  'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 75, 'subtipo': 'evaluaciones', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VI. EVALUACIÓN', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E65" s="2">
+        <v>7</v>
+      </c>
+      <c r="F65" s="2">
+        <v>1</v>
+      </c>
+      <c r="G65" s="2">
+        <v>8</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I65" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="I63" s="7">
+      <c r="J65" s="7">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K65" s="14">
+        <v>102</v>
+      </c>
+      <c r="L65" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="M65" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">{ 'reg': 102, 'subtipo': 'bibliografias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VII. BIBLIOGRAFÍA', 'offset':1}, </v>
+      </c>
+      <c r="N65" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="J63" s="14">
-        <v>6</v>
-      </c>
-      <c r="K63" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="L63" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">{ 'reg': 6, 'subtipo': 'estrategias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'V. ESTRATEGIAS METODOLÓGICAS', 'offset':1}, </v>
-      </c>
-      <c r="M63" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">{ 'reg': 6, 'subtipo': 'estrategias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'V. ESTRATEGIAS METODOLÓGICAS', 'offset':1}, </v>
-      </c>
-      <c r="N63" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'row': 5, 'week': '',  'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 6, 'subtipo': 'estrategias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'V. ESTRATEGIAS METODOLÓGICAS', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A64" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C64" s="2">
-        <f>+D64*1000</f>
-        <v>6000</v>
-      </c>
-      <c r="D64" s="2">
-        <v>6</v>
-      </c>
-      <c r="E64" s="2">
-        <v>1</v>
-      </c>
-      <c r="F64" s="2">
-        <v>8</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="I64" s="7">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="J64" s="14">
-        <v>75</v>
-      </c>
-      <c r="K64" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="L64" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">{ 'reg': 75, 'subtipo': 'evaluaciones', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VI. EVALUACIÓN', 'offset':1}, </v>
-      </c>
-      <c r="M64" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">{ 'reg': 75, 'subtipo': 'evaluaciones', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VI. EVALUACIÓN', 'offset':1}, </v>
-      </c>
-      <c r="N64" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>{'row': 6, 'week': '',  'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 75, 'subtipo': 'evaluaciones', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VI. EVALUACIÓN', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A65" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C65" s="2">
-        <f>+D65*1000</f>
-        <v>7000</v>
-      </c>
-      <c r="D65" s="2">
-        <v>7</v>
-      </c>
-      <c r="E65" s="2">
-        <v>1</v>
-      </c>
-      <c r="F65" s="2">
-        <v>8</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H65" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="I65" s="7">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="J65" s="14">
-        <v>102</v>
-      </c>
-      <c r="K65" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="L65" s="15" t="str">
-        <f t="shared" si="10"/>
         <v xml:space="preserve">{ 'reg': 102, 'subtipo': 'bibliografias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VII. BIBLIOGRAFÍA', 'offset':1}, </v>
       </c>
-      <c r="M65" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">{ 'reg': 102, 'subtipo': 'bibliografias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VII. BIBLIOGRAFÍA', 'offset':1}, </v>
-      </c>
-      <c r="N65" s="11" t="str">
+      <c r="O65" s="11" t="str">
         <f t="shared" si="3"/>
         <v>{'row': 7, 'week': '',  'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 102, 'subtipo': 'bibliografias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VII. BIBLIOGRAFÍA', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="H70" s="16"/>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="H71" s="16"/>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="H72" s="16"/>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="H73" s="16"/>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I70" s="16"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I71" s="16"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I72" s="16"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I73" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H65"/>
-  <sortState ref="A2:M80">
-    <sortCondition ref="D2:D80"/>
+  <autoFilter ref="A1:I65">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="sumillas"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="A2:N80">
     <sortCondition ref="E2:E80"/>
+    <sortCondition ref="F2:F80"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4872,50 +4761,72 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>134</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>135</v>
+        <v>184</v>
       </c>
       <c r="C1" t="s">
-        <v>136</v>
+        <v>185</v>
       </c>
       <c r="D1" t="s">
-        <v>137</v>
+        <v>186</v>
       </c>
       <c r="E1" t="s">
-        <v>138</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="21"/>
+      <c r="D6" s="21"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="21"/>
+      <c r="E7" s="21"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="21"/>
+      <c r="D9" s="21"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D10" s="21"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/topdown.xlsx
+++ b/topdown.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.arashiro\proyectos\Code\syllabus5\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="165" yWindow="75" windowWidth="18900" windowHeight="7335" activeTab="3"/>
+    <workbookView xWindow="170" yWindow="80" windowWidth="18900" windowHeight="7340" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,12 +20,12 @@
     <definedName name="_xlnm.Extract" localSheetId="1">campos!#REF!</definedName>
     <definedName name="_xlnm.Extract" localSheetId="4">Hoja2!$A$1</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="190">
   <si>
     <t>GENERALIDADES</t>
   </si>
@@ -594,6 +589,12 @@
   </si>
   <si>
     <t>nivel 3</t>
+  </si>
+  <si>
+    <t>competencias1</t>
+  </si>
+  <si>
+    <t>competencias2</t>
   </si>
 </sst>
 </file>
@@ -689,6 +690,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -701,7 +703,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -762,7 +763,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -797,7 +798,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1012,13 +1013,13 @@
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1026,177 +1027,177 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>18</v>
       </c>
@@ -1215,24 +1216,24 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" customWidth="1"/>
+    <col min="6" max="6" width="11.1796875" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -1344,18 +1345,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J95"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -1363,7 +1364,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>35</v>
       </c>
@@ -1374,7 +1375,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>36</v>
       </c>
@@ -1385,7 +1386,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>37</v>
       </c>
@@ -1396,7 +1397,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>38</v>
       </c>
@@ -1407,7 +1408,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>39</v>
       </c>
@@ -1418,7 +1419,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>40</v>
       </c>
@@ -1429,7 +1430,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -1437,12 +1438,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -1450,32 +1451,32 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -1483,32 +1484,32 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -1516,12 +1517,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>59</v>
       </c>
@@ -1535,60 +1536,60 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>1</v>
       </c>
       <c r="B35" t="s">
         <v>64</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="E35" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="19" t="s">
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-    </row>
-    <row r="36" spans="1:10" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="17" t="s">
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+    </row>
+    <row r="36" spans="1:10" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="20" t="s">
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-    </row>
-    <row r="37" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="17" t="s">
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+    </row>
+    <row r="37" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-    </row>
-    <row r="38" spans="1:10" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="17" t="s">
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+    </row>
+    <row r="38" spans="1:10" ht="57.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+    </row>
+    <row r="39" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1596,24 +1597,24 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="17" t="s">
+    <row r="40" spans="1:10" ht="45.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17" t="s">
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="20" t="s">
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-    </row>
-    <row r="41" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+    </row>
+    <row r="41" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3</v>
       </c>
@@ -1625,113 +1626,113 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="17" t="s">
+    <row r="42" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17" t="s">
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17" t="s">
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-    </row>
-    <row r="43" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="17" t="s">
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+    </row>
+    <row r="43" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
       <c r="H43" t="s">
         <v>78</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>4</v>
       </c>
       <c r="B44" t="s">
         <v>79</v>
       </c>
-      <c r="E44" s="17" t="s">
+      <c r="E44" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
       <c r="H44" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>80</v>
       </c>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
       <c r="H45" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>81</v>
       </c>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
       <c r="H46" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>82</v>
       </c>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>83</v>
       </c>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>84</v>
       </c>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="18" t="s">
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B50" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>5</v>
       </c>
@@ -1750,7 +1751,7 @@
       </c>
       <c r="I51" s="6"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>88</v>
       </c>
@@ -1761,7 +1762,7 @@
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -1771,7 +1772,7 @@
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -1781,7 +1782,7 @@
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -1791,7 +1792,7 @@
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -1801,7 +1802,7 @@
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -1811,7 +1812,7 @@
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -1821,7 +1822,7 @@
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -1831,7 +1832,7 @@
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>90</v>
       </c>
@@ -1839,37 +1840,37 @@
         <v>91</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>98</v>
       </c>
@@ -1877,38 +1878,38 @@
         <v>99</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
         <v>101</v>
       </c>
       <c r="D73" s="4"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B77" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>106</v>
       </c>
@@ -1916,7 +1917,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>1</v>
       </c>
@@ -1924,22 +1925,22 @@
         <v>108</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B83" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B84" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B85" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>2</v>
       </c>
@@ -1947,22 +1948,22 @@
         <v>133</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B88" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B89" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B90" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>3</v>
       </c>
@@ -1970,17 +1971,17 @@
         <v>115</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B93" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B94" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B95" t="s">
         <v>118</v>
       </c>
@@ -2009,33 +2010,32 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:O73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:I17"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="4.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.453125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="4.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.453125" style="2" customWidth="1"/>
     <col min="7" max="7" width="4" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="50.7109375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="6.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="50.7265625" style="7" customWidth="1"/>
     <col min="10" max="10" width="9" style="7" customWidth="1"/>
     <col min="11" max="11" width="9" style="14" customWidth="1"/>
     <col min="12" max="12" width="9" style="12" customWidth="1"/>
-    <col min="13" max="13" width="28.140625" style="7" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" style="2"/>
-    <col min="15" max="15" width="10.85546875" style="10"/>
+    <col min="13" max="13" width="28.1796875" style="7" customWidth="1"/>
+    <col min="14" max="14" width="10.81640625" style="2"/>
+    <col min="15" max="15" width="10.81640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>150</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>{'row': 0, 'week': '',  'editing': false, 'tipo': 'titulo0', 'data': [{ 'reg': 11, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'CONTABILIDAD GERENCIAL', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>149</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>{'row': 1, 'week': '',  'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 21, 'subtipo': 'generales', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'I. DATOS GENERALES', 'offset':1}, { 'reg': 35, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Código:', 'offset':1}, { 'reg': 85, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '100048', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -2310,7 +2310,7 @@
         <v>{'row': 2, 'week': '',  'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 130, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Pre‐ Requisito :', 'offset':2}, { 'reg': 7, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'Contabilidad General', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>{'row': 3, 'week': '',  'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 109, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Créditos : ', 'offset':2}, { 'reg': 13, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '03', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>{'row': 4, 'week': '',  'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 128, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Horas :', 'offset':2}, { 'reg': 91, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '04 horas', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>{'row': 5, 'week': '',  'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 24, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Semestre académico : ', 'offset':2}, { 'reg': 86, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '2017‐ I', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>{'row': 6, 'week': '',  'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Ciclo :', 'offset':2}, { 'reg': 103, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'III', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>149</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>{'row': 2, 'week': '',  'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 45, 'subtipo': 'sumillas', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'II. SUMILLA', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>151</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>{'row': 1, 'week': '',  'editing': false, 'tipo': 'sumillas', 'data': [{ 'reg': 36, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'justify', 'texto': 'El curso tiene como propósito integrar las teorías, las técnicas y las herramientas adquiridas en las materias de contabilidad general y administración que le permita llegar al alumno a desarrollar las habilidades de análisis, integración de la información para la construcción de propuestas y soluciones que llevan al logro de los objetivos de la organización. Se pondrá énfasis en el análisis financiero de los estados financieros y su relación con los costos empresariales.', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>149</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>{'row': 3, 'week': '',  'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 82, 'subtipo': 'competencias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'III. SISTEMA DE COMPETENCIAS', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>154</v>
       </c>
@@ -2771,20 +2771,23 @@
       <c r="K19" s="14">
         <v>37</v>
       </c>
+      <c r="L19" s="12" t="s">
+        <v>188</v>
+      </c>
       <c r="M19" s="15" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'reg': 37, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS GENERALES', 'offset':1}, </v>
+        <v xml:space="preserve">{ 'reg': 37, 'subtipo': 'competencias1', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS GENERALES', 'offset':1}, </v>
       </c>
       <c r="N19" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 37, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS GENERALES', 'offset':1}, </v>
+        <v xml:space="preserve">{ 'reg': 37, 'subtipo': 'competencias1', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS GENERALES', 'offset':1}, </v>
       </c>
       <c r="O19" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>153</v>
       </c>
@@ -2816,14 +2819,14 @@
       </c>
       <c r="N20" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 37, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS GENERALES', 'offset':1}, { 'reg': 10, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Comprende el papel de la información contable en los Negocios. Relación entre la contabilidad y la Administración y la toma de decisiones.', 'offset':1}, </v>
+        <v xml:space="preserve">{ 'reg': 37, 'subtipo': 'competencias1', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS GENERALES', 'offset':1}, { 'reg': 10, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Comprende el papel de la información contable en los Negocios. Relación entre la contabilidad y la Administración y la toma de decisiones.', 'offset':1}, </v>
       </c>
       <c r="O20" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>{'row': 1, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 37, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS GENERALES', 'offset':1}, { 'reg': 10, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Comprende el papel de la información contable en los Negocios. Relación entre la contabilidad y la Administración y la toma de decisiones.', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>{'row': 1, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 37, 'subtipo': 'competencias1', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS GENERALES', 'offset':1}, { 'reg': 10, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Comprende el papel de la información contable en los Negocios. Relación entre la contabilidad y la Administración y la toma de decisiones.', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>153</v>
       </c>
@@ -2863,7 +2866,7 @@
         <v>{'row': 2, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 13, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce y ejecuta los Estados Financieros de una empresa comercial, industrial y de servicios.', 'offset':2}, ],  },</v>
       </c>
     </row>
-    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>153</v>
       </c>
@@ -2903,7 +2906,7 @@
         <v>{'row': 3, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Toma de decisiones, en base a un análisis financiero, dentro de las funciones de operación, inversión y financiamiento y análisis de los costos.', 'offset':2}, ],  },</v>
       </c>
     </row>
-    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>153</v>
       </c>
@@ -2943,7 +2946,7 @@
         <v>{'row': 4, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 41, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Planifica la gestión de la empresa a futuro.', 'offset':2}, ],  },</v>
       </c>
     </row>
-    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>153</v>
       </c>
@@ -2983,7 +2986,7 @@
         <v>{'row': 5, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 77, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Capacidad de trabajo en equipo.', 'offset':2}, ],  },</v>
       </c>
     </row>
-    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>154</v>
       </c>
@@ -3009,20 +3012,23 @@
       <c r="K25" s="14">
         <v>9</v>
       </c>
+      <c r="L25" s="12" t="s">
+        <v>189</v>
+      </c>
       <c r="M25" s="15" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{ 'reg': 9, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS ESPECÍFICAS', 'offset':1}, </v>
+        <v xml:space="preserve">{ 'reg': 9, 'subtipo': 'competencias2', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS ESPECÍFICAS', 'offset':1}, </v>
       </c>
       <c r="N25" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">{ 'reg': 9, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS ESPECÍFICAS', 'offset':1}, </v>
+        <v xml:space="preserve">{ 'reg': 9, 'subtipo': 'competencias2', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS ESPECÍFICAS', 'offset':1}, </v>
       </c>
       <c r="O25" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>{'row': 2, 'week': '',  'editing': false, 'tipo': 'titulo2', 'data': [{ 'reg': 9, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS ESPECÍFICAS', 'offset':1}, ],  },</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>{'row': 2, 'week': '',  'editing': false, 'tipo': 'titulo2', 'data': [{ 'reg': 9, 'subtipo': 'competencias2', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS ESPECÍFICAS', 'offset':1}, ],  },</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>153</v>
       </c>
@@ -3061,7 +3067,7 @@
         <v>{'row': 1, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 84, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce, Analiza y describe las diferentes empresas que se desarrollan en nuestro país y la importancia que tiene en ellas la contabilidad gerencia, desde la óptica de los estados financieros: Estado de Situación Financiera y Estado de Resultados.', 'offset':2}, ],  },</v>
       </c>
     </row>
-    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>153</v>
       </c>
@@ -3101,7 +3107,7 @@
         <v>{'row': 2, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 32, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Analiza y diagnostica los Estados financieros básicos de diferentes empresas, mediante el análisis vertical y horizontal así como los ratios financieros. ', 'offset':2}, ],  },</v>
       </c>
     </row>
-    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>153</v>
       </c>
@@ -3141,7 +3147,7 @@
         <v>{'row': 3, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 111, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Desarrolla un plan financiero para una empresa: Presupuesto de ventas, Presupuesto de cobranzas, presupuesto de producción, presupuesto de compras, presupuesto de pagos, presupuesto de pagos, presupuesto de gastos, entre otros.', 'offset':2}, ],  },</v>
       </c>
     </row>
-    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>153</v>
       </c>
@@ -3181,7 +3187,7 @@
         <v>{'row': 4, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 28, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Estudia la importancia de la estructura de costos de una empresa y su implicancia en la planificación financiera.', 'offset':2}, ],  },</v>
       </c>
     </row>
-    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>153</v>
       </c>
@@ -3221,7 +3227,7 @@
         <v>{'row': 5, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 27, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Elabora estados financieros proyectados, para diagnosticar el futuro de la empresa.', 'offset':2}, ],  },</v>
       </c>
     </row>
-    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>149</v>
       </c>
@@ -3263,7 +3269,7 @@
         <v>{'row': 4, 'week': '',  'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 126, 'subtipo': 'contenidos', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'IV. PROGRAMACIÓN DE CONTENIDOS', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>156</v>
       </c>
@@ -3305,7 +3311,7 @@
         <v>{'row': 1, 'week': '1',  'editing': false, 'tipo': 'unidades', 'data': [{ 'reg': 22, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD I: LA CONTABILIDAD GERENCIAL.', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>155</v>
       </c>
@@ -3348,7 +3354,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>155</v>
       </c>
@@ -3391,7 +3397,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>155</v>
       </c>
@@ -3434,7 +3440,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>155</v>
       </c>
@@ -3477,7 +3483,7 @@
         <v>{'row': 2, 'week': '1.3',  'editing': false, 'tipo': 'titulo3', 'data': [{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 48, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'reg': 14, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, { 'reg': 25, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>157</v>
       </c>
@@ -3519,7 +3525,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="195" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>157</v>
       </c>
@@ -3563,7 +3569,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>157</v>
       </c>
@@ -3607,7 +3613,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>157</v>
       </c>
@@ -3651,7 +3657,7 @@
         <v>{'row': 1, 'week': '1.5',  'editing': false, 'tipo': 'contenidos', 'data': [{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, { 'reg': 127, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1}, { 'reg': 91, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Reconoce el recorrido de las operaciones empresariales en el ciclo contable de una empresa. Evalúa la utilidad de la información financiera y gerencial.', 'offset':1}, { 'reg': 115, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada\nTaller', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>157</v>
       </c>
@@ -3694,7 +3700,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>157</v>
       </c>
@@ -3738,7 +3744,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="str">
         <f>+A42</f>
         <v>contenidos</v>
@@ -3783,7 +3789,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="str">
         <f>+A43</f>
         <v>contenidos</v>
@@ -3828,7 +3834,7 @@
         <v>{'row': 2, 'week': '2.5',  'editing': false, 'tipo': 'contenidos', 'data': [{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, { 'reg': 17, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1}, { 'reg': 102, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Determinación, distribución y aplicación de los costos en una empresa mercantil.', 'offset':1}, { 'reg': 126, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Dinámica grupal/debate en clase', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>157</v>
       </c>
@@ -3871,7 +3877,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>157</v>
       </c>
@@ -3915,7 +3921,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>157</v>
       </c>
@@ -3959,7 +3965,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>157</v>
       </c>
@@ -4003,7 +4009,7 @@
         <v>{'row': 3, 'week': '3.5',  'editing': false, 'tipo': 'contenidos', 'data': [{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, { 'reg': 124, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1}, { 'reg': 26, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Analizar y aplicar el marco legal normativo para la elaboración de los Estados Financieros.', 'offset':1}, { 'reg': 40, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>157</v>
       </c>
@@ -4046,7 +4052,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>157</v>
       </c>
@@ -4090,7 +4096,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>157</v>
       </c>
@@ -4134,7 +4140,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>157</v>
       </c>
@@ -4178,7 +4184,7 @@
         <v>{'row': 4, 'week': '4.5',  'editing': false, 'tipo': 'contenidos', 'data': [{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, { 'reg': 62, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1}, { 'reg': 10, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Evalúa los resultados obtenidos. Demuestra la aplicación del análisis vertical y horizontal.', 'offset':1}, { 'reg': 82, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Clase Expositiva\n Taller\n  Discusión de caso', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>182</v>
       </c>
@@ -4221,7 +4227,7 @@
         <v>{'row': 5, 'week': '4.9',  'editing': false, 'tipo': 'examenes', 'data': [{ 'reg': 19, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'center', 'texto': 'EVALUACIÓN PARCIAL 1 ', 'offset':2}, ],  },</v>
       </c>
     </row>
-    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>157</v>
       </c>
@@ -4264,7 +4270,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>157</v>
       </c>
@@ -4305,7 +4311,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>157</v>
       </c>
@@ -4346,7 +4352,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>157</v>
       </c>
@@ -4387,7 +4393,7 @@
         <v>{'row': 6, 'week': '5.5',  'editing': false, 'tipo': 'contenidos', 'data': [{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, { 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1}, { 'reg': 39, 'subtipo': '', 'col': 4, 'cols': 2, 'align': '', 'texto': 'Propicia un debate acerca de la toma de decisiones en una empresa.', 'offset':1}, { 'reg': 69, 'subtipo': '', 'col': 6, 'cols': 2, 'align': '', 'texto': 'Exposición dialogada', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>156</v>
       </c>
@@ -4429,7 +4435,7 @@
         <v>{'row': 2, 'week': '6',  'editing': false, 'tipo': 'unidades', 'data': [{ 'reg': 124, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD II: ANALISIS E INTERPRETACION DE LOS ESTADOS FINANCIEROS', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>155</v>
       </c>
@@ -4472,7 +4478,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>155</v>
       </c>
@@ -4516,7 +4522,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>155</v>
       </c>
@@ -4560,7 +4566,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>155</v>
       </c>
@@ -4604,7 +4610,7 @@
         <v>{'row': 3, 'week': '6.2',  'editing': false, 'tipo': 'titulo3', 'data': [{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'reg': 73, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, { 'reg': 27, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>149</v>
       </c>
@@ -4646,7 +4652,7 @@
         <v>{'row': 5, 'week': '',  'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 6, 'subtipo': 'estrategias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'V. ESTRATEGIAS METODOLÓGICAS', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>149</v>
       </c>
@@ -4688,7 +4694,7 @@
         <v>{'row': 6, 'week': '',  'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 75, 'subtipo': 'evaluaciones', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VI. EVALUACIÓN', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>149</v>
       </c>
@@ -4730,26 +4736,20 @@
         <v>{'row': 7, 'week': '',  'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 102, 'subtipo': 'bibliografias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VII. BIBLIOGRAFÍA', 'offset':1}, ],  },</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="I70" s="16"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="I71" s="16"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="I72" s="16"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="I73" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I65">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="sumillas"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I65"/>
   <sortState ref="A2:N80">
     <sortCondition ref="E2:E80"/>
     <sortCondition ref="F2:F80"/>
@@ -4767,10 +4767,10 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="6.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -4791,42 +4791,42 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="21"/>
-      <c r="D6" s="21"/>
+      <c r="B6" s="17"/>
+      <c r="D6" s="17"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="C7" s="17"/>
+      <c r="E7" s="17"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="B9" s="17"/>
+      <c r="D9" s="17"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D10" s="21"/>
+      <c r="D10" s="17"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E11" s="21"/>
+      <c r="E11" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/topdown.xlsx
+++ b/topdown.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,6 +14,8 @@
     <sheet name="datos" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Hoja2" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="switches" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="selectores" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="botones" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">datos!$A$1:$I$65</definedName>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="264">
   <si>
     <t xml:space="preserve">Componente</t>
   </si>
@@ -674,7 +676,7 @@
     <t xml:space="preserve">Al presionar en .editX.btn</t>
   </si>
   <si>
-    <t xml:space="preserve">sw_editing=true</t>
+    <t xml:space="preserve">active_line = id</t>
   </si>
   <si>
     <t xml:space="preserve">componentX.vue</t>
@@ -683,10 +685,148 @@
     <t xml:space="preserve">store.js</t>
   </si>
   <si>
+    <t xml:space="preserve">En la linea activa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linea.editing=true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">button Grabar</t>
+  </si>
+  <si>
     <t xml:space="preserve">Al presionar en .saveX.btn</t>
   </si>
   <si>
     <t xml:space="preserve">sw_editing=false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">primarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sumillas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Competencias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">secundarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuevo Registro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grabar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v-html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">textarea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">editar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v-model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">switchEdit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">active_line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campo New</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boton New</t>
+  </si>
+  <si>
+    <t xml:space="preserve">linea. Editing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campo linea activa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boton linea activa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campo linea inactiva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boton linea inactiva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nuevo[componente]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'vista’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click contenido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'contenido’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hidden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Nuevo registro’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">view</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Editar’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click Nuevo registro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new</t>
+  </si>
+  <si>
+    <t xml:space="preserve">textArea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Grabar’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click Grabar (registro new)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click Editar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click Grabar (registro old)</t>
   </si>
 </sst>
 </file>
@@ -697,7 +837,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0\ %"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -722,6 +862,15 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <i val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -777,7 +926,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -850,7 +999,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -863,6 +1016,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -889,7 +1054,7 @@
   </sheetPr>
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F29" activeCellId="0" sqref="F29"/>
     </sheetView>
   </sheetViews>
@@ -1101,7 +1266,7 @@
   </sheetPr>
   <dimension ref="A2:P4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -1122,7 +1287,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="7.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="5.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="10.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="16.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="16.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="17" style="0" width="10.53"/>
   </cols>
   <sheetData>
@@ -1244,7 +1409,7 @@
   </sheetPr>
   <dimension ref="A1:J95"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1923,7 +2088,7 @@
   </sheetPr>
   <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O13" activeCellId="0" sqref="O13"/>
     </sheetView>
   </sheetViews>
@@ -4668,7 +4833,7 @@
   </sheetPr>
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -4713,16 +4878,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="14.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="16.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="20.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="8" width="12.38"/>
@@ -4781,26 +4946,26 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="E2" s="19"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="20" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="21" t="s">
         <v>204</v>
       </c>
       <c r="F3" s="8" t="n">
@@ -4815,7 +4980,7 @@
       <c r="I3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="J3" s="21" t="n">
+      <c r="J3" s="22" t="n">
         <v>11</v>
       </c>
       <c r="K3" s="8" t="n">
@@ -4835,11 +5000,11 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="20" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="21" t="s">
         <v>205</v>
       </c>
       <c r="F4" s="8" t="n">
@@ -4874,11 +5039,11 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="20" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="21" t="s">
         <v>206</v>
       </c>
       <c r="F5" s="8" t="n">
@@ -4913,11 +5078,11 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="20" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="21" t="s">
         <v>209</v>
       </c>
       <c r="F6" s="8" t="n">
@@ -4952,35 +5117,95 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="21"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>215</v>
-      </c>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="21"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="0" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C10" s="0"/>
+      <c r="D10" s="20" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0"/>
+      <c r="C12" s="0"/>
+      <c r="D12" s="20"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0"/>
+      <c r="C13" s="0"/>
+      <c r="D13" s="20"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0"/>
+      <c r="C14" s="0"/>
+      <c r="D14" s="20"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+      <c r="D15" s="20"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="D16" s="20" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4999,4 +5224,312 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.14"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>235</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AMJ9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="10.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="10.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="11.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="8" width="13.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="8" width="14.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="7" style="8" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="8" width="20.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="9.14"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="23" customFormat="true" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D2" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="K5" s="25" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D6" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D8" s="8" t="n">
+        <v>99</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="J8" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="K8" s="25" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D9" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/topdown.xlsx
+++ b/topdown.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="265">
   <si>
     <t xml:space="preserve">Componente</t>
   </si>
@@ -796,28 +796,31 @@
     <t xml:space="preserve">'contenido’</t>
   </si>
   <si>
+    <t xml:space="preserve">none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Nuevo registro’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">view</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Editar’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click Nuevo registro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new</t>
+  </si>
+  <si>
+    <t xml:space="preserve">textArea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Grabar’</t>
+  </si>
+  <si>
     <t xml:space="preserve">hidden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'Nuevo registro’</t>
-  </si>
-  <si>
-    <t xml:space="preserve">view</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'Editar’</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click Nuevo registro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new</t>
-  </si>
-  <si>
-    <t xml:space="preserve">textArea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'Grabar’</t>
   </si>
   <si>
     <t xml:space="preserve">Click Grabar (registro new)</t>
@@ -5332,10 +5335,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ9"/>
+  <dimension ref="A1:AMJ10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5412,6 +5415,12 @@
       <c r="B4" s="8" t="s">
         <v>252</v>
       </c>
+      <c r="C4" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D4" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="E4" s="24" t="s">
         <v>253</v>
       </c>
@@ -5442,15 +5451,15 @@
         <v>260</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="K5" s="25" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>249</v>
@@ -5459,7 +5468,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>254</v>
@@ -5472,32 +5481,23 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>262</v>
-      </c>
       <c r="C8" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D8" s="8" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E8" s="24" t="s">
         <v>253</v>
       </c>
-      <c r="F8" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>259</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="J8" s="25" t="s">
+      <c r="F8" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="J8" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="K8" s="25" t="s">
-        <v>253</v>
+      <c r="K8" s="8" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5505,21 +5505,50 @@
         <v>263</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D9" s="8" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="E9" s="24" t="s">
         <v>253</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="K9" s="25" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D10" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J10" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K10" s="8" t="s">
         <v>256</v>
       </c>
     </row>

--- a/topdown.xlsx
+++ b/topdown.xlsx
@@ -5,14 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="campos" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="modelo" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="syllabus_modelo" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="datos" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Hoja2" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="modelos" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="switches" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="selectores" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="botones" sheetId="8" state="visible" r:id="rId9"/>
@@ -21,7 +21,7 @@
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">datos!$A$1:$I$65</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Extract" vbProcedure="false">campos!#ref!</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">campos!#ref!</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Extract" vbProcedure="false">Hoja2!$A$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Extract" vbProcedure="false">modelos!$A$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">hoja2!#ref!</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="303">
   <si>
     <t xml:space="preserve">Componente</t>
   </si>
@@ -594,16 +594,130 @@
     <t xml:space="preserve">bibliografias</t>
   </si>
   <si>
-    <t xml:space="preserve">nivel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nivel 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nivel 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nivel 3</t>
+    <t xml:space="preserve">modelo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">semestre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">titulos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">columns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cod_comp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cod_curso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">concepto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">procedimiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actividad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cursos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wcurso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">horas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">creditos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prereq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wprereq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ciclo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lineas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mallas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">con</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eegg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mcursos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abreviatur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prereqs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">especialidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grupos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cod_grupo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wgrupo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">curso_grupos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">curso_competencia</t>
   </si>
   <si>
     <t xml:space="preserve">Detalle</t>
@@ -840,7 +954,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0\ %"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -872,6 +986,14 @@
       <charset val="1"/>
     </font>
     <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <i val="true"/>
       <sz val="11"/>
@@ -881,7 +1003,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -892,6 +1014,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCF3834"/>
+        <bgColor rgb="FFCE181E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCE181E"/>
+        <bgColor rgb="FFCF3834"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF685"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -929,7 +1069,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -994,6 +1134,22 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1030,7 +1186,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1043,6 +1199,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCE181E"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FFCF3834"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFF685"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -2177,11 +2393,11 @@
       </c>
       <c r="M2" s="10" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K2&amp;", '"&amp;L$1&amp;"': '"&amp;L2&amp;"', '"&amp;F$1&amp;"': "&amp;F2&amp;", '"&amp;G$1&amp;"': "&amp;G2&amp;", '"&amp;H$1&amp;"': '"&amp;H2&amp;"', '"&amp;I$1&amp;"': '"&amp;I2&amp;"', '"&amp;J$1&amp;"':"&amp;J2&amp;"}, "</f>
-        <v>{ 'reg': 11, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'CONTABILIDAD GERENCIAL', 'offset':1}, </v>
+        <v>{ 'reg': 11, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'CONTABILIDAD GERENCIAL', 'offset':1},</v>
       </c>
       <c r="N2" s="6" t="str">
         <f aca="false">IF(E1=E2,CONCATENATE(N1,M2),M2)</f>
-        <v>{ 'reg': 11, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'CONTABILIDAD GERENCIAL', 'offset':1}, </v>
+        <v>{ 'reg': 11, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'CONTABILIDAD GERENCIAL', 'offset':1},</v>
       </c>
       <c r="O2" s="14" t="str">
         <f aca="false">IF(E2=E3,"","{'"&amp;E$1&amp;"': "&amp;E2&amp;", '"&amp;B$1&amp;"': '"&amp;B2&amp;"',  'editing': false, 'tipo': '"&amp;A2&amp;"', 'data': "&amp;"["&amp;N2&amp;"],  },")</f>
@@ -2219,11 +2435,11 @@
       </c>
       <c r="M3" s="10" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K3&amp;", '"&amp;L$1&amp;"': '"&amp;L3&amp;"', '"&amp;F$1&amp;"': "&amp;F3&amp;", '"&amp;G$1&amp;"': "&amp;G3&amp;", '"&amp;H$1&amp;"': '"&amp;H3&amp;"', '"&amp;I$1&amp;"': '"&amp;I3&amp;"', '"&amp;J$1&amp;"':"&amp;J3&amp;"}, "</f>
-        <v>{ 'reg': 21, 'subtipo': 'generales', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'I. DATOS GENERALES', 'offset':1}, </v>
+        <v>{ 'reg': 21, 'subtipo': 'generales', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'I. DATOS GENERALES', 'offset':1},</v>
       </c>
       <c r="N3" s="6" t="str">
         <f aca="false">IF(E2=E3,CONCATENATE(N2,M3),M3)</f>
-        <v>{ 'reg': 21, 'subtipo': 'generales', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'I. DATOS GENERALES', 'offset':1}, </v>
+        <v>{ 'reg': 21, 'subtipo': 'generales', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'I. DATOS GENERALES', 'offset':1},</v>
       </c>
       <c r="O3" s="14" t="str">
         <f aca="false">IF(E3=E4,"","{'"&amp;E$1&amp;"': "&amp;E3&amp;", '"&amp;B$1&amp;"': '"&amp;B3&amp;"',  'editing': false, 'tipo': '"&amp;A3&amp;"', 'data': "&amp;"["&amp;N3&amp;"],  },")</f>
@@ -2262,7 +2478,7 @@
       </c>
       <c r="N4" s="6" t="str">
         <f aca="false">IF(E3=E4,CONCATENATE(N3,M4),M4)</f>
-        <v>{ 'reg': 21, 'subtipo': 'generales', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'I. DATOS GENERALES', 'offset':1}, { 'reg': 35, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Código:', 'offset':1}, </v>
+        <v>{ 'reg': 21, 'subtipo': 'generales', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'I. DATOS GENERALES', 'offset':1},{ 'reg': 35, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Código:', 'offset':1}, </v>
       </c>
       <c r="O4" s="14" t="str">
         <f aca="false">IF(E4=E5,"","{'"&amp;E$1&amp;"': "&amp;E4&amp;", '"&amp;B$1&amp;"': '"&amp;B4&amp;"',  'editing': false, 'tipo': '"&amp;A4&amp;"', 'data': "&amp;"["&amp;N4&amp;"],  },")</f>
@@ -2297,15 +2513,15 @@
       </c>
       <c r="M5" s="10" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K5&amp;", '"&amp;L$1&amp;"': '"&amp;L5&amp;"', '"&amp;F$1&amp;"': "&amp;F5&amp;", '"&amp;G$1&amp;"': "&amp;G5&amp;", '"&amp;H$1&amp;"': '"&amp;H5&amp;"', '"&amp;I$1&amp;"': '"&amp;I5&amp;"', '"&amp;J$1&amp;"':"&amp;J5&amp;"}, "</f>
-        <v>{ 'reg': 85, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '100048', 'offset':1}, </v>
+        <v>{ 'reg': 85, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '100048', 'offset':1},</v>
       </c>
       <c r="N5" s="6" t="str">
         <f aca="false">IF(E4=E5,CONCATENATE(N4,M5),M5)</f>
-        <v>{ 'reg': 21, 'subtipo': 'generales', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'I. DATOS GENERALES', 'offset':1}, { 'reg': 35, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Código:', 'offset':1}, { 'reg': 85, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '100048', 'offset':1}, </v>
+        <v>{ 'reg': 21, 'subtipo': 'generales', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'I. DATOS GENERALES', 'offset':1},{ 'reg': 35, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Código:', 'offset':1}, { 'reg': 85, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '100048', 'offset':1},</v>
       </c>
       <c r="O5" s="14" t="str">
         <f aca="false">IF(E5=E6,"","{'"&amp;E$1&amp;"': "&amp;E5&amp;", '"&amp;B$1&amp;"': '"&amp;B5&amp;"',  'editing': false, 'tipo': '"&amp;A5&amp;"', 'data': "&amp;"["&amp;N5&amp;"],  },")</f>
-        <v>{'row': 1, 'week': '',  'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 21, 'subtipo': 'generales', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'I. DATOS GENERALES', 'offset':1}, { 'reg': 35, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Código:', 'offset':1}, { 'reg': 85, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '100048', 'offset':1}, ],  },</v>
+        <v>{'row': 1, 'week': '',  'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 21, 'subtipo': 'generales', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'I. DATOS GENERALES', 'offset':1},{ 'reg': 35, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Código:', 'offset':1}, { 'reg': 85, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '100048', 'offset':1},],  },</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2336,11 +2552,11 @@
       </c>
       <c r="M6" s="10" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K6&amp;", '"&amp;L$1&amp;"': '"&amp;L6&amp;"', '"&amp;F$1&amp;"': "&amp;F6&amp;", '"&amp;G$1&amp;"': "&amp;G6&amp;", '"&amp;H$1&amp;"': '"&amp;H6&amp;"', '"&amp;I$1&amp;"': '"&amp;I6&amp;"', '"&amp;J$1&amp;"':"&amp;J6&amp;"}, "</f>
-        <v>{ 'reg': 130, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Pre‐ Requisito :', 'offset':2}, </v>
+        <v>{ 'reg': 130, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Pre‐ Requisito :', 'offset':2},</v>
       </c>
       <c r="N6" s="6" t="str">
         <f aca="false">IF(E5=E6,CONCATENATE(N5,M6),M6)</f>
-        <v>{ 'reg': 130, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Pre‐ Requisito :', 'offset':2}, </v>
+        <v>{ 'reg': 130, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Pre‐ Requisito :', 'offset':2},</v>
       </c>
       <c r="O6" s="14" t="str">
         <f aca="false">IF(E6=E7,"","{'"&amp;E$1&amp;"': "&amp;E6&amp;", '"&amp;B$1&amp;"': '"&amp;B6&amp;"',  'editing': false, 'tipo': '"&amp;A6&amp;"', 'data': "&amp;"["&amp;N6&amp;"],  },")</f>
@@ -2375,15 +2591,15 @@
       </c>
       <c r="M7" s="10" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K7&amp;", '"&amp;L$1&amp;"': '"&amp;L7&amp;"', '"&amp;F$1&amp;"': "&amp;F7&amp;", '"&amp;G$1&amp;"': "&amp;G7&amp;", '"&amp;H$1&amp;"': '"&amp;H7&amp;"', '"&amp;I$1&amp;"': '"&amp;I7&amp;"', '"&amp;J$1&amp;"':"&amp;J7&amp;"}, "</f>
-        <v>{ 'reg': 7, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'Contabilidad General', 'offset':1}, </v>
+        <v>{ 'reg': 7, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'Contabilidad General', 'offset':1},</v>
       </c>
       <c r="N7" s="6" t="str">
         <f aca="false">IF(E6=E7,CONCATENATE(N6,M7),M7)</f>
-        <v>{ 'reg': 130, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Pre‐ Requisito :', 'offset':2}, { 'reg': 7, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'Contabilidad General', 'offset':1}, </v>
+        <v>{ 'reg': 130, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Pre‐ Requisito :', 'offset':2},{ 'reg': 7, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'Contabilidad General', 'offset':1},</v>
       </c>
       <c r="O7" s="14" t="str">
         <f aca="false">IF(E7=E8,"","{'"&amp;E$1&amp;"': "&amp;E7&amp;", '"&amp;B$1&amp;"': '"&amp;B7&amp;"',  'editing': false, 'tipo': '"&amp;A7&amp;"', 'data': "&amp;"["&amp;N7&amp;"],  },")</f>
-        <v>{'row': 2, 'week': '',  'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 130, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Pre‐ Requisito :', 'offset':2}, { 'reg': 7, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'Contabilidad General', 'offset':1}, ],  },</v>
+        <v>{'row': 2, 'week': '',  'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 130, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Pre‐ Requisito :', 'offset':2},{ 'reg': 7, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'Contabilidad General', 'offset':1},],  },</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2414,11 +2630,11 @@
       </c>
       <c r="M8" s="10" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K8&amp;", '"&amp;L$1&amp;"': '"&amp;L8&amp;"', '"&amp;F$1&amp;"': "&amp;F8&amp;", '"&amp;G$1&amp;"': "&amp;G8&amp;", '"&amp;H$1&amp;"': '"&amp;H8&amp;"', '"&amp;I$1&amp;"': '"&amp;I8&amp;"', '"&amp;J$1&amp;"':"&amp;J8&amp;"}, "</f>
-        <v>{ 'reg': 109, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Créditos : ', 'offset':2}, </v>
+        <v>{ 'reg': 109, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Créditos : ', 'offset':2},</v>
       </c>
       <c r="N8" s="6" t="str">
         <f aca="false">IF(E7=E8,CONCATENATE(N7,M8),M8)</f>
-        <v>{ 'reg': 109, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Créditos : ', 'offset':2}, </v>
+        <v>{ 'reg': 109, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Créditos : ', 'offset':2},</v>
       </c>
       <c r="O8" s="14" t="str">
         <f aca="false">IF(E8=E9,"","{'"&amp;E$1&amp;"': "&amp;E8&amp;", '"&amp;B$1&amp;"': '"&amp;B8&amp;"',  'editing': false, 'tipo': '"&amp;A8&amp;"', 'data': "&amp;"["&amp;N8&amp;"],  },")</f>
@@ -2453,15 +2669,15 @@
       </c>
       <c r="M9" s="10" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K9&amp;", '"&amp;L$1&amp;"': '"&amp;L9&amp;"', '"&amp;F$1&amp;"': "&amp;F9&amp;", '"&amp;G$1&amp;"': "&amp;G9&amp;", '"&amp;H$1&amp;"': '"&amp;H9&amp;"', '"&amp;I$1&amp;"': '"&amp;I9&amp;"', '"&amp;J$1&amp;"':"&amp;J9&amp;"}, "</f>
-        <v>{ 'reg': 13, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '03', 'offset':1}, </v>
+        <v>{ 'reg': 13, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '03', 'offset':1},</v>
       </c>
       <c r="N9" s="6" t="str">
         <f aca="false">IF(E8=E9,CONCATENATE(N8,M9),M9)</f>
-        <v>{ 'reg': 109, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Créditos : ', 'offset':2}, { 'reg': 13, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '03', 'offset':1}, </v>
+        <v>{ 'reg': 109, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Créditos : ', 'offset':2},{ 'reg': 13, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '03', 'offset':1},</v>
       </c>
       <c r="O9" s="14" t="str">
         <f aca="false">IF(E9=E10,"","{'"&amp;E$1&amp;"': "&amp;E9&amp;", '"&amp;B$1&amp;"': '"&amp;B9&amp;"',  'editing': false, 'tipo': '"&amp;A9&amp;"', 'data': "&amp;"["&amp;N9&amp;"],  },")</f>
-        <v>{'row': 3, 'week': '',  'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 109, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Créditos : ', 'offset':2}, { 'reg': 13, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '03', 'offset':1}, ],  },</v>
+        <v>{'row': 3, 'week': '',  'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 109, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Créditos : ', 'offset':2},{ 'reg': 13, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '03', 'offset':1},],  },</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2492,11 +2708,11 @@
       </c>
       <c r="M10" s="10" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K10&amp;", '"&amp;L$1&amp;"': '"&amp;L10&amp;"', '"&amp;F$1&amp;"': "&amp;F10&amp;", '"&amp;G$1&amp;"': "&amp;G10&amp;", '"&amp;H$1&amp;"': '"&amp;H10&amp;"', '"&amp;I$1&amp;"': '"&amp;I10&amp;"', '"&amp;J$1&amp;"':"&amp;J10&amp;"}, "</f>
-        <v>{ 'reg': 128, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Horas :', 'offset':2}, </v>
+        <v>{ 'reg': 128, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Horas :', 'offset':2},</v>
       </c>
       <c r="N10" s="6" t="str">
         <f aca="false">IF(E9=E10,CONCATENATE(N9,M10),M10)</f>
-        <v>{ 'reg': 128, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Horas :', 'offset':2}, </v>
+        <v>{ 'reg': 128, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Horas :', 'offset':2},</v>
       </c>
       <c r="O10" s="14" t="str">
         <f aca="false">IF(E10=E11,"","{'"&amp;E$1&amp;"': "&amp;E10&amp;", '"&amp;B$1&amp;"': '"&amp;B10&amp;"',  'editing': false, 'tipo': '"&amp;A10&amp;"', 'data': "&amp;"["&amp;N10&amp;"],  },")</f>
@@ -2531,15 +2747,15 @@
       </c>
       <c r="M11" s="10" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K11&amp;", '"&amp;L$1&amp;"': '"&amp;L11&amp;"', '"&amp;F$1&amp;"': "&amp;F11&amp;", '"&amp;G$1&amp;"': "&amp;G11&amp;", '"&amp;H$1&amp;"': '"&amp;H11&amp;"', '"&amp;I$1&amp;"': '"&amp;I11&amp;"', '"&amp;J$1&amp;"':"&amp;J11&amp;"}, "</f>
-        <v>{ 'reg': 91, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '04 horas', 'offset':1}, </v>
+        <v>{ 'reg': 91, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '04 horas', 'offset':1},</v>
       </c>
       <c r="N11" s="6" t="str">
         <f aca="false">IF(E10=E11,CONCATENATE(N10,M11),M11)</f>
-        <v>{ 'reg': 128, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Horas :', 'offset':2}, { 'reg': 91, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '04 horas', 'offset':1}, </v>
+        <v>{ 'reg': 128, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Horas :', 'offset':2},{ 'reg': 91, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '04 horas', 'offset':1},</v>
       </c>
       <c r="O11" s="14" t="str">
         <f aca="false">IF(E11=E12,"","{'"&amp;E$1&amp;"': "&amp;E11&amp;", '"&amp;B$1&amp;"': '"&amp;B11&amp;"',  'editing': false, 'tipo': '"&amp;A11&amp;"', 'data': "&amp;"["&amp;N11&amp;"],  },")</f>
-        <v>{'row': 4, 'week': '',  'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 128, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Horas :', 'offset':2}, { 'reg': 91, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '04 horas', 'offset':1}, ],  },</v>
+        <v>{'row': 4, 'week': '',  'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 128, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Horas :', 'offset':2},{ 'reg': 91, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '04 horas', 'offset':1},],  },</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2570,11 +2786,11 @@
       </c>
       <c r="M12" s="10" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K12&amp;", '"&amp;L$1&amp;"': '"&amp;L12&amp;"', '"&amp;F$1&amp;"': "&amp;F12&amp;", '"&amp;G$1&amp;"': "&amp;G12&amp;", '"&amp;H$1&amp;"': '"&amp;H12&amp;"', '"&amp;I$1&amp;"': '"&amp;I12&amp;"', '"&amp;J$1&amp;"':"&amp;J12&amp;"}, "</f>
-        <v>{ 'reg': 24, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Semestre académico : ', 'offset':2}, </v>
+        <v>{ 'reg': 24, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Semestre académico : ', 'offset':2},</v>
       </c>
       <c r="N12" s="6" t="str">
         <f aca="false">IF(E11=E12,CONCATENATE(N11,M12),M12)</f>
-        <v>{ 'reg': 24, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Semestre académico : ', 'offset':2}, </v>
+        <v>{ 'reg': 24, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Semestre académico : ', 'offset':2},</v>
       </c>
       <c r="O12" s="14" t="str">
         <f aca="false">IF(E12=E13,"","{'"&amp;E$1&amp;"': "&amp;E12&amp;", '"&amp;B$1&amp;"': '"&amp;B12&amp;"',  'editing': false, 'tipo': '"&amp;A12&amp;"', 'data': "&amp;"["&amp;N12&amp;"],  },")</f>
@@ -2609,15 +2825,15 @@
       </c>
       <c r="M13" s="10" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K13&amp;", '"&amp;L$1&amp;"': '"&amp;L13&amp;"', '"&amp;F$1&amp;"': "&amp;F13&amp;", '"&amp;G$1&amp;"': "&amp;G13&amp;", '"&amp;H$1&amp;"': '"&amp;H13&amp;"', '"&amp;I$1&amp;"': '"&amp;I13&amp;"', '"&amp;J$1&amp;"':"&amp;J13&amp;"}, "</f>
-        <v>{ 'reg': 86, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '2017‐ I', 'offset':1}, </v>
+        <v>{ 'reg': 86, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '2017‐ I', 'offset':1},</v>
       </c>
       <c r="N13" s="6" t="str">
         <f aca="false">IF(E12=E13,CONCATENATE(N12,M13),M13)</f>
-        <v>{ 'reg': 24, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Semestre académico : ', 'offset':2}, { 'reg': 86, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '2017‐ I', 'offset':1}, </v>
+        <v>{ 'reg': 24, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Semestre académico : ', 'offset':2},{ 'reg': 86, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '2017‐ I', 'offset':1},</v>
       </c>
       <c r="O13" s="14" t="str">
         <f aca="false">IF(E13=E14,"","{'"&amp;E$1&amp;"': "&amp;E13&amp;", '"&amp;B$1&amp;"': '"&amp;B13&amp;"',  'editing': false, 'tipo': '"&amp;A13&amp;"', 'data': "&amp;"["&amp;N13&amp;"],  },")</f>
-        <v>{'row': 5, 'week': '',  'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 24, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Semestre académico : ', 'offset':2}, { 'reg': 86, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '2017‐ I', 'offset':1}, ],  },</v>
+        <v>{'row': 5, 'week': '',  'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 24, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Semestre académico : ', 'offset':2},{ 'reg': 86, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '2017‐ I', 'offset':1},],  },</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2648,11 +2864,11 @@
       </c>
       <c r="M14" s="10" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K14&amp;", '"&amp;L$1&amp;"': '"&amp;L14&amp;"', '"&amp;F$1&amp;"': "&amp;F14&amp;", '"&amp;G$1&amp;"': "&amp;G14&amp;", '"&amp;H$1&amp;"': '"&amp;H14&amp;"', '"&amp;I$1&amp;"': '"&amp;I14&amp;"', '"&amp;J$1&amp;"':"&amp;J14&amp;"}, "</f>
-        <v>{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Ciclo :', 'offset':2}, </v>
+        <v>{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Ciclo :', 'offset':2},</v>
       </c>
       <c r="N14" s="6" t="str">
         <f aca="false">IF(E13=E14,CONCATENATE(N13,M14),M14)</f>
-        <v>{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Ciclo :', 'offset':2}, </v>
+        <v>{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Ciclo :', 'offset':2},</v>
       </c>
       <c r="O14" s="14" t="str">
         <f aca="false">IF(E14=E15,"","{'"&amp;E$1&amp;"': "&amp;E14&amp;", '"&amp;B$1&amp;"': '"&amp;B14&amp;"',  'editing': false, 'tipo': '"&amp;A14&amp;"', 'data': "&amp;"["&amp;N14&amp;"],  },")</f>
@@ -2687,15 +2903,15 @@
       </c>
       <c r="M15" s="10" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K15&amp;", '"&amp;L$1&amp;"': '"&amp;L15&amp;"', '"&amp;F$1&amp;"': "&amp;F15&amp;", '"&amp;G$1&amp;"': "&amp;G15&amp;", '"&amp;H$1&amp;"': '"&amp;H15&amp;"', '"&amp;I$1&amp;"': '"&amp;I15&amp;"', '"&amp;J$1&amp;"':"&amp;J15&amp;"}, "</f>
-        <v>{ 'reg': 103, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'III', 'offset':1}, </v>
+        <v>{ 'reg': 103, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'III', 'offset':1},</v>
       </c>
       <c r="N15" s="6" t="str">
         <f aca="false">IF(E14=E15,CONCATENATE(N14,M15),M15)</f>
-        <v>{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Ciclo :', 'offset':2}, { 'reg': 103, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'III', 'offset':1}, </v>
+        <v>{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Ciclo :', 'offset':2},{ 'reg': 103, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'III', 'offset':1},</v>
       </c>
       <c r="O15" s="14" t="str">
         <f aca="false">IF(E15=E16,"","{'"&amp;E$1&amp;"': "&amp;E15&amp;", '"&amp;B$1&amp;"': '"&amp;B15&amp;"',  'editing': false, 'tipo': '"&amp;A15&amp;"', 'data': "&amp;"["&amp;N15&amp;"],  },")</f>
-        <v>{'row': 6, 'week': '',  'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Ciclo :', 'offset':2}, { 'reg': 103, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'III', 'offset':1}, ],  },</v>
+        <v>{'row': 6, 'week': '',  'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Ciclo :', 'offset':2},{ 'reg': 103, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'III', 'offset':1},],  },</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2729,15 +2945,15 @@
       </c>
       <c r="M16" s="10" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K16&amp;", '"&amp;L$1&amp;"': '"&amp;L16&amp;"', '"&amp;F$1&amp;"': "&amp;F16&amp;", '"&amp;G$1&amp;"': "&amp;G16&amp;", '"&amp;H$1&amp;"': '"&amp;H16&amp;"', '"&amp;I$1&amp;"': '"&amp;I16&amp;"', '"&amp;J$1&amp;"':"&amp;J16&amp;"}, "</f>
-        <v>{ 'reg': 45, 'subtipo': 'sumillas', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'II. SUMILLA', 'offset':1}, </v>
+        <v>{ 'reg': 45, 'subtipo': 'sumillas', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'II. SUMILLA', 'offset':1},</v>
       </c>
       <c r="N16" s="6" t="str">
         <f aca="false">IF(E15=E16,CONCATENATE(N15,M16),M16)</f>
-        <v>{ 'reg': 45, 'subtipo': 'sumillas', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'II. SUMILLA', 'offset':1}, </v>
+        <v>{ 'reg': 45, 'subtipo': 'sumillas', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'II. SUMILLA', 'offset':1},</v>
       </c>
       <c r="O16" s="14" t="str">
         <f aca="false">IF(E16=E17,"","{'"&amp;E$1&amp;"': "&amp;E16&amp;", '"&amp;B$1&amp;"': '"&amp;B16&amp;"',  'editing': false, 'tipo': '"&amp;A16&amp;"', 'data': "&amp;"["&amp;N16&amp;"],  },")</f>
-        <v>{'row': 2, 'week': '',  'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 45, 'subtipo': 'sumillas', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'II. SUMILLA', 'offset':1}, ],  },</v>
+        <v>{'row': 2, 'week': '',  'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 45, 'subtipo': 'sumillas', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'II. SUMILLA', 'offset':1},],  },</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2768,15 +2984,15 @@
       </c>
       <c r="M17" s="10" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K17&amp;", '"&amp;L$1&amp;"': '"&amp;L17&amp;"', '"&amp;F$1&amp;"': "&amp;F17&amp;", '"&amp;G$1&amp;"': "&amp;G17&amp;", '"&amp;H$1&amp;"': '"&amp;H17&amp;"', '"&amp;I$1&amp;"': '"&amp;I17&amp;"', '"&amp;J$1&amp;"':"&amp;J17&amp;"}, "</f>
-        <v>{ 'reg': 36, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'justify', 'texto': 'El curso tiene como propósito integrar las teorías, las técnicas y las herramientas adquiridas en las materias de contabilidad general y administración que le permita llegar al alumno a desarrollar las habilidades de análisis, integración de la información para la construcción de propuestas y soluciones que llevan al logro de los objetivos de la organización. Se pondrá énfasis en el análisis financiero de los estados financieros y su relación con los costos empresariales.', 'offset':1}, </v>
+        <v>{ 'reg': 36, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'justify', 'texto': 'El curso tiene como propósito integrar las teorías, las técnicas y las herramientas adquiridas en las materias de contabilidad general y administración que le permita llegar al alumno a desarrollar las habilidades de análisis, integración de la información para la construcción de propuestas y soluciones que llevan al logro de los objetivos de la organización. Se pondrá énfasis en el análisis financiero de los estados financieros y su relación con los costos empresariales.', 'offset':1},</v>
       </c>
       <c r="N17" s="6" t="str">
         <f aca="false">IF(E16=E17,CONCATENATE(N16,M17),M17)</f>
-        <v>{ 'reg': 36, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'justify', 'texto': 'El curso tiene como propósito integrar las teorías, las técnicas y las herramientas adquiridas en las materias de contabilidad general y administración que le permita llegar al alumno a desarrollar las habilidades de análisis, integración de la información para la construcción de propuestas y soluciones que llevan al logro de los objetivos de la organización. Se pondrá énfasis en el análisis financiero de los estados financieros y su relación con los costos empresariales.', 'offset':1}, </v>
+        <v>{ 'reg': 36, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'justify', 'texto': 'El curso tiene como propósito integrar las teorías, las técnicas y las herramientas adquiridas en las materias de contabilidad general y administración que le permita llegar al alumno a desarrollar las habilidades de análisis, integración de la información para la construcción de propuestas y soluciones que llevan al logro de los objetivos de la organización. Se pondrá énfasis en el análisis financiero de los estados financieros y su relación con los costos empresariales.', 'offset':1},</v>
       </c>
       <c r="O17" s="14" t="str">
         <f aca="false">IF(E17=E18,"","{'"&amp;E$1&amp;"': "&amp;E17&amp;", '"&amp;B$1&amp;"': '"&amp;B17&amp;"',  'editing': false, 'tipo': '"&amp;A17&amp;"', 'data': "&amp;"["&amp;N17&amp;"],  },")</f>
-        <v>{'row': 1, 'week': '',  'editing': false, 'tipo': 'sumillas', 'data': [{ 'reg': 36, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'justify', 'texto': 'El curso tiene como propósito integrar las teorías, las técnicas y las herramientas adquiridas en las materias de contabilidad general y administración que le permita llegar al alumno a desarrollar las habilidades de análisis, integración de la información para la construcción de propuestas y soluciones que llevan al logro de los objetivos de la organización. Se pondrá énfasis en el análisis financiero de los estados financieros y su relación con los costos empresariales.', 'offset':1}, ],  },</v>
+        <v>{'row': 1, 'week': '',  'editing': false, 'tipo': 'sumillas', 'data': [{ 'reg': 36, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'justify', 'texto': 'El curso tiene como propósito integrar las teorías, las técnicas y las herramientas adquiridas en las materias de contabilidad general y administración que le permita llegar al alumno a desarrollar las habilidades de análisis, integración de la información para la construcción de propuestas y soluciones que llevan al logro de los objetivos de la organización. Se pondrá énfasis en el análisis financiero de los estados financieros y su relación con los costos empresariales.', 'offset':1},],  },</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2810,15 +3026,15 @@
       </c>
       <c r="M18" s="10" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K18&amp;", '"&amp;L$1&amp;"': '"&amp;L18&amp;"', '"&amp;F$1&amp;"': "&amp;F18&amp;", '"&amp;G$1&amp;"': "&amp;G18&amp;", '"&amp;H$1&amp;"': '"&amp;H18&amp;"', '"&amp;I$1&amp;"': '"&amp;I18&amp;"', '"&amp;J$1&amp;"':"&amp;J18&amp;"}, "</f>
-        <v>{ 'reg': 82, 'subtipo': 'competencias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'III. SISTEMA DE COMPETENCIAS', 'offset':1}, </v>
+        <v>{ 'reg': 82, 'subtipo': 'competencias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'III. SISTEMA DE COMPETENCIAS', 'offset':1},</v>
       </c>
       <c r="N18" s="6" t="str">
         <f aca="false">IF(E17=E18,CONCATENATE(N17,M18),M18)</f>
-        <v>{ 'reg': 82, 'subtipo': 'competencias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'III. SISTEMA DE COMPETENCIAS', 'offset':1}, </v>
+        <v>{ 'reg': 82, 'subtipo': 'competencias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'III. SISTEMA DE COMPETENCIAS', 'offset':1},</v>
       </c>
       <c r="O18" s="14" t="str">
         <f aca="false">IF(E18=E19,"","{'"&amp;E$1&amp;"': "&amp;E18&amp;", '"&amp;B$1&amp;"': '"&amp;B18&amp;"',  'editing': false, 'tipo': '"&amp;A18&amp;"', 'data': "&amp;"["&amp;N18&amp;"],  },")</f>
-        <v>{'row': 3, 'week': '',  'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 82, 'subtipo': 'competencias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'III. SISTEMA DE COMPETENCIAS', 'offset':1}, ],  },</v>
+        <v>{'row': 3, 'week': '',  'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 82, 'subtipo': 'competencias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'III. SISTEMA DE COMPETENCIAS', 'offset':1},],  },</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2852,11 +3068,11 @@
       </c>
       <c r="M19" s="10" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K19&amp;", '"&amp;L$1&amp;"': '"&amp;L19&amp;"', '"&amp;F$1&amp;"': "&amp;F19&amp;", '"&amp;G$1&amp;"': "&amp;G19&amp;", '"&amp;H$1&amp;"': '"&amp;H19&amp;"', '"&amp;I$1&amp;"': '"&amp;I19&amp;"', '"&amp;J$1&amp;"':"&amp;J19&amp;"}, "</f>
-        <v>{ 'reg': 37, 'subtipo': 'competencias1', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS GENERALES', 'offset':1}, </v>
+        <v>{ 'reg': 37, 'subtipo': 'competencias1', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS GENERALES', 'offset':1},</v>
       </c>
       <c r="N19" s="6" t="str">
         <f aca="false">IF(E18=E19,CONCATENATE(N18,M19),M19)</f>
-        <v>{ 'reg': 37, 'subtipo': 'competencias1', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS GENERALES', 'offset':1}, </v>
+        <v>{ 'reg': 37, 'subtipo': 'competencias1', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS GENERALES', 'offset':1},</v>
       </c>
       <c r="O19" s="14" t="str">
         <f aca="false">IF(E19=E20,"","{'"&amp;E$1&amp;"': "&amp;E19&amp;", '"&amp;B$1&amp;"': '"&amp;B19&amp;"',  'editing': false, 'tipo': '"&amp;A19&amp;"', 'data': "&amp;"["&amp;N19&amp;"],  },")</f>
@@ -2891,15 +3107,15 @@
       </c>
       <c r="M20" s="10" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K20&amp;", '"&amp;L$1&amp;"': '"&amp;L20&amp;"', '"&amp;F$1&amp;"': "&amp;F20&amp;", '"&amp;G$1&amp;"': "&amp;G20&amp;", '"&amp;H$1&amp;"': '"&amp;H20&amp;"', '"&amp;I$1&amp;"': '"&amp;I20&amp;"', '"&amp;J$1&amp;"':"&amp;J20&amp;"}, "</f>
-        <v>{ 'reg': 10, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Comprende el papel de la información contable en los Negocios. Relación entre la contabilidad y la Administración y la toma de decisiones.', 'offset':1}, </v>
+        <v>{ 'reg': 10, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Comprende el papel de la información contable en los Negocios. Relación entre la contabilidad y la Administración y la toma de decisiones.', 'offset':1},</v>
       </c>
       <c r="N20" s="6" t="str">
         <f aca="false">IF(E19=E20,CONCATENATE(N19,M20),M20)</f>
-        <v>{ 'reg': 37, 'subtipo': 'competencias1', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS GENERALES', 'offset':1}, { 'reg': 10, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Comprende el papel de la información contable en los Negocios. Relación entre la contabilidad y la Administración y la toma de decisiones.', 'offset':1}, </v>
+        <v>{ 'reg': 37, 'subtipo': 'competencias1', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS GENERALES', 'offset':1},{ 'reg': 10, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Comprende el papel de la información contable en los Negocios. Relación entre la contabilidad y la Administración y la toma de decisiones.', 'offset':1},</v>
       </c>
       <c r="O20" s="14" t="str">
         <f aca="false">IF(E20=E21,"","{'"&amp;E$1&amp;"': "&amp;E20&amp;", '"&amp;B$1&amp;"': '"&amp;B20&amp;"',  'editing': false, 'tipo': '"&amp;A20&amp;"', 'data': "&amp;"["&amp;N20&amp;"],  },")</f>
-        <v>{'row': 1, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 37, 'subtipo': 'competencias1', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS GENERALES', 'offset':1}, { 'reg': 10, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Comprende el papel de la información contable en los Negocios. Relación entre la contabilidad y la Administración y la toma de decisiones.', 'offset':1}, ],  },</v>
+        <v>{'row': 1, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 37, 'subtipo': 'competencias1', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS GENERALES', 'offset':1},{ 'reg': 10, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Comprende el papel de la información contable en los Negocios. Relación entre la contabilidad y la Administración y la toma de decisiones.', 'offset':1},],  },</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2931,15 +3147,15 @@
       </c>
       <c r="M21" s="10" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K21&amp;", '"&amp;L$1&amp;"': '"&amp;L21&amp;"', '"&amp;F$1&amp;"': "&amp;F21&amp;", '"&amp;G$1&amp;"': "&amp;G21&amp;", '"&amp;H$1&amp;"': '"&amp;H21&amp;"', '"&amp;I$1&amp;"': '"&amp;I21&amp;"', '"&amp;J$1&amp;"':"&amp;J21&amp;"}, "</f>
-        <v>{ 'reg': 13, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce y ejecuta los Estados Financieros de una empresa comercial, industrial y de servicios.', 'offset':2}, </v>
+        <v>{ 'reg': 13, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce y ejecuta los Estados Financieros de una empresa comercial, industrial y de servicios.', 'offset':2},</v>
       </c>
       <c r="N21" s="6" t="str">
         <f aca="false">IF(E20=E21,CONCATENATE(N20,M21),M21)</f>
-        <v>{ 'reg': 13, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce y ejecuta los Estados Financieros de una empresa comercial, industrial y de servicios.', 'offset':2}, </v>
+        <v>{ 'reg': 13, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce y ejecuta los Estados Financieros de una empresa comercial, industrial y de servicios.', 'offset':2},</v>
       </c>
       <c r="O21" s="14" t="str">
         <f aca="false">IF(E21=E22,"","{'"&amp;E$1&amp;"': "&amp;E21&amp;", '"&amp;B$1&amp;"': '"&amp;B21&amp;"',  'editing': false, 'tipo': '"&amp;A21&amp;"', 'data': "&amp;"["&amp;N21&amp;"],  },")</f>
-        <v>{'row': 2, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 13, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce y ejecuta los Estados Financieros de una empresa comercial, industrial y de servicios.', 'offset':2}, ],  },</v>
+        <v>{'row': 2, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 13, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce y ejecuta los Estados Financieros de una empresa comercial, industrial y de servicios.', 'offset':2},],  },</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2971,15 +3187,15 @@
       </c>
       <c r="M22" s="10" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K22&amp;", '"&amp;L$1&amp;"': '"&amp;L22&amp;"', '"&amp;F$1&amp;"': "&amp;F22&amp;", '"&amp;G$1&amp;"': "&amp;G22&amp;", '"&amp;H$1&amp;"': '"&amp;H22&amp;"', '"&amp;I$1&amp;"': '"&amp;I22&amp;"', '"&amp;J$1&amp;"':"&amp;J22&amp;"}, "</f>
-        <v>{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Toma de decisiones, en base a un análisis financiero, dentro de las funciones de operación, inversión y financiamiento y análisis de los costos.', 'offset':2}, </v>
+        <v>{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Toma de decisiones, en base a un análisis financiero, dentro de las funciones de operación, inversión y financiamiento y análisis de los costos.', 'offset':2},</v>
       </c>
       <c r="N22" s="6" t="str">
         <f aca="false">IF(E21=E22,CONCATENATE(N21,M22),M22)</f>
-        <v>{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Toma de decisiones, en base a un análisis financiero, dentro de las funciones de operación, inversión y financiamiento y análisis de los costos.', 'offset':2}, </v>
+        <v>{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Toma de decisiones, en base a un análisis financiero, dentro de las funciones de operación, inversión y financiamiento y análisis de los costos.', 'offset':2},</v>
       </c>
       <c r="O22" s="14" t="str">
         <f aca="false">IF(E22=E23,"","{'"&amp;E$1&amp;"': "&amp;E22&amp;", '"&amp;B$1&amp;"': '"&amp;B22&amp;"',  'editing': false, 'tipo': '"&amp;A22&amp;"', 'data': "&amp;"["&amp;N22&amp;"],  },")</f>
-        <v>{'row': 3, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Toma de decisiones, en base a un análisis financiero, dentro de las funciones de operación, inversión y financiamiento y análisis de los costos.', 'offset':2}, ],  },</v>
+        <v>{'row': 3, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Toma de decisiones, en base a un análisis financiero, dentro de las funciones de operación, inversión y financiamiento y análisis de los costos.', 'offset':2},],  },</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3011,15 +3227,15 @@
       </c>
       <c r="M23" s="10" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K23&amp;", '"&amp;L$1&amp;"': '"&amp;L23&amp;"', '"&amp;F$1&amp;"': "&amp;F23&amp;", '"&amp;G$1&amp;"': "&amp;G23&amp;", '"&amp;H$1&amp;"': '"&amp;H23&amp;"', '"&amp;I$1&amp;"': '"&amp;I23&amp;"', '"&amp;J$1&amp;"':"&amp;J23&amp;"}, "</f>
-        <v>{ 'reg': 41, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Planifica la gestión de la empresa a futuro.', 'offset':2}, </v>
+        <v>{ 'reg': 41, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Planifica la gestión de la empresa a futuro.', 'offset':2},</v>
       </c>
       <c r="N23" s="6" t="str">
         <f aca="false">IF(E22=E23,CONCATENATE(N22,M23),M23)</f>
-        <v>{ 'reg': 41, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Planifica la gestión de la empresa a futuro.', 'offset':2}, </v>
+        <v>{ 'reg': 41, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Planifica la gestión de la empresa a futuro.', 'offset':2},</v>
       </c>
       <c r="O23" s="14" t="str">
         <f aca="false">IF(E23=E24,"","{'"&amp;E$1&amp;"': "&amp;E23&amp;", '"&amp;B$1&amp;"': '"&amp;B23&amp;"',  'editing': false, 'tipo': '"&amp;A23&amp;"', 'data': "&amp;"["&amp;N23&amp;"],  },")</f>
-        <v>{'row': 4, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 41, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Planifica la gestión de la empresa a futuro.', 'offset':2}, ],  },</v>
+        <v>{'row': 4, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 41, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Planifica la gestión de la empresa a futuro.', 'offset':2},],  },</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3051,15 +3267,15 @@
       </c>
       <c r="M24" s="10" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K24&amp;", '"&amp;L$1&amp;"': '"&amp;L24&amp;"', '"&amp;F$1&amp;"': "&amp;F24&amp;", '"&amp;G$1&amp;"': "&amp;G24&amp;", '"&amp;H$1&amp;"': '"&amp;H24&amp;"', '"&amp;I$1&amp;"': '"&amp;I24&amp;"', '"&amp;J$1&amp;"':"&amp;J24&amp;"}, "</f>
-        <v>{ 'reg': 77, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Capacidad de trabajo en equipo.', 'offset':2}, </v>
+        <v>{ 'reg': 77, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Capacidad de trabajo en equipo.', 'offset':2},</v>
       </c>
       <c r="N24" s="6" t="str">
         <f aca="false">IF(E23=E24,CONCATENATE(N23,M24),M24)</f>
-        <v>{ 'reg': 77, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Capacidad de trabajo en equipo.', 'offset':2}, </v>
+        <v>{ 'reg': 77, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Capacidad de trabajo en equipo.', 'offset':2},</v>
       </c>
       <c r="O24" s="14" t="str">
         <f aca="false">IF(E24=E25,"","{'"&amp;E$1&amp;"': "&amp;E24&amp;", '"&amp;B$1&amp;"': '"&amp;B24&amp;"',  'editing': false, 'tipo': '"&amp;A24&amp;"', 'data': "&amp;"["&amp;N24&amp;"],  },")</f>
-        <v>{'row': 5, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 77, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Capacidad de trabajo en equipo.', 'offset':2}, ],  },</v>
+        <v>{'row': 5, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 77, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Capacidad de trabajo en equipo.', 'offset':2},],  },</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3093,15 +3309,15 @@
       </c>
       <c r="M25" s="10" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K25&amp;", '"&amp;L$1&amp;"': '"&amp;L25&amp;"', '"&amp;F$1&amp;"': "&amp;F25&amp;", '"&amp;G$1&amp;"': "&amp;G25&amp;", '"&amp;H$1&amp;"': '"&amp;H25&amp;"', '"&amp;I$1&amp;"': '"&amp;I25&amp;"', '"&amp;J$1&amp;"':"&amp;J25&amp;"}, "</f>
-        <v>{ 'reg': 9, 'subtipo': 'competencias2', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS ESPECÍFICAS', 'offset':1}, </v>
+        <v>{ 'reg': 9, 'subtipo': 'competencias2', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS ESPECÍFICAS', 'offset':1},</v>
       </c>
       <c r="N25" s="6" t="str">
         <f aca="false">IF(E24=E25,CONCATENATE(N24,M25),M25)</f>
-        <v>{ 'reg': 9, 'subtipo': 'competencias2', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS ESPECÍFICAS', 'offset':1}, </v>
+        <v>{ 'reg': 9, 'subtipo': 'competencias2', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS ESPECÍFICAS', 'offset':1},</v>
       </c>
       <c r="O25" s="14" t="str">
         <f aca="false">IF(E25=E26,"","{'"&amp;E$1&amp;"': "&amp;E25&amp;", '"&amp;B$1&amp;"': '"&amp;B25&amp;"',  'editing': false, 'tipo': '"&amp;A25&amp;"', 'data': "&amp;"["&amp;N25&amp;"],  },")</f>
-        <v>{'row': 2, 'week': '',  'editing': false, 'tipo': 'titulo2', 'data': [{ 'reg': 9, 'subtipo': 'competencias2', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS ESPECÍFICAS', 'offset':1}, ],  },</v>
+        <v>{'row': 2, 'week': '',  'editing': false, 'tipo': 'titulo2', 'data': [{ 'reg': 9, 'subtipo': 'competencias2', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS ESPECÍFICAS', 'offset':1},],  },</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3132,15 +3348,15 @@
       </c>
       <c r="M26" s="10" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K26&amp;", '"&amp;L$1&amp;"': '"&amp;L26&amp;"', '"&amp;F$1&amp;"': "&amp;F26&amp;", '"&amp;G$1&amp;"': "&amp;G26&amp;", '"&amp;H$1&amp;"': '"&amp;H26&amp;"', '"&amp;I$1&amp;"': '"&amp;I26&amp;"', '"&amp;J$1&amp;"':"&amp;J26&amp;"}, "</f>
-        <v>{ 'reg': 84, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce, Analiza y describe las diferentes empresas que se desarrollan en nuestro país y la importancia que tiene en ellas la contabilidad gerencia, desde la óptica de los estados financieros: Estado de Situación Financiera y Estado de Resultados.', 'offset':2}, </v>
+        <v>{ 'reg': 84, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce, Analiza y describe las diferentes empresas que se desarrollan en nuestro país y la importancia que tiene en ellas la contabilidad gerencia, desde la óptica de los estados financieros: Estado de Situación Financiera y Estado de Resultados.', 'offset':2},</v>
       </c>
       <c r="N26" s="6" t="str">
         <f aca="false">IF(E25=E26,CONCATENATE(N25,M26),M26)</f>
-        <v>{ 'reg': 84, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce, Analiza y describe las diferentes empresas que se desarrollan en nuestro país y la importancia que tiene en ellas la contabilidad gerencia, desde la óptica de los estados financieros: Estado de Situación Financiera y Estado de Resultados.', 'offset':2}, </v>
+        <v>{ 'reg': 84, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce, Analiza y describe las diferentes empresas que se desarrollan en nuestro país y la importancia que tiene en ellas la contabilidad gerencia, desde la óptica de los estados financieros: Estado de Situación Financiera y Estado de Resultados.', 'offset':2},</v>
       </c>
       <c r="O26" s="14" t="str">
         <f aca="false">IF(E26=E27,"","{'"&amp;E$1&amp;"': "&amp;E26&amp;", '"&amp;B$1&amp;"': '"&amp;B26&amp;"',  'editing': false, 'tipo': '"&amp;A26&amp;"', 'data': "&amp;"["&amp;N26&amp;"],  },")</f>
-        <v>{'row': 1, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 84, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce, Analiza y describe las diferentes empresas que se desarrollan en nuestro país y la importancia que tiene en ellas la contabilidad gerencia, desde la óptica de los estados financieros: Estado de Situación Financiera y Estado de Resultados.', 'offset':2}, ],  },</v>
+        <v>{'row': 1, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 84, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce, Analiza y describe las diferentes empresas que se desarrollan en nuestro país y la importancia que tiene en ellas la contabilidad gerencia, desde la óptica de los estados financieros: Estado de Situación Financiera y Estado de Resultados.', 'offset':2},],  },</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3172,15 +3388,15 @@
       </c>
       <c r="M27" s="10" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K27&amp;", '"&amp;L$1&amp;"': '"&amp;L27&amp;"', '"&amp;F$1&amp;"': "&amp;F27&amp;", '"&amp;G$1&amp;"': "&amp;G27&amp;", '"&amp;H$1&amp;"': '"&amp;H27&amp;"', '"&amp;I$1&amp;"': '"&amp;I27&amp;"', '"&amp;J$1&amp;"':"&amp;J27&amp;"}, "</f>
-        <v>{ 'reg': 32, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Analiza y diagnostica los Estados financieros básicos de diferentes empresas, mediante el análisis vertical y horizontal así como los ratios financieros. ', 'offset':2}, </v>
+        <v>{ 'reg': 32, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Analiza y diagnostica los Estados financieros básicos de diferentes empresas, mediante el análisis vertical y horizontal así como los ratios financieros. ', 'offset':2},</v>
       </c>
       <c r="N27" s="6" t="str">
         <f aca="false">IF(E26=E27,CONCATENATE(N26,M27),M27)</f>
-        <v>{ 'reg': 32, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Analiza y diagnostica los Estados financieros básicos de diferentes empresas, mediante el análisis vertical y horizontal así como los ratios financieros. ', 'offset':2}, </v>
+        <v>{ 'reg': 32, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Analiza y diagnostica los Estados financieros básicos de diferentes empresas, mediante el análisis vertical y horizontal así como los ratios financieros. ', 'offset':2},</v>
       </c>
       <c r="O27" s="14" t="str">
         <f aca="false">IF(E27=E28,"","{'"&amp;E$1&amp;"': "&amp;E27&amp;", '"&amp;B$1&amp;"': '"&amp;B27&amp;"',  'editing': false, 'tipo': '"&amp;A27&amp;"', 'data': "&amp;"["&amp;N27&amp;"],  },")</f>
-        <v>{'row': 2, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 32, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Analiza y diagnostica los Estados financieros básicos de diferentes empresas, mediante el análisis vertical y horizontal así como los ratios financieros. ', 'offset':2}, ],  },</v>
+        <v>{'row': 2, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 32, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Analiza y diagnostica los Estados financieros básicos de diferentes empresas, mediante el análisis vertical y horizontal así como los ratios financieros. ', 'offset':2},],  },</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3212,15 +3428,15 @@
       </c>
       <c r="M28" s="10" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K28&amp;", '"&amp;L$1&amp;"': '"&amp;L28&amp;"', '"&amp;F$1&amp;"': "&amp;F28&amp;", '"&amp;G$1&amp;"': "&amp;G28&amp;", '"&amp;H$1&amp;"': '"&amp;H28&amp;"', '"&amp;I$1&amp;"': '"&amp;I28&amp;"', '"&amp;J$1&amp;"':"&amp;J28&amp;"}, "</f>
-        <v>{ 'reg': 111, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Desarrolla un plan financiero para una empresa: Presupuesto de ventas, Presupuesto de cobranzas, presupuesto de producción, presupuesto de compras, presupuesto de pagos, presupuesto de pagos, presupuesto de gastos, entre otros.', 'offset':2}, </v>
+        <v>{ 'reg': 111, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Desarrolla un plan financiero para una empresa: Presupuesto de ventas, Presupuesto de cobranzas, presupuesto de producción, presupuesto de compras, presupuesto de pagos, presupuesto de pagos, presupuesto de gastos, entre otros.', 'offset':2},</v>
       </c>
       <c r="N28" s="6" t="str">
         <f aca="false">IF(E27=E28,CONCATENATE(N27,M28),M28)</f>
-        <v>{ 'reg': 111, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Desarrolla un plan financiero para una empresa: Presupuesto de ventas, Presupuesto de cobranzas, presupuesto de producción, presupuesto de compras, presupuesto de pagos, presupuesto de pagos, presupuesto de gastos, entre otros.', 'offset':2}, </v>
+        <v>{ 'reg': 111, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Desarrolla un plan financiero para una empresa: Presupuesto de ventas, Presupuesto de cobranzas, presupuesto de producción, presupuesto de compras, presupuesto de pagos, presupuesto de pagos, presupuesto de gastos, entre otros.', 'offset':2},</v>
       </c>
       <c r="O28" s="14" t="str">
         <f aca="false">IF(E28=E29,"","{'"&amp;E$1&amp;"': "&amp;E28&amp;", '"&amp;B$1&amp;"': '"&amp;B28&amp;"',  'editing': false, 'tipo': '"&amp;A28&amp;"', 'data': "&amp;"["&amp;N28&amp;"],  },")</f>
-        <v>{'row': 3, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 111, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Desarrolla un plan financiero para una empresa: Presupuesto de ventas, Presupuesto de cobranzas, presupuesto de producción, presupuesto de compras, presupuesto de pagos, presupuesto de pagos, presupuesto de gastos, entre otros.', 'offset':2}, ],  },</v>
+        <v>{'row': 3, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 111, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Desarrolla un plan financiero para una empresa: Presupuesto de ventas, Presupuesto de cobranzas, presupuesto de producción, presupuesto de compras, presupuesto de pagos, presupuesto de pagos, presupuesto de gastos, entre otros.', 'offset':2},],  },</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3252,15 +3468,15 @@
       </c>
       <c r="M29" s="10" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K29&amp;", '"&amp;L$1&amp;"': '"&amp;L29&amp;"', '"&amp;F$1&amp;"': "&amp;F29&amp;", '"&amp;G$1&amp;"': "&amp;G29&amp;", '"&amp;H$1&amp;"': '"&amp;H29&amp;"', '"&amp;I$1&amp;"': '"&amp;I29&amp;"', '"&amp;J$1&amp;"':"&amp;J29&amp;"}, "</f>
-        <v>{ 'reg': 28, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Estudia la importancia de la estructura de costos de una empresa y su implicancia en la planificación financiera.', 'offset':2}, </v>
+        <v>{ 'reg': 28, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Estudia la importancia de la estructura de costos de una empresa y su implicancia en la planificación financiera.', 'offset':2},</v>
       </c>
       <c r="N29" s="6" t="str">
         <f aca="false">IF(E28=E29,CONCATENATE(N28,M29),M29)</f>
-        <v>{ 'reg': 28, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Estudia la importancia de la estructura de costos de una empresa y su implicancia en la planificación financiera.', 'offset':2}, </v>
+        <v>{ 'reg': 28, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Estudia la importancia de la estructura de costos de una empresa y su implicancia en la planificación financiera.', 'offset':2},</v>
       </c>
       <c r="O29" s="14" t="str">
         <f aca="false">IF(E29=E30,"","{'"&amp;E$1&amp;"': "&amp;E29&amp;", '"&amp;B$1&amp;"': '"&amp;B29&amp;"',  'editing': false, 'tipo': '"&amp;A29&amp;"', 'data': "&amp;"["&amp;N29&amp;"],  },")</f>
-        <v>{'row': 4, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 28, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Estudia la importancia de la estructura de costos de una empresa y su implicancia en la planificación financiera.', 'offset':2}, ],  },</v>
+        <v>{'row': 4, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 28, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Estudia la importancia de la estructura de costos de una empresa y su implicancia en la planificación financiera.', 'offset':2},],  },</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3292,15 +3508,15 @@
       </c>
       <c r="M30" s="10" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K30&amp;", '"&amp;L$1&amp;"': '"&amp;L30&amp;"', '"&amp;F$1&amp;"': "&amp;F30&amp;", '"&amp;G$1&amp;"': "&amp;G30&amp;", '"&amp;H$1&amp;"': '"&amp;H30&amp;"', '"&amp;I$1&amp;"': '"&amp;I30&amp;"', '"&amp;J$1&amp;"':"&amp;J30&amp;"}, "</f>
-        <v>{ 'reg': 27, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Elabora estados financieros proyectados, para diagnosticar el futuro de la empresa.', 'offset':2}, </v>
+        <v>{ 'reg': 27, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Elabora estados financieros proyectados, para diagnosticar el futuro de la empresa.', 'offset':2},</v>
       </c>
       <c r="N30" s="6" t="str">
         <f aca="false">IF(E29=E30,CONCATENATE(N29,M30),M30)</f>
-        <v>{ 'reg': 27, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Elabora estados financieros proyectados, para diagnosticar el futuro de la empresa.', 'offset':2}, </v>
+        <v>{ 'reg': 27, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Elabora estados financieros proyectados, para diagnosticar el futuro de la empresa.', 'offset':2},</v>
       </c>
       <c r="O30" s="14" t="str">
         <f aca="false">IF(E30=E31,"","{'"&amp;E$1&amp;"': "&amp;E30&amp;", '"&amp;B$1&amp;"': '"&amp;B30&amp;"',  'editing': false, 'tipo': '"&amp;A30&amp;"', 'data': "&amp;"["&amp;N30&amp;"],  },")</f>
-        <v>{'row': 5, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 27, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Elabora estados financieros proyectados, para diagnosticar el futuro de la empresa.', 'offset':2}, ],  },</v>
+        <v>{'row': 5, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 27, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Elabora estados financieros proyectados, para diagnosticar el futuro de la empresa.', 'offset':2},],  },</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3334,15 +3550,15 @@
       </c>
       <c r="M31" s="10" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K31&amp;", '"&amp;L$1&amp;"': '"&amp;L31&amp;"', '"&amp;F$1&amp;"': "&amp;F31&amp;", '"&amp;G$1&amp;"': "&amp;G31&amp;", '"&amp;H$1&amp;"': '"&amp;H31&amp;"', '"&amp;I$1&amp;"': '"&amp;I31&amp;"', '"&amp;J$1&amp;"':"&amp;J31&amp;"}, "</f>
-        <v>{ 'reg': 126, 'subtipo': 'contenidos', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'IV. PROGRAMACIÓN DE CONTENIDOS', 'offset':1}, </v>
+        <v>{ 'reg': 126, 'subtipo': 'contenidos', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'IV. PROGRAMACIÓN DE CONTENIDOS', 'offset':1},</v>
       </c>
       <c r="N31" s="6" t="str">
         <f aca="false">IF(E30=E31,CONCATENATE(N30,M31),M31)</f>
-        <v>{ 'reg': 126, 'subtipo': 'contenidos', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'IV. PROGRAMACIÓN DE CONTENIDOS', 'offset':1}, </v>
+        <v>{ 'reg': 126, 'subtipo': 'contenidos', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'IV. PROGRAMACIÓN DE CONTENIDOS', 'offset':1},</v>
       </c>
       <c r="O31" s="14" t="str">
         <f aca="false">IF(E31=E32,"","{'"&amp;E$1&amp;"': "&amp;E31&amp;", '"&amp;B$1&amp;"': '"&amp;B31&amp;"',  'editing': false, 'tipo': '"&amp;A31&amp;"', 'data': "&amp;"["&amp;N31&amp;"],  },")</f>
-        <v>{'row': 4, 'week': '',  'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 126, 'subtipo': 'contenidos', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'IV. PROGRAMACIÓN DE CONTENIDOS', 'offset':1}, ],  },</v>
+        <v>{'row': 4, 'week': '',  'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 126, 'subtipo': 'contenidos', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'IV. PROGRAMACIÓN DE CONTENIDOS', 'offset':1},],  },</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3376,15 +3592,15 @@
       </c>
       <c r="M32" s="10" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K32&amp;", '"&amp;L$1&amp;"': '"&amp;L32&amp;"', '"&amp;F$1&amp;"': "&amp;F32&amp;", '"&amp;G$1&amp;"': "&amp;G32&amp;", '"&amp;H$1&amp;"': '"&amp;H32&amp;"', '"&amp;I$1&amp;"': '"&amp;I32&amp;"', '"&amp;J$1&amp;"':"&amp;J32&amp;"}, "</f>
-        <v>{ 'reg': 22, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD I: LA CONTABILIDAD GERENCIAL.', 'offset':1}, </v>
+        <v>{ 'reg': 22, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD I: LA CONTABILIDAD GERENCIAL.', 'offset':1},</v>
       </c>
       <c r="N32" s="6" t="str">
         <f aca="false">IF(E31=E32,CONCATENATE(N31,M32),M32)</f>
-        <v>{ 'reg': 22, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD I: LA CONTABILIDAD GERENCIAL.', 'offset':1}, </v>
+        <v>{ 'reg': 22, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD I: LA CONTABILIDAD GERENCIAL.', 'offset':1},</v>
       </c>
       <c r="O32" s="14" t="str">
         <f aca="false">IF(E32=E33,"","{'"&amp;E$1&amp;"': "&amp;E32&amp;", '"&amp;B$1&amp;"': '"&amp;B32&amp;"',  'editing': false, 'tipo': '"&amp;A32&amp;"', 'data': "&amp;"["&amp;N32&amp;"],  },")</f>
-        <v>{'row': 1, 'week': '1',  'editing': false, 'tipo': 'unidades', 'data': [{ 'reg': 22, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD I: LA CONTABILIDAD GERENCIAL.', 'offset':1}, ],  },</v>
+        <v>{'row': 1, 'week': '1',  'editing': false, 'tipo': 'unidades', 'data': [{ 'reg': 22, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD I: LA CONTABILIDAD GERENCIAL.', 'offset':1},],  },</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3419,11 +3635,11 @@
       </c>
       <c r="M33" s="10" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K33&amp;", '"&amp;L$1&amp;"': '"&amp;L33&amp;"', '"&amp;F$1&amp;"': "&amp;F33&amp;", '"&amp;G$1&amp;"': "&amp;G33&amp;", '"&amp;H$1&amp;"': '"&amp;H33&amp;"', '"&amp;I$1&amp;"': '"&amp;I33&amp;"', '"&amp;J$1&amp;"':"&amp;J33&amp;"}, "</f>
-        <v>{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, </v>
+        <v>{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1},</v>
       </c>
       <c r="N33" s="6" t="str">
         <f aca="false">IF(E32=E33,CONCATENATE(N32,M33),M33)</f>
-        <v>{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, </v>
+        <v>{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1},</v>
       </c>
       <c r="O33" s="14" t="str">
         <f aca="false">IF(E33=E34,"","{'"&amp;E$1&amp;"': "&amp;E33&amp;", '"&amp;B$1&amp;"': '"&amp;B33&amp;"',  'editing': false, 'tipo': '"&amp;A33&amp;"', 'data': "&amp;"["&amp;N33&amp;"],  },")</f>
@@ -3462,11 +3678,11 @@
       </c>
       <c r="M34" s="10" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K34&amp;", '"&amp;L$1&amp;"': '"&amp;L34&amp;"', '"&amp;F$1&amp;"': "&amp;F34&amp;", '"&amp;G$1&amp;"': "&amp;G34&amp;", '"&amp;H$1&amp;"': '"&amp;H34&amp;"', '"&amp;I$1&amp;"': '"&amp;I34&amp;"', '"&amp;J$1&amp;"':"&amp;J34&amp;"}, "</f>
-        <v>{ 'reg': 48, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, </v>
+        <v>{ 'reg': 48, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1},</v>
       </c>
       <c r="N34" s="6" t="str">
         <f aca="false">IF(E33=E34,CONCATENATE(N33,M34),M34)</f>
-        <v>{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 48, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, </v>
+        <v>{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1},{ 'reg': 48, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1},</v>
       </c>
       <c r="O34" s="14" t="str">
         <f aca="false">IF(E34=E35,"","{'"&amp;E$1&amp;"': "&amp;E34&amp;", '"&amp;B$1&amp;"': '"&amp;B34&amp;"',  'editing': false, 'tipo': '"&amp;A34&amp;"', 'data': "&amp;"["&amp;N34&amp;"],  },")</f>
@@ -3505,11 +3721,11 @@
       </c>
       <c r="M35" s="10" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K35&amp;", '"&amp;L$1&amp;"': '"&amp;L35&amp;"', '"&amp;F$1&amp;"': "&amp;F35&amp;", '"&amp;G$1&amp;"': "&amp;G35&amp;", '"&amp;H$1&amp;"': '"&amp;H35&amp;"', '"&amp;I$1&amp;"': '"&amp;I35&amp;"', '"&amp;J$1&amp;"':"&amp;J35&amp;"}, "</f>
-        <v>{ 'reg': 14, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, </v>
+        <v>{ 'reg': 14, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1},</v>
       </c>
       <c r="N35" s="6" t="str">
         <f aca="false">IF(E34=E35,CONCATENATE(N34,M35),M35)</f>
-        <v>{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 48, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'reg': 14, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, </v>
+        <v>{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1},{ 'reg': 48, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1},{ 'reg': 14, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1},</v>
       </c>
       <c r="O35" s="14" t="str">
         <f aca="false">IF(E35=E36,"","{'"&amp;E$1&amp;"': "&amp;E35&amp;", '"&amp;B$1&amp;"': '"&amp;B35&amp;"',  'editing': false, 'tipo': '"&amp;A35&amp;"', 'data': "&amp;"["&amp;N35&amp;"],  },")</f>
@@ -3548,15 +3764,15 @@
       </c>
       <c r="M36" s="10" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K36&amp;", '"&amp;L$1&amp;"': '"&amp;L36&amp;"', '"&amp;F$1&amp;"': "&amp;F36&amp;", '"&amp;G$1&amp;"': "&amp;G36&amp;", '"&amp;H$1&amp;"': '"&amp;H36&amp;"', '"&amp;I$1&amp;"': '"&amp;I36&amp;"', '"&amp;J$1&amp;"':"&amp;J36&amp;"}, "</f>
-        <v>{ 'reg': 25, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1}, </v>
+        <v>{ 'reg': 25, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1},</v>
       </c>
       <c r="N36" s="6" t="str">
         <f aca="false">IF(E35=E36,CONCATENATE(N35,M36),M36)</f>
-        <v>{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 48, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'reg': 14, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, { 'reg': 25, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1}, </v>
+        <v>{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1},{ 'reg': 48, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1},{ 'reg': 14, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1},{ 'reg': 25, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1},</v>
       </c>
       <c r="O36" s="14" t="str">
         <f aca="false">IF(E36=E37,"","{'"&amp;E$1&amp;"': "&amp;E36&amp;", '"&amp;B$1&amp;"': '"&amp;B36&amp;"',  'editing': false, 'tipo': '"&amp;A36&amp;"', 'data': "&amp;"["&amp;N36&amp;"],  },")</f>
-        <v>{'row': 2, 'week': '1.3',  'editing': false, 'tipo': 'titulo3', 'data': [{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 48, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'reg': 14, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, { 'reg': 25, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1}, ],  },</v>
+        <v>{'row': 2, 'week': '1.3',  'editing': false, 'tipo': 'titulo3', 'data': [{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1},{ 'reg': 48, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1},{ 'reg': 14, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1},{ 'reg': 25, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1},],  },</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3590,11 +3806,11 @@
       </c>
       <c r="M37" s="10" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K37&amp;", '"&amp;L$1&amp;"': '"&amp;L37&amp;"', '"&amp;F$1&amp;"': "&amp;F37&amp;", '"&amp;G$1&amp;"': "&amp;G37&amp;", '"&amp;H$1&amp;"': '"&amp;H37&amp;"', '"&amp;I$1&amp;"': '"&amp;I37&amp;"', '"&amp;J$1&amp;"':"&amp;J37&amp;"}, "</f>
-        <v>{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, </v>
+        <v>{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1},</v>
       </c>
       <c r="N37" s="6" t="str">
         <f aca="false">IF(E36=E37,CONCATENATE(N36,M37),M37)</f>
-        <v>{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, </v>
+        <v>{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1},</v>
       </c>
       <c r="O37" s="14" t="str">
         <f aca="false">IF(E37=E38,"","{'"&amp;E$1&amp;"': "&amp;E37&amp;", '"&amp;B$1&amp;"': '"&amp;B37&amp;"',  'editing': false, 'tipo': '"&amp;A37&amp;"', 'data': "&amp;"["&amp;N37&amp;"],  },")</f>
@@ -3634,11 +3850,11 @@
       </c>
       <c r="M38" s="10" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K38&amp;", '"&amp;L$1&amp;"': '"&amp;L38&amp;"', '"&amp;F$1&amp;"': "&amp;F38&amp;", '"&amp;G$1&amp;"': "&amp;G38&amp;", '"&amp;H$1&amp;"': '"&amp;H38&amp;"', '"&amp;I$1&amp;"': '"&amp;I38&amp;"', '"&amp;J$1&amp;"':"&amp;J38&amp;"}, "</f>
-        <v>{ 'reg': 127, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1}, </v>
+        <v>{ 'reg': 127, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1},</v>
       </c>
       <c r="N38" s="6" t="str">
         <f aca="false">IF(E37=E38,CONCATENATE(N37,M38),M38)</f>
-        <v>{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, { 'reg': 127, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1}, </v>
+        <v>{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1},{ 'reg': 127, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1},</v>
       </c>
       <c r="O38" s="14" t="str">
         <f aca="false">IF(E38=E39,"","{'"&amp;E$1&amp;"': "&amp;E38&amp;", '"&amp;B$1&amp;"': '"&amp;B38&amp;"',  'editing': false, 'tipo': '"&amp;A38&amp;"', 'data': "&amp;"["&amp;N38&amp;"],  },")</f>
@@ -3678,11 +3894,11 @@
       </c>
       <c r="M39" s="10" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K39&amp;", '"&amp;L$1&amp;"': '"&amp;L39&amp;"', '"&amp;F$1&amp;"': "&amp;F39&amp;", '"&amp;G$1&amp;"': "&amp;G39&amp;", '"&amp;H$1&amp;"': '"&amp;H39&amp;"', '"&amp;I$1&amp;"': '"&amp;I39&amp;"', '"&amp;J$1&amp;"':"&amp;J39&amp;"}, "</f>
-        <v>{ 'reg': 91, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Reconoce el recorrido de las operaciones empresariales en el ciclo contable de una empresa. Evalúa la utilidad de la información financiera y gerencial.', 'offset':1}, </v>
+        <v>{ 'reg': 91, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Reconoce el recorrido de las operaciones empresariales en el ciclo contable de una empresa. Evalúa la utilidad de la información financiera y gerencial.', 'offset':1},</v>
       </c>
       <c r="N39" s="6" t="str">
         <f aca="false">IF(E38=E39,CONCATENATE(N38,M39),M39)</f>
-        <v>{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, { 'reg': 127, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1}, { 'reg': 91, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Reconoce el recorrido de las operaciones empresariales en el ciclo contable de una empresa. Evalúa la utilidad de la información financiera y gerencial.', 'offset':1}, </v>
+        <v>{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1},{ 'reg': 127, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1},{ 'reg': 91, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Reconoce el recorrido de las operaciones empresariales en el ciclo contable de una empresa. Evalúa la utilidad de la información financiera y gerencial.', 'offset':1},</v>
       </c>
       <c r="O39" s="14" t="str">
         <f aca="false">IF(E39=E40,"","{'"&amp;E$1&amp;"': "&amp;E39&amp;", '"&amp;B$1&amp;"': '"&amp;B39&amp;"',  'editing': false, 'tipo': '"&amp;A39&amp;"', 'data': "&amp;"["&amp;N39&amp;"],  },")</f>
@@ -3722,15 +3938,15 @@
       </c>
       <c r="M40" s="10" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K40&amp;", '"&amp;L$1&amp;"': '"&amp;L40&amp;"', '"&amp;F$1&amp;"': "&amp;F40&amp;", '"&amp;G$1&amp;"': "&amp;G40&amp;", '"&amp;H$1&amp;"': '"&amp;H40&amp;"', '"&amp;I$1&amp;"': '"&amp;I40&amp;"', '"&amp;J$1&amp;"':"&amp;J40&amp;"}, "</f>
-        <v>{ 'reg': 115, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada\nTaller', 'offset':1}, </v>
+        <v>{ 'reg': 115, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada\nTaller', 'offset':1},</v>
       </c>
       <c r="N40" s="6" t="str">
         <f aca="false">IF(E39=E40,CONCATENATE(N39,M40),M40)</f>
-        <v>{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, { 'reg': 127, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1}, { 'reg': 91, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Reconoce el recorrido de las operaciones empresariales en el ciclo contable de una empresa. Evalúa la utilidad de la información financiera y gerencial.', 'offset':1}, { 'reg': 115, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada\nTaller', 'offset':1}, </v>
+        <v>{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1},{ 'reg': 127, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1},{ 'reg': 91, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Reconoce el recorrido de las operaciones empresariales en el ciclo contable de una empresa. Evalúa la utilidad de la información financiera y gerencial.', 'offset':1},{ 'reg': 115, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada\nTaller', 'offset':1},</v>
       </c>
       <c r="O40" s="14" t="str">
         <f aca="false">IF(E40=E41,"","{'"&amp;E$1&amp;"': "&amp;E40&amp;", '"&amp;B$1&amp;"': '"&amp;B40&amp;"',  'editing': false, 'tipo': '"&amp;A40&amp;"', 'data': "&amp;"["&amp;N40&amp;"],  },")</f>
-        <v>{'row': 1, 'week': '1.5',  'editing': false, 'tipo': 'contenidos', 'data': [{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, { 'reg': 127, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1}, { 'reg': 91, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Reconoce el recorrido de las operaciones empresariales en el ciclo contable de una empresa. Evalúa la utilidad de la información financiera y gerencial.', 'offset':1}, { 'reg': 115, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada\nTaller', 'offset':1}, ],  },</v>
+        <v>{'row': 1, 'week': '1.5',  'editing': false, 'tipo': 'contenidos', 'data': [{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1},{ 'reg': 127, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1},{ 'reg': 91, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Reconoce el recorrido de las operaciones empresariales en el ciclo contable de una empresa. Evalúa la utilidad de la información financiera y gerencial.', 'offset':1},{ 'reg': 115, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada\nTaller', 'offset':1},],  },</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3765,11 +3981,11 @@
       </c>
       <c r="M41" s="10" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K41&amp;", '"&amp;L$1&amp;"': '"&amp;L41&amp;"', '"&amp;F$1&amp;"': "&amp;F41&amp;", '"&amp;G$1&amp;"': "&amp;G41&amp;", '"&amp;H$1&amp;"': '"&amp;H41&amp;"', '"&amp;I$1&amp;"': '"&amp;I41&amp;"', '"&amp;J$1&amp;"':"&amp;J41&amp;"}, "</f>
-        <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, </v>
+        <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1},</v>
       </c>
       <c r="N41" s="6" t="str">
         <f aca="false">IF(E40=E41,CONCATENATE(N40,M41),M41)</f>
-        <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, </v>
+        <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1},</v>
       </c>
       <c r="O41" s="14" t="str">
         <f aca="false">IF(E41=E42,"","{'"&amp;E$1&amp;"': "&amp;E41&amp;", '"&amp;B$1&amp;"': '"&amp;B41&amp;"',  'editing': false, 'tipo': '"&amp;A41&amp;"', 'data': "&amp;"["&amp;N41&amp;"],  },")</f>
@@ -3809,11 +4025,11 @@
       </c>
       <c r="M42" s="10" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K42&amp;", '"&amp;L$1&amp;"': '"&amp;L42&amp;"', '"&amp;F$1&amp;"': "&amp;F42&amp;", '"&amp;G$1&amp;"': "&amp;G42&amp;", '"&amp;H$1&amp;"': '"&amp;H42&amp;"', '"&amp;I$1&amp;"': '"&amp;I42&amp;"', '"&amp;J$1&amp;"':"&amp;J42&amp;"}, "</f>
-        <v>{ 'reg': 17, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1}, </v>
+        <v>{ 'reg': 17, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1},</v>
       </c>
       <c r="N42" s="6" t="str">
         <f aca="false">IF(E41=E42,CONCATENATE(N41,M42),M42)</f>
-        <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, { 'reg': 17, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1}, </v>
+        <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1},{ 'reg': 17, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1},</v>
       </c>
       <c r="O42" s="14" t="str">
         <f aca="false">IF(E42=E43,"","{'"&amp;E$1&amp;"': "&amp;E42&amp;", '"&amp;B$1&amp;"': '"&amp;B42&amp;"',  'editing': false, 'tipo': '"&amp;A42&amp;"', 'data': "&amp;"["&amp;N42&amp;"],  },")</f>
@@ -3854,11 +4070,11 @@
       </c>
       <c r="M43" s="10" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K43&amp;", '"&amp;L$1&amp;"': '"&amp;L43&amp;"', '"&amp;F$1&amp;"': "&amp;F43&amp;", '"&amp;G$1&amp;"': "&amp;G43&amp;", '"&amp;H$1&amp;"': '"&amp;H43&amp;"', '"&amp;I$1&amp;"': '"&amp;I43&amp;"', '"&amp;J$1&amp;"':"&amp;J43&amp;"}, "</f>
-        <v>{ 'reg': 102, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Determinación, distribución y aplicación de los costos en una empresa mercantil.', 'offset':1}, </v>
+        <v>{ 'reg': 102, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Determinación, distribución y aplicación de los costos en una empresa mercantil.', 'offset':1},</v>
       </c>
       <c r="N43" s="6" t="str">
         <f aca="false">IF(E42=E43,CONCATENATE(N42,M43),M43)</f>
-        <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, { 'reg': 17, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1}, { 'reg': 102, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Determinación, distribución y aplicación de los costos en una empresa mercantil.', 'offset':1}, </v>
+        <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1},{ 'reg': 17, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1},{ 'reg': 102, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Determinación, distribución y aplicación de los costos en una empresa mercantil.', 'offset':1},</v>
       </c>
       <c r="O43" s="14" t="str">
         <f aca="false">IF(E43=E44,"","{'"&amp;E$1&amp;"': "&amp;E43&amp;", '"&amp;B$1&amp;"': '"&amp;B43&amp;"',  'editing': false, 'tipo': '"&amp;A43&amp;"', 'data': "&amp;"["&amp;N43&amp;"],  },")</f>
@@ -3899,15 +4115,15 @@
       </c>
       <c r="M44" s="10" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K44&amp;", '"&amp;L$1&amp;"': '"&amp;L44&amp;"', '"&amp;F$1&amp;"': "&amp;F44&amp;", '"&amp;G$1&amp;"': "&amp;G44&amp;", '"&amp;H$1&amp;"': '"&amp;H44&amp;"', '"&amp;I$1&amp;"': '"&amp;I44&amp;"', '"&amp;J$1&amp;"':"&amp;J44&amp;"}, "</f>
-        <v>{ 'reg': 126, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Dinámica grupal/debate en clase', 'offset':1}, </v>
+        <v>{ 'reg': 126, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Dinámica grupal/debate en clase', 'offset':1},</v>
       </c>
       <c r="N44" s="6" t="str">
         <f aca="false">IF(E43=E44,CONCATENATE(N43,M44),M44)</f>
-        <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, { 'reg': 17, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1}, { 'reg': 102, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Determinación, distribución y aplicación de los costos en una empresa mercantil.', 'offset':1}, { 'reg': 126, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Dinámica grupal/debate en clase', 'offset':1}, </v>
+        <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1},{ 'reg': 17, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1},{ 'reg': 102, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Determinación, distribución y aplicación de los costos en una empresa mercantil.', 'offset':1},{ 'reg': 126, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Dinámica grupal/debate en clase', 'offset':1},</v>
       </c>
       <c r="O44" s="14" t="str">
         <f aca="false">IF(E44=E45,"","{'"&amp;E$1&amp;"': "&amp;E44&amp;", '"&amp;B$1&amp;"': '"&amp;B44&amp;"',  'editing': false, 'tipo': '"&amp;A44&amp;"', 'data': "&amp;"["&amp;N44&amp;"],  },")</f>
-        <v>{'row': 2, 'week': '2.5',  'editing': false, 'tipo': 'contenidos', 'data': [{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, { 'reg': 17, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1}, { 'reg': 102, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Determinación, distribución y aplicación de los costos en una empresa mercantil.', 'offset':1}, { 'reg': 126, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Dinámica grupal/debate en clase', 'offset':1}, ],  },</v>
+        <v>{'row': 2, 'week': '2.5',  'editing': false, 'tipo': 'contenidos', 'data': [{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1},{ 'reg': 17, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1},{ 'reg': 102, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Determinación, distribución y aplicación de los costos en una empresa mercantil.', 'offset':1},{ 'reg': 126, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Dinámica grupal/debate en clase', 'offset':1},],  },</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3942,11 +4158,11 @@
       </c>
       <c r="M45" s="10" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K45&amp;", '"&amp;L$1&amp;"': '"&amp;L45&amp;"', '"&amp;F$1&amp;"': "&amp;F45&amp;", '"&amp;G$1&amp;"': "&amp;G45&amp;", '"&amp;H$1&amp;"': '"&amp;H45&amp;"', '"&amp;I$1&amp;"': '"&amp;I45&amp;"', '"&amp;J$1&amp;"':"&amp;J45&amp;"}, "</f>
-        <v>{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, </v>
+        <v>{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1},</v>
       </c>
       <c r="N45" s="6" t="str">
         <f aca="false">IF(E44=E45,CONCATENATE(N44,M45),M45)</f>
-        <v>{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, </v>
+        <v>{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1},</v>
       </c>
       <c r="O45" s="14" t="str">
         <f aca="false">IF(E45=E46,"","{'"&amp;E$1&amp;"': "&amp;E45&amp;", '"&amp;B$1&amp;"': '"&amp;B45&amp;"',  'editing': false, 'tipo': '"&amp;A45&amp;"', 'data': "&amp;"["&amp;N45&amp;"],  },")</f>
@@ -3986,11 +4202,11 @@
       </c>
       <c r="M46" s="10" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K46&amp;", '"&amp;L$1&amp;"': '"&amp;L46&amp;"', '"&amp;F$1&amp;"': "&amp;F46&amp;", '"&amp;G$1&amp;"': "&amp;G46&amp;", '"&amp;H$1&amp;"': '"&amp;H46&amp;"', '"&amp;I$1&amp;"': '"&amp;I46&amp;"', '"&amp;J$1&amp;"':"&amp;J46&amp;"}, "</f>
-        <v>{ 'reg': 124, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1}, </v>
+        <v>{ 'reg': 124, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1},</v>
       </c>
       <c r="N46" s="6" t="str">
         <f aca="false">IF(E45=E46,CONCATENATE(N45,M46),M46)</f>
-        <v>{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, { 'reg': 124, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1}, </v>
+        <v>{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1},{ 'reg': 124, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1},</v>
       </c>
       <c r="O46" s="14" t="str">
         <f aca="false">IF(E46=E47,"","{'"&amp;E$1&amp;"': "&amp;E46&amp;", '"&amp;B$1&amp;"': '"&amp;B46&amp;"',  'editing': false, 'tipo': '"&amp;A46&amp;"', 'data': "&amp;"["&amp;N46&amp;"],  },")</f>
@@ -4030,11 +4246,11 @@
       </c>
       <c r="M47" s="10" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K47&amp;", '"&amp;L$1&amp;"': '"&amp;L47&amp;"', '"&amp;F$1&amp;"': "&amp;F47&amp;", '"&amp;G$1&amp;"': "&amp;G47&amp;", '"&amp;H$1&amp;"': '"&amp;H47&amp;"', '"&amp;I$1&amp;"': '"&amp;I47&amp;"', '"&amp;J$1&amp;"':"&amp;J47&amp;"}, "</f>
-        <v>{ 'reg': 26, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Analizar y aplicar el marco legal normativo para la elaboración de los Estados Financieros.', 'offset':1}, </v>
+        <v>{ 'reg': 26, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Analizar y aplicar el marco legal normativo para la elaboración de los Estados Financieros.', 'offset':1},</v>
       </c>
       <c r="N47" s="6" t="str">
         <f aca="false">IF(E46=E47,CONCATENATE(N46,M47),M47)</f>
-        <v>{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, { 'reg': 124, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1}, { 'reg': 26, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Analizar y aplicar el marco legal normativo para la elaboración de los Estados Financieros.', 'offset':1}, </v>
+        <v>{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1},{ 'reg': 124, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1},{ 'reg': 26, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Analizar y aplicar el marco legal normativo para la elaboración de los Estados Financieros.', 'offset':1},</v>
       </c>
       <c r="O47" s="14" t="str">
         <f aca="false">IF(E47=E48,"","{'"&amp;E$1&amp;"': "&amp;E47&amp;", '"&amp;B$1&amp;"': '"&amp;B47&amp;"',  'editing': false, 'tipo': '"&amp;A47&amp;"', 'data': "&amp;"["&amp;N47&amp;"],  },")</f>
@@ -4074,15 +4290,15 @@
       </c>
       <c r="M48" s="10" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K48&amp;", '"&amp;L$1&amp;"': '"&amp;L48&amp;"', '"&amp;F$1&amp;"': "&amp;F48&amp;", '"&amp;G$1&amp;"': "&amp;G48&amp;", '"&amp;H$1&amp;"': '"&amp;H48&amp;"', '"&amp;I$1&amp;"': '"&amp;I48&amp;"', '"&amp;J$1&amp;"':"&amp;J48&amp;"}, "</f>
-        <v>{ 'reg': 40, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada', 'offset':1}, </v>
+        <v>{ 'reg': 40, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada', 'offset':1},</v>
       </c>
       <c r="N48" s="6" t="str">
         <f aca="false">IF(E47=E48,CONCATENATE(N47,M48),M48)</f>
-        <v>{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, { 'reg': 124, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1}, { 'reg': 26, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Analizar y aplicar el marco legal normativo para la elaboración de los Estados Financieros.', 'offset':1}, { 'reg': 40, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada', 'offset':1}, </v>
+        <v>{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1},{ 'reg': 124, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1},{ 'reg': 26, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Analizar y aplicar el marco legal normativo para la elaboración de los Estados Financieros.', 'offset':1},{ 'reg': 40, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada', 'offset':1},</v>
       </c>
       <c r="O48" s="14" t="str">
         <f aca="false">IF(E48=E49,"","{'"&amp;E$1&amp;"': "&amp;E48&amp;", '"&amp;B$1&amp;"': '"&amp;B48&amp;"',  'editing': false, 'tipo': '"&amp;A48&amp;"', 'data': "&amp;"["&amp;N48&amp;"],  },")</f>
-        <v>{'row': 3, 'week': '3.5',  'editing': false, 'tipo': 'contenidos', 'data': [{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, { 'reg': 124, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1}, { 'reg': 26, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Analizar y aplicar el marco legal normativo para la elaboración de los Estados Financieros.', 'offset':1}, { 'reg': 40, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada', 'offset':1}, ],  },</v>
+        <v>{'row': 3, 'week': '3.5',  'editing': false, 'tipo': 'contenidos', 'data': [{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1},{ 'reg': 124, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1},{ 'reg': 26, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Analizar y aplicar el marco legal normativo para la elaboración de los Estados Financieros.', 'offset':1},{ 'reg': 40, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada', 'offset':1},],  },</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4117,11 +4333,11 @@
       </c>
       <c r="M49" s="10" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K49&amp;", '"&amp;L$1&amp;"': '"&amp;L49&amp;"', '"&amp;F$1&amp;"': "&amp;F49&amp;", '"&amp;G$1&amp;"': "&amp;G49&amp;", '"&amp;H$1&amp;"': '"&amp;H49&amp;"', '"&amp;I$1&amp;"': '"&amp;I49&amp;"', '"&amp;J$1&amp;"':"&amp;J49&amp;"}, "</f>
-        <v>{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, </v>
+        <v>{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1},</v>
       </c>
       <c r="N49" s="6" t="str">
         <f aca="false">IF(E48=E49,CONCATENATE(N48,M49),M49)</f>
-        <v>{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, </v>
+        <v>{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1},</v>
       </c>
       <c r="O49" s="14" t="str">
         <f aca="false">IF(E49=E50,"","{'"&amp;E$1&amp;"': "&amp;E49&amp;", '"&amp;B$1&amp;"': '"&amp;B49&amp;"',  'editing': false, 'tipo': '"&amp;A49&amp;"', 'data': "&amp;"["&amp;N49&amp;"],  },")</f>
@@ -4161,11 +4377,11 @@
       </c>
       <c r="M50" s="10" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K50&amp;", '"&amp;L$1&amp;"': '"&amp;L50&amp;"', '"&amp;F$1&amp;"': "&amp;F50&amp;", '"&amp;G$1&amp;"': "&amp;G50&amp;", '"&amp;H$1&amp;"': '"&amp;H50&amp;"', '"&amp;I$1&amp;"': '"&amp;I50&amp;"', '"&amp;J$1&amp;"':"&amp;J50&amp;"}, "</f>
-        <v>{ 'reg': 62, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1}, </v>
+        <v>{ 'reg': 62, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1},</v>
       </c>
       <c r="N50" s="6" t="str">
         <f aca="false">IF(E49=E50,CONCATENATE(N49,M50),M50)</f>
-        <v>{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, { 'reg': 62, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1}, </v>
+        <v>{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1},{ 'reg': 62, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1},</v>
       </c>
       <c r="O50" s="14" t="str">
         <f aca="false">IF(E50=E51,"","{'"&amp;E$1&amp;"': "&amp;E50&amp;", '"&amp;B$1&amp;"': '"&amp;B50&amp;"',  'editing': false, 'tipo': '"&amp;A50&amp;"', 'data': "&amp;"["&amp;N50&amp;"],  },")</f>
@@ -4205,11 +4421,11 @@
       </c>
       <c r="M51" s="10" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K51&amp;", '"&amp;L$1&amp;"': '"&amp;L51&amp;"', '"&amp;F$1&amp;"': "&amp;F51&amp;", '"&amp;G$1&amp;"': "&amp;G51&amp;", '"&amp;H$1&amp;"': '"&amp;H51&amp;"', '"&amp;I$1&amp;"': '"&amp;I51&amp;"', '"&amp;J$1&amp;"':"&amp;J51&amp;"}, "</f>
-        <v>{ 'reg': 10, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Evalúa los resultados obtenidos. Demuestra la aplicación del análisis vertical y horizontal.', 'offset':1}, </v>
+        <v>{ 'reg': 10, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Evalúa los resultados obtenidos. Demuestra la aplicación del análisis vertical y horizontal.', 'offset':1},</v>
       </c>
       <c r="N51" s="6" t="str">
         <f aca="false">IF(E50=E51,CONCATENATE(N50,M51),M51)</f>
-        <v>{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, { 'reg': 62, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1}, { 'reg': 10, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Evalúa los resultados obtenidos. Demuestra la aplicación del análisis vertical y horizontal.', 'offset':1}, </v>
+        <v>{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1},{ 'reg': 62, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1},{ 'reg': 10, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Evalúa los resultados obtenidos. Demuestra la aplicación del análisis vertical y horizontal.', 'offset':1},</v>
       </c>
       <c r="O51" s="14" t="str">
         <f aca="false">IF(E51=E52,"","{'"&amp;E$1&amp;"': "&amp;E51&amp;", '"&amp;B$1&amp;"': '"&amp;B51&amp;"',  'editing': false, 'tipo': '"&amp;A51&amp;"', 'data': "&amp;"["&amp;N51&amp;"],  },")</f>
@@ -4249,15 +4465,15 @@
       </c>
       <c r="M52" s="10" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K52&amp;", '"&amp;L$1&amp;"': '"&amp;L52&amp;"', '"&amp;F$1&amp;"': "&amp;F52&amp;", '"&amp;G$1&amp;"': "&amp;G52&amp;", '"&amp;H$1&amp;"': '"&amp;H52&amp;"', '"&amp;I$1&amp;"': '"&amp;I52&amp;"', '"&amp;J$1&amp;"':"&amp;J52&amp;"}, "</f>
-        <v>{ 'reg': 82, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Clase Expositiva\n Taller\n  Discusión de caso', 'offset':1}, </v>
+        <v>{ 'reg': 82, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Clase Expositiva\n Taller\n  Discusión de caso', 'offset':1},</v>
       </c>
       <c r="N52" s="6" t="str">
         <f aca="false">IF(E51=E52,CONCATENATE(N51,M52),M52)</f>
-        <v>{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, { 'reg': 62, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1}, { 'reg': 10, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Evalúa los resultados obtenidos. Demuestra la aplicación del análisis vertical y horizontal.', 'offset':1}, { 'reg': 82, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Clase Expositiva\n Taller\n  Discusión de caso', 'offset':1}, </v>
+        <v>{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1},{ 'reg': 62, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1},{ 'reg': 10, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Evalúa los resultados obtenidos. Demuestra la aplicación del análisis vertical y horizontal.', 'offset':1},{ 'reg': 82, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Clase Expositiva\n Taller\n  Discusión de caso', 'offset':1},</v>
       </c>
       <c r="O52" s="14" t="str">
         <f aca="false">IF(E52=E53,"","{'"&amp;E$1&amp;"': "&amp;E52&amp;", '"&amp;B$1&amp;"': '"&amp;B52&amp;"',  'editing': false, 'tipo': '"&amp;A52&amp;"', 'data': "&amp;"["&amp;N52&amp;"],  },")</f>
-        <v>{'row': 4, 'week': '4.5',  'editing': false, 'tipo': 'contenidos', 'data': [{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, { 'reg': 62, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1}, { 'reg': 10, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Evalúa los resultados obtenidos. Demuestra la aplicación del análisis vertical y horizontal.', 'offset':1}, { 'reg': 82, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Clase Expositiva\n Taller\n  Discusión de caso', 'offset':1}, ],  },</v>
+        <v>{'row': 4, 'week': '4.5',  'editing': false, 'tipo': 'contenidos', 'data': [{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1},{ 'reg': 62, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1},{ 'reg': 10, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Evalúa los resultados obtenidos. Demuestra la aplicación del análisis vertical y horizontal.', 'offset':1},{ 'reg': 82, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Clase Expositiva\n Taller\n  Discusión de caso', 'offset':1},],  },</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4292,15 +4508,15 @@
       </c>
       <c r="M53" s="10" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K53&amp;", '"&amp;L$1&amp;"': '"&amp;L53&amp;"', '"&amp;F$1&amp;"': "&amp;F53&amp;", '"&amp;G$1&amp;"': "&amp;G53&amp;", '"&amp;H$1&amp;"': '"&amp;H53&amp;"', '"&amp;I$1&amp;"': '"&amp;I53&amp;"', '"&amp;J$1&amp;"':"&amp;J53&amp;"}, "</f>
-        <v>{ 'reg': 19, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'center', 'texto': 'EVALUACIÓN PARCIAL 1 ', 'offset':2}, </v>
+        <v>{ 'reg': 19, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'center', 'texto': 'EVALUACIÓN PARCIAL 1 ', 'offset':2},</v>
       </c>
       <c r="N53" s="6" t="str">
         <f aca="false">IF(E52=E53,CONCATENATE(N52,M53),M53)</f>
-        <v>{ 'reg': 19, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'center', 'texto': 'EVALUACIÓN PARCIAL 1 ', 'offset':2}, </v>
+        <v>{ 'reg': 19, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'center', 'texto': 'EVALUACIÓN PARCIAL 1 ', 'offset':2},</v>
       </c>
       <c r="O53" s="14" t="str">
         <f aca="false">IF(E53=E54,"","{'"&amp;E$1&amp;"': "&amp;E53&amp;", '"&amp;B$1&amp;"': '"&amp;B53&amp;"',  'editing': false, 'tipo': '"&amp;A53&amp;"', 'data': "&amp;"["&amp;N53&amp;"],  },")</f>
-        <v>{'row': 5, 'week': '4.9',  'editing': false, 'tipo': 'examenes', 'data': [{ 'reg': 19, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'center', 'texto': 'EVALUACIÓN PARCIAL 1 ', 'offset':2}, ],  },</v>
+        <v>{'row': 5, 'week': '4.9',  'editing': false, 'tipo': 'examenes', 'data': [{ 'reg': 19, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'center', 'texto': 'EVALUACIÓN PARCIAL 1 ', 'offset':2},],  },</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4335,11 +4551,11 @@
       </c>
       <c r="M54" s="10" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K54&amp;", '"&amp;L$1&amp;"': '"&amp;L54&amp;"', '"&amp;F$1&amp;"': "&amp;F54&amp;", '"&amp;G$1&amp;"': "&amp;G54&amp;", '"&amp;H$1&amp;"': '"&amp;H54&amp;"', '"&amp;I$1&amp;"': '"&amp;I54&amp;"', '"&amp;J$1&amp;"':"&amp;J54&amp;"}, "</f>
-        <v>{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, </v>
+        <v>{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1},</v>
       </c>
       <c r="N54" s="6" t="str">
         <f aca="false">IF(E53=E54,CONCATENATE(N53,M54),M54)</f>
-        <v>{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, </v>
+        <v>{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1},</v>
       </c>
       <c r="O54" s="14" t="str">
         <f aca="false">IF(E54=E55,"","{'"&amp;E$1&amp;"': "&amp;E54&amp;", '"&amp;B$1&amp;"': '"&amp;B54&amp;"',  'editing': false, 'tipo': '"&amp;A54&amp;"', 'data': "&amp;"["&amp;N54&amp;"],  },")</f>
@@ -4376,11 +4592,11 @@
       </c>
       <c r="M55" s="10" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K55&amp;", '"&amp;L$1&amp;"': '"&amp;L55&amp;"', '"&amp;F$1&amp;"': "&amp;F55&amp;", '"&amp;G$1&amp;"': "&amp;G55&amp;", '"&amp;H$1&amp;"': '"&amp;H55&amp;"', '"&amp;I$1&amp;"': '"&amp;I55&amp;"', '"&amp;J$1&amp;"':"&amp;J55&amp;"}, "</f>
-        <v>{ 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1}, </v>
+        <v>{ 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1},</v>
       </c>
       <c r="N55" s="6" t="str">
         <f aca="false">IF(E54=E55,CONCATENATE(N54,M55),M55)</f>
-        <v>{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, { 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1}, </v>
+        <v>{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1},{ 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1},</v>
       </c>
       <c r="O55" s="14" t="str">
         <f aca="false">IF(E55=E56,"","{'"&amp;E$1&amp;"': "&amp;E55&amp;", '"&amp;B$1&amp;"': '"&amp;B55&amp;"',  'editing': false, 'tipo': '"&amp;A55&amp;"', 'data': "&amp;"["&amp;N55&amp;"],  },")</f>
@@ -4417,11 +4633,11 @@
       </c>
       <c r="M56" s="10" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K56&amp;", '"&amp;L$1&amp;"': '"&amp;L56&amp;"', '"&amp;F$1&amp;"': "&amp;F56&amp;", '"&amp;G$1&amp;"': "&amp;G56&amp;", '"&amp;H$1&amp;"': '"&amp;H56&amp;"', '"&amp;I$1&amp;"': '"&amp;I56&amp;"', '"&amp;J$1&amp;"':"&amp;J56&amp;"}, "</f>
-        <v>{ 'reg': 39, 'subtipo': '', 'col': 4, 'cols': 2, 'align': '', 'texto': 'Propicia un debate acerca de la toma de decisiones en una empresa.', 'offset':1}, </v>
+        <v>{ 'reg': 39, 'subtipo': '', 'col': 4, 'cols': 2, 'align': '', 'texto': 'Propicia un debate acerca de la toma de decisiones en una empresa.', 'offset':1},</v>
       </c>
       <c r="N56" s="6" t="str">
         <f aca="false">IF(E55=E56,CONCATENATE(N55,M56),M56)</f>
-        <v>{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, { 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1}, { 'reg': 39, 'subtipo': '', 'col': 4, 'cols': 2, 'align': '', 'texto': 'Propicia un debate acerca de la toma de decisiones en una empresa.', 'offset':1}, </v>
+        <v>{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1},{ 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1},{ 'reg': 39, 'subtipo': '', 'col': 4, 'cols': 2, 'align': '', 'texto': 'Propicia un debate acerca de la toma de decisiones en una empresa.', 'offset':1},</v>
       </c>
       <c r="O56" s="14" t="str">
         <f aca="false">IF(E56=E57,"","{'"&amp;E$1&amp;"': "&amp;E56&amp;", '"&amp;B$1&amp;"': '"&amp;B56&amp;"',  'editing': false, 'tipo': '"&amp;A56&amp;"', 'data': "&amp;"["&amp;N56&amp;"],  },")</f>
@@ -4458,15 +4674,15 @@
       </c>
       <c r="M57" s="10" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K57&amp;", '"&amp;L$1&amp;"': '"&amp;L57&amp;"', '"&amp;F$1&amp;"': "&amp;F57&amp;", '"&amp;G$1&amp;"': "&amp;G57&amp;", '"&amp;H$1&amp;"': '"&amp;H57&amp;"', '"&amp;I$1&amp;"': '"&amp;I57&amp;"', '"&amp;J$1&amp;"':"&amp;J57&amp;"}, "</f>
-        <v>{ 'reg': 69, 'subtipo': '', 'col': 6, 'cols': 2, 'align': '', 'texto': 'Exposición dialogada', 'offset':1}, </v>
+        <v>{ 'reg': 69, 'subtipo': '', 'col': 6, 'cols': 2, 'align': '', 'texto': 'Exposición dialogada', 'offset':1},</v>
       </c>
       <c r="N57" s="6" t="str">
         <f aca="false">IF(E56=E57,CONCATENATE(N56,M57),M57)</f>
-        <v>{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, { 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1}, { 'reg': 39, 'subtipo': '', 'col': 4, 'cols': 2, 'align': '', 'texto': 'Propicia un debate acerca de la toma de decisiones en una empresa.', 'offset':1}, { 'reg': 69, 'subtipo': '', 'col': 6, 'cols': 2, 'align': '', 'texto': 'Exposición dialogada', 'offset':1}, </v>
+        <v>{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1},{ 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1},{ 'reg': 39, 'subtipo': '', 'col': 4, 'cols': 2, 'align': '', 'texto': 'Propicia un debate acerca de la toma de decisiones en una empresa.', 'offset':1},{ 'reg': 69, 'subtipo': '', 'col': 6, 'cols': 2, 'align': '', 'texto': 'Exposición dialogada', 'offset':1},</v>
       </c>
       <c r="O57" s="14" t="str">
         <f aca="false">IF(E57=E58,"","{'"&amp;E$1&amp;"': "&amp;E57&amp;", '"&amp;B$1&amp;"': '"&amp;B57&amp;"',  'editing': false, 'tipo': '"&amp;A57&amp;"', 'data': "&amp;"["&amp;N57&amp;"],  },")</f>
-        <v>{'row': 6, 'week': '5.5',  'editing': false, 'tipo': 'contenidos', 'data': [{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, { 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1}, { 'reg': 39, 'subtipo': '', 'col': 4, 'cols': 2, 'align': '', 'texto': 'Propicia un debate acerca de la toma de decisiones en una empresa.', 'offset':1}, { 'reg': 69, 'subtipo': '', 'col': 6, 'cols': 2, 'align': '', 'texto': 'Exposición dialogada', 'offset':1}, ],  },</v>
+        <v>{'row': 6, 'week': '5.5',  'editing': false, 'tipo': 'contenidos', 'data': [{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1},{ 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1},{ 'reg': 39, 'subtipo': '', 'col': 4, 'cols': 2, 'align': '', 'texto': 'Propicia un debate acerca de la toma de decisiones en una empresa.', 'offset':1},{ 'reg': 69, 'subtipo': '', 'col': 6, 'cols': 2, 'align': '', 'texto': 'Exposición dialogada', 'offset':1},],  },</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4500,15 +4716,15 @@
       </c>
       <c r="M58" s="10" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K58&amp;", '"&amp;L$1&amp;"': '"&amp;L58&amp;"', '"&amp;F$1&amp;"': "&amp;F58&amp;", '"&amp;G$1&amp;"': "&amp;G58&amp;", '"&amp;H$1&amp;"': '"&amp;H58&amp;"', '"&amp;I$1&amp;"': '"&amp;I58&amp;"', '"&amp;J$1&amp;"':"&amp;J58&amp;"}, "</f>
-        <v>{ 'reg': 124, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD II: ANALISIS E INTERPRETACION DE LOS ESTADOS FINANCIEROS', 'offset':1}, </v>
+        <v>{ 'reg': 124, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD II: ANALISIS E INTERPRETACION DE LOS ESTADOS FINANCIEROS', 'offset':1},</v>
       </c>
       <c r="N58" s="6" t="str">
         <f aca="false">IF(E57=E58,CONCATENATE(N57,M58),M58)</f>
-        <v>{ 'reg': 124, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD II: ANALISIS E INTERPRETACION DE LOS ESTADOS FINANCIEROS', 'offset':1}, </v>
+        <v>{ 'reg': 124, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD II: ANALISIS E INTERPRETACION DE LOS ESTADOS FINANCIEROS', 'offset':1},</v>
       </c>
       <c r="O58" s="14" t="str">
         <f aca="false">IF(E58=E59,"","{'"&amp;E$1&amp;"': "&amp;E58&amp;", '"&amp;B$1&amp;"': '"&amp;B58&amp;"',  'editing': false, 'tipo': '"&amp;A58&amp;"', 'data': "&amp;"["&amp;N58&amp;"],  },")</f>
-        <v>{'row': 2, 'week': '6',  'editing': false, 'tipo': 'unidades', 'data': [{ 'reg': 124, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD II: ANALISIS E INTERPRETACION DE LOS ESTADOS FINANCIEROS', 'offset':1}, ],  },</v>
+        <v>{'row': 2, 'week': '6',  'editing': false, 'tipo': 'unidades', 'data': [{ 'reg': 124, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD II: ANALISIS E INTERPRETACION DE LOS ESTADOS FINANCIEROS', 'offset':1},],  },</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4543,11 +4759,11 @@
       </c>
       <c r="M59" s="10" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K59&amp;", '"&amp;L$1&amp;"': '"&amp;L59&amp;"', '"&amp;F$1&amp;"': "&amp;F59&amp;", '"&amp;G$1&amp;"': "&amp;G59&amp;", '"&amp;H$1&amp;"': '"&amp;H59&amp;"', '"&amp;I$1&amp;"': '"&amp;I59&amp;"', '"&amp;J$1&amp;"':"&amp;J59&amp;"}, "</f>
-        <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, </v>
+        <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1},</v>
       </c>
       <c r="N59" s="6" t="str">
         <f aca="false">IF(E58=E59,CONCATENATE(N58,M59),M59)</f>
-        <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, </v>
+        <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1},</v>
       </c>
       <c r="O59" s="14" t="str">
         <f aca="false">IF(E59=E60,"","{'"&amp;E$1&amp;"': "&amp;E59&amp;", '"&amp;B$1&amp;"': '"&amp;B59&amp;"',  'editing': false, 'tipo': '"&amp;A59&amp;"', 'data': "&amp;"["&amp;N59&amp;"],  },")</f>
@@ -4587,11 +4803,11 @@
       </c>
       <c r="M60" s="10" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K60&amp;", '"&amp;L$1&amp;"': '"&amp;L60&amp;"', '"&amp;F$1&amp;"': "&amp;F60&amp;", '"&amp;G$1&amp;"': "&amp;G60&amp;", '"&amp;H$1&amp;"': '"&amp;H60&amp;"', '"&amp;I$1&amp;"': '"&amp;I60&amp;"', '"&amp;J$1&amp;"':"&amp;J60&amp;"}, "</f>
-        <v>{ 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, </v>
+        <v>{ 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1},</v>
       </c>
       <c r="N60" s="6" t="str">
         <f aca="false">IF(E59=E60,CONCATENATE(N59,M60),M60)</f>
-        <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, </v>
+        <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1},{ 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1},</v>
       </c>
       <c r="O60" s="14" t="str">
         <f aca="false">IF(E60=E61,"","{'"&amp;E$1&amp;"': "&amp;E60&amp;", '"&amp;B$1&amp;"': '"&amp;B60&amp;"',  'editing': false, 'tipo': '"&amp;A60&amp;"', 'data': "&amp;"["&amp;N60&amp;"],  },")</f>
@@ -4631,11 +4847,11 @@
       </c>
       <c r="M61" s="10" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K61&amp;", '"&amp;L$1&amp;"': '"&amp;L61&amp;"', '"&amp;F$1&amp;"': "&amp;F61&amp;", '"&amp;G$1&amp;"': "&amp;G61&amp;", '"&amp;H$1&amp;"': '"&amp;H61&amp;"', '"&amp;I$1&amp;"': '"&amp;I61&amp;"', '"&amp;J$1&amp;"':"&amp;J61&amp;"}, "</f>
-        <v>{ 'reg': 73, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, </v>
+        <v>{ 'reg': 73, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1},</v>
       </c>
       <c r="N61" s="6" t="str">
         <f aca="false">IF(E60=E61,CONCATENATE(N60,M61),M61)</f>
-        <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'reg': 73, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, </v>
+        <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1},{ 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1},{ 'reg': 73, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1},</v>
       </c>
       <c r="O61" s="14" t="str">
         <f aca="false">IF(E61=E62,"","{'"&amp;E$1&amp;"': "&amp;E61&amp;", '"&amp;B$1&amp;"': '"&amp;B61&amp;"',  'editing': false, 'tipo': '"&amp;A61&amp;"', 'data': "&amp;"["&amp;N61&amp;"],  },")</f>
@@ -4675,15 +4891,15 @@
       </c>
       <c r="M62" s="10" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K62&amp;", '"&amp;L$1&amp;"': '"&amp;L62&amp;"', '"&amp;F$1&amp;"': "&amp;F62&amp;", '"&amp;G$1&amp;"': "&amp;G62&amp;", '"&amp;H$1&amp;"': '"&amp;H62&amp;"', '"&amp;I$1&amp;"': '"&amp;I62&amp;"', '"&amp;J$1&amp;"':"&amp;J62&amp;"}, "</f>
-        <v>{ 'reg': 27, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1}, </v>
+        <v>{ 'reg': 27, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1},</v>
       </c>
       <c r="N62" s="6" t="str">
         <f aca="false">IF(E61=E62,CONCATENATE(N61,M62),M62)</f>
-        <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'reg': 73, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, { 'reg': 27, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1}, </v>
+        <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1},{ 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1},{ 'reg': 73, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1},{ 'reg': 27, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1},</v>
       </c>
       <c r="O62" s="14" t="str">
         <f aca="false">IF(E62=E63,"","{'"&amp;E$1&amp;"': "&amp;E62&amp;", '"&amp;B$1&amp;"': '"&amp;B62&amp;"',  'editing': false, 'tipo': '"&amp;A62&amp;"', 'data': "&amp;"["&amp;N62&amp;"],  },")</f>
-        <v>{'row': 3, 'week': '6.2',  'editing': false, 'tipo': 'titulo3', 'data': [{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'reg': 73, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, { 'reg': 27, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1}, ],  },</v>
+        <v>{'row': 3, 'week': '6.2',  'editing': false, 'tipo': 'titulo3', 'data': [{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1},{ 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1},{ 'reg': 73, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1},{ 'reg': 27, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1},],  },</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4717,15 +4933,15 @@
       </c>
       <c r="M63" s="10" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K63&amp;", '"&amp;L$1&amp;"': '"&amp;L63&amp;"', '"&amp;F$1&amp;"': "&amp;F63&amp;", '"&amp;G$1&amp;"': "&amp;G63&amp;", '"&amp;H$1&amp;"': '"&amp;H63&amp;"', '"&amp;I$1&amp;"': '"&amp;I63&amp;"', '"&amp;J$1&amp;"':"&amp;J63&amp;"}, "</f>
-        <v>{ 'reg': 6, 'subtipo': 'estrategias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'V. ESTRATEGIAS METODOLÓGICAS', 'offset':1}, </v>
+        <v>{ 'reg': 6, 'subtipo': 'estrategias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'V. ESTRATEGIAS METODOLÓGICAS', 'offset':1},</v>
       </c>
       <c r="N63" s="6" t="str">
         <f aca="false">IF(E62=E63,CONCATENATE(N62,M63),M63)</f>
-        <v>{ 'reg': 6, 'subtipo': 'estrategias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'V. ESTRATEGIAS METODOLÓGICAS', 'offset':1}, </v>
+        <v>{ 'reg': 6, 'subtipo': 'estrategias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'V. ESTRATEGIAS METODOLÓGICAS', 'offset':1},</v>
       </c>
       <c r="O63" s="14" t="str">
         <f aca="false">IF(E63=E64,"","{'"&amp;E$1&amp;"': "&amp;E63&amp;", '"&amp;B$1&amp;"': '"&amp;B63&amp;"',  'editing': false, 'tipo': '"&amp;A63&amp;"', 'data': "&amp;"["&amp;N63&amp;"],  },")</f>
-        <v>{'row': 5, 'week': '',  'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 6, 'subtipo': 'estrategias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'V. ESTRATEGIAS METODOLÓGICAS', 'offset':1}, ],  },</v>
+        <v>{'row': 5, 'week': '',  'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 6, 'subtipo': 'estrategias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'V. ESTRATEGIAS METODOLÓGICAS', 'offset':1},],  },</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4759,15 +4975,15 @@
       </c>
       <c r="M64" s="10" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K64&amp;", '"&amp;L$1&amp;"': '"&amp;L64&amp;"', '"&amp;F$1&amp;"': "&amp;F64&amp;", '"&amp;G$1&amp;"': "&amp;G64&amp;", '"&amp;H$1&amp;"': '"&amp;H64&amp;"', '"&amp;I$1&amp;"': '"&amp;I64&amp;"', '"&amp;J$1&amp;"':"&amp;J64&amp;"}, "</f>
-        <v>{ 'reg': 75, 'subtipo': 'evaluaciones', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VI. EVALUACIÓN', 'offset':1}, </v>
+        <v>{ 'reg': 75, 'subtipo': 'evaluaciones', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VI. EVALUACIÓN', 'offset':1},</v>
       </c>
       <c r="N64" s="6" t="str">
         <f aca="false">IF(E63=E64,CONCATENATE(N63,M64),M64)</f>
-        <v>{ 'reg': 75, 'subtipo': 'evaluaciones', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VI. EVALUACIÓN', 'offset':1}, </v>
+        <v>{ 'reg': 75, 'subtipo': 'evaluaciones', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VI. EVALUACIÓN', 'offset':1},</v>
       </c>
       <c r="O64" s="14" t="str">
         <f aca="false">IF(E64=E65,"","{'"&amp;E$1&amp;"': "&amp;E64&amp;", '"&amp;B$1&amp;"': '"&amp;B64&amp;"',  'editing': false, 'tipo': '"&amp;A64&amp;"', 'data': "&amp;"["&amp;N64&amp;"],  },")</f>
-        <v>{'row': 6, 'week': '',  'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 75, 'subtipo': 'evaluaciones', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VI. EVALUACIÓN', 'offset':1}, ],  },</v>
+        <v>{'row': 6, 'week': '',  'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 75, 'subtipo': 'evaluaciones', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VI. EVALUACIÓN', 'offset':1},],  },</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4801,15 +5017,15 @@
       </c>
       <c r="M65" s="10" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K65&amp;", '"&amp;L$1&amp;"': '"&amp;L65&amp;"', '"&amp;F$1&amp;"': "&amp;F65&amp;", '"&amp;G$1&amp;"': "&amp;G65&amp;", '"&amp;H$1&amp;"': '"&amp;H65&amp;"', '"&amp;I$1&amp;"': '"&amp;I65&amp;"', '"&amp;J$1&amp;"':"&amp;J65&amp;"}, "</f>
-        <v>{ 'reg': 102, 'subtipo': 'bibliografias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VII. BIBLIOGRAFÍA', 'offset':1}, </v>
+        <v>{ 'reg': 102, 'subtipo': 'bibliografias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VII. BIBLIOGRAFÍA', 'offset':1},</v>
       </c>
       <c r="N65" s="6" t="str">
         <f aca="false">IF(E64=E65,CONCATENATE(N64,M65),M65)</f>
-        <v>{ 'reg': 102, 'subtipo': 'bibliografias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VII. BIBLIOGRAFÍA', 'offset':1}, </v>
+        <v>{ 'reg': 102, 'subtipo': 'bibliografias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VII. BIBLIOGRAFÍA', 'offset':1},</v>
       </c>
       <c r="O65" s="14" t="str">
         <f aca="false">IF(E65=E66,"","{'"&amp;E$1&amp;"': "&amp;E65&amp;", '"&amp;B$1&amp;"': '"&amp;B65&amp;"',  'editing': false, 'tipo': '"&amp;A65&amp;"', 'data': "&amp;"["&amp;N65&amp;"],  },")</f>
-        <v>{'row': 7, 'week': '',  'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 102, 'subtipo': 'bibliografias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VII. BIBLIOGRAFÍA', 'offset':1}, ],  },</v>
+        <v>{'row': 7, 'week': '',  'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 102, 'subtipo': 'bibliografias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VII. BIBLIOGRAFÍA', 'offset':1},],  },</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4834,35 +5050,461 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="6.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="10.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="2.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="10.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="D1" s="0" t="s">
+      <c r="J3" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="C4" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>189</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -4902,74 +5544,74 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="F1" s="17" t="s">
+      <c r="A1" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="K1" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="N1" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="O1" s="17" t="s">
-        <v>199</v>
+      <c r="K1" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="E2" s="20"/>
+      <c r="A2" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="21" t="s">
-        <v>204</v>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="25" t="s">
+        <v>242</v>
       </c>
       <c r="F3" s="8" t="n">
         <v>1</v>
@@ -4983,7 +5625,7 @@
       <c r="I3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="J3" s="22" t="n">
+      <c r="J3" s="26" t="n">
         <v>11</v>
       </c>
       <c r="K3" s="8" t="n">
@@ -5003,12 +5645,12 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="21" t="s">
-        <v>205</v>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="25" t="s">
+        <v>243</v>
       </c>
       <c r="F4" s="8" t="n">
         <v>0</v>
@@ -5042,12 +5684,12 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="21" t="s">
-        <v>206</v>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="25" t="s">
+        <v>244</v>
       </c>
       <c r="F5" s="8" t="n">
         <v>0</v>
@@ -5062,10 +5704,10 @@
         <v>1</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>207</v>
+        <v>245</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>207</v>
+        <v>245</v>
       </c>
       <c r="L5" s="8" t="n">
         <v>1</v>
@@ -5074,19 +5716,19 @@
         <v>1</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="O5" s="8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="21" t="s">
-        <v>209</v>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="25" t="s">
+        <v>247</v>
       </c>
       <c r="F6" s="8" t="n">
         <v>0</v>
@@ -5101,10 +5743,10 @@
         <v>0</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>207</v>
+        <v>245</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>210</v>
+        <v>248</v>
       </c>
       <c r="L6" s="8" t="n">
         <v>1</v>
@@ -5113,18 +5755,18 @@
         <v>1</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>211</v>
+        <v>249</v>
       </c>
       <c r="O6" s="8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="21"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="25"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -5135,11 +5777,11 @@
       <c r="O7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="21"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="25"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
@@ -5151,28 +5793,28 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>212</v>
+        <v>250</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>213</v>
+        <v>251</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>214</v>
+        <v>252</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>215</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>216</v>
+        <v>254</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>217</v>
+        <v>255</v>
       </c>
       <c r="C10" s="0"/>
-      <c r="D10" s="20" t="s">
-        <v>218</v>
+      <c r="D10" s="24" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5181,35 +5823,35 @@
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
-      <c r="D12" s="20"/>
+      <c r="D12" s="24"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
-      <c r="D13" s="20"/>
+      <c r="D13" s="24"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
-      <c r="D14" s="20"/>
+      <c r="D14" s="24"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
-      <c r="D15" s="20"/>
+      <c r="D15" s="24"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>219</v>
+        <v>257</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>220</v>
+        <v>258</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>215</v>
+        <v>252</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -5247,54 +5889,54 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>221</v>
+        <v>259</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>222</v>
+        <v>260</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>224</v>
+        <v>262</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>225</v>
+        <v>263</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>226</v>
+        <v>264</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>195</v>
+        <v>233</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>196</v>
+        <v>234</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>198</v>
+        <v>236</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>199</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>221</v>
+        <v>259</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>227</v>
+        <v>265</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>228</v>
+        <v>266</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>229</v>
+        <v>267</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>230</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5302,21 +5944,21 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>231</v>
+        <v>269</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>233</v>
+        <v>271</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>234</v>
+        <v>272</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -5337,7 +5979,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -5345,7 +5987,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="10.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="10.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="10.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="11.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="8" width="13.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="8" width="14.47"/>
@@ -5354,202 +5996,202 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" s="23" customFormat="true" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>240</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>242</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>243</v>
-      </c>
-      <c r="J1" s="23" t="s">
-        <v>244</v>
-      </c>
-      <c r="K1" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="L1" s="23" t="s">
-        <v>246</v>
+    <row r="1" s="27" customFormat="true" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>276</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>279</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>280</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>283</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>284</v>
       </c>
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>247</v>
+        <v>285</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>249</v>
+        <v>287</v>
       </c>
       <c r="D2" s="8" t="n">
         <v>0</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>250</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>252</v>
+        <v>290</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>249</v>
+        <v>287</v>
       </c>
       <c r="D4" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="E4" s="24" t="s">
-        <v>253</v>
+      <c r="E4" s="28" t="s">
+        <v>291</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>254</v>
+        <v>292</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>256</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>257</v>
+        <v>295</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>250</v>
+        <v>288</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>259</v>
+        <v>296</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>297</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="J5" s="25" t="s">
-        <v>261</v>
-      </c>
-      <c r="K5" s="25" t="s">
-        <v>261</v>
+        <v>298</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>262</v>
+        <v>300</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>249</v>
+        <v>287</v>
       </c>
       <c r="D6" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="25" t="s">
-        <v>253</v>
+      <c r="E6" s="29" t="s">
+        <v>291</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>254</v>
+        <v>292</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>256</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="8" t="s">
-        <v>249</v>
+        <v>287</v>
       </c>
       <c r="D8" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="24" t="s">
-        <v>253</v>
+      <c r="E8" s="28" t="s">
+        <v>291</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>254</v>
+        <v>292</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>256</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>250</v>
+        <v>288</v>
       </c>
       <c r="D9" s="8" t="n">
         <v>99</v>
       </c>
-      <c r="E9" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>259</v>
+      <c r="E9" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>297</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="J9" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="K9" s="25" t="s">
-        <v>261</v>
+        <v>298</v>
+      </c>
+      <c r="J9" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="K9" s="29" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>249</v>
+        <v>287</v>
       </c>
       <c r="D10" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="E10" s="24" t="s">
-        <v>253</v>
+      <c r="E10" s="28" t="s">
+        <v>291</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>254</v>
+        <v>292</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>256</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/topdown.xlsx
+++ b/topdown.xlsx
@@ -5,10 +5,10 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Acceso" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="campos" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="syllabus_modelo" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="datos" sheetId="4" state="visible" r:id="rId5"/>
@@ -34,416 +34,482 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="303">
-  <si>
-    <t xml:space="preserve">Componente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">campo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GENERALIDADES</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="305">
+  <si>
+    <t xml:space="preserve">modelo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cod_acceso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">master</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wacceso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Master</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administrador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Responsable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Docente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consulta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acceso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">generales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">titulos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">competencias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contenidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sumillas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estrategias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evaluaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bibliografias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unidades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cursos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mallas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mcursos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prereqs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grupos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">curso_grupos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">curso_competencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">componente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tipo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">align</t>
+  </si>
+  <si>
+    <t xml:space="preserve">columna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">semana_inicio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">semana_fin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">semana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">porcentaje</t>
+  </si>
+  <si>
+    <t xml:space="preserve">autor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">editorial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fecha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">codigo_ucss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">texto</t>
   </si>
   <si>
     <t xml:space="preserve">titulo</t>
   </si>
   <si>
-    <t xml:space="preserve">texto</t>
+    <t xml:space="preserve">center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADMINISTRACION I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTABILIDAD GERENCIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATOS GENERALES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1‐</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Código</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> : 100048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2‐</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre‐ Requisito </t>
+  </si>
+  <si>
+    <t xml:space="preserve">: Contabilidad General</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3‐</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Créditos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">: 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4‐</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">: 04 horas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5‐</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semestre académico</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> : 2017‐ I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6‐</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciclo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> : III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">II.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUMILLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El curso tiene como propósito integrar las teorías, las técnicas y las herramientas adquiridas en las materias de contabilidad general y administración que le permita llegar al alumno a desarrollar las habilidades de análisis, integración de la información para la construcción de propuestas y soluciones que llevan al logro de los objetivos de la organización. Se pondrá énfasis en el análisis financiero de los estados financieros y su relación con los costos empresariales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">III.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPETENCIAS GENERALES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comprende el papel de la información contable en los Negocios. Relación entre la contabilidad y la Administración y la toma de decisiones.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conoce y ejecuta los Estados Financieros de una empresa comercial, industrial y de servicios.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toma de decisiones, en base a un análisis financiero, dentro de las funciones de operación, inversión y financiamiento y análisis de los costos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planifica la gestión de la empresa a futuro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacidad de trabajo en equipo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IV.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPETENCIAS ESPECÍFICAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conoce, Analiza y describe las diferentes empresas que se desarrollan en nuestro país y la importancia que tiene en ellas la contabilidad gerencia, desde la óptica de los estados financieros: Estado de Situación Financiera y Estado de Resultados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analiza y diagnostica los Estados financieros básicos de diferentes empresas, mediante el análisis vertical y horizontal así como los ratios financieros. ‐1‐</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desarrolla un plan financiero para una empresa: Presupuesto de ventas, Presupuesto de cobranzas, presupuesto de producción, presupuesto de compras, presupuesto de pagos, presupuesto de pagos, presupuesto de gastos, entre otros.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estudia la importancia de la estructura de costos de una empresa y su implicancia en la planificación financiera.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elabora estados financieros proyectados, para diagnosticar el futuro de la empresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROGRAMACIÓN DE CONTENIDOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDAD I: LA CONTABILIDAD GERENCIAL.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEMANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONCEPTUAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROCEDIMENTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACTIVIDAD DE APRENDIZAJE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La contabilidad gerencial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reconoce el recorrido de las operaciones empresariales en el ciclo contable de una empresa. Evalúa la utilidad de la información financiera y gerencial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exposición dialogada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Contabilidad de Costos Empresariales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‐ Concepto. Importacia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Determinación, distribución y aplicación de los costos en una empresa mercantil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dinámica grupal/debate en clase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elementos de los Estados Financieros:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‐ Balance General: Activo, pasivo y patrimonio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analizar y aplicar el marco legal normativo para la elaboración de los Estados Financieros.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‐ Estado de Resultados: Ingresos y Gastos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discusión de caso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Análisis de los Estados Financieros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evalúa los resultados obtenidos. Demuestra la aplicación del análisis vertical y horizontal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clase Expositiva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‐Análisis Horizontal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‐Análisis Vertical.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‐Desarrollo de casos de aplica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ción.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‐ Elaboración de un informe gerencial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVALUACIÓN PARCIAL 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trabajos de aplicación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Propicia un debate acerca de la toma de decisiones en una empresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‐Análisis de todo el proceso aplicado hasta el informe gerencial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VI.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESTRATEGIAS METODOLÓGICAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lecturas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los materiales asignados previamente deberán ser leídos para el desarrollo de cada sesión de los cuales se tomarán evaluaciones permanentes en cada sesión. Es importante leer los materiales asignados, de manera que se pueda complementar el tratamiento de los mismos en clase.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participación en clase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La participación en clase es de primera importancia en el curso, la participación incluye no solamente los aportes referidos al tema a tratar, sino las preguntas que surgieran con referencia a él.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trabajo grupal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En particular, se deberán conformar equipos de trabajo de seis integrantes (como máximo por equipo).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VII.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVALUACIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El promedio final de curso es producto de una media ponderada que considera los siguientes pesos:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluación Parcial 1 10%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluación Parcial 2 20%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluación Parcial 3 20%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluación Final 30%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluación Continua 20%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIII.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIBLIOGRAFÍA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ubicación : 657.4/F64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Título : Contabilidad Gerencial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autor : Flores Soria, Jaime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editorial: Centro de Especialización en Contabilidad y Finanzas. Año 2003.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ubicación : 658.151.1/P27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Título : Contabilidad para la toma de decisiones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autor : Pascual Chávez, Ackerman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editorial: San Marcos Año 2003.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ubicación : 658.151.1/D69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Título : Contabilidad Gerencial II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autor : Díaz Izquierdo, Pedro; Quiroz Pacheco, Juan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editorial: USMP Año 2001.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">codigo</t>
   </si>
   <si>
     <t xml:space="preserve">orden</t>
   </si>
   <si>
-    <t xml:space="preserve">SUMILLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMPETENCIAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDADES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">semana_inicio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">semana_fin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONTENIDOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">semana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">columna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESTRATEGIAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EVALUACIONES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">porcentaje</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIBLIOGRAFIAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">autor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">editorial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fecha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">codigo_ucss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">componente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tipo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">align</t>
-  </si>
-  <si>
-    <t xml:space="preserve">generales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADMINISTRACION I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">left</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONTABILIDAD GERENCIAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DATOS GENERALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1‐</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Código</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> : 100048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2‐</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pre‐ Requisito </t>
-  </si>
-  <si>
-    <t xml:space="preserve">: Contabilidad General</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3‐</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Créditos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">: 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4‐</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Horas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">: 04 horas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5‐</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semestre académico</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> : 2017‐ I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6‐</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ciclo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> : III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">II.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El curso tiene como propósito integrar las teorías, las técnicas y las herramientas adquiridas en las materias de contabilidad general y administración que le permita llegar al alumno a desarrollar las habilidades de análisis, integración de la información para la construcción de propuestas y soluciones que llevan al logro de los objetivos de la organización. Se pondrá énfasis en el análisis financiero de los estados financieros y su relación con los costos empresariales.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">III.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMPETENCIAS GENERALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comprende el papel de la información contable en los Negocios. Relación entre la contabilidad y la Administración y la toma de decisiones.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conoce y ejecuta los Estados Financieros de una empresa comercial, industrial y de servicios.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toma de decisiones, en base a un análisis financiero, dentro de las funciones de operación, inversión y financiamiento y análisis de los costos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Planifica la gestión de la empresa a futuro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capacidad de trabajo en equipo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IV.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMPETENCIAS ESPECÍFICAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conoce, Analiza y describe las diferentes empresas que se desarrollan en nuestro país y la importancia que tiene en ellas la contabilidad gerencia, desde la óptica de los estados financieros: Estado de Situación Financiera y Estado de Resultados.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analiza y diagnostica los Estados financieros básicos de diferentes empresas, mediante el análisis vertical y horizontal así como los ratios financieros. ‐1‐</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desarrolla un plan financiero para una empresa: Presupuesto de ventas, Presupuesto de cobranzas, presupuesto de producción, presupuesto de compras, presupuesto de pagos, presupuesto de pagos, presupuesto de gastos, entre otros.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estudia la importancia de la estructura de costos de una empresa y su implicancia en la planificación financiera.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elabora estados financieros proyectados, para diagnosticar el futuro de la empresa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROGRAMACIÓN DE CONTENIDOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDAD I: LA CONTABILIDAD GERENCIAL.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEMANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONCEPTUAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROCEDIMENTAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACTIVIDAD DE APRENDIZAJE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La contabilidad gerencial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reconoce el recorrido de las operaciones empresariales en el ciclo contable de una empresa. Evalúa la utilidad de la información financiera y gerencial.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exposición dialogada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Contabilidad de Costos Empresariales.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">‐ Concepto. Importacia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Determinación, distribución y aplicación de los costos en una empresa mercantil.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dinámica grupal/debate en clase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elementos de los Estados Financieros:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">‐ Balance General: Activo, pasivo y patrimonio.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analizar y aplicar el marco legal normativo para la elaboración de los Estados Financieros.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">‐ Estado de Resultados: Ingresos y Gastos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discusión de caso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Análisis de los Estados Financieros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evalúa los resultados obtenidos. Demuestra la aplicación del análisis vertical y horizontal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clase Expositiva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">‐Análisis Horizontal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">‐Análisis Vertical.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">‐Desarrollo de casos de aplica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ción.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">‐ Elaboración de un informe gerencial.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EVALUACIÓN PARCIAL 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trabajos de aplicación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Propicia un debate acerca de la toma de decisiones en una empresa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">‐Análisis de todo el proceso aplicado hasta el informe gerencial.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VI.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESTRATEGIAS METODOLÓGICAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lecturas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los materiales asignados previamente deberán ser leídos para el desarrollo de cada sesión de los cuales se tomarán evaluaciones permanentes en cada sesión. Es importante leer los materiales asignados, de manera que se pueda complementar el tratamiento de los mismos en clase.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participación en clase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La participación en clase es de primera importancia en el curso, la participación incluye no solamente los aportes referidos al tema a tratar, sino las preguntas que surgieran con referencia a él.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trabajo grupal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En particular, se deberán conformar equipos de trabajo de seis integrantes (como máximo por equipo).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VII.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EVALUACIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El promedio final de curso es producto de una media ponderada que considera los siguientes pesos:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaluación Parcial 1 10%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaluación Parcial 2 20%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaluación Parcial 3 20%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaluación Final 30%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaluación Continua 20%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIII.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIBLIOGRAFÍA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ubicación : 657.4/F64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Título : Contabilidad Gerencial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autor : Flores Soria, Jaime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Editorial: Centro de Especialización en Contabilidad y Finanzas. Año 2003.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ubicación : 658.151.1/P27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Título : Contabilidad para la toma de decisiones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autor : Pascual Chávez, Ackerman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Editorial: San Marcos Año 2003.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ubicación : 658.151.1/D69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Título : Contabilidad Gerencial II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autor : Díaz Izquierdo, Pedro; Quiroz Pacheco, Juan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Editorial: USMP Año 2001.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">week</t>
-  </si>
-  <si>
-    <t xml:space="preserve">codigo</t>
-  </si>
-  <si>
     <t xml:space="preserve">row</t>
   </si>
   <si>
@@ -510,18 +576,12 @@
     <t xml:space="preserve">II. SUMILLA</t>
   </si>
   <si>
-    <t xml:space="preserve">sumillas</t>
-  </si>
-  <si>
     <t xml:space="preserve">justify</t>
   </si>
   <si>
     <t xml:space="preserve">III. SISTEMA DE COMPETENCIAS</t>
   </si>
   <si>
-    <t xml:space="preserve">competencias</t>
-  </si>
-  <si>
     <t xml:space="preserve">titulo2</t>
   </si>
   <si>
@@ -537,12 +597,6 @@
     <t xml:space="preserve">IV. PROGRAMACIÓN DE CONTENIDOS</t>
   </si>
   <si>
-    <t xml:space="preserve">contenidos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unidades</t>
-  </si>
-  <si>
     <t xml:space="preserve">titulo3</t>
   </si>
   <si>
@@ -579,24 +633,12 @@
     <t xml:space="preserve">V. ESTRATEGIAS METODOLÓGICAS</t>
   </si>
   <si>
-    <t xml:space="preserve">estrategias</t>
-  </si>
-  <si>
     <t xml:space="preserve">VI. EVALUACIÓN</t>
   </si>
   <si>
-    <t xml:space="preserve">evaluaciones</t>
-  </si>
-  <si>
     <t xml:space="preserve">VII. BIBLIOGRAFÍA</t>
   </si>
   <si>
-    <t xml:space="preserve">bibliografias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modelo</t>
-  </si>
-  <si>
     <t xml:space="preserve">campos</t>
   </si>
   <si>
@@ -606,9 +648,6 @@
     <t xml:space="preserve">semestre</t>
   </si>
   <si>
-    <t xml:space="preserve">titulos</t>
-  </si>
-  <si>
     <t xml:space="preserve">plan</t>
   </si>
   <si>
@@ -639,9 +678,6 @@
     <t xml:space="preserve">logro</t>
   </si>
   <si>
-    <t xml:space="preserve">cursos</t>
-  </si>
-  <si>
     <t xml:space="preserve">wcurso</t>
   </si>
   <si>
@@ -672,12 +708,6 @@
     <t xml:space="preserve">html</t>
   </si>
   <si>
-    <t xml:space="preserve">mallas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adm</t>
-  </si>
-  <si>
     <t xml:space="preserve">con</t>
   </si>
   <si>
@@ -693,31 +723,16 @@
     <t xml:space="preserve">eegg</t>
   </si>
   <si>
-    <t xml:space="preserve">mcursos</t>
-  </si>
-  <si>
     <t xml:space="preserve">abreviatur</t>
   </si>
   <si>
-    <t xml:space="preserve">prereqs</t>
-  </si>
-  <si>
     <t xml:space="preserve">especialidad</t>
   </si>
   <si>
-    <t xml:space="preserve">grupos</t>
-  </si>
-  <si>
     <t xml:space="preserve">cod_grupo</t>
   </si>
   <si>
     <t xml:space="preserve">wgrupo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">curso_grupos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">curso_competencia</t>
   </si>
   <si>
     <t xml:space="preserve">Detalle</t>
@@ -763,9 +778,6 @@
 Store.js</t>
   </si>
   <si>
-    <t xml:space="preserve">master</t>
-  </si>
-  <si>
     <t xml:space="preserve">administrador</t>
   </si>
   <si>
@@ -896,12 +908,6 @@
   </si>
   <si>
     <t xml:space="preserve">'vista’</t>
-  </si>
-  <si>
-    <t xml:space="preserve">false</t>
-  </si>
-  <si>
-    <t xml:space="preserve">true</t>
   </si>
   <si>
     <t xml:space="preserve">Click contenido</t>
@@ -1069,8 +1075,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1271,200 +1281,530 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F29" activeCellId="0" sqref="F29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="10.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="12.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="7" style="1" width="10.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="0" width="10.53"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+    </row>
+    <row r="2" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="str">
+        <f aca="false">+"'"&amp;$A2&amp;"' =&gt; "&amp;F2&amp;","</f>
+        <v>'cod_acceso' =&gt; cons,</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="str">
+        <f aca="false">+"'"&amp;$A3&amp;"' =&gt; "&amp;F3&amp;","</f>
+        <v>'wacceso' =&gt; Consulta,</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="str">
+        <f aca="false">+"'"&amp;$A4&amp;"' =&gt; "&amp;F4&amp;","</f>
+        <v>'acceso' =&gt; false,</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f aca="false">+"'"&amp;$A5&amp;"' =&gt; "&amp;F5&amp;","</f>
+        <v>'generales' =&gt; false,</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f aca="false">+"'"&amp;$A6&amp;"' =&gt; "&amp;F6&amp;","</f>
+        <v>'titulos' =&gt; false,</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f aca="false">+"'"&amp;$A7&amp;"' =&gt; "&amp;F7&amp;","</f>
+        <v>'competencias' =&gt; false,</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f aca="false">+"'"&amp;$A8&amp;"' =&gt; "&amp;F8&amp;","</f>
+        <v>'contenidos' =&gt; false,</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f aca="false">+"'"&amp;$A9&amp;"' =&gt; "&amp;F9&amp;","</f>
+        <v>'sumillas' =&gt; false,</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f aca="false">+"'"&amp;$A10&amp;"' =&gt; "&amp;F10&amp;","</f>
+        <v>'estrategias' =&gt; false,</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f aca="false">+"'"&amp;$A11&amp;"' =&gt; "&amp;F11&amp;","</f>
+        <v>'evaluaciones' =&gt; false,</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="1" t="str">
+        <f aca="false">+"'"&amp;$A12&amp;"' =&gt; "&amp;F12&amp;","</f>
+        <v>'bibliografias' =&gt; false,</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="1" t="str">
+        <f aca="false">+"'"&amp;$A13&amp;"' =&gt; "&amp;F13&amp;","</f>
+        <v>'unidades' =&gt; false,</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f aca="false">+"'"&amp;$A14&amp;"' =&gt; "&amp;F14&amp;","</f>
+        <v>'cursos' =&gt; false,</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f aca="false">+"'"&amp;$A15&amp;"' =&gt; "&amp;F15&amp;","</f>
+        <v>'mallas' =&gt; false,</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="1" t="str">
+        <f aca="false">+"'"&amp;$A16&amp;"' =&gt; "&amp;F16&amp;","</f>
+        <v>'mcursos' =&gt; false,</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="1" t="str">
+        <f aca="false">+"'"&amp;$A17&amp;"' =&gt; "&amp;F17&amp;","</f>
+        <v>'prereqs' =&gt; false,</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="1" t="str">
+        <f aca="false">+"'"&amp;$A18&amp;"' =&gt; "&amp;F18&amp;","</f>
+        <v>'grupos' =&gt; false,</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="C19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="0" t="s">
-        <v>21</v>
+      <c r="E19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="1" t="str">
+        <f aca="false">+"'"&amp;$A19&amp;"' =&gt; "&amp;F19&amp;","</f>
+        <v>'curso_grupos' =&gt; false,</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="1" t="str">
+        <f aca="false">+"'"&amp;$A20&amp;"' =&gt; "&amp;F20&amp;","</f>
+        <v>'curso_competencia' =&gt; false,</v>
       </c>
     </row>
   </sheetData>
@@ -1486,7 +1826,7 @@
   <dimension ref="A2:P4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="1" sqref="G2:G20 A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1512,60 +1852,60 @@
   <sheetData>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -1574,16 +1914,16 @@
         <v>0</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1592,7 +1932,7 @@
         <v>generales</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
@@ -1601,10 +1941,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>1</v>
@@ -1629,7 +1969,7 @@
   <dimension ref="A1:J95"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="1" sqref="G2:G20 D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1639,187 +1979,187 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1827,380 +2167,380 @@
         <v>1</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
+        <v>97</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
     </row>
     <row r="36" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
+      <c r="B36" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
     </row>
     <row r="37" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
+      <c r="B37" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
     </row>
     <row r="38" customFormat="false" ht="57.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B38" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
+      <c r="B38" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="45.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
+      <c r="B40" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
     </row>
     <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
+        <v>108</v>
+      </c>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
     </row>
     <row r="42" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B42" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
+      <c r="B42" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
     </row>
     <row r="43" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B43" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
+      <c r="B43" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
       <c r="H43" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
+        <v>112</v>
+      </c>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
     </row>
     <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
         <v>4</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
       <c r="H44" s="0" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
       <c r="H45" s="0" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
       <c r="H46" s="0" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
     </row>
     <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
+        <v>119</v>
+      </c>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
     </row>
     <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
     </row>
     <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
+      <c r="B50" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
     </row>
     <row r="51" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
         <v>5</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
+        <v>122</v>
+      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
       <c r="E51" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
+        <v>123</v>
+      </c>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
       <c r="H51" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="I51" s="8"/>
+        <v>99</v>
+      </c>
+      <c r="I51" s="9"/>
     </row>
     <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
+        <v>124</v>
+      </c>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
     </row>
     <row r="57" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
     </row>
     <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
     </row>
     <row r="59" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
     </row>
     <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="D73" s="9"/>
+        <v>136</v>
+      </c>
+      <c r="D73" s="10"/>
     </row>
     <row r="74" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="0" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="0" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="0" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="0" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2208,22 +2548,22 @@
         <v>1</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="0" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="0" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="0" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2231,22 +2571,22 @@
         <v>2</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="0" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="0" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="0" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2254,22 +2594,22 @@
         <v>3</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="0" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="0" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="0" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2308,2722 +2648,2722 @@
   <dimension ref="A1:O70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O13" activeCellId="0" sqref="O13"/>
+      <selection pane="topLeft" activeCell="O13" activeCellId="1" sqref="G2:G20 O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="6" width="12.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="6" width="8.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="4.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="3.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="6" width="4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="6" width="6.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="10" width="50.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="10" style="10" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="10" width="28.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="6" width="10.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="11" width="10.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="7" width="12.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="7" width="8.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="4.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="3.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="7" width="4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="7" width="6.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="11" width="50.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="10" style="11" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="11" width="28.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="7" width="10.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="12" width="10.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="10.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>141</v>
+      <c r="A1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E2" s="6" t="n">
+      <c r="A2" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F2" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="6" t="n">
+      <c r="F2" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="10" t="n">
+      <c r="H2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="11" t="n">
         <f aca="false">IF(E1=E2,1,F2)</f>
         <v>1</v>
       </c>
-      <c r="K2" s="10" t="n">
+      <c r="K2" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="M2" s="10" t="str">
+      <c r="M2" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K2&amp;", '"&amp;L$1&amp;"': '"&amp;L2&amp;"', '"&amp;F$1&amp;"': "&amp;F2&amp;", '"&amp;G$1&amp;"': "&amp;G2&amp;", '"&amp;H$1&amp;"': '"&amp;H2&amp;"', '"&amp;I$1&amp;"': '"&amp;I2&amp;"', '"&amp;J$1&amp;"':"&amp;J2&amp;"}, "</f>
         <v>{ 'reg': 11, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'CONTABILIDAD GERENCIAL', 'offset':1},</v>
       </c>
-      <c r="N2" s="6" t="str">
+      <c r="N2" s="7" t="str">
         <f aca="false">IF(E1=E2,CONCATENATE(N1,M2),M2)</f>
         <v>{ 'reg': 11, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'CONTABILIDAD GERENCIAL', 'offset':1},</v>
       </c>
-      <c r="O2" s="14" t="str">
+      <c r="O2" s="15" t="str">
         <f aca="false">IF(E2=E3,"","{'"&amp;E$1&amp;"': "&amp;E2&amp;", '"&amp;B$1&amp;"': '"&amp;B2&amp;"',  'editing': false, 'tipo': '"&amp;A2&amp;"', 'data': "&amp;"["&amp;N2&amp;"],  },")</f>
         <v>{'row': 0, 'week': '',  'editing': false, 'tipo': 'titulo0', 'data': [{ 'reg': 11, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'CONTABILIDAD GERENCIAL', 'offset':1}, ],  },</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="E3" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="6" t="n">
+      <c r="A3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="J3" s="10" t="n">
+      <c r="H3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="J3" s="11" t="n">
         <f aca="false">IF(E2=E3,1,F3)</f>
         <v>1</v>
       </c>
-      <c r="K3" s="10" t="n">
+      <c r="K3" s="11" t="n">
         <v>21</v>
       </c>
-      <c r="L3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="10" t="str">
+      <c r="L3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K3&amp;", '"&amp;L$1&amp;"': '"&amp;L3&amp;"', '"&amp;F$1&amp;"': "&amp;F3&amp;", '"&amp;G$1&amp;"': "&amp;G3&amp;", '"&amp;H$1&amp;"': '"&amp;H3&amp;"', '"&amp;I$1&amp;"': '"&amp;I3&amp;"', '"&amp;J$1&amp;"':"&amp;J3&amp;"}, "</f>
         <v>{ 'reg': 21, 'subtipo': 'generales', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'I. DATOS GENERALES', 'offset':1},</v>
       </c>
-      <c r="N3" s="6" t="str">
+      <c r="N3" s="7" t="str">
         <f aca="false">IF(E2=E3,CONCATENATE(N2,M3),M3)</f>
         <v>{ 'reg': 21, 'subtipo': 'generales', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'I. DATOS GENERALES', 'offset':1},</v>
       </c>
-      <c r="O3" s="14" t="str">
+      <c r="O3" s="15" t="str">
         <f aca="false">IF(E3=E4,"","{'"&amp;E$1&amp;"': "&amp;E3&amp;", '"&amp;B$1&amp;"': '"&amp;B3&amp;"',  'editing': false, 'tipo': '"&amp;A3&amp;"', 'data': "&amp;"["&amp;N3&amp;"],  },")</f>
         <v/>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="J4" s="10" t="n">
+      <c r="A4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="J4" s="11" t="n">
         <f aca="false">IF(E3=E4,1,F4)</f>
         <v>1</v>
       </c>
-      <c r="K4" s="10" t="n">
+      <c r="K4" s="11" t="n">
         <v>35</v>
       </c>
-      <c r="M4" s="10" t="str">
+      <c r="M4" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K4&amp;", '"&amp;L$1&amp;"': '"&amp;L4&amp;"', '"&amp;F$1&amp;"': "&amp;F4&amp;", '"&amp;G$1&amp;"': "&amp;G4&amp;", '"&amp;H$1&amp;"': '"&amp;H4&amp;"', '"&amp;I$1&amp;"': '"&amp;I4&amp;"', '"&amp;J$1&amp;"':"&amp;J4&amp;"}, "</f>
-        <v>{ 'reg': 35, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Código:', 'offset':1}, </v>
-      </c>
-      <c r="N4" s="6" t="str">
+        <v>{ 'reg': 35, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Código:', 'offset':1},</v>
+      </c>
+      <c r="N4" s="7" t="str">
         <f aca="false">IF(E3=E4,CONCATENATE(N3,M4),M4)</f>
-        <v>{ 'reg': 21, 'subtipo': 'generales', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'I. DATOS GENERALES', 'offset':1},{ 'reg': 35, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Código:', 'offset':1}, </v>
-      </c>
-      <c r="O4" s="14" t="str">
+        <v>{ 'reg': 21, 'subtipo': 'generales', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'I. DATOS GENERALES', 'offset':1},{ 'reg': 35, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Código:', 'offset':1},</v>
+      </c>
+      <c r="O4" s="15" t="str">
         <f aca="false">IF(E4=E5,"","{'"&amp;E$1&amp;"': "&amp;E4&amp;", '"&amp;B$1&amp;"': '"&amp;B4&amp;"',  'editing': false, 'tipo': '"&amp;A4&amp;"', 'data': "&amp;"["&amp;N4&amp;"],  },")</f>
         <v/>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6" t="n">
+      <c r="A5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="G5" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="J5" s="10" t="n">
+      <c r="G5" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="J5" s="11" t="n">
         <f aca="false">IF(E4=E5,1,F5)</f>
         <v>1</v>
       </c>
-      <c r="K5" s="10" t="n">
+      <c r="K5" s="11" t="n">
         <v>85</v>
       </c>
-      <c r="M5" s="10" t="str">
+      <c r="M5" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K5&amp;", '"&amp;L$1&amp;"': '"&amp;L5&amp;"', '"&amp;F$1&amp;"': "&amp;F5&amp;", '"&amp;G$1&amp;"': "&amp;G5&amp;", '"&amp;H$1&amp;"': '"&amp;H5&amp;"', '"&amp;I$1&amp;"': '"&amp;I5&amp;"', '"&amp;J$1&amp;"':"&amp;J5&amp;"}, "</f>
         <v>{ 'reg': 85, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '100048', 'offset':1},</v>
       </c>
-      <c r="N5" s="6" t="str">
+      <c r="N5" s="7" t="str">
         <f aca="false">IF(E4=E5,CONCATENATE(N4,M5),M5)</f>
         <v>{ 'reg': 21, 'subtipo': 'generales', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'I. DATOS GENERALES', 'offset':1},{ 'reg': 35, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Código:', 'offset':1}, { 'reg': 85, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '100048', 'offset':1},</v>
       </c>
-      <c r="O5" s="14" t="str">
+      <c r="O5" s="15" t="str">
         <f aca="false">IF(E5=E6,"","{'"&amp;E$1&amp;"': "&amp;E5&amp;", '"&amp;B$1&amp;"': '"&amp;B5&amp;"',  'editing': false, 'tipo': '"&amp;A5&amp;"', 'data': "&amp;"["&amp;N5&amp;"],  },")</f>
         <v>{'row': 1, 'week': '',  'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 21, 'subtipo': 'generales', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'I. DATOS GENERALES', 'offset':1},{ 'reg': 35, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Código:', 'offset':1}, { 'reg': 85, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '100048', 'offset':1},],  },</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="J6" s="10" t="n">
+      <c r="A6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="J6" s="11" t="n">
         <f aca="false">IF(E5=E6,1,F6)</f>
         <v>2</v>
       </c>
-      <c r="K6" s="10" t="n">
+      <c r="K6" s="11" t="n">
         <v>130</v>
       </c>
-      <c r="M6" s="10" t="str">
+      <c r="M6" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K6&amp;", '"&amp;L$1&amp;"': '"&amp;L6&amp;"', '"&amp;F$1&amp;"': "&amp;F6&amp;", '"&amp;G$1&amp;"': "&amp;G6&amp;", '"&amp;H$1&amp;"': '"&amp;H6&amp;"', '"&amp;I$1&amp;"': '"&amp;I6&amp;"', '"&amp;J$1&amp;"':"&amp;J6&amp;"}, "</f>
         <v>{ 'reg': 130, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Pre‐ Requisito :', 'offset':2},</v>
       </c>
-      <c r="N6" s="6" t="str">
+      <c r="N6" s="7" t="str">
         <f aca="false">IF(E5=E6,CONCATENATE(N5,M6),M6)</f>
         <v>{ 'reg': 130, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Pre‐ Requisito :', 'offset':2},</v>
       </c>
-      <c r="O6" s="14" t="str">
+      <c r="O6" s="15" t="str">
         <f aca="false">IF(E6=E7,"","{'"&amp;E$1&amp;"': "&amp;E6&amp;", '"&amp;B$1&amp;"': '"&amp;B6&amp;"',  'editing': false, 'tipo': '"&amp;A6&amp;"', 'data': "&amp;"["&amp;N6&amp;"],  },")</f>
         <v/>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" s="6" t="n">
+      <c r="A7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="G7" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="J7" s="10" t="n">
+      <c r="G7" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="J7" s="11" t="n">
         <f aca="false">IF(E6=E7,1,F7)</f>
         <v>1</v>
       </c>
-      <c r="K7" s="10" t="n">
+      <c r="K7" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="M7" s="10" t="str">
+      <c r="M7" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K7&amp;", '"&amp;L$1&amp;"': '"&amp;L7&amp;"', '"&amp;F$1&amp;"': "&amp;F7&amp;", '"&amp;G$1&amp;"': "&amp;G7&amp;", '"&amp;H$1&amp;"': '"&amp;H7&amp;"', '"&amp;I$1&amp;"': '"&amp;I7&amp;"', '"&amp;J$1&amp;"':"&amp;J7&amp;"}, "</f>
         <v>{ 'reg': 7, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'Contabilidad General', 'offset':1},</v>
       </c>
-      <c r="N7" s="6" t="str">
+      <c r="N7" s="7" t="str">
         <f aca="false">IF(E6=E7,CONCATENATE(N6,M7),M7)</f>
         <v>{ 'reg': 130, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Pre‐ Requisito :', 'offset':2},{ 'reg': 7, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'Contabilidad General', 'offset':1},</v>
       </c>
-      <c r="O7" s="14" t="str">
+      <c r="O7" s="15" t="str">
         <f aca="false">IF(E7=E8,"","{'"&amp;E$1&amp;"': "&amp;E7&amp;", '"&amp;B$1&amp;"': '"&amp;B7&amp;"',  'editing': false, 'tipo': '"&amp;A7&amp;"', 'data': "&amp;"["&amp;N7&amp;"],  },")</f>
         <v>{'row': 2, 'week': '',  'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 130, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Pre‐ Requisito :', 'offset':2},{ 'reg': 7, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'Contabilidad General', 'offset':1},],  },</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="6" t="n">
+      <c r="A8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="F8" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="J8" s="10" t="n">
+      <c r="F8" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="J8" s="11" t="n">
         <f aca="false">IF(E7=E8,1,F8)</f>
         <v>2</v>
       </c>
-      <c r="K8" s="10" t="n">
+      <c r="K8" s="11" t="n">
         <v>109</v>
       </c>
-      <c r="M8" s="10" t="str">
+      <c r="M8" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K8&amp;", '"&amp;L$1&amp;"': '"&amp;L8&amp;"', '"&amp;F$1&amp;"': "&amp;F8&amp;", '"&amp;G$1&amp;"': "&amp;G8&amp;", '"&amp;H$1&amp;"': '"&amp;H8&amp;"', '"&amp;I$1&amp;"': '"&amp;I8&amp;"', '"&amp;J$1&amp;"':"&amp;J8&amp;"}, "</f>
         <v>{ 'reg': 109, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Créditos : ', 'offset':2},</v>
       </c>
-      <c r="N8" s="6" t="str">
+      <c r="N8" s="7" t="str">
         <f aca="false">IF(E7=E8,CONCATENATE(N7,M8),M8)</f>
         <v>{ 'reg': 109, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Créditos : ', 'offset':2},</v>
       </c>
-      <c r="O8" s="14" t="str">
+      <c r="O8" s="15" t="str">
         <f aca="false">IF(E8=E9,"","{'"&amp;E$1&amp;"': "&amp;E8&amp;", '"&amp;B$1&amp;"': '"&amp;B8&amp;"',  'editing': false, 'tipo': '"&amp;A8&amp;"', 'data': "&amp;"["&amp;N8&amp;"],  },")</f>
         <v/>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="6" t="n">
+      <c r="A9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="F9" s="6" t="n">
+      <c r="F9" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="G9" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="J9" s="10" t="n">
+      <c r="G9" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="J9" s="11" t="n">
         <f aca="false">IF(E8=E9,1,F9)</f>
         <v>1</v>
       </c>
-      <c r="K9" s="10" t="n">
+      <c r="K9" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="M9" s="10" t="str">
+      <c r="M9" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K9&amp;", '"&amp;L$1&amp;"': '"&amp;L9&amp;"', '"&amp;F$1&amp;"': "&amp;F9&amp;", '"&amp;G$1&amp;"': "&amp;G9&amp;", '"&amp;H$1&amp;"': '"&amp;H9&amp;"', '"&amp;I$1&amp;"': '"&amp;I9&amp;"', '"&amp;J$1&amp;"':"&amp;J9&amp;"}, "</f>
         <v>{ 'reg': 13, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '03', 'offset':1},</v>
       </c>
-      <c r="N9" s="6" t="str">
+      <c r="N9" s="7" t="str">
         <f aca="false">IF(E8=E9,CONCATENATE(N8,M9),M9)</f>
         <v>{ 'reg': 109, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Créditos : ', 'offset':2},{ 'reg': 13, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '03', 'offset':1},</v>
       </c>
-      <c r="O9" s="14" t="str">
+      <c r="O9" s="15" t="str">
         <f aca="false">IF(E9=E10,"","{'"&amp;E$1&amp;"': "&amp;E9&amp;", '"&amp;B$1&amp;"': '"&amp;B9&amp;"',  'editing': false, 'tipo': '"&amp;A9&amp;"', 'data': "&amp;"["&amp;N9&amp;"],  },")</f>
         <v>{'row': 3, 'week': '',  'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 109, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Créditos : ', 'offset':2},{ 'reg': 13, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '03', 'offset':1},],  },</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="6" t="n">
+      <c r="A10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="F10" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="J10" s="10" t="n">
+      <c r="F10" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="J10" s="11" t="n">
         <f aca="false">IF(E9=E10,1,F10)</f>
         <v>2</v>
       </c>
-      <c r="K10" s="10" t="n">
+      <c r="K10" s="11" t="n">
         <v>128</v>
       </c>
-      <c r="M10" s="10" t="str">
+      <c r="M10" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K10&amp;", '"&amp;L$1&amp;"': '"&amp;L10&amp;"', '"&amp;F$1&amp;"': "&amp;F10&amp;", '"&amp;G$1&amp;"': "&amp;G10&amp;", '"&amp;H$1&amp;"': '"&amp;H10&amp;"', '"&amp;I$1&amp;"': '"&amp;I10&amp;"', '"&amp;J$1&amp;"':"&amp;J10&amp;"}, "</f>
         <v>{ 'reg': 128, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Horas :', 'offset':2},</v>
       </c>
-      <c r="N10" s="6" t="str">
+      <c r="N10" s="7" t="str">
         <f aca="false">IF(E9=E10,CONCATENATE(N9,M10),M10)</f>
         <v>{ 'reg': 128, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Horas :', 'offset':2},</v>
       </c>
-      <c r="O10" s="14" t="str">
+      <c r="O10" s="15" t="str">
         <f aca="false">IF(E10=E11,"","{'"&amp;E$1&amp;"': "&amp;E10&amp;", '"&amp;B$1&amp;"': '"&amp;B10&amp;"',  'editing': false, 'tipo': '"&amp;A10&amp;"', 'data': "&amp;"["&amp;N10&amp;"],  },")</f>
         <v/>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="6" t="n">
+      <c r="A11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="F11" s="6" t="n">
+      <c r="F11" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="G11" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="J11" s="10" t="n">
+      <c r="G11" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="J11" s="11" t="n">
         <f aca="false">IF(E10=E11,1,F11)</f>
         <v>1</v>
       </c>
-      <c r="K11" s="10" t="n">
+      <c r="K11" s="11" t="n">
         <v>91</v>
       </c>
-      <c r="M11" s="10" t="str">
+      <c r="M11" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K11&amp;", '"&amp;L$1&amp;"': '"&amp;L11&amp;"', '"&amp;F$1&amp;"': "&amp;F11&amp;", '"&amp;G$1&amp;"': "&amp;G11&amp;", '"&amp;H$1&amp;"': '"&amp;H11&amp;"', '"&amp;I$1&amp;"': '"&amp;I11&amp;"', '"&amp;J$1&amp;"':"&amp;J11&amp;"}, "</f>
         <v>{ 'reg': 91, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '04 horas', 'offset':1},</v>
       </c>
-      <c r="N11" s="6" t="str">
+      <c r="N11" s="7" t="str">
         <f aca="false">IF(E10=E11,CONCATENATE(N10,M11),M11)</f>
         <v>{ 'reg': 128, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Horas :', 'offset':2},{ 'reg': 91, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '04 horas', 'offset':1},</v>
       </c>
-      <c r="O11" s="14" t="str">
+      <c r="O11" s="15" t="str">
         <f aca="false">IF(E11=E12,"","{'"&amp;E$1&amp;"': "&amp;E11&amp;", '"&amp;B$1&amp;"': '"&amp;B11&amp;"',  'editing': false, 'tipo': '"&amp;A11&amp;"', 'data': "&amp;"["&amp;N11&amp;"],  },")</f>
         <v>{'row': 4, 'week': '',  'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 128, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Horas :', 'offset':2},{ 'reg': 91, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '04 horas', 'offset':1},],  },</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="6" t="n">
+      <c r="A12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="F12" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G12" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="J12" s="10" t="n">
+      <c r="F12" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="J12" s="11" t="n">
         <f aca="false">IF(E11=E12,1,F12)</f>
         <v>2</v>
       </c>
-      <c r="K12" s="10" t="n">
+      <c r="K12" s="11" t="n">
         <v>24</v>
       </c>
-      <c r="M12" s="10" t="str">
+      <c r="M12" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K12&amp;", '"&amp;L$1&amp;"': '"&amp;L12&amp;"', '"&amp;F$1&amp;"': "&amp;F12&amp;", '"&amp;G$1&amp;"': "&amp;G12&amp;", '"&amp;H$1&amp;"': '"&amp;H12&amp;"', '"&amp;I$1&amp;"': '"&amp;I12&amp;"', '"&amp;J$1&amp;"':"&amp;J12&amp;"}, "</f>
         <v>{ 'reg': 24, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Semestre académico : ', 'offset':2},</v>
       </c>
-      <c r="N12" s="6" t="str">
+      <c r="N12" s="7" t="str">
         <f aca="false">IF(E11=E12,CONCATENATE(N11,M12),M12)</f>
         <v>{ 'reg': 24, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Semestre académico : ', 'offset':2},</v>
       </c>
-      <c r="O12" s="14" t="str">
+      <c r="O12" s="15" t="str">
         <f aca="false">IF(E12=E13,"","{'"&amp;E$1&amp;"': "&amp;E12&amp;", '"&amp;B$1&amp;"': '"&amp;B12&amp;"',  'editing': false, 'tipo': '"&amp;A12&amp;"', 'data': "&amp;"["&amp;N12&amp;"],  },")</f>
         <v/>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="6" t="n">
+      <c r="A13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="F13" s="6" t="n">
+      <c r="F13" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="G13" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="J13" s="10" t="n">
+      <c r="G13" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="J13" s="11" t="n">
         <f aca="false">IF(E12=E13,1,F13)</f>
         <v>1</v>
       </c>
-      <c r="K13" s="10" t="n">
+      <c r="K13" s="11" t="n">
         <v>86</v>
       </c>
-      <c r="M13" s="10" t="str">
+      <c r="M13" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K13&amp;", '"&amp;L$1&amp;"': '"&amp;L13&amp;"', '"&amp;F$1&amp;"': "&amp;F13&amp;", '"&amp;G$1&amp;"': "&amp;G13&amp;", '"&amp;H$1&amp;"': '"&amp;H13&amp;"', '"&amp;I$1&amp;"': '"&amp;I13&amp;"', '"&amp;J$1&amp;"':"&amp;J13&amp;"}, "</f>
         <v>{ 'reg': 86, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '2017‐ I', 'offset':1},</v>
       </c>
-      <c r="N13" s="6" t="str">
+      <c r="N13" s="7" t="str">
         <f aca="false">IF(E12=E13,CONCATENATE(N12,M13),M13)</f>
         <v>{ 'reg': 24, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Semestre académico : ', 'offset':2},{ 'reg': 86, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '2017‐ I', 'offset':1},</v>
       </c>
-      <c r="O13" s="14" t="str">
+      <c r="O13" s="15" t="str">
         <f aca="false">IF(E13=E14,"","{'"&amp;E$1&amp;"': "&amp;E13&amp;", '"&amp;B$1&amp;"': '"&amp;B13&amp;"',  'editing': false, 'tipo': '"&amp;A13&amp;"', 'data': "&amp;"["&amp;N13&amp;"],  },")</f>
         <v>{'row': 5, 'week': '',  'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 24, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Semestre académico : ', 'offset':2},{ 'reg': 86, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '2017‐ I', 'offset':1},],  },</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="6" t="n">
+      <c r="A14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="F14" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G14" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="J14" s="10" t="n">
+      <c r="F14" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="J14" s="11" t="n">
         <f aca="false">IF(E13=E14,1,F14)</f>
         <v>2</v>
       </c>
-      <c r="K14" s="10" t="n">
+      <c r="K14" s="11" t="n">
         <v>81</v>
       </c>
-      <c r="M14" s="10" t="str">
+      <c r="M14" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K14&amp;", '"&amp;L$1&amp;"': '"&amp;L14&amp;"', '"&amp;F$1&amp;"': "&amp;F14&amp;", '"&amp;G$1&amp;"': "&amp;G14&amp;", '"&amp;H$1&amp;"': '"&amp;H14&amp;"', '"&amp;I$1&amp;"': '"&amp;I14&amp;"', '"&amp;J$1&amp;"':"&amp;J14&amp;"}, "</f>
         <v>{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Ciclo :', 'offset':2},</v>
       </c>
-      <c r="N14" s="6" t="str">
+      <c r="N14" s="7" t="str">
         <f aca="false">IF(E13=E14,CONCATENATE(N13,M14),M14)</f>
         <v>{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Ciclo :', 'offset':2},</v>
       </c>
-      <c r="O14" s="14" t="str">
+      <c r="O14" s="15" t="str">
         <f aca="false">IF(E14=E15,"","{'"&amp;E$1&amp;"': "&amp;E14&amp;", '"&amp;B$1&amp;"': '"&amp;B14&amp;"',  'editing': false, 'tipo': '"&amp;A14&amp;"', 'data': "&amp;"["&amp;N14&amp;"],  },")</f>
         <v/>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="6" t="n">
+      <c r="A15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="F15" s="6" t="n">
+      <c r="F15" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="G15" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="J15" s="10" t="n">
+      <c r="G15" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="J15" s="11" t="n">
         <f aca="false">IF(E14=E15,1,F15)</f>
         <v>1</v>
       </c>
-      <c r="K15" s="10" t="n">
+      <c r="K15" s="11" t="n">
         <v>103</v>
       </c>
-      <c r="M15" s="10" t="str">
+      <c r="M15" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K15&amp;", '"&amp;L$1&amp;"': '"&amp;L15&amp;"', '"&amp;F$1&amp;"': "&amp;F15&amp;", '"&amp;G$1&amp;"': "&amp;G15&amp;", '"&amp;H$1&amp;"': '"&amp;H15&amp;"', '"&amp;I$1&amp;"': '"&amp;I15&amp;"', '"&amp;J$1&amp;"':"&amp;J15&amp;"}, "</f>
         <v>{ 'reg': 103, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'III', 'offset':1},</v>
       </c>
-      <c r="N15" s="6" t="str">
+      <c r="N15" s="7" t="str">
         <f aca="false">IF(E14=E15,CONCATENATE(N14,M15),M15)</f>
         <v>{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Ciclo :', 'offset':2},{ 'reg': 103, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'III', 'offset':1},</v>
       </c>
-      <c r="O15" s="14" t="str">
+      <c r="O15" s="15" t="str">
         <f aca="false">IF(E15=E16,"","{'"&amp;E$1&amp;"': "&amp;E15&amp;", '"&amp;B$1&amp;"': '"&amp;B15&amp;"',  'editing': false, 'tipo': '"&amp;A15&amp;"', 'data': "&amp;"["&amp;N15&amp;"],  },")</f>
         <v>{'row': 6, 'week': '',  'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Ciclo :', 'offset':2},{ 'reg': 103, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'III', 'offset':1},],  },</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="E16" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F16" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="6" t="n">
+      <c r="A16" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E16" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="J16" s="10" t="n">
+      <c r="H16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="J16" s="11" t="n">
         <f aca="false">IF(E15=E16,1,F16)</f>
         <v>1</v>
       </c>
-      <c r="K16" s="10" t="n">
+      <c r="K16" s="11" t="n">
         <v>45</v>
       </c>
-      <c r="L16" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="M16" s="10" t="str">
+      <c r="L16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K16&amp;", '"&amp;L$1&amp;"': '"&amp;L16&amp;"', '"&amp;F$1&amp;"': "&amp;F16&amp;", '"&amp;G$1&amp;"': "&amp;G16&amp;", '"&amp;H$1&amp;"': '"&amp;H16&amp;"', '"&amp;I$1&amp;"': '"&amp;I16&amp;"', '"&amp;J$1&amp;"':"&amp;J16&amp;"}, "</f>
         <v>{ 'reg': 45, 'subtipo': 'sumillas', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'II. SUMILLA', 'offset':1},</v>
       </c>
-      <c r="N16" s="6" t="str">
+      <c r="N16" s="7" t="str">
         <f aca="false">IF(E15=E16,CONCATENATE(N15,M16),M16)</f>
         <v>{ 'reg': 45, 'subtipo': 'sumillas', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'II. SUMILLA', 'offset':1},</v>
       </c>
-      <c r="O16" s="14" t="str">
+      <c r="O16" s="15" t="str">
         <f aca="false">IF(E16=E17,"","{'"&amp;E$1&amp;"': "&amp;E16&amp;", '"&amp;B$1&amp;"': '"&amp;B16&amp;"',  'editing': false, 'tipo': '"&amp;A16&amp;"', 'data': "&amp;"["&amp;N16&amp;"],  },")</f>
         <v>{'row': 2, 'week': '',  'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 45, 'subtipo': 'sumillas', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'II. SUMILLA', 'offset':1},],  },</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="E17" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" s="6" t="n">
+      <c r="A17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="H17" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J17" s="10" t="n">
+      <c r="H17" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" s="11" t="n">
         <f aca="false">IF(E16=E17,1,F17)</f>
         <v>1</v>
       </c>
-      <c r="K17" s="10" t="n">
+      <c r="K17" s="11" t="n">
         <v>36</v>
       </c>
-      <c r="M17" s="10" t="str">
+      <c r="M17" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K17&amp;", '"&amp;L$1&amp;"': '"&amp;L17&amp;"', '"&amp;F$1&amp;"': "&amp;F17&amp;", '"&amp;G$1&amp;"': "&amp;G17&amp;", '"&amp;H$1&amp;"': '"&amp;H17&amp;"', '"&amp;I$1&amp;"': '"&amp;I17&amp;"', '"&amp;J$1&amp;"':"&amp;J17&amp;"}, "</f>
         <v>{ 'reg': 36, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'justify', 'texto': 'El curso tiene como propósito integrar las teorías, las técnicas y las herramientas adquiridas en las materias de contabilidad general y administración que le permita llegar al alumno a desarrollar las habilidades de análisis, integración de la información para la construcción de propuestas y soluciones que llevan al logro de los objetivos de la organización. Se pondrá énfasis en el análisis financiero de los estados financieros y su relación con los costos empresariales.', 'offset':1},</v>
       </c>
-      <c r="N17" s="6" t="str">
+      <c r="N17" s="7" t="str">
         <f aca="false">IF(E16=E17,CONCATENATE(N16,M17),M17)</f>
         <v>{ 'reg': 36, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'justify', 'texto': 'El curso tiene como propósito integrar las teorías, las técnicas y las herramientas adquiridas en las materias de contabilidad general y administración que le permita llegar al alumno a desarrollar las habilidades de análisis, integración de la información para la construcción de propuestas y soluciones que llevan al logro de los objetivos de la organización. Se pondrá énfasis en el análisis financiero de los estados financieros y su relación con los costos empresariales.', 'offset':1},</v>
       </c>
-      <c r="O17" s="14" t="str">
+      <c r="O17" s="15" t="str">
         <f aca="false">IF(E17=E18,"","{'"&amp;E$1&amp;"': "&amp;E17&amp;", '"&amp;B$1&amp;"': '"&amp;B17&amp;"',  'editing': false, 'tipo': '"&amp;A17&amp;"', 'data': "&amp;"["&amp;N17&amp;"],  },")</f>
         <v>{'row': 1, 'week': '',  'editing': false, 'tipo': 'sumillas', 'data': [{ 'reg': 36, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'justify', 'texto': 'El curso tiene como propósito integrar las teorías, las técnicas y las herramientas adquiridas en las materias de contabilidad general y administración que le permita llegar al alumno a desarrollar las habilidades de análisis, integración de la información para la construcción de propuestas y soluciones que llevan al logro de los objetivos de la organización. Se pondrá énfasis en el análisis financiero de los estados financieros y su relación con los costos empresariales.', 'offset':1},],  },</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="E18" s="6" t="n">
+      <c r="A18" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E18" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="F18" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" s="6" t="n">
+      <c r="F18" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="H18" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="J18" s="10" t="n">
+      <c r="H18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="J18" s="11" t="n">
         <f aca="false">IF(E17=E18,1,F18)</f>
         <v>1</v>
       </c>
-      <c r="K18" s="10" t="n">
+      <c r="K18" s="11" t="n">
         <v>82</v>
       </c>
-      <c r="L18" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="M18" s="10" t="str">
+      <c r="L18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K18&amp;", '"&amp;L$1&amp;"': '"&amp;L18&amp;"', '"&amp;F$1&amp;"': "&amp;F18&amp;", '"&amp;G$1&amp;"': "&amp;G18&amp;", '"&amp;H$1&amp;"': '"&amp;H18&amp;"', '"&amp;I$1&amp;"': '"&amp;I18&amp;"', '"&amp;J$1&amp;"':"&amp;J18&amp;"}, "</f>
         <v>{ 'reg': 82, 'subtipo': 'competencias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'III. SISTEMA DE COMPETENCIAS', 'offset':1},</v>
       </c>
-      <c r="N18" s="6" t="str">
+      <c r="N18" s="7" t="str">
         <f aca="false">IF(E17=E18,CONCATENATE(N17,M18),M18)</f>
         <v>{ 'reg': 82, 'subtipo': 'competencias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'III. SISTEMA DE COMPETENCIAS', 'offset':1},</v>
       </c>
-      <c r="O18" s="14" t="str">
+      <c r="O18" s="15" t="str">
         <f aca="false">IF(E18=E19,"","{'"&amp;E$1&amp;"': "&amp;E18&amp;", '"&amp;B$1&amp;"': '"&amp;B18&amp;"',  'editing': false, 'tipo': '"&amp;A18&amp;"', 'data': "&amp;"["&amp;N18&amp;"],  },")</f>
         <v>{'row': 3, 'week': '',  'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 82, 'subtipo': 'competencias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'III. SISTEMA DE COMPETENCIAS', 'offset':1},],  },</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" s="6" t="n">
+      <c r="A19" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E19" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="H19" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J19" s="10" t="n">
+      <c r="H19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J19" s="11" t="n">
         <f aca="false">IF(E18=E19,1,F19)</f>
         <v>1</v>
       </c>
-      <c r="K19" s="10" t="n">
+      <c r="K19" s="11" t="n">
         <v>37</v>
       </c>
-      <c r="L19" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="M19" s="10" t="str">
+      <c r="L19" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="M19" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K19&amp;", '"&amp;L$1&amp;"': '"&amp;L19&amp;"', '"&amp;F$1&amp;"': "&amp;F19&amp;", '"&amp;G$1&amp;"': "&amp;G19&amp;", '"&amp;H$1&amp;"': '"&amp;H19&amp;"', '"&amp;I$1&amp;"': '"&amp;I19&amp;"', '"&amp;J$1&amp;"':"&amp;J19&amp;"}, "</f>
         <v>{ 'reg': 37, 'subtipo': 'competencias1', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS GENERALES', 'offset':1},</v>
       </c>
-      <c r="N19" s="6" t="str">
+      <c r="N19" s="7" t="str">
         <f aca="false">IF(E18=E19,CONCATENATE(N18,M19),M19)</f>
         <v>{ 'reg': 37, 'subtipo': 'competencias1', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS GENERALES', 'offset':1},</v>
       </c>
-      <c r="O19" s="14" t="str">
+      <c r="O19" s="15" t="str">
         <f aca="false">IF(E19=E20,"","{'"&amp;E$1&amp;"': "&amp;E19&amp;", '"&amp;B$1&amp;"': '"&amp;B19&amp;"',  'editing': false, 'tipo': '"&amp;A19&amp;"', 'data': "&amp;"["&amp;N19&amp;"],  },")</f>
         <v/>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="E20" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G20" s="6" t="n">
+      <c r="A20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="H20" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="J20" s="10" t="n">
+      <c r="H20" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J20" s="11" t="n">
         <f aca="false">IF(E19=E20,1,F20)</f>
         <v>1</v>
       </c>
-      <c r="K20" s="10" t="n">
+      <c r="K20" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="M20" s="10" t="str">
+      <c r="M20" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K20&amp;", '"&amp;L$1&amp;"': '"&amp;L20&amp;"', '"&amp;F$1&amp;"': "&amp;F20&amp;", '"&amp;G$1&amp;"': "&amp;G20&amp;", '"&amp;H$1&amp;"': '"&amp;H20&amp;"', '"&amp;I$1&amp;"': '"&amp;I20&amp;"', '"&amp;J$1&amp;"':"&amp;J20&amp;"}, "</f>
         <v>{ 'reg': 10, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Comprende el papel de la información contable en los Negocios. Relación entre la contabilidad y la Administración y la toma de decisiones.', 'offset':1},</v>
       </c>
-      <c r="N20" s="6" t="str">
+      <c r="N20" s="7" t="str">
         <f aca="false">IF(E19=E20,CONCATENATE(N19,M20),M20)</f>
         <v>{ 'reg': 37, 'subtipo': 'competencias1', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS GENERALES', 'offset':1},{ 'reg': 10, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Comprende el papel de la información contable en los Negocios. Relación entre la contabilidad y la Administración y la toma de decisiones.', 'offset':1},</v>
       </c>
-      <c r="O20" s="14" t="str">
+      <c r="O20" s="15" t="str">
         <f aca="false">IF(E20=E21,"","{'"&amp;E$1&amp;"': "&amp;E20&amp;", '"&amp;B$1&amp;"': '"&amp;B20&amp;"',  'editing': false, 'tipo': '"&amp;A20&amp;"', 'data': "&amp;"["&amp;N20&amp;"],  },")</f>
         <v>{'row': 1, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 37, 'subtipo': 'competencias1', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS GENERALES', 'offset':1},{ 'reg': 10, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Comprende el papel de la información contable en los Negocios. Relación entre la contabilidad y la Administración y la toma de decisiones.', 'offset':1},],  },</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="E21" s="6" t="n">
+      <c r="A21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="7" t="n">
         <f aca="false">+E20+1</f>
         <v>2</v>
       </c>
-      <c r="F21" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G21" s="6" t="n">
+      <c r="F21" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="H21" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="J21" s="10" t="n">
+      <c r="H21" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="J21" s="11" t="n">
         <f aca="false">IF(E20=E21,1,F21)</f>
         <v>2</v>
       </c>
-      <c r="K21" s="10" t="n">
+      <c r="K21" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="M21" s="10" t="str">
+      <c r="M21" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K21&amp;", '"&amp;L$1&amp;"': '"&amp;L21&amp;"', '"&amp;F$1&amp;"': "&amp;F21&amp;", '"&amp;G$1&amp;"': "&amp;G21&amp;", '"&amp;H$1&amp;"': '"&amp;H21&amp;"', '"&amp;I$1&amp;"': '"&amp;I21&amp;"', '"&amp;J$1&amp;"':"&amp;J21&amp;"}, "</f>
         <v>{ 'reg': 13, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce y ejecuta los Estados Financieros de una empresa comercial, industrial y de servicios.', 'offset':2},</v>
       </c>
-      <c r="N21" s="6" t="str">
+      <c r="N21" s="7" t="str">
         <f aca="false">IF(E20=E21,CONCATENATE(N20,M21),M21)</f>
         <v>{ 'reg': 13, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce y ejecuta los Estados Financieros de una empresa comercial, industrial y de servicios.', 'offset':2},</v>
       </c>
-      <c r="O21" s="14" t="str">
+      <c r="O21" s="15" t="str">
         <f aca="false">IF(E21=E22,"","{'"&amp;E$1&amp;"': "&amp;E21&amp;", '"&amp;B$1&amp;"': '"&amp;B21&amp;"',  'editing': false, 'tipo': '"&amp;A21&amp;"', 'data': "&amp;"["&amp;N21&amp;"],  },")</f>
         <v>{'row': 2, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 13, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce y ejecuta los Estados Financieros de una empresa comercial, industrial y de servicios.', 'offset':2},],  },</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="E22" s="6" t="n">
+      <c r="A22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="7" t="n">
         <f aca="false">+E21+1</f>
         <v>3</v>
       </c>
-      <c r="F22" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G22" s="6" t="n">
+      <c r="F22" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="H22" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J22" s="10" t="n">
+      <c r="H22" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="J22" s="11" t="n">
         <f aca="false">IF(E21=E22,1,F22)</f>
         <v>2</v>
       </c>
-      <c r="K22" s="10" t="n">
+      <c r="K22" s="11" t="n">
         <v>81</v>
       </c>
-      <c r="M22" s="10" t="str">
+      <c r="M22" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K22&amp;", '"&amp;L$1&amp;"': '"&amp;L22&amp;"', '"&amp;F$1&amp;"': "&amp;F22&amp;", '"&amp;G$1&amp;"': "&amp;G22&amp;", '"&amp;H$1&amp;"': '"&amp;H22&amp;"', '"&amp;I$1&amp;"': '"&amp;I22&amp;"', '"&amp;J$1&amp;"':"&amp;J22&amp;"}, "</f>
         <v>{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Toma de decisiones, en base a un análisis financiero, dentro de las funciones de operación, inversión y financiamiento y análisis de los costos.', 'offset':2},</v>
       </c>
-      <c r="N22" s="6" t="str">
+      <c r="N22" s="7" t="str">
         <f aca="false">IF(E21=E22,CONCATENATE(N21,M22),M22)</f>
         <v>{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Toma de decisiones, en base a un análisis financiero, dentro de las funciones de operación, inversión y financiamiento y análisis de los costos.', 'offset':2},</v>
       </c>
-      <c r="O22" s="14" t="str">
+      <c r="O22" s="15" t="str">
         <f aca="false">IF(E22=E23,"","{'"&amp;E$1&amp;"': "&amp;E22&amp;", '"&amp;B$1&amp;"': '"&amp;B22&amp;"',  'editing': false, 'tipo': '"&amp;A22&amp;"', 'data': "&amp;"["&amp;N22&amp;"],  },")</f>
         <v>{'row': 3, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Toma de decisiones, en base a un análisis financiero, dentro de las funciones de operación, inversión y financiamiento y análisis de los costos.', 'offset':2},],  },</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="E23" s="6" t="n">
+      <c r="A23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="7" t="n">
         <f aca="false">+E22+1</f>
         <v>4</v>
       </c>
-      <c r="F23" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G23" s="6" t="n">
+      <c r="F23" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="H23" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="J23" s="10" t="n">
+      <c r="H23" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J23" s="11" t="n">
         <f aca="false">IF(E22=E23,1,F23)</f>
         <v>2</v>
       </c>
-      <c r="K23" s="10" t="n">
+      <c r="K23" s="11" t="n">
         <v>41</v>
       </c>
-      <c r="M23" s="10" t="str">
+      <c r="M23" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K23&amp;", '"&amp;L$1&amp;"': '"&amp;L23&amp;"', '"&amp;F$1&amp;"': "&amp;F23&amp;", '"&amp;G$1&amp;"': "&amp;G23&amp;", '"&amp;H$1&amp;"': '"&amp;H23&amp;"', '"&amp;I$1&amp;"': '"&amp;I23&amp;"', '"&amp;J$1&amp;"':"&amp;J23&amp;"}, "</f>
         <v>{ 'reg': 41, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Planifica la gestión de la empresa a futuro.', 'offset':2},</v>
       </c>
-      <c r="N23" s="6" t="str">
+      <c r="N23" s="7" t="str">
         <f aca="false">IF(E22=E23,CONCATENATE(N22,M23),M23)</f>
         <v>{ 'reg': 41, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Planifica la gestión de la empresa a futuro.', 'offset':2},</v>
       </c>
-      <c r="O23" s="14" t="str">
+      <c r="O23" s="15" t="str">
         <f aca="false">IF(E23=E24,"","{'"&amp;E$1&amp;"': "&amp;E23&amp;", '"&amp;B$1&amp;"': '"&amp;B23&amp;"',  'editing': false, 'tipo': '"&amp;A23&amp;"', 'data': "&amp;"["&amp;N23&amp;"],  },")</f>
         <v>{'row': 4, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 41, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Planifica la gestión de la empresa a futuro.', 'offset':2},],  },</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="E24" s="6" t="n">
+      <c r="A24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="7" t="n">
         <f aca="false">+E23+1</f>
         <v>5</v>
       </c>
-      <c r="F24" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G24" s="6" t="n">
+      <c r="F24" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="H24" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="J24" s="10" t="n">
+      <c r="H24" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="J24" s="11" t="n">
         <f aca="false">IF(E23=E24,1,F24)</f>
         <v>2</v>
       </c>
-      <c r="K24" s="10" t="n">
+      <c r="K24" s="11" t="n">
         <v>77</v>
       </c>
-      <c r="M24" s="10" t="str">
+      <c r="M24" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K24&amp;", '"&amp;L$1&amp;"': '"&amp;L24&amp;"', '"&amp;F$1&amp;"': "&amp;F24&amp;", '"&amp;G$1&amp;"': "&amp;G24&amp;", '"&amp;H$1&amp;"': '"&amp;H24&amp;"', '"&amp;I$1&amp;"': '"&amp;I24&amp;"', '"&amp;J$1&amp;"':"&amp;J24&amp;"}, "</f>
         <v>{ 'reg': 77, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Capacidad de trabajo en equipo.', 'offset':2},</v>
       </c>
-      <c r="N24" s="6" t="str">
+      <c r="N24" s="7" t="str">
         <f aca="false">IF(E23=E24,CONCATENATE(N23,M24),M24)</f>
         <v>{ 'reg': 77, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Capacidad de trabajo en equipo.', 'offset':2},</v>
       </c>
-      <c r="O24" s="14" t="str">
+      <c r="O24" s="15" t="str">
         <f aca="false">IF(E24=E25,"","{'"&amp;E$1&amp;"': "&amp;E24&amp;", '"&amp;B$1&amp;"': '"&amp;B24&amp;"',  'editing': false, 'tipo': '"&amp;A24&amp;"', 'data': "&amp;"["&amp;N24&amp;"],  },")</f>
         <v>{'row': 5, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 77, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Capacidad de trabajo en equipo.', 'offset':2},],  },</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E25" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F25" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" s="6" t="n">
+      <c r="A25" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E25" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="H25" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="J25" s="10" t="n">
+      <c r="H25" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="J25" s="11" t="n">
         <f aca="false">IF(E24=E25,1,F25)</f>
         <v>1</v>
       </c>
-      <c r="K25" s="10" t="n">
+      <c r="K25" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="L25" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="M25" s="10" t="str">
+      <c r="L25" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="M25" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K25&amp;", '"&amp;L$1&amp;"': '"&amp;L25&amp;"', '"&amp;F$1&amp;"': "&amp;F25&amp;", '"&amp;G$1&amp;"': "&amp;G25&amp;", '"&amp;H$1&amp;"': '"&amp;H25&amp;"', '"&amp;I$1&amp;"': '"&amp;I25&amp;"', '"&amp;J$1&amp;"':"&amp;J25&amp;"}, "</f>
         <v>{ 'reg': 9, 'subtipo': 'competencias2', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS ESPECÍFICAS', 'offset':1},</v>
       </c>
-      <c r="N25" s="6" t="str">
+      <c r="N25" s="7" t="str">
         <f aca="false">IF(E24=E25,CONCATENATE(N24,M25),M25)</f>
         <v>{ 'reg': 9, 'subtipo': 'competencias2', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS ESPECÍFICAS', 'offset':1},</v>
       </c>
-      <c r="O25" s="14" t="str">
+      <c r="O25" s="15" t="str">
         <f aca="false">IF(E25=E26,"","{'"&amp;E$1&amp;"': "&amp;E25&amp;", '"&amp;B$1&amp;"': '"&amp;B25&amp;"',  'editing': false, 'tipo': '"&amp;A25&amp;"', 'data': "&amp;"["&amp;N25&amp;"],  },")</f>
         <v>{'row': 2, 'week': '',  'editing': false, 'tipo': 'titulo2', 'data': [{ 'reg': 9, 'subtipo': 'competencias2', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS ESPECÍFICAS', 'offset':1},],  },</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="E26" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G26" s="6" t="n">
+      <c r="A26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G26" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="H26" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="J26" s="10" t="n">
+      <c r="H26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="J26" s="11" t="n">
         <f aca="false">IF(E25=E26,1,F26)</f>
         <v>2</v>
       </c>
-      <c r="K26" s="10" t="n">
+      <c r="K26" s="11" t="n">
         <v>84</v>
       </c>
-      <c r="M26" s="10" t="str">
+      <c r="M26" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K26&amp;", '"&amp;L$1&amp;"': '"&amp;L26&amp;"', '"&amp;F$1&amp;"': "&amp;F26&amp;", '"&amp;G$1&amp;"': "&amp;G26&amp;", '"&amp;H$1&amp;"': '"&amp;H26&amp;"', '"&amp;I$1&amp;"': '"&amp;I26&amp;"', '"&amp;J$1&amp;"':"&amp;J26&amp;"}, "</f>
         <v>{ 'reg': 84, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce, Analiza y describe las diferentes empresas que se desarrollan en nuestro país y la importancia que tiene en ellas la contabilidad gerencia, desde la óptica de los estados financieros: Estado de Situación Financiera y Estado de Resultados.', 'offset':2},</v>
       </c>
-      <c r="N26" s="6" t="str">
+      <c r="N26" s="7" t="str">
         <f aca="false">IF(E25=E26,CONCATENATE(N25,M26),M26)</f>
         <v>{ 'reg': 84, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce, Analiza y describe las diferentes empresas que se desarrollan en nuestro país y la importancia que tiene en ellas la contabilidad gerencia, desde la óptica de los estados financieros: Estado de Situación Financiera y Estado de Resultados.', 'offset':2},</v>
       </c>
-      <c r="O26" s="14" t="str">
+      <c r="O26" s="15" t="str">
         <f aca="false">IF(E26=E27,"","{'"&amp;E$1&amp;"': "&amp;E26&amp;", '"&amp;B$1&amp;"': '"&amp;B26&amp;"',  'editing': false, 'tipo': '"&amp;A26&amp;"', 'data': "&amp;"["&amp;N26&amp;"],  },")</f>
         <v>{'row': 1, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 84, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce, Analiza y describe las diferentes empresas que se desarrollan en nuestro país y la importancia que tiene en ellas la contabilidad gerencia, desde la óptica de los estados financieros: Estado de Situación Financiera y Estado de Resultados.', 'offset':2},],  },</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="E27" s="6" t="n">
+      <c r="A27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="7" t="n">
         <f aca="false">+E26+1</f>
         <v>2</v>
       </c>
-      <c r="F27" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G27" s="6" t="n">
+      <c r="F27" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G27" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="H27" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="J27" s="10" t="n">
+      <c r="H27" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="J27" s="11" t="n">
         <f aca="false">IF(E26=E27,1,F27)</f>
         <v>2</v>
       </c>
-      <c r="K27" s="10" t="n">
+      <c r="K27" s="11" t="n">
         <v>32</v>
       </c>
-      <c r="M27" s="10" t="str">
+      <c r="M27" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K27&amp;", '"&amp;L$1&amp;"': '"&amp;L27&amp;"', '"&amp;F$1&amp;"': "&amp;F27&amp;", '"&amp;G$1&amp;"': "&amp;G27&amp;", '"&amp;H$1&amp;"': '"&amp;H27&amp;"', '"&amp;I$1&amp;"': '"&amp;I27&amp;"', '"&amp;J$1&amp;"':"&amp;J27&amp;"}, "</f>
         <v>{ 'reg': 32, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Analiza y diagnostica los Estados financieros básicos de diferentes empresas, mediante el análisis vertical y horizontal así como los ratios financieros. ', 'offset':2},</v>
       </c>
-      <c r="N27" s="6" t="str">
+      <c r="N27" s="7" t="str">
         <f aca="false">IF(E26=E27,CONCATENATE(N26,M27),M27)</f>
         <v>{ 'reg': 32, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Analiza y diagnostica los Estados financieros básicos de diferentes empresas, mediante el análisis vertical y horizontal así como los ratios financieros. ', 'offset':2},</v>
       </c>
-      <c r="O27" s="14" t="str">
+      <c r="O27" s="15" t="str">
         <f aca="false">IF(E27=E28,"","{'"&amp;E$1&amp;"': "&amp;E27&amp;", '"&amp;B$1&amp;"': '"&amp;B27&amp;"',  'editing': false, 'tipo': '"&amp;A27&amp;"', 'data': "&amp;"["&amp;N27&amp;"],  },")</f>
         <v>{'row': 2, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 32, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Analiza y diagnostica los Estados financieros básicos de diferentes empresas, mediante el análisis vertical y horizontal así como los ratios financieros. ', 'offset':2},],  },</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="E28" s="6" t="n">
+      <c r="A28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="7" t="n">
         <f aca="false">+E27+1</f>
         <v>3</v>
       </c>
-      <c r="F28" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G28" s="6" t="n">
+      <c r="F28" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G28" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="H28" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="I28" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="J28" s="10" t="n">
+      <c r="H28" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="J28" s="11" t="n">
         <f aca="false">IF(E27=E28,1,F28)</f>
         <v>2</v>
       </c>
-      <c r="K28" s="10" t="n">
+      <c r="K28" s="11" t="n">
         <v>111</v>
       </c>
-      <c r="M28" s="10" t="str">
+      <c r="M28" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K28&amp;", '"&amp;L$1&amp;"': '"&amp;L28&amp;"', '"&amp;F$1&amp;"': "&amp;F28&amp;", '"&amp;G$1&amp;"': "&amp;G28&amp;", '"&amp;H$1&amp;"': '"&amp;H28&amp;"', '"&amp;I$1&amp;"': '"&amp;I28&amp;"', '"&amp;J$1&amp;"':"&amp;J28&amp;"}, "</f>
         <v>{ 'reg': 111, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Desarrolla un plan financiero para una empresa: Presupuesto de ventas, Presupuesto de cobranzas, presupuesto de producción, presupuesto de compras, presupuesto de pagos, presupuesto de pagos, presupuesto de gastos, entre otros.', 'offset':2},</v>
       </c>
-      <c r="N28" s="6" t="str">
+      <c r="N28" s="7" t="str">
         <f aca="false">IF(E27=E28,CONCATENATE(N27,M28),M28)</f>
         <v>{ 'reg': 111, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Desarrolla un plan financiero para una empresa: Presupuesto de ventas, Presupuesto de cobranzas, presupuesto de producción, presupuesto de compras, presupuesto de pagos, presupuesto de pagos, presupuesto de gastos, entre otros.', 'offset':2},</v>
       </c>
-      <c r="O28" s="14" t="str">
+      <c r="O28" s="15" t="str">
         <f aca="false">IF(E28=E29,"","{'"&amp;E$1&amp;"': "&amp;E28&amp;", '"&amp;B$1&amp;"': '"&amp;B28&amp;"',  'editing': false, 'tipo': '"&amp;A28&amp;"', 'data': "&amp;"["&amp;N28&amp;"],  },")</f>
         <v>{'row': 3, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 111, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Desarrolla un plan financiero para una empresa: Presupuesto de ventas, Presupuesto de cobranzas, presupuesto de producción, presupuesto de compras, presupuesto de pagos, presupuesto de pagos, presupuesto de gastos, entre otros.', 'offset':2},],  },</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="E29" s="6" t="n">
+      <c r="A29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="7" t="n">
         <f aca="false">+E28+1</f>
         <v>4</v>
       </c>
-      <c r="F29" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G29" s="6" t="n">
+      <c r="F29" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G29" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="H29" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="J29" s="10" t="n">
+      <c r="H29" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="J29" s="11" t="n">
         <f aca="false">IF(E28=E29,1,F29)</f>
         <v>2</v>
       </c>
-      <c r="K29" s="10" t="n">
+      <c r="K29" s="11" t="n">
         <v>28</v>
       </c>
-      <c r="M29" s="10" t="str">
+      <c r="M29" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K29&amp;", '"&amp;L$1&amp;"': '"&amp;L29&amp;"', '"&amp;F$1&amp;"': "&amp;F29&amp;", '"&amp;G$1&amp;"': "&amp;G29&amp;", '"&amp;H$1&amp;"': '"&amp;H29&amp;"', '"&amp;I$1&amp;"': '"&amp;I29&amp;"', '"&amp;J$1&amp;"':"&amp;J29&amp;"}, "</f>
         <v>{ 'reg': 28, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Estudia la importancia de la estructura de costos de una empresa y su implicancia en la planificación financiera.', 'offset':2},</v>
       </c>
-      <c r="N29" s="6" t="str">
+      <c r="N29" s="7" t="str">
         <f aca="false">IF(E28=E29,CONCATENATE(N28,M29),M29)</f>
         <v>{ 'reg': 28, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Estudia la importancia de la estructura de costos de una empresa y su implicancia en la planificación financiera.', 'offset':2},</v>
       </c>
-      <c r="O29" s="14" t="str">
+      <c r="O29" s="15" t="str">
         <f aca="false">IF(E29=E30,"","{'"&amp;E$1&amp;"': "&amp;E29&amp;", '"&amp;B$1&amp;"': '"&amp;B29&amp;"',  'editing': false, 'tipo': '"&amp;A29&amp;"', 'data': "&amp;"["&amp;N29&amp;"],  },")</f>
         <v>{'row': 4, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 28, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Estudia la importancia de la estructura de costos de una empresa y su implicancia en la planificación financiera.', 'offset':2},],  },</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="E30" s="6" t="n">
+      <c r="A30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="7" t="n">
         <f aca="false">+E29+1</f>
         <v>5</v>
       </c>
-      <c r="F30" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G30" s="6" t="n">
+      <c r="F30" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="H30" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="I30" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="J30" s="10" t="n">
+      <c r="H30" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="J30" s="11" t="n">
         <f aca="false">IF(E29=E30,1,F30)</f>
         <v>2</v>
       </c>
-      <c r="K30" s="10" t="n">
+      <c r="K30" s="11" t="n">
         <v>27</v>
       </c>
-      <c r="M30" s="10" t="str">
+      <c r="M30" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K30&amp;", '"&amp;L$1&amp;"': '"&amp;L30&amp;"', '"&amp;F$1&amp;"': "&amp;F30&amp;", '"&amp;G$1&amp;"': "&amp;G30&amp;", '"&amp;H$1&amp;"': '"&amp;H30&amp;"', '"&amp;I$1&amp;"': '"&amp;I30&amp;"', '"&amp;J$1&amp;"':"&amp;J30&amp;"}, "</f>
         <v>{ 'reg': 27, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Elabora estados financieros proyectados, para diagnosticar el futuro de la empresa.', 'offset':2},</v>
       </c>
-      <c r="N30" s="6" t="str">
+      <c r="N30" s="7" t="str">
         <f aca="false">IF(E29=E30,CONCATENATE(N29,M30),M30)</f>
         <v>{ 'reg': 27, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Elabora estados financieros proyectados, para diagnosticar el futuro de la empresa.', 'offset':2},</v>
       </c>
-      <c r="O30" s="14" t="str">
+      <c r="O30" s="15" t="str">
         <f aca="false">IF(E30=E31,"","{'"&amp;E$1&amp;"': "&amp;E30&amp;", '"&amp;B$1&amp;"': '"&amp;B30&amp;"',  'editing': false, 'tipo': '"&amp;A30&amp;"', 'data': "&amp;"["&amp;N30&amp;"],  },")</f>
         <v>{'row': 5, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 27, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Elabora estados financieros proyectados, para diagnosticar el futuro de la empresa.', 'offset':2},],  },</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="E31" s="6" t="n">
+      <c r="A31" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E31" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="F31" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" s="6" t="n">
+      <c r="F31" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="H31" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I31" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="J31" s="10" t="n">
+      <c r="H31" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="J31" s="11" t="n">
         <f aca="false">IF(E30=E31,1,F31)</f>
         <v>1</v>
       </c>
-      <c r="K31" s="10" t="n">
+      <c r="K31" s="11" t="n">
         <v>126</v>
       </c>
-      <c r="L31" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="M31" s="10" t="str">
+      <c r="L31" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M31" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K31&amp;", '"&amp;L$1&amp;"': '"&amp;L31&amp;"', '"&amp;F$1&amp;"': "&amp;F31&amp;", '"&amp;G$1&amp;"': "&amp;G31&amp;", '"&amp;H$1&amp;"': '"&amp;H31&amp;"', '"&amp;I$1&amp;"': '"&amp;I31&amp;"', '"&amp;J$1&amp;"':"&amp;J31&amp;"}, "</f>
         <v>{ 'reg': 126, 'subtipo': 'contenidos', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'IV. PROGRAMACIÓN DE CONTENIDOS', 'offset':1},</v>
       </c>
-      <c r="N31" s="6" t="str">
+      <c r="N31" s="7" t="str">
         <f aca="false">IF(E30=E31,CONCATENATE(N30,M31),M31)</f>
         <v>{ 'reg': 126, 'subtipo': 'contenidos', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'IV. PROGRAMACIÓN DE CONTENIDOS', 'offset':1},</v>
       </c>
-      <c r="O31" s="14" t="str">
+      <c r="O31" s="15" t="str">
         <f aca="false">IF(E31=E32,"","{'"&amp;E$1&amp;"': "&amp;E31&amp;", '"&amp;B$1&amp;"': '"&amp;B31&amp;"',  'editing': false, 'tipo': '"&amp;A31&amp;"', 'data': "&amp;"["&amp;N31&amp;"],  },")</f>
         <v>{'row': 4, 'week': '',  'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 126, 'subtipo': 'contenidos', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'IV. PROGRAMACIÓN DE CONTENIDOS', 'offset':1},],  },</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B32" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F32" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" s="6" t="n">
+      <c r="A32" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="H32" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I32" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="J32" s="10" t="n">
+      <c r="H32" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="J32" s="11" t="n">
         <f aca="false">IF(E31=E32,1,F32)</f>
         <v>1</v>
       </c>
-      <c r="K32" s="10" t="n">
+      <c r="K32" s="11" t="n">
         <v>22</v>
       </c>
-      <c r="M32" s="10" t="str">
+      <c r="M32" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K32&amp;", '"&amp;L$1&amp;"': '"&amp;L32&amp;"', '"&amp;F$1&amp;"': "&amp;F32&amp;", '"&amp;G$1&amp;"': "&amp;G32&amp;", '"&amp;H$1&amp;"': '"&amp;H32&amp;"', '"&amp;I$1&amp;"': '"&amp;I32&amp;"', '"&amp;J$1&amp;"':"&amp;J32&amp;"}, "</f>
         <v>{ 'reg': 22, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD I: LA CONTABILIDAD GERENCIAL.', 'offset':1},</v>
       </c>
-      <c r="N32" s="6" t="str">
+      <c r="N32" s="7" t="str">
         <f aca="false">IF(E31=E32,CONCATENATE(N31,M32),M32)</f>
         <v>{ 'reg': 22, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD I: LA CONTABILIDAD GERENCIAL.', 'offset':1},</v>
       </c>
-      <c r="O32" s="14" t="str">
+      <c r="O32" s="15" t="str">
         <f aca="false">IF(E32=E33,"","{'"&amp;E$1&amp;"': "&amp;E32&amp;", '"&amp;B$1&amp;"': '"&amp;B32&amp;"',  'editing': false, 'tipo': '"&amp;A32&amp;"', 'data': "&amp;"["&amp;N32&amp;"],  },")</f>
         <v>{'row': 1, 'week': '1',  'editing': false, 'tipo': 'unidades', 'data': [{ 'reg': 22, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD I: LA CONTABILIDAD GERENCIAL.', 'offset':1},],  },</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B33" s="6" t="n">
+      <c r="A33" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B33" s="7" t="n">
         <v>1.3</v>
       </c>
-      <c r="E33" s="6" t="n">
+      <c r="E33" s="7" t="n">
         <f aca="false">+E32+1</f>
         <v>2</v>
       </c>
-      <c r="F33" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G33" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I33" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="J33" s="10" t="n">
+      <c r="F33" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="J33" s="11" t="n">
         <f aca="false">IF(E32=E33,1,F33)</f>
         <v>1</v>
       </c>
-      <c r="K33" s="10" t="n">
+      <c r="K33" s="11" t="n">
         <v>35</v>
       </c>
-      <c r="M33" s="10" t="str">
+      <c r="M33" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K33&amp;", '"&amp;L$1&amp;"': '"&amp;L33&amp;"', '"&amp;F$1&amp;"': "&amp;F33&amp;", '"&amp;G$1&amp;"': "&amp;G33&amp;", '"&amp;H$1&amp;"': '"&amp;H33&amp;"', '"&amp;I$1&amp;"': '"&amp;I33&amp;"', '"&amp;J$1&amp;"':"&amp;J33&amp;"}, "</f>
         <v>{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1},</v>
       </c>
-      <c r="N33" s="6" t="str">
+      <c r="N33" s="7" t="str">
         <f aca="false">IF(E32=E33,CONCATENATE(N32,M33),M33)</f>
         <v>{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1},</v>
       </c>
-      <c r="O33" s="14" t="str">
+      <c r="O33" s="15" t="str">
         <f aca="false">IF(E33=E34,"","{'"&amp;E$1&amp;"': "&amp;E33&amp;", '"&amp;B$1&amp;"': '"&amp;B33&amp;"',  'editing': false, 'tipo': '"&amp;A33&amp;"', 'data': "&amp;"["&amp;N33&amp;"],  },")</f>
         <v/>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B34" s="6" t="n">
+      <c r="A34" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B34" s="7" t="n">
         <v>1.3</v>
       </c>
-      <c r="E34" s="6" t="n">
+      <c r="E34" s="7" t="n">
         <f aca="false">+E33</f>
         <v>2</v>
       </c>
-      <c r="F34" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G34" s="6" t="n">
+      <c r="F34" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G34" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="H34" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I34" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="J34" s="10" t="n">
+      <c r="H34" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J34" s="11" t="n">
         <f aca="false">IF(E33=E34,1,F34)</f>
         <v>1</v>
       </c>
-      <c r="K34" s="10" t="n">
+      <c r="K34" s="11" t="n">
         <v>48</v>
       </c>
-      <c r="M34" s="10" t="str">
+      <c r="M34" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K34&amp;", '"&amp;L$1&amp;"': '"&amp;L34&amp;"', '"&amp;F$1&amp;"': "&amp;F34&amp;", '"&amp;G$1&amp;"': "&amp;G34&amp;", '"&amp;H$1&amp;"': '"&amp;H34&amp;"', '"&amp;I$1&amp;"': '"&amp;I34&amp;"', '"&amp;J$1&amp;"':"&amp;J34&amp;"}, "</f>
         <v>{ 'reg': 48, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1},</v>
       </c>
-      <c r="N34" s="6" t="str">
+      <c r="N34" s="7" t="str">
         <f aca="false">IF(E33=E34,CONCATENATE(N33,M34),M34)</f>
         <v>{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1},{ 'reg': 48, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1},</v>
       </c>
-      <c r="O34" s="14" t="str">
+      <c r="O34" s="15" t="str">
         <f aca="false">IF(E34=E35,"","{'"&amp;E$1&amp;"': "&amp;E34&amp;", '"&amp;B$1&amp;"': '"&amp;B34&amp;"',  'editing': false, 'tipo': '"&amp;A34&amp;"', 'data': "&amp;"["&amp;N34&amp;"],  },")</f>
         <v/>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B35" s="6" t="n">
+      <c r="A35" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B35" s="7" t="n">
         <v>1.3</v>
       </c>
-      <c r="E35" s="6" t="n">
+      <c r="E35" s="7" t="n">
         <f aca="false">+E34</f>
         <v>2</v>
       </c>
-      <c r="F35" s="6" t="n">
+      <c r="F35" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="G35" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I35" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="J35" s="10" t="n">
+      <c r="G35" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="J35" s="11" t="n">
         <f aca="false">IF(E34=E35,1,F35)</f>
         <v>1</v>
       </c>
-      <c r="K35" s="10" t="n">
+      <c r="K35" s="11" t="n">
         <v>14</v>
       </c>
-      <c r="M35" s="10" t="str">
+      <c r="M35" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K35&amp;", '"&amp;L$1&amp;"': '"&amp;L35&amp;"', '"&amp;F$1&amp;"': "&amp;F35&amp;", '"&amp;G$1&amp;"': "&amp;G35&amp;", '"&amp;H$1&amp;"': '"&amp;H35&amp;"', '"&amp;I$1&amp;"': '"&amp;I35&amp;"', '"&amp;J$1&amp;"':"&amp;J35&amp;"}, "</f>
         <v>{ 'reg': 14, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1},</v>
       </c>
-      <c r="N35" s="6" t="str">
+      <c r="N35" s="7" t="str">
         <f aca="false">IF(E34=E35,CONCATENATE(N34,M35),M35)</f>
         <v>{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1},{ 'reg': 48, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1},{ 'reg': 14, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1},</v>
       </c>
-      <c r="O35" s="14" t="str">
+      <c r="O35" s="15" t="str">
         <f aca="false">IF(E35=E36,"","{'"&amp;E$1&amp;"': "&amp;E35&amp;", '"&amp;B$1&amp;"': '"&amp;B35&amp;"',  'editing': false, 'tipo': '"&amp;A35&amp;"', 'data': "&amp;"["&amp;N35&amp;"],  },")</f>
         <v/>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B36" s="6" t="n">
+      <c r="A36" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B36" s="7" t="n">
         <v>1.3</v>
       </c>
-      <c r="E36" s="6" t="n">
+      <c r="E36" s="7" t="n">
         <f aca="false">+E35</f>
         <v>2</v>
       </c>
-      <c r="F36" s="6" t="n">
+      <c r="F36" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="G36" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I36" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="J36" s="10" t="n">
+      <c r="G36" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="J36" s="11" t="n">
         <f aca="false">IF(E35=E36,1,F36)</f>
         <v>1</v>
       </c>
-      <c r="K36" s="10" t="n">
+      <c r="K36" s="11" t="n">
         <v>25</v>
       </c>
-      <c r="M36" s="10" t="str">
+      <c r="M36" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K36&amp;", '"&amp;L$1&amp;"': '"&amp;L36&amp;"', '"&amp;F$1&amp;"': "&amp;F36&amp;", '"&amp;G$1&amp;"': "&amp;G36&amp;", '"&amp;H$1&amp;"': '"&amp;H36&amp;"', '"&amp;I$1&amp;"': '"&amp;I36&amp;"', '"&amp;J$1&amp;"':"&amp;J36&amp;"}, "</f>
         <v>{ 'reg': 25, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1},</v>
       </c>
-      <c r="N36" s="6" t="str">
+      <c r="N36" s="7" t="str">
         <f aca="false">IF(E35=E36,CONCATENATE(N35,M36),M36)</f>
         <v>{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1},{ 'reg': 48, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1},{ 'reg': 14, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1},{ 'reg': 25, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1},</v>
       </c>
-      <c r="O36" s="14" t="str">
+      <c r="O36" s="15" t="str">
         <f aca="false">IF(E36=E37,"","{'"&amp;E$1&amp;"': "&amp;E36&amp;", '"&amp;B$1&amp;"': '"&amp;B36&amp;"',  'editing': false, 'tipo': '"&amp;A36&amp;"', 'data': "&amp;"["&amp;N36&amp;"],  },")</f>
         <v>{'row': 2, 'week': '1.3',  'editing': false, 'tipo': 'titulo3', 'data': [{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1},{ 'reg': 48, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1},{ 'reg': 14, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1},{ 'reg': 25, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1},],  },</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B37" s="6" t="n">
+      <c r="A37" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="7" t="n">
         <v>1.5</v>
       </c>
-      <c r="E37" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F37" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I37" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" s="10" t="n">
+      <c r="E37" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I37" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" s="11" t="n">
         <f aca="false">IF(E36=E37,1,F37)</f>
         <v>1</v>
       </c>
-      <c r="K37" s="10" t="n">
+      <c r="K37" s="11" t="n">
         <v>99</v>
       </c>
-      <c r="M37" s="10" t="str">
+      <c r="M37" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K37&amp;", '"&amp;L$1&amp;"': '"&amp;L37&amp;"', '"&amp;F$1&amp;"': "&amp;F37&amp;", '"&amp;G$1&amp;"': "&amp;G37&amp;", '"&amp;H$1&amp;"': '"&amp;H37&amp;"', '"&amp;I$1&amp;"': '"&amp;I37&amp;"', '"&amp;J$1&amp;"':"&amp;J37&amp;"}, "</f>
         <v>{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1},</v>
       </c>
-      <c r="N37" s="6" t="str">
+      <c r="N37" s="7" t="str">
         <f aca="false">IF(E36=E37,CONCATENATE(N36,M37),M37)</f>
         <v>{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1},</v>
       </c>
-      <c r="O37" s="14" t="str">
+      <c r="O37" s="15" t="str">
         <f aca="false">IF(E37=E38,"","{'"&amp;E$1&amp;"': "&amp;E37&amp;", '"&amp;B$1&amp;"': '"&amp;B37&amp;"',  'editing': false, 'tipo': '"&amp;A37&amp;"', 'data': "&amp;"["&amp;N37&amp;"],  },")</f>
         <v/>
       </c>
     </row>
     <row r="38" customFormat="false" ht="195" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B38" s="6" t="n">
+      <c r="A38" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="7" t="n">
         <f aca="false">+B37</f>
         <v>1.5</v>
       </c>
-      <c r="E38" s="6" t="n">
+      <c r="E38" s="7" t="n">
         <f aca="false">+E37</f>
         <v>1</v>
       </c>
-      <c r="F38" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G38" s="6" t="n">
+      <c r="F38" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G38" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="H38" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I38" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="J38" s="10" t="n">
+      <c r="H38" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I38" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="J38" s="11" t="n">
         <f aca="false">IF(E37=E38,1,F38)</f>
         <v>1</v>
       </c>
-      <c r="K38" s="10" t="n">
+      <c r="K38" s="11" t="n">
         <v>127</v>
       </c>
-      <c r="M38" s="10" t="str">
+      <c r="M38" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K38&amp;", '"&amp;L$1&amp;"': '"&amp;L38&amp;"', '"&amp;F$1&amp;"': "&amp;F38&amp;", '"&amp;G$1&amp;"': "&amp;G38&amp;", '"&amp;H$1&amp;"': '"&amp;H38&amp;"', '"&amp;I$1&amp;"': '"&amp;I38&amp;"', '"&amp;J$1&amp;"':"&amp;J38&amp;"}, "</f>
         <v>{ 'reg': 127, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1},</v>
       </c>
-      <c r="N38" s="6" t="str">
+      <c r="N38" s="7" t="str">
         <f aca="false">IF(E37=E38,CONCATENATE(N37,M38),M38)</f>
         <v>{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1},{ 'reg': 127, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1},</v>
       </c>
-      <c r="O38" s="14" t="str">
+      <c r="O38" s="15" t="str">
         <f aca="false">IF(E38=E39,"","{'"&amp;E$1&amp;"': "&amp;E38&amp;", '"&amp;B$1&amp;"': '"&amp;B38&amp;"',  'editing': false, 'tipo': '"&amp;A38&amp;"', 'data': "&amp;"["&amp;N38&amp;"],  },")</f>
         <v/>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B39" s="6" t="n">
+      <c r="A39" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="7" t="n">
         <f aca="false">+B38</f>
         <v>1.5</v>
       </c>
-      <c r="E39" s="6" t="n">
+      <c r="E39" s="7" t="n">
         <f aca="false">+E38</f>
         <v>1</v>
       </c>
-      <c r="F39" s="6" t="n">
+      <c r="F39" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="G39" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I39" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="J39" s="10" t="n">
+      <c r="G39" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J39" s="11" t="n">
         <f aca="false">IF(E38=E39,1,F39)</f>
         <v>1</v>
       </c>
-      <c r="K39" s="10" t="n">
+      <c r="K39" s="11" t="n">
         <v>91</v>
       </c>
-      <c r="M39" s="10" t="str">
+      <c r="M39" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K39&amp;", '"&amp;L$1&amp;"': '"&amp;L39&amp;"', '"&amp;F$1&amp;"': "&amp;F39&amp;", '"&amp;G$1&amp;"': "&amp;G39&amp;", '"&amp;H$1&amp;"': '"&amp;H39&amp;"', '"&amp;I$1&amp;"': '"&amp;I39&amp;"', '"&amp;J$1&amp;"':"&amp;J39&amp;"}, "</f>
         <v>{ 'reg': 91, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Reconoce el recorrido de las operaciones empresariales en el ciclo contable de una empresa. Evalúa la utilidad de la información financiera y gerencial.', 'offset':1},</v>
       </c>
-      <c r="N39" s="6" t="str">
+      <c r="N39" s="7" t="str">
         <f aca="false">IF(E38=E39,CONCATENATE(N38,M39),M39)</f>
         <v>{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1},{ 'reg': 127, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1},{ 'reg': 91, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Reconoce el recorrido de las operaciones empresariales en el ciclo contable de una empresa. Evalúa la utilidad de la información financiera y gerencial.', 'offset':1},</v>
       </c>
-      <c r="O39" s="14" t="str">
+      <c r="O39" s="15" t="str">
         <f aca="false">IF(E39=E40,"","{'"&amp;E$1&amp;"': "&amp;E39&amp;", '"&amp;B$1&amp;"': '"&amp;B39&amp;"',  'editing': false, 'tipo': '"&amp;A39&amp;"', 'data': "&amp;"["&amp;N39&amp;"],  },")</f>
         <v/>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B40" s="6" t="n">
+      <c r="A40" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="7" t="n">
         <f aca="false">+B39</f>
         <v>1.5</v>
       </c>
-      <c r="E40" s="6" t="n">
+      <c r="E40" s="7" t="n">
         <f aca="false">+E39</f>
         <v>1</v>
       </c>
-      <c r="F40" s="6" t="n">
+      <c r="F40" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="G40" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I40" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="J40" s="10" t="n">
+      <c r="G40" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I40" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J40" s="11" t="n">
         <f aca="false">IF(E39=E40,1,F40)</f>
         <v>1</v>
       </c>
-      <c r="K40" s="10" t="n">
+      <c r="K40" s="11" t="n">
         <v>115</v>
       </c>
-      <c r="M40" s="10" t="str">
+      <c r="M40" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K40&amp;", '"&amp;L$1&amp;"': '"&amp;L40&amp;"', '"&amp;F$1&amp;"': "&amp;F40&amp;", '"&amp;G$1&amp;"': "&amp;G40&amp;", '"&amp;H$1&amp;"': '"&amp;H40&amp;"', '"&amp;I$1&amp;"': '"&amp;I40&amp;"', '"&amp;J$1&amp;"':"&amp;J40&amp;"}, "</f>
         <v>{ 'reg': 115, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada\nTaller', 'offset':1},</v>
       </c>
-      <c r="N40" s="6" t="str">
+      <c r="N40" s="7" t="str">
         <f aca="false">IF(E39=E40,CONCATENATE(N39,M40),M40)</f>
         <v>{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1},{ 'reg': 127, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1},{ 'reg': 91, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Reconoce el recorrido de las operaciones empresariales en el ciclo contable de una empresa. Evalúa la utilidad de la información financiera y gerencial.', 'offset':1},{ 'reg': 115, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada\nTaller', 'offset':1},</v>
       </c>
-      <c r="O40" s="14" t="str">
+      <c r="O40" s="15" t="str">
         <f aca="false">IF(E40=E41,"","{'"&amp;E$1&amp;"': "&amp;E40&amp;", '"&amp;B$1&amp;"': '"&amp;B40&amp;"',  'editing': false, 'tipo': '"&amp;A40&amp;"', 'data': "&amp;"["&amp;N40&amp;"],  },")</f>
         <v>{'row': 1, 'week': '1.5',  'editing': false, 'tipo': 'contenidos', 'data': [{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1},{ 'reg': 127, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1},{ 'reg': 91, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Reconoce el recorrido de las operaciones empresariales en el ciclo contable de una empresa. Evalúa la utilidad de la información financiera y gerencial.', 'offset':1},{ 'reg': 115, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada\nTaller', 'offset':1},],  },</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B41" s="6" t="n">
+      <c r="A41" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="7" t="n">
         <v>2.5</v>
       </c>
-      <c r="E41" s="6" t="n">
+      <c r="E41" s="7" t="n">
         <f aca="false">+E40+1</f>
         <v>2</v>
       </c>
-      <c r="F41" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I41" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="J41" s="10" t="n">
+      <c r="F41" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I41" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="J41" s="11" t="n">
         <f aca="false">IF(E40=E41,1,F41)</f>
         <v>1</v>
       </c>
-      <c r="K41" s="10" t="n">
+      <c r="K41" s="11" t="n">
         <v>62</v>
       </c>
-      <c r="M41" s="10" t="str">
+      <c r="M41" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K41&amp;", '"&amp;L$1&amp;"': '"&amp;L41&amp;"', '"&amp;F$1&amp;"': "&amp;F41&amp;", '"&amp;G$1&amp;"': "&amp;G41&amp;", '"&amp;H$1&amp;"': '"&amp;H41&amp;"', '"&amp;I$1&amp;"': '"&amp;I41&amp;"', '"&amp;J$1&amp;"':"&amp;J41&amp;"}, "</f>
         <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1},</v>
       </c>
-      <c r="N41" s="6" t="str">
+      <c r="N41" s="7" t="str">
         <f aca="false">IF(E40=E41,CONCATENATE(N40,M41),M41)</f>
         <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1},</v>
       </c>
-      <c r="O41" s="14" t="str">
+      <c r="O41" s="15" t="str">
         <f aca="false">IF(E41=E42,"","{'"&amp;E$1&amp;"': "&amp;E41&amp;", '"&amp;B$1&amp;"': '"&amp;B41&amp;"',  'editing': false, 'tipo': '"&amp;A41&amp;"', 'data': "&amp;"["&amp;N41&amp;"],  },")</f>
         <v/>
       </c>
     </row>
     <row r="42" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B42" s="6" t="n">
+      <c r="A42" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" s="7" t="n">
         <f aca="false">+B41</f>
         <v>2.5</v>
       </c>
-      <c r="E42" s="6" t="n">
+      <c r="E42" s="7" t="n">
         <f aca="false">+E41</f>
         <v>2</v>
       </c>
-      <c r="F42" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G42" s="6" t="n">
+      <c r="F42" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G42" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="H42" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I42" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="J42" s="10" t="n">
+      <c r="H42" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I42" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="J42" s="11" t="n">
         <f aca="false">IF(E41=E42,1,F42)</f>
         <v>1</v>
       </c>
-      <c r="K42" s="10" t="n">
+      <c r="K42" s="11" t="n">
         <v>17</v>
       </c>
-      <c r="M42" s="10" t="str">
+      <c r="M42" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K42&amp;", '"&amp;L$1&amp;"': '"&amp;L42&amp;"', '"&amp;F$1&amp;"': "&amp;F42&amp;", '"&amp;G$1&amp;"': "&amp;G42&amp;", '"&amp;H$1&amp;"': '"&amp;H42&amp;"', '"&amp;I$1&amp;"': '"&amp;I42&amp;"', '"&amp;J$1&amp;"':"&amp;J42&amp;"}, "</f>
         <v>{ 'reg': 17, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1},</v>
       </c>
-      <c r="N42" s="6" t="str">
+      <c r="N42" s="7" t="str">
         <f aca="false">IF(E41=E42,CONCATENATE(N41,M42),M42)</f>
         <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1},{ 'reg': 17, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1},</v>
       </c>
-      <c r="O42" s="14" t="str">
+      <c r="O42" s="15" t="str">
         <f aca="false">IF(E42=E43,"","{'"&amp;E$1&amp;"': "&amp;E42&amp;", '"&amp;B$1&amp;"': '"&amp;B42&amp;"',  'editing': false, 'tipo': '"&amp;A42&amp;"', 'data': "&amp;"["&amp;N42&amp;"],  },")</f>
         <v/>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="6" t="str">
+      <c r="A43" s="7" t="str">
         <f aca="false">+A42</f>
         <v>contenidos</v>
       </c>
-      <c r="B43" s="6" t="n">
+      <c r="B43" s="7" t="n">
         <f aca="false">+B42</f>
         <v>2.5</v>
       </c>
-      <c r="E43" s="6" t="n">
+      <c r="E43" s="7" t="n">
         <f aca="false">+E42</f>
         <v>2</v>
       </c>
-      <c r="F43" s="6" t="n">
+      <c r="F43" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="G43" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="J43" s="10" t="n">
+      <c r="G43" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="J43" s="11" t="n">
         <f aca="false">IF(E42=E43,1,F43)</f>
         <v>1</v>
       </c>
-      <c r="K43" s="10" t="n">
+      <c r="K43" s="11" t="n">
         <v>102</v>
       </c>
-      <c r="M43" s="10" t="str">
+      <c r="M43" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K43&amp;", '"&amp;L$1&amp;"': '"&amp;L43&amp;"', '"&amp;F$1&amp;"': "&amp;F43&amp;", '"&amp;G$1&amp;"': "&amp;G43&amp;", '"&amp;H$1&amp;"': '"&amp;H43&amp;"', '"&amp;I$1&amp;"': '"&amp;I43&amp;"', '"&amp;J$1&amp;"':"&amp;J43&amp;"}, "</f>
         <v>{ 'reg': 102, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Determinación, distribución y aplicación de los costos en una empresa mercantil.', 'offset':1},</v>
       </c>
-      <c r="N43" s="6" t="str">
+      <c r="N43" s="7" t="str">
         <f aca="false">IF(E42=E43,CONCATENATE(N42,M43),M43)</f>
         <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1},{ 'reg': 17, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1},{ 'reg': 102, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Determinación, distribución y aplicación de los costos en una empresa mercantil.', 'offset':1},</v>
       </c>
-      <c r="O43" s="14" t="str">
+      <c r="O43" s="15" t="str">
         <f aca="false">IF(E43=E44,"","{'"&amp;E$1&amp;"': "&amp;E43&amp;", '"&amp;B$1&amp;"': '"&amp;B43&amp;"',  'editing': false, 'tipo': '"&amp;A43&amp;"', 'data': "&amp;"["&amp;N43&amp;"],  },")</f>
         <v/>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="6" t="str">
+      <c r="A44" s="7" t="str">
         <f aca="false">+A43</f>
         <v>contenidos</v>
       </c>
-      <c r="B44" s="6" t="n">
+      <c r="B44" s="7" t="n">
         <f aca="false">+B43</f>
         <v>2.5</v>
       </c>
-      <c r="E44" s="6" t="n">
+      <c r="E44" s="7" t="n">
         <f aca="false">+E43</f>
         <v>2</v>
       </c>
-      <c r="F44" s="6" t="n">
+      <c r="F44" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="G44" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J44" s="10" t="n">
+      <c r="G44" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J44" s="11" t="n">
         <f aca="false">IF(E43=E44,1,F44)</f>
         <v>1</v>
       </c>
-      <c r="K44" s="10" t="n">
+      <c r="K44" s="11" t="n">
         <v>126</v>
       </c>
-      <c r="M44" s="10" t="str">
+      <c r="M44" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K44&amp;", '"&amp;L$1&amp;"': '"&amp;L44&amp;"', '"&amp;F$1&amp;"': "&amp;F44&amp;", '"&amp;G$1&amp;"': "&amp;G44&amp;", '"&amp;H$1&amp;"': '"&amp;H44&amp;"', '"&amp;I$1&amp;"': '"&amp;I44&amp;"', '"&amp;J$1&amp;"':"&amp;J44&amp;"}, "</f>
         <v>{ 'reg': 126, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Dinámica grupal/debate en clase', 'offset':1},</v>
       </c>
-      <c r="N44" s="6" t="str">
+      <c r="N44" s="7" t="str">
         <f aca="false">IF(E43=E44,CONCATENATE(N43,M44),M44)</f>
         <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1},{ 'reg': 17, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1},{ 'reg': 102, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Determinación, distribución y aplicación de los costos en una empresa mercantil.', 'offset':1},{ 'reg': 126, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Dinámica grupal/debate en clase', 'offset':1},</v>
       </c>
-      <c r="O44" s="14" t="str">
+      <c r="O44" s="15" t="str">
         <f aca="false">IF(E44=E45,"","{'"&amp;E$1&amp;"': "&amp;E44&amp;", '"&amp;B$1&amp;"': '"&amp;B44&amp;"',  'editing': false, 'tipo': '"&amp;A44&amp;"', 'data': "&amp;"["&amp;N44&amp;"],  },")</f>
         <v>{'row': 2, 'week': '2.5',  'editing': false, 'tipo': 'contenidos', 'data': [{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1},{ 'reg': 17, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1},{ 'reg': 102, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Determinación, distribución y aplicación de los costos en una empresa mercantil.', 'offset':1},{ 'reg': 126, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Dinámica grupal/debate en clase', 'offset':1},],  },</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B45" s="6" t="n">
+      <c r="A45" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="7" t="n">
         <v>3.5</v>
       </c>
-      <c r="E45" s="6" t="n">
+      <c r="E45" s="7" t="n">
         <f aca="false">+E44+1</f>
         <v>3</v>
       </c>
-      <c r="F45" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G45" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I45" s="10" t="n">
+      <c r="F45" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I45" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="J45" s="10" t="n">
+      <c r="J45" s="11" t="n">
         <f aca="false">IF(E44=E45,1,F45)</f>
         <v>1</v>
       </c>
-      <c r="K45" s="10" t="n">
+      <c r="K45" s="11" t="n">
         <v>39</v>
       </c>
-      <c r="M45" s="10" t="str">
+      <c r="M45" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K45&amp;", '"&amp;L$1&amp;"': '"&amp;L45&amp;"', '"&amp;F$1&amp;"': "&amp;F45&amp;", '"&amp;G$1&amp;"': "&amp;G45&amp;", '"&amp;H$1&amp;"': '"&amp;H45&amp;"', '"&amp;I$1&amp;"': '"&amp;I45&amp;"', '"&amp;J$1&amp;"':"&amp;J45&amp;"}, "</f>
         <v>{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1},</v>
       </c>
-      <c r="N45" s="6" t="str">
+      <c r="N45" s="7" t="str">
         <f aca="false">IF(E44=E45,CONCATENATE(N44,M45),M45)</f>
         <v>{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1},</v>
       </c>
-      <c r="O45" s="14" t="str">
+      <c r="O45" s="15" t="str">
         <f aca="false">IF(E45=E46,"","{'"&amp;E$1&amp;"': "&amp;E45&amp;", '"&amp;B$1&amp;"': '"&amp;B45&amp;"',  'editing': false, 'tipo': '"&amp;A45&amp;"', 'data': "&amp;"["&amp;N45&amp;"],  },")</f>
         <v/>
       </c>
     </row>
     <row r="46" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B46" s="6" t="n">
+      <c r="A46" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" s="7" t="n">
         <f aca="false">+B45</f>
         <v>3.5</v>
       </c>
-      <c r="E46" s="6" t="n">
+      <c r="E46" s="7" t="n">
         <f aca="false">+E45</f>
         <v>3</v>
       </c>
-      <c r="F46" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G46" s="6" t="n">
+      <c r="F46" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G46" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="H46" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I46" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="J46" s="10" t="n">
+      <c r="H46" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I46" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="J46" s="11" t="n">
         <f aca="false">IF(E45=E46,1,F46)</f>
         <v>1</v>
       </c>
-      <c r="K46" s="10" t="n">
+      <c r="K46" s="11" t="n">
         <v>124</v>
       </c>
-      <c r="M46" s="10" t="str">
+      <c r="M46" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K46&amp;", '"&amp;L$1&amp;"': '"&amp;L46&amp;"', '"&amp;F$1&amp;"': "&amp;F46&amp;", '"&amp;G$1&amp;"': "&amp;G46&amp;", '"&amp;H$1&amp;"': '"&amp;H46&amp;"', '"&amp;I$1&amp;"': '"&amp;I46&amp;"', '"&amp;J$1&amp;"':"&amp;J46&amp;"}, "</f>
         <v>{ 'reg': 124, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1},</v>
       </c>
-      <c r="N46" s="6" t="str">
+      <c r="N46" s="7" t="str">
         <f aca="false">IF(E45=E46,CONCATENATE(N45,M46),M46)</f>
         <v>{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1},{ 'reg': 124, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1},</v>
       </c>
-      <c r="O46" s="14" t="str">
+      <c r="O46" s="15" t="str">
         <f aca="false">IF(E46=E47,"","{'"&amp;E$1&amp;"': "&amp;E46&amp;", '"&amp;B$1&amp;"': '"&amp;B46&amp;"',  'editing': false, 'tipo': '"&amp;A46&amp;"', 'data': "&amp;"["&amp;N46&amp;"],  },")</f>
         <v/>
       </c>
     </row>
     <row r="47" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B47" s="6" t="n">
+      <c r="A47" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" s="7" t="n">
         <f aca="false">+B46</f>
         <v>3.5</v>
       </c>
-      <c r="E47" s="6" t="n">
+      <c r="E47" s="7" t="n">
         <f aca="false">+E46</f>
         <v>3</v>
       </c>
-      <c r="F47" s="6" t="n">
+      <c r="F47" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="G47" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I47" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="J47" s="10" t="n">
+      <c r="G47" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I47" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="J47" s="11" t="n">
         <f aca="false">IF(E46=E47,1,F47)</f>
         <v>1</v>
       </c>
-      <c r="K47" s="10" t="n">
+      <c r="K47" s="11" t="n">
         <v>26</v>
       </c>
-      <c r="M47" s="10" t="str">
+      <c r="M47" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K47&amp;", '"&amp;L$1&amp;"': '"&amp;L47&amp;"', '"&amp;F$1&amp;"': "&amp;F47&amp;", '"&amp;G$1&amp;"': "&amp;G47&amp;", '"&amp;H$1&amp;"': '"&amp;H47&amp;"', '"&amp;I$1&amp;"': '"&amp;I47&amp;"', '"&amp;J$1&amp;"':"&amp;J47&amp;"}, "</f>
         <v>{ 'reg': 26, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Analizar y aplicar el marco legal normativo para la elaboración de los Estados Financieros.', 'offset':1},</v>
       </c>
-      <c r="N47" s="6" t="str">
+      <c r="N47" s="7" t="str">
         <f aca="false">IF(E46=E47,CONCATENATE(N46,M47),M47)</f>
         <v>{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1},{ 'reg': 124, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1},{ 'reg': 26, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Analizar y aplicar el marco legal normativo para la elaboración de los Estados Financieros.', 'offset':1},</v>
       </c>
-      <c r="O47" s="14" t="str">
+      <c r="O47" s="15" t="str">
         <f aca="false">IF(E47=E48,"","{'"&amp;E$1&amp;"': "&amp;E47&amp;", '"&amp;B$1&amp;"': '"&amp;B47&amp;"',  'editing': false, 'tipo': '"&amp;A47&amp;"', 'data': "&amp;"["&amp;N47&amp;"],  },")</f>
         <v/>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B48" s="6" t="n">
+      <c r="A48" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" s="7" t="n">
         <f aca="false">+B47</f>
         <v>3.5</v>
       </c>
-      <c r="E48" s="6" t="n">
+      <c r="E48" s="7" t="n">
         <f aca="false">+E47</f>
         <v>3</v>
       </c>
-      <c r="F48" s="6" t="n">
+      <c r="F48" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="G48" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I48" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="J48" s="10" t="n">
+      <c r="G48" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I48" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="J48" s="11" t="n">
         <f aca="false">IF(E47=E48,1,F48)</f>
         <v>1</v>
       </c>
-      <c r="K48" s="10" t="n">
+      <c r="K48" s="11" t="n">
         <v>40</v>
       </c>
-      <c r="M48" s="10" t="str">
+      <c r="M48" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K48&amp;", '"&amp;L$1&amp;"': '"&amp;L48&amp;"', '"&amp;F$1&amp;"': "&amp;F48&amp;", '"&amp;G$1&amp;"': "&amp;G48&amp;", '"&amp;H$1&amp;"': '"&amp;H48&amp;"', '"&amp;I$1&amp;"': '"&amp;I48&amp;"', '"&amp;J$1&amp;"':"&amp;J48&amp;"}, "</f>
         <v>{ 'reg': 40, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada', 'offset':1},</v>
       </c>
-      <c r="N48" s="6" t="str">
+      <c r="N48" s="7" t="str">
         <f aca="false">IF(E47=E48,CONCATENATE(N47,M48),M48)</f>
         <v>{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1},{ 'reg': 124, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1},{ 'reg': 26, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Analizar y aplicar el marco legal normativo para la elaboración de los Estados Financieros.', 'offset':1},{ 'reg': 40, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada', 'offset':1},</v>
       </c>
-      <c r="O48" s="14" t="str">
+      <c r="O48" s="15" t="str">
         <f aca="false">IF(E48=E49,"","{'"&amp;E$1&amp;"': "&amp;E48&amp;", '"&amp;B$1&amp;"': '"&amp;B48&amp;"',  'editing': false, 'tipo': '"&amp;A48&amp;"', 'data': "&amp;"["&amp;N48&amp;"],  },")</f>
         <v>{'row': 3, 'week': '3.5',  'editing': false, 'tipo': 'contenidos', 'data': [{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1},{ 'reg': 124, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1},{ 'reg': 26, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Analizar y aplicar el marco legal normativo para la elaboración de los Estados Financieros.', 'offset':1},{ 'reg': 40, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada', 'offset':1},],  },</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B49" s="6" t="n">
+      <c r="A49" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" s="7" t="n">
         <v>4.5</v>
       </c>
-      <c r="E49" s="6" t="n">
+      <c r="E49" s="7" t="n">
         <f aca="false">+E48+1</f>
         <v>4</v>
       </c>
-      <c r="F49" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G49" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I49" s="10" t="n">
+      <c r="F49" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I49" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="J49" s="10" t="n">
+      <c r="J49" s="11" t="n">
         <f aca="false">IF(E48=E49,1,F49)</f>
         <v>1</v>
       </c>
-      <c r="K49" s="10" t="n">
+      <c r="K49" s="11" t="n">
         <v>43</v>
       </c>
-      <c r="M49" s="10" t="str">
+      <c r="M49" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K49&amp;", '"&amp;L$1&amp;"': '"&amp;L49&amp;"', '"&amp;F$1&amp;"': "&amp;F49&amp;", '"&amp;G$1&amp;"': "&amp;G49&amp;", '"&amp;H$1&amp;"': '"&amp;H49&amp;"', '"&amp;I$1&amp;"': '"&amp;I49&amp;"', '"&amp;J$1&amp;"':"&amp;J49&amp;"}, "</f>
         <v>{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1},</v>
       </c>
-      <c r="N49" s="6" t="str">
+      <c r="N49" s="7" t="str">
         <f aca="false">IF(E48=E49,CONCATENATE(N48,M49),M49)</f>
         <v>{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1},</v>
       </c>
-      <c r="O49" s="14" t="str">
+      <c r="O49" s="15" t="str">
         <f aca="false">IF(E49=E50,"","{'"&amp;E$1&amp;"': "&amp;E49&amp;", '"&amp;B$1&amp;"': '"&amp;B49&amp;"',  'editing': false, 'tipo': '"&amp;A49&amp;"', 'data': "&amp;"["&amp;N49&amp;"],  },")</f>
         <v/>
       </c>
     </row>
     <row r="50" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B50" s="6" t="n">
+      <c r="A50" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50" s="7" t="n">
         <f aca="false">+B49</f>
         <v>4.5</v>
       </c>
-      <c r="E50" s="6" t="n">
+      <c r="E50" s="7" t="n">
         <f aca="false">+E49</f>
         <v>4</v>
       </c>
-      <c r="F50" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G50" s="6" t="n">
+      <c r="F50" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G50" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="H50" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I50" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="J50" s="10" t="n">
+      <c r="H50" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I50" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="J50" s="11" t="n">
         <f aca="false">IF(E49=E50,1,F50)</f>
         <v>1</v>
       </c>
-      <c r="K50" s="10" t="n">
+      <c r="K50" s="11" t="n">
         <v>62</v>
       </c>
-      <c r="M50" s="10" t="str">
+      <c r="M50" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K50&amp;", '"&amp;L$1&amp;"': '"&amp;L50&amp;"', '"&amp;F$1&amp;"': "&amp;F50&amp;", '"&amp;G$1&amp;"': "&amp;G50&amp;", '"&amp;H$1&amp;"': '"&amp;H50&amp;"', '"&amp;I$1&amp;"': '"&amp;I50&amp;"', '"&amp;J$1&amp;"':"&amp;J50&amp;"}, "</f>
         <v>{ 'reg': 62, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1},</v>
       </c>
-      <c r="N50" s="6" t="str">
+      <c r="N50" s="7" t="str">
         <f aca="false">IF(E49=E50,CONCATENATE(N49,M50),M50)</f>
         <v>{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1},{ 'reg': 62, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1},</v>
       </c>
-      <c r="O50" s="14" t="str">
+      <c r="O50" s="15" t="str">
         <f aca="false">IF(E50=E51,"","{'"&amp;E$1&amp;"': "&amp;E50&amp;", '"&amp;B$1&amp;"': '"&amp;B50&amp;"',  'editing': false, 'tipo': '"&amp;A50&amp;"', 'data': "&amp;"["&amp;N50&amp;"],  },")</f>
         <v/>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B51" s="6" t="n">
+      <c r="A51" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" s="7" t="n">
         <f aca="false">+B50</f>
         <v>4.5</v>
       </c>
-      <c r="E51" s="6" t="n">
+      <c r="E51" s="7" t="n">
         <f aca="false">+E50</f>
         <v>4</v>
       </c>
-      <c r="F51" s="6" t="n">
+      <c r="F51" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="G51" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I51" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="J51" s="10" t="n">
+      <c r="G51" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="J51" s="11" t="n">
         <f aca="false">IF(E50=E51,1,F51)</f>
         <v>1</v>
       </c>
-      <c r="K51" s="10" t="n">
+      <c r="K51" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="M51" s="10" t="str">
+      <c r="M51" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K51&amp;", '"&amp;L$1&amp;"': '"&amp;L51&amp;"', '"&amp;F$1&amp;"': "&amp;F51&amp;", '"&amp;G$1&amp;"': "&amp;G51&amp;", '"&amp;H$1&amp;"': '"&amp;H51&amp;"', '"&amp;I$1&amp;"': '"&amp;I51&amp;"', '"&amp;J$1&amp;"':"&amp;J51&amp;"}, "</f>
         <v>{ 'reg': 10, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Evalúa los resultados obtenidos. Demuestra la aplicación del análisis vertical y horizontal.', 'offset':1},</v>
       </c>
-      <c r="N51" s="6" t="str">
+      <c r="N51" s="7" t="str">
         <f aca="false">IF(E50=E51,CONCATENATE(N50,M51),M51)</f>
         <v>{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1},{ 'reg': 62, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1},{ 'reg': 10, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Evalúa los resultados obtenidos. Demuestra la aplicación del análisis vertical y horizontal.', 'offset':1},</v>
       </c>
-      <c r="O51" s="14" t="str">
+      <c r="O51" s="15" t="str">
         <f aca="false">IF(E51=E52,"","{'"&amp;E$1&amp;"': "&amp;E51&amp;", '"&amp;B$1&amp;"': '"&amp;B51&amp;"',  'editing': false, 'tipo': '"&amp;A51&amp;"', 'data': "&amp;"["&amp;N51&amp;"],  },")</f>
         <v/>
       </c>
     </row>
     <row r="52" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B52" s="6" t="n">
+      <c r="A52" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52" s="7" t="n">
         <f aca="false">+B51</f>
         <v>4.5</v>
       </c>
-      <c r="E52" s="6" t="n">
+      <c r="E52" s="7" t="n">
         <f aca="false">+E51</f>
         <v>4</v>
       </c>
-      <c r="F52" s="6" t="n">
+      <c r="F52" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="G52" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I52" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="J52" s="10" t="n">
+      <c r="G52" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I52" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="J52" s="11" t="n">
         <f aca="false">IF(E51=E52,1,F52)</f>
         <v>1</v>
       </c>
-      <c r="K52" s="10" t="n">
+      <c r="K52" s="11" t="n">
         <v>82</v>
       </c>
-      <c r="M52" s="10" t="str">
+      <c r="M52" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K52&amp;", '"&amp;L$1&amp;"': '"&amp;L52&amp;"', '"&amp;F$1&amp;"': "&amp;F52&amp;", '"&amp;G$1&amp;"': "&amp;G52&amp;", '"&amp;H$1&amp;"': '"&amp;H52&amp;"', '"&amp;I$1&amp;"': '"&amp;I52&amp;"', '"&amp;J$1&amp;"':"&amp;J52&amp;"}, "</f>
         <v>{ 'reg': 82, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Clase Expositiva\n Taller\n  Discusión de caso', 'offset':1},</v>
       </c>
-      <c r="N52" s="6" t="str">
+      <c r="N52" s="7" t="str">
         <f aca="false">IF(E51=E52,CONCATENATE(N51,M52),M52)</f>
         <v>{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1},{ 'reg': 62, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1},{ 'reg': 10, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Evalúa los resultados obtenidos. Demuestra la aplicación del análisis vertical y horizontal.', 'offset':1},{ 'reg': 82, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Clase Expositiva\n Taller\n  Discusión de caso', 'offset':1},</v>
       </c>
-      <c r="O52" s="14" t="str">
+      <c r="O52" s="15" t="str">
         <f aca="false">IF(E52=E53,"","{'"&amp;E$1&amp;"': "&amp;E52&amp;", '"&amp;B$1&amp;"': '"&amp;B52&amp;"',  'editing': false, 'tipo': '"&amp;A52&amp;"', 'data': "&amp;"["&amp;N52&amp;"],  },")</f>
         <v>{'row': 4, 'week': '4.5',  'editing': false, 'tipo': 'contenidos', 'data': [{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1},{ 'reg': 62, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1},{ 'reg': 10, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Evalúa los resultados obtenidos. Demuestra la aplicación del análisis vertical y horizontal.', 'offset':1},{ 'reg': 82, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Clase Expositiva\n Taller\n  Discusión de caso', 'offset':1},],  },</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="B53" s="6" t="n">
+      <c r="A53" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="B53" s="7" t="n">
         <v>4.9</v>
       </c>
-      <c r="E53" s="6" t="n">
+      <c r="E53" s="7" t="n">
         <f aca="false">+E52+1</f>
         <v>5</v>
       </c>
-      <c r="F53" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G53" s="6" t="n">
+      <c r="F53" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G53" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="H53" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I53" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="J53" s="10" t="n">
+      <c r="H53" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I53" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="J53" s="11" t="n">
         <f aca="false">IF(E52=E53,1,F53)</f>
         <v>2</v>
       </c>
-      <c r="K53" s="10" t="n">
+      <c r="K53" s="11" t="n">
         <v>19</v>
       </c>
-      <c r="M53" s="10" t="str">
+      <c r="M53" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K53&amp;", '"&amp;L$1&amp;"': '"&amp;L53&amp;"', '"&amp;F$1&amp;"': "&amp;F53&amp;", '"&amp;G$1&amp;"': "&amp;G53&amp;", '"&amp;H$1&amp;"': '"&amp;H53&amp;"', '"&amp;I$1&amp;"': '"&amp;I53&amp;"', '"&amp;J$1&amp;"':"&amp;J53&amp;"}, "</f>
         <v>{ 'reg': 19, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'center', 'texto': 'EVALUACIÓN PARCIAL 1 ', 'offset':2},</v>
       </c>
-      <c r="N53" s="6" t="str">
+      <c r="N53" s="7" t="str">
         <f aca="false">IF(E52=E53,CONCATENATE(N52,M53),M53)</f>
         <v>{ 'reg': 19, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'center', 'texto': 'EVALUACIÓN PARCIAL 1 ', 'offset':2},</v>
       </c>
-      <c r="O53" s="14" t="str">
+      <c r="O53" s="15" t="str">
         <f aca="false">IF(E53=E54,"","{'"&amp;E$1&amp;"': "&amp;E53&amp;", '"&amp;B$1&amp;"': '"&amp;B53&amp;"',  'editing': false, 'tipo': '"&amp;A53&amp;"', 'data': "&amp;"["&amp;N53&amp;"],  },")</f>
         <v>{'row': 5, 'week': '4.9',  'editing': false, 'tipo': 'examenes', 'data': [{ 'reg': 19, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'center', 'texto': 'EVALUACIÓN PARCIAL 1 ', 'offset':2},],  },</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B54" s="6" t="n">
+      <c r="A54" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" s="7" t="n">
         <v>5.5</v>
       </c>
-      <c r="E54" s="6" t="n">
+      <c r="E54" s="7" t="n">
         <f aca="false">+E53+1</f>
         <v>6</v>
       </c>
-      <c r="F54" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G54" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I54" s="10" t="n">
+      <c r="F54" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I54" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="J54" s="10" t="n">
+      <c r="J54" s="11" t="n">
         <f aca="false">IF(E53=E54,1,F54)</f>
         <v>1</v>
       </c>
-      <c r="K54" s="10" t="n">
+      <c r="K54" s="11" t="n">
         <v>82</v>
       </c>
-      <c r="M54" s="10" t="str">
+      <c r="M54" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K54&amp;", '"&amp;L$1&amp;"': '"&amp;L54&amp;"', '"&amp;F$1&amp;"': "&amp;F54&amp;", '"&amp;G$1&amp;"': "&amp;G54&amp;", '"&amp;H$1&amp;"': '"&amp;H54&amp;"', '"&amp;I$1&amp;"': '"&amp;I54&amp;"', '"&amp;J$1&amp;"':"&amp;J54&amp;"}, "</f>
         <v>{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1},</v>
       </c>
-      <c r="N54" s="6" t="str">
+      <c r="N54" s="7" t="str">
         <f aca="false">IF(E53=E54,CONCATENATE(N53,M54),M54)</f>
         <v>{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1},</v>
       </c>
-      <c r="O54" s="14" t="str">
+      <c r="O54" s="15" t="str">
         <f aca="false">IF(E54=E55,"","{'"&amp;E$1&amp;"': "&amp;E54&amp;", '"&amp;B$1&amp;"': '"&amp;B54&amp;"',  'editing': false, 'tipo': '"&amp;A54&amp;"', 'data': "&amp;"["&amp;N54&amp;"],  },")</f>
         <v/>
       </c>
     </row>
     <row r="55" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B55" s="6" t="n">
+      <c r="A55" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" s="7" t="n">
         <f aca="false">+B54</f>
         <v>5.5</v>
       </c>
-      <c r="E55" s="6" t="n">
+      <c r="E55" s="7" t="n">
         <f aca="false">+E54</f>
         <v>6</v>
       </c>
-      <c r="F55" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G55" s="6" t="n">
+      <c r="F55" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G55" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="I55" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="J55" s="10" t="n">
+      <c r="I55" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="J55" s="11" t="n">
         <f aca="false">IF(E54=E55,1,F55)</f>
         <v>1</v>
       </c>
-      <c r="K55" s="10" t="n">
+      <c r="K55" s="11" t="n">
         <v>61</v>
       </c>
-      <c r="M55" s="10" t="str">
+      <c r="M55" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K55&amp;", '"&amp;L$1&amp;"': '"&amp;L55&amp;"', '"&amp;F$1&amp;"': "&amp;F55&amp;", '"&amp;G$1&amp;"': "&amp;G55&amp;", '"&amp;H$1&amp;"': '"&amp;H55&amp;"', '"&amp;I$1&amp;"': '"&amp;I55&amp;"', '"&amp;J$1&amp;"':"&amp;J55&amp;"}, "</f>
         <v>{ 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1},</v>
       </c>
-      <c r="N55" s="6" t="str">
+      <c r="N55" s="7" t="str">
         <f aca="false">IF(E54=E55,CONCATENATE(N54,M55),M55)</f>
         <v>{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1},{ 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1},</v>
       </c>
-      <c r="O55" s="14" t="str">
+      <c r="O55" s="15" t="str">
         <f aca="false">IF(E55=E56,"","{'"&amp;E$1&amp;"': "&amp;E55&amp;", '"&amp;B$1&amp;"': '"&amp;B55&amp;"',  'editing': false, 'tipo': '"&amp;A55&amp;"', 'data': "&amp;"["&amp;N55&amp;"],  },")</f>
         <v/>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B56" s="6" t="n">
+      <c r="A56" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56" s="7" t="n">
         <f aca="false">+B55</f>
         <v>5.5</v>
       </c>
-      <c r="E56" s="6" t="n">
+      <c r="E56" s="7" t="n">
         <f aca="false">+E55</f>
         <v>6</v>
       </c>
-      <c r="F56" s="6" t="n">
+      <c r="F56" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="G56" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="J56" s="10" t="n">
+      <c r="G56" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I56" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="J56" s="11" t="n">
         <f aca="false">IF(E55=E56,1,F56)</f>
         <v>1</v>
       </c>
-      <c r="K56" s="10" t="n">
+      <c r="K56" s="11" t="n">
         <v>39</v>
       </c>
-      <c r="M56" s="10" t="str">
+      <c r="M56" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K56&amp;", '"&amp;L$1&amp;"': '"&amp;L56&amp;"', '"&amp;F$1&amp;"': "&amp;F56&amp;", '"&amp;G$1&amp;"': "&amp;G56&amp;", '"&amp;H$1&amp;"': '"&amp;H56&amp;"', '"&amp;I$1&amp;"': '"&amp;I56&amp;"', '"&amp;J$1&amp;"':"&amp;J56&amp;"}, "</f>
         <v>{ 'reg': 39, 'subtipo': '', 'col': 4, 'cols': 2, 'align': '', 'texto': 'Propicia un debate acerca de la toma de decisiones en una empresa.', 'offset':1},</v>
       </c>
-      <c r="N56" s="6" t="str">
+      <c r="N56" s="7" t="str">
         <f aca="false">IF(E55=E56,CONCATENATE(N55,M56),M56)</f>
         <v>{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1},{ 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1},{ 'reg': 39, 'subtipo': '', 'col': 4, 'cols': 2, 'align': '', 'texto': 'Propicia un debate acerca de la toma de decisiones en una empresa.', 'offset':1},</v>
       </c>
-      <c r="O56" s="14" t="str">
+      <c r="O56" s="15" t="str">
         <f aca="false">IF(E56=E57,"","{'"&amp;E$1&amp;"': "&amp;E56&amp;", '"&amp;B$1&amp;"': '"&amp;B56&amp;"',  'editing': false, 'tipo': '"&amp;A56&amp;"', 'data': "&amp;"["&amp;N56&amp;"],  },")</f>
         <v/>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B57" s="6" t="n">
+      <c r="A57" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" s="7" t="n">
         <f aca="false">+B56</f>
         <v>5.5</v>
       </c>
-      <c r="E57" s="6" t="n">
+      <c r="E57" s="7" t="n">
         <f aca="false">+E56</f>
         <v>6</v>
       </c>
-      <c r="F57" s="6" t="n">
+      <c r="F57" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="G57" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I57" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="J57" s="10" t="n">
+      <c r="G57" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I57" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J57" s="11" t="n">
         <f aca="false">IF(E56=E57,1,F57)</f>
         <v>1</v>
       </c>
-      <c r="K57" s="10" t="n">
+      <c r="K57" s="11" t="n">
         <v>69</v>
       </c>
-      <c r="M57" s="10" t="str">
+      <c r="M57" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K57&amp;", '"&amp;L$1&amp;"': '"&amp;L57&amp;"', '"&amp;F$1&amp;"': "&amp;F57&amp;", '"&amp;G$1&amp;"': "&amp;G57&amp;", '"&amp;H$1&amp;"': '"&amp;H57&amp;"', '"&amp;I$1&amp;"': '"&amp;I57&amp;"', '"&amp;J$1&amp;"':"&amp;J57&amp;"}, "</f>
         <v>{ 'reg': 69, 'subtipo': '', 'col': 6, 'cols': 2, 'align': '', 'texto': 'Exposición dialogada', 'offset':1},</v>
       </c>
-      <c r="N57" s="6" t="str">
+      <c r="N57" s="7" t="str">
         <f aca="false">IF(E56=E57,CONCATENATE(N56,M57),M57)</f>
         <v>{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1},{ 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1},{ 'reg': 39, 'subtipo': '', 'col': 4, 'cols': 2, 'align': '', 'texto': 'Propicia un debate acerca de la toma de decisiones en una empresa.', 'offset':1},{ 'reg': 69, 'subtipo': '', 'col': 6, 'cols': 2, 'align': '', 'texto': 'Exposición dialogada', 'offset':1},</v>
       </c>
-      <c r="O57" s="14" t="str">
+      <c r="O57" s="15" t="str">
         <f aca="false">IF(E57=E58,"","{'"&amp;E$1&amp;"': "&amp;E57&amp;", '"&amp;B$1&amp;"': '"&amp;B57&amp;"',  'editing': false, 'tipo': '"&amp;A57&amp;"', 'data': "&amp;"["&amp;N57&amp;"],  },")</f>
         <v>{'row': 6, 'week': '5.5',  'editing': false, 'tipo': 'contenidos', 'data': [{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1},{ 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1},{ 'reg': 39, 'subtipo': '', 'col': 4, 'cols': 2, 'align': '', 'texto': 'Propicia un debate acerca de la toma de decisiones en una empresa.', 'offset':1},{ 'reg': 69, 'subtipo': '', 'col': 6, 'cols': 2, 'align': '', 'texto': 'Exposición dialogada', 'offset':1},],  },</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B58" s="6" t="n">
+      <c r="A58" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="E58" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F58" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G58" s="6" t="n">
+      <c r="E58" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F58" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="H58" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I58" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="J58" s="10" t="n">
+      <c r="H58" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I58" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="J58" s="11" t="n">
         <f aca="false">IF(E57=E58,1,F58)</f>
         <v>1</v>
       </c>
-      <c r="K58" s="10" t="n">
+      <c r="K58" s="11" t="n">
         <v>124</v>
       </c>
-      <c r="M58" s="10" t="str">
+      <c r="M58" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K58&amp;", '"&amp;L$1&amp;"': '"&amp;L58&amp;"', '"&amp;F$1&amp;"': "&amp;F58&amp;", '"&amp;G$1&amp;"': "&amp;G58&amp;", '"&amp;H$1&amp;"': '"&amp;H58&amp;"', '"&amp;I$1&amp;"': '"&amp;I58&amp;"', '"&amp;J$1&amp;"':"&amp;J58&amp;"}, "</f>
         <v>{ 'reg': 124, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD II: ANALISIS E INTERPRETACION DE LOS ESTADOS FINANCIEROS', 'offset':1},</v>
       </c>
-      <c r="N58" s="6" t="str">
+      <c r="N58" s="7" t="str">
         <f aca="false">IF(E57=E58,CONCATENATE(N57,M58),M58)</f>
         <v>{ 'reg': 124, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD II: ANALISIS E INTERPRETACION DE LOS ESTADOS FINANCIEROS', 'offset':1},</v>
       </c>
-      <c r="O58" s="14" t="str">
+      <c r="O58" s="15" t="str">
         <f aca="false">IF(E58=E59,"","{'"&amp;E$1&amp;"': "&amp;E58&amp;", '"&amp;B$1&amp;"': '"&amp;B58&amp;"',  'editing': false, 'tipo': '"&amp;A58&amp;"', 'data': "&amp;"["&amp;N58&amp;"],  },")</f>
         <v>{'row': 2, 'week': '6',  'editing': false, 'tipo': 'unidades', 'data': [{ 'reg': 124, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD II: ANALISIS E INTERPRETACION DE LOS ESTADOS FINANCIEROS', 'offset':1},],  },</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B59" s="6" t="n">
+      <c r="A59" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B59" s="7" t="n">
         <v>6.2</v>
       </c>
-      <c r="E59" s="12" t="n">
+      <c r="E59" s="13" t="n">
         <f aca="false">+E58+1</f>
         <v>3</v>
       </c>
-      <c r="F59" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G59" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I59" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="J59" s="10" t="n">
+      <c r="F59" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I59" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="J59" s="11" t="n">
         <f aca="false">IF(E58=E59,1,F59)</f>
         <v>1</v>
       </c>
-      <c r="K59" s="10" t="n">
+      <c r="K59" s="11" t="n">
         <v>62</v>
       </c>
-      <c r="M59" s="10" t="str">
+      <c r="M59" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K59&amp;", '"&amp;L$1&amp;"': '"&amp;L59&amp;"', '"&amp;F$1&amp;"': "&amp;F59&amp;", '"&amp;G$1&amp;"': "&amp;G59&amp;", '"&amp;H$1&amp;"': '"&amp;H59&amp;"', '"&amp;I$1&amp;"': '"&amp;I59&amp;"', '"&amp;J$1&amp;"':"&amp;J59&amp;"}, "</f>
         <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1},</v>
       </c>
-      <c r="N59" s="6" t="str">
+      <c r="N59" s="7" t="str">
         <f aca="false">IF(E58=E59,CONCATENATE(N58,M59),M59)</f>
         <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1},</v>
       </c>
-      <c r="O59" s="14" t="str">
+      <c r="O59" s="15" t="str">
         <f aca="false">IF(E59=E60,"","{'"&amp;E$1&amp;"': "&amp;E59&amp;", '"&amp;B$1&amp;"': '"&amp;B59&amp;"',  'editing': false, 'tipo': '"&amp;A59&amp;"', 'data': "&amp;"["&amp;N59&amp;"],  },")</f>
         <v/>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B60" s="6" t="n">
+      <c r="A60" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B60" s="7" t="n">
         <f aca="false">+B59</f>
         <v>6.2</v>
       </c>
-      <c r="E60" s="6" t="n">
+      <c r="E60" s="7" t="n">
         <f aca="false">+E59</f>
         <v>3</v>
       </c>
-      <c r="F60" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G60" s="6" t="n">
+      <c r="F60" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G60" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="H60" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I60" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="J60" s="10" t="n">
+      <c r="H60" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I60" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J60" s="11" t="n">
         <f aca="false">IF(E59=E60,1,F60)</f>
         <v>1</v>
       </c>
-      <c r="K60" s="10" t="n">
+      <c r="K60" s="11" t="n">
         <v>61</v>
       </c>
-      <c r="M60" s="10" t="str">
+      <c r="M60" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K60&amp;", '"&amp;L$1&amp;"': '"&amp;L60&amp;"', '"&amp;F$1&amp;"': "&amp;F60&amp;", '"&amp;G$1&amp;"': "&amp;G60&amp;", '"&amp;H$1&amp;"': '"&amp;H60&amp;"', '"&amp;I$1&amp;"': '"&amp;I60&amp;"', '"&amp;J$1&amp;"':"&amp;J60&amp;"}, "</f>
         <v>{ 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1},</v>
       </c>
-      <c r="N60" s="6" t="str">
+      <c r="N60" s="7" t="str">
         <f aca="false">IF(E59=E60,CONCATENATE(N59,M60),M60)</f>
         <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1},{ 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1},</v>
       </c>
-      <c r="O60" s="14" t="str">
+      <c r="O60" s="15" t="str">
         <f aca="false">IF(E60=E61,"","{'"&amp;E$1&amp;"': "&amp;E60&amp;", '"&amp;B$1&amp;"': '"&amp;B60&amp;"',  'editing': false, 'tipo': '"&amp;A60&amp;"', 'data': "&amp;"["&amp;N60&amp;"],  },")</f>
         <v/>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B61" s="6" t="n">
+      <c r="A61" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B61" s="7" t="n">
         <f aca="false">+B60</f>
         <v>6.2</v>
       </c>
-      <c r="E61" s="6" t="n">
+      <c r="E61" s="7" t="n">
         <f aca="false">+E60</f>
         <v>3</v>
       </c>
-      <c r="F61" s="6" t="n">
+      <c r="F61" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="G61" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H61" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I61" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="J61" s="10" t="n">
+      <c r="G61" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I61" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="J61" s="11" t="n">
         <f aca="false">IF(E60=E61,1,F61)</f>
         <v>1</v>
       </c>
-      <c r="K61" s="10" t="n">
+      <c r="K61" s="11" t="n">
         <v>73</v>
       </c>
-      <c r="M61" s="10" t="str">
+      <c r="M61" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K61&amp;", '"&amp;L$1&amp;"': '"&amp;L61&amp;"', '"&amp;F$1&amp;"': "&amp;F61&amp;", '"&amp;G$1&amp;"': "&amp;G61&amp;", '"&amp;H$1&amp;"': '"&amp;H61&amp;"', '"&amp;I$1&amp;"': '"&amp;I61&amp;"', '"&amp;J$1&amp;"':"&amp;J61&amp;"}, "</f>
         <v>{ 'reg': 73, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1},</v>
       </c>
-      <c r="N61" s="6" t="str">
+      <c r="N61" s="7" t="str">
         <f aca="false">IF(E60=E61,CONCATENATE(N60,M61),M61)</f>
         <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1},{ 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1},{ 'reg': 73, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1},</v>
       </c>
-      <c r="O61" s="14" t="str">
+      <c r="O61" s="15" t="str">
         <f aca="false">IF(E61=E62,"","{'"&amp;E$1&amp;"': "&amp;E61&amp;", '"&amp;B$1&amp;"': '"&amp;B61&amp;"',  'editing': false, 'tipo': '"&amp;A61&amp;"', 'data': "&amp;"["&amp;N61&amp;"],  },")</f>
         <v/>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B62" s="6" t="n">
+      <c r="A62" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B62" s="7" t="n">
         <f aca="false">+B61</f>
         <v>6.2</v>
       </c>
-      <c r="E62" s="6" t="n">
+      <c r="E62" s="7" t="n">
         <f aca="false">+E61</f>
         <v>3</v>
       </c>
-      <c r="F62" s="6" t="n">
+      <c r="F62" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="G62" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H62" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I62" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="J62" s="10" t="n">
+      <c r="G62" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I62" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="J62" s="11" t="n">
         <f aca="false">IF(E61=E62,1,F62)</f>
         <v>1</v>
       </c>
-      <c r="K62" s="10" t="n">
+      <c r="K62" s="11" t="n">
         <v>27</v>
       </c>
-      <c r="M62" s="10" t="str">
+      <c r="M62" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K62&amp;", '"&amp;L$1&amp;"': '"&amp;L62&amp;"', '"&amp;F$1&amp;"': "&amp;F62&amp;", '"&amp;G$1&amp;"': "&amp;G62&amp;", '"&amp;H$1&amp;"': '"&amp;H62&amp;"', '"&amp;I$1&amp;"': '"&amp;I62&amp;"', '"&amp;J$1&amp;"':"&amp;J62&amp;"}, "</f>
         <v>{ 'reg': 27, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1},</v>
       </c>
-      <c r="N62" s="6" t="str">
+      <c r="N62" s="7" t="str">
         <f aca="false">IF(E61=E62,CONCATENATE(N61,M62),M62)</f>
         <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1},{ 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1},{ 'reg': 73, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1},{ 'reg': 27, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1},</v>
       </c>
-      <c r="O62" s="14" t="str">
+      <c r="O62" s="15" t="str">
         <f aca="false">IF(E62=E63,"","{'"&amp;E$1&amp;"': "&amp;E62&amp;", '"&amp;B$1&amp;"': '"&amp;B62&amp;"',  'editing': false, 'tipo': '"&amp;A62&amp;"', 'data': "&amp;"["&amp;N62&amp;"],  },")</f>
         <v>{'row': 3, 'week': '6.2',  'editing': false, 'tipo': 'titulo3', 'data': [{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1},{ 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1},{ 'reg': 73, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1},{ 'reg': 27, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1},],  },</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="E63" s="6" t="n">
+      <c r="A63" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E63" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="F63" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G63" s="6" t="n">
+      <c r="F63" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="H63" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I63" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="J63" s="10" t="n">
+      <c r="H63" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I63" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="J63" s="11" t="n">
         <f aca="false">IF(E62=E63,1,F63)</f>
         <v>1</v>
       </c>
-      <c r="K63" s="10" t="n">
+      <c r="K63" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="L63" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="M63" s="10" t="str">
+      <c r="L63" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M63" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K63&amp;", '"&amp;L$1&amp;"': '"&amp;L63&amp;"', '"&amp;F$1&amp;"': "&amp;F63&amp;", '"&amp;G$1&amp;"': "&amp;G63&amp;", '"&amp;H$1&amp;"': '"&amp;H63&amp;"', '"&amp;I$1&amp;"': '"&amp;I63&amp;"', '"&amp;J$1&amp;"':"&amp;J63&amp;"}, "</f>
         <v>{ 'reg': 6, 'subtipo': 'estrategias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'V. ESTRATEGIAS METODOLÓGICAS', 'offset':1},</v>
       </c>
-      <c r="N63" s="6" t="str">
+      <c r="N63" s="7" t="str">
         <f aca="false">IF(E62=E63,CONCATENATE(N62,M63),M63)</f>
         <v>{ 'reg': 6, 'subtipo': 'estrategias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'V. ESTRATEGIAS METODOLÓGICAS', 'offset':1},</v>
       </c>
-      <c r="O63" s="14" t="str">
+      <c r="O63" s="15" t="str">
         <f aca="false">IF(E63=E64,"","{'"&amp;E$1&amp;"': "&amp;E63&amp;", '"&amp;B$1&amp;"': '"&amp;B63&amp;"',  'editing': false, 'tipo': '"&amp;A63&amp;"', 'data': "&amp;"["&amp;N63&amp;"],  },")</f>
         <v>{'row': 5, 'week': '',  'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 6, 'subtipo': 'estrategias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'V. ESTRATEGIAS METODOLÓGICAS', 'offset':1},],  },</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="E64" s="6" t="n">
+      <c r="A64" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E64" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="F64" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G64" s="6" t="n">
+      <c r="F64" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G64" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="H64" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I64" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="J64" s="10" t="n">
+      <c r="H64" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I64" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="J64" s="11" t="n">
         <f aca="false">IF(E63=E64,1,F64)</f>
         <v>1</v>
       </c>
-      <c r="K64" s="10" t="n">
+      <c r="K64" s="11" t="n">
         <v>75</v>
       </c>
-      <c r="L64" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="M64" s="10" t="str">
+      <c r="L64" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M64" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K64&amp;", '"&amp;L$1&amp;"': '"&amp;L64&amp;"', '"&amp;F$1&amp;"': "&amp;F64&amp;", '"&amp;G$1&amp;"': "&amp;G64&amp;", '"&amp;H$1&amp;"': '"&amp;H64&amp;"', '"&amp;I$1&amp;"': '"&amp;I64&amp;"', '"&amp;J$1&amp;"':"&amp;J64&amp;"}, "</f>
         <v>{ 'reg': 75, 'subtipo': 'evaluaciones', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VI. EVALUACIÓN', 'offset':1},</v>
       </c>
-      <c r="N64" s="6" t="str">
+      <c r="N64" s="7" t="str">
         <f aca="false">IF(E63=E64,CONCATENATE(N63,M64),M64)</f>
         <v>{ 'reg': 75, 'subtipo': 'evaluaciones', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VI. EVALUACIÓN', 'offset':1},</v>
       </c>
-      <c r="O64" s="14" t="str">
+      <c r="O64" s="15" t="str">
         <f aca="false">IF(E64=E65,"","{'"&amp;E$1&amp;"': "&amp;E64&amp;", '"&amp;B$1&amp;"': '"&amp;B64&amp;"',  'editing': false, 'tipo': '"&amp;A64&amp;"', 'data': "&amp;"["&amp;N64&amp;"],  },")</f>
         <v>{'row': 6, 'week': '',  'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 75, 'subtipo': 'evaluaciones', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VI. EVALUACIÓN', 'offset':1},],  },</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="E65" s="6" t="n">
+      <c r="A65" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E65" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="F65" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G65" s="6" t="n">
+      <c r="F65" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="H65" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I65" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="J65" s="10" t="n">
+      <c r="H65" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I65" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="J65" s="11" t="n">
         <f aca="false">IF(E64=E65,1,F65)</f>
         <v>1</v>
       </c>
-      <c r="K65" s="10" t="n">
+      <c r="K65" s="11" t="n">
         <v>102</v>
       </c>
-      <c r="L65" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="M65" s="10" t="str">
+      <c r="L65" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M65" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K65&amp;", '"&amp;L$1&amp;"': '"&amp;L65&amp;"', '"&amp;F$1&amp;"': "&amp;F65&amp;", '"&amp;G$1&amp;"': "&amp;G65&amp;", '"&amp;H$1&amp;"': '"&amp;H65&amp;"', '"&amp;I$1&amp;"': '"&amp;I65&amp;"', '"&amp;J$1&amp;"':"&amp;J65&amp;"}, "</f>
         <v>{ 'reg': 102, 'subtipo': 'bibliografias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VII. BIBLIOGRAFÍA', 'offset':1},</v>
       </c>
-      <c r="N65" s="6" t="str">
+      <c r="N65" s="7" t="str">
         <f aca="false">IF(E64=E65,CONCATENATE(N64,M65),M65)</f>
         <v>{ 'reg': 102, 'subtipo': 'bibliografias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VII. BIBLIOGRAFÍA', 'offset':1},</v>
       </c>
-      <c r="O65" s="14" t="str">
+      <c r="O65" s="15" t="str">
         <f aca="false">IF(E65=E66,"","{'"&amp;E$1&amp;"': "&amp;E65&amp;", '"&amp;B$1&amp;"': '"&amp;B65&amp;"',  'editing': false, 'tipo': '"&amp;A65&amp;"', 'data': "&amp;"["&amp;N65&amp;"],  },")</f>
         <v>{'row': 7, 'week': '',  'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 102, 'subtipo': 'bibliografias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VII. BIBLIOGRAFÍA', 'offset':1},],  },</v>
       </c>
@@ -5052,8 +5392,8 @@
   </sheetPr>
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="G2:G20 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5071,440 +5411,440 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>5</v>
+        <v>157</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>190</v>
+        <v>17</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>189</v>
+        <v>204</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>203</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>5</v>
+        <v>157</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>161</v>
+        <v>18</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>189</v>
+        <v>204</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>203</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>194</v>
+        <v>157</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>167</v>
+        <v>19</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>5</v>
+        <v>208</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>157</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>158</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>189</v>
+        <v>204</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>203</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>5</v>
+        <v>208</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>181</v>
+        <v>21</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>5</v>
+        <v>208</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>183</v>
+        <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>185</v>
+        <v>23</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>5</v>
+        <v>157</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>168</v>
+        <v>24</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>5</v>
+        <v>208</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>157</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>201</v>
+        <v>25</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>212</v>
+        <v>26</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>213</v>
+        <v>3</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>219</v>
+        <v>27</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>221</v>
+        <v>28</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>223</v>
+        <v>29</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>226</v>
+        <v>30</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>227</v>
+        <v>31</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -5525,18 +5865,18 @@
   </sheetPr>
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="1" sqref="G2:G20 A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="16.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="20.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="8" width="12.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="8" width="3.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="16.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="9" width="20.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="9" width="12.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="9" width="3.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="0" width="3.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="4.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="3.01"/>
@@ -5544,314 +5884,314 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="K1" s="21" t="s">
+      <c r="A1" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="B1" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="C1" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>237</v>
       </c>
+      <c r="F1" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="E2" s="24"/>
+      <c r="A2" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="F3" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="26" t="n">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="27" t="n">
         <v>11</v>
       </c>
-      <c r="K3" s="8" t="n">
+      <c r="K3" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="L3" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" s="8" t="n">
+      <c r="L3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="9" t="n">
         <v>111</v>
       </c>
-      <c r="O3" s="8" t="n">
+      <c r="O3" s="9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="F4" s="8" t="n">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="F4" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="G4" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="8" t="n">
+      <c r="G4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="K4" s="8" t="n">
+      <c r="K4" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="L4" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" s="8" t="n">
+      <c r="L4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="9" t="n">
         <v>111</v>
       </c>
-      <c r="O4" s="8" t="n">
+      <c r="O4" s="9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="F5" s="8" t="n">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="F5" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="G5" s="8" t="n">
+      <c r="G5" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="H5" s="8" t="n">
+      <c r="H5" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="I5" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="L5" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="O5" s="8" t="n">
+      <c r="I5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="L5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="O5" s="9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="F6" s="8" t="n">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="F6" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="G6" s="8" t="n">
+      <c r="G6" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="H6" s="8" t="n">
+      <c r="H6" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="I6" s="8" t="n">
+      <c r="I6" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="J6" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="L6" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" s="8" t="s">
+      <c r="J6" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="O6" s="8" t="n">
+      <c r="K6" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="L6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="O6" s="9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="25"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="26"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="25"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="26"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C10" s="0"/>
-      <c r="D10" s="24" t="s">
-        <v>256</v>
+      <c r="D10" s="25" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8"/>
+      <c r="A11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
-      <c r="D12" s="24"/>
+      <c r="D12" s="25"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
-      <c r="D13" s="24"/>
+      <c r="D13" s="25"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
-      <c r="D14" s="24"/>
+      <c r="D14" s="25"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
-      <c r="D15" s="24"/>
+      <c r="D15" s="25"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="D16" s="25" t="s">
         <v>257</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -5879,7 +6219,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="1" sqref="G2:G20 C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5889,76 +6229,76 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -5980,218 +6320,218 @@
   <dimension ref="A1:AMJ10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
+      <selection pane="topLeft" activeCell="J8" activeCellId="1" sqref="G2:G20 J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="10.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="10.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="11.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="8" width="13.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="8" width="14.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="7" style="8" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="8" width="20.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="10.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="10.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="9" width="11.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="9" width="13.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="9" width="14.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="7" style="9" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="9" width="20.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" s="27" customFormat="true" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="27" t="s">
-        <v>274</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>275</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>276</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>277</v>
-      </c>
-      <c r="F1" s="27" t="s">
+    <row r="1" s="28" customFormat="true" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="28" t="s">
         <v>278</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="D1" s="28" t="s">
         <v>280</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="E1" s="28" t="s">
         <v>281</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="F1" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="G1" s="28" t="s">
         <v>283</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="H1" s="28" t="s">
         <v>284</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>286</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>288</v>
       </c>
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="D2" s="8" t="n">
+        <v>289</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="L2" s="8" t="s">
-        <v>288</v>
+      <c r="L2" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="D4" s="8" t="n">
+        <v>291</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="E4" s="28" t="s">
-        <v>291</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="J4" s="8" t="s">
+      <c r="E4" s="29" t="s">
         <v>293</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="F4" s="9" t="s">
         <v>294</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="E5" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="C5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="E5" s="30" t="s">
         <v>299</v>
       </c>
-      <c r="K5" s="29" t="s">
-        <v>299</v>
+      <c r="F5" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="D6" s="8" t="n">
+        <v>302</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="J6" s="8" t="s">
+      <c r="E6" s="30" t="s">
         <v>293</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="F6" s="9" t="s">
         <v>294</v>
       </c>
+      <c r="J6" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="D8" s="8" t="n">
+      <c r="C8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="28" t="s">
-        <v>291</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="J8" s="8" t="s">
+      <c r="E8" s="29" t="s">
         <v>293</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="F8" s="9" t="s">
         <v>294</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="9" t="n">
+        <v>99</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="K9" s="30" t="s">
         <v>301</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="D9" s="8" t="n">
-        <v>99</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>291</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>291</v>
-      </c>
-      <c r="H9" s="29" t="s">
-        <v>297</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="J9" s="29" t="s">
-        <v>293</v>
-      </c>
-      <c r="K9" s="29" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>302</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="D10" s="8" t="n">
+        <v>304</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="E10" s="28" t="s">
-        <v>291</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="J10" s="8" t="s">
+      <c r="E10" s="29" t="s">
         <v>293</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="F10" s="9" t="s">
         <v>294</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>

--- a/topdown.xlsx
+++ b/topdown.xlsx
@@ -8,21 +8,22 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Acceso" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="campos" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="syllabus_modelo" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="datos" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="modelos" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="switches" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="selectores" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="botones" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Flujo" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Acceso" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="campos" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="syllabus_modelo" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="datos" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="modelos" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="switches" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="selectores" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="botones" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">datos!$A$1:$I$65</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Extract" vbProcedure="false">campos!#ref!</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">campos!#ref!</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Extract" vbProcedure="false">modelos!$A$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">hoja2!#ref!</definedName>
+    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">datos!$A$1:$I$65</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Extract" vbProcedure="false">campos!#ref!</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">campos!#ref!</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm.Extract" vbProcedure="false">modelos!$A$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">hoja2!#ref!</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -34,7 +35,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="316">
+  <si>
+    <t xml:space="preserve">Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opciones:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consulta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por curso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por especialidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Especialidad:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edicion (según tipo de usuario)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todos los grupos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grupo según tipo de usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botones en SyllabusComponent.vue</t>
+  </si>
   <si>
     <t xml:space="preserve">modelo</t>
   </si>
@@ -70,9 +107,6 @@
   </si>
   <si>
     <t xml:space="preserve">Docente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consulta</t>
   </si>
   <si>
     <t xml:space="preserve">acceso</t>
@@ -1281,10 +1315,103 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="9.14"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E8" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E14" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1299,7 +1426,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1320,22 +1447,22 @@
     </row>
     <row r="2" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G2" s="1" t="str">
         <f aca="false">+"'"&amp;$A2&amp;"' =&gt; "&amp;F2&amp;","</f>
@@ -1355,22 +1482,22 @@
     </row>
     <row r="3" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G3" s="1" t="str">
         <f aca="false">+"'"&amp;$A3&amp;"' =&gt; "&amp;F3&amp;","</f>
@@ -1390,22 +1517,22 @@
     </row>
     <row r="4" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G4" s="1" t="str">
         <f aca="false">+"'"&amp;$A4&amp;"' =&gt; "&amp;F4&amp;","</f>
@@ -1425,22 +1552,22 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G5" s="1" t="str">
         <f aca="false">+"'"&amp;$A5&amp;"' =&gt; "&amp;F5&amp;","</f>
@@ -1449,22 +1576,22 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G6" s="1" t="str">
         <f aca="false">+"'"&amp;$A6&amp;"' =&gt; "&amp;F6&amp;","</f>
@@ -1473,22 +1600,22 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G7" s="1" t="str">
         <f aca="false">+"'"&amp;$A7&amp;"' =&gt; "&amp;F7&amp;","</f>
@@ -1497,22 +1624,22 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G8" s="1" t="str">
         <f aca="false">+"'"&amp;$A8&amp;"' =&gt; "&amp;F8&amp;","</f>
@@ -1521,22 +1648,22 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G9" s="1" t="str">
         <f aca="false">+"'"&amp;$A9&amp;"' =&gt; "&amp;F9&amp;","</f>
@@ -1545,22 +1672,22 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G10" s="1" t="str">
         <f aca="false">+"'"&amp;$A10&amp;"' =&gt; "&amp;F10&amp;","</f>
@@ -1569,22 +1696,22 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G11" s="1" t="str">
         <f aca="false">+"'"&amp;$A11&amp;"' =&gt; "&amp;F11&amp;","</f>
@@ -1593,22 +1720,22 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G12" s="1" t="str">
         <f aca="false">+"'"&amp;$A12&amp;"' =&gt; "&amp;F12&amp;","</f>
@@ -1617,22 +1744,22 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G13" s="1" t="str">
         <f aca="false">+"'"&amp;$A13&amp;"' =&gt; "&amp;F13&amp;","</f>
@@ -1641,22 +1768,22 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G14" s="1" t="str">
         <f aca="false">+"'"&amp;$A14&amp;"' =&gt; "&amp;F14&amp;","</f>
@@ -1665,22 +1792,22 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G15" s="1" t="str">
         <f aca="false">+"'"&amp;$A15&amp;"' =&gt; "&amp;F15&amp;","</f>
@@ -1689,22 +1816,22 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G16" s="1" t="str">
         <f aca="false">+"'"&amp;$A16&amp;"' =&gt; "&amp;F16&amp;","</f>
@@ -1713,22 +1840,22 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G17" s="1" t="str">
         <f aca="false">+"'"&amp;$A17&amp;"' =&gt; "&amp;F17&amp;","</f>
@@ -1737,22 +1864,22 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G18" s="1" t="str">
         <f aca="false">+"'"&amp;$A18&amp;"' =&gt; "&amp;F18&amp;","</f>
@@ -1761,22 +1888,22 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G19" s="1" t="str">
         <f aca="false">+"'"&amp;$A19&amp;"' =&gt; "&amp;F19&amp;","</f>
@@ -1785,22 +1912,22 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G20" s="1" t="str">
         <f aca="false">+"'"&amp;$A20&amp;"' =&gt; "&amp;F20&amp;","</f>
@@ -1818,7 +1945,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1826,7 +1953,7 @@
   <dimension ref="A2:P4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="1" sqref="G2:G20 A10"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1852,60 +1979,60 @@
   <sheetData>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -1914,16 +2041,16 @@
         <v>0</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1932,7 +2059,7 @@
         <v>generales</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
@@ -1941,10 +2068,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>1</v>
@@ -1961,7 +2088,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1969,7 +2096,7 @@
   <dimension ref="A1:J95"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="1" sqref="G2:G20 D9"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1979,187 +2106,187 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2167,22 +2294,22 @@
         <v>1</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="4" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
     </row>
     <row r="36" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="3" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -2190,14 +2317,14 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="5" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
     </row>
     <row r="37" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B37" s="3" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -2207,7 +2334,7 @@
     </row>
     <row r="38" customFormat="false" ht="57.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B38" s="3" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2220,22 +2347,22 @@
         <v>2</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="45.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="3" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="5" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
@@ -2245,7 +2372,7 @@
         <v>3</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
@@ -2254,24 +2381,24 @@
     </row>
     <row r="42" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B42" s="3" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
     </row>
     <row r="43" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B43" s="3" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -2279,7 +2406,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="0" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
@@ -2289,42 +2416,42 @@
         <v>4</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="0" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="0" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="0" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -2332,7 +2459,7 @@
     </row>
     <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -2340,7 +2467,7 @@
     </row>
     <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="0" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -2348,7 +2475,7 @@
     </row>
     <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="8" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -2363,23 +2490,23 @@
         <v>5</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
       <c r="E51" s="0" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
       <c r="H51" s="0" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="I51" s="9"/>
     </row>
     <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
@@ -2460,87 +2587,87 @@
     </row>
     <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="0" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="D73" s="10"/>
     </row>
     <row r="74" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="0" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="0" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2548,22 +2675,22 @@
         <v>1</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="0" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="0" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2571,22 +2698,22 @@
         <v>2</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="0" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="0" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="0" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2594,22 +2721,22 @@
         <v>3</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="0" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="0" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="0" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2640,7 +2767,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2648,7 +2775,7 @@
   <dimension ref="A1:O70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O13" activeCellId="1" sqref="G2:G20 O13"/>
+      <selection pane="topLeft" activeCell="O13" activeCellId="0" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2669,45 +2796,45 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="E2" s="7" t="n">
         <v>0</v>
@@ -2719,10 +2846,10 @@
         <v>8</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="J2" s="11" t="n">
         <f aca="false">IF(E1=E2,1,F2)</f>
@@ -2733,11 +2860,11 @@
       </c>
       <c r="M2" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K2&amp;", '"&amp;L$1&amp;"': '"&amp;L2&amp;"', '"&amp;F$1&amp;"': "&amp;F2&amp;", '"&amp;G$1&amp;"': "&amp;G2&amp;", '"&amp;H$1&amp;"': '"&amp;H2&amp;"', '"&amp;I$1&amp;"': '"&amp;I2&amp;"', '"&amp;J$1&amp;"':"&amp;J2&amp;"}, "</f>
-        <v>{ 'reg': 11, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'CONTABILIDAD GERENCIAL', 'offset':1},</v>
+        <v>{ 'reg': 11, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'CONTABILIDAD GERENCIAL', 'offset':1}, </v>
       </c>
       <c r="N2" s="7" t="str">
         <f aca="false">IF(E1=E2,CONCATENATE(N1,M2),M2)</f>
-        <v>{ 'reg': 11, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'CONTABILIDAD GERENCIAL', 'offset':1},</v>
+        <v>{ 'reg': 11, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'CONTABILIDAD GERENCIAL', 'offset':1}, </v>
       </c>
       <c r="O2" s="15" t="str">
         <f aca="false">IF(E2=E3,"","{'"&amp;E$1&amp;"': "&amp;E2&amp;", '"&amp;B$1&amp;"': '"&amp;B2&amp;"',  'editing': false, 'tipo': '"&amp;A2&amp;"', 'data': "&amp;"["&amp;N2&amp;"],  },")</f>
@@ -2746,7 +2873,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="E3" s="7" t="n">
         <v>1</v>
@@ -2758,10 +2885,10 @@
         <v>8</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="J3" s="11" t="n">
         <f aca="false">IF(E2=E3,1,F3)</f>
@@ -2771,15 +2898,15 @@
         <v>21</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="M3" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K3&amp;", '"&amp;L$1&amp;"': '"&amp;L3&amp;"', '"&amp;F$1&amp;"': "&amp;F3&amp;", '"&amp;G$1&amp;"': "&amp;G3&amp;", '"&amp;H$1&amp;"': '"&amp;H3&amp;"', '"&amp;I$1&amp;"': '"&amp;I3&amp;"', '"&amp;J$1&amp;"':"&amp;J3&amp;"}, "</f>
-        <v>{ 'reg': 21, 'subtipo': 'generales', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'I. DATOS GENERALES', 'offset':1},</v>
+        <v>{ 'reg': 21, 'subtipo': 'generales', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'I. DATOS GENERALES', 'offset':1}, </v>
       </c>
       <c r="N3" s="7" t="str">
         <f aca="false">IF(E2=E3,CONCATENATE(N2,M3),M3)</f>
-        <v>{ 'reg': 21, 'subtipo': 'generales', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'I. DATOS GENERALES', 'offset':1},</v>
+        <v>{ 'reg': 21, 'subtipo': 'generales', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'I. DATOS GENERALES', 'offset':1}, </v>
       </c>
       <c r="O3" s="15" t="str">
         <f aca="false">IF(E3=E4,"","{'"&amp;E$1&amp;"': "&amp;E3&amp;", '"&amp;B$1&amp;"': '"&amp;B3&amp;"',  'editing': false, 'tipo': '"&amp;A3&amp;"', 'data': "&amp;"["&amp;N3&amp;"],  },")</f>
@@ -2788,7 +2915,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E4" s="7" t="n">
         <v>1</v>
@@ -2800,10 +2927,10 @@
         <v>2</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="J4" s="11" t="n">
         <f aca="false">IF(E3=E4,1,F4)</f>
@@ -2814,11 +2941,11 @@
       </c>
       <c r="M4" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K4&amp;", '"&amp;L$1&amp;"': '"&amp;L4&amp;"', '"&amp;F$1&amp;"': "&amp;F4&amp;", '"&amp;G$1&amp;"': "&amp;G4&amp;", '"&amp;H$1&amp;"': '"&amp;H4&amp;"', '"&amp;I$1&amp;"': '"&amp;I4&amp;"', '"&amp;J$1&amp;"':"&amp;J4&amp;"}, "</f>
-        <v>{ 'reg': 35, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Código:', 'offset':1},</v>
+        <v>{ 'reg': 35, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Código:', 'offset':1}, </v>
       </c>
       <c r="N4" s="7" t="str">
         <f aca="false">IF(E3=E4,CONCATENATE(N3,M4),M4)</f>
-        <v>{ 'reg': 21, 'subtipo': 'generales', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'I. DATOS GENERALES', 'offset':1},{ 'reg': 35, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Código:', 'offset':1},</v>
+        <v>{ 'reg': 21, 'subtipo': 'generales', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'I. DATOS GENERALES', 'offset':1}, { 'reg': 35, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Código:', 'offset':1}, </v>
       </c>
       <c r="O4" s="15" t="str">
         <f aca="false">IF(E4=E5,"","{'"&amp;E$1&amp;"': "&amp;E4&amp;", '"&amp;B$1&amp;"': '"&amp;B4&amp;"',  'editing': false, 'tipo': '"&amp;A4&amp;"', 'data': "&amp;"["&amp;N4&amp;"],  },")</f>
@@ -2827,7 +2954,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E5" s="7" t="n">
         <v>1</v>
@@ -2839,10 +2966,10 @@
         <v>2</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="J5" s="11" t="n">
         <f aca="false">IF(E4=E5,1,F5)</f>
@@ -2853,20 +2980,20 @@
       </c>
       <c r="M5" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K5&amp;", '"&amp;L$1&amp;"': '"&amp;L5&amp;"', '"&amp;F$1&amp;"': "&amp;F5&amp;", '"&amp;G$1&amp;"': "&amp;G5&amp;", '"&amp;H$1&amp;"': '"&amp;H5&amp;"', '"&amp;I$1&amp;"': '"&amp;I5&amp;"', '"&amp;J$1&amp;"':"&amp;J5&amp;"}, "</f>
-        <v>{ 'reg': 85, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '100048', 'offset':1},</v>
+        <v>{ 'reg': 85, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '100048', 'offset':1}, </v>
       </c>
       <c r="N5" s="7" t="str">
         <f aca="false">IF(E4=E5,CONCATENATE(N4,M5),M5)</f>
-        <v>{ 'reg': 21, 'subtipo': 'generales', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'I. DATOS GENERALES', 'offset':1},{ 'reg': 35, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Código:', 'offset':1}, { 'reg': 85, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '100048', 'offset':1},</v>
+        <v>{ 'reg': 21, 'subtipo': 'generales', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'I. DATOS GENERALES', 'offset':1}, { 'reg': 35, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Código:', 'offset':1}, { 'reg': 85, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '100048', 'offset':1}, </v>
       </c>
       <c r="O5" s="15" t="str">
         <f aca="false">IF(E5=E6,"","{'"&amp;E$1&amp;"': "&amp;E5&amp;", '"&amp;B$1&amp;"': '"&amp;B5&amp;"',  'editing': false, 'tipo': '"&amp;A5&amp;"', 'data': "&amp;"["&amp;N5&amp;"],  },")</f>
-        <v>{'row': 1, 'week': '',  'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 21, 'subtipo': 'generales', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'I. DATOS GENERALES', 'offset':1},{ 'reg': 35, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Código:', 'offset':1}, { 'reg': 85, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '100048', 'offset':1},],  },</v>
+        <v>{'row': 1, 'week': '',  'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 21, 'subtipo': 'generales', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'I. DATOS GENERALES', 'offset':1}, { 'reg': 35, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Código:', 'offset':1}, { 'reg': 85, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '100048', 'offset':1}, ],  },</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E6" s="7" t="n">
         <v>2</v>
@@ -2878,10 +3005,10 @@
         <v>2</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="J6" s="11" t="n">
         <f aca="false">IF(E5=E6,1,F6)</f>
@@ -2892,11 +3019,11 @@
       </c>
       <c r="M6" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K6&amp;", '"&amp;L$1&amp;"': '"&amp;L6&amp;"', '"&amp;F$1&amp;"': "&amp;F6&amp;", '"&amp;G$1&amp;"': "&amp;G6&amp;", '"&amp;H$1&amp;"': '"&amp;H6&amp;"', '"&amp;I$1&amp;"': '"&amp;I6&amp;"', '"&amp;J$1&amp;"':"&amp;J6&amp;"}, "</f>
-        <v>{ 'reg': 130, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Pre‐ Requisito :', 'offset':2},</v>
+        <v>{ 'reg': 130, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Pre‐ Requisito :', 'offset':2}, </v>
       </c>
       <c r="N6" s="7" t="str">
         <f aca="false">IF(E5=E6,CONCATENATE(N5,M6),M6)</f>
-        <v>{ 'reg': 130, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Pre‐ Requisito :', 'offset':2},</v>
+        <v>{ 'reg': 130, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Pre‐ Requisito :', 'offset':2}, </v>
       </c>
       <c r="O6" s="15" t="str">
         <f aca="false">IF(E6=E7,"","{'"&amp;E$1&amp;"': "&amp;E6&amp;", '"&amp;B$1&amp;"': '"&amp;B6&amp;"',  'editing': false, 'tipo': '"&amp;A6&amp;"', 'data': "&amp;"["&amp;N6&amp;"],  },")</f>
@@ -2905,7 +3032,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E7" s="7" t="n">
         <v>2</v>
@@ -2917,10 +3044,10 @@
         <v>2</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="J7" s="11" t="n">
         <f aca="false">IF(E6=E7,1,F7)</f>
@@ -2931,20 +3058,20 @@
       </c>
       <c r="M7" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K7&amp;", '"&amp;L$1&amp;"': '"&amp;L7&amp;"', '"&amp;F$1&amp;"': "&amp;F7&amp;", '"&amp;G$1&amp;"': "&amp;G7&amp;", '"&amp;H$1&amp;"': '"&amp;H7&amp;"', '"&amp;I$1&amp;"': '"&amp;I7&amp;"', '"&amp;J$1&amp;"':"&amp;J7&amp;"}, "</f>
-        <v>{ 'reg': 7, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'Contabilidad General', 'offset':1},</v>
+        <v>{ 'reg': 7, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'Contabilidad General', 'offset':1}, </v>
       </c>
       <c r="N7" s="7" t="str">
         <f aca="false">IF(E6=E7,CONCATENATE(N6,M7),M7)</f>
-        <v>{ 'reg': 130, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Pre‐ Requisito :', 'offset':2},{ 'reg': 7, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'Contabilidad General', 'offset':1},</v>
+        <v>{ 'reg': 130, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Pre‐ Requisito :', 'offset':2}, { 'reg': 7, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'Contabilidad General', 'offset':1}, </v>
       </c>
       <c r="O7" s="15" t="str">
         <f aca="false">IF(E7=E8,"","{'"&amp;E$1&amp;"': "&amp;E7&amp;", '"&amp;B$1&amp;"': '"&amp;B7&amp;"',  'editing': false, 'tipo': '"&amp;A7&amp;"', 'data': "&amp;"["&amp;N7&amp;"],  },")</f>
-        <v>{'row': 2, 'week': '',  'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 130, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Pre‐ Requisito :', 'offset':2},{ 'reg': 7, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'Contabilidad General', 'offset':1},],  },</v>
+        <v>{'row': 2, 'week': '',  'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 130, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Pre‐ Requisito :', 'offset':2}, { 'reg': 7, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'Contabilidad General', 'offset':1}, ],  },</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E8" s="7" t="n">
         <v>3</v>
@@ -2956,10 +3083,10 @@
         <v>2</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="J8" s="11" t="n">
         <f aca="false">IF(E7=E8,1,F8)</f>
@@ -2970,11 +3097,11 @@
       </c>
       <c r="M8" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K8&amp;", '"&amp;L$1&amp;"': '"&amp;L8&amp;"', '"&amp;F$1&amp;"': "&amp;F8&amp;", '"&amp;G$1&amp;"': "&amp;G8&amp;", '"&amp;H$1&amp;"': '"&amp;H8&amp;"', '"&amp;I$1&amp;"': '"&amp;I8&amp;"', '"&amp;J$1&amp;"':"&amp;J8&amp;"}, "</f>
-        <v>{ 'reg': 109, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Créditos : ', 'offset':2},</v>
+        <v>{ 'reg': 109, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Créditos : ', 'offset':2}, </v>
       </c>
       <c r="N8" s="7" t="str">
         <f aca="false">IF(E7=E8,CONCATENATE(N7,M8),M8)</f>
-        <v>{ 'reg': 109, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Créditos : ', 'offset':2},</v>
+        <v>{ 'reg': 109, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Créditos : ', 'offset':2}, </v>
       </c>
       <c r="O8" s="15" t="str">
         <f aca="false">IF(E8=E9,"","{'"&amp;E$1&amp;"': "&amp;E8&amp;", '"&amp;B$1&amp;"': '"&amp;B8&amp;"',  'editing': false, 'tipo': '"&amp;A8&amp;"', 'data': "&amp;"["&amp;N8&amp;"],  },")</f>
@@ -2983,7 +3110,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E9" s="7" t="n">
         <v>3</v>
@@ -2995,10 +3122,10 @@
         <v>2</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="J9" s="11" t="n">
         <f aca="false">IF(E8=E9,1,F9)</f>
@@ -3009,20 +3136,20 @@
       </c>
       <c r="M9" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K9&amp;", '"&amp;L$1&amp;"': '"&amp;L9&amp;"', '"&amp;F$1&amp;"': "&amp;F9&amp;", '"&amp;G$1&amp;"': "&amp;G9&amp;", '"&amp;H$1&amp;"': '"&amp;H9&amp;"', '"&amp;I$1&amp;"': '"&amp;I9&amp;"', '"&amp;J$1&amp;"':"&amp;J9&amp;"}, "</f>
-        <v>{ 'reg': 13, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '03', 'offset':1},</v>
+        <v>{ 'reg': 13, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '03', 'offset':1}, </v>
       </c>
       <c r="N9" s="7" t="str">
         <f aca="false">IF(E8=E9,CONCATENATE(N8,M9),M9)</f>
-        <v>{ 'reg': 109, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Créditos : ', 'offset':2},{ 'reg': 13, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '03', 'offset':1},</v>
+        <v>{ 'reg': 109, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Créditos : ', 'offset':2}, { 'reg': 13, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '03', 'offset':1}, </v>
       </c>
       <c r="O9" s="15" t="str">
         <f aca="false">IF(E9=E10,"","{'"&amp;E$1&amp;"': "&amp;E9&amp;", '"&amp;B$1&amp;"': '"&amp;B9&amp;"',  'editing': false, 'tipo': '"&amp;A9&amp;"', 'data': "&amp;"["&amp;N9&amp;"],  },")</f>
-        <v>{'row': 3, 'week': '',  'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 109, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Créditos : ', 'offset':2},{ 'reg': 13, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '03', 'offset':1},],  },</v>
+        <v>{'row': 3, 'week': '',  'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 109, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Créditos : ', 'offset':2}, { 'reg': 13, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '03', 'offset':1}, ],  },</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E10" s="7" t="n">
         <v>4</v>
@@ -3034,10 +3161,10 @@
         <v>2</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="J10" s="11" t="n">
         <f aca="false">IF(E9=E10,1,F10)</f>
@@ -3048,11 +3175,11 @@
       </c>
       <c r="M10" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K10&amp;", '"&amp;L$1&amp;"': '"&amp;L10&amp;"', '"&amp;F$1&amp;"': "&amp;F10&amp;", '"&amp;G$1&amp;"': "&amp;G10&amp;", '"&amp;H$1&amp;"': '"&amp;H10&amp;"', '"&amp;I$1&amp;"': '"&amp;I10&amp;"', '"&amp;J$1&amp;"':"&amp;J10&amp;"}, "</f>
-        <v>{ 'reg': 128, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Horas :', 'offset':2},</v>
+        <v>{ 'reg': 128, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Horas :', 'offset':2}, </v>
       </c>
       <c r="N10" s="7" t="str">
         <f aca="false">IF(E9=E10,CONCATENATE(N9,M10),M10)</f>
-        <v>{ 'reg': 128, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Horas :', 'offset':2},</v>
+        <v>{ 'reg': 128, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Horas :', 'offset':2}, </v>
       </c>
       <c r="O10" s="15" t="str">
         <f aca="false">IF(E10=E11,"","{'"&amp;E$1&amp;"': "&amp;E10&amp;", '"&amp;B$1&amp;"': '"&amp;B10&amp;"',  'editing': false, 'tipo': '"&amp;A10&amp;"', 'data': "&amp;"["&amp;N10&amp;"],  },")</f>
@@ -3061,7 +3188,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E11" s="7" t="n">
         <v>4</v>
@@ -3073,10 +3200,10 @@
         <v>2</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="J11" s="11" t="n">
         <f aca="false">IF(E10=E11,1,F11)</f>
@@ -3087,20 +3214,20 @@
       </c>
       <c r="M11" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K11&amp;", '"&amp;L$1&amp;"': '"&amp;L11&amp;"', '"&amp;F$1&amp;"': "&amp;F11&amp;", '"&amp;G$1&amp;"': "&amp;G11&amp;", '"&amp;H$1&amp;"': '"&amp;H11&amp;"', '"&amp;I$1&amp;"': '"&amp;I11&amp;"', '"&amp;J$1&amp;"':"&amp;J11&amp;"}, "</f>
-        <v>{ 'reg': 91, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '04 horas', 'offset':1},</v>
+        <v>{ 'reg': 91, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '04 horas', 'offset':1}, </v>
       </c>
       <c r="N11" s="7" t="str">
         <f aca="false">IF(E10=E11,CONCATENATE(N10,M11),M11)</f>
-        <v>{ 'reg': 128, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Horas :', 'offset':2},{ 'reg': 91, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '04 horas', 'offset':1},</v>
+        <v>{ 'reg': 128, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Horas :', 'offset':2}, { 'reg': 91, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '04 horas', 'offset':1}, </v>
       </c>
       <c r="O11" s="15" t="str">
         <f aca="false">IF(E11=E12,"","{'"&amp;E$1&amp;"': "&amp;E11&amp;", '"&amp;B$1&amp;"': '"&amp;B11&amp;"',  'editing': false, 'tipo': '"&amp;A11&amp;"', 'data': "&amp;"["&amp;N11&amp;"],  },")</f>
-        <v>{'row': 4, 'week': '',  'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 128, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Horas :', 'offset':2},{ 'reg': 91, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '04 horas', 'offset':1},],  },</v>
+        <v>{'row': 4, 'week': '',  'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 128, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Horas :', 'offset':2}, { 'reg': 91, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '04 horas', 'offset':1}, ],  },</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E12" s="7" t="n">
         <v>5</v>
@@ -3112,10 +3239,10 @@
         <v>2</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="J12" s="11" t="n">
         <f aca="false">IF(E11=E12,1,F12)</f>
@@ -3126,11 +3253,11 @@
       </c>
       <c r="M12" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K12&amp;", '"&amp;L$1&amp;"': '"&amp;L12&amp;"', '"&amp;F$1&amp;"': "&amp;F12&amp;", '"&amp;G$1&amp;"': "&amp;G12&amp;", '"&amp;H$1&amp;"': '"&amp;H12&amp;"', '"&amp;I$1&amp;"': '"&amp;I12&amp;"', '"&amp;J$1&amp;"':"&amp;J12&amp;"}, "</f>
-        <v>{ 'reg': 24, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Semestre académico : ', 'offset':2},</v>
+        <v>{ 'reg': 24, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Semestre académico : ', 'offset':2}, </v>
       </c>
       <c r="N12" s="7" t="str">
         <f aca="false">IF(E11=E12,CONCATENATE(N11,M12),M12)</f>
-        <v>{ 'reg': 24, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Semestre académico : ', 'offset':2},</v>
+        <v>{ 'reg': 24, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Semestre académico : ', 'offset':2}, </v>
       </c>
       <c r="O12" s="15" t="str">
         <f aca="false">IF(E12=E13,"","{'"&amp;E$1&amp;"': "&amp;E12&amp;", '"&amp;B$1&amp;"': '"&amp;B12&amp;"',  'editing': false, 'tipo': '"&amp;A12&amp;"', 'data': "&amp;"["&amp;N12&amp;"],  },")</f>
@@ -3139,7 +3266,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E13" s="7" t="n">
         <v>5</v>
@@ -3151,10 +3278,10 @@
         <v>2</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="J13" s="11" t="n">
         <f aca="false">IF(E12=E13,1,F13)</f>
@@ -3165,20 +3292,20 @@
       </c>
       <c r="M13" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K13&amp;", '"&amp;L$1&amp;"': '"&amp;L13&amp;"', '"&amp;F$1&amp;"': "&amp;F13&amp;", '"&amp;G$1&amp;"': "&amp;G13&amp;", '"&amp;H$1&amp;"': '"&amp;H13&amp;"', '"&amp;I$1&amp;"': '"&amp;I13&amp;"', '"&amp;J$1&amp;"':"&amp;J13&amp;"}, "</f>
-        <v>{ 'reg': 86, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '2017‐ I', 'offset':1},</v>
+        <v>{ 'reg': 86, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '2017‐ I', 'offset':1}, </v>
       </c>
       <c r="N13" s="7" t="str">
         <f aca="false">IF(E12=E13,CONCATENATE(N12,M13),M13)</f>
-        <v>{ 'reg': 24, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Semestre académico : ', 'offset':2},{ 'reg': 86, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '2017‐ I', 'offset':1},</v>
+        <v>{ 'reg': 24, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Semestre académico : ', 'offset':2}, { 'reg': 86, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '2017‐ I', 'offset':1}, </v>
       </c>
       <c r="O13" s="15" t="str">
         <f aca="false">IF(E13=E14,"","{'"&amp;E$1&amp;"': "&amp;E13&amp;", '"&amp;B$1&amp;"': '"&amp;B13&amp;"',  'editing': false, 'tipo': '"&amp;A13&amp;"', 'data': "&amp;"["&amp;N13&amp;"],  },")</f>
-        <v>{'row': 5, 'week': '',  'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 24, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Semestre académico : ', 'offset':2},{ 'reg': 86, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '2017‐ I', 'offset':1},],  },</v>
+        <v>{'row': 5, 'week': '',  'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 24, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Semestre académico : ', 'offset':2}, { 'reg': 86, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '2017‐ I', 'offset':1}, ],  },</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E14" s="7" t="n">
         <v>6</v>
@@ -3190,10 +3317,10 @@
         <v>2</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="J14" s="11" t="n">
         <f aca="false">IF(E13=E14,1,F14)</f>
@@ -3204,11 +3331,11 @@
       </c>
       <c r="M14" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K14&amp;", '"&amp;L$1&amp;"': '"&amp;L14&amp;"', '"&amp;F$1&amp;"': "&amp;F14&amp;", '"&amp;G$1&amp;"': "&amp;G14&amp;", '"&amp;H$1&amp;"': '"&amp;H14&amp;"', '"&amp;I$1&amp;"': '"&amp;I14&amp;"', '"&amp;J$1&amp;"':"&amp;J14&amp;"}, "</f>
-        <v>{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Ciclo :', 'offset':2},</v>
+        <v>{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Ciclo :', 'offset':2}, </v>
       </c>
       <c r="N14" s="7" t="str">
         <f aca="false">IF(E13=E14,CONCATENATE(N13,M14),M14)</f>
-        <v>{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Ciclo :', 'offset':2},</v>
+        <v>{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Ciclo :', 'offset':2}, </v>
       </c>
       <c r="O14" s="15" t="str">
         <f aca="false">IF(E14=E15,"","{'"&amp;E$1&amp;"': "&amp;E14&amp;", '"&amp;B$1&amp;"': '"&amp;B14&amp;"',  'editing': false, 'tipo': '"&amp;A14&amp;"', 'data': "&amp;"["&amp;N14&amp;"],  },")</f>
@@ -3217,7 +3344,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E15" s="7" t="n">
         <v>6</v>
@@ -3229,10 +3356,10 @@
         <v>2</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="J15" s="11" t="n">
         <f aca="false">IF(E14=E15,1,F15)</f>
@@ -3243,20 +3370,20 @@
       </c>
       <c r="M15" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K15&amp;", '"&amp;L$1&amp;"': '"&amp;L15&amp;"', '"&amp;F$1&amp;"': "&amp;F15&amp;", '"&amp;G$1&amp;"': "&amp;G15&amp;", '"&amp;H$1&amp;"': '"&amp;H15&amp;"', '"&amp;I$1&amp;"': '"&amp;I15&amp;"', '"&amp;J$1&amp;"':"&amp;J15&amp;"}, "</f>
-        <v>{ 'reg': 103, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'III', 'offset':1},</v>
+        <v>{ 'reg': 103, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'III', 'offset':1}, </v>
       </c>
       <c r="N15" s="7" t="str">
         <f aca="false">IF(E14=E15,CONCATENATE(N14,M15),M15)</f>
-        <v>{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Ciclo :', 'offset':2},{ 'reg': 103, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'III', 'offset':1},</v>
+        <v>{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Ciclo :', 'offset':2}, { 'reg': 103, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'III', 'offset':1}, </v>
       </c>
       <c r="O15" s="15" t="str">
         <f aca="false">IF(E15=E16,"","{'"&amp;E$1&amp;"': "&amp;E15&amp;", '"&amp;B$1&amp;"': '"&amp;B15&amp;"',  'editing': false, 'tipo': '"&amp;A15&amp;"', 'data': "&amp;"["&amp;N15&amp;"],  },")</f>
-        <v>{'row': 6, 'week': '',  'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Ciclo :', 'offset':2},{ 'reg': 103, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'III', 'offset':1},],  },</v>
+        <v>{'row': 6, 'week': '',  'editing': false, 'tipo': 'generales', 'data': [{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Ciclo :', 'offset':2}, { 'reg': 103, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'III', 'offset':1}, ],  },</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="E16" s="7" t="n">
         <v>2</v>
@@ -3268,10 +3395,10 @@
         <v>8</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="J16" s="11" t="n">
         <f aca="false">IF(E15=E16,1,F16)</f>
@@ -3281,24 +3408,24 @@
         <v>45</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="M16" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K16&amp;", '"&amp;L$1&amp;"': '"&amp;L16&amp;"', '"&amp;F$1&amp;"': "&amp;F16&amp;", '"&amp;G$1&amp;"': "&amp;G16&amp;", '"&amp;H$1&amp;"': '"&amp;H16&amp;"', '"&amp;I$1&amp;"': '"&amp;I16&amp;"', '"&amp;J$1&amp;"':"&amp;J16&amp;"}, "</f>
-        <v>{ 'reg': 45, 'subtipo': 'sumillas', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'II. SUMILLA', 'offset':1},</v>
+        <v>{ 'reg': 45, 'subtipo': 'sumillas', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'II. SUMILLA', 'offset':1}, </v>
       </c>
       <c r="N16" s="7" t="str">
         <f aca="false">IF(E15=E16,CONCATENATE(N15,M16),M16)</f>
-        <v>{ 'reg': 45, 'subtipo': 'sumillas', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'II. SUMILLA', 'offset':1},</v>
+        <v>{ 'reg': 45, 'subtipo': 'sumillas', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'II. SUMILLA', 'offset':1}, </v>
       </c>
       <c r="O16" s="15" t="str">
         <f aca="false">IF(E16=E17,"","{'"&amp;E$1&amp;"': "&amp;E16&amp;", '"&amp;B$1&amp;"': '"&amp;B16&amp;"',  'editing': false, 'tipo': '"&amp;A16&amp;"', 'data': "&amp;"["&amp;N16&amp;"],  },")</f>
-        <v>{'row': 2, 'week': '',  'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 45, 'subtipo': 'sumillas', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'II. SUMILLA', 'offset':1},],  },</v>
+        <v>{'row': 2, 'week': '',  'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 45, 'subtipo': 'sumillas', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'II. SUMILLA', 'offset':1}, ],  },</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E17" s="7" t="n">
         <v>1</v>
@@ -3310,10 +3437,10 @@
         <v>8</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J17" s="11" t="n">
         <f aca="false">IF(E16=E17,1,F17)</f>
@@ -3324,20 +3451,20 @@
       </c>
       <c r="M17" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K17&amp;", '"&amp;L$1&amp;"': '"&amp;L17&amp;"', '"&amp;F$1&amp;"': "&amp;F17&amp;", '"&amp;G$1&amp;"': "&amp;G17&amp;", '"&amp;H$1&amp;"': '"&amp;H17&amp;"', '"&amp;I$1&amp;"': '"&amp;I17&amp;"', '"&amp;J$1&amp;"':"&amp;J17&amp;"}, "</f>
-        <v>{ 'reg': 36, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'justify', 'texto': 'El curso tiene como propósito integrar las teorías, las técnicas y las herramientas adquiridas en las materias de contabilidad general y administración que le permita llegar al alumno a desarrollar las habilidades de análisis, integración de la información para la construcción de propuestas y soluciones que llevan al logro de los objetivos de la organización. Se pondrá énfasis en el análisis financiero de los estados financieros y su relación con los costos empresariales.', 'offset':1},</v>
+        <v>{ 'reg': 36, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'justify', 'texto': 'El curso tiene como propósito integrar las teorías, las técnicas y las herramientas adquiridas en las materias de contabilidad general y administración que le permita llegar al alumno a desarrollar las habilidades de análisis, integración de la información para la construcción de propuestas y soluciones que llevan al logro de los objetivos de la organización. Se pondrá énfasis en el análisis financiero de los estados financieros y su relación con los costos empresariales.', 'offset':1}, </v>
       </c>
       <c r="N17" s="7" t="str">
         <f aca="false">IF(E16=E17,CONCATENATE(N16,M17),M17)</f>
-        <v>{ 'reg': 36, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'justify', 'texto': 'El curso tiene como propósito integrar las teorías, las técnicas y las herramientas adquiridas en las materias de contabilidad general y administración que le permita llegar al alumno a desarrollar las habilidades de análisis, integración de la información para la construcción de propuestas y soluciones que llevan al logro de los objetivos de la organización. Se pondrá énfasis en el análisis financiero de los estados financieros y su relación con los costos empresariales.', 'offset':1},</v>
+        <v>{ 'reg': 36, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'justify', 'texto': 'El curso tiene como propósito integrar las teorías, las técnicas y las herramientas adquiridas en las materias de contabilidad general y administración que le permita llegar al alumno a desarrollar las habilidades de análisis, integración de la información para la construcción de propuestas y soluciones que llevan al logro de los objetivos de la organización. Se pondrá énfasis en el análisis financiero de los estados financieros y su relación con los costos empresariales.', 'offset':1}, </v>
       </c>
       <c r="O17" s="15" t="str">
         <f aca="false">IF(E17=E18,"","{'"&amp;E$1&amp;"': "&amp;E17&amp;", '"&amp;B$1&amp;"': '"&amp;B17&amp;"',  'editing': false, 'tipo': '"&amp;A17&amp;"', 'data': "&amp;"["&amp;N17&amp;"],  },")</f>
-        <v>{'row': 1, 'week': '',  'editing': false, 'tipo': 'sumillas', 'data': [{ 'reg': 36, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'justify', 'texto': 'El curso tiene como propósito integrar las teorías, las técnicas y las herramientas adquiridas en las materias de contabilidad general y administración que le permita llegar al alumno a desarrollar las habilidades de análisis, integración de la información para la construcción de propuestas y soluciones que llevan al logro de los objetivos de la organización. Se pondrá énfasis en el análisis financiero de los estados financieros y su relación con los costos empresariales.', 'offset':1},],  },</v>
+        <v>{'row': 1, 'week': '',  'editing': false, 'tipo': 'sumillas', 'data': [{ 'reg': 36, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'justify', 'texto': 'El curso tiene como propósito integrar las teorías, las técnicas y las herramientas adquiridas en las materias de contabilidad general y administración que le permita llegar al alumno a desarrollar las habilidades de análisis, integración de la información para la construcción de propuestas y soluciones que llevan al logro de los objetivos de la organización. Se pondrá énfasis en el análisis financiero de los estados financieros y su relación con los costos empresariales.', 'offset':1}, ],  },</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="E18" s="7" t="n">
         <v>3</v>
@@ -3349,10 +3476,10 @@
         <v>8</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="J18" s="11" t="n">
         <f aca="false">IF(E17=E18,1,F18)</f>
@@ -3362,24 +3489,24 @@
         <v>82</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="M18" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K18&amp;", '"&amp;L$1&amp;"': '"&amp;L18&amp;"', '"&amp;F$1&amp;"': "&amp;F18&amp;", '"&amp;G$1&amp;"': "&amp;G18&amp;", '"&amp;H$1&amp;"': '"&amp;H18&amp;"', '"&amp;I$1&amp;"': '"&amp;I18&amp;"', '"&amp;J$1&amp;"':"&amp;J18&amp;"}, "</f>
-        <v>{ 'reg': 82, 'subtipo': 'competencias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'III. SISTEMA DE COMPETENCIAS', 'offset':1},</v>
+        <v>{ 'reg': 82, 'subtipo': 'competencias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'III. SISTEMA DE COMPETENCIAS', 'offset':1}, </v>
       </c>
       <c r="N18" s="7" t="str">
         <f aca="false">IF(E17=E18,CONCATENATE(N17,M18),M18)</f>
-        <v>{ 'reg': 82, 'subtipo': 'competencias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'III. SISTEMA DE COMPETENCIAS', 'offset':1},</v>
+        <v>{ 'reg': 82, 'subtipo': 'competencias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'III. SISTEMA DE COMPETENCIAS', 'offset':1}, </v>
       </c>
       <c r="O18" s="15" t="str">
         <f aca="false">IF(E18=E19,"","{'"&amp;E$1&amp;"': "&amp;E18&amp;", '"&amp;B$1&amp;"': '"&amp;B18&amp;"',  'editing': false, 'tipo': '"&amp;A18&amp;"', 'data': "&amp;"["&amp;N18&amp;"],  },")</f>
-        <v>{'row': 3, 'week': '',  'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 82, 'subtipo': 'competencias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'III. SISTEMA DE COMPETENCIAS', 'offset':1},],  },</v>
+        <v>{'row': 3, 'week': '',  'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 82, 'subtipo': 'competencias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'III. SISTEMA DE COMPETENCIAS', 'offset':1}, ],  },</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="E19" s="7" t="n">
         <v>1</v>
@@ -3391,10 +3518,10 @@
         <v>8</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J19" s="11" t="n">
         <f aca="false">IF(E18=E19,1,F19)</f>
@@ -3404,15 +3531,15 @@
         <v>37</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="M19" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K19&amp;", '"&amp;L$1&amp;"': '"&amp;L19&amp;"', '"&amp;F$1&amp;"': "&amp;F19&amp;", '"&amp;G$1&amp;"': "&amp;G19&amp;", '"&amp;H$1&amp;"': '"&amp;H19&amp;"', '"&amp;I$1&amp;"': '"&amp;I19&amp;"', '"&amp;J$1&amp;"':"&amp;J19&amp;"}, "</f>
-        <v>{ 'reg': 37, 'subtipo': 'competencias1', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS GENERALES', 'offset':1},</v>
+        <v>{ 'reg': 37, 'subtipo': 'competencias1', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS GENERALES', 'offset':1}, </v>
       </c>
       <c r="N19" s="7" t="str">
         <f aca="false">IF(E18=E19,CONCATENATE(N18,M19),M19)</f>
-        <v>{ 'reg': 37, 'subtipo': 'competencias1', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS GENERALES', 'offset':1},</v>
+        <v>{ 'reg': 37, 'subtipo': 'competencias1', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS GENERALES', 'offset':1}, </v>
       </c>
       <c r="O19" s="15" t="str">
         <f aca="false">IF(E19=E20,"","{'"&amp;E$1&amp;"': "&amp;E19&amp;", '"&amp;B$1&amp;"': '"&amp;B19&amp;"',  'editing': false, 'tipo': '"&amp;A19&amp;"', 'data': "&amp;"["&amp;N19&amp;"],  },")</f>
@@ -3421,7 +3548,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E20" s="7" t="n">
         <v>1</v>
@@ -3433,10 +3560,10 @@
         <v>7</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J20" s="11" t="n">
         <f aca="false">IF(E19=E20,1,F20)</f>
@@ -3447,20 +3574,20 @@
       </c>
       <c r="M20" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K20&amp;", '"&amp;L$1&amp;"': '"&amp;L20&amp;"', '"&amp;F$1&amp;"': "&amp;F20&amp;", '"&amp;G$1&amp;"': "&amp;G20&amp;", '"&amp;H$1&amp;"': '"&amp;H20&amp;"', '"&amp;I$1&amp;"': '"&amp;I20&amp;"', '"&amp;J$1&amp;"':"&amp;J20&amp;"}, "</f>
-        <v>{ 'reg': 10, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Comprende el papel de la información contable en los Negocios. Relación entre la contabilidad y la Administración y la toma de decisiones.', 'offset':1},</v>
+        <v>{ 'reg': 10, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Comprende el papel de la información contable en los Negocios. Relación entre la contabilidad y la Administración y la toma de decisiones.', 'offset':1}, </v>
       </c>
       <c r="N20" s="7" t="str">
         <f aca="false">IF(E19=E20,CONCATENATE(N19,M20),M20)</f>
-        <v>{ 'reg': 37, 'subtipo': 'competencias1', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS GENERALES', 'offset':1},{ 'reg': 10, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Comprende el papel de la información contable en los Negocios. Relación entre la contabilidad y la Administración y la toma de decisiones.', 'offset':1},</v>
+        <v>{ 'reg': 37, 'subtipo': 'competencias1', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS GENERALES', 'offset':1}, { 'reg': 10, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Comprende el papel de la información contable en los Negocios. Relación entre la contabilidad y la Administración y la toma de decisiones.', 'offset':1}, </v>
       </c>
       <c r="O20" s="15" t="str">
         <f aca="false">IF(E20=E21,"","{'"&amp;E$1&amp;"': "&amp;E20&amp;", '"&amp;B$1&amp;"': '"&amp;B20&amp;"',  'editing': false, 'tipo': '"&amp;A20&amp;"', 'data': "&amp;"["&amp;N20&amp;"],  },")</f>
-        <v>{'row': 1, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 37, 'subtipo': 'competencias1', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS GENERALES', 'offset':1},{ 'reg': 10, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Comprende el papel de la información contable en los Negocios. Relación entre la contabilidad y la Administración y la toma de decisiones.', 'offset':1},],  },</v>
+        <v>{'row': 1, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 37, 'subtipo': 'competencias1', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS GENERALES', 'offset':1}, { 'reg': 10, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Comprende el papel de la información contable en los Negocios. Relación entre la contabilidad y la Administración y la toma de decisiones.', 'offset':1}, ],  },</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E21" s="7" t="n">
         <f aca="false">+E20+1</f>
@@ -3473,10 +3600,10 @@
         <v>7</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J21" s="11" t="n">
         <f aca="false">IF(E20=E21,1,F21)</f>
@@ -3487,20 +3614,20 @@
       </c>
       <c r="M21" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K21&amp;", '"&amp;L$1&amp;"': '"&amp;L21&amp;"', '"&amp;F$1&amp;"': "&amp;F21&amp;", '"&amp;G$1&amp;"': "&amp;G21&amp;", '"&amp;H$1&amp;"': '"&amp;H21&amp;"', '"&amp;I$1&amp;"': '"&amp;I21&amp;"', '"&amp;J$1&amp;"':"&amp;J21&amp;"}, "</f>
-        <v>{ 'reg': 13, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce y ejecuta los Estados Financieros de una empresa comercial, industrial y de servicios.', 'offset':2},</v>
+        <v>{ 'reg': 13, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce y ejecuta los Estados Financieros de una empresa comercial, industrial y de servicios.', 'offset':2}, </v>
       </c>
       <c r="N21" s="7" t="str">
         <f aca="false">IF(E20=E21,CONCATENATE(N20,M21),M21)</f>
-        <v>{ 'reg': 13, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce y ejecuta los Estados Financieros de una empresa comercial, industrial y de servicios.', 'offset':2},</v>
+        <v>{ 'reg': 13, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce y ejecuta los Estados Financieros de una empresa comercial, industrial y de servicios.', 'offset':2}, </v>
       </c>
       <c r="O21" s="15" t="str">
         <f aca="false">IF(E21=E22,"","{'"&amp;E$1&amp;"': "&amp;E21&amp;", '"&amp;B$1&amp;"': '"&amp;B21&amp;"',  'editing': false, 'tipo': '"&amp;A21&amp;"', 'data': "&amp;"["&amp;N21&amp;"],  },")</f>
-        <v>{'row': 2, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 13, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce y ejecuta los Estados Financieros de una empresa comercial, industrial y de servicios.', 'offset':2},],  },</v>
+        <v>{'row': 2, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 13, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce y ejecuta los Estados Financieros de una empresa comercial, industrial y de servicios.', 'offset':2}, ],  },</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E22" s="7" t="n">
         <f aca="false">+E21+1</f>
@@ -3513,10 +3640,10 @@
         <v>7</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J22" s="11" t="n">
         <f aca="false">IF(E21=E22,1,F22)</f>
@@ -3527,20 +3654,20 @@
       </c>
       <c r="M22" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K22&amp;", '"&amp;L$1&amp;"': '"&amp;L22&amp;"', '"&amp;F$1&amp;"': "&amp;F22&amp;", '"&amp;G$1&amp;"': "&amp;G22&amp;", '"&amp;H$1&amp;"': '"&amp;H22&amp;"', '"&amp;I$1&amp;"': '"&amp;I22&amp;"', '"&amp;J$1&amp;"':"&amp;J22&amp;"}, "</f>
-        <v>{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Toma de decisiones, en base a un análisis financiero, dentro de las funciones de operación, inversión y financiamiento y análisis de los costos.', 'offset':2},</v>
+        <v>{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Toma de decisiones, en base a un análisis financiero, dentro de las funciones de operación, inversión y financiamiento y análisis de los costos.', 'offset':2}, </v>
       </c>
       <c r="N22" s="7" t="str">
         <f aca="false">IF(E21=E22,CONCATENATE(N21,M22),M22)</f>
-        <v>{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Toma de decisiones, en base a un análisis financiero, dentro de las funciones de operación, inversión y financiamiento y análisis de los costos.', 'offset':2},</v>
+        <v>{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Toma de decisiones, en base a un análisis financiero, dentro de las funciones de operación, inversión y financiamiento y análisis de los costos.', 'offset':2}, </v>
       </c>
       <c r="O22" s="15" t="str">
         <f aca="false">IF(E22=E23,"","{'"&amp;E$1&amp;"': "&amp;E22&amp;", '"&amp;B$1&amp;"': '"&amp;B22&amp;"',  'editing': false, 'tipo': '"&amp;A22&amp;"', 'data': "&amp;"["&amp;N22&amp;"],  },")</f>
-        <v>{'row': 3, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Toma de decisiones, en base a un análisis financiero, dentro de las funciones de operación, inversión y financiamiento y análisis de los costos.', 'offset':2},],  },</v>
+        <v>{'row': 3, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Toma de decisiones, en base a un análisis financiero, dentro de las funciones de operación, inversión y financiamiento y análisis de los costos.', 'offset':2}, ],  },</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E23" s="7" t="n">
         <f aca="false">+E22+1</f>
@@ -3553,10 +3680,10 @@
         <v>7</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J23" s="11" t="n">
         <f aca="false">IF(E22=E23,1,F23)</f>
@@ -3567,20 +3694,20 @@
       </c>
       <c r="M23" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K23&amp;", '"&amp;L$1&amp;"': '"&amp;L23&amp;"', '"&amp;F$1&amp;"': "&amp;F23&amp;", '"&amp;G$1&amp;"': "&amp;G23&amp;", '"&amp;H$1&amp;"': '"&amp;H23&amp;"', '"&amp;I$1&amp;"': '"&amp;I23&amp;"', '"&amp;J$1&amp;"':"&amp;J23&amp;"}, "</f>
-        <v>{ 'reg': 41, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Planifica la gestión de la empresa a futuro.', 'offset':2},</v>
+        <v>{ 'reg': 41, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Planifica la gestión de la empresa a futuro.', 'offset':2}, </v>
       </c>
       <c r="N23" s="7" t="str">
         <f aca="false">IF(E22=E23,CONCATENATE(N22,M23),M23)</f>
-        <v>{ 'reg': 41, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Planifica la gestión de la empresa a futuro.', 'offset':2},</v>
+        <v>{ 'reg': 41, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Planifica la gestión de la empresa a futuro.', 'offset':2}, </v>
       </c>
       <c r="O23" s="15" t="str">
         <f aca="false">IF(E23=E24,"","{'"&amp;E$1&amp;"': "&amp;E23&amp;", '"&amp;B$1&amp;"': '"&amp;B23&amp;"',  'editing': false, 'tipo': '"&amp;A23&amp;"', 'data': "&amp;"["&amp;N23&amp;"],  },")</f>
-        <v>{'row': 4, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 41, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Planifica la gestión de la empresa a futuro.', 'offset':2},],  },</v>
+        <v>{'row': 4, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 41, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Planifica la gestión de la empresa a futuro.', 'offset':2}, ],  },</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E24" s="7" t="n">
         <f aca="false">+E23+1</f>
@@ -3593,10 +3720,10 @@
         <v>7</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J24" s="11" t="n">
         <f aca="false">IF(E23=E24,1,F24)</f>
@@ -3607,20 +3734,20 @@
       </c>
       <c r="M24" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K24&amp;", '"&amp;L$1&amp;"': '"&amp;L24&amp;"', '"&amp;F$1&amp;"': "&amp;F24&amp;", '"&amp;G$1&amp;"': "&amp;G24&amp;", '"&amp;H$1&amp;"': '"&amp;H24&amp;"', '"&amp;I$1&amp;"': '"&amp;I24&amp;"', '"&amp;J$1&amp;"':"&amp;J24&amp;"}, "</f>
-        <v>{ 'reg': 77, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Capacidad de trabajo en equipo.', 'offset':2},</v>
+        <v>{ 'reg': 77, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Capacidad de trabajo en equipo.', 'offset':2}, </v>
       </c>
       <c r="N24" s="7" t="str">
         <f aca="false">IF(E23=E24,CONCATENATE(N23,M24),M24)</f>
-        <v>{ 'reg': 77, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Capacidad de trabajo en equipo.', 'offset':2},</v>
+        <v>{ 'reg': 77, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Capacidad de trabajo en equipo.', 'offset':2}, </v>
       </c>
       <c r="O24" s="15" t="str">
         <f aca="false">IF(E24=E25,"","{'"&amp;E$1&amp;"': "&amp;E24&amp;", '"&amp;B$1&amp;"': '"&amp;B24&amp;"',  'editing': false, 'tipo': '"&amp;A24&amp;"', 'data': "&amp;"["&amp;N24&amp;"],  },")</f>
-        <v>{'row': 5, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 77, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Capacidad de trabajo en equipo.', 'offset':2},],  },</v>
+        <v>{'row': 5, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 77, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Capacidad de trabajo en equipo.', 'offset':2}, ],  },</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="E25" s="7" t="n">
         <v>2</v>
@@ -3632,10 +3759,10 @@
         <v>8</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="J25" s="11" t="n">
         <f aca="false">IF(E24=E25,1,F25)</f>
@@ -3645,24 +3772,24 @@
         <v>9</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="M25" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K25&amp;", '"&amp;L$1&amp;"': '"&amp;L25&amp;"', '"&amp;F$1&amp;"': "&amp;F25&amp;", '"&amp;G$1&amp;"': "&amp;G25&amp;", '"&amp;H$1&amp;"': '"&amp;H25&amp;"', '"&amp;I$1&amp;"': '"&amp;I25&amp;"', '"&amp;J$1&amp;"':"&amp;J25&amp;"}, "</f>
-        <v>{ 'reg': 9, 'subtipo': 'competencias2', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS ESPECÍFICAS', 'offset':1},</v>
+        <v>{ 'reg': 9, 'subtipo': 'competencias2', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS ESPECÍFICAS', 'offset':1}, </v>
       </c>
       <c r="N25" s="7" t="str">
         <f aca="false">IF(E24=E25,CONCATENATE(N24,M25),M25)</f>
-        <v>{ 'reg': 9, 'subtipo': 'competencias2', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS ESPECÍFICAS', 'offset':1},</v>
+        <v>{ 'reg': 9, 'subtipo': 'competencias2', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS ESPECÍFICAS', 'offset':1}, </v>
       </c>
       <c r="O25" s="15" t="str">
         <f aca="false">IF(E25=E26,"","{'"&amp;E$1&amp;"': "&amp;E25&amp;", '"&amp;B$1&amp;"': '"&amp;B25&amp;"',  'editing': false, 'tipo': '"&amp;A25&amp;"', 'data': "&amp;"["&amp;N25&amp;"],  },")</f>
-        <v>{'row': 2, 'week': '',  'editing': false, 'tipo': 'titulo2', 'data': [{ 'reg': 9, 'subtipo': 'competencias2', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS ESPECÍFICAS', 'offset':1},],  },</v>
+        <v>{'row': 2, 'week': '',  'editing': false, 'tipo': 'titulo2', 'data': [{ 'reg': 9, 'subtipo': 'competencias2', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS ESPECÍFICAS', 'offset':1}, ],  },</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E26" s="7" t="n">
         <v>1</v>
@@ -3674,10 +3801,10 @@
         <v>7</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="J26" s="11" t="n">
         <f aca="false">IF(E25=E26,1,F26)</f>
@@ -3688,20 +3815,20 @@
       </c>
       <c r="M26" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K26&amp;", '"&amp;L$1&amp;"': '"&amp;L26&amp;"', '"&amp;F$1&amp;"': "&amp;F26&amp;", '"&amp;G$1&amp;"': "&amp;G26&amp;", '"&amp;H$1&amp;"': '"&amp;H26&amp;"', '"&amp;I$1&amp;"': '"&amp;I26&amp;"', '"&amp;J$1&amp;"':"&amp;J26&amp;"}, "</f>
-        <v>{ 'reg': 84, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce, Analiza y describe las diferentes empresas que se desarrollan en nuestro país y la importancia que tiene en ellas la contabilidad gerencia, desde la óptica de los estados financieros: Estado de Situación Financiera y Estado de Resultados.', 'offset':2},</v>
+        <v>{ 'reg': 84, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce, Analiza y describe las diferentes empresas que se desarrollan en nuestro país y la importancia que tiene en ellas la contabilidad gerencia, desde la óptica de los estados financieros: Estado de Situación Financiera y Estado de Resultados.', 'offset':2}, </v>
       </c>
       <c r="N26" s="7" t="str">
         <f aca="false">IF(E25=E26,CONCATENATE(N25,M26),M26)</f>
-        <v>{ 'reg': 84, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce, Analiza y describe las diferentes empresas que se desarrollan en nuestro país y la importancia que tiene en ellas la contabilidad gerencia, desde la óptica de los estados financieros: Estado de Situación Financiera y Estado de Resultados.', 'offset':2},</v>
+        <v>{ 'reg': 84, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce, Analiza y describe las diferentes empresas que se desarrollan en nuestro país y la importancia que tiene en ellas la contabilidad gerencia, desde la óptica de los estados financieros: Estado de Situación Financiera y Estado de Resultados.', 'offset':2}, </v>
       </c>
       <c r="O26" s="15" t="str">
         <f aca="false">IF(E26=E27,"","{'"&amp;E$1&amp;"': "&amp;E26&amp;", '"&amp;B$1&amp;"': '"&amp;B26&amp;"',  'editing': false, 'tipo': '"&amp;A26&amp;"', 'data': "&amp;"["&amp;N26&amp;"],  },")</f>
-        <v>{'row': 1, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 84, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce, Analiza y describe las diferentes empresas que se desarrollan en nuestro país y la importancia que tiene en ellas la contabilidad gerencia, desde la óptica de los estados financieros: Estado de Situación Financiera y Estado de Resultados.', 'offset':2},],  },</v>
+        <v>{'row': 1, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 84, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce, Analiza y describe las diferentes empresas que se desarrollan en nuestro país y la importancia que tiene en ellas la contabilidad gerencia, desde la óptica de los estados financieros: Estado de Situación Financiera y Estado de Resultados.', 'offset':2}, ],  },</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E27" s="7" t="n">
         <f aca="false">+E26+1</f>
@@ -3714,10 +3841,10 @@
         <v>7</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="J27" s="11" t="n">
         <f aca="false">IF(E26=E27,1,F27)</f>
@@ -3728,20 +3855,20 @@
       </c>
       <c r="M27" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K27&amp;", '"&amp;L$1&amp;"': '"&amp;L27&amp;"', '"&amp;F$1&amp;"': "&amp;F27&amp;", '"&amp;G$1&amp;"': "&amp;G27&amp;", '"&amp;H$1&amp;"': '"&amp;H27&amp;"', '"&amp;I$1&amp;"': '"&amp;I27&amp;"', '"&amp;J$1&amp;"':"&amp;J27&amp;"}, "</f>
-        <v>{ 'reg': 32, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Analiza y diagnostica los Estados financieros básicos de diferentes empresas, mediante el análisis vertical y horizontal así como los ratios financieros. ', 'offset':2},</v>
+        <v>{ 'reg': 32, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Analiza y diagnostica los Estados financieros básicos de diferentes empresas, mediante el análisis vertical y horizontal así como los ratios financieros. ', 'offset':2}, </v>
       </c>
       <c r="N27" s="7" t="str">
         <f aca="false">IF(E26=E27,CONCATENATE(N26,M27),M27)</f>
-        <v>{ 'reg': 32, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Analiza y diagnostica los Estados financieros básicos de diferentes empresas, mediante el análisis vertical y horizontal así como los ratios financieros. ', 'offset':2},</v>
+        <v>{ 'reg': 32, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Analiza y diagnostica los Estados financieros básicos de diferentes empresas, mediante el análisis vertical y horizontal así como los ratios financieros. ', 'offset':2}, </v>
       </c>
       <c r="O27" s="15" t="str">
         <f aca="false">IF(E27=E28,"","{'"&amp;E$1&amp;"': "&amp;E27&amp;", '"&amp;B$1&amp;"': '"&amp;B27&amp;"',  'editing': false, 'tipo': '"&amp;A27&amp;"', 'data': "&amp;"["&amp;N27&amp;"],  },")</f>
-        <v>{'row': 2, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 32, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Analiza y diagnostica los Estados financieros básicos de diferentes empresas, mediante el análisis vertical y horizontal así como los ratios financieros. ', 'offset':2},],  },</v>
+        <v>{'row': 2, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 32, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Analiza y diagnostica los Estados financieros básicos de diferentes empresas, mediante el análisis vertical y horizontal así como los ratios financieros. ', 'offset':2}, ],  },</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E28" s="7" t="n">
         <f aca="false">+E27+1</f>
@@ -3754,10 +3881,10 @@
         <v>7</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="J28" s="11" t="n">
         <f aca="false">IF(E27=E28,1,F28)</f>
@@ -3768,20 +3895,20 @@
       </c>
       <c r="M28" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K28&amp;", '"&amp;L$1&amp;"': '"&amp;L28&amp;"', '"&amp;F$1&amp;"': "&amp;F28&amp;", '"&amp;G$1&amp;"': "&amp;G28&amp;", '"&amp;H$1&amp;"': '"&amp;H28&amp;"', '"&amp;I$1&amp;"': '"&amp;I28&amp;"', '"&amp;J$1&amp;"':"&amp;J28&amp;"}, "</f>
-        <v>{ 'reg': 111, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Desarrolla un plan financiero para una empresa: Presupuesto de ventas, Presupuesto de cobranzas, presupuesto de producción, presupuesto de compras, presupuesto de pagos, presupuesto de pagos, presupuesto de gastos, entre otros.', 'offset':2},</v>
+        <v>{ 'reg': 111, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Desarrolla un plan financiero para una empresa: Presupuesto de ventas, Presupuesto de cobranzas, presupuesto de producción, presupuesto de compras, presupuesto de pagos, presupuesto de pagos, presupuesto de gastos, entre otros.', 'offset':2}, </v>
       </c>
       <c r="N28" s="7" t="str">
         <f aca="false">IF(E27=E28,CONCATENATE(N27,M28),M28)</f>
-        <v>{ 'reg': 111, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Desarrolla un plan financiero para una empresa: Presupuesto de ventas, Presupuesto de cobranzas, presupuesto de producción, presupuesto de compras, presupuesto de pagos, presupuesto de pagos, presupuesto de gastos, entre otros.', 'offset':2},</v>
+        <v>{ 'reg': 111, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Desarrolla un plan financiero para una empresa: Presupuesto de ventas, Presupuesto de cobranzas, presupuesto de producción, presupuesto de compras, presupuesto de pagos, presupuesto de pagos, presupuesto de gastos, entre otros.', 'offset':2}, </v>
       </c>
       <c r="O28" s="15" t="str">
         <f aca="false">IF(E28=E29,"","{'"&amp;E$1&amp;"': "&amp;E28&amp;", '"&amp;B$1&amp;"': '"&amp;B28&amp;"',  'editing': false, 'tipo': '"&amp;A28&amp;"', 'data': "&amp;"["&amp;N28&amp;"],  },")</f>
-        <v>{'row': 3, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 111, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Desarrolla un plan financiero para una empresa: Presupuesto de ventas, Presupuesto de cobranzas, presupuesto de producción, presupuesto de compras, presupuesto de pagos, presupuesto de pagos, presupuesto de gastos, entre otros.', 'offset':2},],  },</v>
+        <v>{'row': 3, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 111, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Desarrolla un plan financiero para una empresa: Presupuesto de ventas, Presupuesto de cobranzas, presupuesto de producción, presupuesto de compras, presupuesto de pagos, presupuesto de pagos, presupuesto de gastos, entre otros.', 'offset':2}, ],  },</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E29" s="7" t="n">
         <f aca="false">+E28+1</f>
@@ -3794,10 +3921,10 @@
         <v>7</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="J29" s="11" t="n">
         <f aca="false">IF(E28=E29,1,F29)</f>
@@ -3808,20 +3935,20 @@
       </c>
       <c r="M29" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K29&amp;", '"&amp;L$1&amp;"': '"&amp;L29&amp;"', '"&amp;F$1&amp;"': "&amp;F29&amp;", '"&amp;G$1&amp;"': "&amp;G29&amp;", '"&amp;H$1&amp;"': '"&amp;H29&amp;"', '"&amp;I$1&amp;"': '"&amp;I29&amp;"', '"&amp;J$1&amp;"':"&amp;J29&amp;"}, "</f>
-        <v>{ 'reg': 28, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Estudia la importancia de la estructura de costos de una empresa y su implicancia en la planificación financiera.', 'offset':2},</v>
+        <v>{ 'reg': 28, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Estudia la importancia de la estructura de costos de una empresa y su implicancia en la planificación financiera.', 'offset':2}, </v>
       </c>
       <c r="N29" s="7" t="str">
         <f aca="false">IF(E28=E29,CONCATENATE(N28,M29),M29)</f>
-        <v>{ 'reg': 28, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Estudia la importancia de la estructura de costos de una empresa y su implicancia en la planificación financiera.', 'offset':2},</v>
+        <v>{ 'reg': 28, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Estudia la importancia de la estructura de costos de una empresa y su implicancia en la planificación financiera.', 'offset':2}, </v>
       </c>
       <c r="O29" s="15" t="str">
         <f aca="false">IF(E29=E30,"","{'"&amp;E$1&amp;"': "&amp;E29&amp;", '"&amp;B$1&amp;"': '"&amp;B29&amp;"',  'editing': false, 'tipo': '"&amp;A29&amp;"', 'data': "&amp;"["&amp;N29&amp;"],  },")</f>
-        <v>{'row': 4, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 28, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Estudia la importancia de la estructura de costos de una empresa y su implicancia en la planificación financiera.', 'offset':2},],  },</v>
+        <v>{'row': 4, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 28, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Estudia la importancia de la estructura de costos de una empresa y su implicancia en la planificación financiera.', 'offset':2}, ],  },</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E30" s="7" t="n">
         <f aca="false">+E29+1</f>
@@ -3834,10 +3961,10 @@
         <v>7</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="J30" s="11" t="n">
         <f aca="false">IF(E29=E30,1,F30)</f>
@@ -3848,20 +3975,20 @@
       </c>
       <c r="M30" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K30&amp;", '"&amp;L$1&amp;"': '"&amp;L30&amp;"', '"&amp;F$1&amp;"': "&amp;F30&amp;", '"&amp;G$1&amp;"': "&amp;G30&amp;", '"&amp;H$1&amp;"': '"&amp;H30&amp;"', '"&amp;I$1&amp;"': '"&amp;I30&amp;"', '"&amp;J$1&amp;"':"&amp;J30&amp;"}, "</f>
-        <v>{ 'reg': 27, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Elabora estados financieros proyectados, para diagnosticar el futuro de la empresa.', 'offset':2},</v>
+        <v>{ 'reg': 27, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Elabora estados financieros proyectados, para diagnosticar el futuro de la empresa.', 'offset':2}, </v>
       </c>
       <c r="N30" s="7" t="str">
         <f aca="false">IF(E29=E30,CONCATENATE(N29,M30),M30)</f>
-        <v>{ 'reg': 27, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Elabora estados financieros proyectados, para diagnosticar el futuro de la empresa.', 'offset':2},</v>
+        <v>{ 'reg': 27, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Elabora estados financieros proyectados, para diagnosticar el futuro de la empresa.', 'offset':2}, </v>
       </c>
       <c r="O30" s="15" t="str">
         <f aca="false">IF(E30=E31,"","{'"&amp;E$1&amp;"': "&amp;E30&amp;", '"&amp;B$1&amp;"': '"&amp;B30&amp;"',  'editing': false, 'tipo': '"&amp;A30&amp;"', 'data': "&amp;"["&amp;N30&amp;"],  },")</f>
-        <v>{'row': 5, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 27, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Elabora estados financieros proyectados, para diagnosticar el futuro de la empresa.', 'offset':2},],  },</v>
+        <v>{'row': 5, 'week': '',  'editing': false, 'tipo': 'competencias', 'data': [{ 'reg': 27, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Elabora estados financieros proyectados, para diagnosticar el futuro de la empresa.', 'offset':2}, ],  },</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="E31" s="7" t="n">
         <v>4</v>
@@ -3873,10 +4000,10 @@
         <v>8</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="J31" s="11" t="n">
         <f aca="false">IF(E30=E31,1,F31)</f>
@@ -3886,24 +4013,24 @@
         <v>126</v>
       </c>
       <c r="L31" s="11" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M31" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K31&amp;", '"&amp;L$1&amp;"': '"&amp;L31&amp;"', '"&amp;F$1&amp;"': "&amp;F31&amp;", '"&amp;G$1&amp;"': "&amp;G31&amp;", '"&amp;H$1&amp;"': '"&amp;H31&amp;"', '"&amp;I$1&amp;"': '"&amp;I31&amp;"', '"&amp;J$1&amp;"':"&amp;J31&amp;"}, "</f>
-        <v>{ 'reg': 126, 'subtipo': 'contenidos', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'IV. PROGRAMACIÓN DE CONTENIDOS', 'offset':1},</v>
+        <v>{ 'reg': 126, 'subtipo': 'contenidos', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'IV. PROGRAMACIÓN DE CONTENIDOS', 'offset':1}, </v>
       </c>
       <c r="N31" s="7" t="str">
         <f aca="false">IF(E30=E31,CONCATENATE(N30,M31),M31)</f>
-        <v>{ 'reg': 126, 'subtipo': 'contenidos', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'IV. PROGRAMACIÓN DE CONTENIDOS', 'offset':1},</v>
+        <v>{ 'reg': 126, 'subtipo': 'contenidos', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'IV. PROGRAMACIÓN DE CONTENIDOS', 'offset':1}, </v>
       </c>
       <c r="O31" s="15" t="str">
         <f aca="false">IF(E31=E32,"","{'"&amp;E$1&amp;"': "&amp;E31&amp;", '"&amp;B$1&amp;"': '"&amp;B31&amp;"',  'editing': false, 'tipo': '"&amp;A31&amp;"', 'data': "&amp;"["&amp;N31&amp;"],  },")</f>
-        <v>{'row': 4, 'week': '',  'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 126, 'subtipo': 'contenidos', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'IV. PROGRAMACIÓN DE CONTENIDOS', 'offset':1},],  },</v>
+        <v>{'row': 4, 'week': '',  'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 126, 'subtipo': 'contenidos', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'IV. PROGRAMACIÓN DE CONTENIDOS', 'offset':1}, ],  },</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B32" s="7" t="n">
         <v>1</v>
@@ -3918,10 +4045,10 @@
         <v>8</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="J32" s="11" t="n">
         <f aca="false">IF(E31=E32,1,F32)</f>
@@ -3932,20 +4059,20 @@
       </c>
       <c r="M32" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K32&amp;", '"&amp;L$1&amp;"': '"&amp;L32&amp;"', '"&amp;F$1&amp;"': "&amp;F32&amp;", '"&amp;G$1&amp;"': "&amp;G32&amp;", '"&amp;H$1&amp;"': '"&amp;H32&amp;"', '"&amp;I$1&amp;"': '"&amp;I32&amp;"', '"&amp;J$1&amp;"':"&amp;J32&amp;"}, "</f>
-        <v>{ 'reg': 22, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD I: LA CONTABILIDAD GERENCIAL.', 'offset':1},</v>
+        <v>{ 'reg': 22, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD I: LA CONTABILIDAD GERENCIAL.', 'offset':1}, </v>
       </c>
       <c r="N32" s="7" t="str">
         <f aca="false">IF(E31=E32,CONCATENATE(N31,M32),M32)</f>
-        <v>{ 'reg': 22, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD I: LA CONTABILIDAD GERENCIAL.', 'offset':1},</v>
+        <v>{ 'reg': 22, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD I: LA CONTABILIDAD GERENCIAL.', 'offset':1}, </v>
       </c>
       <c r="O32" s="15" t="str">
         <f aca="false">IF(E32=E33,"","{'"&amp;E$1&amp;"': "&amp;E32&amp;", '"&amp;B$1&amp;"': '"&amp;B32&amp;"',  'editing': false, 'tipo': '"&amp;A32&amp;"', 'data': "&amp;"["&amp;N32&amp;"],  },")</f>
-        <v>{'row': 1, 'week': '1',  'editing': false, 'tipo': 'unidades', 'data': [{ 'reg': 22, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD I: LA CONTABILIDAD GERENCIAL.', 'offset':1},],  },</v>
+        <v>{'row': 1, 'week': '1',  'editing': false, 'tipo': 'unidades', 'data': [{ 'reg': 22, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD I: LA CONTABILIDAD GERENCIAL.', 'offset':1}, ],  },</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="B33" s="7" t="n">
         <v>1.3</v>
@@ -3961,10 +4088,10 @@
         <v>1</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="J33" s="11" t="n">
         <f aca="false">IF(E32=E33,1,F33)</f>
@@ -3975,11 +4102,11 @@
       </c>
       <c r="M33" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K33&amp;", '"&amp;L$1&amp;"': '"&amp;L33&amp;"', '"&amp;F$1&amp;"': "&amp;F33&amp;", '"&amp;G$1&amp;"': "&amp;G33&amp;", '"&amp;H$1&amp;"': '"&amp;H33&amp;"', '"&amp;I$1&amp;"': '"&amp;I33&amp;"', '"&amp;J$1&amp;"':"&amp;J33&amp;"}, "</f>
-        <v>{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1},</v>
+        <v>{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, </v>
       </c>
       <c r="N33" s="7" t="str">
         <f aca="false">IF(E32=E33,CONCATENATE(N32,M33),M33)</f>
-        <v>{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1},</v>
+        <v>{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, </v>
       </c>
       <c r="O33" s="15" t="str">
         <f aca="false">IF(E33=E34,"","{'"&amp;E$1&amp;"': "&amp;E33&amp;", '"&amp;B$1&amp;"': '"&amp;B33&amp;"',  'editing': false, 'tipo': '"&amp;A33&amp;"', 'data': "&amp;"["&amp;N33&amp;"],  },")</f>
@@ -3988,7 +4115,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="B34" s="7" t="n">
         <v>1.3</v>
@@ -4004,10 +4131,10 @@
         <v>3</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="J34" s="11" t="n">
         <f aca="false">IF(E33=E34,1,F34)</f>
@@ -4018,11 +4145,11 @@
       </c>
       <c r="M34" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K34&amp;", '"&amp;L$1&amp;"': '"&amp;L34&amp;"', '"&amp;F$1&amp;"': "&amp;F34&amp;", '"&amp;G$1&amp;"': "&amp;G34&amp;", '"&amp;H$1&amp;"': '"&amp;H34&amp;"', '"&amp;I$1&amp;"': '"&amp;I34&amp;"', '"&amp;J$1&amp;"':"&amp;J34&amp;"}, "</f>
-        <v>{ 'reg': 48, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1},</v>
+        <v>{ 'reg': 48, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, </v>
       </c>
       <c r="N34" s="7" t="str">
         <f aca="false">IF(E33=E34,CONCATENATE(N33,M34),M34)</f>
-        <v>{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1},{ 'reg': 48, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1},</v>
+        <v>{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 48, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, </v>
       </c>
       <c r="O34" s="15" t="str">
         <f aca="false">IF(E34=E35,"","{'"&amp;E$1&amp;"': "&amp;E34&amp;", '"&amp;B$1&amp;"': '"&amp;B34&amp;"',  'editing': false, 'tipo': '"&amp;A34&amp;"', 'data': "&amp;"["&amp;N34&amp;"],  },")</f>
@@ -4031,7 +4158,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="B35" s="7" t="n">
         <v>1.3</v>
@@ -4047,10 +4174,10 @@
         <v>2</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="J35" s="11" t="n">
         <f aca="false">IF(E34=E35,1,F35)</f>
@@ -4061,11 +4188,11 @@
       </c>
       <c r="M35" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K35&amp;", '"&amp;L$1&amp;"': '"&amp;L35&amp;"', '"&amp;F$1&amp;"': "&amp;F35&amp;", '"&amp;G$1&amp;"': "&amp;G35&amp;", '"&amp;H$1&amp;"': '"&amp;H35&amp;"', '"&amp;I$1&amp;"': '"&amp;I35&amp;"', '"&amp;J$1&amp;"':"&amp;J35&amp;"}, "</f>
-        <v>{ 'reg': 14, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1},</v>
+        <v>{ 'reg': 14, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, </v>
       </c>
       <c r="N35" s="7" t="str">
         <f aca="false">IF(E34=E35,CONCATENATE(N34,M35),M35)</f>
-        <v>{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1},{ 'reg': 48, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1},{ 'reg': 14, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1},</v>
+        <v>{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 48, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'reg': 14, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, </v>
       </c>
       <c r="O35" s="15" t="str">
         <f aca="false">IF(E35=E36,"","{'"&amp;E$1&amp;"': "&amp;E35&amp;", '"&amp;B$1&amp;"': '"&amp;B35&amp;"',  'editing': false, 'tipo': '"&amp;A35&amp;"', 'data': "&amp;"["&amp;N35&amp;"],  },")</f>
@@ -4074,7 +4201,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="B36" s="7" t="n">
         <v>1.3</v>
@@ -4090,10 +4217,10 @@
         <v>2</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="J36" s="11" t="n">
         <f aca="false">IF(E35=E36,1,F36)</f>
@@ -4104,20 +4231,20 @@
       </c>
       <c r="M36" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K36&amp;", '"&amp;L$1&amp;"': '"&amp;L36&amp;"', '"&amp;F$1&amp;"': "&amp;F36&amp;", '"&amp;G$1&amp;"': "&amp;G36&amp;", '"&amp;H$1&amp;"': '"&amp;H36&amp;"', '"&amp;I$1&amp;"': '"&amp;I36&amp;"', '"&amp;J$1&amp;"':"&amp;J36&amp;"}, "</f>
-        <v>{ 'reg': 25, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1},</v>
+        <v>{ 'reg': 25, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1}, </v>
       </c>
       <c r="N36" s="7" t="str">
         <f aca="false">IF(E35=E36,CONCATENATE(N35,M36),M36)</f>
-        <v>{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1},{ 'reg': 48, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1},{ 'reg': 14, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1},{ 'reg': 25, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1},</v>
+        <v>{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 48, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'reg': 14, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, { 'reg': 25, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1}, </v>
       </c>
       <c r="O36" s="15" t="str">
         <f aca="false">IF(E36=E37,"","{'"&amp;E$1&amp;"': "&amp;E36&amp;", '"&amp;B$1&amp;"': '"&amp;B36&amp;"',  'editing': false, 'tipo': '"&amp;A36&amp;"', 'data': "&amp;"["&amp;N36&amp;"],  },")</f>
-        <v>{'row': 2, 'week': '1.3',  'editing': false, 'tipo': 'titulo3', 'data': [{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1},{ 'reg': 48, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1},{ 'reg': 14, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1},{ 'reg': 25, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1},],  },</v>
+        <v>{'row': 2, 'week': '1.3',  'editing': false, 'tipo': 'titulo3', 'data': [{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 48, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'reg': 14, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, { 'reg': 25, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1}, ],  },</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B37" s="7" t="n">
         <v>1.5</v>
@@ -4132,7 +4259,7 @@
         <v>1</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="I37" s="11" t="n">
         <v>1</v>
@@ -4146,11 +4273,11 @@
       </c>
       <c r="M37" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K37&amp;", '"&amp;L$1&amp;"': '"&amp;L37&amp;"', '"&amp;F$1&amp;"': "&amp;F37&amp;", '"&amp;G$1&amp;"': "&amp;G37&amp;", '"&amp;H$1&amp;"': '"&amp;H37&amp;"', '"&amp;I$1&amp;"': '"&amp;I37&amp;"', '"&amp;J$1&amp;"':"&amp;J37&amp;"}, "</f>
-        <v>{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1},</v>
+        <v>{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, </v>
       </c>
       <c r="N37" s="7" t="str">
         <f aca="false">IF(E36=E37,CONCATENATE(N36,M37),M37)</f>
-        <v>{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1},</v>
+        <v>{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, </v>
       </c>
       <c r="O37" s="15" t="str">
         <f aca="false">IF(E37=E38,"","{'"&amp;E$1&amp;"': "&amp;E37&amp;", '"&amp;B$1&amp;"': '"&amp;B37&amp;"',  'editing': false, 'tipo': '"&amp;A37&amp;"', 'data': "&amp;"["&amp;N37&amp;"],  },")</f>
@@ -4159,7 +4286,7 @@
     </row>
     <row r="38" customFormat="false" ht="195" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B38" s="7" t="n">
         <f aca="false">+B37</f>
@@ -4176,10 +4303,10 @@
         <v>3</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="I38" s="16" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="J38" s="11" t="n">
         <f aca="false">IF(E37=E38,1,F38)</f>
@@ -4190,11 +4317,11 @@
       </c>
       <c r="M38" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K38&amp;", '"&amp;L$1&amp;"': '"&amp;L38&amp;"', '"&amp;F$1&amp;"': "&amp;F38&amp;", '"&amp;G$1&amp;"': "&amp;G38&amp;", '"&amp;H$1&amp;"': '"&amp;H38&amp;"', '"&amp;I$1&amp;"': '"&amp;I38&amp;"', '"&amp;J$1&amp;"':"&amp;J38&amp;"}, "</f>
-        <v>{ 'reg': 127, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1},</v>
+        <v>{ 'reg': 127, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1}, </v>
       </c>
       <c r="N38" s="7" t="str">
         <f aca="false">IF(E37=E38,CONCATENATE(N37,M38),M38)</f>
-        <v>{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1},{ 'reg': 127, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1},</v>
+        <v>{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, { 'reg': 127, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1}, </v>
       </c>
       <c r="O38" s="15" t="str">
         <f aca="false">IF(E38=E39,"","{'"&amp;E$1&amp;"': "&amp;E38&amp;", '"&amp;B$1&amp;"': '"&amp;B38&amp;"',  'editing': false, 'tipo': '"&amp;A38&amp;"', 'data': "&amp;"["&amp;N38&amp;"],  },")</f>
@@ -4203,7 +4330,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B39" s="7" t="n">
         <f aca="false">+B38</f>
@@ -4220,10 +4347,10 @@
         <v>2</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="J39" s="11" t="n">
         <f aca="false">IF(E38=E39,1,F39)</f>
@@ -4234,11 +4361,11 @@
       </c>
       <c r="M39" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K39&amp;", '"&amp;L$1&amp;"': '"&amp;L39&amp;"', '"&amp;F$1&amp;"': "&amp;F39&amp;", '"&amp;G$1&amp;"': "&amp;G39&amp;", '"&amp;H$1&amp;"': '"&amp;H39&amp;"', '"&amp;I$1&amp;"': '"&amp;I39&amp;"', '"&amp;J$1&amp;"':"&amp;J39&amp;"}, "</f>
-        <v>{ 'reg': 91, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Reconoce el recorrido de las operaciones empresariales en el ciclo contable de una empresa. Evalúa la utilidad de la información financiera y gerencial.', 'offset':1},</v>
+        <v>{ 'reg': 91, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Reconoce el recorrido de las operaciones empresariales en el ciclo contable de una empresa. Evalúa la utilidad de la información financiera y gerencial.', 'offset':1}, </v>
       </c>
       <c r="N39" s="7" t="str">
         <f aca="false">IF(E38=E39,CONCATENATE(N38,M39),M39)</f>
-        <v>{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1},{ 'reg': 127, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1},{ 'reg': 91, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Reconoce el recorrido de las operaciones empresariales en el ciclo contable de una empresa. Evalúa la utilidad de la información financiera y gerencial.', 'offset':1},</v>
+        <v>{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, { 'reg': 127, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1}, { 'reg': 91, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Reconoce el recorrido de las operaciones empresariales en el ciclo contable de una empresa. Evalúa la utilidad de la información financiera y gerencial.', 'offset':1}, </v>
       </c>
       <c r="O39" s="15" t="str">
         <f aca="false">IF(E39=E40,"","{'"&amp;E$1&amp;"': "&amp;E39&amp;", '"&amp;B$1&amp;"': '"&amp;B39&amp;"',  'editing': false, 'tipo': '"&amp;A39&amp;"', 'data': "&amp;"["&amp;N39&amp;"],  },")</f>
@@ -4247,7 +4374,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B40" s="7" t="n">
         <f aca="false">+B39</f>
@@ -4264,10 +4391,10 @@
         <v>2</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="I40" s="16" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="J40" s="11" t="n">
         <f aca="false">IF(E39=E40,1,F40)</f>
@@ -4278,20 +4405,20 @@
       </c>
       <c r="M40" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K40&amp;", '"&amp;L$1&amp;"': '"&amp;L40&amp;"', '"&amp;F$1&amp;"': "&amp;F40&amp;", '"&amp;G$1&amp;"': "&amp;G40&amp;", '"&amp;H$1&amp;"': '"&amp;H40&amp;"', '"&amp;I$1&amp;"': '"&amp;I40&amp;"', '"&amp;J$1&amp;"':"&amp;J40&amp;"}, "</f>
-        <v>{ 'reg': 115, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada\nTaller', 'offset':1},</v>
+        <v>{ 'reg': 115, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada\nTaller', 'offset':1}, </v>
       </c>
       <c r="N40" s="7" t="str">
         <f aca="false">IF(E39=E40,CONCATENATE(N39,M40),M40)</f>
-        <v>{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1},{ 'reg': 127, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1},{ 'reg': 91, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Reconoce el recorrido de las operaciones empresariales en el ciclo contable de una empresa. Evalúa la utilidad de la información financiera y gerencial.', 'offset':1},{ 'reg': 115, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada\nTaller', 'offset':1},</v>
+        <v>{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, { 'reg': 127, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1}, { 'reg': 91, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Reconoce el recorrido de las operaciones empresariales en el ciclo contable de una empresa. Evalúa la utilidad de la información financiera y gerencial.', 'offset':1}, { 'reg': 115, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada\nTaller', 'offset':1}, </v>
       </c>
       <c r="O40" s="15" t="str">
         <f aca="false">IF(E40=E41,"","{'"&amp;E$1&amp;"': "&amp;E40&amp;", '"&amp;B$1&amp;"': '"&amp;B40&amp;"',  'editing': false, 'tipo': '"&amp;A40&amp;"', 'data': "&amp;"["&amp;N40&amp;"],  },")</f>
-        <v>{'row': 1, 'week': '1.5',  'editing': false, 'tipo': 'contenidos', 'data': [{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1},{ 'reg': 127, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1},{ 'reg': 91, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Reconoce el recorrido de las operaciones empresariales en el ciclo contable de una empresa. Evalúa la utilidad de la información financiera y gerencial.', 'offset':1},{ 'reg': 115, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada\nTaller', 'offset':1},],  },</v>
+        <v>{'row': 1, 'week': '1.5',  'editing': false, 'tipo': 'contenidos', 'data': [{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, { 'reg': 127, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1}, { 'reg': 91, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Reconoce el recorrido de las operaciones empresariales en el ciclo contable de una empresa. Evalúa la utilidad de la información financiera y gerencial.', 'offset':1}, { 'reg': 115, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada\nTaller', 'offset':1}, ],  },</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B41" s="7" t="n">
         <v>2.5</v>
@@ -4307,7 +4434,7 @@
         <v>1</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="I41" s="14" t="n">
         <v>2</v>
@@ -4321,11 +4448,11 @@
       </c>
       <c r="M41" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K41&amp;", '"&amp;L$1&amp;"': '"&amp;L41&amp;"', '"&amp;F$1&amp;"': "&amp;F41&amp;", '"&amp;G$1&amp;"': "&amp;G41&amp;", '"&amp;H$1&amp;"': '"&amp;H41&amp;"', '"&amp;I$1&amp;"': '"&amp;I41&amp;"', '"&amp;J$1&amp;"':"&amp;J41&amp;"}, "</f>
-        <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1},</v>
+        <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, </v>
       </c>
       <c r="N41" s="7" t="str">
         <f aca="false">IF(E40=E41,CONCATENATE(N40,M41),M41)</f>
-        <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1},</v>
+        <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, </v>
       </c>
       <c r="O41" s="15" t="str">
         <f aca="false">IF(E41=E42,"","{'"&amp;E$1&amp;"': "&amp;E41&amp;", '"&amp;B$1&amp;"': '"&amp;B41&amp;"',  'editing': false, 'tipo': '"&amp;A41&amp;"', 'data': "&amp;"["&amp;N41&amp;"],  },")</f>
@@ -4334,7 +4461,7 @@
     </row>
     <row r="42" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B42" s="7" t="n">
         <f aca="false">+B41</f>
@@ -4351,10 +4478,10 @@
         <v>3</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="I42" s="16" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="J42" s="11" t="n">
         <f aca="false">IF(E41=E42,1,F42)</f>
@@ -4365,11 +4492,11 @@
       </c>
       <c r="M42" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K42&amp;", '"&amp;L$1&amp;"': '"&amp;L42&amp;"', '"&amp;F$1&amp;"': "&amp;F42&amp;", '"&amp;G$1&amp;"': "&amp;G42&amp;", '"&amp;H$1&amp;"': '"&amp;H42&amp;"', '"&amp;I$1&amp;"': '"&amp;I42&amp;"', '"&amp;J$1&amp;"':"&amp;J42&amp;"}, "</f>
-        <v>{ 'reg': 17, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1},</v>
+        <v>{ 'reg': 17, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1}, </v>
       </c>
       <c r="N42" s="7" t="str">
         <f aca="false">IF(E41=E42,CONCATENATE(N41,M42),M42)</f>
-        <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1},{ 'reg': 17, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1},</v>
+        <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, { 'reg': 17, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1}, </v>
       </c>
       <c r="O42" s="15" t="str">
         <f aca="false">IF(E42=E43,"","{'"&amp;E$1&amp;"': "&amp;E42&amp;", '"&amp;B$1&amp;"': '"&amp;B42&amp;"',  'editing': false, 'tipo': '"&amp;A42&amp;"', 'data': "&amp;"["&amp;N42&amp;"],  },")</f>
@@ -4396,10 +4523,10 @@
         <v>2</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="J43" s="11" t="n">
         <f aca="false">IF(E42=E43,1,F43)</f>
@@ -4410,11 +4537,11 @@
       </c>
       <c r="M43" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K43&amp;", '"&amp;L$1&amp;"': '"&amp;L43&amp;"', '"&amp;F$1&amp;"': "&amp;F43&amp;", '"&amp;G$1&amp;"': "&amp;G43&amp;", '"&amp;H$1&amp;"': '"&amp;H43&amp;"', '"&amp;I$1&amp;"': '"&amp;I43&amp;"', '"&amp;J$1&amp;"':"&amp;J43&amp;"}, "</f>
-        <v>{ 'reg': 102, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Determinación, distribución y aplicación de los costos en una empresa mercantil.', 'offset':1},</v>
+        <v>{ 'reg': 102, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Determinación, distribución y aplicación de los costos en una empresa mercantil.', 'offset':1}, </v>
       </c>
       <c r="N43" s="7" t="str">
         <f aca="false">IF(E42=E43,CONCATENATE(N42,M43),M43)</f>
-        <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1},{ 'reg': 17, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1},{ 'reg': 102, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Determinación, distribución y aplicación de los costos en una empresa mercantil.', 'offset':1},</v>
+        <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, { 'reg': 17, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1}, { 'reg': 102, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Determinación, distribución y aplicación de los costos en una empresa mercantil.', 'offset':1}, </v>
       </c>
       <c r="O43" s="15" t="str">
         <f aca="false">IF(E43=E44,"","{'"&amp;E$1&amp;"': "&amp;E43&amp;", '"&amp;B$1&amp;"': '"&amp;B43&amp;"',  'editing': false, 'tipo': '"&amp;A43&amp;"', 'data': "&amp;"["&amp;N43&amp;"],  },")</f>
@@ -4441,10 +4568,10 @@
         <v>2</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="J44" s="11" t="n">
         <f aca="false">IF(E43=E44,1,F44)</f>
@@ -4455,20 +4582,20 @@
       </c>
       <c r="M44" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K44&amp;", '"&amp;L$1&amp;"': '"&amp;L44&amp;"', '"&amp;F$1&amp;"': "&amp;F44&amp;", '"&amp;G$1&amp;"': "&amp;G44&amp;", '"&amp;H$1&amp;"': '"&amp;H44&amp;"', '"&amp;I$1&amp;"': '"&amp;I44&amp;"', '"&amp;J$1&amp;"':"&amp;J44&amp;"}, "</f>
-        <v>{ 'reg': 126, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Dinámica grupal/debate en clase', 'offset':1},</v>
+        <v>{ 'reg': 126, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Dinámica grupal/debate en clase', 'offset':1}, </v>
       </c>
       <c r="N44" s="7" t="str">
         <f aca="false">IF(E43=E44,CONCATENATE(N43,M44),M44)</f>
-        <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1},{ 'reg': 17, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1},{ 'reg': 102, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Determinación, distribución y aplicación de los costos en una empresa mercantil.', 'offset':1},{ 'reg': 126, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Dinámica grupal/debate en clase', 'offset':1},</v>
+        <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, { 'reg': 17, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1}, { 'reg': 102, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Determinación, distribución y aplicación de los costos en una empresa mercantil.', 'offset':1}, { 'reg': 126, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Dinámica grupal/debate en clase', 'offset':1}, </v>
       </c>
       <c r="O44" s="15" t="str">
         <f aca="false">IF(E44=E45,"","{'"&amp;E$1&amp;"': "&amp;E44&amp;", '"&amp;B$1&amp;"': '"&amp;B44&amp;"',  'editing': false, 'tipo': '"&amp;A44&amp;"', 'data': "&amp;"["&amp;N44&amp;"],  },")</f>
-        <v>{'row': 2, 'week': '2.5',  'editing': false, 'tipo': 'contenidos', 'data': [{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1},{ 'reg': 17, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1},{ 'reg': 102, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Determinación, distribución y aplicación de los costos en una empresa mercantil.', 'offset':1},{ 'reg': 126, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Dinámica grupal/debate en clase', 'offset':1},],  },</v>
+        <v>{'row': 2, 'week': '2.5',  'editing': false, 'tipo': 'contenidos', 'data': [{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, { 'reg': 17, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1}, { 'reg': 102, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Determinación, distribución y aplicación de los costos en una empresa mercantil.', 'offset':1}, { 'reg': 126, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Dinámica grupal/debate en clase', 'offset':1}, ],  },</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B45" s="7" t="n">
         <v>3.5</v>
@@ -4484,7 +4611,7 @@
         <v>1</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="I45" s="11" t="n">
         <v>3</v>
@@ -4498,11 +4625,11 @@
       </c>
       <c r="M45" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K45&amp;", '"&amp;L$1&amp;"': '"&amp;L45&amp;"', '"&amp;F$1&amp;"': "&amp;F45&amp;", '"&amp;G$1&amp;"': "&amp;G45&amp;", '"&amp;H$1&amp;"': '"&amp;H45&amp;"', '"&amp;I$1&amp;"': '"&amp;I45&amp;"', '"&amp;J$1&amp;"':"&amp;J45&amp;"}, "</f>
-        <v>{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1},</v>
+        <v>{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, </v>
       </c>
       <c r="N45" s="7" t="str">
         <f aca="false">IF(E44=E45,CONCATENATE(N44,M45),M45)</f>
-        <v>{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1},</v>
+        <v>{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, </v>
       </c>
       <c r="O45" s="15" t="str">
         <f aca="false">IF(E45=E46,"","{'"&amp;E$1&amp;"': "&amp;E45&amp;", '"&amp;B$1&amp;"': '"&amp;B45&amp;"',  'editing': false, 'tipo': '"&amp;A45&amp;"', 'data': "&amp;"["&amp;N45&amp;"],  },")</f>
@@ -4511,7 +4638,7 @@
     </row>
     <row r="46" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B46" s="7" t="n">
         <f aca="false">+B45</f>
@@ -4528,10 +4655,10 @@
         <v>3</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="I46" s="16" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="J46" s="11" t="n">
         <f aca="false">IF(E45=E46,1,F46)</f>
@@ -4542,11 +4669,11 @@
       </c>
       <c r="M46" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K46&amp;", '"&amp;L$1&amp;"': '"&amp;L46&amp;"', '"&amp;F$1&amp;"': "&amp;F46&amp;", '"&amp;G$1&amp;"': "&amp;G46&amp;", '"&amp;H$1&amp;"': '"&amp;H46&amp;"', '"&amp;I$1&amp;"': '"&amp;I46&amp;"', '"&amp;J$1&amp;"':"&amp;J46&amp;"}, "</f>
-        <v>{ 'reg': 124, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1},</v>
+        <v>{ 'reg': 124, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1}, </v>
       </c>
       <c r="N46" s="7" t="str">
         <f aca="false">IF(E45=E46,CONCATENATE(N45,M46),M46)</f>
-        <v>{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1},{ 'reg': 124, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1},</v>
+        <v>{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, { 'reg': 124, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1}, </v>
       </c>
       <c r="O46" s="15" t="str">
         <f aca="false">IF(E46=E47,"","{'"&amp;E$1&amp;"': "&amp;E46&amp;", '"&amp;B$1&amp;"': '"&amp;B46&amp;"',  'editing': false, 'tipo': '"&amp;A46&amp;"', 'data': "&amp;"["&amp;N46&amp;"],  },")</f>
@@ -4555,7 +4682,7 @@
     </row>
     <row r="47" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B47" s="7" t="n">
         <f aca="false">+B46</f>
@@ -4572,10 +4699,10 @@
         <v>2</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="I47" s="16" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="J47" s="11" t="n">
         <f aca="false">IF(E46=E47,1,F47)</f>
@@ -4586,11 +4713,11 @@
       </c>
       <c r="M47" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K47&amp;", '"&amp;L$1&amp;"': '"&amp;L47&amp;"', '"&amp;F$1&amp;"': "&amp;F47&amp;", '"&amp;G$1&amp;"': "&amp;G47&amp;", '"&amp;H$1&amp;"': '"&amp;H47&amp;"', '"&amp;I$1&amp;"': '"&amp;I47&amp;"', '"&amp;J$1&amp;"':"&amp;J47&amp;"}, "</f>
-        <v>{ 'reg': 26, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Analizar y aplicar el marco legal normativo para la elaboración de los Estados Financieros.', 'offset':1},</v>
+        <v>{ 'reg': 26, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Analizar y aplicar el marco legal normativo para la elaboración de los Estados Financieros.', 'offset':1}, </v>
       </c>
       <c r="N47" s="7" t="str">
         <f aca="false">IF(E46=E47,CONCATENATE(N46,M47),M47)</f>
-        <v>{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1},{ 'reg': 124, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1},{ 'reg': 26, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Analizar y aplicar el marco legal normativo para la elaboración de los Estados Financieros.', 'offset':1},</v>
+        <v>{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, { 'reg': 124, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1}, { 'reg': 26, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Analizar y aplicar el marco legal normativo para la elaboración de los Estados Financieros.', 'offset':1}, </v>
       </c>
       <c r="O47" s="15" t="str">
         <f aca="false">IF(E47=E48,"","{'"&amp;E$1&amp;"': "&amp;E47&amp;", '"&amp;B$1&amp;"': '"&amp;B47&amp;"',  'editing': false, 'tipo': '"&amp;A47&amp;"', 'data': "&amp;"["&amp;N47&amp;"],  },")</f>
@@ -4599,7 +4726,7 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B48" s="7" t="n">
         <f aca="false">+B47</f>
@@ -4616,10 +4743,10 @@
         <v>2</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="I48" s="16" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="J48" s="11" t="n">
         <f aca="false">IF(E47=E48,1,F48)</f>
@@ -4630,20 +4757,20 @@
       </c>
       <c r="M48" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K48&amp;", '"&amp;L$1&amp;"': '"&amp;L48&amp;"', '"&amp;F$1&amp;"': "&amp;F48&amp;", '"&amp;G$1&amp;"': "&amp;G48&amp;", '"&amp;H$1&amp;"': '"&amp;H48&amp;"', '"&amp;I$1&amp;"': '"&amp;I48&amp;"', '"&amp;J$1&amp;"':"&amp;J48&amp;"}, "</f>
-        <v>{ 'reg': 40, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada', 'offset':1},</v>
+        <v>{ 'reg': 40, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada', 'offset':1}, </v>
       </c>
       <c r="N48" s="7" t="str">
         <f aca="false">IF(E47=E48,CONCATENATE(N47,M48),M48)</f>
-        <v>{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1},{ 'reg': 124, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1},{ 'reg': 26, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Analizar y aplicar el marco legal normativo para la elaboración de los Estados Financieros.', 'offset':1},{ 'reg': 40, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada', 'offset':1},</v>
+        <v>{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, { 'reg': 124, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1}, { 'reg': 26, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Analizar y aplicar el marco legal normativo para la elaboración de los Estados Financieros.', 'offset':1}, { 'reg': 40, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada', 'offset':1}, </v>
       </c>
       <c r="O48" s="15" t="str">
         <f aca="false">IF(E48=E49,"","{'"&amp;E$1&amp;"': "&amp;E48&amp;", '"&amp;B$1&amp;"': '"&amp;B48&amp;"',  'editing': false, 'tipo': '"&amp;A48&amp;"', 'data': "&amp;"["&amp;N48&amp;"],  },")</f>
-        <v>{'row': 3, 'week': '3.5',  'editing': false, 'tipo': 'contenidos', 'data': [{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1},{ 'reg': 124, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1},{ 'reg': 26, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Analizar y aplicar el marco legal normativo para la elaboración de los Estados Financieros.', 'offset':1},{ 'reg': 40, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada', 'offset':1},],  },</v>
+        <v>{'row': 3, 'week': '3.5',  'editing': false, 'tipo': 'contenidos', 'data': [{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, { 'reg': 124, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1}, { 'reg': 26, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Analizar y aplicar el marco legal normativo para la elaboración de los Estados Financieros.', 'offset':1}, { 'reg': 40, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada', 'offset':1}, ],  },</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B49" s="7" t="n">
         <v>4.5</v>
@@ -4659,7 +4786,7 @@
         <v>1</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="I49" s="11" t="n">
         <v>4</v>
@@ -4673,11 +4800,11 @@
       </c>
       <c r="M49" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K49&amp;", '"&amp;L$1&amp;"': '"&amp;L49&amp;"', '"&amp;F$1&amp;"': "&amp;F49&amp;", '"&amp;G$1&amp;"': "&amp;G49&amp;", '"&amp;H$1&amp;"': '"&amp;H49&amp;"', '"&amp;I$1&amp;"': '"&amp;I49&amp;"', '"&amp;J$1&amp;"':"&amp;J49&amp;"}, "</f>
-        <v>{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1},</v>
+        <v>{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, </v>
       </c>
       <c r="N49" s="7" t="str">
         <f aca="false">IF(E48=E49,CONCATENATE(N48,M49),M49)</f>
-        <v>{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1},</v>
+        <v>{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, </v>
       </c>
       <c r="O49" s="15" t="str">
         <f aca="false">IF(E49=E50,"","{'"&amp;E$1&amp;"': "&amp;E49&amp;", '"&amp;B$1&amp;"': '"&amp;B49&amp;"',  'editing': false, 'tipo': '"&amp;A49&amp;"', 'data': "&amp;"["&amp;N49&amp;"],  },")</f>
@@ -4686,7 +4813,7 @@
     </row>
     <row r="50" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B50" s="7" t="n">
         <f aca="false">+B49</f>
@@ -4703,10 +4830,10 @@
         <v>3</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="I50" s="16" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="J50" s="11" t="n">
         <f aca="false">IF(E49=E50,1,F50)</f>
@@ -4717,11 +4844,11 @@
       </c>
       <c r="M50" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K50&amp;", '"&amp;L$1&amp;"': '"&amp;L50&amp;"', '"&amp;F$1&amp;"': "&amp;F50&amp;", '"&amp;G$1&amp;"': "&amp;G50&amp;", '"&amp;H$1&amp;"': '"&amp;H50&amp;"', '"&amp;I$1&amp;"': '"&amp;I50&amp;"', '"&amp;J$1&amp;"':"&amp;J50&amp;"}, "</f>
-        <v>{ 'reg': 62, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1},</v>
+        <v>{ 'reg': 62, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1}, </v>
       </c>
       <c r="N50" s="7" t="str">
         <f aca="false">IF(E49=E50,CONCATENATE(N49,M50),M50)</f>
-        <v>{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1},{ 'reg': 62, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1},</v>
+        <v>{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, { 'reg': 62, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1}, </v>
       </c>
       <c r="O50" s="15" t="str">
         <f aca="false">IF(E50=E51,"","{'"&amp;E$1&amp;"': "&amp;E50&amp;", '"&amp;B$1&amp;"': '"&amp;B50&amp;"',  'editing': false, 'tipo': '"&amp;A50&amp;"', 'data': "&amp;"["&amp;N50&amp;"],  },")</f>
@@ -4730,7 +4857,7 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B51" s="7" t="n">
         <f aca="false">+B50</f>
@@ -4747,10 +4874,10 @@
         <v>2</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="J51" s="11" t="n">
         <f aca="false">IF(E50=E51,1,F51)</f>
@@ -4761,11 +4888,11 @@
       </c>
       <c r="M51" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K51&amp;", '"&amp;L$1&amp;"': '"&amp;L51&amp;"', '"&amp;F$1&amp;"': "&amp;F51&amp;", '"&amp;G$1&amp;"': "&amp;G51&amp;", '"&amp;H$1&amp;"': '"&amp;H51&amp;"', '"&amp;I$1&amp;"': '"&amp;I51&amp;"', '"&amp;J$1&amp;"':"&amp;J51&amp;"}, "</f>
-        <v>{ 'reg': 10, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Evalúa los resultados obtenidos. Demuestra la aplicación del análisis vertical y horizontal.', 'offset':1},</v>
+        <v>{ 'reg': 10, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Evalúa los resultados obtenidos. Demuestra la aplicación del análisis vertical y horizontal.', 'offset':1}, </v>
       </c>
       <c r="N51" s="7" t="str">
         <f aca="false">IF(E50=E51,CONCATENATE(N50,M51),M51)</f>
-        <v>{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1},{ 'reg': 62, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1},{ 'reg': 10, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Evalúa los resultados obtenidos. Demuestra la aplicación del análisis vertical y horizontal.', 'offset':1},</v>
+        <v>{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, { 'reg': 62, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1}, { 'reg': 10, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Evalúa los resultados obtenidos. Demuestra la aplicación del análisis vertical y horizontal.', 'offset':1}, </v>
       </c>
       <c r="O51" s="15" t="str">
         <f aca="false">IF(E51=E52,"","{'"&amp;E$1&amp;"': "&amp;E51&amp;", '"&amp;B$1&amp;"': '"&amp;B51&amp;"',  'editing': false, 'tipo': '"&amp;A51&amp;"', 'data': "&amp;"["&amp;N51&amp;"],  },")</f>
@@ -4774,7 +4901,7 @@
     </row>
     <row r="52" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B52" s="7" t="n">
         <f aca="false">+B51</f>
@@ -4791,10 +4918,10 @@
         <v>2</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="I52" s="16" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="J52" s="11" t="n">
         <f aca="false">IF(E51=E52,1,F52)</f>
@@ -4805,20 +4932,20 @@
       </c>
       <c r="M52" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K52&amp;", '"&amp;L$1&amp;"': '"&amp;L52&amp;"', '"&amp;F$1&amp;"': "&amp;F52&amp;", '"&amp;G$1&amp;"': "&amp;G52&amp;", '"&amp;H$1&amp;"': '"&amp;H52&amp;"', '"&amp;I$1&amp;"': '"&amp;I52&amp;"', '"&amp;J$1&amp;"':"&amp;J52&amp;"}, "</f>
-        <v>{ 'reg': 82, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Clase Expositiva\n Taller\n  Discusión de caso', 'offset':1},</v>
+        <v>{ 'reg': 82, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Clase Expositiva\n Taller\n  Discusión de caso', 'offset':1}, </v>
       </c>
       <c r="N52" s="7" t="str">
         <f aca="false">IF(E51=E52,CONCATENATE(N51,M52),M52)</f>
-        <v>{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1},{ 'reg': 62, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1},{ 'reg': 10, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Evalúa los resultados obtenidos. Demuestra la aplicación del análisis vertical y horizontal.', 'offset':1},{ 'reg': 82, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Clase Expositiva\n Taller\n  Discusión de caso', 'offset':1},</v>
+        <v>{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, { 'reg': 62, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1}, { 'reg': 10, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Evalúa los resultados obtenidos. Demuestra la aplicación del análisis vertical y horizontal.', 'offset':1}, { 'reg': 82, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Clase Expositiva\n Taller\n  Discusión de caso', 'offset':1}, </v>
       </c>
       <c r="O52" s="15" t="str">
         <f aca="false">IF(E52=E53,"","{'"&amp;E$1&amp;"': "&amp;E52&amp;", '"&amp;B$1&amp;"': '"&amp;B52&amp;"',  'editing': false, 'tipo': '"&amp;A52&amp;"', 'data': "&amp;"["&amp;N52&amp;"],  },")</f>
-        <v>{'row': 4, 'week': '4.5',  'editing': false, 'tipo': 'contenidos', 'data': [{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1},{ 'reg': 62, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1},{ 'reg': 10, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Evalúa los resultados obtenidos. Demuestra la aplicación del análisis vertical y horizontal.', 'offset':1},{ 'reg': 82, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Clase Expositiva\n Taller\n  Discusión de caso', 'offset':1},],  },</v>
+        <v>{'row': 4, 'week': '4.5',  'editing': false, 'tipo': 'contenidos', 'data': [{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, { 'reg': 62, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1}, { 'reg': 10, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Evalúa los resultados obtenidos. Demuestra la aplicación del análisis vertical y horizontal.', 'offset':1}, { 'reg': 82, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Clase Expositiva\n Taller\n  Discusión de caso', 'offset':1}, ],  },</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="13" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="B53" s="7" t="n">
         <v>4.9</v>
@@ -4834,10 +4961,10 @@
         <v>7</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J53" s="11" t="n">
         <f aca="false">IF(E52=E53,1,F53)</f>
@@ -4848,20 +4975,20 @@
       </c>
       <c r="M53" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K53&amp;", '"&amp;L$1&amp;"': '"&amp;L53&amp;"', '"&amp;F$1&amp;"': "&amp;F53&amp;", '"&amp;G$1&amp;"': "&amp;G53&amp;", '"&amp;H$1&amp;"': '"&amp;H53&amp;"', '"&amp;I$1&amp;"': '"&amp;I53&amp;"', '"&amp;J$1&amp;"':"&amp;J53&amp;"}, "</f>
-        <v>{ 'reg': 19, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'center', 'texto': 'EVALUACIÓN PARCIAL 1 ', 'offset':2},</v>
+        <v>{ 'reg': 19, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'center', 'texto': 'EVALUACIÓN PARCIAL 1 ', 'offset':2}, </v>
       </c>
       <c r="N53" s="7" t="str">
         <f aca="false">IF(E52=E53,CONCATENATE(N52,M53),M53)</f>
-        <v>{ 'reg': 19, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'center', 'texto': 'EVALUACIÓN PARCIAL 1 ', 'offset':2},</v>
+        <v>{ 'reg': 19, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'center', 'texto': 'EVALUACIÓN PARCIAL 1 ', 'offset':2}, </v>
       </c>
       <c r="O53" s="15" t="str">
         <f aca="false">IF(E53=E54,"","{'"&amp;E$1&amp;"': "&amp;E53&amp;", '"&amp;B$1&amp;"': '"&amp;B53&amp;"',  'editing': false, 'tipo': '"&amp;A53&amp;"', 'data': "&amp;"["&amp;N53&amp;"],  },")</f>
-        <v>{'row': 5, 'week': '4.9',  'editing': false, 'tipo': 'examenes', 'data': [{ 'reg': 19, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'center', 'texto': 'EVALUACIÓN PARCIAL 1 ', 'offset':2},],  },</v>
+        <v>{'row': 5, 'week': '4.9',  'editing': false, 'tipo': 'examenes', 'data': [{ 'reg': 19, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'center', 'texto': 'EVALUACIÓN PARCIAL 1 ', 'offset':2}, ],  },</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B54" s="7" t="n">
         <v>5.5</v>
@@ -4877,7 +5004,7 @@
         <v>1</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="I54" s="11" t="n">
         <v>5</v>
@@ -4891,11 +5018,11 @@
       </c>
       <c r="M54" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K54&amp;", '"&amp;L$1&amp;"': '"&amp;L54&amp;"', '"&amp;F$1&amp;"': "&amp;F54&amp;", '"&amp;G$1&amp;"': "&amp;G54&amp;", '"&amp;H$1&amp;"': '"&amp;H54&amp;"', '"&amp;I$1&amp;"': '"&amp;I54&amp;"', '"&amp;J$1&amp;"':"&amp;J54&amp;"}, "</f>
-        <v>{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1},</v>
+        <v>{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, </v>
       </c>
       <c r="N54" s="7" t="str">
         <f aca="false">IF(E53=E54,CONCATENATE(N53,M54),M54)</f>
-        <v>{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1},</v>
+        <v>{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, </v>
       </c>
       <c r="O54" s="15" t="str">
         <f aca="false">IF(E54=E55,"","{'"&amp;E$1&amp;"': "&amp;E54&amp;", '"&amp;B$1&amp;"': '"&amp;B54&amp;"',  'editing': false, 'tipo': '"&amp;A54&amp;"', 'data': "&amp;"["&amp;N54&amp;"],  },")</f>
@@ -4904,7 +5031,7 @@
     </row>
     <row r="55" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B55" s="7" t="n">
         <f aca="false">+B54</f>
@@ -4921,7 +5048,7 @@
         <v>3</v>
       </c>
       <c r="I55" s="16" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="J55" s="11" t="n">
         <f aca="false">IF(E54=E55,1,F55)</f>
@@ -4932,11 +5059,11 @@
       </c>
       <c r="M55" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K55&amp;", '"&amp;L$1&amp;"': '"&amp;L55&amp;"', '"&amp;F$1&amp;"': "&amp;F55&amp;", '"&amp;G$1&amp;"': "&amp;G55&amp;", '"&amp;H$1&amp;"': '"&amp;H55&amp;"', '"&amp;I$1&amp;"': '"&amp;I55&amp;"', '"&amp;J$1&amp;"':"&amp;J55&amp;"}, "</f>
-        <v>{ 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1},</v>
+        <v>{ 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1}, </v>
       </c>
       <c r="N55" s="7" t="str">
         <f aca="false">IF(E54=E55,CONCATENATE(N54,M55),M55)</f>
-        <v>{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1},{ 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1},</v>
+        <v>{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, { 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1}, </v>
       </c>
       <c r="O55" s="15" t="str">
         <f aca="false">IF(E55=E56,"","{'"&amp;E$1&amp;"': "&amp;E55&amp;", '"&amp;B$1&amp;"': '"&amp;B55&amp;"',  'editing': false, 'tipo': '"&amp;A55&amp;"', 'data': "&amp;"["&amp;N55&amp;"],  },")</f>
@@ -4945,7 +5072,7 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B56" s="7" t="n">
         <f aca="false">+B55</f>
@@ -4962,7 +5089,7 @@
         <v>2</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="J56" s="11" t="n">
         <f aca="false">IF(E55=E56,1,F56)</f>
@@ -4973,11 +5100,11 @@
       </c>
       <c r="M56" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K56&amp;", '"&amp;L$1&amp;"': '"&amp;L56&amp;"', '"&amp;F$1&amp;"': "&amp;F56&amp;", '"&amp;G$1&amp;"': "&amp;G56&amp;", '"&amp;H$1&amp;"': '"&amp;H56&amp;"', '"&amp;I$1&amp;"': '"&amp;I56&amp;"', '"&amp;J$1&amp;"':"&amp;J56&amp;"}, "</f>
-        <v>{ 'reg': 39, 'subtipo': '', 'col': 4, 'cols': 2, 'align': '', 'texto': 'Propicia un debate acerca de la toma de decisiones en una empresa.', 'offset':1},</v>
+        <v>{ 'reg': 39, 'subtipo': '', 'col': 4, 'cols': 2, 'align': '', 'texto': 'Propicia un debate acerca de la toma de decisiones en una empresa.', 'offset':1}, </v>
       </c>
       <c r="N56" s="7" t="str">
         <f aca="false">IF(E55=E56,CONCATENATE(N55,M56),M56)</f>
-        <v>{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1},{ 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1},{ 'reg': 39, 'subtipo': '', 'col': 4, 'cols': 2, 'align': '', 'texto': 'Propicia un debate acerca de la toma de decisiones en una empresa.', 'offset':1},</v>
+        <v>{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, { 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1}, { 'reg': 39, 'subtipo': '', 'col': 4, 'cols': 2, 'align': '', 'texto': 'Propicia un debate acerca de la toma de decisiones en una empresa.', 'offset':1}, </v>
       </c>
       <c r="O56" s="15" t="str">
         <f aca="false">IF(E56=E57,"","{'"&amp;E$1&amp;"': "&amp;E56&amp;", '"&amp;B$1&amp;"': '"&amp;B56&amp;"',  'editing': false, 'tipo': '"&amp;A56&amp;"', 'data': "&amp;"["&amp;N56&amp;"],  },")</f>
@@ -4986,7 +5113,7 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B57" s="7" t="n">
         <f aca="false">+B56</f>
@@ -5003,7 +5130,7 @@
         <v>2</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="J57" s="11" t="n">
         <f aca="false">IF(E56=E57,1,F57)</f>
@@ -5014,20 +5141,20 @@
       </c>
       <c r="M57" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K57&amp;", '"&amp;L$1&amp;"': '"&amp;L57&amp;"', '"&amp;F$1&amp;"': "&amp;F57&amp;", '"&amp;G$1&amp;"': "&amp;G57&amp;", '"&amp;H$1&amp;"': '"&amp;H57&amp;"', '"&amp;I$1&amp;"': '"&amp;I57&amp;"', '"&amp;J$1&amp;"':"&amp;J57&amp;"}, "</f>
-        <v>{ 'reg': 69, 'subtipo': '', 'col': 6, 'cols': 2, 'align': '', 'texto': 'Exposición dialogada', 'offset':1},</v>
+        <v>{ 'reg': 69, 'subtipo': '', 'col': 6, 'cols': 2, 'align': '', 'texto': 'Exposición dialogada', 'offset':1}, </v>
       </c>
       <c r="N57" s="7" t="str">
         <f aca="false">IF(E56=E57,CONCATENATE(N56,M57),M57)</f>
-        <v>{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1},{ 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1},{ 'reg': 39, 'subtipo': '', 'col': 4, 'cols': 2, 'align': '', 'texto': 'Propicia un debate acerca de la toma de decisiones en una empresa.', 'offset':1},{ 'reg': 69, 'subtipo': '', 'col': 6, 'cols': 2, 'align': '', 'texto': 'Exposición dialogada', 'offset':1},</v>
+        <v>{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, { 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1}, { 'reg': 39, 'subtipo': '', 'col': 4, 'cols': 2, 'align': '', 'texto': 'Propicia un debate acerca de la toma de decisiones en una empresa.', 'offset':1}, { 'reg': 69, 'subtipo': '', 'col': 6, 'cols': 2, 'align': '', 'texto': 'Exposición dialogada', 'offset':1}, </v>
       </c>
       <c r="O57" s="15" t="str">
         <f aca="false">IF(E57=E58,"","{'"&amp;E$1&amp;"': "&amp;E57&amp;", '"&amp;B$1&amp;"': '"&amp;B57&amp;"',  'editing': false, 'tipo': '"&amp;A57&amp;"', 'data': "&amp;"["&amp;N57&amp;"],  },")</f>
-        <v>{'row': 6, 'week': '5.5',  'editing': false, 'tipo': 'contenidos', 'data': [{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1},{ 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1},{ 'reg': 39, 'subtipo': '', 'col': 4, 'cols': 2, 'align': '', 'texto': 'Propicia un debate acerca de la toma de decisiones en una empresa.', 'offset':1},{ 'reg': 69, 'subtipo': '', 'col': 6, 'cols': 2, 'align': '', 'texto': 'Exposición dialogada', 'offset':1},],  },</v>
+        <v>{'row': 6, 'week': '5.5',  'editing': false, 'tipo': 'contenidos', 'data': [{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, { 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1}, { 'reg': 39, 'subtipo': '', 'col': 4, 'cols': 2, 'align': '', 'texto': 'Propicia un debate acerca de la toma de decisiones en una empresa.', 'offset':1}, { 'reg': 69, 'subtipo': '', 'col': 6, 'cols': 2, 'align': '', 'texto': 'Exposición dialogada', 'offset':1}, ],  },</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="7" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B58" s="7" t="n">
         <v>6</v>
@@ -5042,10 +5169,10 @@
         <v>8</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="J58" s="11" t="n">
         <f aca="false">IF(E57=E58,1,F58)</f>
@@ -5056,20 +5183,20 @@
       </c>
       <c r="M58" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K58&amp;", '"&amp;L$1&amp;"': '"&amp;L58&amp;"', '"&amp;F$1&amp;"': "&amp;F58&amp;", '"&amp;G$1&amp;"': "&amp;G58&amp;", '"&amp;H$1&amp;"': '"&amp;H58&amp;"', '"&amp;I$1&amp;"': '"&amp;I58&amp;"', '"&amp;J$1&amp;"':"&amp;J58&amp;"}, "</f>
-        <v>{ 'reg': 124, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD II: ANALISIS E INTERPRETACION DE LOS ESTADOS FINANCIEROS', 'offset':1},</v>
+        <v>{ 'reg': 124, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD II: ANALISIS E INTERPRETACION DE LOS ESTADOS FINANCIEROS', 'offset':1}, </v>
       </c>
       <c r="N58" s="7" t="str">
         <f aca="false">IF(E57=E58,CONCATENATE(N57,M58),M58)</f>
-        <v>{ 'reg': 124, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD II: ANALISIS E INTERPRETACION DE LOS ESTADOS FINANCIEROS', 'offset':1},</v>
+        <v>{ 'reg': 124, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD II: ANALISIS E INTERPRETACION DE LOS ESTADOS FINANCIEROS', 'offset':1}, </v>
       </c>
       <c r="O58" s="15" t="str">
         <f aca="false">IF(E58=E59,"","{'"&amp;E$1&amp;"': "&amp;E58&amp;", '"&amp;B$1&amp;"': '"&amp;B58&amp;"',  'editing': false, 'tipo': '"&amp;A58&amp;"', 'data': "&amp;"["&amp;N58&amp;"],  },")</f>
-        <v>{'row': 2, 'week': '6',  'editing': false, 'tipo': 'unidades', 'data': [{ 'reg': 124, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD II: ANALISIS E INTERPRETACION DE LOS ESTADOS FINANCIEROS', 'offset':1},],  },</v>
+        <v>{'row': 2, 'week': '6',  'editing': false, 'tipo': 'unidades', 'data': [{ 'reg': 124, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD II: ANALISIS E INTERPRETACION DE LOS ESTADOS FINANCIEROS', 'offset':1}, ],  },</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="7" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="B59" s="7" t="n">
         <v>6.2</v>
@@ -5085,10 +5212,10 @@
         <v>1</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="J59" s="11" t="n">
         <f aca="false">IF(E58=E59,1,F59)</f>
@@ -5099,11 +5226,11 @@
       </c>
       <c r="M59" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K59&amp;", '"&amp;L$1&amp;"': '"&amp;L59&amp;"', '"&amp;F$1&amp;"': "&amp;F59&amp;", '"&amp;G$1&amp;"': "&amp;G59&amp;", '"&amp;H$1&amp;"': '"&amp;H59&amp;"', '"&amp;I$1&amp;"': '"&amp;I59&amp;"', '"&amp;J$1&amp;"':"&amp;J59&amp;"}, "</f>
-        <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1},</v>
+        <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, </v>
       </c>
       <c r="N59" s="7" t="str">
         <f aca="false">IF(E58=E59,CONCATENATE(N58,M59),M59)</f>
-        <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1},</v>
+        <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, </v>
       </c>
       <c r="O59" s="15" t="str">
         <f aca="false">IF(E59=E60,"","{'"&amp;E$1&amp;"': "&amp;E59&amp;", '"&amp;B$1&amp;"': '"&amp;B59&amp;"',  'editing': false, 'tipo': '"&amp;A59&amp;"', 'data': "&amp;"["&amp;N59&amp;"],  },")</f>
@@ -5112,7 +5239,7 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="7" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="B60" s="7" t="n">
         <f aca="false">+B59</f>
@@ -5129,10 +5256,10 @@
         <v>3</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="J60" s="11" t="n">
         <f aca="false">IF(E59=E60,1,F60)</f>
@@ -5143,11 +5270,11 @@
       </c>
       <c r="M60" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K60&amp;", '"&amp;L$1&amp;"': '"&amp;L60&amp;"', '"&amp;F$1&amp;"': "&amp;F60&amp;", '"&amp;G$1&amp;"': "&amp;G60&amp;", '"&amp;H$1&amp;"': '"&amp;H60&amp;"', '"&amp;I$1&amp;"': '"&amp;I60&amp;"', '"&amp;J$1&amp;"':"&amp;J60&amp;"}, "</f>
-        <v>{ 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1},</v>
+        <v>{ 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, </v>
       </c>
       <c r="N60" s="7" t="str">
         <f aca="false">IF(E59=E60,CONCATENATE(N59,M60),M60)</f>
-        <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1},{ 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1},</v>
+        <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, </v>
       </c>
       <c r="O60" s="15" t="str">
         <f aca="false">IF(E60=E61,"","{'"&amp;E$1&amp;"': "&amp;E60&amp;", '"&amp;B$1&amp;"': '"&amp;B60&amp;"',  'editing': false, 'tipo': '"&amp;A60&amp;"', 'data': "&amp;"["&amp;N60&amp;"],  },")</f>
@@ -5156,7 +5283,7 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="B61" s="7" t="n">
         <f aca="false">+B60</f>
@@ -5173,10 +5300,10 @@
         <v>2</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="J61" s="11" t="n">
         <f aca="false">IF(E60=E61,1,F61)</f>
@@ -5187,11 +5314,11 @@
       </c>
       <c r="M61" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K61&amp;", '"&amp;L$1&amp;"': '"&amp;L61&amp;"', '"&amp;F$1&amp;"': "&amp;F61&amp;", '"&amp;G$1&amp;"': "&amp;G61&amp;", '"&amp;H$1&amp;"': '"&amp;H61&amp;"', '"&amp;I$1&amp;"': '"&amp;I61&amp;"', '"&amp;J$1&amp;"':"&amp;J61&amp;"}, "</f>
-        <v>{ 'reg': 73, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1},</v>
+        <v>{ 'reg': 73, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, </v>
       </c>
       <c r="N61" s="7" t="str">
         <f aca="false">IF(E60=E61,CONCATENATE(N60,M61),M61)</f>
-        <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1},{ 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1},{ 'reg': 73, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1},</v>
+        <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'reg': 73, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, </v>
       </c>
       <c r="O61" s="15" t="str">
         <f aca="false">IF(E61=E62,"","{'"&amp;E$1&amp;"': "&amp;E61&amp;", '"&amp;B$1&amp;"': '"&amp;B61&amp;"',  'editing': false, 'tipo': '"&amp;A61&amp;"', 'data': "&amp;"["&amp;N61&amp;"],  },")</f>
@@ -5200,7 +5327,7 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="7" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="B62" s="7" t="n">
         <f aca="false">+B61</f>
@@ -5217,10 +5344,10 @@
         <v>2</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="I62" s="11" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="J62" s="11" t="n">
         <f aca="false">IF(E61=E62,1,F62)</f>
@@ -5231,20 +5358,20 @@
       </c>
       <c r="M62" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K62&amp;", '"&amp;L$1&amp;"': '"&amp;L62&amp;"', '"&amp;F$1&amp;"': "&amp;F62&amp;", '"&amp;G$1&amp;"': "&amp;G62&amp;", '"&amp;H$1&amp;"': '"&amp;H62&amp;"', '"&amp;I$1&amp;"': '"&amp;I62&amp;"', '"&amp;J$1&amp;"':"&amp;J62&amp;"}, "</f>
-        <v>{ 'reg': 27, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1},</v>
+        <v>{ 'reg': 27, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1}, </v>
       </c>
       <c r="N62" s="7" t="str">
         <f aca="false">IF(E61=E62,CONCATENATE(N61,M62),M62)</f>
-        <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1},{ 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1},{ 'reg': 73, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1},{ 'reg': 27, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1},</v>
+        <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'reg': 73, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, { 'reg': 27, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1}, </v>
       </c>
       <c r="O62" s="15" t="str">
         <f aca="false">IF(E62=E63,"","{'"&amp;E$1&amp;"': "&amp;E62&amp;", '"&amp;B$1&amp;"': '"&amp;B62&amp;"',  'editing': false, 'tipo': '"&amp;A62&amp;"', 'data': "&amp;"["&amp;N62&amp;"],  },")</f>
-        <v>{'row': 3, 'week': '6.2',  'editing': false, 'tipo': 'titulo3', 'data': [{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1},{ 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1},{ 'reg': 73, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1},{ 'reg': 27, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1},],  },</v>
+        <v>{'row': 3, 'week': '6.2',  'editing': false, 'tipo': 'titulo3', 'data': [{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'reg': 73, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, { 'reg': 27, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1}, ],  },</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="7" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="E63" s="7" t="n">
         <v>5</v>
@@ -5256,10 +5383,10 @@
         <v>8</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="J63" s="11" t="n">
         <f aca="false">IF(E62=E63,1,F63)</f>
@@ -5269,24 +5396,24 @@
         <v>6</v>
       </c>
       <c r="L63" s="11" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="M63" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K63&amp;", '"&amp;L$1&amp;"': '"&amp;L63&amp;"', '"&amp;F$1&amp;"': "&amp;F63&amp;", '"&amp;G$1&amp;"': "&amp;G63&amp;", '"&amp;H$1&amp;"': '"&amp;H63&amp;"', '"&amp;I$1&amp;"': '"&amp;I63&amp;"', '"&amp;J$1&amp;"':"&amp;J63&amp;"}, "</f>
-        <v>{ 'reg': 6, 'subtipo': 'estrategias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'V. ESTRATEGIAS METODOLÓGICAS', 'offset':1},</v>
+        <v>{ 'reg': 6, 'subtipo': 'estrategias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'V. ESTRATEGIAS METODOLÓGICAS', 'offset':1}, </v>
       </c>
       <c r="N63" s="7" t="str">
         <f aca="false">IF(E62=E63,CONCATENATE(N62,M63),M63)</f>
-        <v>{ 'reg': 6, 'subtipo': 'estrategias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'V. ESTRATEGIAS METODOLÓGICAS', 'offset':1},</v>
+        <v>{ 'reg': 6, 'subtipo': 'estrategias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'V. ESTRATEGIAS METODOLÓGICAS', 'offset':1}, </v>
       </c>
       <c r="O63" s="15" t="str">
         <f aca="false">IF(E63=E64,"","{'"&amp;E$1&amp;"': "&amp;E63&amp;", '"&amp;B$1&amp;"': '"&amp;B63&amp;"',  'editing': false, 'tipo': '"&amp;A63&amp;"', 'data': "&amp;"["&amp;N63&amp;"],  },")</f>
-        <v>{'row': 5, 'week': '',  'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 6, 'subtipo': 'estrategias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'V. ESTRATEGIAS METODOLÓGICAS', 'offset':1},],  },</v>
+        <v>{'row': 5, 'week': '',  'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 6, 'subtipo': 'estrategias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'V. ESTRATEGIAS METODOLÓGICAS', 'offset':1}, ],  },</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="7" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="E64" s="7" t="n">
         <v>6</v>
@@ -5298,10 +5425,10 @@
         <v>8</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="J64" s="11" t="n">
         <f aca="false">IF(E63=E64,1,F64)</f>
@@ -5311,24 +5438,24 @@
         <v>75</v>
       </c>
       <c r="L64" s="11" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="M64" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K64&amp;", '"&amp;L$1&amp;"': '"&amp;L64&amp;"', '"&amp;F$1&amp;"': "&amp;F64&amp;", '"&amp;G$1&amp;"': "&amp;G64&amp;", '"&amp;H$1&amp;"': '"&amp;H64&amp;"', '"&amp;I$1&amp;"': '"&amp;I64&amp;"', '"&amp;J$1&amp;"':"&amp;J64&amp;"}, "</f>
-        <v>{ 'reg': 75, 'subtipo': 'evaluaciones', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VI. EVALUACIÓN', 'offset':1},</v>
+        <v>{ 'reg': 75, 'subtipo': 'evaluaciones', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VI. EVALUACIÓN', 'offset':1}, </v>
       </c>
       <c r="N64" s="7" t="str">
         <f aca="false">IF(E63=E64,CONCATENATE(N63,M64),M64)</f>
-        <v>{ 'reg': 75, 'subtipo': 'evaluaciones', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VI. EVALUACIÓN', 'offset':1},</v>
+        <v>{ 'reg': 75, 'subtipo': 'evaluaciones', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VI. EVALUACIÓN', 'offset':1}, </v>
       </c>
       <c r="O64" s="15" t="str">
         <f aca="false">IF(E64=E65,"","{'"&amp;E$1&amp;"': "&amp;E64&amp;", '"&amp;B$1&amp;"': '"&amp;B64&amp;"',  'editing': false, 'tipo': '"&amp;A64&amp;"', 'data': "&amp;"["&amp;N64&amp;"],  },")</f>
-        <v>{'row': 6, 'week': '',  'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 75, 'subtipo': 'evaluaciones', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VI. EVALUACIÓN', 'offset':1},],  },</v>
+        <v>{'row': 6, 'week': '',  'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 75, 'subtipo': 'evaluaciones', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VI. EVALUACIÓN', 'offset':1}, ],  },</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="7" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="E65" s="7" t="n">
         <v>7</v>
@@ -5340,10 +5467,10 @@
         <v>8</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="J65" s="11" t="n">
         <f aca="false">IF(E64=E65,1,F65)</f>
@@ -5353,19 +5480,19 @@
         <v>102</v>
       </c>
       <c r="L65" s="11" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="M65" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K65&amp;", '"&amp;L$1&amp;"': '"&amp;L65&amp;"', '"&amp;F$1&amp;"': "&amp;F65&amp;", '"&amp;G$1&amp;"': "&amp;G65&amp;", '"&amp;H$1&amp;"': '"&amp;H65&amp;"', '"&amp;I$1&amp;"': '"&amp;I65&amp;"', '"&amp;J$1&amp;"':"&amp;J65&amp;"}, "</f>
-        <v>{ 'reg': 102, 'subtipo': 'bibliografias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VII. BIBLIOGRAFÍA', 'offset':1},</v>
+        <v>{ 'reg': 102, 'subtipo': 'bibliografias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VII. BIBLIOGRAFÍA', 'offset':1}, </v>
       </c>
       <c r="N65" s="7" t="str">
         <f aca="false">IF(E64=E65,CONCATENATE(N64,M65),M65)</f>
-        <v>{ 'reg': 102, 'subtipo': 'bibliografias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VII. BIBLIOGRAFÍA', 'offset':1},</v>
+        <v>{ 'reg': 102, 'subtipo': 'bibliografias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VII. BIBLIOGRAFÍA', 'offset':1}, </v>
       </c>
       <c r="O65" s="15" t="str">
         <f aca="false">IF(E65=E66,"","{'"&amp;E$1&amp;"': "&amp;E65&amp;", '"&amp;B$1&amp;"': '"&amp;B65&amp;"',  'editing': false, 'tipo': '"&amp;A65&amp;"', 'data': "&amp;"["&amp;N65&amp;"],  },")</f>
-        <v>{'row': 7, 'week': '',  'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 102, 'subtipo': 'bibliografias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VII. BIBLIOGRAFÍA', 'offset':1},],  },</v>
+        <v>{'row': 7, 'week': '',  'editing': false, 'tipo': 'titulo1', 'data': [{ 'reg': 102, 'subtipo': 'bibliografias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VII. BIBLIOGRAFÍA', 'offset':1}, ],  },</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -5385,7 +5512,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -5393,7 +5520,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="G2:G20 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5411,440 +5538,440 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="I15" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="J15" s="0" t="s">
         <v>230</v>
-      </c>
-      <c r="J15" s="0" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -5858,7 +5985,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -5866,7 +5993,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="1" sqref="G2:G20 A11"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5885,63 +6012,63 @@
   <sheetData>
     <row r="1" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="N1" s="22" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="23" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="E2" s="25"/>
     </row>
@@ -5951,7 +6078,7 @@
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
       <c r="E3" s="26" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F3" s="9" t="n">
         <v>1</v>
@@ -5990,7 +6117,7 @@
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
       <c r="E4" s="26" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="F4" s="9" t="n">
         <v>0</v>
@@ -6029,7 +6156,7 @@
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
       <c r="E5" s="26" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="F5" s="9" t="n">
         <v>0</v>
@@ -6044,10 +6171,10 @@
         <v>1</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="L5" s="9" t="n">
         <v>1</v>
@@ -6056,7 +6183,7 @@
         <v>1</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="O5" s="9" t="n">
         <v>1</v>
@@ -6068,7 +6195,7 @@
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
       <c r="E6" s="26" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="F6" s="9" t="n">
         <v>0</v>
@@ -6083,10 +6210,10 @@
         <v>0</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="L6" s="9" t="n">
         <v>1</v>
@@ -6095,7 +6222,7 @@
         <v>1</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="O6" s="9" t="n">
         <v>1</v>
@@ -6133,28 +6260,28 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="C10" s="0"/>
       <c r="D10" s="25" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6182,16 +6309,16 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -6211,7 +6338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -6219,7 +6346,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="1" sqref="G2:G20 C9"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6229,76 +6356,76 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -6312,7 +6439,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -6320,7 +6447,7 @@
   <dimension ref="A1:AMJ10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J8" activeCellId="1" sqref="G2:G20 J8"/>
+      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6338,200 +6465,200 @@
   <sheetData>
     <row r="1" s="28" customFormat="true" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="28" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="I1" s="28" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="J1" s="28" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="K1" s="28" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="L1" s="28" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D2" s="9" t="n">
         <v>0</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D4" s="9" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="J5" s="30" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="K5" s="30" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D6" s="9" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="9" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D8" s="9" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D9" s="9" t="n">
         <v>99</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="H9" s="30" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="J9" s="30" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="K9" s="30" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D10" s="9" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>

--- a/topdown.xlsx
+++ b/topdown.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo" sheetId="1" state="visible" r:id="rId2"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="319">
   <si>
     <t xml:space="preserve">Login</t>
   </si>
@@ -61,616 +61,625 @@
     <t xml:space="preserve">PDF</t>
   </si>
   <si>
-    <t xml:space="preserve">Edicion (según tipo de usuario)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Todos los grupos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grupo según tipo de usuario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Botones en SyllabusComponent.vue</t>
+    <t xml:space="preserve">Por modelo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cod_acceso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">master</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wacceso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Master</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administrador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Responsable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Docente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acceso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">generales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">titulos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">competencias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contenidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sumillas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estrategias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evaluaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bibliografias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unidades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cursos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mallas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mcursos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prereqs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grupos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">curso_grupos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">curso_competencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">open_curso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">close_curso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opciones menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consulta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">masive_download</t>
+  </si>
+  <si>
+    <t xml:space="preserve">componente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tipo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">align</t>
+  </si>
+  <si>
+    <t xml:space="preserve">columna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">semana_inicio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">semana_fin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">semana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">porcentaje</t>
+  </si>
+  <si>
+    <t xml:space="preserve">autor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">editorial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fecha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">codigo_ucss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">texto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">titulo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADMINISTRACION I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTABILIDAD GERENCIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATOS GENERALES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1‐</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Código</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> : 100048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2‐</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre‐ Requisito </t>
+  </si>
+  <si>
+    <t xml:space="preserve">: Contabilidad General</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3‐</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Créditos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">: 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4‐</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">: 04 horas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5‐</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semestre académico</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> : 2017‐ I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6‐</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciclo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> : III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">II.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUMILLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El curso tiene como propósito integrar las teorías, las técnicas y las herramientas adquiridas en las materias de contabilidad general y administración que le permita llegar al alumno a desarrollar las habilidades de análisis, integración de la información para la construcción de propuestas y soluciones que llevan al logro de los objetivos de la organización. Se pondrá énfasis en el análisis financiero de los estados financieros y su relación con los costos empresariales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">III.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPETENCIAS GENERALES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comprende el papel de la información contable en los Negocios. Relación entre la contabilidad y la Administración y la toma de decisiones.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conoce y ejecuta los Estados Financieros de una empresa comercial, industrial y de servicios.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toma de decisiones, en base a un análisis financiero, dentro de las funciones de operación, inversión y financiamiento y análisis de los costos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planifica la gestión de la empresa a futuro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacidad de trabajo en equipo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IV.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPETENCIAS ESPECÍFICAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conoce, Analiza y describe las diferentes empresas que se desarrollan en nuestro país y la importancia que tiene en ellas la contabilidad gerencia, desde la óptica de los estados financieros: Estado de Situación Financiera y Estado de Resultados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analiza y diagnostica los Estados financieros básicos de diferentes empresas, mediante el análisis vertical y horizontal así como los ratios financieros. ‐1‐</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desarrolla un plan financiero para una empresa: Presupuesto de ventas, Presupuesto de cobranzas, presupuesto de producción, presupuesto de compras, presupuesto de pagos, presupuesto de pagos, presupuesto de gastos, entre otros.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estudia la importancia de la estructura de costos de una empresa y su implicancia en la planificación financiera.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elabora estados financieros proyectados, para diagnosticar el futuro de la empresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROGRAMACIÓN DE CONTENIDOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDAD I: LA CONTABILIDAD GERENCIAL.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEMANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONCEPTUAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROCEDIMENTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACTIVIDAD DE APRENDIZAJE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La contabilidad gerencial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reconoce el recorrido de las operaciones empresariales en el ciclo contable de una empresa. Evalúa la utilidad de la información financiera y gerencial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exposición dialogada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Contabilidad de Costos Empresariales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‐ Concepto. Importacia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Determinación, distribución y aplicación de los costos en una empresa mercantil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dinámica grupal/debate en clase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elementos de los Estados Financieros:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‐ Balance General: Activo, pasivo y patrimonio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analizar y aplicar el marco legal normativo para la elaboración de los Estados Financieros.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‐ Estado de Resultados: Ingresos y Gastos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discusión de caso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Análisis de los Estados Financieros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evalúa los resultados obtenidos. Demuestra la aplicación del análisis vertical y horizontal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clase Expositiva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‐Análisis Horizontal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‐Análisis Vertical.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‐Desarrollo de casos de aplica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ción.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‐ Elaboración de un informe gerencial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVALUACIÓN PARCIAL 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trabajos de aplicación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Propicia un debate acerca de la toma de decisiones en una empresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‐Análisis de todo el proceso aplicado hasta el informe gerencial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VI.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESTRATEGIAS METODOLÓGICAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lecturas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los materiales asignados previamente deberán ser leídos para el desarrollo de cada sesión de los cuales se tomarán evaluaciones permanentes en cada sesión. Es importante leer los materiales asignados, de manera que se pueda complementar el tratamiento de los mismos en clase.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participación en clase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La participación en clase es de primera importancia en el curso, la participación incluye no solamente los aportes referidos al tema a tratar, sino las preguntas que surgieran con referencia a él.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trabajo grupal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En particular, se deberán conformar equipos de trabajo de seis integrantes (como máximo por equipo).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VII.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVALUACIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El promedio final de curso es producto de una media ponderada que considera los siguientes pesos:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluación Parcial 1 10%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluación Parcial 2 20%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluación Parcial 3 20%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluación Final 30%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluación Continua 20%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIII.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIBLIOGRAFÍA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ubicación : 657.4/F64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Título : Contabilidad Gerencial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autor : Flores Soria, Jaime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editorial: Centro de Especialización en Contabilidad y Finanzas. Año 2003.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ubicación : 658.151.1/P27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Título : Contabilidad para la toma de decisiones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autor : Pascual Chávez, Ackerman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editorial: San Marcos Año 2003.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ubicación : 658.151.1/D69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Título : Contabilidad Gerencial II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autor : Díaz Izquierdo, Pedro; Quiroz Pacheco, Juan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editorial: USMP Año 2001.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">codigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">row</t>
+  </si>
+  <si>
+    <t xml:space="preserve">col</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">offset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subtipo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">titulo0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">titulo1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I. DATOS GENERALES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Código:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre‐ Requisito :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contabilidad General</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Créditos : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horas :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04 horas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semestre académico : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017‐ I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciclo :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">II. SUMILLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">justify</t>
+  </si>
+  <si>
+    <t xml:space="preserve">III. SISTEMA DE COMPETENCIAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">titulo2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">competencias1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">competencias2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analiza y diagnostica los Estados financieros básicos de diferentes empresas, mediante el análisis vertical y horizontal así como los ratios financieros. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IV. PROGRAMACIÓN DE CONTENIDOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">titulo3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exposición dialogada\nTaller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clase Expositiva\n Taller\n  Discusión de caso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">examenes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVALUACIÓN PARCIAL 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDAD II: ANALISIS E INTERPRETACION DE LOS ESTADOS FINANCIEROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V. ESTRATEGIAS METODOLÓGICAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VI. EVALUACIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VII. BIBLIOGRAFÍA</t>
   </si>
   <si>
     <t xml:space="preserve">modelo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cod_acceso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">master</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">doc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wacceso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Master</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Administrador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Responsable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Docente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acceso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">true</t>
-  </si>
-  <si>
-    <t xml:space="preserve">false</t>
-  </si>
-  <si>
-    <t xml:space="preserve">generales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">titulos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">competencias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contenidos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sumillas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">estrategias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">evaluaciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bibliografias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unidades</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cursos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mallas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mcursos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prereqs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grupos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">curso_grupos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">curso_competencia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">componente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tipo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">align</t>
-  </si>
-  <si>
-    <t xml:space="preserve">columna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">semana_inicio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">semana_fin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">semana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">porcentaje</t>
-  </si>
-  <si>
-    <t xml:space="preserve">autor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">editorial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fecha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">codigo_ucss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">texto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">titulo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADMINISTRACION I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">left</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONTABILIDAD GERENCIAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DATOS GENERALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1‐</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Código</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> : 100048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2‐</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pre‐ Requisito </t>
-  </si>
-  <si>
-    <t xml:space="preserve">: Contabilidad General</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3‐</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Créditos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">: 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4‐</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Horas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">: 04 horas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5‐</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semestre académico</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> : 2017‐ I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6‐</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ciclo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> : III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">II.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUMILLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El curso tiene como propósito integrar las teorías, las técnicas y las herramientas adquiridas en las materias de contabilidad general y administración que le permita llegar al alumno a desarrollar las habilidades de análisis, integración de la información para la construcción de propuestas y soluciones que llevan al logro de los objetivos de la organización. Se pondrá énfasis en el análisis financiero de los estados financieros y su relación con los costos empresariales.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">III.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMPETENCIAS GENERALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comprende el papel de la información contable en los Negocios. Relación entre la contabilidad y la Administración y la toma de decisiones.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conoce y ejecuta los Estados Financieros de una empresa comercial, industrial y de servicios.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toma de decisiones, en base a un análisis financiero, dentro de las funciones de operación, inversión y financiamiento y análisis de los costos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Planifica la gestión de la empresa a futuro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capacidad de trabajo en equipo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IV.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMPETENCIAS ESPECÍFICAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conoce, Analiza y describe las diferentes empresas que se desarrollan en nuestro país y la importancia que tiene en ellas la contabilidad gerencia, desde la óptica de los estados financieros: Estado de Situación Financiera y Estado de Resultados.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analiza y diagnostica los Estados financieros básicos de diferentes empresas, mediante el análisis vertical y horizontal así como los ratios financieros. ‐1‐</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desarrolla un plan financiero para una empresa: Presupuesto de ventas, Presupuesto de cobranzas, presupuesto de producción, presupuesto de compras, presupuesto de pagos, presupuesto de pagos, presupuesto de gastos, entre otros.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estudia la importancia de la estructura de costos de una empresa y su implicancia en la planificación financiera.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elabora estados financieros proyectados, para diagnosticar el futuro de la empresa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROGRAMACIÓN DE CONTENIDOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDAD I: LA CONTABILIDAD GERENCIAL.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEMANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONCEPTUAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROCEDIMENTAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACTIVIDAD DE APRENDIZAJE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La contabilidad gerencial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reconoce el recorrido de las operaciones empresariales en el ciclo contable de una empresa. Evalúa la utilidad de la información financiera y gerencial.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exposición dialogada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Contabilidad de Costos Empresariales.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">‐ Concepto. Importacia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Determinación, distribución y aplicación de los costos en una empresa mercantil.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dinámica grupal/debate en clase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elementos de los Estados Financieros:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">‐ Balance General: Activo, pasivo y patrimonio.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analizar y aplicar el marco legal normativo para la elaboración de los Estados Financieros.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">‐ Estado de Resultados: Ingresos y Gastos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discusión de caso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Análisis de los Estados Financieros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evalúa los resultados obtenidos. Demuestra la aplicación del análisis vertical y horizontal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clase Expositiva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">‐Análisis Horizontal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">‐Análisis Vertical.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">‐Desarrollo de casos de aplica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ción.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">‐ Elaboración de un informe gerencial.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EVALUACIÓN PARCIAL 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trabajos de aplicación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Propicia un debate acerca de la toma de decisiones en una empresa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">‐Análisis de todo el proceso aplicado hasta el informe gerencial.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VI.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESTRATEGIAS METODOLÓGICAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lecturas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los materiales asignados previamente deberán ser leídos para el desarrollo de cada sesión de los cuales se tomarán evaluaciones permanentes en cada sesión. Es importante leer los materiales asignados, de manera que se pueda complementar el tratamiento de los mismos en clase.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participación en clase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La participación en clase es de primera importancia en el curso, la participación incluye no solamente los aportes referidos al tema a tratar, sino las preguntas que surgieran con referencia a él.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trabajo grupal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En particular, se deberán conformar equipos de trabajo de seis integrantes (como máximo por equipo).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VII.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EVALUACIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El promedio final de curso es producto de una media ponderada que considera los siguientes pesos:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaluación Parcial 1 10%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaluación Parcial 2 20%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaluación Parcial 3 20%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaluación Final 30%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaluación Continua 20%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIII.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIBLIOGRAFÍA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ubicación : 657.4/F64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Título : Contabilidad Gerencial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autor : Flores Soria, Jaime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Editorial: Centro de Especialización en Contabilidad y Finanzas. Año 2003.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ubicación : 658.151.1/P27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Título : Contabilidad para la toma de decisiones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autor : Pascual Chávez, Ackerman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Editorial: San Marcos Año 2003.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ubicación : 658.151.1/D69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Título : Contabilidad Gerencial II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autor : Díaz Izquierdo, Pedro; Quiroz Pacheco, Juan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Editorial: USMP Año 2001.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">week</t>
-  </si>
-  <si>
-    <t xml:space="preserve">codigo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">orden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">row</t>
-  </si>
-  <si>
-    <t xml:space="preserve">col</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cols</t>
-  </si>
-  <si>
-    <t xml:space="preserve">offset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subtipo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">titulo0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">titulo1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I. DATOS GENERALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Código:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pre‐ Requisito :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contabilidad General</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Créditos : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Horas :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04 horas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semestre académico : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017‐ I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ciclo :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">II. SUMILLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">justify</t>
-  </si>
-  <si>
-    <t xml:space="preserve">III. SISTEMA DE COMPETENCIAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">titulo2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">competencias1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">competencias2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analiza y diagnostica los Estados financieros básicos de diferentes empresas, mediante el análisis vertical y horizontal así como los ratios financieros. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IV. PROGRAMACIÓN DE CONTENIDOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">titulo3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exposición dialogada\nTaller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clase Expositiva\n Taller\n  Discusión de caso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">examenes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EVALUACIÓN PARCIAL 1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDAD II: ANALISIS E INTERPRETACION DE LOS ESTADOS FINANCIEROS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V. ESTRATEGIAS METODOLÓGICAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VI. EVALUACIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VII. BIBLIOGRAFÍA</t>
   </si>
   <si>
     <t xml:space="preserve">campos</t>
@@ -1315,10 +1324,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1368,30 +1377,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D13" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E14" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1408,27 +1396,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H27" activeCellId="0" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="12.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="7" style="1" width="10.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="0" width="10.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="12.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="8" style="1" width="10.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="10.53"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="B1" s="0"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1444,31 +1433,31 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
     </row>
     <row r="2" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="B2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="1" t="str">
-        <f aca="false">+"'"&amp;$A2&amp;"' =&gt; "&amp;F2&amp;","</f>
+      <c r="H2" s="1" t="str">
+        <f aca="false">+"'"&amp;$B2&amp;"' =&gt; "&amp;G2&amp;","</f>
         <v>'cod_acceso' =&gt; cons,</v>
       </c>
-      <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1479,31 +1468,31 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
     </row>
     <row r="3" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="B3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1" t="str">
-        <f aca="false">+"'"&amp;$A3&amp;"' =&gt; "&amp;F3&amp;","</f>
+      <c r="G3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1" t="str">
+        <f aca="false">+"'"&amp;$B3&amp;"' =&gt; "&amp;G3&amp;","</f>
         <v>'wacceso' =&gt; Consulta,</v>
       </c>
-      <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1514,31 +1503,31 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
     </row>
     <row r="4" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>25</v>
+      <c r="B4" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="1" t="str">
-        <f aca="false">+"'"&amp;$A4&amp;"' =&gt; "&amp;F4&amp;","</f>
+        <v>22</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <f aca="false">+"'"&amp;$B4&amp;"' =&gt; "&amp;G4&amp;","</f>
         <v>'acceso' =&gt; false,</v>
       </c>
-      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1549,389 +1538,496 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="B5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="1" t="str">
+        <f aca="false">+"'"&amp;$B5&amp;"' =&gt; "&amp;G5&amp;","</f>
+        <v>'generales' =&gt; false,</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f aca="false">+"'"&amp;$B6&amp;"' =&gt; "&amp;G6&amp;","</f>
+        <v>'titulos' =&gt; false,</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f aca="false">+"'"&amp;$B7&amp;"' =&gt; "&amp;G7&amp;","</f>
+        <v>'competencias' =&gt; false,</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f aca="false">+"'"&amp;$B8&amp;"' =&gt; "&amp;G8&amp;","</f>
+        <v>'contenidos' =&gt; false,</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="1" t="str">
-        <f aca="false">+"'"&amp;$A5&amp;"' =&gt; "&amp;F5&amp;","</f>
-        <v>'generales' =&gt; false,</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f aca="false">+"'"&amp;$B9&amp;"' =&gt; "&amp;G9&amp;","</f>
+        <v>'sumillas' =&gt; false,</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="1" t="str">
-        <f aca="false">+"'"&amp;$A6&amp;"' =&gt; "&amp;F6&amp;","</f>
-        <v>'titulos' =&gt; false,</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f aca="false">+"'"&amp;$B10&amp;"' =&gt; "&amp;G10&amp;","</f>
+        <v>'estrategias' =&gt; false,</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="1" t="str">
-        <f aca="false">+"'"&amp;$A7&amp;"' =&gt; "&amp;F7&amp;","</f>
-        <v>'competencias' =&gt; false,</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f aca="false">+"'"&amp;$B11&amp;"' =&gt; "&amp;G11&amp;","</f>
+        <v>'evaluaciones' =&gt; false,</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="1" t="str">
-        <f aca="false">+"'"&amp;$A8&amp;"' =&gt; "&amp;F8&amp;","</f>
-        <v>'contenidos' =&gt; false,</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="C12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="1" t="str">
+        <f aca="false">+"'"&amp;$B12&amp;"' =&gt; "&amp;G12&amp;","</f>
+        <v>'bibliografias' =&gt; false,</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="1" t="str">
-        <f aca="false">+"'"&amp;$A9&amp;"' =&gt; "&amp;F9&amp;","</f>
-        <v>'sumillas' =&gt; false,</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="1" t="str">
+        <f aca="false">+"'"&amp;$B13&amp;"' =&gt; "&amp;G13&amp;","</f>
+        <v>'unidades' =&gt; false,</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="1" t="str">
-        <f aca="false">+"'"&amp;$A10&amp;"' =&gt; "&amp;F10&amp;","</f>
-        <v>'estrategias' =&gt; false,</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="1" t="str">
+        <f aca="false">+"'"&amp;$B14&amp;"' =&gt; "&amp;G14&amp;","</f>
+        <v>'cursos' =&gt; false,</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="1" t="str">
-        <f aca="false">+"'"&amp;$A11&amp;"' =&gt; "&amp;F11&amp;","</f>
-        <v>'evaluaciones' =&gt; false,</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="C15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="1" t="str">
+        <f aca="false">+"'"&amp;$B15&amp;"' =&gt; "&amp;G15&amp;","</f>
+        <v>'mallas' =&gt; false,</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="1" t="str">
-        <f aca="false">+"'"&amp;$A12&amp;"' =&gt; "&amp;F12&amp;","</f>
-        <v>'bibliografias' =&gt; false,</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="C16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="1" t="str">
+        <f aca="false">+"'"&amp;$B16&amp;"' =&gt; "&amp;G16&amp;","</f>
+        <v>'mcursos' =&gt; false,</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="1" t="str">
-        <f aca="false">+"'"&amp;$A13&amp;"' =&gt; "&amp;F13&amp;","</f>
-        <v>'unidades' =&gt; false,</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="C17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="1" t="str">
+        <f aca="false">+"'"&amp;$B17&amp;"' =&gt; "&amp;G17&amp;","</f>
+        <v>'prereqs' =&gt; false,</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="1" t="str">
-        <f aca="false">+"'"&amp;$A14&amp;"' =&gt; "&amp;F14&amp;","</f>
-        <v>'cursos' =&gt; false,</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="C18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="1" t="str">
+        <f aca="false">+"'"&amp;$B18&amp;"' =&gt; "&amp;G18&amp;","</f>
+        <v>'grupos' =&gt; false,</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="1" t="str">
-        <f aca="false">+"'"&amp;$A15&amp;"' =&gt; "&amp;F15&amp;","</f>
-        <v>'mallas' =&gt; false,</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="C19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="1" t="str">
+        <f aca="false">+"'"&amp;$B19&amp;"' =&gt; "&amp;G19&amp;","</f>
+        <v>'curso_grupos' =&gt; false,</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="1" t="str">
-        <f aca="false">+"'"&amp;$A16&amp;"' =&gt; "&amp;F16&amp;","</f>
-        <v>'mcursos' =&gt; false,</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="C20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="1" t="str">
+        <f aca="false">+"'"&amp;$B20&amp;"' =&gt; "&amp;G20&amp;","</f>
+        <v>'curso_competencia' =&gt; false,</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="1" t="str">
-        <f aca="false">+"'"&amp;$A17&amp;"' =&gt; "&amp;F17&amp;","</f>
-        <v>'prereqs' =&gt; false,</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="1" t="str">
-        <f aca="false">+"'"&amp;$A18&amp;"' =&gt; "&amp;F18&amp;","</f>
-        <v>'grupos' =&gt; false,</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="C23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="1" t="str">
+        <f aca="false">+"'"&amp;$B23&amp;"' =&gt; "&amp;G23&amp;","</f>
+        <v>'open_curso' =&gt; false,</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="1" t="str">
-        <f aca="false">+"'"&amp;$A19&amp;"' =&gt; "&amp;F19&amp;","</f>
-        <v>'curso_grupos' =&gt; false,</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="C24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="1" t="str">
+        <f aca="false">+"'"&amp;$B24&amp;"' =&gt; "&amp;G24&amp;","</f>
+        <v>'close_curso' =&gt; false,</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="1" t="str">
-        <f aca="false">+"'"&amp;$A20&amp;"' =&gt; "&amp;F20&amp;","</f>
-        <v>'curso_competencia' =&gt; false,</v>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="1" t="str">
+        <f aca="false">+"'"&amp;$B27&amp;"' =&gt; "&amp;G27&amp;","</f>
+        <v>'consulta' =&gt; true,</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="1" t="str">
+        <f aca="false">+"'"&amp;$B28&amp;"' =&gt; "&amp;G28&amp;","</f>
+        <v>'masive_download' =&gt; false,</v>
       </c>
     </row>
   </sheetData>
@@ -1979,60 +2075,60 @@
   <sheetData>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2041,16 +2137,16 @@
         <v>0</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2059,7 +2155,7 @@
         <v>generales</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
@@ -2068,10 +2164,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>1</v>
@@ -2106,187 +2202,187 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2294,22 +2390,22 @@
         <v>1</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
     </row>
     <row r="36" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -2317,14 +2413,14 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
     </row>
     <row r="37" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B37" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -2334,7 +2430,7 @@
     </row>
     <row r="38" customFormat="false" ht="57.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B38" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2347,22 +2443,22 @@
         <v>2</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="45.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
@@ -2372,7 +2468,7 @@
         <v>3</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
@@ -2381,24 +2477,24 @@
     </row>
     <row r="42" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B42" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
     </row>
     <row r="43" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B43" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -2406,7 +2502,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
@@ -2416,42 +2512,42 @@
         <v>4</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -2459,7 +2555,7 @@
     </row>
     <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -2467,7 +2563,7 @@
     </row>
     <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -2475,7 +2571,7 @@
     </row>
     <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -2490,23 +2586,23 @@
         <v>5</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
       <c r="E51" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
       <c r="H51" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I51" s="9"/>
     </row>
     <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
@@ -2587,87 +2683,87 @@
     </row>
     <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D73" s="10"/>
     </row>
     <row r="74" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2675,22 +2771,22 @@
         <v>1</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2698,22 +2794,22 @@
         <v>2</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2721,22 +2817,22 @@
         <v>3</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2796,45 +2892,45 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E2" s="7" t="n">
         <v>0</v>
@@ -2846,10 +2942,10 @@
         <v>8</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J2" s="11" t="n">
         <f aca="false">IF(E1=E2,1,F2)</f>
@@ -2860,11 +2956,11 @@
       </c>
       <c r="M2" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K2&amp;", '"&amp;L$1&amp;"': '"&amp;L2&amp;"', '"&amp;F$1&amp;"': "&amp;F2&amp;", '"&amp;G$1&amp;"': "&amp;G2&amp;", '"&amp;H$1&amp;"': '"&amp;H2&amp;"', '"&amp;I$1&amp;"': '"&amp;I2&amp;"', '"&amp;J$1&amp;"':"&amp;J2&amp;"}, "</f>
-        <v>{ 'reg': 11, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'CONTABILIDAD GERENCIAL', 'offset':1}, </v>
+        <v>{ 'reg': 11, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'CONTABILIDAD GERENCIAL', 'offset':1},</v>
       </c>
       <c r="N2" s="7" t="str">
         <f aca="false">IF(E1=E2,CONCATENATE(N1,M2),M2)</f>
-        <v>{ 'reg': 11, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'CONTABILIDAD GERENCIAL', 'offset':1}, </v>
+        <v>{ 'reg': 11, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'CONTABILIDAD GERENCIAL', 'offset':1},</v>
       </c>
       <c r="O2" s="15" t="str">
         <f aca="false">IF(E2=E3,"","{'"&amp;E$1&amp;"': "&amp;E2&amp;", '"&amp;B$1&amp;"': '"&amp;B2&amp;"',  'editing': false, 'tipo': '"&amp;A2&amp;"', 'data': "&amp;"["&amp;N2&amp;"],  },")</f>
@@ -2873,7 +2969,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E3" s="7" t="n">
         <v>1</v>
@@ -2885,10 +2981,10 @@
         <v>8</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J3" s="11" t="n">
         <f aca="false">IF(E2=E3,1,F3)</f>
@@ -2898,15 +2994,15 @@
         <v>21</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M3" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K3&amp;", '"&amp;L$1&amp;"': '"&amp;L3&amp;"', '"&amp;F$1&amp;"': "&amp;F3&amp;", '"&amp;G$1&amp;"': "&amp;G3&amp;", '"&amp;H$1&amp;"': '"&amp;H3&amp;"', '"&amp;I$1&amp;"': '"&amp;I3&amp;"', '"&amp;J$1&amp;"':"&amp;J3&amp;"}, "</f>
-        <v>{ 'reg': 21, 'subtipo': 'generales', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'I. DATOS GENERALES', 'offset':1}, </v>
+        <v>{ 'reg': 21, 'subtipo': 'generales', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'I. DATOS GENERALES', 'offset':1},</v>
       </c>
       <c r="N3" s="7" t="str">
         <f aca="false">IF(E2=E3,CONCATENATE(N2,M3),M3)</f>
-        <v>{ 'reg': 21, 'subtipo': 'generales', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'I. DATOS GENERALES', 'offset':1}, </v>
+        <v>{ 'reg': 21, 'subtipo': 'generales', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'I. DATOS GENERALES', 'offset':1},</v>
       </c>
       <c r="O3" s="15" t="str">
         <f aca="false">IF(E3=E4,"","{'"&amp;E$1&amp;"': "&amp;E3&amp;", '"&amp;B$1&amp;"': '"&amp;B3&amp;"',  'editing': false, 'tipo': '"&amp;A3&amp;"', 'data': "&amp;"["&amp;N3&amp;"],  },")</f>
@@ -2915,7 +3011,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E4" s="7" t="n">
         <v>1</v>
@@ -2927,10 +3023,10 @@
         <v>2</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="J4" s="11" t="n">
         <f aca="false">IF(E3=E4,1,F4)</f>
@@ -2941,11 +3037,11 @@
       </c>
       <c r="M4" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K4&amp;", '"&amp;L$1&amp;"': '"&amp;L4&amp;"', '"&amp;F$1&amp;"': "&amp;F4&amp;", '"&amp;G$1&amp;"': "&amp;G4&amp;", '"&amp;H$1&amp;"': '"&amp;H4&amp;"', '"&amp;I$1&amp;"': '"&amp;I4&amp;"', '"&amp;J$1&amp;"':"&amp;J4&amp;"}, "</f>
-        <v>{ 'reg': 35, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Código:', 'offset':1}, </v>
+        <v>{ 'reg': 35, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Código:', 'offset':1},</v>
       </c>
       <c r="N4" s="7" t="str">
         <f aca="false">IF(E3=E4,CONCATENATE(N3,M4),M4)</f>
-        <v>{ 'reg': 21, 'subtipo': 'generales', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'I. DATOS GENERALES', 'offset':1}, { 'reg': 35, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Código:', 'offset':1}, </v>
+        <v>{ 'reg': 21, 'subtipo': 'generales', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'I. DATOS GENERALES', 'offset':1}, { 'reg': 35, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Código:', 'offset':1},</v>
       </c>
       <c r="O4" s="15" t="str">
         <f aca="false">IF(E4=E5,"","{'"&amp;E$1&amp;"': "&amp;E4&amp;", '"&amp;B$1&amp;"': '"&amp;B4&amp;"',  'editing': false, 'tipo': '"&amp;A4&amp;"', 'data': "&amp;"["&amp;N4&amp;"],  },")</f>
@@ -2954,7 +3050,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5" s="7" t="n">
         <v>1</v>
@@ -2966,10 +3062,10 @@
         <v>2</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J5" s="11" t="n">
         <f aca="false">IF(E4=E5,1,F5)</f>
@@ -2980,11 +3076,11 @@
       </c>
       <c r="M5" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K5&amp;", '"&amp;L$1&amp;"': '"&amp;L5&amp;"', '"&amp;F$1&amp;"': "&amp;F5&amp;", '"&amp;G$1&amp;"': "&amp;G5&amp;", '"&amp;H$1&amp;"': '"&amp;H5&amp;"', '"&amp;I$1&amp;"': '"&amp;I5&amp;"', '"&amp;J$1&amp;"':"&amp;J5&amp;"}, "</f>
-        <v>{ 'reg': 85, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '100048', 'offset':1}, </v>
+        <v>{ 'reg': 85, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '100048', 'offset':1},</v>
       </c>
       <c r="N5" s="7" t="str">
         <f aca="false">IF(E4=E5,CONCATENATE(N4,M5),M5)</f>
-        <v>{ 'reg': 21, 'subtipo': 'generales', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'I. DATOS GENERALES', 'offset':1}, { 'reg': 35, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Código:', 'offset':1}, { 'reg': 85, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '100048', 'offset':1}, </v>
+        <v>{ 'reg': 21, 'subtipo': 'generales', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'I. DATOS GENERALES', 'offset':1}, { 'reg': 35, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Código:', 'offset':1}, { 'reg': 85, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '100048', 'offset':1},</v>
       </c>
       <c r="O5" s="15" t="str">
         <f aca="false">IF(E5=E6,"","{'"&amp;E$1&amp;"': "&amp;E5&amp;", '"&amp;B$1&amp;"': '"&amp;B5&amp;"',  'editing': false, 'tipo': '"&amp;A5&amp;"', 'data': "&amp;"["&amp;N5&amp;"],  },")</f>
@@ -2993,7 +3089,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E6" s="7" t="n">
         <v>2</v>
@@ -3005,10 +3101,10 @@
         <v>2</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="J6" s="11" t="n">
         <f aca="false">IF(E5=E6,1,F6)</f>
@@ -3019,11 +3115,11 @@
       </c>
       <c r="M6" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K6&amp;", '"&amp;L$1&amp;"': '"&amp;L6&amp;"', '"&amp;F$1&amp;"': "&amp;F6&amp;", '"&amp;G$1&amp;"': "&amp;G6&amp;", '"&amp;H$1&amp;"': '"&amp;H6&amp;"', '"&amp;I$1&amp;"': '"&amp;I6&amp;"', '"&amp;J$1&amp;"':"&amp;J6&amp;"}, "</f>
-        <v>{ 'reg': 130, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Pre‐ Requisito :', 'offset':2}, </v>
+        <v>{ 'reg': 130, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Pre‐ Requisito :', 'offset':2},</v>
       </c>
       <c r="N6" s="7" t="str">
         <f aca="false">IF(E5=E6,CONCATENATE(N5,M6),M6)</f>
-        <v>{ 'reg': 130, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Pre‐ Requisito :', 'offset':2}, </v>
+        <v>{ 'reg': 130, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Pre‐ Requisito :', 'offset':2},</v>
       </c>
       <c r="O6" s="15" t="str">
         <f aca="false">IF(E6=E7,"","{'"&amp;E$1&amp;"': "&amp;E6&amp;", '"&amp;B$1&amp;"': '"&amp;B6&amp;"',  'editing': false, 'tipo': '"&amp;A6&amp;"', 'data': "&amp;"["&amp;N6&amp;"],  },")</f>
@@ -3032,7 +3128,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E7" s="7" t="n">
         <v>2</v>
@@ -3044,10 +3140,10 @@
         <v>2</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J7" s="11" t="n">
         <f aca="false">IF(E6=E7,1,F7)</f>
@@ -3058,11 +3154,11 @@
       </c>
       <c r="M7" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K7&amp;", '"&amp;L$1&amp;"': '"&amp;L7&amp;"', '"&amp;F$1&amp;"': "&amp;F7&amp;", '"&amp;G$1&amp;"': "&amp;G7&amp;", '"&amp;H$1&amp;"': '"&amp;H7&amp;"', '"&amp;I$1&amp;"': '"&amp;I7&amp;"', '"&amp;J$1&amp;"':"&amp;J7&amp;"}, "</f>
-        <v>{ 'reg': 7, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'Contabilidad General', 'offset':1}, </v>
+        <v>{ 'reg': 7, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'Contabilidad General', 'offset':1},</v>
       </c>
       <c r="N7" s="7" t="str">
         <f aca="false">IF(E6=E7,CONCATENATE(N6,M7),M7)</f>
-        <v>{ 'reg': 130, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Pre‐ Requisito :', 'offset':2}, { 'reg': 7, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'Contabilidad General', 'offset':1}, </v>
+        <v>{ 'reg': 130, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Pre‐ Requisito :', 'offset':2}, { 'reg': 7, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'Contabilidad General', 'offset':1},</v>
       </c>
       <c r="O7" s="15" t="str">
         <f aca="false">IF(E7=E8,"","{'"&amp;E$1&amp;"': "&amp;E7&amp;", '"&amp;B$1&amp;"': '"&amp;B7&amp;"',  'editing': false, 'tipo': '"&amp;A7&amp;"', 'data': "&amp;"["&amp;N7&amp;"],  },")</f>
@@ -3071,7 +3167,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E8" s="7" t="n">
         <v>3</v>
@@ -3083,10 +3179,10 @@
         <v>2</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J8" s="11" t="n">
         <f aca="false">IF(E7=E8,1,F8)</f>
@@ -3097,11 +3193,11 @@
       </c>
       <c r="M8" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K8&amp;", '"&amp;L$1&amp;"': '"&amp;L8&amp;"', '"&amp;F$1&amp;"': "&amp;F8&amp;", '"&amp;G$1&amp;"': "&amp;G8&amp;", '"&amp;H$1&amp;"': '"&amp;H8&amp;"', '"&amp;I$1&amp;"': '"&amp;I8&amp;"', '"&amp;J$1&amp;"':"&amp;J8&amp;"}, "</f>
-        <v>{ 'reg': 109, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Créditos : ', 'offset':2}, </v>
+        <v>{ 'reg': 109, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Créditos : ', 'offset':2},</v>
       </c>
       <c r="N8" s="7" t="str">
         <f aca="false">IF(E7=E8,CONCATENATE(N7,M8),M8)</f>
-        <v>{ 'reg': 109, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Créditos : ', 'offset':2}, </v>
+        <v>{ 'reg': 109, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Créditos : ', 'offset':2},</v>
       </c>
       <c r="O8" s="15" t="str">
         <f aca="false">IF(E8=E9,"","{'"&amp;E$1&amp;"': "&amp;E8&amp;", '"&amp;B$1&amp;"': '"&amp;B8&amp;"',  'editing': false, 'tipo': '"&amp;A8&amp;"', 'data': "&amp;"["&amp;N8&amp;"],  },")</f>
@@ -3110,7 +3206,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E9" s="7" t="n">
         <v>3</v>
@@ -3122,10 +3218,10 @@
         <v>2</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="J9" s="11" t="n">
         <f aca="false">IF(E8=E9,1,F9)</f>
@@ -3136,11 +3232,11 @@
       </c>
       <c r="M9" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K9&amp;", '"&amp;L$1&amp;"': '"&amp;L9&amp;"', '"&amp;F$1&amp;"': "&amp;F9&amp;", '"&amp;G$1&amp;"': "&amp;G9&amp;", '"&amp;H$1&amp;"': '"&amp;H9&amp;"', '"&amp;I$1&amp;"': '"&amp;I9&amp;"', '"&amp;J$1&amp;"':"&amp;J9&amp;"}, "</f>
-        <v>{ 'reg': 13, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '03', 'offset':1}, </v>
+        <v>{ 'reg': 13, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '03', 'offset':1},</v>
       </c>
       <c r="N9" s="7" t="str">
         <f aca="false">IF(E8=E9,CONCATENATE(N8,M9),M9)</f>
-        <v>{ 'reg': 109, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Créditos : ', 'offset':2}, { 'reg': 13, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '03', 'offset':1}, </v>
+        <v>{ 'reg': 109, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Créditos : ', 'offset':2}, { 'reg': 13, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '03', 'offset':1},</v>
       </c>
       <c r="O9" s="15" t="str">
         <f aca="false">IF(E9=E10,"","{'"&amp;E$1&amp;"': "&amp;E9&amp;", '"&amp;B$1&amp;"': '"&amp;B9&amp;"',  'editing': false, 'tipo': '"&amp;A9&amp;"', 'data': "&amp;"["&amp;N9&amp;"],  },")</f>
@@ -3149,7 +3245,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E10" s="7" t="n">
         <v>4</v>
@@ -3161,10 +3257,10 @@
         <v>2</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J10" s="11" t="n">
         <f aca="false">IF(E9=E10,1,F10)</f>
@@ -3175,11 +3271,11 @@
       </c>
       <c r="M10" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K10&amp;", '"&amp;L$1&amp;"': '"&amp;L10&amp;"', '"&amp;F$1&amp;"': "&amp;F10&amp;", '"&amp;G$1&amp;"': "&amp;G10&amp;", '"&amp;H$1&amp;"': '"&amp;H10&amp;"', '"&amp;I$1&amp;"': '"&amp;I10&amp;"', '"&amp;J$1&amp;"':"&amp;J10&amp;"}, "</f>
-        <v>{ 'reg': 128, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Horas :', 'offset':2}, </v>
+        <v>{ 'reg': 128, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Horas :', 'offset':2},</v>
       </c>
       <c r="N10" s="7" t="str">
         <f aca="false">IF(E9=E10,CONCATENATE(N9,M10),M10)</f>
-        <v>{ 'reg': 128, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Horas :', 'offset':2}, </v>
+        <v>{ 'reg': 128, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Horas :', 'offset':2},</v>
       </c>
       <c r="O10" s="15" t="str">
         <f aca="false">IF(E10=E11,"","{'"&amp;E$1&amp;"': "&amp;E10&amp;", '"&amp;B$1&amp;"': '"&amp;B10&amp;"',  'editing': false, 'tipo': '"&amp;A10&amp;"', 'data': "&amp;"["&amp;N10&amp;"],  },")</f>
@@ -3188,7 +3284,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11" s="7" t="n">
         <v>4</v>
@@ -3200,10 +3296,10 @@
         <v>2</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="J11" s="11" t="n">
         <f aca="false">IF(E10=E11,1,F11)</f>
@@ -3214,11 +3310,11 @@
       </c>
       <c r="M11" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K11&amp;", '"&amp;L$1&amp;"': '"&amp;L11&amp;"', '"&amp;F$1&amp;"': "&amp;F11&amp;", '"&amp;G$1&amp;"': "&amp;G11&amp;", '"&amp;H$1&amp;"': '"&amp;H11&amp;"', '"&amp;I$1&amp;"': '"&amp;I11&amp;"', '"&amp;J$1&amp;"':"&amp;J11&amp;"}, "</f>
-        <v>{ 'reg': 91, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '04 horas', 'offset':1}, </v>
+        <v>{ 'reg': 91, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '04 horas', 'offset':1},</v>
       </c>
       <c r="N11" s="7" t="str">
         <f aca="false">IF(E10=E11,CONCATENATE(N10,M11),M11)</f>
-        <v>{ 'reg': 128, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Horas :', 'offset':2}, { 'reg': 91, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '04 horas', 'offset':1}, </v>
+        <v>{ 'reg': 128, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Horas :', 'offset':2}, { 'reg': 91, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '04 horas', 'offset':1},</v>
       </c>
       <c r="O11" s="15" t="str">
         <f aca="false">IF(E11=E12,"","{'"&amp;E$1&amp;"': "&amp;E11&amp;", '"&amp;B$1&amp;"': '"&amp;B11&amp;"',  'editing': false, 'tipo': '"&amp;A11&amp;"', 'data': "&amp;"["&amp;N11&amp;"],  },")</f>
@@ -3227,7 +3323,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E12" s="7" t="n">
         <v>5</v>
@@ -3239,10 +3335,10 @@
         <v>2</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J12" s="11" t="n">
         <f aca="false">IF(E11=E12,1,F12)</f>
@@ -3253,11 +3349,11 @@
       </c>
       <c r="M12" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K12&amp;", '"&amp;L$1&amp;"': '"&amp;L12&amp;"', '"&amp;F$1&amp;"': "&amp;F12&amp;", '"&amp;G$1&amp;"': "&amp;G12&amp;", '"&amp;H$1&amp;"': '"&amp;H12&amp;"', '"&amp;I$1&amp;"': '"&amp;I12&amp;"', '"&amp;J$1&amp;"':"&amp;J12&amp;"}, "</f>
-        <v>{ 'reg': 24, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Semestre académico : ', 'offset':2}, </v>
+        <v>{ 'reg': 24, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Semestre académico : ', 'offset':2},</v>
       </c>
       <c r="N12" s="7" t="str">
         <f aca="false">IF(E11=E12,CONCATENATE(N11,M12),M12)</f>
-        <v>{ 'reg': 24, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Semestre académico : ', 'offset':2}, </v>
+        <v>{ 'reg': 24, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Semestre académico : ', 'offset':2},</v>
       </c>
       <c r="O12" s="15" t="str">
         <f aca="false">IF(E12=E13,"","{'"&amp;E$1&amp;"': "&amp;E12&amp;", '"&amp;B$1&amp;"': '"&amp;B12&amp;"',  'editing': false, 'tipo': '"&amp;A12&amp;"', 'data': "&amp;"["&amp;N12&amp;"],  },")</f>
@@ -3266,7 +3362,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E13" s="7" t="n">
         <v>5</v>
@@ -3278,10 +3374,10 @@
         <v>2</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="J13" s="11" t="n">
         <f aca="false">IF(E12=E13,1,F13)</f>
@@ -3292,11 +3388,11 @@
       </c>
       <c r="M13" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K13&amp;", '"&amp;L$1&amp;"': '"&amp;L13&amp;"', '"&amp;F$1&amp;"': "&amp;F13&amp;", '"&amp;G$1&amp;"': "&amp;G13&amp;", '"&amp;H$1&amp;"': '"&amp;H13&amp;"', '"&amp;I$1&amp;"': '"&amp;I13&amp;"', '"&amp;J$1&amp;"':"&amp;J13&amp;"}, "</f>
-        <v>{ 'reg': 86, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '2017‐ I', 'offset':1}, </v>
+        <v>{ 'reg': 86, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '2017‐ I', 'offset':1},</v>
       </c>
       <c r="N13" s="7" t="str">
         <f aca="false">IF(E12=E13,CONCATENATE(N12,M13),M13)</f>
-        <v>{ 'reg': 24, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Semestre académico : ', 'offset':2}, { 'reg': 86, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '2017‐ I', 'offset':1}, </v>
+        <v>{ 'reg': 24, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Semestre académico : ', 'offset':2}, { 'reg': 86, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': '2017‐ I', 'offset':1},</v>
       </c>
       <c r="O13" s="15" t="str">
         <f aca="false">IF(E13=E14,"","{'"&amp;E$1&amp;"': "&amp;E13&amp;", '"&amp;B$1&amp;"': '"&amp;B13&amp;"',  'editing': false, 'tipo': '"&amp;A13&amp;"', 'data': "&amp;"["&amp;N13&amp;"],  },")</f>
@@ -3305,7 +3401,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E14" s="7" t="n">
         <v>6</v>
@@ -3317,10 +3413,10 @@
         <v>2</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J14" s="11" t="n">
         <f aca="false">IF(E13=E14,1,F14)</f>
@@ -3331,11 +3427,11 @@
       </c>
       <c r="M14" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K14&amp;", '"&amp;L$1&amp;"': '"&amp;L14&amp;"', '"&amp;F$1&amp;"': "&amp;F14&amp;", '"&amp;G$1&amp;"': "&amp;G14&amp;", '"&amp;H$1&amp;"': '"&amp;H14&amp;"', '"&amp;I$1&amp;"': '"&amp;I14&amp;"', '"&amp;J$1&amp;"':"&amp;J14&amp;"}, "</f>
-        <v>{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Ciclo :', 'offset':2}, </v>
+        <v>{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Ciclo :', 'offset':2},</v>
       </c>
       <c r="N14" s="7" t="str">
         <f aca="false">IF(E13=E14,CONCATENATE(N13,M14),M14)</f>
-        <v>{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Ciclo :', 'offset':2}, </v>
+        <v>{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Ciclo :', 'offset':2},</v>
       </c>
       <c r="O14" s="15" t="str">
         <f aca="false">IF(E14=E15,"","{'"&amp;E$1&amp;"': "&amp;E14&amp;", '"&amp;B$1&amp;"': '"&amp;B14&amp;"',  'editing': false, 'tipo': '"&amp;A14&amp;"', 'data': "&amp;"["&amp;N14&amp;"],  },")</f>
@@ -3344,7 +3440,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E15" s="7" t="n">
         <v>6</v>
@@ -3356,10 +3452,10 @@
         <v>2</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J15" s="11" t="n">
         <f aca="false">IF(E14=E15,1,F15)</f>
@@ -3370,11 +3466,11 @@
       </c>
       <c r="M15" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K15&amp;", '"&amp;L$1&amp;"': '"&amp;L15&amp;"', '"&amp;F$1&amp;"': "&amp;F15&amp;", '"&amp;G$1&amp;"': "&amp;G15&amp;", '"&amp;H$1&amp;"': '"&amp;H15&amp;"', '"&amp;I$1&amp;"': '"&amp;I15&amp;"', '"&amp;J$1&amp;"':"&amp;J15&amp;"}, "</f>
-        <v>{ 'reg': 103, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'III', 'offset':1}, </v>
+        <v>{ 'reg': 103, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'III', 'offset':1},</v>
       </c>
       <c r="N15" s="7" t="str">
         <f aca="false">IF(E14=E15,CONCATENATE(N14,M15),M15)</f>
-        <v>{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Ciclo :', 'offset':2}, { 'reg': 103, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'III', 'offset':1}, </v>
+        <v>{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 2, 'align': 'left', 'texto': 'Ciclo :', 'offset':2}, { 'reg': 103, 'subtipo': '', 'col': 3, 'cols': 2, 'align': 'left', 'texto': 'III', 'offset':1},</v>
       </c>
       <c r="O15" s="15" t="str">
         <f aca="false">IF(E15=E16,"","{'"&amp;E$1&amp;"': "&amp;E15&amp;", '"&amp;B$1&amp;"': '"&amp;B15&amp;"',  'editing': false, 'tipo': '"&amp;A15&amp;"', 'data': "&amp;"["&amp;N15&amp;"],  },")</f>
@@ -3383,7 +3479,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E16" s="7" t="n">
         <v>2</v>
@@ -3395,10 +3491,10 @@
         <v>8</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J16" s="11" t="n">
         <f aca="false">IF(E15=E16,1,F16)</f>
@@ -3408,15 +3504,15 @@
         <v>45</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M16" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K16&amp;", '"&amp;L$1&amp;"': '"&amp;L16&amp;"', '"&amp;F$1&amp;"': "&amp;F16&amp;", '"&amp;G$1&amp;"': "&amp;G16&amp;", '"&amp;H$1&amp;"': '"&amp;H16&amp;"', '"&amp;I$1&amp;"': '"&amp;I16&amp;"', '"&amp;J$1&amp;"':"&amp;J16&amp;"}, "</f>
-        <v>{ 'reg': 45, 'subtipo': 'sumillas', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'II. SUMILLA', 'offset':1}, </v>
+        <v>{ 'reg': 45, 'subtipo': 'sumillas', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'II. SUMILLA', 'offset':1},</v>
       </c>
       <c r="N16" s="7" t="str">
         <f aca="false">IF(E15=E16,CONCATENATE(N15,M16),M16)</f>
-        <v>{ 'reg': 45, 'subtipo': 'sumillas', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'II. SUMILLA', 'offset':1}, </v>
+        <v>{ 'reg': 45, 'subtipo': 'sumillas', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'II. SUMILLA', 'offset':1},</v>
       </c>
       <c r="O16" s="15" t="str">
         <f aca="false">IF(E16=E17,"","{'"&amp;E$1&amp;"': "&amp;E16&amp;", '"&amp;B$1&amp;"': '"&amp;B16&amp;"',  'editing': false, 'tipo': '"&amp;A16&amp;"', 'data': "&amp;"["&amp;N16&amp;"],  },")</f>
@@ -3425,7 +3521,7 @@
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E17" s="7" t="n">
         <v>1</v>
@@ -3437,10 +3533,10 @@
         <v>8</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J17" s="11" t="n">
         <f aca="false">IF(E16=E17,1,F17)</f>
@@ -3451,11 +3547,11 @@
       </c>
       <c r="M17" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K17&amp;", '"&amp;L$1&amp;"': '"&amp;L17&amp;"', '"&amp;F$1&amp;"': "&amp;F17&amp;", '"&amp;G$1&amp;"': "&amp;G17&amp;", '"&amp;H$1&amp;"': '"&amp;H17&amp;"', '"&amp;I$1&amp;"': '"&amp;I17&amp;"', '"&amp;J$1&amp;"':"&amp;J17&amp;"}, "</f>
-        <v>{ 'reg': 36, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'justify', 'texto': 'El curso tiene como propósito integrar las teorías, las técnicas y las herramientas adquiridas en las materias de contabilidad general y administración que le permita llegar al alumno a desarrollar las habilidades de análisis, integración de la información para la construcción de propuestas y soluciones que llevan al logro de los objetivos de la organización. Se pondrá énfasis en el análisis financiero de los estados financieros y su relación con los costos empresariales.', 'offset':1}, </v>
+        <v>{ 'reg': 36, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'justify', 'texto': 'El curso tiene como propósito integrar las teorías, las técnicas y las herramientas adquiridas en las materias de contabilidad general y administración que le permita llegar al alumno a desarrollar las habilidades de análisis, integración de la información para la construcción de propuestas y soluciones que llevan al logro de los objetivos de la organización. Se pondrá énfasis en el análisis financiero de los estados financieros y su relación con los costos empresariales.', 'offset':1},</v>
       </c>
       <c r="N17" s="7" t="str">
         <f aca="false">IF(E16=E17,CONCATENATE(N16,M17),M17)</f>
-        <v>{ 'reg': 36, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'justify', 'texto': 'El curso tiene como propósito integrar las teorías, las técnicas y las herramientas adquiridas en las materias de contabilidad general y administración que le permita llegar al alumno a desarrollar las habilidades de análisis, integración de la información para la construcción de propuestas y soluciones que llevan al logro de los objetivos de la organización. Se pondrá énfasis en el análisis financiero de los estados financieros y su relación con los costos empresariales.', 'offset':1}, </v>
+        <v>{ 'reg': 36, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'justify', 'texto': 'El curso tiene como propósito integrar las teorías, las técnicas y las herramientas adquiridas en las materias de contabilidad general y administración que le permita llegar al alumno a desarrollar las habilidades de análisis, integración de la información para la construcción de propuestas y soluciones que llevan al logro de los objetivos de la organización. Se pondrá énfasis en el análisis financiero de los estados financieros y su relación con los costos empresariales.', 'offset':1},</v>
       </c>
       <c r="O17" s="15" t="str">
         <f aca="false">IF(E17=E18,"","{'"&amp;E$1&amp;"': "&amp;E17&amp;", '"&amp;B$1&amp;"': '"&amp;B17&amp;"',  'editing': false, 'tipo': '"&amp;A17&amp;"', 'data': "&amp;"["&amp;N17&amp;"],  },")</f>
@@ -3464,7 +3560,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E18" s="7" t="n">
         <v>3</v>
@@ -3476,10 +3572,10 @@
         <v>8</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J18" s="11" t="n">
         <f aca="false">IF(E17=E18,1,F18)</f>
@@ -3489,15 +3585,15 @@
         <v>82</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M18" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K18&amp;", '"&amp;L$1&amp;"': '"&amp;L18&amp;"', '"&amp;F$1&amp;"': "&amp;F18&amp;", '"&amp;G$1&amp;"': "&amp;G18&amp;", '"&amp;H$1&amp;"': '"&amp;H18&amp;"', '"&amp;I$1&amp;"': '"&amp;I18&amp;"', '"&amp;J$1&amp;"':"&amp;J18&amp;"}, "</f>
-        <v>{ 'reg': 82, 'subtipo': 'competencias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'III. SISTEMA DE COMPETENCIAS', 'offset':1}, </v>
+        <v>{ 'reg': 82, 'subtipo': 'competencias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'III. SISTEMA DE COMPETENCIAS', 'offset':1},</v>
       </c>
       <c r="N18" s="7" t="str">
         <f aca="false">IF(E17=E18,CONCATENATE(N17,M18),M18)</f>
-        <v>{ 'reg': 82, 'subtipo': 'competencias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'III. SISTEMA DE COMPETENCIAS', 'offset':1}, </v>
+        <v>{ 'reg': 82, 'subtipo': 'competencias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'III. SISTEMA DE COMPETENCIAS', 'offset':1},</v>
       </c>
       <c r="O18" s="15" t="str">
         <f aca="false">IF(E18=E19,"","{'"&amp;E$1&amp;"': "&amp;E18&amp;", '"&amp;B$1&amp;"': '"&amp;B18&amp;"',  'editing': false, 'tipo': '"&amp;A18&amp;"', 'data': "&amp;"["&amp;N18&amp;"],  },")</f>
@@ -3506,7 +3602,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E19" s="7" t="n">
         <v>1</v>
@@ -3518,10 +3614,10 @@
         <v>8</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J19" s="11" t="n">
         <f aca="false">IF(E18=E19,1,F19)</f>
@@ -3531,15 +3627,15 @@
         <v>37</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M19" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K19&amp;", '"&amp;L$1&amp;"': '"&amp;L19&amp;"', '"&amp;F$1&amp;"': "&amp;F19&amp;", '"&amp;G$1&amp;"': "&amp;G19&amp;", '"&amp;H$1&amp;"': '"&amp;H19&amp;"', '"&amp;I$1&amp;"': '"&amp;I19&amp;"', '"&amp;J$1&amp;"':"&amp;J19&amp;"}, "</f>
-        <v>{ 'reg': 37, 'subtipo': 'competencias1', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS GENERALES', 'offset':1}, </v>
+        <v>{ 'reg': 37, 'subtipo': 'competencias1', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS GENERALES', 'offset':1},</v>
       </c>
       <c r="N19" s="7" t="str">
         <f aca="false">IF(E18=E19,CONCATENATE(N18,M19),M19)</f>
-        <v>{ 'reg': 37, 'subtipo': 'competencias1', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS GENERALES', 'offset':1}, </v>
+        <v>{ 'reg': 37, 'subtipo': 'competencias1', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS GENERALES', 'offset':1},</v>
       </c>
       <c r="O19" s="15" t="str">
         <f aca="false">IF(E19=E20,"","{'"&amp;E$1&amp;"': "&amp;E19&amp;", '"&amp;B$1&amp;"': '"&amp;B19&amp;"',  'editing': false, 'tipo': '"&amp;A19&amp;"', 'data': "&amp;"["&amp;N19&amp;"],  },")</f>
@@ -3548,7 +3644,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E20" s="7" t="n">
         <v>1</v>
@@ -3560,10 +3656,10 @@
         <v>7</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J20" s="11" t="n">
         <f aca="false">IF(E19=E20,1,F20)</f>
@@ -3574,11 +3670,11 @@
       </c>
       <c r="M20" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K20&amp;", '"&amp;L$1&amp;"': '"&amp;L20&amp;"', '"&amp;F$1&amp;"': "&amp;F20&amp;", '"&amp;G$1&amp;"': "&amp;G20&amp;", '"&amp;H$1&amp;"': '"&amp;H20&amp;"', '"&amp;I$1&amp;"': '"&amp;I20&amp;"', '"&amp;J$1&amp;"':"&amp;J20&amp;"}, "</f>
-        <v>{ 'reg': 10, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Comprende el papel de la información contable en los Negocios. Relación entre la contabilidad y la Administración y la toma de decisiones.', 'offset':1}, </v>
+        <v>{ 'reg': 10, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Comprende el papel de la información contable en los Negocios. Relación entre la contabilidad y la Administración y la toma de decisiones.', 'offset':1},</v>
       </c>
       <c r="N20" s="7" t="str">
         <f aca="false">IF(E19=E20,CONCATENATE(N19,M20),M20)</f>
-        <v>{ 'reg': 37, 'subtipo': 'competencias1', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS GENERALES', 'offset':1}, { 'reg': 10, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Comprende el papel de la información contable en los Negocios. Relación entre la contabilidad y la Administración y la toma de decisiones.', 'offset':1}, </v>
+        <v>{ 'reg': 37, 'subtipo': 'competencias1', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS GENERALES', 'offset':1}, { 'reg': 10, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Comprende el papel de la información contable en los Negocios. Relación entre la contabilidad y la Administración y la toma de decisiones.', 'offset':1},</v>
       </c>
       <c r="O20" s="15" t="str">
         <f aca="false">IF(E20=E21,"","{'"&amp;E$1&amp;"': "&amp;E20&amp;", '"&amp;B$1&amp;"': '"&amp;B20&amp;"',  'editing': false, 'tipo': '"&amp;A20&amp;"', 'data': "&amp;"["&amp;N20&amp;"],  },")</f>
@@ -3587,7 +3683,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E21" s="7" t="n">
         <f aca="false">+E20+1</f>
@@ -3600,10 +3696,10 @@
         <v>7</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J21" s="11" t="n">
         <f aca="false">IF(E20=E21,1,F21)</f>
@@ -3614,11 +3710,11 @@
       </c>
       <c r="M21" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K21&amp;", '"&amp;L$1&amp;"': '"&amp;L21&amp;"', '"&amp;F$1&amp;"': "&amp;F21&amp;", '"&amp;G$1&amp;"': "&amp;G21&amp;", '"&amp;H$1&amp;"': '"&amp;H21&amp;"', '"&amp;I$1&amp;"': '"&amp;I21&amp;"', '"&amp;J$1&amp;"':"&amp;J21&amp;"}, "</f>
-        <v>{ 'reg': 13, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce y ejecuta los Estados Financieros de una empresa comercial, industrial y de servicios.', 'offset':2}, </v>
+        <v>{ 'reg': 13, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce y ejecuta los Estados Financieros de una empresa comercial, industrial y de servicios.', 'offset':2},</v>
       </c>
       <c r="N21" s="7" t="str">
         <f aca="false">IF(E20=E21,CONCATENATE(N20,M21),M21)</f>
-        <v>{ 'reg': 13, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce y ejecuta los Estados Financieros de una empresa comercial, industrial y de servicios.', 'offset':2}, </v>
+        <v>{ 'reg': 13, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce y ejecuta los Estados Financieros de una empresa comercial, industrial y de servicios.', 'offset':2},</v>
       </c>
       <c r="O21" s="15" t="str">
         <f aca="false">IF(E21=E22,"","{'"&amp;E$1&amp;"': "&amp;E21&amp;", '"&amp;B$1&amp;"': '"&amp;B21&amp;"',  'editing': false, 'tipo': '"&amp;A21&amp;"', 'data': "&amp;"["&amp;N21&amp;"],  },")</f>
@@ -3627,7 +3723,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E22" s="7" t="n">
         <f aca="false">+E21+1</f>
@@ -3640,10 +3736,10 @@
         <v>7</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J22" s="11" t="n">
         <f aca="false">IF(E21=E22,1,F22)</f>
@@ -3654,11 +3750,11 @@
       </c>
       <c r="M22" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K22&amp;", '"&amp;L$1&amp;"': '"&amp;L22&amp;"', '"&amp;F$1&amp;"': "&amp;F22&amp;", '"&amp;G$1&amp;"': "&amp;G22&amp;", '"&amp;H$1&amp;"': '"&amp;H22&amp;"', '"&amp;I$1&amp;"': '"&amp;I22&amp;"', '"&amp;J$1&amp;"':"&amp;J22&amp;"}, "</f>
-        <v>{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Toma de decisiones, en base a un análisis financiero, dentro de las funciones de operación, inversión y financiamiento y análisis de los costos.', 'offset':2}, </v>
+        <v>{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Toma de decisiones, en base a un análisis financiero, dentro de las funciones de operación, inversión y financiamiento y análisis de los costos.', 'offset':2},</v>
       </c>
       <c r="N22" s="7" t="str">
         <f aca="false">IF(E21=E22,CONCATENATE(N21,M22),M22)</f>
-        <v>{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Toma de decisiones, en base a un análisis financiero, dentro de las funciones de operación, inversión y financiamiento y análisis de los costos.', 'offset':2}, </v>
+        <v>{ 'reg': 81, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Toma de decisiones, en base a un análisis financiero, dentro de las funciones de operación, inversión y financiamiento y análisis de los costos.', 'offset':2},</v>
       </c>
       <c r="O22" s="15" t="str">
         <f aca="false">IF(E22=E23,"","{'"&amp;E$1&amp;"': "&amp;E22&amp;", '"&amp;B$1&amp;"': '"&amp;B22&amp;"',  'editing': false, 'tipo': '"&amp;A22&amp;"', 'data': "&amp;"["&amp;N22&amp;"],  },")</f>
@@ -3667,7 +3763,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E23" s="7" t="n">
         <f aca="false">+E22+1</f>
@@ -3680,10 +3776,10 @@
         <v>7</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J23" s="11" t="n">
         <f aca="false">IF(E22=E23,1,F23)</f>
@@ -3694,11 +3790,11 @@
       </c>
       <c r="M23" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K23&amp;", '"&amp;L$1&amp;"': '"&amp;L23&amp;"', '"&amp;F$1&amp;"': "&amp;F23&amp;", '"&amp;G$1&amp;"': "&amp;G23&amp;", '"&amp;H$1&amp;"': '"&amp;H23&amp;"', '"&amp;I$1&amp;"': '"&amp;I23&amp;"', '"&amp;J$1&amp;"':"&amp;J23&amp;"}, "</f>
-        <v>{ 'reg': 41, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Planifica la gestión de la empresa a futuro.', 'offset':2}, </v>
+        <v>{ 'reg': 41, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Planifica la gestión de la empresa a futuro.', 'offset':2},</v>
       </c>
       <c r="N23" s="7" t="str">
         <f aca="false">IF(E22=E23,CONCATENATE(N22,M23),M23)</f>
-        <v>{ 'reg': 41, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Planifica la gestión de la empresa a futuro.', 'offset':2}, </v>
+        <v>{ 'reg': 41, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Planifica la gestión de la empresa a futuro.', 'offset':2},</v>
       </c>
       <c r="O23" s="15" t="str">
         <f aca="false">IF(E23=E24,"","{'"&amp;E$1&amp;"': "&amp;E23&amp;", '"&amp;B$1&amp;"': '"&amp;B23&amp;"',  'editing': false, 'tipo': '"&amp;A23&amp;"', 'data': "&amp;"["&amp;N23&amp;"],  },")</f>
@@ -3707,7 +3803,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E24" s="7" t="n">
         <f aca="false">+E23+1</f>
@@ -3720,10 +3816,10 @@
         <v>7</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J24" s="11" t="n">
         <f aca="false">IF(E23=E24,1,F24)</f>
@@ -3734,11 +3830,11 @@
       </c>
       <c r="M24" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K24&amp;", '"&amp;L$1&amp;"': '"&amp;L24&amp;"', '"&amp;F$1&amp;"': "&amp;F24&amp;", '"&amp;G$1&amp;"': "&amp;G24&amp;", '"&amp;H$1&amp;"': '"&amp;H24&amp;"', '"&amp;I$1&amp;"': '"&amp;I24&amp;"', '"&amp;J$1&amp;"':"&amp;J24&amp;"}, "</f>
-        <v>{ 'reg': 77, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Capacidad de trabajo en equipo.', 'offset':2}, </v>
+        <v>{ 'reg': 77, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Capacidad de trabajo en equipo.', 'offset':2},</v>
       </c>
       <c r="N24" s="7" t="str">
         <f aca="false">IF(E23=E24,CONCATENATE(N23,M24),M24)</f>
-        <v>{ 'reg': 77, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Capacidad de trabajo en equipo.', 'offset':2}, </v>
+        <v>{ 'reg': 77, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Capacidad de trabajo en equipo.', 'offset':2},</v>
       </c>
       <c r="O24" s="15" t="str">
         <f aca="false">IF(E24=E25,"","{'"&amp;E$1&amp;"': "&amp;E24&amp;", '"&amp;B$1&amp;"': '"&amp;B24&amp;"',  'editing': false, 'tipo': '"&amp;A24&amp;"', 'data': "&amp;"["&amp;N24&amp;"],  },")</f>
@@ -3747,7 +3843,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E25" s="7" t="n">
         <v>2</v>
@@ -3759,10 +3855,10 @@
         <v>8</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J25" s="11" t="n">
         <f aca="false">IF(E24=E25,1,F25)</f>
@@ -3772,15 +3868,15 @@
         <v>9</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M25" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K25&amp;", '"&amp;L$1&amp;"': '"&amp;L25&amp;"', '"&amp;F$1&amp;"': "&amp;F25&amp;", '"&amp;G$1&amp;"': "&amp;G25&amp;", '"&amp;H$1&amp;"': '"&amp;H25&amp;"', '"&amp;I$1&amp;"': '"&amp;I25&amp;"', '"&amp;J$1&amp;"':"&amp;J25&amp;"}, "</f>
-        <v>{ 'reg': 9, 'subtipo': 'competencias2', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS ESPECÍFICAS', 'offset':1}, </v>
+        <v>{ 'reg': 9, 'subtipo': 'competencias2', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS ESPECÍFICAS', 'offset':1},</v>
       </c>
       <c r="N25" s="7" t="str">
         <f aca="false">IF(E24=E25,CONCATENATE(N24,M25),M25)</f>
-        <v>{ 'reg': 9, 'subtipo': 'competencias2', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS ESPECÍFICAS', 'offset':1}, </v>
+        <v>{ 'reg': 9, 'subtipo': 'competencias2', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'COMPETENCIAS ESPECÍFICAS', 'offset':1},</v>
       </c>
       <c r="O25" s="15" t="str">
         <f aca="false">IF(E25=E26,"","{'"&amp;E$1&amp;"': "&amp;E25&amp;", '"&amp;B$1&amp;"': '"&amp;B25&amp;"',  'editing': false, 'tipo': '"&amp;A25&amp;"', 'data': "&amp;"["&amp;N25&amp;"],  },")</f>
@@ -3789,7 +3885,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E26" s="7" t="n">
         <v>1</v>
@@ -3801,10 +3897,10 @@
         <v>7</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J26" s="11" t="n">
         <f aca="false">IF(E25=E26,1,F26)</f>
@@ -3815,11 +3911,11 @@
       </c>
       <c r="M26" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K26&amp;", '"&amp;L$1&amp;"': '"&amp;L26&amp;"', '"&amp;F$1&amp;"': "&amp;F26&amp;", '"&amp;G$1&amp;"': "&amp;G26&amp;", '"&amp;H$1&amp;"': '"&amp;H26&amp;"', '"&amp;I$1&amp;"': '"&amp;I26&amp;"', '"&amp;J$1&amp;"':"&amp;J26&amp;"}, "</f>
-        <v>{ 'reg': 84, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce, Analiza y describe las diferentes empresas que se desarrollan en nuestro país y la importancia que tiene en ellas la contabilidad gerencia, desde la óptica de los estados financieros: Estado de Situación Financiera y Estado de Resultados.', 'offset':2}, </v>
+        <v>{ 'reg': 84, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce, Analiza y describe las diferentes empresas que se desarrollan en nuestro país y la importancia que tiene en ellas la contabilidad gerencia, desde la óptica de los estados financieros: Estado de Situación Financiera y Estado de Resultados.', 'offset':2},</v>
       </c>
       <c r="N26" s="7" t="str">
         <f aca="false">IF(E25=E26,CONCATENATE(N25,M26),M26)</f>
-        <v>{ 'reg': 84, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce, Analiza y describe las diferentes empresas que se desarrollan en nuestro país y la importancia que tiene en ellas la contabilidad gerencia, desde la óptica de los estados financieros: Estado de Situación Financiera y Estado de Resultados.', 'offset':2}, </v>
+        <v>{ 'reg': 84, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Conoce, Analiza y describe las diferentes empresas que se desarrollan en nuestro país y la importancia que tiene en ellas la contabilidad gerencia, desde la óptica de los estados financieros: Estado de Situación Financiera y Estado de Resultados.', 'offset':2},</v>
       </c>
       <c r="O26" s="15" t="str">
         <f aca="false">IF(E26=E27,"","{'"&amp;E$1&amp;"': "&amp;E26&amp;", '"&amp;B$1&amp;"': '"&amp;B26&amp;"',  'editing': false, 'tipo': '"&amp;A26&amp;"', 'data': "&amp;"["&amp;N26&amp;"],  },")</f>
@@ -3828,7 +3924,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E27" s="7" t="n">
         <f aca="false">+E26+1</f>
@@ -3841,10 +3937,10 @@
         <v>7</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J27" s="11" t="n">
         <f aca="false">IF(E26=E27,1,F27)</f>
@@ -3855,11 +3951,11 @@
       </c>
       <c r="M27" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K27&amp;", '"&amp;L$1&amp;"': '"&amp;L27&amp;"', '"&amp;F$1&amp;"': "&amp;F27&amp;", '"&amp;G$1&amp;"': "&amp;G27&amp;", '"&amp;H$1&amp;"': '"&amp;H27&amp;"', '"&amp;I$1&amp;"': '"&amp;I27&amp;"', '"&amp;J$1&amp;"':"&amp;J27&amp;"}, "</f>
-        <v>{ 'reg': 32, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Analiza y diagnostica los Estados financieros básicos de diferentes empresas, mediante el análisis vertical y horizontal así como los ratios financieros. ', 'offset':2}, </v>
+        <v>{ 'reg': 32, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Analiza y diagnostica los Estados financieros básicos de diferentes empresas, mediante el análisis vertical y horizontal así como los ratios financieros. ', 'offset':2},</v>
       </c>
       <c r="N27" s="7" t="str">
         <f aca="false">IF(E26=E27,CONCATENATE(N26,M27),M27)</f>
-        <v>{ 'reg': 32, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Analiza y diagnostica los Estados financieros básicos de diferentes empresas, mediante el análisis vertical y horizontal así como los ratios financieros. ', 'offset':2}, </v>
+        <v>{ 'reg': 32, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Analiza y diagnostica los Estados financieros básicos de diferentes empresas, mediante el análisis vertical y horizontal así como los ratios financieros. ', 'offset':2},</v>
       </c>
       <c r="O27" s="15" t="str">
         <f aca="false">IF(E27=E28,"","{'"&amp;E$1&amp;"': "&amp;E27&amp;", '"&amp;B$1&amp;"': '"&amp;B27&amp;"',  'editing': false, 'tipo': '"&amp;A27&amp;"', 'data': "&amp;"["&amp;N27&amp;"],  },")</f>
@@ -3868,7 +3964,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E28" s="7" t="n">
         <f aca="false">+E27+1</f>
@@ -3881,10 +3977,10 @@
         <v>7</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J28" s="11" t="n">
         <f aca="false">IF(E27=E28,1,F28)</f>
@@ -3895,11 +3991,11 @@
       </c>
       <c r="M28" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K28&amp;", '"&amp;L$1&amp;"': '"&amp;L28&amp;"', '"&amp;F$1&amp;"': "&amp;F28&amp;", '"&amp;G$1&amp;"': "&amp;G28&amp;", '"&amp;H$1&amp;"': '"&amp;H28&amp;"', '"&amp;I$1&amp;"': '"&amp;I28&amp;"', '"&amp;J$1&amp;"':"&amp;J28&amp;"}, "</f>
-        <v>{ 'reg': 111, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Desarrolla un plan financiero para una empresa: Presupuesto de ventas, Presupuesto de cobranzas, presupuesto de producción, presupuesto de compras, presupuesto de pagos, presupuesto de pagos, presupuesto de gastos, entre otros.', 'offset':2}, </v>
+        <v>{ 'reg': 111, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Desarrolla un plan financiero para una empresa: Presupuesto de ventas, Presupuesto de cobranzas, presupuesto de producción, presupuesto de compras, presupuesto de pagos, presupuesto de pagos, presupuesto de gastos, entre otros.', 'offset':2},</v>
       </c>
       <c r="N28" s="7" t="str">
         <f aca="false">IF(E27=E28,CONCATENATE(N27,M28),M28)</f>
-        <v>{ 'reg': 111, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Desarrolla un plan financiero para una empresa: Presupuesto de ventas, Presupuesto de cobranzas, presupuesto de producción, presupuesto de compras, presupuesto de pagos, presupuesto de pagos, presupuesto de gastos, entre otros.', 'offset':2}, </v>
+        <v>{ 'reg': 111, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Desarrolla un plan financiero para una empresa: Presupuesto de ventas, Presupuesto de cobranzas, presupuesto de producción, presupuesto de compras, presupuesto de pagos, presupuesto de pagos, presupuesto de gastos, entre otros.', 'offset':2},</v>
       </c>
       <c r="O28" s="15" t="str">
         <f aca="false">IF(E28=E29,"","{'"&amp;E$1&amp;"': "&amp;E28&amp;", '"&amp;B$1&amp;"': '"&amp;B28&amp;"',  'editing': false, 'tipo': '"&amp;A28&amp;"', 'data': "&amp;"["&amp;N28&amp;"],  },")</f>
@@ -3908,7 +4004,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E29" s="7" t="n">
         <f aca="false">+E28+1</f>
@@ -3921,10 +4017,10 @@
         <v>7</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J29" s="11" t="n">
         <f aca="false">IF(E28=E29,1,F29)</f>
@@ -3935,11 +4031,11 @@
       </c>
       <c r="M29" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K29&amp;", '"&amp;L$1&amp;"': '"&amp;L29&amp;"', '"&amp;F$1&amp;"': "&amp;F29&amp;", '"&amp;G$1&amp;"': "&amp;G29&amp;", '"&amp;H$1&amp;"': '"&amp;H29&amp;"', '"&amp;I$1&amp;"': '"&amp;I29&amp;"', '"&amp;J$1&amp;"':"&amp;J29&amp;"}, "</f>
-        <v>{ 'reg': 28, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Estudia la importancia de la estructura de costos de una empresa y su implicancia en la planificación financiera.', 'offset':2}, </v>
+        <v>{ 'reg': 28, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Estudia la importancia de la estructura de costos de una empresa y su implicancia en la planificación financiera.', 'offset':2},</v>
       </c>
       <c r="N29" s="7" t="str">
         <f aca="false">IF(E28=E29,CONCATENATE(N28,M29),M29)</f>
-        <v>{ 'reg': 28, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Estudia la importancia de la estructura de costos de una empresa y su implicancia en la planificación financiera.', 'offset':2}, </v>
+        <v>{ 'reg': 28, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Estudia la importancia de la estructura de costos de una empresa y su implicancia en la planificación financiera.', 'offset':2},</v>
       </c>
       <c r="O29" s="15" t="str">
         <f aca="false">IF(E29=E30,"","{'"&amp;E$1&amp;"': "&amp;E29&amp;", '"&amp;B$1&amp;"': '"&amp;B29&amp;"',  'editing': false, 'tipo': '"&amp;A29&amp;"', 'data': "&amp;"["&amp;N29&amp;"],  },")</f>
@@ -3948,7 +4044,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E30" s="7" t="n">
         <f aca="false">+E29+1</f>
@@ -3961,10 +4057,10 @@
         <v>7</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J30" s="11" t="n">
         <f aca="false">IF(E29=E30,1,F30)</f>
@@ -3975,11 +4071,11 @@
       </c>
       <c r="M30" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K30&amp;", '"&amp;L$1&amp;"': '"&amp;L30&amp;"', '"&amp;F$1&amp;"': "&amp;F30&amp;", '"&amp;G$1&amp;"': "&amp;G30&amp;", '"&amp;H$1&amp;"': '"&amp;H30&amp;"', '"&amp;I$1&amp;"': '"&amp;I30&amp;"', '"&amp;J$1&amp;"':"&amp;J30&amp;"}, "</f>
-        <v>{ 'reg': 27, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Elabora estados financieros proyectados, para diagnosticar el futuro de la empresa.', 'offset':2}, </v>
+        <v>{ 'reg': 27, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Elabora estados financieros proyectados, para diagnosticar el futuro de la empresa.', 'offset':2},</v>
       </c>
       <c r="N30" s="7" t="str">
         <f aca="false">IF(E29=E30,CONCATENATE(N29,M30),M30)</f>
-        <v>{ 'reg': 27, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Elabora estados financieros proyectados, para diagnosticar el futuro de la empresa.', 'offset':2}, </v>
+        <v>{ 'reg': 27, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'justify', 'texto': 'Elabora estados financieros proyectados, para diagnosticar el futuro de la empresa.', 'offset':2},</v>
       </c>
       <c r="O30" s="15" t="str">
         <f aca="false">IF(E30=E31,"","{'"&amp;E$1&amp;"': "&amp;E30&amp;", '"&amp;B$1&amp;"': '"&amp;B30&amp;"',  'editing': false, 'tipo': '"&amp;A30&amp;"', 'data': "&amp;"["&amp;N30&amp;"],  },")</f>
@@ -3988,7 +4084,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E31" s="7" t="n">
         <v>4</v>
@@ -4000,10 +4096,10 @@
         <v>8</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="J31" s="11" t="n">
         <f aca="false">IF(E30=E31,1,F31)</f>
@@ -4013,15 +4109,15 @@
         <v>126</v>
       </c>
       <c r="L31" s="11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M31" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K31&amp;", '"&amp;L$1&amp;"': '"&amp;L31&amp;"', '"&amp;F$1&amp;"': "&amp;F31&amp;", '"&amp;G$1&amp;"': "&amp;G31&amp;", '"&amp;H$1&amp;"': '"&amp;H31&amp;"', '"&amp;I$1&amp;"': '"&amp;I31&amp;"', '"&amp;J$1&amp;"':"&amp;J31&amp;"}, "</f>
-        <v>{ 'reg': 126, 'subtipo': 'contenidos', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'IV. PROGRAMACIÓN DE CONTENIDOS', 'offset':1}, </v>
+        <v>{ 'reg': 126, 'subtipo': 'contenidos', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'IV. PROGRAMACIÓN DE CONTENIDOS', 'offset':1},</v>
       </c>
       <c r="N31" s="7" t="str">
         <f aca="false">IF(E30=E31,CONCATENATE(N30,M31),M31)</f>
-        <v>{ 'reg': 126, 'subtipo': 'contenidos', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'IV. PROGRAMACIÓN DE CONTENIDOS', 'offset':1}, </v>
+        <v>{ 'reg': 126, 'subtipo': 'contenidos', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'IV. PROGRAMACIÓN DE CONTENIDOS', 'offset':1},</v>
       </c>
       <c r="O31" s="15" t="str">
         <f aca="false">IF(E31=E32,"","{'"&amp;E$1&amp;"': "&amp;E31&amp;", '"&amp;B$1&amp;"': '"&amp;B31&amp;"',  'editing': false, 'tipo': '"&amp;A31&amp;"', 'data': "&amp;"["&amp;N31&amp;"],  },")</f>
@@ -4030,7 +4126,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B32" s="7" t="n">
         <v>1</v>
@@ -4045,10 +4141,10 @@
         <v>8</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J32" s="11" t="n">
         <f aca="false">IF(E31=E32,1,F32)</f>
@@ -4059,11 +4155,11 @@
       </c>
       <c r="M32" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K32&amp;", '"&amp;L$1&amp;"': '"&amp;L32&amp;"', '"&amp;F$1&amp;"': "&amp;F32&amp;", '"&amp;G$1&amp;"': "&amp;G32&amp;", '"&amp;H$1&amp;"': '"&amp;H32&amp;"', '"&amp;I$1&amp;"': '"&amp;I32&amp;"', '"&amp;J$1&amp;"':"&amp;J32&amp;"}, "</f>
-        <v>{ 'reg': 22, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD I: LA CONTABILIDAD GERENCIAL.', 'offset':1}, </v>
+        <v>{ 'reg': 22, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD I: LA CONTABILIDAD GERENCIAL.', 'offset':1},</v>
       </c>
       <c r="N32" s="7" t="str">
         <f aca="false">IF(E31=E32,CONCATENATE(N31,M32),M32)</f>
-        <v>{ 'reg': 22, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD I: LA CONTABILIDAD GERENCIAL.', 'offset':1}, </v>
+        <v>{ 'reg': 22, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD I: LA CONTABILIDAD GERENCIAL.', 'offset':1},</v>
       </c>
       <c r="O32" s="15" t="str">
         <f aca="false">IF(E32=E33,"","{'"&amp;E$1&amp;"': "&amp;E32&amp;", '"&amp;B$1&amp;"': '"&amp;B32&amp;"',  'editing': false, 'tipo': '"&amp;A32&amp;"', 'data': "&amp;"["&amp;N32&amp;"],  },")</f>
@@ -4072,7 +4168,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B33" s="7" t="n">
         <v>1.3</v>
@@ -4088,10 +4184,10 @@
         <v>1</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J33" s="11" t="n">
         <f aca="false">IF(E32=E33,1,F33)</f>
@@ -4102,11 +4198,11 @@
       </c>
       <c r="M33" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K33&amp;", '"&amp;L$1&amp;"': '"&amp;L33&amp;"', '"&amp;F$1&amp;"': "&amp;F33&amp;", '"&amp;G$1&amp;"': "&amp;G33&amp;", '"&amp;H$1&amp;"': '"&amp;H33&amp;"', '"&amp;I$1&amp;"': '"&amp;I33&amp;"', '"&amp;J$1&amp;"':"&amp;J33&amp;"}, "</f>
-        <v>{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, </v>
+        <v>{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1},</v>
       </c>
       <c r="N33" s="7" t="str">
         <f aca="false">IF(E32=E33,CONCATENATE(N32,M33),M33)</f>
-        <v>{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, </v>
+        <v>{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1},</v>
       </c>
       <c r="O33" s="15" t="str">
         <f aca="false">IF(E33=E34,"","{'"&amp;E$1&amp;"': "&amp;E33&amp;", '"&amp;B$1&amp;"': '"&amp;B33&amp;"',  'editing': false, 'tipo': '"&amp;A33&amp;"', 'data': "&amp;"["&amp;N33&amp;"],  },")</f>
@@ -4115,7 +4211,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B34" s="7" t="n">
         <v>1.3</v>
@@ -4131,10 +4227,10 @@
         <v>3</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J34" s="11" t="n">
         <f aca="false">IF(E33=E34,1,F34)</f>
@@ -4145,11 +4241,11 @@
       </c>
       <c r="M34" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K34&amp;", '"&amp;L$1&amp;"': '"&amp;L34&amp;"', '"&amp;F$1&amp;"': "&amp;F34&amp;", '"&amp;G$1&amp;"': "&amp;G34&amp;", '"&amp;H$1&amp;"': '"&amp;H34&amp;"', '"&amp;I$1&amp;"': '"&amp;I34&amp;"', '"&amp;J$1&amp;"':"&amp;J34&amp;"}, "</f>
-        <v>{ 'reg': 48, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, </v>
+        <v>{ 'reg': 48, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1},</v>
       </c>
       <c r="N34" s="7" t="str">
         <f aca="false">IF(E33=E34,CONCATENATE(N33,M34),M34)</f>
-        <v>{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 48, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, </v>
+        <v>{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 48, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1},</v>
       </c>
       <c r="O34" s="15" t="str">
         <f aca="false">IF(E34=E35,"","{'"&amp;E$1&amp;"': "&amp;E34&amp;", '"&amp;B$1&amp;"': '"&amp;B34&amp;"',  'editing': false, 'tipo': '"&amp;A34&amp;"', 'data': "&amp;"["&amp;N34&amp;"],  },")</f>
@@ -4158,7 +4254,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B35" s="7" t="n">
         <v>1.3</v>
@@ -4174,10 +4270,10 @@
         <v>2</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J35" s="11" t="n">
         <f aca="false">IF(E34=E35,1,F35)</f>
@@ -4188,11 +4284,11 @@
       </c>
       <c r="M35" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K35&amp;", '"&amp;L$1&amp;"': '"&amp;L35&amp;"', '"&amp;F$1&amp;"': "&amp;F35&amp;", '"&amp;G$1&amp;"': "&amp;G35&amp;", '"&amp;H$1&amp;"': '"&amp;H35&amp;"', '"&amp;I$1&amp;"': '"&amp;I35&amp;"', '"&amp;J$1&amp;"':"&amp;J35&amp;"}, "</f>
-        <v>{ 'reg': 14, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, </v>
+        <v>{ 'reg': 14, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1},</v>
       </c>
       <c r="N35" s="7" t="str">
         <f aca="false">IF(E34=E35,CONCATENATE(N34,M35),M35)</f>
-        <v>{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 48, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'reg': 14, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, </v>
+        <v>{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 48, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'reg': 14, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1},</v>
       </c>
       <c r="O35" s="15" t="str">
         <f aca="false">IF(E35=E36,"","{'"&amp;E$1&amp;"': "&amp;E35&amp;", '"&amp;B$1&amp;"': '"&amp;B35&amp;"',  'editing': false, 'tipo': '"&amp;A35&amp;"', 'data': "&amp;"["&amp;N35&amp;"],  },")</f>
@@ -4201,7 +4297,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B36" s="7" t="n">
         <v>1.3</v>
@@ -4217,10 +4313,10 @@
         <v>2</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J36" s="11" t="n">
         <f aca="false">IF(E35=E36,1,F36)</f>
@@ -4231,11 +4327,11 @@
       </c>
       <c r="M36" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K36&amp;", '"&amp;L$1&amp;"': '"&amp;L36&amp;"', '"&amp;F$1&amp;"': "&amp;F36&amp;", '"&amp;G$1&amp;"': "&amp;G36&amp;", '"&amp;H$1&amp;"': '"&amp;H36&amp;"', '"&amp;I$1&amp;"': '"&amp;I36&amp;"', '"&amp;J$1&amp;"':"&amp;J36&amp;"}, "</f>
-        <v>{ 'reg': 25, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1}, </v>
+        <v>{ 'reg': 25, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1},</v>
       </c>
       <c r="N36" s="7" t="str">
         <f aca="false">IF(E35=E36,CONCATENATE(N35,M36),M36)</f>
-        <v>{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 48, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'reg': 14, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, { 'reg': 25, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1}, </v>
+        <v>{ 'reg': 35, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 48, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'reg': 14, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, { 'reg': 25, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1},</v>
       </c>
       <c r="O36" s="15" t="str">
         <f aca="false">IF(E36=E37,"","{'"&amp;E$1&amp;"': "&amp;E36&amp;", '"&amp;B$1&amp;"': '"&amp;B36&amp;"',  'editing': false, 'tipo': '"&amp;A36&amp;"', 'data': "&amp;"["&amp;N36&amp;"],  },")</f>
@@ -4244,7 +4340,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B37" s="7" t="n">
         <v>1.5</v>
@@ -4259,7 +4355,7 @@
         <v>1</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I37" s="11" t="n">
         <v>1</v>
@@ -4273,11 +4369,11 @@
       </c>
       <c r="M37" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K37&amp;", '"&amp;L$1&amp;"': '"&amp;L37&amp;"', '"&amp;F$1&amp;"': "&amp;F37&amp;", '"&amp;G$1&amp;"': "&amp;G37&amp;", '"&amp;H$1&amp;"': '"&amp;H37&amp;"', '"&amp;I$1&amp;"': '"&amp;I37&amp;"', '"&amp;J$1&amp;"':"&amp;J37&amp;"}, "</f>
-        <v>{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, </v>
+        <v>{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1},</v>
       </c>
       <c r="N37" s="7" t="str">
         <f aca="false">IF(E36=E37,CONCATENATE(N36,M37),M37)</f>
-        <v>{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, </v>
+        <v>{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1},</v>
       </c>
       <c r="O37" s="15" t="str">
         <f aca="false">IF(E37=E38,"","{'"&amp;E$1&amp;"': "&amp;E37&amp;", '"&amp;B$1&amp;"': '"&amp;B37&amp;"',  'editing': false, 'tipo': '"&amp;A37&amp;"', 'data': "&amp;"["&amp;N37&amp;"],  },")</f>
@@ -4286,7 +4382,7 @@
     </row>
     <row r="38" customFormat="false" ht="195" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B38" s="7" t="n">
         <f aca="false">+B37</f>
@@ -4303,10 +4399,10 @@
         <v>3</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I38" s="16" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="J38" s="11" t="n">
         <f aca="false">IF(E37=E38,1,F38)</f>
@@ -4317,11 +4413,11 @@
       </c>
       <c r="M38" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K38&amp;", '"&amp;L$1&amp;"': '"&amp;L38&amp;"', '"&amp;F$1&amp;"': "&amp;F38&amp;", '"&amp;G$1&amp;"': "&amp;G38&amp;", '"&amp;H$1&amp;"': '"&amp;H38&amp;"', '"&amp;I$1&amp;"': '"&amp;I38&amp;"', '"&amp;J$1&amp;"':"&amp;J38&amp;"}, "</f>
-        <v>{ 'reg': 127, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1}, </v>
+        <v>{ 'reg': 127, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1},</v>
       </c>
       <c r="N38" s="7" t="str">
         <f aca="false">IF(E37=E38,CONCATENATE(N37,M38),M38)</f>
-        <v>{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, { 'reg': 127, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1}, </v>
+        <v>{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, { 'reg': 127, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1},</v>
       </c>
       <c r="O38" s="15" t="str">
         <f aca="false">IF(E38=E39,"","{'"&amp;E$1&amp;"': "&amp;E38&amp;", '"&amp;B$1&amp;"': '"&amp;B38&amp;"',  'editing': false, 'tipo': '"&amp;A38&amp;"', 'data': "&amp;"["&amp;N38&amp;"],  },")</f>
@@ -4330,7 +4426,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B39" s="7" t="n">
         <f aca="false">+B38</f>
@@ -4347,10 +4443,10 @@
         <v>2</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J39" s="11" t="n">
         <f aca="false">IF(E38=E39,1,F39)</f>
@@ -4361,11 +4457,11 @@
       </c>
       <c r="M39" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K39&amp;", '"&amp;L$1&amp;"': '"&amp;L39&amp;"', '"&amp;F$1&amp;"': "&amp;F39&amp;", '"&amp;G$1&amp;"': "&amp;G39&amp;", '"&amp;H$1&amp;"': '"&amp;H39&amp;"', '"&amp;I$1&amp;"': '"&amp;I39&amp;"', '"&amp;J$1&amp;"':"&amp;J39&amp;"}, "</f>
-        <v>{ 'reg': 91, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Reconoce el recorrido de las operaciones empresariales en el ciclo contable de una empresa. Evalúa la utilidad de la información financiera y gerencial.', 'offset':1}, </v>
+        <v>{ 'reg': 91, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Reconoce el recorrido de las operaciones empresariales en el ciclo contable de una empresa. Evalúa la utilidad de la información financiera y gerencial.', 'offset':1},</v>
       </c>
       <c r="N39" s="7" t="str">
         <f aca="false">IF(E38=E39,CONCATENATE(N38,M39),M39)</f>
-        <v>{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, { 'reg': 127, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1}, { 'reg': 91, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Reconoce el recorrido de las operaciones empresariales en el ciclo contable de una empresa. Evalúa la utilidad de la información financiera y gerencial.', 'offset':1}, </v>
+        <v>{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, { 'reg': 127, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1}, { 'reg': 91, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Reconoce el recorrido de las operaciones empresariales en el ciclo contable de una empresa. Evalúa la utilidad de la información financiera y gerencial.', 'offset':1},</v>
       </c>
       <c r="O39" s="15" t="str">
         <f aca="false">IF(E39=E40,"","{'"&amp;E$1&amp;"': "&amp;E39&amp;", '"&amp;B$1&amp;"': '"&amp;B39&amp;"',  'editing': false, 'tipo': '"&amp;A39&amp;"', 'data': "&amp;"["&amp;N39&amp;"],  },")</f>
@@ -4374,7 +4470,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B40" s="7" t="n">
         <f aca="false">+B39</f>
@@ -4391,10 +4487,10 @@
         <v>2</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I40" s="16" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="J40" s="11" t="n">
         <f aca="false">IF(E39=E40,1,F40)</f>
@@ -4405,11 +4501,11 @@
       </c>
       <c r="M40" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K40&amp;", '"&amp;L$1&amp;"': '"&amp;L40&amp;"', '"&amp;F$1&amp;"': "&amp;F40&amp;", '"&amp;G$1&amp;"': "&amp;G40&amp;", '"&amp;H$1&amp;"': '"&amp;H40&amp;"', '"&amp;I$1&amp;"': '"&amp;I40&amp;"', '"&amp;J$1&amp;"':"&amp;J40&amp;"}, "</f>
-        <v>{ 'reg': 115, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada\nTaller', 'offset':1}, </v>
+        <v>{ 'reg': 115, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada\nTaller', 'offset':1},</v>
       </c>
       <c r="N40" s="7" t="str">
         <f aca="false">IF(E39=E40,CONCATENATE(N39,M40),M40)</f>
-        <v>{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, { 'reg': 127, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1}, { 'reg': 91, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Reconoce el recorrido de las operaciones empresariales en el ciclo contable de una empresa. Evalúa la utilidad de la información financiera y gerencial.', 'offset':1}, { 'reg': 115, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada\nTaller', 'offset':1}, </v>
+        <v>{ 'reg': 99, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '1', 'offset':1}, { 'reg': 127, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La contabilidad gerencial.\n‐ Qué es la contabilidad. El ciclo contable. Los Estados Financieros.\n‐Qué es la contabilidad gerencial. Objetivos e importancia de la contabilidad gerencial.\n‐Diferencias entre la contabilidad gerencial y la contabilidad financiera. Usuarios de la información. Tipo de información. Normas de regulación.', 'offset':1}, { 'reg': 91, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Reconoce el recorrido de las operaciones empresariales en el ciclo contable de una empresa. Evalúa la utilidad de la información financiera y gerencial.', 'offset':1}, { 'reg': 115, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada\nTaller', 'offset':1},</v>
       </c>
       <c r="O40" s="15" t="str">
         <f aca="false">IF(E40=E41,"","{'"&amp;E$1&amp;"': "&amp;E40&amp;", '"&amp;B$1&amp;"': '"&amp;B40&amp;"',  'editing': false, 'tipo': '"&amp;A40&amp;"', 'data': "&amp;"["&amp;N40&amp;"],  },")</f>
@@ -4418,7 +4514,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B41" s="7" t="n">
         <v>2.5</v>
@@ -4434,7 +4530,7 @@
         <v>1</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I41" s="14" t="n">
         <v>2</v>
@@ -4448,11 +4544,11 @@
       </c>
       <c r="M41" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K41&amp;", '"&amp;L$1&amp;"': '"&amp;L41&amp;"', '"&amp;F$1&amp;"': "&amp;F41&amp;", '"&amp;G$1&amp;"': "&amp;G41&amp;", '"&amp;H$1&amp;"': '"&amp;H41&amp;"', '"&amp;I$1&amp;"': '"&amp;I41&amp;"', '"&amp;J$1&amp;"':"&amp;J41&amp;"}, "</f>
-        <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, </v>
+        <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1},</v>
       </c>
       <c r="N41" s="7" t="str">
         <f aca="false">IF(E40=E41,CONCATENATE(N40,M41),M41)</f>
-        <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, </v>
+        <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1},</v>
       </c>
       <c r="O41" s="15" t="str">
         <f aca="false">IF(E41=E42,"","{'"&amp;E$1&amp;"': "&amp;E41&amp;", '"&amp;B$1&amp;"': '"&amp;B41&amp;"',  'editing': false, 'tipo': '"&amp;A41&amp;"', 'data': "&amp;"["&amp;N41&amp;"],  },")</f>
@@ -4461,7 +4557,7 @@
     </row>
     <row r="42" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B42" s="7" t="n">
         <f aca="false">+B41</f>
@@ -4478,10 +4574,10 @@
         <v>3</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I42" s="16" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J42" s="11" t="n">
         <f aca="false">IF(E41=E42,1,F42)</f>
@@ -4492,11 +4588,11 @@
       </c>
       <c r="M42" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K42&amp;", '"&amp;L$1&amp;"': '"&amp;L42&amp;"', '"&amp;F$1&amp;"': "&amp;F42&amp;", '"&amp;G$1&amp;"': "&amp;G42&amp;", '"&amp;H$1&amp;"': '"&amp;H42&amp;"', '"&amp;I$1&amp;"': '"&amp;I42&amp;"', '"&amp;J$1&amp;"':"&amp;J42&amp;"}, "</f>
-        <v>{ 'reg': 17, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1}, </v>
+        <v>{ 'reg': 17, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1},</v>
       </c>
       <c r="N42" s="7" t="str">
         <f aca="false">IF(E41=E42,CONCATENATE(N41,M42),M42)</f>
-        <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, { 'reg': 17, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1}, </v>
+        <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, { 'reg': 17, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1},</v>
       </c>
       <c r="O42" s="15" t="str">
         <f aca="false">IF(E42=E43,"","{'"&amp;E$1&amp;"': "&amp;E42&amp;", '"&amp;B$1&amp;"': '"&amp;B42&amp;"',  'editing': false, 'tipo': '"&amp;A42&amp;"', 'data': "&amp;"["&amp;N42&amp;"],  },")</f>
@@ -4523,10 +4619,10 @@
         <v>2</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J43" s="11" t="n">
         <f aca="false">IF(E42=E43,1,F43)</f>
@@ -4537,11 +4633,11 @@
       </c>
       <c r="M43" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K43&amp;", '"&amp;L$1&amp;"': '"&amp;L43&amp;"', '"&amp;F$1&amp;"': "&amp;F43&amp;", '"&amp;G$1&amp;"': "&amp;G43&amp;", '"&amp;H$1&amp;"': '"&amp;H43&amp;"', '"&amp;I$1&amp;"': '"&amp;I43&amp;"', '"&amp;J$1&amp;"':"&amp;J43&amp;"}, "</f>
-        <v>{ 'reg': 102, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Determinación, distribución y aplicación de los costos en una empresa mercantil.', 'offset':1}, </v>
+        <v>{ 'reg': 102, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Determinación, distribución y aplicación de los costos en una empresa mercantil.', 'offset':1},</v>
       </c>
       <c r="N43" s="7" t="str">
         <f aca="false">IF(E42=E43,CONCATENATE(N42,M43),M43)</f>
-        <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, { 'reg': 17, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1}, { 'reg': 102, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Determinación, distribución y aplicación de los costos en una empresa mercantil.', 'offset':1}, </v>
+        <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, { 'reg': 17, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1}, { 'reg': 102, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Determinación, distribución y aplicación de los costos en una empresa mercantil.', 'offset':1},</v>
       </c>
       <c r="O43" s="15" t="str">
         <f aca="false">IF(E43=E44,"","{'"&amp;E$1&amp;"': "&amp;E43&amp;", '"&amp;B$1&amp;"': '"&amp;B43&amp;"',  'editing': false, 'tipo': '"&amp;A43&amp;"', 'data': "&amp;"["&amp;N43&amp;"],  },")</f>
@@ -4568,10 +4664,10 @@
         <v>2</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="J44" s="11" t="n">
         <f aca="false">IF(E43=E44,1,F44)</f>
@@ -4582,11 +4678,11 @@
       </c>
       <c r="M44" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K44&amp;", '"&amp;L$1&amp;"': '"&amp;L44&amp;"', '"&amp;F$1&amp;"': "&amp;F44&amp;", '"&amp;G$1&amp;"': "&amp;G44&amp;", '"&amp;H$1&amp;"': '"&amp;H44&amp;"', '"&amp;I$1&amp;"': '"&amp;I44&amp;"', '"&amp;J$1&amp;"':"&amp;J44&amp;"}, "</f>
-        <v>{ 'reg': 126, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Dinámica grupal/debate en clase', 'offset':1}, </v>
+        <v>{ 'reg': 126, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Dinámica grupal/debate en clase', 'offset':1},</v>
       </c>
       <c r="N44" s="7" t="str">
         <f aca="false">IF(E43=E44,CONCATENATE(N43,M44),M44)</f>
-        <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, { 'reg': 17, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1}, { 'reg': 102, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Determinación, distribución y aplicación de los costos en una empresa mercantil.', 'offset':1}, { 'reg': 126, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Dinámica grupal/debate en clase', 'offset':1}, </v>
+        <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '2', 'offset':1}, { 'reg': 17, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'La Contabilidad de Costos Empresariales.\n‐ Concepto. Importancia y su aplicación. Relación entre la contabilidad Gerencial y la Contabilidad de Costos.', 'offset':1}, { 'reg': 102, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Determinación, distribución y aplicación de los costos en una empresa mercantil.', 'offset':1}, { 'reg': 126, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Dinámica grupal/debate en clase', 'offset':1},</v>
       </c>
       <c r="O44" s="15" t="str">
         <f aca="false">IF(E44=E45,"","{'"&amp;E$1&amp;"': "&amp;E44&amp;", '"&amp;B$1&amp;"': '"&amp;B44&amp;"',  'editing': false, 'tipo': '"&amp;A44&amp;"', 'data': "&amp;"["&amp;N44&amp;"],  },")</f>
@@ -4595,7 +4691,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B45" s="7" t="n">
         <v>3.5</v>
@@ -4611,7 +4707,7 @@
         <v>1</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I45" s="11" t="n">
         <v>3</v>
@@ -4625,11 +4721,11 @@
       </c>
       <c r="M45" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K45&amp;", '"&amp;L$1&amp;"': '"&amp;L45&amp;"', '"&amp;F$1&amp;"': "&amp;F45&amp;", '"&amp;G$1&amp;"': "&amp;G45&amp;", '"&amp;H$1&amp;"': '"&amp;H45&amp;"', '"&amp;I$1&amp;"': '"&amp;I45&amp;"', '"&amp;J$1&amp;"':"&amp;J45&amp;"}, "</f>
-        <v>{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, </v>
+        <v>{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1},</v>
       </c>
       <c r="N45" s="7" t="str">
         <f aca="false">IF(E44=E45,CONCATENATE(N44,M45),M45)</f>
-        <v>{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, </v>
+        <v>{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1},</v>
       </c>
       <c r="O45" s="15" t="str">
         <f aca="false">IF(E45=E46,"","{'"&amp;E$1&amp;"': "&amp;E45&amp;", '"&amp;B$1&amp;"': '"&amp;B45&amp;"',  'editing': false, 'tipo': '"&amp;A45&amp;"', 'data': "&amp;"["&amp;N45&amp;"],  },")</f>
@@ -4638,7 +4734,7 @@
     </row>
     <row r="46" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B46" s="7" t="n">
         <f aca="false">+B45</f>
@@ -4655,10 +4751,10 @@
         <v>3</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I46" s="16" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="J46" s="11" t="n">
         <f aca="false">IF(E45=E46,1,F46)</f>
@@ -4669,11 +4765,11 @@
       </c>
       <c r="M46" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K46&amp;", '"&amp;L$1&amp;"': '"&amp;L46&amp;"', '"&amp;F$1&amp;"': "&amp;F46&amp;", '"&amp;G$1&amp;"': "&amp;G46&amp;", '"&amp;H$1&amp;"': '"&amp;H46&amp;"', '"&amp;I$1&amp;"': '"&amp;I46&amp;"', '"&amp;J$1&amp;"':"&amp;J46&amp;"}, "</f>
-        <v>{ 'reg': 124, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1}, </v>
+        <v>{ 'reg': 124, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1},</v>
       </c>
       <c r="N46" s="7" t="str">
         <f aca="false">IF(E45=E46,CONCATENATE(N45,M46),M46)</f>
-        <v>{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, { 'reg': 124, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1}, </v>
+        <v>{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, { 'reg': 124, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1},</v>
       </c>
       <c r="O46" s="15" t="str">
         <f aca="false">IF(E46=E47,"","{'"&amp;E$1&amp;"': "&amp;E46&amp;", '"&amp;B$1&amp;"': '"&amp;B46&amp;"',  'editing': false, 'tipo': '"&amp;A46&amp;"', 'data': "&amp;"["&amp;N46&amp;"],  },")</f>
@@ -4682,7 +4778,7 @@
     </row>
     <row r="47" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B47" s="7" t="n">
         <f aca="false">+B46</f>
@@ -4699,10 +4795,10 @@
         <v>2</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I47" s="16" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J47" s="11" t="n">
         <f aca="false">IF(E46=E47,1,F47)</f>
@@ -4713,11 +4809,11 @@
       </c>
       <c r="M47" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K47&amp;", '"&amp;L$1&amp;"': '"&amp;L47&amp;"', '"&amp;F$1&amp;"': "&amp;F47&amp;", '"&amp;G$1&amp;"': "&amp;G47&amp;", '"&amp;H$1&amp;"': '"&amp;H47&amp;"', '"&amp;I$1&amp;"': '"&amp;I47&amp;"', '"&amp;J$1&amp;"':"&amp;J47&amp;"}, "</f>
-        <v>{ 'reg': 26, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Analizar y aplicar el marco legal normativo para la elaboración de los Estados Financieros.', 'offset':1}, </v>
+        <v>{ 'reg': 26, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Analizar y aplicar el marco legal normativo para la elaboración de los Estados Financieros.', 'offset':1},</v>
       </c>
       <c r="N47" s="7" t="str">
         <f aca="false">IF(E46=E47,CONCATENATE(N46,M47),M47)</f>
-        <v>{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, { 'reg': 124, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1}, { 'reg': 26, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Analizar y aplicar el marco legal normativo para la elaboración de los Estados Financieros.', 'offset':1}, </v>
+        <v>{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, { 'reg': 124, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1}, { 'reg': 26, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Analizar y aplicar el marco legal normativo para la elaboración de los Estados Financieros.', 'offset':1},</v>
       </c>
       <c r="O47" s="15" t="str">
         <f aca="false">IF(E47=E48,"","{'"&amp;E$1&amp;"': "&amp;E47&amp;", '"&amp;B$1&amp;"': '"&amp;B47&amp;"',  'editing': false, 'tipo': '"&amp;A47&amp;"', 'data': "&amp;"["&amp;N47&amp;"],  },")</f>
@@ -4726,7 +4822,7 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B48" s="7" t="n">
         <f aca="false">+B47</f>
@@ -4743,10 +4839,10 @@
         <v>2</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I48" s="16" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J48" s="11" t="n">
         <f aca="false">IF(E47=E48,1,F48)</f>
@@ -4757,11 +4853,11 @@
       </c>
       <c r="M48" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K48&amp;", '"&amp;L$1&amp;"': '"&amp;L48&amp;"', '"&amp;F$1&amp;"': "&amp;F48&amp;", '"&amp;G$1&amp;"': "&amp;G48&amp;", '"&amp;H$1&amp;"': '"&amp;H48&amp;"', '"&amp;I$1&amp;"': '"&amp;I48&amp;"', '"&amp;J$1&amp;"':"&amp;J48&amp;"}, "</f>
-        <v>{ 'reg': 40, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada', 'offset':1}, </v>
+        <v>{ 'reg': 40, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada', 'offset':1},</v>
       </c>
       <c r="N48" s="7" t="str">
         <f aca="false">IF(E47=E48,CONCATENATE(N47,M48),M48)</f>
-        <v>{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, { 'reg': 124, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1}, { 'reg': 26, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Analizar y aplicar el marco legal normativo para la elaboración de los Estados Financieros.', 'offset':1}, { 'reg': 40, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada', 'offset':1}, </v>
+        <v>{ 'reg': 39, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '3', 'offset':1}, { 'reg': 124, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Elementos de los Estados Financieros:\n‐ Balance General: Activo, pasivo y patrimonio.\n‐ Estado de Resultados: Ingresos y Gastos', 'offset':1}, { 'reg': 26, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Analizar y aplicar el marco legal normativo para la elaboración de los Estados Financieros.', 'offset':1}, { 'reg': 40, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Exposición dialogada', 'offset':1},</v>
       </c>
       <c r="O48" s="15" t="str">
         <f aca="false">IF(E48=E49,"","{'"&amp;E$1&amp;"': "&amp;E48&amp;", '"&amp;B$1&amp;"': '"&amp;B48&amp;"',  'editing': false, 'tipo': '"&amp;A48&amp;"', 'data': "&amp;"["&amp;N48&amp;"],  },")</f>
@@ -4770,7 +4866,7 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B49" s="7" t="n">
         <v>4.5</v>
@@ -4786,7 +4882,7 @@
         <v>1</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I49" s="11" t="n">
         <v>4</v>
@@ -4800,11 +4896,11 @@
       </c>
       <c r="M49" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K49&amp;", '"&amp;L$1&amp;"': '"&amp;L49&amp;"', '"&amp;F$1&amp;"': "&amp;F49&amp;", '"&amp;G$1&amp;"': "&amp;G49&amp;", '"&amp;H$1&amp;"': '"&amp;H49&amp;"', '"&amp;I$1&amp;"': '"&amp;I49&amp;"', '"&amp;J$1&amp;"':"&amp;J49&amp;"}, "</f>
-        <v>{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, </v>
+        <v>{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1},</v>
       </c>
       <c r="N49" s="7" t="str">
         <f aca="false">IF(E48=E49,CONCATENATE(N48,M49),M49)</f>
-        <v>{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, </v>
+        <v>{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1},</v>
       </c>
       <c r="O49" s="15" t="str">
         <f aca="false">IF(E49=E50,"","{'"&amp;E$1&amp;"': "&amp;E49&amp;", '"&amp;B$1&amp;"': '"&amp;B49&amp;"',  'editing': false, 'tipo': '"&amp;A49&amp;"', 'data': "&amp;"["&amp;N49&amp;"],  },")</f>
@@ -4813,7 +4909,7 @@
     </row>
     <row r="50" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B50" s="7" t="n">
         <f aca="false">+B49</f>
@@ -4830,10 +4926,10 @@
         <v>3</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I50" s="16" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="J50" s="11" t="n">
         <f aca="false">IF(E49=E50,1,F50)</f>
@@ -4844,11 +4940,11 @@
       </c>
       <c r="M50" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K50&amp;", '"&amp;L$1&amp;"': '"&amp;L50&amp;"', '"&amp;F$1&amp;"': "&amp;F50&amp;", '"&amp;G$1&amp;"': "&amp;G50&amp;", '"&amp;H$1&amp;"': '"&amp;H50&amp;"', '"&amp;I$1&amp;"': '"&amp;I50&amp;"', '"&amp;J$1&amp;"':"&amp;J50&amp;"}, "</f>
-        <v>{ 'reg': 62, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1}, </v>
+        <v>{ 'reg': 62, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1},</v>
       </c>
       <c r="N50" s="7" t="str">
         <f aca="false">IF(E49=E50,CONCATENATE(N49,M50),M50)</f>
-        <v>{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, { 'reg': 62, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1}, </v>
+        <v>{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, { 'reg': 62, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1},</v>
       </c>
       <c r="O50" s="15" t="str">
         <f aca="false">IF(E50=E51,"","{'"&amp;E$1&amp;"': "&amp;E50&amp;", '"&amp;B$1&amp;"': '"&amp;B50&amp;"',  'editing': false, 'tipo': '"&amp;A50&amp;"', 'data': "&amp;"["&amp;N50&amp;"],  },")</f>
@@ -4857,7 +4953,7 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B51" s="7" t="n">
         <f aca="false">+B50</f>
@@ -4874,10 +4970,10 @@
         <v>2</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J51" s="11" t="n">
         <f aca="false">IF(E50=E51,1,F51)</f>
@@ -4888,11 +4984,11 @@
       </c>
       <c r="M51" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K51&amp;", '"&amp;L$1&amp;"': '"&amp;L51&amp;"', '"&amp;F$1&amp;"': "&amp;F51&amp;", '"&amp;G$1&amp;"': "&amp;G51&amp;", '"&amp;H$1&amp;"': '"&amp;H51&amp;"', '"&amp;I$1&amp;"': '"&amp;I51&amp;"', '"&amp;J$1&amp;"':"&amp;J51&amp;"}, "</f>
-        <v>{ 'reg': 10, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Evalúa los resultados obtenidos. Demuestra la aplicación del análisis vertical y horizontal.', 'offset':1}, </v>
+        <v>{ 'reg': 10, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Evalúa los resultados obtenidos. Demuestra la aplicación del análisis vertical y horizontal.', 'offset':1},</v>
       </c>
       <c r="N51" s="7" t="str">
         <f aca="false">IF(E50=E51,CONCATENATE(N50,M51),M51)</f>
-        <v>{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, { 'reg': 62, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1}, { 'reg': 10, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Evalúa los resultados obtenidos. Demuestra la aplicación del análisis vertical y horizontal.', 'offset':1}, </v>
+        <v>{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, { 'reg': 62, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1}, { 'reg': 10, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Evalúa los resultados obtenidos. Demuestra la aplicación del análisis vertical y horizontal.', 'offset':1},</v>
       </c>
       <c r="O51" s="15" t="str">
         <f aca="false">IF(E51=E52,"","{'"&amp;E$1&amp;"': "&amp;E51&amp;", '"&amp;B$1&amp;"': '"&amp;B51&amp;"',  'editing': false, 'tipo': '"&amp;A51&amp;"', 'data': "&amp;"["&amp;N51&amp;"],  },")</f>
@@ -4901,7 +4997,7 @@
     </row>
     <row r="52" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B52" s="7" t="n">
         <f aca="false">+B51</f>
@@ -4918,10 +5014,10 @@
         <v>2</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I52" s="16" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J52" s="11" t="n">
         <f aca="false">IF(E51=E52,1,F52)</f>
@@ -4932,11 +5028,11 @@
       </c>
       <c r="M52" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K52&amp;", '"&amp;L$1&amp;"': '"&amp;L52&amp;"', '"&amp;F$1&amp;"': "&amp;F52&amp;", '"&amp;G$1&amp;"': "&amp;G52&amp;", '"&amp;H$1&amp;"': '"&amp;H52&amp;"', '"&amp;I$1&amp;"': '"&amp;I52&amp;"', '"&amp;J$1&amp;"':"&amp;J52&amp;"}, "</f>
-        <v>{ 'reg': 82, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Clase Expositiva\n Taller\n  Discusión de caso', 'offset':1}, </v>
+        <v>{ 'reg': 82, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Clase Expositiva\n Taller\n  Discusión de caso', 'offset':1},</v>
       </c>
       <c r="N52" s="7" t="str">
         <f aca="false">IF(E51=E52,CONCATENATE(N51,M52),M52)</f>
-        <v>{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, { 'reg': 62, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1}, { 'reg': 10, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Evalúa los resultados obtenidos. Demuestra la aplicación del análisis vertical y horizontal.', 'offset':1}, { 'reg': 82, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Clase Expositiva\n Taller\n  Discusión de caso', 'offset':1}, </v>
+        <v>{ 'reg': 43, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '4', 'offset':1}, { 'reg': 62, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'left', 'texto': 'Análisis de los Estados Financieros\n‐Análisis Horizontal.\n‐Análisis Vertical.\n‐Desarrollo de casos de aplicación.\n‐ Elaboración de un informe gerencial.', 'offset':1}, { 'reg': 10, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'left', 'texto': 'Evalúa los resultados obtenidos. Demuestra la aplicación del análisis vertical y horizontal.', 'offset':1}, { 'reg': 82, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'left', 'texto': 'Clase Expositiva\n Taller\n  Discusión de caso', 'offset':1},</v>
       </c>
       <c r="O52" s="15" t="str">
         <f aca="false">IF(E52=E53,"","{'"&amp;E$1&amp;"': "&amp;E52&amp;", '"&amp;B$1&amp;"': '"&amp;B52&amp;"',  'editing': false, 'tipo': '"&amp;A52&amp;"', 'data': "&amp;"["&amp;N52&amp;"],  },")</f>
@@ -4945,7 +5041,7 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="13" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B53" s="7" t="n">
         <v>4.9</v>
@@ -4961,10 +5057,10 @@
         <v>7</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J53" s="11" t="n">
         <f aca="false">IF(E52=E53,1,F53)</f>
@@ -4975,11 +5071,11 @@
       </c>
       <c r="M53" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K53&amp;", '"&amp;L$1&amp;"': '"&amp;L53&amp;"', '"&amp;F$1&amp;"': "&amp;F53&amp;", '"&amp;G$1&amp;"': "&amp;G53&amp;", '"&amp;H$1&amp;"': '"&amp;H53&amp;"', '"&amp;I$1&amp;"': '"&amp;I53&amp;"', '"&amp;J$1&amp;"':"&amp;J53&amp;"}, "</f>
-        <v>{ 'reg': 19, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'center', 'texto': 'EVALUACIÓN PARCIAL 1 ', 'offset':2}, </v>
+        <v>{ 'reg': 19, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'center', 'texto': 'EVALUACIÓN PARCIAL 1 ', 'offset':2},</v>
       </c>
       <c r="N53" s="7" t="str">
         <f aca="false">IF(E52=E53,CONCATENATE(N52,M53),M53)</f>
-        <v>{ 'reg': 19, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'center', 'texto': 'EVALUACIÓN PARCIAL 1 ', 'offset':2}, </v>
+        <v>{ 'reg': 19, 'subtipo': '', 'col': 2, 'cols': 7, 'align': 'center', 'texto': 'EVALUACIÓN PARCIAL 1 ', 'offset':2},</v>
       </c>
       <c r="O53" s="15" t="str">
         <f aca="false">IF(E53=E54,"","{'"&amp;E$1&amp;"': "&amp;E53&amp;", '"&amp;B$1&amp;"': '"&amp;B53&amp;"',  'editing': false, 'tipo': '"&amp;A53&amp;"', 'data': "&amp;"["&amp;N53&amp;"],  },")</f>
@@ -4988,7 +5084,7 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B54" s="7" t="n">
         <v>5.5</v>
@@ -5004,7 +5100,7 @@
         <v>1</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I54" s="11" t="n">
         <v>5</v>
@@ -5018,11 +5114,11 @@
       </c>
       <c r="M54" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K54&amp;", '"&amp;L$1&amp;"': '"&amp;L54&amp;"', '"&amp;F$1&amp;"': "&amp;F54&amp;", '"&amp;G$1&amp;"': "&amp;G54&amp;", '"&amp;H$1&amp;"': '"&amp;H54&amp;"', '"&amp;I$1&amp;"': '"&amp;I54&amp;"', '"&amp;J$1&amp;"':"&amp;J54&amp;"}, "</f>
-        <v>{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, </v>
+        <v>{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1},</v>
       </c>
       <c r="N54" s="7" t="str">
         <f aca="false">IF(E53=E54,CONCATENATE(N53,M54),M54)</f>
-        <v>{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, </v>
+        <v>{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1},</v>
       </c>
       <c r="O54" s="15" t="str">
         <f aca="false">IF(E54=E55,"","{'"&amp;E$1&amp;"': "&amp;E54&amp;", '"&amp;B$1&amp;"': '"&amp;B54&amp;"',  'editing': false, 'tipo': '"&amp;A54&amp;"', 'data': "&amp;"["&amp;N54&amp;"],  },")</f>
@@ -5031,7 +5127,7 @@
     </row>
     <row r="55" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B55" s="7" t="n">
         <f aca="false">+B54</f>
@@ -5048,7 +5144,7 @@
         <v>3</v>
       </c>
       <c r="I55" s="16" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="J55" s="11" t="n">
         <f aca="false">IF(E54=E55,1,F55)</f>
@@ -5059,11 +5155,11 @@
       </c>
       <c r="M55" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K55&amp;", '"&amp;L$1&amp;"': '"&amp;L55&amp;"', '"&amp;F$1&amp;"': "&amp;F55&amp;", '"&amp;G$1&amp;"': "&amp;G55&amp;", '"&amp;H$1&amp;"': '"&amp;H55&amp;"', '"&amp;I$1&amp;"': '"&amp;I55&amp;"', '"&amp;J$1&amp;"':"&amp;J55&amp;"}, "</f>
-        <v>{ 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1}, </v>
+        <v>{ 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1},</v>
       </c>
       <c r="N55" s="7" t="str">
         <f aca="false">IF(E54=E55,CONCATENATE(N54,M55),M55)</f>
-        <v>{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, { 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1}, </v>
+        <v>{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, { 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1},</v>
       </c>
       <c r="O55" s="15" t="str">
         <f aca="false">IF(E55=E56,"","{'"&amp;E$1&amp;"': "&amp;E55&amp;", '"&amp;B$1&amp;"': '"&amp;B55&amp;"',  'editing': false, 'tipo': '"&amp;A55&amp;"', 'data': "&amp;"["&amp;N55&amp;"],  },")</f>
@@ -5072,7 +5168,7 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B56" s="7" t="n">
         <f aca="false">+B55</f>
@@ -5089,7 +5185,7 @@
         <v>2</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J56" s="11" t="n">
         <f aca="false">IF(E55=E56,1,F56)</f>
@@ -5100,11 +5196,11 @@
       </c>
       <c r="M56" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K56&amp;", '"&amp;L$1&amp;"': '"&amp;L56&amp;"', '"&amp;F$1&amp;"': "&amp;F56&amp;", '"&amp;G$1&amp;"': "&amp;G56&amp;", '"&amp;H$1&amp;"': '"&amp;H56&amp;"', '"&amp;I$1&amp;"': '"&amp;I56&amp;"', '"&amp;J$1&amp;"':"&amp;J56&amp;"}, "</f>
-        <v>{ 'reg': 39, 'subtipo': '', 'col': 4, 'cols': 2, 'align': '', 'texto': 'Propicia un debate acerca de la toma de decisiones en una empresa.', 'offset':1}, </v>
+        <v>{ 'reg': 39, 'subtipo': '', 'col': 4, 'cols': 2, 'align': '', 'texto': 'Propicia un debate acerca de la toma de decisiones en una empresa.', 'offset':1},</v>
       </c>
       <c r="N56" s="7" t="str">
         <f aca="false">IF(E55=E56,CONCATENATE(N55,M56),M56)</f>
-        <v>{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, { 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1}, { 'reg': 39, 'subtipo': '', 'col': 4, 'cols': 2, 'align': '', 'texto': 'Propicia un debate acerca de la toma de decisiones en una empresa.', 'offset':1}, </v>
+        <v>{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, { 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1}, { 'reg': 39, 'subtipo': '', 'col': 4, 'cols': 2, 'align': '', 'texto': 'Propicia un debate acerca de la toma de decisiones en una empresa.', 'offset':1},</v>
       </c>
       <c r="O56" s="15" t="str">
         <f aca="false">IF(E56=E57,"","{'"&amp;E$1&amp;"': "&amp;E56&amp;", '"&amp;B$1&amp;"': '"&amp;B56&amp;"',  'editing': false, 'tipo': '"&amp;A56&amp;"', 'data': "&amp;"["&amp;N56&amp;"],  },")</f>
@@ -5113,7 +5209,7 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B57" s="7" t="n">
         <f aca="false">+B56</f>
@@ -5130,7 +5226,7 @@
         <v>2</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J57" s="11" t="n">
         <f aca="false">IF(E56=E57,1,F57)</f>
@@ -5141,11 +5237,11 @@
       </c>
       <c r="M57" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K57&amp;", '"&amp;L$1&amp;"': '"&amp;L57&amp;"', '"&amp;F$1&amp;"': "&amp;F57&amp;", '"&amp;G$1&amp;"': "&amp;G57&amp;", '"&amp;H$1&amp;"': '"&amp;H57&amp;"', '"&amp;I$1&amp;"': '"&amp;I57&amp;"', '"&amp;J$1&amp;"':"&amp;J57&amp;"}, "</f>
-        <v>{ 'reg': 69, 'subtipo': '', 'col': 6, 'cols': 2, 'align': '', 'texto': 'Exposición dialogada', 'offset':1}, </v>
+        <v>{ 'reg': 69, 'subtipo': '', 'col': 6, 'cols': 2, 'align': '', 'texto': 'Exposición dialogada', 'offset':1},</v>
       </c>
       <c r="N57" s="7" t="str">
         <f aca="false">IF(E56=E57,CONCATENATE(N56,M57),M57)</f>
-        <v>{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, { 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1}, { 'reg': 39, 'subtipo': '', 'col': 4, 'cols': 2, 'align': '', 'texto': 'Propicia un debate acerca de la toma de decisiones en una empresa.', 'offset':1}, { 'reg': 69, 'subtipo': '', 'col': 6, 'cols': 2, 'align': '', 'texto': 'Exposición dialogada', 'offset':1}, </v>
+        <v>{ 'reg': 82, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': '5', 'offset':1}, { 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': '', 'texto': 'Trabajos de aplicación\n ‐Análisis de todo el proceso aplicado hasta el informe gerencial.', 'offset':1}, { 'reg': 39, 'subtipo': '', 'col': 4, 'cols': 2, 'align': '', 'texto': 'Propicia un debate acerca de la toma de decisiones en una empresa.', 'offset':1}, { 'reg': 69, 'subtipo': '', 'col': 6, 'cols': 2, 'align': '', 'texto': 'Exposición dialogada', 'offset':1},</v>
       </c>
       <c r="O57" s="15" t="str">
         <f aca="false">IF(E57=E58,"","{'"&amp;E$1&amp;"': "&amp;E57&amp;", '"&amp;B$1&amp;"': '"&amp;B57&amp;"',  'editing': false, 'tipo': '"&amp;A57&amp;"', 'data': "&amp;"["&amp;N57&amp;"],  },")</f>
@@ -5154,7 +5250,7 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B58" s="7" t="n">
         <v>6</v>
@@ -5169,10 +5265,10 @@
         <v>8</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="J58" s="11" t="n">
         <f aca="false">IF(E57=E58,1,F58)</f>
@@ -5183,11 +5279,11 @@
       </c>
       <c r="M58" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K58&amp;", '"&amp;L$1&amp;"': '"&amp;L58&amp;"', '"&amp;F$1&amp;"': "&amp;F58&amp;", '"&amp;G$1&amp;"': "&amp;G58&amp;", '"&amp;H$1&amp;"': '"&amp;H58&amp;"', '"&amp;I$1&amp;"': '"&amp;I58&amp;"', '"&amp;J$1&amp;"':"&amp;J58&amp;"}, "</f>
-        <v>{ 'reg': 124, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD II: ANALISIS E INTERPRETACION DE LOS ESTADOS FINANCIEROS', 'offset':1}, </v>
+        <v>{ 'reg': 124, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD II: ANALISIS E INTERPRETACION DE LOS ESTADOS FINANCIEROS', 'offset':1},</v>
       </c>
       <c r="N58" s="7" t="str">
         <f aca="false">IF(E57=E58,CONCATENATE(N57,M58),M58)</f>
-        <v>{ 'reg': 124, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD II: ANALISIS E INTERPRETACION DE LOS ESTADOS FINANCIEROS', 'offset':1}, </v>
+        <v>{ 'reg': 124, 'subtipo': '', 'col': 1, 'cols': 8, 'align': 'center', 'texto': 'UNIDAD II: ANALISIS E INTERPRETACION DE LOS ESTADOS FINANCIEROS', 'offset':1},</v>
       </c>
       <c r="O58" s="15" t="str">
         <f aca="false">IF(E58=E59,"","{'"&amp;E$1&amp;"': "&amp;E58&amp;", '"&amp;B$1&amp;"': '"&amp;B58&amp;"',  'editing': false, 'tipo': '"&amp;A58&amp;"', 'data': "&amp;"["&amp;N58&amp;"],  },")</f>
@@ -5196,7 +5292,7 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B59" s="7" t="n">
         <v>6.2</v>
@@ -5212,10 +5308,10 @@
         <v>1</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J59" s="11" t="n">
         <f aca="false">IF(E58=E59,1,F59)</f>
@@ -5226,11 +5322,11 @@
       </c>
       <c r="M59" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K59&amp;", '"&amp;L$1&amp;"': '"&amp;L59&amp;"', '"&amp;F$1&amp;"': "&amp;F59&amp;", '"&amp;G$1&amp;"': "&amp;G59&amp;", '"&amp;H$1&amp;"': '"&amp;H59&amp;"', '"&amp;I$1&amp;"': '"&amp;I59&amp;"', '"&amp;J$1&amp;"':"&amp;J59&amp;"}, "</f>
-        <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, </v>
+        <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1},</v>
       </c>
       <c r="N59" s="7" t="str">
         <f aca="false">IF(E58=E59,CONCATENATE(N58,M59),M59)</f>
-        <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, </v>
+        <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1},</v>
       </c>
       <c r="O59" s="15" t="str">
         <f aca="false">IF(E59=E60,"","{'"&amp;E$1&amp;"': "&amp;E59&amp;", '"&amp;B$1&amp;"': '"&amp;B59&amp;"',  'editing': false, 'tipo': '"&amp;A59&amp;"', 'data': "&amp;"["&amp;N59&amp;"],  },")</f>
@@ -5239,7 +5335,7 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B60" s="7" t="n">
         <f aca="false">+B59</f>
@@ -5256,10 +5352,10 @@
         <v>3</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J60" s="11" t="n">
         <f aca="false">IF(E59=E60,1,F60)</f>
@@ -5270,11 +5366,11 @@
       </c>
       <c r="M60" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K60&amp;", '"&amp;L$1&amp;"': '"&amp;L60&amp;"', '"&amp;F$1&amp;"': "&amp;F60&amp;", '"&amp;G$1&amp;"': "&amp;G60&amp;", '"&amp;H$1&amp;"': '"&amp;H60&amp;"', '"&amp;I$1&amp;"': '"&amp;I60&amp;"', '"&amp;J$1&amp;"':"&amp;J60&amp;"}, "</f>
-        <v>{ 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, </v>
+        <v>{ 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1},</v>
       </c>
       <c r="N60" s="7" t="str">
         <f aca="false">IF(E59=E60,CONCATENATE(N59,M60),M60)</f>
-        <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, </v>
+        <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1},</v>
       </c>
       <c r="O60" s="15" t="str">
         <f aca="false">IF(E60=E61,"","{'"&amp;E$1&amp;"': "&amp;E60&amp;", '"&amp;B$1&amp;"': '"&amp;B60&amp;"',  'editing': false, 'tipo': '"&amp;A60&amp;"', 'data': "&amp;"["&amp;N60&amp;"],  },")</f>
@@ -5283,7 +5379,7 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B61" s="7" t="n">
         <f aca="false">+B60</f>
@@ -5300,10 +5396,10 @@
         <v>2</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J61" s="11" t="n">
         <f aca="false">IF(E60=E61,1,F61)</f>
@@ -5314,11 +5410,11 @@
       </c>
       <c r="M61" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K61&amp;", '"&amp;L$1&amp;"': '"&amp;L61&amp;"', '"&amp;F$1&amp;"': "&amp;F61&amp;", '"&amp;G$1&amp;"': "&amp;G61&amp;", '"&amp;H$1&amp;"': '"&amp;H61&amp;"', '"&amp;I$1&amp;"': '"&amp;I61&amp;"', '"&amp;J$1&amp;"':"&amp;J61&amp;"}, "</f>
-        <v>{ 'reg': 73, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, </v>
+        <v>{ 'reg': 73, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1},</v>
       </c>
       <c r="N61" s="7" t="str">
         <f aca="false">IF(E60=E61,CONCATENATE(N60,M61),M61)</f>
-        <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'reg': 73, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, </v>
+        <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'reg': 73, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1},</v>
       </c>
       <c r="O61" s="15" t="str">
         <f aca="false">IF(E61=E62,"","{'"&amp;E$1&amp;"': "&amp;E61&amp;", '"&amp;B$1&amp;"': '"&amp;B61&amp;"',  'editing': false, 'tipo': '"&amp;A61&amp;"', 'data': "&amp;"["&amp;N61&amp;"],  },")</f>
@@ -5327,7 +5423,7 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B62" s="7" t="n">
         <f aca="false">+B61</f>
@@ -5344,10 +5440,10 @@
         <v>2</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I62" s="11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J62" s="11" t="n">
         <f aca="false">IF(E61=E62,1,F62)</f>
@@ -5358,11 +5454,11 @@
       </c>
       <c r="M62" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K62&amp;", '"&amp;L$1&amp;"': '"&amp;L62&amp;"', '"&amp;F$1&amp;"': "&amp;F62&amp;", '"&amp;G$1&amp;"': "&amp;G62&amp;", '"&amp;H$1&amp;"': '"&amp;H62&amp;"', '"&amp;I$1&amp;"': '"&amp;I62&amp;"', '"&amp;J$1&amp;"':"&amp;J62&amp;"}, "</f>
-        <v>{ 'reg': 27, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1}, </v>
+        <v>{ 'reg': 27, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1},</v>
       </c>
       <c r="N62" s="7" t="str">
         <f aca="false">IF(E61=E62,CONCATENATE(N61,M62),M62)</f>
-        <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'reg': 73, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, { 'reg': 27, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1}, </v>
+        <v>{ 'reg': 62, 'subtipo': '', 'col': 1, 'cols': 1, 'align': 'center', 'texto': 'SEMANA', 'offset':1}, { 'reg': 61, 'subtipo': '', 'col': 2, 'cols': 3, 'align': 'center', 'texto': 'CONCEPTUAL', 'offset':1}, { 'reg': 73, 'subtipo': '', 'col': 4, 'cols': 2, 'align': 'center', 'texto': 'PROCEDIMENTAL', 'offset':1}, { 'reg': 27, 'subtipo': '', 'col': 6, 'cols': 2, 'align': 'center', 'texto': 'ACTIVIDAD DE APRENDIZAJE', 'offset':1},</v>
       </c>
       <c r="O62" s="15" t="str">
         <f aca="false">IF(E62=E63,"","{'"&amp;E$1&amp;"': "&amp;E62&amp;", '"&amp;B$1&amp;"': '"&amp;B62&amp;"',  'editing': false, 'tipo': '"&amp;A62&amp;"', 'data': "&amp;"["&amp;N62&amp;"],  },")</f>
@@ -5371,7 +5467,7 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E63" s="7" t="n">
         <v>5</v>
@@ -5383,10 +5479,10 @@
         <v>8</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J63" s="11" t="n">
         <f aca="false">IF(E62=E63,1,F63)</f>
@@ -5396,15 +5492,15 @@
         <v>6</v>
       </c>
       <c r="L63" s="11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M63" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K63&amp;", '"&amp;L$1&amp;"': '"&amp;L63&amp;"', '"&amp;F$1&amp;"': "&amp;F63&amp;", '"&amp;G$1&amp;"': "&amp;G63&amp;", '"&amp;H$1&amp;"': '"&amp;H63&amp;"', '"&amp;I$1&amp;"': '"&amp;I63&amp;"', '"&amp;J$1&amp;"':"&amp;J63&amp;"}, "</f>
-        <v>{ 'reg': 6, 'subtipo': 'estrategias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'V. ESTRATEGIAS METODOLÓGICAS', 'offset':1}, </v>
+        <v>{ 'reg': 6, 'subtipo': 'estrategias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'V. ESTRATEGIAS METODOLÓGICAS', 'offset':1},</v>
       </c>
       <c r="N63" s="7" t="str">
         <f aca="false">IF(E62=E63,CONCATENATE(N62,M63),M63)</f>
-        <v>{ 'reg': 6, 'subtipo': 'estrategias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'V. ESTRATEGIAS METODOLÓGICAS', 'offset':1}, </v>
+        <v>{ 'reg': 6, 'subtipo': 'estrategias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'V. ESTRATEGIAS METODOLÓGICAS', 'offset':1},</v>
       </c>
       <c r="O63" s="15" t="str">
         <f aca="false">IF(E63=E64,"","{'"&amp;E$1&amp;"': "&amp;E63&amp;", '"&amp;B$1&amp;"': '"&amp;B63&amp;"',  'editing': false, 'tipo': '"&amp;A63&amp;"', 'data': "&amp;"["&amp;N63&amp;"],  },")</f>
@@ -5413,7 +5509,7 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E64" s="7" t="n">
         <v>6</v>
@@ -5425,10 +5521,10 @@
         <v>8</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J64" s="11" t="n">
         <f aca="false">IF(E63=E64,1,F64)</f>
@@ -5438,15 +5534,15 @@
         <v>75</v>
       </c>
       <c r="L64" s="11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M64" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K64&amp;", '"&amp;L$1&amp;"': '"&amp;L64&amp;"', '"&amp;F$1&amp;"': "&amp;F64&amp;", '"&amp;G$1&amp;"': "&amp;G64&amp;", '"&amp;H$1&amp;"': '"&amp;H64&amp;"', '"&amp;I$1&amp;"': '"&amp;I64&amp;"', '"&amp;J$1&amp;"':"&amp;J64&amp;"}, "</f>
-        <v>{ 'reg': 75, 'subtipo': 'evaluaciones', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VI. EVALUACIÓN', 'offset':1}, </v>
+        <v>{ 'reg': 75, 'subtipo': 'evaluaciones', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VI. EVALUACIÓN', 'offset':1},</v>
       </c>
       <c r="N64" s="7" t="str">
         <f aca="false">IF(E63=E64,CONCATENATE(N63,M64),M64)</f>
-        <v>{ 'reg': 75, 'subtipo': 'evaluaciones', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VI. EVALUACIÓN', 'offset':1}, </v>
+        <v>{ 'reg': 75, 'subtipo': 'evaluaciones', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VI. EVALUACIÓN', 'offset':1},</v>
       </c>
       <c r="O64" s="15" t="str">
         <f aca="false">IF(E64=E65,"","{'"&amp;E$1&amp;"': "&amp;E64&amp;", '"&amp;B$1&amp;"': '"&amp;B64&amp;"',  'editing': false, 'tipo': '"&amp;A64&amp;"', 'data': "&amp;"["&amp;N64&amp;"],  },")</f>
@@ -5455,7 +5551,7 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E65" s="7" t="n">
         <v>7</v>
@@ -5467,10 +5563,10 @@
         <v>8</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="J65" s="11" t="n">
         <f aca="false">IF(E64=E65,1,F65)</f>
@@ -5480,15 +5576,15 @@
         <v>102</v>
       </c>
       <c r="L65" s="11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M65" s="11" t="str">
         <f aca="false">+"{ '"&amp;K$1&amp;"': "&amp;K65&amp;", '"&amp;L$1&amp;"': '"&amp;L65&amp;"', '"&amp;F$1&amp;"': "&amp;F65&amp;", '"&amp;G$1&amp;"': "&amp;G65&amp;", '"&amp;H$1&amp;"': '"&amp;H65&amp;"', '"&amp;I$1&amp;"': '"&amp;I65&amp;"', '"&amp;J$1&amp;"':"&amp;J65&amp;"}, "</f>
-        <v>{ 'reg': 102, 'subtipo': 'bibliografias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VII. BIBLIOGRAFÍA', 'offset':1}, </v>
+        <v>{ 'reg': 102, 'subtipo': 'bibliografias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VII. BIBLIOGRAFÍA', 'offset':1},</v>
       </c>
       <c r="N65" s="7" t="str">
         <f aca="false">IF(E64=E65,CONCATENATE(N64,M65),M65)</f>
-        <v>{ 'reg': 102, 'subtipo': 'bibliografias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VII. BIBLIOGRAFÍA', 'offset':1}, </v>
+        <v>{ 'reg': 102, 'subtipo': 'bibliografias', 'col': 1, 'cols': 8, 'align': 'left', 'texto': 'VII. BIBLIOGRAFÍA', 'offset':1},</v>
       </c>
       <c r="O65" s="15" t="str">
         <f aca="false">IF(E65=E66,"","{'"&amp;E$1&amp;"': "&amp;E65&amp;", '"&amp;B$1&amp;"': '"&amp;B65&amp;"',  'editing': false, 'tipo': '"&amp;A65&amp;"', 'data': "&amp;"["&amp;N65&amp;"],  },")</f>
@@ -5538,440 +5634,440 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>214</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="I2" s="0" t="s">
         <v>214</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -6012,63 +6108,63 @@
   <sheetData>
     <row r="1" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H1" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="22" t="s">
-        <v>31</v>
-      </c>
       <c r="J1" s="22" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="N1" s="22" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="23" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E2" s="25"/>
     </row>
@@ -6078,7 +6174,7 @@
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
       <c r="E3" s="26" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F3" s="9" t="n">
         <v>1</v>
@@ -6117,7 +6213,7 @@
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
       <c r="E4" s="26" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F4" s="9" t="n">
         <v>0</v>
@@ -6156,7 +6252,7 @@
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
       <c r="E5" s="26" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F5" s="9" t="n">
         <v>0</v>
@@ -6171,10 +6267,10 @@
         <v>1</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="L5" s="9" t="n">
         <v>1</v>
@@ -6183,7 +6279,7 @@
         <v>1</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="O5" s="9" t="n">
         <v>1</v>
@@ -6195,7 +6291,7 @@
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
       <c r="E6" s="26" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F6" s="9" t="n">
         <v>0</v>
@@ -6210,10 +6306,10 @@
         <v>0</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="L6" s="9" t="n">
         <v>1</v>
@@ -6222,7 +6318,7 @@
         <v>1</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="O6" s="9" t="n">
         <v>1</v>
@@ -6260,28 +6356,28 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C10" s="0"/>
       <c r="D10" s="25" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6309,16 +6405,16 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -6356,76 +6452,76 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -6465,200 +6561,200 @@
   <sheetData>
     <row r="1" s="28" customFormat="true" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="28" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="I1" s="28" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="J1" s="28" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="K1" s="28" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="L1" s="28" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D2" s="9" t="n">
         <v>0</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D4" s="9" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="J5" s="30" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K5" s="30" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D6" s="9" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D8" s="9" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D9" s="9" t="n">
         <v>99</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="H9" s="30" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="J9" s="30" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K9" s="30" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D10" s="9" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
